--- a/stock_data_raw.xlsx
+++ b/stock_data_raw.xlsx
@@ -659,19 +659,19 @@
         <v>45659</v>
       </c>
       <c r="B2" t="n">
-        <v>247.8092047827055</v>
+        <v>247.8092359360387</v>
       </c>
       <c r="C2" t="n">
-        <v>247.9784527382305</v>
+        <v>247.9784839128408</v>
       </c>
       <c r="D2" t="n">
-        <v>240.731231586112</v>
+        <v>240.7312618496379</v>
       </c>
       <c r="E2" t="n">
-        <v>242.7520904541016</v>
+        <v>242.7521209716797</v>
       </c>
       <c r="F2" t="n">
-        <v>242.7520904541016</v>
+        <v>242.7521209716797</v>
       </c>
       <c r="G2" t="n">
         <v>55740700</v>
@@ -722,19 +722,19 @@
         <v>45660</v>
       </c>
       <c r="B3" t="n">
-        <v>242.2642974853516</v>
+        <v>242.2643127441406</v>
       </c>
       <c r="C3" t="n">
-        <v>243.080597621679</v>
+        <v>243.080612931882</v>
       </c>
       <c r="D3" t="n">
-        <v>240.800914792456</v>
+        <v>240.8009299590752</v>
       </c>
       <c r="E3" t="n">
-        <v>242.2642974853516</v>
+        <v>242.2643127441406</v>
       </c>
       <c r="F3" t="n">
-        <v>242.2642974853516</v>
+        <v>242.2643127441406</v>
       </c>
       <c r="G3" t="n">
         <v>40244100</v>
@@ -848,19 +848,19 @@
         <v>45664</v>
       </c>
       <c r="B5" t="n">
-        <v>241.8859985205852</v>
+        <v>241.8860138278822</v>
       </c>
       <c r="C5" t="n">
-        <v>244.4444346007346</v>
+        <v>244.4444500699373</v>
       </c>
       <c r="D5" t="n">
-        <v>240.263347789176</v>
+        <v>240.2633629937866</v>
       </c>
       <c r="E5" t="n">
-        <v>241.1194763183594</v>
+        <v>241.1194915771484</v>
       </c>
       <c r="F5" t="n">
-        <v>241.1194763183594</v>
+        <v>241.1194915771484</v>
       </c>
       <c r="G5" t="n">
         <v>40856000</v>
@@ -911,19 +911,19 @@
         <v>45665</v>
       </c>
       <c r="B6" t="n">
-        <v>240.8307823588735</v>
+        <v>240.8307671491237</v>
       </c>
       <c r="C6" t="n">
-        <v>242.6127316047624</v>
+        <v>242.6127162824731</v>
       </c>
       <c r="D6" t="n">
-        <v>238.9692066706783</v>
+        <v>238.969191578497</v>
       </c>
       <c r="E6" t="n">
-        <v>241.6072692871094</v>
+        <v>241.6072540283203</v>
       </c>
       <c r="F6" t="n">
-        <v>241.6072692871094</v>
+        <v>241.6072540283203</v>
       </c>
       <c r="G6" t="n">
         <v>37628900</v>
@@ -974,19 +974,19 @@
         <v>45667</v>
       </c>
       <c r="B7" t="n">
-        <v>238.9293914792433</v>
+        <v>238.9293760168756</v>
       </c>
       <c r="C7" t="n">
-        <v>239.0787252445285</v>
+        <v>239.0787097724967</v>
       </c>
       <c r="D7" t="n">
-        <v>231.9509582467745</v>
+        <v>231.9509432360177</v>
       </c>
       <c r="E7" t="n">
-        <v>235.7836303710938</v>
+        <v>235.7836151123047</v>
       </c>
       <c r="F7" t="n">
-        <v>235.7836303710938</v>
+        <v>235.7836151123047</v>
       </c>
       <c r="G7" t="n">
         <v>61710900</v>
@@ -1037,19 +1037,19 @@
         <v>45670</v>
       </c>
       <c r="B8" t="n">
-        <v>232.4785721472169</v>
+        <v>232.4785569450621</v>
       </c>
       <c r="C8" t="n">
-        <v>233.6134388955554</v>
+        <v>233.6134236191898</v>
       </c>
       <c r="D8" t="n">
-        <v>228.6857284143509</v>
+        <v>228.6857134602163</v>
       </c>
       <c r="E8" t="n">
-        <v>233.3446502685547</v>
+        <v>233.3446350097656</v>
       </c>
       <c r="F8" t="n">
-        <v>233.3446502685547</v>
+        <v>233.3446350097656</v>
       </c>
       <c r="G8" t="n">
         <v>49630700</v>
@@ -1163,19 +1163,19 @@
         <v>45672</v>
       </c>
       <c r="B10" t="n">
-        <v>233.5835582088168</v>
+        <v>233.5835431572242</v>
       </c>
       <c r="C10" t="n">
-        <v>237.8841151680055</v>
+        <v>237.8840998392947</v>
       </c>
       <c r="D10" t="n">
-        <v>233.3744970274307</v>
+        <v>233.3744819893095</v>
       </c>
       <c r="E10" t="n">
-        <v>236.7990112304688</v>
+        <v>236.7989959716797</v>
       </c>
       <c r="F10" t="n">
-        <v>236.7990112304688</v>
+        <v>236.7989959716797</v>
       </c>
       <c r="G10" t="n">
         <v>39832000</v>
@@ -1226,19 +1226,19 @@
         <v>45673</v>
       </c>
       <c r="B11" t="n">
-        <v>236.2813695865115</v>
+        <v>236.2813854529523</v>
       </c>
       <c r="C11" t="n">
-        <v>236.9383864807084</v>
+        <v>236.9384023912682</v>
       </c>
       <c r="D11" t="n">
-        <v>227.0033243432251</v>
+        <v>227.0033395866394</v>
       </c>
       <c r="E11" t="n">
-        <v>227.2322845458984</v>
+        <v>227.2322998046875</v>
       </c>
       <c r="F11" t="n">
-        <v>227.2322845458984</v>
+        <v>227.2322998046875</v>
       </c>
       <c r="G11" t="n">
         <v>71759100</v>
@@ -1352,19 +1352,19 @@
         <v>45678</v>
       </c>
       <c r="B13" t="n">
-        <v>222.9914505136237</v>
+        <v>222.9914658656214</v>
       </c>
       <c r="C13" t="n">
-        <v>223.4095576605263</v>
+        <v>223.4095730413088</v>
       </c>
       <c r="D13" t="n">
-        <v>218.3922567076081</v>
+        <v>218.3922717429711</v>
       </c>
       <c r="E13" t="n">
-        <v>221.6375732421875</v>
+        <v>221.6375885009766</v>
       </c>
       <c r="F13" t="n">
-        <v>221.6375732421875</v>
+        <v>221.6375885009766</v>
       </c>
       <c r="G13" t="n">
         <v>98070400</v>
@@ -1415,19 +1415,19 @@
         <v>45679</v>
       </c>
       <c r="B14" t="n">
-        <v>218.8004161981228</v>
+        <v>218.8004012147465</v>
       </c>
       <c r="C14" t="n">
-        <v>223.1109227348787</v>
+        <v>223.1109074563204</v>
       </c>
       <c r="D14" t="n">
-        <v>218.8004161981228</v>
+        <v>218.8004012147465</v>
       </c>
       <c r="E14" t="n">
-        <v>222.8222351074219</v>
+        <v>222.8222198486328</v>
       </c>
       <c r="F14" t="n">
-        <v>222.8222351074219</v>
+        <v>222.8222198486328</v>
       </c>
       <c r="G14" t="n">
         <v>64126500</v>
@@ -1478,19 +1478,19 @@
         <v>45680</v>
       </c>
       <c r="B15" t="n">
-        <v>223.7281544557755</v>
+        <v>223.7281391233053</v>
       </c>
       <c r="C15" t="n">
-        <v>226.0078374632505</v>
+        <v>226.0078219745498</v>
       </c>
       <c r="D15" t="n">
-        <v>221.2991376819906</v>
+        <v>221.299122515985</v>
       </c>
       <c r="E15" t="n">
-        <v>222.6530151367188</v>
+        <v>222.6529998779297</v>
       </c>
       <c r="F15" t="n">
-        <v>222.6530151367188</v>
+        <v>222.6529998779297</v>
       </c>
       <c r="G15" t="n">
         <v>60234800</v>
@@ -1667,19 +1667,19 @@
         <v>45685</v>
       </c>
       <c r="B18" t="n">
-        <v>229.8106153055851</v>
+        <v>229.8106300898193</v>
       </c>
       <c r="C18" t="n">
-        <v>239.1085587693599</v>
+        <v>239.1085741517517</v>
       </c>
       <c r="D18" t="n">
-        <v>229.7707868971689</v>
+        <v>229.7708016788408</v>
       </c>
       <c r="E18" t="n">
-        <v>237.1872406005859</v>
+        <v>237.187255859375</v>
       </c>
       <c r="F18" t="n">
-        <v>237.1872406005859</v>
+        <v>237.187255859375</v>
       </c>
       <c r="G18" t="n">
         <v>75707600</v>
@@ -1730,19 +1730,19 @@
         <v>45686</v>
       </c>
       <c r="B19" t="n">
-        <v>233.0658900359753</v>
+        <v>233.065904960723</v>
       </c>
       <c r="C19" t="n">
-        <v>238.7800516495788</v>
+        <v>238.780066940242</v>
       </c>
       <c r="D19" t="n">
-        <v>232.9563846938824</v>
+        <v>232.9563996116177</v>
       </c>
       <c r="E19" t="n">
-        <v>238.2823028564453</v>
+        <v>238.2823181152344</v>
       </c>
       <c r="F19" t="n">
-        <v>238.2823028564453</v>
+        <v>238.2823181152344</v>
       </c>
       <c r="G19" t="n">
         <v>45486100</v>
@@ -1793,19 +1793,19 @@
         <v>45687</v>
       </c>
       <c r="B20" t="n">
-        <v>237.5954181968957</v>
+        <v>237.5954028687454</v>
       </c>
       <c r="C20" t="n">
-        <v>239.7058683175974</v>
+        <v>239.7058528532943</v>
       </c>
       <c r="D20" t="n">
-        <v>236.1420001594612</v>
+        <v>236.1419849250763</v>
       </c>
       <c r="E20" t="n">
-        <v>236.5202789306641</v>
+        <v>236.520263671875</v>
       </c>
       <c r="F20" t="n">
-        <v>236.5202789306641</v>
+        <v>236.520263671875</v>
       </c>
       <c r="G20" t="n">
         <v>55658300</v>
@@ -1919,19 +1919,19 @@
         <v>45691</v>
       </c>
       <c r="B22" t="n">
-        <v>228.9544945887561</v>
+        <v>228.9545099800506</v>
       </c>
       <c r="C22" t="n">
-        <v>230.7862064959043</v>
+        <v>230.7862220103343</v>
       </c>
       <c r="D22" t="n">
-        <v>224.6838014511222</v>
+        <v>224.6838165553226</v>
       </c>
       <c r="E22" t="n">
-        <v>226.9833984375</v>
+        <v>226.9834136962891</v>
       </c>
       <c r="F22" t="n">
-        <v>226.9833984375</v>
+        <v>226.9834136962891</v>
       </c>
       <c r="G22" t="n">
         <v>73063300</v>
@@ -1982,19 +1982,19 @@
         <v>45692</v>
       </c>
       <c r="B23" t="n">
-        <v>226.226846442903</v>
+        <v>226.2268315478868</v>
       </c>
       <c r="C23" t="n">
-        <v>232.0803776275347</v>
+        <v>232.0803623471157</v>
       </c>
       <c r="D23" t="n">
-        <v>225.6295417623977</v>
+        <v>225.6295269067087</v>
       </c>
       <c r="E23" t="n">
-        <v>231.7518615722656</v>
+        <v>231.7518463134766</v>
       </c>
       <c r="F23" t="n">
-        <v>231.7518615722656</v>
+        <v>231.7518463134766</v>
       </c>
       <c r="G23" t="n">
         <v>45067300</v>
@@ -2045,19 +2045,19 @@
         <v>45693</v>
       </c>
       <c r="B24" t="n">
-        <v>227.5010766734706</v>
+        <v>227.5010616732941</v>
       </c>
       <c r="C24" t="n">
-        <v>231.6224363356746</v>
+        <v>231.6224210637583</v>
       </c>
       <c r="D24" t="n">
-        <v>227.2422527529774</v>
+        <v>227.2422377698664</v>
       </c>
       <c r="E24" t="n">
-        <v>231.42333984375</v>
+        <v>231.4233245849609</v>
       </c>
       <c r="F24" t="n">
-        <v>231.42333984375</v>
+        <v>231.4233245849609</v>
       </c>
       <c r="G24" t="n">
         <v>39620300</v>
@@ -2171,19 +2171,19 @@
         <v>45695</v>
       </c>
       <c r="B26" t="n">
-        <v>231.5527731433828</v>
+        <v>231.5527419594936</v>
       </c>
       <c r="C26" t="n">
-        <v>232.9464638596698</v>
+        <v>232.9464324880882</v>
       </c>
       <c r="D26" t="n">
-        <v>226.2368038339121</v>
+        <v>226.2367733659399</v>
       </c>
       <c r="E26" t="n">
-        <v>226.6051483154297</v>
+        <v>226.6051177978516</v>
       </c>
       <c r="F26" t="n">
-        <v>226.6051483154297</v>
+        <v>226.6051177978516</v>
       </c>
       <c r="G26" t="n">
         <v>39707200</v>
@@ -2297,19 +2297,19 @@
         <v>45699</v>
       </c>
       <c r="B28" t="n">
-        <v>227.4223198813819</v>
+        <v>227.4223348502397</v>
       </c>
       <c r="C28" t="n">
-        <v>234.4283613035192</v>
+        <v>234.4283767335121</v>
       </c>
       <c r="D28" t="n">
-        <v>227.3525663401629</v>
+        <v>227.3525813044295</v>
       </c>
       <c r="E28" t="n">
-        <v>231.8272552490234</v>
+        <v>231.8272705078125</v>
       </c>
       <c r="F28" t="n">
-        <v>231.8272552490234</v>
+        <v>231.8272705078125</v>
       </c>
       <c r="G28" t="n">
         <v>53718400</v>
@@ -2486,19 +2486,19 @@
         <v>45702</v>
       </c>
       <c r="B31" t="n">
-        <v>240.4278440984732</v>
+        <v>240.4278591482801</v>
       </c>
       <c r="C31" t="n">
-        <v>244.7131931693581</v>
+        <v>244.7132084874105</v>
       </c>
       <c r="D31" t="n">
-        <v>240.1687356269457</v>
+        <v>240.1687506605335</v>
       </c>
       <c r="E31" t="n">
-        <v>243.7664337158203</v>
+        <v>243.7664489746094</v>
       </c>
       <c r="F31" t="n">
-        <v>243.7664337158203</v>
+        <v>243.7664489746094</v>
       </c>
       <c r="G31" t="n">
         <v>40896200</v>
@@ -2675,19 +2675,19 @@
         <v>45708</v>
       </c>
       <c r="B34" t="n">
-        <v>244.1052973389922</v>
+        <v>244.1052821354459</v>
       </c>
       <c r="C34" t="n">
-        <v>245.9390233481642</v>
+        <v>245.9390080304084</v>
       </c>
       <c r="D34" t="n">
-        <v>243.4575032811023</v>
+        <v>243.4574881179023</v>
       </c>
       <c r="E34" t="n">
-        <v>244.9922637939453</v>
+        <v>244.9922485351562</v>
       </c>
       <c r="F34" t="n">
-        <v>244.9922637939453</v>
+        <v>244.9922485351562</v>
       </c>
       <c r="G34" t="n">
         <v>32316900</v>
@@ -3116,19 +3116,19 @@
         <v>45719</v>
       </c>
       <c r="B41" t="n">
-        <v>240.9659917728134</v>
+        <v>240.966007272635</v>
       </c>
       <c r="C41" t="n">
-        <v>243.1983635012748</v>
+        <v>243.1983791446907</v>
       </c>
       <c r="D41" t="n">
-        <v>235.3053560708129</v>
+        <v>235.3053712065215</v>
       </c>
       <c r="E41" t="n">
-        <v>237.2188110351562</v>
+        <v>237.2188262939453</v>
       </c>
       <c r="F41" t="n">
-        <v>237.2188110351562</v>
+        <v>237.2188262939453</v>
       </c>
       <c r="G41" t="n">
         <v>47184000</v>
@@ -3305,19 +3305,19 @@
         <v>45722</v>
       </c>
       <c r="B44" t="n">
-        <v>233.6410639981791</v>
+        <v>233.6410791992606</v>
       </c>
       <c r="C44" t="n">
-        <v>237.0494072960082</v>
+        <v>237.0494227188423</v>
       </c>
       <c r="D44" t="n">
-        <v>232.3654272740836</v>
+        <v>232.3654423921701</v>
       </c>
       <c r="E44" t="n">
-        <v>234.5280303955078</v>
+        <v>234.5280456542969</v>
       </c>
       <c r="F44" t="n">
-        <v>234.5280303955078</v>
+        <v>234.5280456542969</v>
       </c>
       <c r="G44" t="n">
         <v>45170400</v>
@@ -3746,19 +3746,19 @@
         <v>45733</v>
       </c>
       <c r="B51" t="n">
-        <v>212.5830704146544</v>
+        <v>212.5830552050643</v>
       </c>
       <c r="C51" t="n">
-        <v>214.4865650827039</v>
+        <v>214.4865497369254</v>
       </c>
       <c r="D51" t="n">
-        <v>209.2544562624393</v>
+        <v>209.2544412910003</v>
       </c>
       <c r="E51" t="n">
-        <v>213.2707214355469</v>
+        <v>213.2707061767578</v>
       </c>
       <c r="F51" t="n">
-        <v>213.2707214355469</v>
+        <v>213.2707061767578</v>
       </c>
       <c r="G51" t="n">
         <v>48073400</v>
@@ -3998,19 +3998,19 @@
         <v>45737</v>
       </c>
       <c r="B55" t="n">
-        <v>210.8390437188948</v>
+        <v>210.8390289291879</v>
       </c>
       <c r="C55" t="n">
-        <v>218.0942337293625</v>
+        <v>218.0942184307265</v>
       </c>
       <c r="D55" t="n">
-        <v>210.5599991190145</v>
+        <v>210.5599843488818</v>
       </c>
       <c r="E55" t="n">
-        <v>217.5261840820312</v>
+        <v>217.5261688232422</v>
       </c>
       <c r="F55" t="n">
-        <v>217.5261840820312</v>
+        <v>217.5261688232422</v>
       </c>
       <c r="G55" t="n">
         <v>94127800</v>
@@ -4061,19 +4061,19 @@
         <v>45740</v>
       </c>
       <c r="B56" t="n">
-        <v>220.2468673442068</v>
+        <v>220.2468520667527</v>
       </c>
       <c r="C56" t="n">
-        <v>220.7252273230714</v>
+        <v>220.7252120124358</v>
       </c>
       <c r="D56" t="n">
-        <v>217.8351161419945</v>
+        <v>217.8351010318318</v>
       </c>
       <c r="E56" t="n">
-        <v>219.977783203125</v>
+        <v>219.9777679443359</v>
       </c>
       <c r="F56" t="n">
-        <v>219.977783203125</v>
+        <v>219.9777679443359</v>
       </c>
       <c r="G56" t="n">
         <v>44299500</v>
@@ -4124,19 +4124,19 @@
         <v>45741</v>
       </c>
       <c r="B57" t="n">
-        <v>220.017662576277</v>
+        <v>220.0176475207108</v>
       </c>
       <c r="C57" t="n">
-        <v>223.3363164018174</v>
+        <v>223.3363011191594</v>
       </c>
       <c r="D57" t="n">
-        <v>219.3300115304276</v>
+        <v>219.3299965219166</v>
       </c>
       <c r="E57" t="n">
-        <v>222.9875030517578</v>
+        <v>222.9874877929688</v>
       </c>
       <c r="F57" t="n">
-        <v>222.9875030517578</v>
+        <v>222.9874877929688</v>
       </c>
       <c r="G57" t="n">
         <v>34493600</v>
@@ -4250,19 +4250,19 @@
         <v>45743</v>
       </c>
       <c r="B59" t="n">
-        <v>220.6355348303588</v>
+        <v>220.6355499214609</v>
       </c>
       <c r="C59" t="n">
-        <v>224.2232726425071</v>
+        <v>224.2232879790045</v>
       </c>
       <c r="D59" t="n">
-        <v>219.8083615234804</v>
+        <v>219.8083765580053</v>
       </c>
       <c r="E59" t="n">
-        <v>223.087158203125</v>
+        <v>223.0871734619141</v>
       </c>
       <c r="F59" t="n">
-        <v>223.087158203125</v>
+        <v>223.0871734619141</v>
       </c>
       <c r="G59" t="n">
         <v>37094800</v>
@@ -4439,19 +4439,19 @@
         <v>45748</v>
       </c>
       <c r="B62" t="n">
-        <v>219.0609263806537</v>
+        <v>219.0609113529448</v>
       </c>
       <c r="C62" t="n">
-        <v>222.9177332815032</v>
+        <v>222.9177179892151</v>
       </c>
       <c r="D62" t="n">
-        <v>218.1540238400705</v>
+        <v>218.1540088745757</v>
       </c>
       <c r="E62" t="n">
-        <v>222.4294128417969</v>
+        <v>222.4293975830078</v>
       </c>
       <c r="F62" t="n">
-        <v>222.4294128417969</v>
+        <v>222.4293975830078</v>
       </c>
       <c r="G62" t="n">
         <v>36412700</v>
@@ -4502,19 +4502,19 @@
         <v>45749</v>
       </c>
       <c r="B63" t="n">
-        <v>220.5657953452804</v>
+        <v>220.5657802616442</v>
       </c>
       <c r="C63" t="n">
-        <v>224.4226023340601</v>
+        <v>224.4225869866718</v>
       </c>
       <c r="D63" t="n">
-        <v>220.2668146407477</v>
+        <v>220.2667995775576</v>
       </c>
       <c r="E63" t="n">
-        <v>223.1270294189453</v>
+        <v>223.1270141601562</v>
       </c>
       <c r="F63" t="n">
-        <v>223.1270294189453</v>
+        <v>223.1270141601562</v>
       </c>
       <c r="G63" t="n">
         <v>35905900</v>
@@ -4754,19 +4754,19 @@
         <v>45755</v>
       </c>
       <c r="B67" t="n">
-        <v>186.0637305548024</v>
+        <v>186.0637470773399</v>
       </c>
       <c r="C67" t="n">
-        <v>189.691324966831</v>
+        <v>189.6913418115003</v>
       </c>
       <c r="D67" t="n">
-        <v>168.6333455330125</v>
+        <v>168.6333605077243</v>
       </c>
       <c r="E67" t="n">
-        <v>171.8323974609375</v>
+        <v>171.8324127197266</v>
       </c>
       <c r="F67" t="n">
-        <v>171.8323974609375</v>
+        <v>171.8324127197266</v>
       </c>
       <c r="G67" t="n">
         <v>120859500</v>
@@ -4817,19 +4817,19 @@
         <v>45756</v>
       </c>
       <c r="B68" t="n">
-        <v>171.3640110222038</v>
+        <v>171.3640242168161</v>
       </c>
       <c r="C68" t="n">
-        <v>199.926344669284</v>
+        <v>199.9263600631265</v>
       </c>
       <c r="D68" t="n">
-        <v>171.3042179284287</v>
+        <v>171.304231118437</v>
       </c>
       <c r="E68" t="n">
-        <v>198.1723480224609</v>
+        <v>198.17236328125</v>
       </c>
       <c r="F68" t="n">
-        <v>198.1723480224609</v>
+        <v>198.17236328125</v>
       </c>
       <c r="G68" t="n">
         <v>184395900</v>
@@ -4943,19 +4943,19 @@
         <v>45758</v>
       </c>
       <c r="B70" t="n">
-        <v>185.4657936896058</v>
+        <v>185.4658080204705</v>
       </c>
       <c r="C70" t="n">
-        <v>198.8599785807966</v>
+        <v>198.8599939466243</v>
       </c>
       <c r="D70" t="n">
-        <v>185.4259214902779</v>
+        <v>185.4259358180616</v>
       </c>
       <c r="E70" t="n">
-        <v>197.4747161865234</v>
+        <v>197.4747314453125</v>
       </c>
       <c r="F70" t="n">
-        <v>197.4747161865234</v>
+        <v>197.4747314453125</v>
       </c>
       <c r="G70" t="n">
         <v>87435900</v>
@@ -5447,19 +5447,19 @@
         <v>45771</v>
       </c>
       <c r="B78" t="n">
-        <v>204.1917605029567</v>
+        <v>204.1917755069081</v>
       </c>
       <c r="C78" t="n">
-        <v>208.118335920465</v>
+        <v>208.1183512129401</v>
       </c>
       <c r="D78" t="n">
-        <v>202.248408894664</v>
+        <v>202.2484237558185</v>
       </c>
       <c r="E78" t="n">
-        <v>207.6598968505859</v>
+        <v>207.659912109375</v>
       </c>
       <c r="F78" t="n">
-        <v>207.6598968505859</v>
+        <v>207.659912109375</v>
       </c>
       <c r="G78" t="n">
         <v>47311000</v>
@@ -5825,19 +5825,19 @@
         <v>45779</v>
       </c>
       <c r="B84" t="n">
-        <v>205.3876759905618</v>
+        <v>205.3876606767868</v>
       </c>
       <c r="C84" t="n">
-        <v>206.2846180646874</v>
+        <v>206.2846026840361</v>
       </c>
       <c r="D84" t="n">
-        <v>201.4710760745947</v>
+        <v>201.4710610528427</v>
       </c>
       <c r="E84" t="n">
-        <v>204.6502075195312</v>
+        <v>204.6501922607422</v>
       </c>
       <c r="F84" t="n">
-        <v>204.6502075195312</v>
+        <v>204.6501922607422</v>
       </c>
       <c r="G84" t="n">
         <v>101010600</v>
@@ -5951,19 +5951,19 @@
         <v>45783</v>
       </c>
       <c r="B86" t="n">
-        <v>197.5345458591726</v>
+        <v>197.5345306234426</v>
       </c>
       <c r="C86" t="n">
-        <v>199.9662180436969</v>
+        <v>199.9662026204134</v>
       </c>
       <c r="D86" t="n">
-        <v>196.3485987128521</v>
+        <v>196.3485835685935</v>
       </c>
       <c r="E86" t="n">
-        <v>197.8335113525391</v>
+        <v>197.83349609375</v>
       </c>
       <c r="F86" t="n">
-        <v>197.8335113525391</v>
+        <v>197.83349609375</v>
       </c>
       <c r="G86" t="n">
         <v>51216500</v>
@@ -9483,7 +9483,7 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
-        <v>124.6159210205078</v>
+        <v>124.6159133911133</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
@@ -9492,16 +9492,16 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>123.0663417544434</v>
+        <v>123.0663342199192</v>
       </c>
       <c r="J142" t="n">
-        <v>124.9658238016908</v>
+        <v>124.9658161508741</v>
       </c>
       <c r="K142" t="n">
-        <v>118.0677088023758</v>
+        <v>118.0677015738842</v>
       </c>
       <c r="L142" t="n">
-        <v>124.6159210205078</v>
+        <v>124.6159133911133</v>
       </c>
       <c r="M142" t="n">
         <v>392925500</v>
@@ -9735,7 +9735,7 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
-        <v>124.7958602905273</v>
+        <v>124.7958679199219</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
@@ -9744,16 +9744,16 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>121.7267002537778</v>
+        <v>121.7267076955392</v>
       </c>
       <c r="J146" t="n">
-        <v>124.9658119642448</v>
+        <v>124.9658196040294</v>
       </c>
       <c r="K146" t="n">
-        <v>120.7269737580638</v>
+        <v>120.726981138707</v>
       </c>
       <c r="L146" t="n">
-        <v>124.7958602905273</v>
+        <v>124.7958679199219</v>
       </c>
       <c r="M146" t="n">
         <v>262230800</v>
@@ -9798,7 +9798,7 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
-        <v>128.6448059082031</v>
+        <v>128.6448211669922</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
@@ -9807,16 +9807,16 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>127.3851559392626</v>
+        <v>127.3851710486424</v>
       </c>
       <c r="J147" t="n">
-        <v>128.7347928917548</v>
+        <v>128.7348081612174</v>
       </c>
       <c r="K147" t="n">
-        <v>125.1757611657051</v>
+        <v>125.1757760130246</v>
       </c>
       <c r="L147" t="n">
-        <v>128.6448059082031</v>
+        <v>128.6448211669922</v>
       </c>
       <c r="M147" t="n">
         <v>251483600</v>
@@ -9987,7 +9987,7 @@
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
-        <v>132.7637023925781</v>
+        <v>132.7636871337891</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
@@ -9996,16 +9996,16 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>132.5437613088415</v>
+        <v>132.5437460753307</v>
       </c>
       <c r="J150" t="n">
-        <v>134.4432358451655</v>
+        <v>134.4432203933444</v>
       </c>
       <c r="K150" t="n">
-        <v>130.9841901729766</v>
+        <v>130.9841751187103</v>
       </c>
       <c r="L150" t="n">
-        <v>132.7637023925781</v>
+        <v>132.7636871337891</v>
       </c>
       <c r="M150" t="n">
         <v>178902400</v>
@@ -10743,7 +10743,7 @@
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="n">
-        <v>124.8858413696289</v>
+        <v>124.8858337402344</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
@@ -10752,16 +10752,16 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>117.9877265069813</v>
+        <v>117.9877192989992</v>
       </c>
       <c r="J162" t="n">
-        <v>125.055793056078</v>
+        <v>125.055785416301</v>
       </c>
       <c r="K162" t="n">
-        <v>116.3681743440759</v>
+        <v>116.3681672350338</v>
       </c>
       <c r="L162" t="n">
-        <v>124.8858413696289</v>
+        <v>124.8858337402344</v>
       </c>
       <c r="M162" t="n">
         <v>389091100</v>
@@ -11121,7 +11121,7 @@
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="n">
-        <v>106.9507522583008</v>
+        <v>106.9507446289062</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
@@ -11130,16 +11130,16 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>109.8699520242571</v>
+        <v>109.8699441866197</v>
       </c>
       <c r="J168" t="n">
-        <v>111.819415792921</v>
+        <v>111.8194078162175</v>
       </c>
       <c r="K168" t="n">
-        <v>105.4311635943041</v>
+        <v>105.4311560733103</v>
       </c>
       <c r="L168" t="n">
-        <v>106.9507522583008</v>
+        <v>106.9507446289062</v>
       </c>
       <c r="M168" t="n">
         <v>366487400</v>
@@ -11247,7 +11247,7 @@
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="n">
-        <v>115.7190017700195</v>
+        <v>115.718994140625</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
@@ -11256,16 +11256,16 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>114.0993005319575</v>
+        <v>114.0992930093504</v>
       </c>
       <c r="J170" t="n">
-        <v>116.7388210061428</v>
+        <v>116.7388133095112</v>
       </c>
       <c r="K170" t="n">
-        <v>112.8595199849837</v>
+        <v>112.8595125441159</v>
       </c>
       <c r="L170" t="n">
-        <v>115.7190017700195</v>
+        <v>115.718994140625</v>
       </c>
       <c r="M170" t="n">
         <v>323857500</v>
@@ -11940,7 +11940,7 @@
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="n">
-        <v>111.4097747802734</v>
+        <v>111.409782409668</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>111.3297874702546</v>
+        <v>111.3297950941715</v>
       </c>
       <c r="J181" t="n">
-        <v>114.4292232673931</v>
+        <v>114.4292311035609</v>
       </c>
       <c r="K181" t="n">
-        <v>110.6399178983686</v>
+        <v>110.639925475043</v>
       </c>
       <c r="L181" t="n">
-        <v>111.4097747802734</v>
+        <v>111.409782409668</v>
       </c>
       <c r="M181" t="n">
         <v>236902100</v>
@@ -12003,7 +12003,7 @@
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="n">
-        <v>109.6500930786133</v>
+        <v>109.6501007080078</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
@@ -12012,16 +12012,16 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>111.4697624437308</v>
+        <v>111.4697701997369</v>
       </c>
       <c r="J182" t="n">
-        <v>112.8495168558375</v>
+        <v>112.8495247078462</v>
       </c>
       <c r="K182" t="n">
-        <v>109.0502035041368</v>
+        <v>109.0502110917914</v>
       </c>
       <c r="L182" t="n">
-        <v>109.6500930786133</v>
+        <v>109.6501007080078</v>
       </c>
       <c r="M182" t="n">
         <v>229872500</v>
@@ -13326,7 +13326,7 @@
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="n">
-        <v>109.0002136230469</v>
+        <v>109.0002059936523</v>
       </c>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr">
@@ -13335,16 +13335,16 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>107.6504601227623</v>
+        <v>107.6504525878429</v>
       </c>
       <c r="J203" t="n">
-        <v>110.1799998026459</v>
+        <v>110.179992090673</v>
       </c>
       <c r="K203" t="n">
-        <v>107.4205061307784</v>
+        <v>107.4204986119544</v>
       </c>
       <c r="L203" t="n">
-        <v>109.0002136230469</v>
+        <v>109.0002059936523</v>
       </c>
       <c r="M203" t="n">
         <v>170444300</v>
@@ -13578,7 +13578,7 @@
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="n">
-        <v>113.7993469238281</v>
+        <v>113.7993392944336</v>
       </c>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
@@ -13587,16 +13587,16 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>112.8895160109492</v>
+        <v>112.889508442552</v>
       </c>
       <c r="J207" t="n">
-        <v>114.6491911647399</v>
+        <v>114.6491834783697</v>
       </c>
       <c r="K207" t="n">
-        <v>112.6395613737392</v>
+        <v>112.6395538220996</v>
       </c>
       <c r="L207" t="n">
-        <v>113.7993469238281</v>
+        <v>113.7993392944336</v>
       </c>
       <c r="M207" t="n">
         <v>133163200</v>
@@ -13893,7 +13893,7 @@
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
-        <v>122.9776840209961</v>
+        <v>122.9776763916016</v>
       </c>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr">
@@ -13902,16 +13902,16 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>121.9478721151231</v>
+        <v>121.9478645496169</v>
       </c>
       <c r="J212" t="n">
-        <v>122.9776840209961</v>
+        <v>122.9776763916016</v>
       </c>
       <c r="K212" t="n">
-        <v>120.2581762920827</v>
+        <v>120.2581688314033</v>
       </c>
       <c r="L212" t="n">
-        <v>122.9776840209961</v>
+        <v>122.9776763916016</v>
       </c>
       <c r="M212" t="n">
         <v>225023300</v>
@@ -16035,7 +16035,7 @@
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="n">
-        <v>235.0247497558594</v>
+        <v>235.0247650146484</v>
       </c>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr">
@@ -16049,16 +16049,16 @@
       <c r="L246" t="inlineStr"/>
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="n">
-        <v>235.9256761701603</v>
+        <v>235.9256914874413</v>
       </c>
       <c r="O246" t="n">
-        <v>238.2367534737918</v>
+        <v>238.2367689411175</v>
       </c>
       <c r="P246" t="n">
-        <v>234.486148382508</v>
+        <v>234.4861636063288</v>
       </c>
       <c r="Q246" t="n">
-        <v>235.0247497558594</v>
+        <v>235.0247650146484</v>
       </c>
       <c r="R246" t="n">
         <v>9220900</v>
@@ -16350,7 +16350,7 @@
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="n">
-        <v>236.1106109619141</v>
+        <v>236.1106262207031</v>
       </c>
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr">
@@ -16364,16 +16364,16 @@
       <c r="L251" t="inlineStr"/>
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="n">
-        <v>239.2801464227661</v>
+        <v>239.2801618863882</v>
       </c>
       <c r="O251" t="n">
-        <v>239.988863359332</v>
+        <v>239.9888788687554</v>
       </c>
       <c r="P251" t="n">
-        <v>234.9983312022949</v>
+        <v>234.9983463892022</v>
       </c>
       <c r="Q251" t="n">
-        <v>236.1106109619141</v>
+        <v>236.1106262207031</v>
       </c>
       <c r="R251" t="n">
         <v>10256800</v>
@@ -16413,7 +16413,7 @@
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="n">
-        <v>240.3826293945312</v>
+        <v>240.3825988769531</v>
       </c>
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr">
@@ -16427,16 +16427,16 @@
       <c r="L252" t="inlineStr"/>
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="n">
-        <v>235.9137740589649</v>
+        <v>235.9137441087266</v>
       </c>
       <c r="O252" t="n">
-        <v>240.7074442576627</v>
+        <v>240.707413698848</v>
       </c>
       <c r="P252" t="n">
-        <v>235.2542764253184</v>
+        <v>235.2542465588061</v>
       </c>
       <c r="Q252" t="n">
-        <v>240.3826293945312</v>
+        <v>240.3825988769531</v>
       </c>
       <c r="R252" t="n">
         <v>10005300</v>
@@ -16539,7 +16539,7 @@
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="n">
-        <v>248.3950347900391</v>
+        <v>248.39501953125</v>
       </c>
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr">
@@ -16553,16 +16553,16 @@
       <c r="L254" t="inlineStr"/>
       <c r="M254" t="inlineStr"/>
       <c r="N254" t="n">
-        <v>246.4755842717465</v>
+        <v>246.4755691308683</v>
       </c>
       <c r="O254" t="n">
-        <v>249.6943391969527</v>
+        <v>249.694323858348</v>
       </c>
       <c r="P254" t="n">
-        <v>239.8609026920641</v>
+        <v>239.8608879575227</v>
       </c>
       <c r="Q254" t="n">
-        <v>248.3950347900391</v>
+        <v>248.39501953125</v>
       </c>
       <c r="R254" t="n">
         <v>18448500</v>
@@ -16665,7 +16665,7 @@
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="n">
-        <v>255.0982971191406</v>
+        <v>255.0983123779297</v>
       </c>
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr">
@@ -16679,16 +16679,16 @@
       <c r="L256" t="inlineStr"/>
       <c r="M256" t="inlineStr"/>
       <c r="N256" t="n">
-        <v>250.1569692778846</v>
+        <v>250.1569842411065</v>
       </c>
       <c r="O256" t="n">
-        <v>256.5354067376623</v>
+        <v>256.5354220824125</v>
       </c>
       <c r="P256" t="n">
-        <v>248.1883144429222</v>
+        <v>248.1883292883884</v>
       </c>
       <c r="Q256" t="n">
-        <v>255.0982971191406</v>
+        <v>255.0983123779297</v>
       </c>
       <c r="R256" t="n">
         <v>17678100</v>
@@ -16854,7 +16854,7 @@
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="n">
-        <v>261.7818908691406</v>
+        <v>261.7819213867188</v>
       </c>
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr">
@@ -16868,16 +16868,16 @@
       <c r="L259" t="inlineStr"/>
       <c r="M259" t="inlineStr"/>
       <c r="N259" t="n">
-        <v>260.5416287002406</v>
+        <v>260.5416590732335</v>
       </c>
       <c r="O259" t="n">
-        <v>262.6776023919139</v>
+        <v>262.6776330139108</v>
       </c>
       <c r="P259" t="n">
-        <v>259.6754157593763</v>
+        <v>259.6754460313892</v>
       </c>
       <c r="Q259" t="n">
-        <v>261.7818908691406</v>
+        <v>261.7819213867188</v>
       </c>
       <c r="R259" t="n">
         <v>10749700</v>
@@ -16917,7 +16917,7 @@
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="n">
-        <v>260.6893005371094</v>
+        <v>260.6892700195312</v>
       </c>
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="inlineStr">
@@ -16931,16 +16931,16 @@
       <c r="L260" t="inlineStr"/>
       <c r="M260" t="inlineStr"/>
       <c r="N260" t="n">
-        <v>259.557329880706</v>
+        <v>259.557299495642</v>
       </c>
       <c r="O260" t="n">
-        <v>262.913890376841</v>
+        <v>262.9138595988413</v>
       </c>
       <c r="P260" t="n">
-        <v>258.8879943669206</v>
+        <v>258.8879640602123</v>
       </c>
       <c r="Q260" t="n">
-        <v>260.6893005371094</v>
+        <v>260.6892700195312</v>
       </c>
       <c r="R260" t="n">
         <v>7666300</v>
@@ -16980,7 +16980,7 @@
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="n">
-        <v>261.6834411621094</v>
+        <v>261.6834716796875</v>
       </c>
       <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr">
@@ -16994,16 +16994,16 @@
       <c r="L261" t="inlineStr"/>
       <c r="M261" t="inlineStr"/>
       <c r="N261" t="n">
-        <v>260.0297783656737</v>
+        <v>260.0298086904014</v>
       </c>
       <c r="O261" t="n">
-        <v>261.8015556419566</v>
+        <v>261.8015861733091</v>
       </c>
       <c r="P261" t="n">
-        <v>258.1497094566725</v>
+        <v>258.1497395621461</v>
       </c>
       <c r="Q261" t="n">
-        <v>261.6834411621094</v>
+        <v>261.6834716796875</v>
       </c>
       <c r="R261" t="n">
         <v>7522300</v>
@@ -17106,7 +17106,7 @@
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="n">
-        <v>262.4019775390625</v>
+        <v>262.4020080566406</v>
       </c>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr">
@@ -17120,16 +17120,16 @@
       <c r="L263" t="inlineStr"/>
       <c r="M263" t="inlineStr"/>
       <c r="N263" t="n">
-        <v>263.0221085895397</v>
+        <v>263.0221391792397</v>
       </c>
       <c r="O263" t="n">
-        <v>266.4377257710217</v>
+        <v>266.4377567579609</v>
       </c>
       <c r="P263" t="n">
-        <v>261.4471787869109</v>
+        <v>261.4472091934451</v>
       </c>
       <c r="Q263" t="n">
-        <v>262.4019775390625</v>
+        <v>262.4020080566406</v>
       </c>
       <c r="R263" t="n">
         <v>7684900</v>
@@ -17295,7 +17295,7 @@
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="n">
-        <v>262.6283874511719</v>
+        <v>262.62841796875</v>
       </c>
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr">
@@ -17309,16 +17309,16 @@
       <c r="L266" t="inlineStr"/>
       <c r="M266" t="inlineStr"/>
       <c r="N266" t="n">
-        <v>257.7264262548293</v>
+        <v>257.7264562027966</v>
       </c>
       <c r="O266" t="n">
-        <v>263.9670883165394</v>
+        <v>263.9671189896754</v>
       </c>
       <c r="P266" t="n">
-        <v>257.5984889276532</v>
+        <v>257.5985188607542</v>
       </c>
       <c r="Q266" t="n">
-        <v>262.6283874511719</v>
+        <v>262.62841796875</v>
       </c>
       <c r="R266" t="n">
         <v>8381400</v>
@@ -17358,7 +17358,7 @@
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="n">
-        <v>263.74072265625</v>
+        <v>263.7406921386719</v>
       </c>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr">
@@ -17372,16 +17372,16 @@
       <c r="L267" t="inlineStr"/>
       <c r="M267" t="inlineStr"/>
       <c r="N267" t="n">
-        <v>265.6109389686158</v>
+        <v>265.610908234634</v>
       </c>
       <c r="O267" t="n">
-        <v>265.6109389686158</v>
+        <v>265.610908234634</v>
       </c>
       <c r="P267" t="n">
-        <v>262.6481034697921</v>
+        <v>262.6480730786415</v>
       </c>
       <c r="Q267" t="n">
-        <v>263.74072265625</v>
+        <v>263.7406921386719</v>
       </c>
       <c r="R267" t="n">
         <v>5626000</v>
@@ -17421,7 +17421,7 @@
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="n">
-        <v>266.191650390625</v>
+        <v>266.1916809082031</v>
       </c>
       <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr">
@@ -17435,16 +17435,16 @@
       <c r="L268" t="inlineStr"/>
       <c r="M268" t="inlineStr"/>
       <c r="N268" t="n">
-        <v>264.6954835634121</v>
+        <v>264.695513909462</v>
       </c>
       <c r="O268" t="n">
-        <v>266.3983807719947</v>
+        <v>266.3984113132734</v>
       </c>
       <c r="P268" t="n">
-        <v>264.1245568519457</v>
+        <v>264.1245871325415</v>
       </c>
       <c r="Q268" t="n">
-        <v>266.191650390625</v>
+        <v>266.1916809082031</v>
       </c>
       <c r="R268" t="n">
         <v>5704400</v>
@@ -17484,7 +17484,7 @@
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="n">
-        <v>272.5602722167969</v>
+        <v>272.5602416992188</v>
       </c>
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr">
@@ -17498,16 +17498,16 @@
       <c r="L269" t="inlineStr"/>
       <c r="M269" t="inlineStr"/>
       <c r="N269" t="n">
-        <v>268.1800329702387</v>
+        <v>268.1800029431</v>
       </c>
       <c r="O269" t="n">
-        <v>272.6390352369144</v>
+        <v>272.6390047105174</v>
       </c>
       <c r="P269" t="n">
-        <v>266.9397707373585</v>
+        <v>266.9397408490873</v>
       </c>
       <c r="Q269" t="n">
-        <v>272.5602722167969</v>
+        <v>272.5602416992188</v>
       </c>
       <c r="R269" t="n">
         <v>7264400</v>
@@ -17610,7 +17610,7 @@
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="n">
-        <v>266.7921447753906</v>
+        <v>266.7920837402344</v>
       </c>
       <c r="G271" t="inlineStr"/>
       <c r="H271" t="inlineStr">
@@ -17624,16 +17624,16 @@
       <c r="L271" t="inlineStr"/>
       <c r="M271" t="inlineStr"/>
       <c r="N271" t="n">
-        <v>271.8220440844745</v>
+        <v>271.8219818986071</v>
       </c>
       <c r="O271" t="n">
-        <v>271.8515727090942</v>
+        <v>271.8515105164715</v>
       </c>
       <c r="P271" t="n">
-        <v>265.3648578270867</v>
+        <v>265.3647971184568</v>
       </c>
       <c r="Q271" t="n">
-        <v>266.7921447753906</v>
+        <v>266.7920837402344</v>
       </c>
       <c r="R271" t="n">
         <v>8627400</v>
@@ -17673,7 +17673,7 @@
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="n">
-        <v>270.68017578125</v>
+        <v>270.6802062988281</v>
       </c>
       <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr">
@@ -17687,16 +17687,16 @@
       <c r="L272" t="inlineStr"/>
       <c r="M272" t="inlineStr"/>
       <c r="N272" t="n">
-        <v>266.0243265133115</v>
+        <v>266.0243565059703</v>
       </c>
       <c r="O272" t="n">
-        <v>271.8909092690704</v>
+        <v>271.8909399231515</v>
       </c>
       <c r="P272" t="n">
-        <v>265.4337240792701</v>
+        <v>265.4337540053421</v>
       </c>
       <c r="Q272" t="n">
-        <v>270.68017578125</v>
+        <v>270.6802062988281</v>
       </c>
       <c r="R272" t="n">
         <v>7196400</v>
@@ -17799,7 +17799,7 @@
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="n">
-        <v>271.9893798828125</v>
+        <v>271.9893493652344</v>
       </c>
       <c r="G274" t="inlineStr"/>
       <c r="H274" t="inlineStr">
@@ -17813,16 +17813,16 @@
       <c r="L274" t="inlineStr"/>
       <c r="M274" t="inlineStr"/>
       <c r="N274" t="n">
-        <v>271.1822241296935</v>
+        <v>271.1821937026794</v>
       </c>
       <c r="O274" t="n">
-        <v>272.6291867449517</v>
+        <v>272.6291561555864</v>
       </c>
       <c r="P274" t="n">
-        <v>269.5187082645568</v>
+        <v>269.5186780241914</v>
       </c>
       <c r="Q274" t="n">
-        <v>271.9893798828125</v>
+        <v>271.9893493652344</v>
       </c>
       <c r="R274" t="n">
         <v>8398700</v>
@@ -17925,7 +17925,7 @@
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="n">
-        <v>275.5625</v>
+        <v>275.5624694824219</v>
       </c>
       <c r="G276" t="inlineStr"/>
       <c r="H276" t="inlineStr">
@@ -17939,16 +17939,16 @@
       <c r="L276" t="inlineStr"/>
       <c r="M276" t="inlineStr"/>
       <c r="N276" t="n">
-        <v>272.4224928221831</v>
+        <v>272.4224626523497</v>
       </c>
       <c r="O276" t="n">
-        <v>275.5821757361664</v>
+        <v>275.5821452164092</v>
       </c>
       <c r="P276" t="n">
-        <v>271.6940700339416</v>
+        <v>271.6940399447785</v>
       </c>
       <c r="Q276" t="n">
-        <v>275.5625</v>
+        <v>275.5624694824219</v>
       </c>
       <c r="R276" t="n">
         <v>7919800</v>
@@ -18051,7 +18051,7 @@
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="n">
-        <v>262.6185607910156</v>
+        <v>262.6185302734375</v>
       </c>
       <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr">
@@ -18065,16 +18065,16 @@
       <c r="L278" t="inlineStr"/>
       <c r="M278" t="inlineStr"/>
       <c r="N278" t="n">
-        <v>274.3123761105854</v>
+        <v>274.312344234128</v>
       </c>
       <c r="O278" t="n">
-        <v>274.3714333564992</v>
+        <v>274.371401473179</v>
       </c>
       <c r="P278" t="n">
-        <v>261.5751760608188</v>
+        <v>261.5751456644871</v>
       </c>
       <c r="Q278" t="n">
-        <v>262.6185607910156</v>
+        <v>262.6185302734375</v>
       </c>
       <c r="R278" t="n">
         <v>13846700</v>
@@ -18114,7 +18114,7 @@
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="n">
-        <v>260.0986633300781</v>
+        <v>260.0986938476562</v>
       </c>
       <c r="G279" t="inlineStr"/>
       <c r="H279" t="inlineStr">
@@ -18128,16 +18128,16 @@
       <c r="L279" t="inlineStr"/>
       <c r="M279" t="inlineStr"/>
       <c r="N279" t="n">
-        <v>264.1147359559171</v>
+        <v>264.1147669447042</v>
       </c>
       <c r="O279" t="n">
-        <v>264.9809488767564</v>
+        <v>264.9809799671769</v>
       </c>
       <c r="P279" t="n">
-        <v>258.7206109738739</v>
+        <v>258.7206413297641</v>
       </c>
       <c r="Q279" t="n">
-        <v>260.0986633300781</v>
+        <v>260.0986938476562</v>
       </c>
       <c r="R279" t="n">
         <v>12835600</v>
@@ -18177,7 +18177,7 @@
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="n">
-        <v>257.244140625</v>
+        <v>257.2441101074219</v>
       </c>
       <c r="G280" t="inlineStr"/>
       <c r="H280" t="inlineStr">
@@ -18191,16 +18191,16 @@
       <c r="L280" t="inlineStr"/>
       <c r="M280" t="inlineStr"/>
       <c r="N280" t="n">
-        <v>261.3290936687731</v>
+        <v>261.3290626665858</v>
       </c>
       <c r="O280" t="n">
-        <v>262.8154377796506</v>
+        <v>262.8154066011342</v>
       </c>
       <c r="P280" t="n">
-        <v>254.5569157841195</v>
+        <v>254.5568855853343</v>
       </c>
       <c r="Q280" t="n">
-        <v>257.244140625</v>
+        <v>257.2441101074219</v>
       </c>
       <c r="R280" t="n">
         <v>10372800</v>
@@ -18240,7 +18240,7 @@
       <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="n">
-        <v>253.3658905029297</v>
+        <v>253.3658752441406</v>
       </c>
       <c r="G281" t="inlineStr"/>
       <c r="H281" t="inlineStr">
@@ -18254,16 +18254,16 @@
       <c r="L281" t="inlineStr"/>
       <c r="M281" t="inlineStr"/>
       <c r="N281" t="n">
-        <v>258.120209112606</v>
+        <v>258.1201935674914</v>
       </c>
       <c r="O281" t="n">
-        <v>258.8781304675106</v>
+        <v>258.8781148767506</v>
       </c>
       <c r="P281" t="n">
-        <v>249.3793761749449</v>
+        <v>249.379361156241</v>
       </c>
       <c r="Q281" t="n">
-        <v>253.3658905029297</v>
+        <v>253.3658752441406</v>
       </c>
       <c r="R281" t="n">
         <v>9608400</v>
@@ -18303,7 +18303,7 @@
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="n">
-        <v>254.7340850830078</v>
+        <v>254.7341156005859</v>
       </c>
       <c r="G282" t="inlineStr"/>
       <c r="H282" t="inlineStr">
@@ -18317,16 +18317,16 @@
       <c r="L282" t="inlineStr"/>
       <c r="M282" t="inlineStr"/>
       <c r="N282" t="n">
-        <v>253.1296266851018</v>
+        <v>253.129657010463</v>
       </c>
       <c r="O282" t="n">
-        <v>256.8208542731849</v>
+        <v>256.8208850407615</v>
       </c>
       <c r="P282" t="n">
-        <v>252.9032205788893</v>
+        <v>252.9032508771268</v>
       </c>
       <c r="Q282" t="n">
-        <v>254.7340850830078</v>
+        <v>254.7341156005859</v>
       </c>
       <c r="R282" t="n">
         <v>5943600</v>
@@ -18366,7 +18366,7 @@
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="n">
-        <v>254.989990234375</v>
+        <v>254.9900054931641</v>
       </c>
       <c r="G283" t="inlineStr"/>
       <c r="H283" t="inlineStr">
@@ -18380,16 +18380,16 @@
       <c r="L283" t="inlineStr"/>
       <c r="M283" t="inlineStr"/>
       <c r="N283" t="n">
-        <v>256.1022849558997</v>
+        <v>256.1023002812493</v>
       </c>
       <c r="O283" t="n">
-        <v>259.5080792450059</v>
+        <v>259.5080947741608</v>
       </c>
       <c r="P283" t="n">
-        <v>253.8186382744762</v>
+        <v>253.8186534631706</v>
       </c>
       <c r="Q283" t="n">
-        <v>254.989990234375</v>
+        <v>254.9900054931641</v>
       </c>
       <c r="R283" t="n">
         <v>8204400</v>
@@ -18429,7 +18429,7 @@
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
-        <v>260.5022583007812</v>
+        <v>260.5022277832031</v>
       </c>
       <c r="G284" t="inlineStr"/>
       <c r="H284" t="inlineStr">
@@ -18443,16 +18443,16 @@
       <c r="L284" t="inlineStr"/>
       <c r="M284" t="inlineStr"/>
       <c r="N284" t="n">
-        <v>256.6437114496689</v>
+        <v>256.6436813841157</v>
       </c>
       <c r="O284" t="n">
-        <v>260.6597543003171</v>
+        <v>260.6597237642885</v>
       </c>
       <c r="P284" t="n">
-        <v>253.8482250463107</v>
+        <v>253.8481953082459</v>
       </c>
       <c r="Q284" t="n">
-        <v>260.5022583007812</v>
+        <v>260.5022277832031</v>
       </c>
       <c r="R284" t="n">
         <v>10467100</v>
@@ -18492,7 +18492,7 @@
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="n">
-        <v>256.5354309082031</v>
+        <v>256.535400390625</v>
       </c>
       <c r="G285" t="inlineStr"/>
       <c r="H285" t="inlineStr">
@@ -18506,16 +18506,16 @@
       <c r="L285" t="inlineStr"/>
       <c r="M285" t="inlineStr"/>
       <c r="N285" t="n">
-        <v>259.8624626990458</v>
+        <v>259.8624317856823</v>
       </c>
       <c r="O285" t="n">
-        <v>262.1461097321946</v>
+        <v>262.1460785471675</v>
       </c>
       <c r="P285" t="n">
-        <v>253.7793258952936</v>
+        <v>253.779295705583</v>
       </c>
       <c r="Q285" t="n">
-        <v>256.5354309082031</v>
+        <v>256.535400390625</v>
       </c>
       <c r="R285" t="n">
         <v>9058300</v>
@@ -18555,7 +18555,7 @@
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="n">
-        <v>246.3279571533203</v>
+        <v>246.3279418945312</v>
       </c>
       <c r="G286" t="inlineStr"/>
       <c r="H286" t="inlineStr">
@@ -18569,16 +18569,16 @@
       <c r="L286" t="inlineStr"/>
       <c r="M286" t="inlineStr"/>
       <c r="N286" t="n">
-        <v>251.2791232823429</v>
+        <v>251.2791077168537</v>
       </c>
       <c r="O286" t="n">
-        <v>253.1985739252281</v>
+        <v>253.1985582408387</v>
       </c>
       <c r="P286" t="n">
-        <v>242.0953458946088</v>
+        <v>242.0953308980089</v>
       </c>
       <c r="Q286" t="n">
-        <v>246.3279571533203</v>
+        <v>246.3279418945312</v>
       </c>
       <c r="R286" t="n">
         <v>13465600</v>
@@ -18618,7 +18618,7 @@
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="n">
-        <v>247.587890625</v>
+        <v>247.5878753662109</v>
       </c>
       <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr">
@@ -18632,16 +18632,16 @@
       <c r="L287" t="inlineStr"/>
       <c r="M287" t="inlineStr"/>
       <c r="N287" t="n">
-        <v>247.3122801313009</v>
+        <v>247.3122648894977</v>
       </c>
       <c r="O287" t="n">
-        <v>249.0840726048274</v>
+        <v>249.0840572538289</v>
       </c>
       <c r="P287" t="n">
-        <v>243.9458819414234</v>
+        <v>243.9458669070905</v>
       </c>
       <c r="Q287" t="n">
-        <v>247.587890625</v>
+        <v>247.5878753662109</v>
       </c>
       <c r="R287" t="n">
         <v>7861400</v>
@@ -18681,7 +18681,7 @@
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="n">
-        <v>242.6760711669922</v>
+        <v>242.6760864257812</v>
       </c>
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr">
@@ -18695,16 +18695,16 @@
       <c r="L288" t="inlineStr"/>
       <c r="M288" t="inlineStr"/>
       <c r="N288" t="n">
-        <v>244.2214723981126</v>
+        <v>244.2214877540722</v>
       </c>
       <c r="O288" t="n">
-        <v>245.4518816510515</v>
+        <v>245.4518970843757</v>
       </c>
       <c r="P288" t="n">
-        <v>240.0282430711689</v>
+        <v>240.02825816347</v>
       </c>
       <c r="Q288" t="n">
-        <v>242.6760711669922</v>
+        <v>242.6760864257812</v>
       </c>
       <c r="R288" t="n">
         <v>9983200</v>
@@ -18744,7 +18744,7 @@
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="n">
-        <v>238.4828643798828</v>
+        <v>238.4828491210938</v>
       </c>
       <c r="G289" t="inlineStr"/>
       <c r="H289" t="inlineStr">
@@ -18758,16 +18758,16 @@
       <c r="L289" t="inlineStr"/>
       <c r="M289" t="inlineStr"/>
       <c r="N289" t="n">
-        <v>241.3866274873343</v>
+        <v>241.3866120427545</v>
       </c>
       <c r="O289" t="n">
-        <v>242.8532808625278</v>
+        <v>242.8532653241074</v>
       </c>
       <c r="P289" t="n">
-        <v>235.6676871423009</v>
+        <v>235.6676720636346</v>
       </c>
       <c r="Q289" t="n">
-        <v>238.4828643798828</v>
+        <v>238.4828491210938</v>
       </c>
       <c r="R289" t="n">
         <v>20498700</v>
@@ -18807,7 +18807,7 @@
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="n">
-        <v>228.5805206298828</v>
+        <v>228.5805358886719</v>
       </c>
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr">
@@ -18821,16 +18821,16 @@
       <c r="L290" t="inlineStr"/>
       <c r="M290" t="inlineStr"/>
       <c r="N290" t="n">
-        <v>232.5079925450893</v>
+        <v>232.508008066055</v>
       </c>
       <c r="O290" t="n">
-        <v>233.7876062087155</v>
+        <v>233.7876218151011</v>
       </c>
       <c r="P290" t="n">
-        <v>225.1156838157023</v>
+        <v>225.1156988431978</v>
       </c>
       <c r="Q290" t="n">
-        <v>228.5805206298828</v>
+        <v>228.5805358886719</v>
       </c>
       <c r="R290" t="n">
         <v>18887200</v>
@@ -18933,7 +18933,7 @@
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="n">
-        <v>224.3282012939453</v>
+        <v>224.3282318115234</v>
       </c>
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr">
@@ -18947,16 +18947,16 @@
       <c r="L292" t="inlineStr"/>
       <c r="M292" t="inlineStr"/>
       <c r="N292" t="n">
-        <v>230.3326042502056</v>
+        <v>230.3326355846219</v>
       </c>
       <c r="O292" t="n">
-        <v>230.6475962175836</v>
+        <v>230.6476275948513</v>
       </c>
       <c r="P292" t="n">
-        <v>223.6982323788331</v>
+        <v>223.6982628107103</v>
       </c>
       <c r="Q292" t="n">
-        <v>224.3282012939453</v>
+        <v>224.3282318115234</v>
       </c>
       <c r="R292" t="n">
         <v>16054000</v>
@@ -19122,7 +19122,7 @@
       <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="n">
-        <v>230.2637176513672</v>
+        <v>230.2637023925781</v>
       </c>
       <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr">
@@ -19136,16 +19136,16 @@
       <c r="L295" t="inlineStr"/>
       <c r="M295" t="inlineStr"/>
       <c r="N295" t="n">
-        <v>227.5568171111749</v>
+        <v>227.5568020317628</v>
       </c>
       <c r="O295" t="n">
-        <v>231.9764528547793</v>
+        <v>231.9764374824932</v>
       </c>
       <c r="P295" t="n">
-        <v>226.8481151514526</v>
+        <v>226.8481001190039</v>
       </c>
       <c r="Q295" t="n">
-        <v>230.2637176513672</v>
+        <v>230.2637023925781</v>
       </c>
       <c r="R295" t="n">
         <v>9586000</v>
@@ -19311,7 +19311,7 @@
       <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="n">
-        <v>235.2641143798828</v>
+        <v>235.2640838623047</v>
       </c>
       <c r="G298" t="inlineStr"/>
       <c r="H298" t="inlineStr">
@@ -19325,16 +19325,16 @@
       <c r="L298" t="inlineStr"/>
       <c r="M298" t="inlineStr"/>
       <c r="N298" t="n">
-        <v>232.852514967687</v>
+        <v>232.8524847629325</v>
       </c>
       <c r="O298" t="n">
-        <v>237.9710150510435</v>
+        <v>237.9709841823364</v>
       </c>
       <c r="P298" t="n">
-        <v>232.4981564608583</v>
+        <v>232.4981263020698</v>
       </c>
       <c r="Q298" t="n">
-        <v>235.2641143798828</v>
+        <v>235.2640838623047</v>
       </c>
       <c r="R298" t="n">
         <v>8328500</v>
@@ -19563,7 +19563,7 @@
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="n">
-        <v>247.0957336425781</v>
+        <v>247.0957183837891</v>
       </c>
       <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr">
@@ -19577,16 +19577,16 @@
       <c r="L302" t="inlineStr"/>
       <c r="M302" t="inlineStr"/>
       <c r="N302" t="n">
-        <v>248.6411350427635</v>
+        <v>248.6411196885419</v>
       </c>
       <c r="O302" t="n">
-        <v>250.6786851783206</v>
+        <v>250.6786696982752</v>
       </c>
       <c r="P302" t="n">
-        <v>245.865324255034</v>
+        <v>245.8653090722259</v>
       </c>
       <c r="Q302" t="n">
-        <v>247.0957336425781</v>
+        <v>247.0957183837891</v>
       </c>
       <c r="R302" t="n">
         <v>12779300</v>
@@ -19626,7 +19626,7 @@
       <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="n">
-        <v>244.2313232421875</v>
+        <v>244.2313079833984</v>
       </c>
       <c r="G303" t="inlineStr"/>
       <c r="H303" t="inlineStr">
@@ -19640,16 +19640,16 @@
       <c r="L303" t="inlineStr"/>
       <c r="M303" t="inlineStr"/>
       <c r="N303" t="n">
-        <v>245.6192285579629</v>
+        <v>245.6192132124619</v>
       </c>
       <c r="O303" t="n">
-        <v>246.7118326334134</v>
+        <v>246.71181721965</v>
       </c>
       <c r="P303" t="n">
-        <v>243.3060530316706</v>
+        <v>243.3060378306894</v>
       </c>
       <c r="Q303" t="n">
-        <v>244.2313232421875</v>
+        <v>244.2313079833984</v>
       </c>
       <c r="R303" t="n">
         <v>8022500</v>
@@ -19815,7 +19815,7 @@
       <c r="D306" t="inlineStr"/>
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="n">
-        <v>239.8412170410156</v>
+        <v>239.8412322998047</v>
       </c>
       <c r="G306" t="inlineStr"/>
       <c r="H306" t="inlineStr">
@@ -19829,16 +19829,16 @@
       <c r="L306" t="inlineStr"/>
       <c r="M306" t="inlineStr"/>
       <c r="N306" t="n">
-        <v>238.8175081376331</v>
+        <v>238.8175233312934</v>
       </c>
       <c r="O306" t="n">
-        <v>241.8394004543817</v>
+        <v>241.8394158402959</v>
       </c>
       <c r="P306" t="n">
-        <v>237.1047880802589</v>
+        <v>237.1048031649553</v>
       </c>
       <c r="Q306" t="n">
-        <v>239.8412170410156</v>
+        <v>239.8412322998047</v>
       </c>
       <c r="R306" t="n">
         <v>8054700</v>
@@ -19878,7 +19878,7 @@
       <c r="D307" t="inlineStr"/>
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="n">
-        <v>241.9673919677734</v>
+        <v>241.9673767089844</v>
       </c>
       <c r="G307" t="inlineStr"/>
       <c r="H307" t="inlineStr">
@@ -19892,16 +19892,16 @@
       <c r="L307" t="inlineStr"/>
       <c r="M307" t="inlineStr"/>
       <c r="N307" t="n">
-        <v>237.8135287383757</v>
+        <v>237.8135137415348</v>
       </c>
       <c r="O307" t="n">
-        <v>243.3749730758296</v>
+        <v>243.3749577282766</v>
       </c>
       <c r="P307" t="n">
-        <v>237.6757234898972</v>
+        <v>237.6757085017465</v>
       </c>
       <c r="Q307" t="n">
-        <v>241.9673919677734</v>
+        <v>241.9673767089844</v>
       </c>
       <c r="R307" t="n">
         <v>7758800</v>
@@ -19941,7 +19941,7 @@
       <c r="D308" t="inlineStr"/>
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="n">
-        <v>225.1058349609375</v>
+        <v>225.1058502197266</v>
       </c>
       <c r="G308" t="inlineStr"/>
       <c r="H308" t="inlineStr">
@@ -19955,16 +19955,16 @@
       <c r="L308" t="inlineStr"/>
       <c r="M308" t="inlineStr"/>
       <c r="N308" t="n">
-        <v>230.5983836419186</v>
+        <v>230.5983992730199</v>
       </c>
       <c r="O308" t="n">
-        <v>231.454743671547</v>
+        <v>231.4547593606966</v>
       </c>
       <c r="P308" t="n">
-        <v>223.7376204790553</v>
+        <v>223.7376356451</v>
       </c>
       <c r="Q308" t="n">
-        <v>225.1058349609375</v>
+        <v>225.1058502197266</v>
       </c>
       <c r="R308" t="n">
         <v>17188500</v>
@@ -23721,7 +23721,7 @@
       <c r="D368" t="inlineStr"/>
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="n">
-        <v>43.28743362426758</v>
+        <v>43.28742980957031</v>
       </c>
       <c r="G368" t="inlineStr"/>
       <c r="H368" t="inlineStr">
@@ -23740,16 +23740,16 @@
       <c r="Q368" t="inlineStr"/>
       <c r="R368" t="inlineStr"/>
       <c r="S368" t="n">
-        <v>43.14082759670379</v>
+        <v>43.14082379492616</v>
       </c>
       <c r="T368" t="n">
-        <v>43.580641951049</v>
+        <v>43.5806381105128</v>
       </c>
       <c r="U368" t="n">
-        <v>42.80852383212587</v>
+        <v>42.80852005963245</v>
       </c>
       <c r="V368" t="n">
-        <v>43.28743362426758</v>
+        <v>43.28742980957031</v>
       </c>
       <c r="W368" t="n">
         <v>25610600</v>
@@ -23847,7 +23847,7 @@
       <c r="D370" t="inlineStr"/>
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="n">
-        <v>44.3723030090332</v>
+        <v>44.37230682373047</v>
       </c>
       <c r="G370" t="inlineStr"/>
       <c r="H370" t="inlineStr">
@@ -23866,16 +23866,16 @@
       <c r="Q370" t="inlineStr"/>
       <c r="R370" t="inlineStr"/>
       <c r="S370" t="n">
-        <v>44.13773413586841</v>
+        <v>44.13773793039974</v>
       </c>
       <c r="T370" t="n">
-        <v>45.10532561119776</v>
+        <v>45.10532948891316</v>
       </c>
       <c r="U370" t="n">
-        <v>44.07909098549077</v>
+        <v>44.07909477498053</v>
       </c>
       <c r="V370" t="n">
-        <v>44.3723030090332</v>
+        <v>44.37230682373047</v>
       </c>
       <c r="W370" t="n">
         <v>30518500</v>
@@ -23910,7 +23910,7 @@
       <c r="D371" t="inlineStr"/>
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="n">
-        <v>45.03691482543945</v>
+        <v>45.03691101074219</v>
       </c>
       <c r="G371" t="inlineStr"/>
       <c r="H371" t="inlineStr">
@@ -23929,16 +23929,16 @@
       <c r="Q371" t="inlineStr"/>
       <c r="R371" t="inlineStr"/>
       <c r="S371" t="n">
-        <v>45.2323845555917</v>
+        <v>45.23238072433784</v>
       </c>
       <c r="T371" t="n">
-        <v>45.59401175873481</v>
+        <v>45.59400789685056</v>
       </c>
       <c r="U371" t="n">
-        <v>44.61664819458912</v>
+        <v>44.6166444154891</v>
       </c>
       <c r="V371" t="n">
-        <v>45.03691482543945</v>
+        <v>45.03691101074219</v>
       </c>
       <c r="W371" t="n">
         <v>41111200</v>
@@ -23973,7 +23973,7 @@
       <c r="D372" t="inlineStr"/>
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="n">
-        <v>45.16396331787109</v>
+        <v>45.16396713256836</v>
       </c>
       <c r="G372" t="inlineStr"/>
       <c r="H372" t="inlineStr">
@@ -23992,16 +23992,16 @@
       <c r="Q372" t="inlineStr"/>
       <c r="R372" t="inlineStr"/>
       <c r="S372" t="n">
-        <v>44.86098303995843</v>
+        <v>44.86098682906498</v>
       </c>
       <c r="T372" t="n">
-        <v>45.21283074382357</v>
+        <v>45.21283456264833</v>
       </c>
       <c r="U372" t="n">
-        <v>44.65573388560508</v>
+        <v>44.65573765737561</v>
       </c>
       <c r="V372" t="n">
-        <v>45.16396331787109</v>
+        <v>45.16396713256836</v>
       </c>
       <c r="W372" t="n">
         <v>40246000</v>
@@ -24099,7 +24099,7 @@
       <c r="D374" t="inlineStr"/>
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="n">
-        <v>44.04000091552734</v>
+        <v>44.03999710083008</v>
       </c>
       <c r="G374" t="inlineStr"/>
       <c r="H374" t="inlineStr">
@@ -24118,16 +24118,16 @@
       <c r="Q374" t="inlineStr"/>
       <c r="R374" t="inlineStr"/>
       <c r="S374" t="n">
-        <v>44.07909262221822</v>
+        <v>44.07908880413487</v>
       </c>
       <c r="T374" t="n">
-        <v>44.31366150409293</v>
+        <v>44.31365766569148</v>
       </c>
       <c r="U374" t="n">
-        <v>43.67837373395609</v>
+        <v>43.67836995058258</v>
       </c>
       <c r="V374" t="n">
-        <v>44.04000091552734</v>
+        <v>44.03999710083008</v>
       </c>
       <c r="W374" t="n">
         <v>34353600</v>
@@ -24162,7 +24162,7 @@
       <c r="D375" t="inlineStr"/>
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="n">
-        <v>44.74369812011719</v>
+        <v>44.74370193481445</v>
       </c>
       <c r="G375" t="inlineStr"/>
       <c r="H375" t="inlineStr">
@@ -24181,16 +24181,16 @@
       <c r="Q375" t="inlineStr"/>
       <c r="R375" t="inlineStr"/>
       <c r="S375" t="n">
-        <v>44.56777239859978</v>
+        <v>44.5677761982982</v>
       </c>
       <c r="T375" t="n">
-        <v>44.88052840833168</v>
+        <v>44.88053223469464</v>
       </c>
       <c r="U375" t="n">
-        <v>44.20614896141208</v>
+        <v>44.20615273027971</v>
       </c>
       <c r="V375" t="n">
-        <v>44.74369812011719</v>
+        <v>44.74370193481445</v>
       </c>
       <c r="W375" t="n">
         <v>36379000</v>
@@ -24225,7 +24225,7 @@
       <c r="D376" t="inlineStr"/>
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="n">
-        <v>46.0338134765625</v>
+        <v>46.03382110595703</v>
       </c>
       <c r="G376" t="inlineStr"/>
       <c r="H376" t="inlineStr">
@@ -24244,16 +24244,16 @@
       <c r="Q376" t="inlineStr"/>
       <c r="R376" t="inlineStr"/>
       <c r="S376" t="n">
-        <v>46.05336119146624</v>
+        <v>46.0533688241005</v>
       </c>
       <c r="T376" t="n">
-        <v>46.38566488813904</v>
+        <v>46.38567257584752</v>
       </c>
       <c r="U376" t="n">
-        <v>45.77970063950466</v>
+        <v>45.77970822678391</v>
       </c>
       <c r="V376" t="n">
-        <v>46.0338134765625</v>
+        <v>46.03382110595703</v>
       </c>
       <c r="W376" t="n">
         <v>57154800</v>
@@ -24288,7 +24288,7 @@
       <c r="D377" t="inlineStr"/>
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="n">
-        <v>45.58423233032227</v>
+        <v>45.584228515625</v>
       </c>
       <c r="G377" t="inlineStr"/>
       <c r="H377" t="inlineStr">
@@ -24307,16 +24307,16 @@
       <c r="Q377" t="inlineStr"/>
       <c r="R377" t="inlineStr"/>
       <c r="S377" t="n">
-        <v>45.93608378135307</v>
+        <v>45.93607993721126</v>
       </c>
       <c r="T377" t="n">
-        <v>46.43453751808283</v>
+        <v>46.43453363222812</v>
       </c>
       <c r="U377" t="n">
-        <v>44.78279457112803</v>
+        <v>44.78279082349874</v>
       </c>
       <c r="V377" t="n">
-        <v>45.58423233032227</v>
+        <v>45.584228515625</v>
       </c>
       <c r="W377" t="n">
         <v>56339300</v>
@@ -24351,7 +24351,7 @@
       <c r="D378" t="inlineStr"/>
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="n">
-        <v>45.47672271728516</v>
+        <v>45.47671890258789</v>
       </c>
       <c r="G378" t="inlineStr"/>
       <c r="H378" t="inlineStr">
@@ -24370,16 +24370,16 @@
       <c r="Q378" t="inlineStr"/>
       <c r="R378" t="inlineStr"/>
       <c r="S378" t="n">
-        <v>45.55491358733023</v>
+        <v>45.55490976607412</v>
       </c>
       <c r="T378" t="n">
-        <v>45.81880218121348</v>
+        <v>45.81879833782177</v>
       </c>
       <c r="U378" t="n">
-        <v>45.03691212249228</v>
+        <v>45.03690834468738</v>
       </c>
       <c r="V378" t="n">
-        <v>45.47672271728516</v>
+        <v>45.47671890258789</v>
       </c>
       <c r="W378" t="n">
         <v>44486100</v>
@@ -24414,7 +24414,7 @@
       <c r="D379" t="inlineStr"/>
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="n">
-        <v>45.60377883911133</v>
+        <v>45.60378265380859</v>
       </c>
       <c r="G379" t="inlineStr"/>
       <c r="H379" t="inlineStr">
@@ -24433,16 +24433,16 @@
       <c r="Q379" t="inlineStr"/>
       <c r="R379" t="inlineStr"/>
       <c r="S379" t="n">
-        <v>45.56468340595581</v>
+        <v>45.5646872173828</v>
       </c>
       <c r="T379" t="n">
-        <v>46.08268857440213</v>
+        <v>46.08269242915959</v>
       </c>
       <c r="U379" t="n">
-        <v>45.48649626799049</v>
+        <v>45.48650007287722</v>
       </c>
       <c r="V379" t="n">
-        <v>45.60377883911133</v>
+        <v>45.60378265380859</v>
       </c>
       <c r="W379" t="n">
         <v>52089100</v>
@@ -24666,7 +24666,7 @@
       <c r="D383" t="inlineStr"/>
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="n">
-        <v>46.02405166625977</v>
+        <v>46.0240478515625</v>
       </c>
       <c r="G383" t="inlineStr"/>
       <c r="H383" t="inlineStr">
@@ -24685,16 +24685,16 @@
       <c r="Q383" t="inlineStr"/>
       <c r="R383" t="inlineStr"/>
       <c r="S383" t="n">
-        <v>45.49627443212246</v>
+        <v>45.49627066116994</v>
       </c>
       <c r="T383" t="n">
-        <v>46.07291910015851</v>
+        <v>46.07291528141086</v>
       </c>
       <c r="U383" t="n">
-        <v>45.33012441119751</v>
+        <v>45.33012065401631</v>
       </c>
       <c r="V383" t="n">
-        <v>46.02405166625977</v>
+        <v>46.0240478515625</v>
       </c>
       <c r="W383" t="n">
         <v>44260000</v>
@@ -24792,7 +24792,7 @@
       <c r="D385" t="inlineStr"/>
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="n">
-        <v>45.69174194335938</v>
+        <v>45.69174575805664</v>
       </c>
       <c r="G385" t="inlineStr"/>
       <c r="H385" t="inlineStr">
@@ -24811,16 +24811,16 @@
       <c r="Q385" t="inlineStr"/>
       <c r="R385" t="inlineStr"/>
       <c r="S385" t="n">
-        <v>45.69174194335938</v>
+        <v>45.69174575805664</v>
       </c>
       <c r="T385" t="n">
-        <v>46.31725396380267</v>
+        <v>46.31725783072248</v>
       </c>
       <c r="U385" t="n">
-        <v>45.58423136578086</v>
+        <v>45.58423517150231</v>
       </c>
       <c r="V385" t="n">
-        <v>45.69174194335938</v>
+        <v>45.69174575805664</v>
       </c>
       <c r="W385" t="n">
         <v>23681500</v>
@@ -24855,7 +24855,7 @@
       <c r="D386" t="inlineStr"/>
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="n">
-        <v>45.66242218017578</v>
+        <v>45.66242599487305</v>
       </c>
       <c r="G386" t="inlineStr"/>
       <c r="H386" t="inlineStr">
@@ -24874,16 +24874,16 @@
       <c r="Q386" t="inlineStr"/>
       <c r="R386" t="inlineStr"/>
       <c r="S386" t="n">
-        <v>46.04359333417495</v>
+        <v>46.04359718071574</v>
       </c>
       <c r="T386" t="n">
-        <v>46.10223275580822</v>
+        <v>46.10223660724782</v>
       </c>
       <c r="U386" t="n">
-        <v>45.34966617031259</v>
+        <v>45.34966995888181</v>
       </c>
       <c r="V386" t="n">
-        <v>45.66242218017578</v>
+        <v>45.66242599487305</v>
       </c>
       <c r="W386" t="n">
         <v>31199900</v>
@@ -24981,7 +24981,7 @@
       <c r="D388" t="inlineStr"/>
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="n">
-        <v>45.16396331787109</v>
+        <v>45.16396713256836</v>
       </c>
       <c r="G388" t="inlineStr"/>
       <c r="H388" t="inlineStr">
@@ -25000,16 +25000,16 @@
       <c r="Q388" t="inlineStr"/>
       <c r="R388" t="inlineStr"/>
       <c r="S388" t="n">
-        <v>44.39184531144701</v>
+        <v>44.39184906092865</v>
       </c>
       <c r="T388" t="n">
-        <v>45.42785189202916</v>
+        <v>45.42785572901532</v>
       </c>
       <c r="U388" t="n">
-        <v>44.08886503353435</v>
+        <v>44.08886875742527</v>
       </c>
       <c r="V388" t="n">
-        <v>45.16396331787109</v>
+        <v>45.16396713256836</v>
       </c>
       <c r="W388" t="n">
         <v>36497700</v>
@@ -25044,7 +25044,7 @@
       <c r="D389" t="inlineStr"/>
       <c r="E389" t="inlineStr"/>
       <c r="F389" t="n">
-        <v>45.65264892578125</v>
+        <v>45.65264511108398</v>
       </c>
       <c r="G389" t="inlineStr"/>
       <c r="H389" t="inlineStr">
@@ -25063,16 +25063,16 @@
       <c r="Q389" t="inlineStr"/>
       <c r="R389" t="inlineStr"/>
       <c r="S389" t="n">
-        <v>45.30079746357666</v>
+        <v>45.30079367827981</v>
       </c>
       <c r="T389" t="n">
-        <v>46.06314354113525</v>
+        <v>46.0631396921374</v>
       </c>
       <c r="U389" t="n">
-        <v>45.22261032105671</v>
+        <v>45.22260654229311</v>
       </c>
       <c r="V389" t="n">
-        <v>45.65264892578125</v>
+        <v>45.65264511108398</v>
       </c>
       <c r="W389" t="n">
         <v>32894000</v>
@@ -25233,7 +25233,7 @@
       <c r="D392" t="inlineStr"/>
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="n">
-        <v>46.32703399658203</v>
+        <v>46.32703018188477</v>
       </c>
       <c r="G392" t="inlineStr"/>
       <c r="H392" t="inlineStr">
@@ -25252,16 +25252,16 @@
       <c r="Q392" t="inlineStr"/>
       <c r="R392" t="inlineStr"/>
       <c r="S392" t="n">
-        <v>46.75707261856114</v>
+        <v>46.75706876845329</v>
       </c>
       <c r="T392" t="n">
-        <v>46.88413092464322</v>
+        <v>46.88412706407304</v>
       </c>
       <c r="U392" t="n">
-        <v>46.30748627808124</v>
+        <v>46.30748246499359</v>
       </c>
       <c r="V392" t="n">
-        <v>46.32703399658203</v>
+        <v>46.32703018188477</v>
       </c>
       <c r="W392" t="n">
         <v>26504700</v>
@@ -25296,7 +25296,7 @@
       <c r="D393" t="inlineStr"/>
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="n">
-        <v>45.61355209350586</v>
+        <v>45.61354827880859</v>
       </c>
       <c r="G393" t="inlineStr"/>
       <c r="H393" t="inlineStr">
@@ -25315,16 +25315,16 @@
       <c r="Q393" t="inlineStr"/>
       <c r="R393" t="inlineStr"/>
       <c r="S393" t="n">
-        <v>46.40521785922268</v>
+        <v>46.40521397831779</v>
       </c>
       <c r="T393" t="n">
-        <v>46.48340872769409</v>
+        <v>46.48340484025003</v>
       </c>
       <c r="U393" t="n">
-        <v>45.3496672332794</v>
+        <v>45.34966344065103</v>
       </c>
       <c r="V393" t="n">
-        <v>45.61355209350586</v>
+        <v>45.61354827880859</v>
       </c>
       <c r="W393" t="n">
         <v>26725200</v>
@@ -25422,7 +25422,7 @@
       <c r="D395" t="inlineStr"/>
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="n">
-        <v>45.16396331787109</v>
+        <v>45.16396713256836</v>
       </c>
       <c r="G395" t="inlineStr"/>
       <c r="H395" t="inlineStr">
@@ -25441,16 +25441,16 @@
       <c r="Q395" t="inlineStr"/>
       <c r="R395" t="inlineStr"/>
       <c r="S395" t="n">
-        <v>45.51581475008184</v>
+        <v>45.51581859449765</v>
       </c>
       <c r="T395" t="n">
-        <v>45.52559047227971</v>
+        <v>45.52559431752119</v>
       </c>
       <c r="U395" t="n">
-        <v>44.90007474371303</v>
+        <v>44.9000785361214</v>
       </c>
       <c r="V395" t="n">
-        <v>45.16396331787109</v>
+        <v>45.16396713256836</v>
       </c>
       <c r="W395" t="n">
         <v>29777100</v>
@@ -25548,7 +25548,7 @@
       <c r="D397" t="inlineStr"/>
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="n">
-        <v>45.89698791503906</v>
+        <v>45.8969841003418</v>
       </c>
       <c r="G397" t="inlineStr"/>
       <c r="H397" t="inlineStr">
@@ -25567,16 +25567,16 @@
       <c r="Q397" t="inlineStr"/>
       <c r="R397" t="inlineStr"/>
       <c r="S397" t="n">
-        <v>45.42785389419686</v>
+        <v>45.42785011849135</v>
       </c>
       <c r="T397" t="n">
-        <v>46.02404621079188</v>
+        <v>46.02404238553425</v>
       </c>
       <c r="U397" t="n">
-        <v>45.42785389419686</v>
+        <v>45.42785011849135</v>
       </c>
       <c r="V397" t="n">
-        <v>45.89698791503906</v>
+        <v>45.8969841003418</v>
       </c>
       <c r="W397" t="n">
         <v>25960500</v>
@@ -25611,7 +25611,7 @@
       <c r="D398" t="inlineStr"/>
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="n">
-        <v>45.47672271728516</v>
+        <v>45.47671890258789</v>
       </c>
       <c r="G398" t="inlineStr"/>
       <c r="H398" t="inlineStr">
@@ -25630,16 +25630,16 @@
       <c r="Q398" t="inlineStr"/>
       <c r="R398" t="inlineStr"/>
       <c r="S398" t="n">
-        <v>45.506046157725</v>
+        <v>45.50604234056802</v>
       </c>
       <c r="T398" t="n">
-        <v>45.59400902235276</v>
+        <v>45.59400519781723</v>
       </c>
       <c r="U398" t="n">
-        <v>45.11509926419146</v>
+        <v>45.11509547982804</v>
       </c>
       <c r="V398" t="n">
-        <v>45.47672271728516</v>
+        <v>45.47671890258789</v>
       </c>
       <c r="W398" t="n">
         <v>37824100</v>
@@ -25737,7 +25737,7 @@
       <c r="D400" t="inlineStr"/>
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="n">
-        <v>44.27456665039062</v>
+        <v>44.27456283569336</v>
       </c>
       <c r="G400" t="inlineStr"/>
       <c r="H400" t="inlineStr">
@@ -25756,16 +25756,16 @@
       <c r="Q400" t="inlineStr"/>
       <c r="R400" t="inlineStr"/>
       <c r="S400" t="n">
-        <v>44.86098699860428</v>
+        <v>44.86098313338103</v>
       </c>
       <c r="T400" t="n">
-        <v>45.14441958547764</v>
+        <v>45.14441569583384</v>
       </c>
       <c r="U400" t="n">
-        <v>44.02045377600687</v>
+        <v>44.02044998320397</v>
       </c>
       <c r="V400" t="n">
-        <v>44.27456665039062</v>
+        <v>44.27456283569336</v>
       </c>
       <c r="W400" t="n">
         <v>40001100</v>
@@ -25863,7 +25863,7 @@
       <c r="D402" t="inlineStr"/>
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="n">
-        <v>43.45357894897461</v>
+        <v>43.45358276367188</v>
       </c>
       <c r="G402" t="inlineStr"/>
       <c r="H402" t="inlineStr">
@@ -25882,16 +25882,16 @@
       <c r="Q402" t="inlineStr"/>
       <c r="R402" t="inlineStr"/>
       <c r="S402" t="n">
-        <v>44.01067582819127</v>
+        <v>44.01067969179489</v>
       </c>
       <c r="T402" t="n">
-        <v>44.36252727366407</v>
+        <v>44.36253116815598</v>
       </c>
       <c r="U402" t="n">
-        <v>43.43403123218771</v>
+        <v>43.43403504516892</v>
       </c>
       <c r="V402" t="n">
-        <v>43.45357894897461</v>
+        <v>43.45358276367188</v>
       </c>
       <c r="W402" t="n">
         <v>35512200</v>
@@ -25926,7 +25926,7 @@
       <c r="D403" t="inlineStr"/>
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="n">
-        <v>42.94535064697266</v>
+        <v>42.94534683227539</v>
       </c>
       <c r="G403" t="inlineStr"/>
       <c r="H403" t="inlineStr">
@@ -25945,16 +25945,16 @@
       <c r="Q403" t="inlineStr"/>
       <c r="R403" t="inlineStr"/>
       <c r="S403" t="n">
-        <v>43.52199525840997</v>
+        <v>43.52199139249121</v>
       </c>
       <c r="T403" t="n">
-        <v>43.82497928419765</v>
+        <v>43.8249753913658</v>
       </c>
       <c r="U403" t="n">
-        <v>42.36870603553535</v>
+        <v>42.36870227205956</v>
       </c>
       <c r="V403" t="n">
-        <v>42.94535064697266</v>
+        <v>42.94534683227539</v>
       </c>
       <c r="W403" t="n">
         <v>38119000</v>
@@ -25989,7 +25989,7 @@
       <c r="D404" t="inlineStr"/>
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="n">
-        <v>42.94535064697266</v>
+        <v>42.94534683227539</v>
       </c>
       <c r="G404" t="inlineStr"/>
       <c r="H404" t="inlineStr">
@@ -26008,16 +26008,16 @@
       <c r="Q404" t="inlineStr"/>
       <c r="R404" t="inlineStr"/>
       <c r="S404" t="n">
-        <v>43.04308923352313</v>
+        <v>43.04308541014406</v>
       </c>
       <c r="T404" t="n">
-        <v>43.54154297572006</v>
+        <v>43.54153910806495</v>
       </c>
       <c r="U404" t="n">
-        <v>42.86716350607814</v>
+        <v>42.86715969832598</v>
       </c>
       <c r="V404" t="n">
-        <v>42.94535064697266</v>
+        <v>42.94534683227539</v>
       </c>
       <c r="W404" t="n">
         <v>32251700</v>
@@ -26115,7 +26115,7 @@
       <c r="D406" t="inlineStr"/>
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="n">
-        <v>45.05645370483398</v>
+        <v>45.05645751953125</v>
       </c>
       <c r="G406" t="inlineStr"/>
       <c r="H406" t="inlineStr">
@@ -26134,16 +26134,16 @@
       <c r="Q406" t="inlineStr"/>
       <c r="R406" t="inlineStr"/>
       <c r="S406" t="n">
-        <v>43.31674795106759</v>
+        <v>43.31675161847295</v>
       </c>
       <c r="T406" t="n">
-        <v>45.15419228716932</v>
+        <v>45.15419611014161</v>
       </c>
       <c r="U406" t="n">
-        <v>43.19946538061087</v>
+        <v>43.19946903808653</v>
       </c>
       <c r="V406" t="n">
-        <v>45.05645370483398</v>
+        <v>45.05645751953125</v>
       </c>
       <c r="W406" t="n">
         <v>62621100</v>
@@ -26367,7 +26367,7 @@
       <c r="D410" t="inlineStr"/>
       <c r="E410" t="inlineStr"/>
       <c r="F410" t="n">
-        <v>40.52149200439453</v>
+        <v>40.52148818969727</v>
       </c>
       <c r="G410" t="inlineStr"/>
       <c r="H410" t="inlineStr">
@@ -26386,16 +26386,16 @@
       <c r="Q410" t="inlineStr"/>
       <c r="R410" t="inlineStr"/>
       <c r="S410" t="n">
-        <v>40.64855031019577</v>
+        <v>40.64854648353723</v>
       </c>
       <c r="T410" t="n">
-        <v>40.94175863036735</v>
+        <v>40.94175477610615</v>
       </c>
       <c r="U410" t="n">
-        <v>40.03281022799321</v>
+        <v>40.0328064593005</v>
       </c>
       <c r="V410" t="n">
-        <v>40.52149200439453</v>
+        <v>40.52148818969727</v>
       </c>
       <c r="W410" t="n">
         <v>58103500</v>
@@ -26430,7 +26430,7 @@
       <c r="D411" t="inlineStr"/>
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="n">
-        <v>40.71819686889648</v>
+        <v>40.71820068359375</v>
       </c>
       <c r="G411" t="inlineStr"/>
       <c r="H411" t="inlineStr">
@@ -26449,16 +26449,16 @@
       <c r="Q411" t="inlineStr"/>
       <c r="R411" t="inlineStr"/>
       <c r="S411" t="n">
-        <v>40.6296789028038</v>
+        <v>40.62968270920824</v>
       </c>
       <c r="T411" t="n">
-        <v>41.04276024332021</v>
+        <v>41.04276408842431</v>
       </c>
       <c r="U411" t="n">
-        <v>39.94120625006902</v>
+        <v>39.94120999197366</v>
       </c>
       <c r="V411" t="n">
-        <v>40.71819686889648</v>
+        <v>40.71820068359375</v>
       </c>
       <c r="W411" t="n">
         <v>50651400</v>
@@ -26556,7 +26556,7 @@
       <c r="D413" t="inlineStr"/>
       <c r="E413" t="inlineStr"/>
       <c r="F413" t="n">
-        <v>38.95767593383789</v>
+        <v>38.95767974853516</v>
       </c>
       <c r="G413" t="inlineStr"/>
       <c r="H413" t="inlineStr">
@@ -26575,16 +26575,16 @@
       <c r="Q413" t="inlineStr"/>
       <c r="R413" t="inlineStr"/>
       <c r="S413" t="n">
-        <v>39.04619390214104</v>
+        <v>39.0461977255059</v>
       </c>
       <c r="T413" t="n">
-        <v>39.99038306279188</v>
+        <v>39.99038697861081</v>
       </c>
       <c r="U413" t="n">
-        <v>38.62327513712311</v>
+        <v>38.62327891907618</v>
       </c>
       <c r="V413" t="n">
-        <v>38.95767593383789</v>
+        <v>38.95767974853516</v>
       </c>
       <c r="W413" t="n">
         <v>50608400</v>
@@ -26745,7 +26745,7 @@
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr"/>
       <c r="F416" t="n">
-        <v>40.21659851074219</v>
+        <v>40.21659469604492</v>
       </c>
       <c r="G416" t="inlineStr"/>
       <c r="H416" t="inlineStr">
@@ -26764,16 +26764,16 @@
       <c r="Q416" t="inlineStr"/>
       <c r="R416" t="inlineStr"/>
       <c r="S416" t="n">
-        <v>39.59697267567447</v>
+        <v>39.59696891975108</v>
       </c>
       <c r="T416" t="n">
-        <v>40.34445864379177</v>
+        <v>40.34445481696649</v>
       </c>
       <c r="U416" t="n">
-        <v>39.50845469923623</v>
+        <v>39.5084509517091</v>
       </c>
       <c r="V416" t="n">
-        <v>40.21659851074219</v>
+        <v>40.21659469604492</v>
       </c>
       <c r="W416" t="n">
         <v>35979900</v>
@@ -26934,7 +26934,7 @@
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr"/>
       <c r="F419" t="n">
-        <v>41.51485824584961</v>
+        <v>41.51485443115234</v>
       </c>
       <c r="G419" t="inlineStr"/>
       <c r="H419" t="inlineStr">
@@ -26953,16 +26953,16 @@
       <c r="Q419" t="inlineStr"/>
       <c r="R419" t="inlineStr"/>
       <c r="S419" t="n">
-        <v>41.03292997538338</v>
+        <v>41.03292620496931</v>
       </c>
       <c r="T419" t="n">
-        <v>41.99679026819027</v>
+        <v>41.99678640920947</v>
       </c>
       <c r="U419" t="n">
-        <v>40.6198448488236</v>
+        <v>40.6198411163669</v>
       </c>
       <c r="V419" t="n">
-        <v>41.51485824584961</v>
+        <v>41.51485443115234</v>
       </c>
       <c r="W419" t="n">
         <v>42471100</v>
@@ -26997,7 +26997,7 @@
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr"/>
       <c r="F420" t="n">
-        <v>41.78041458129883</v>
+        <v>41.78041076660156</v>
       </c>
       <c r="G420" t="inlineStr"/>
       <c r="H420" t="inlineStr">
@@ -27016,16 +27016,16 @@
       <c r="Q420" t="inlineStr"/>
       <c r="R420" t="inlineStr"/>
       <c r="S420" t="n">
-        <v>41.072270753046</v>
+        <v>41.07226700300473</v>
       </c>
       <c r="T420" t="n">
-        <v>42.01646377467465</v>
+        <v>42.01645993842528</v>
       </c>
       <c r="U420" t="n">
-        <v>40.96408544761817</v>
+        <v>40.96408170745459</v>
       </c>
       <c r="V420" t="n">
-        <v>41.78041458129883</v>
+        <v>41.78041076660156</v>
       </c>
       <c r="W420" t="n">
         <v>41018100</v>
@@ -27186,7 +27186,7 @@
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr"/>
       <c r="F423" t="n">
-        <v>42.56723403930664</v>
+        <v>42.56723785400391</v>
       </c>
       <c r="G423" t="inlineStr"/>
       <c r="H423" t="inlineStr">
@@ -27205,16 +27205,16 @@
       <c r="Q423" t="inlineStr"/>
       <c r="R423" t="inlineStr"/>
       <c r="S423" t="n">
-        <v>42.63608093108816</v>
+        <v>42.6360847519552</v>
       </c>
       <c r="T423" t="n">
-        <v>42.81311686763327</v>
+        <v>42.81312070436552</v>
       </c>
       <c r="U423" t="n">
-        <v>42.33118862516263</v>
+        <v>42.33119241870649</v>
       </c>
       <c r="V423" t="n">
-        <v>42.56723403930664</v>
+        <v>42.56723785400391</v>
       </c>
       <c r="W423" t="n">
         <v>25445300</v>
@@ -27375,7 +27375,7 @@
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr"/>
       <c r="F426" t="n">
-        <v>40.57067108154297</v>
+        <v>40.5706672668457</v>
       </c>
       <c r="G426" t="inlineStr"/>
       <c r="H426" t="inlineStr">
@@ -27394,16 +27394,16 @@
       <c r="Q426" t="inlineStr"/>
       <c r="R426" t="inlineStr"/>
       <c r="S426" t="n">
-        <v>41.74107212085686</v>
+        <v>41.74106819611148</v>
       </c>
       <c r="T426" t="n">
-        <v>41.91810807663538</v>
+        <v>41.91810413524403</v>
       </c>
       <c r="U426" t="n">
-        <v>40.31495456312656</v>
+        <v>40.3149507724733</v>
       </c>
       <c r="V426" t="n">
-        <v>40.57067108154297</v>
+        <v>40.5706672668457</v>
       </c>
       <c r="W426" t="n">
         <v>34253000</v>
@@ -27438,7 +27438,7 @@
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr"/>
       <c r="F427" t="n">
-        <v>41.04276657104492</v>
+        <v>41.04276275634766</v>
       </c>
       <c r="G427" t="inlineStr"/>
       <c r="H427" t="inlineStr">
@@ -27457,16 +27457,16 @@
       <c r="Q427" t="inlineStr"/>
       <c r="R427" t="inlineStr"/>
       <c r="S427" t="n">
-        <v>40.10841095198543</v>
+        <v>40.10840722413133</v>
       </c>
       <c r="T427" t="n">
-        <v>41.20996886694226</v>
+        <v>41.20996503670447</v>
       </c>
       <c r="U427" t="n">
-        <v>39.93137499250575</v>
+        <v>39.93137128110616</v>
       </c>
       <c r="V427" t="n">
-        <v>41.04276657104492</v>
+        <v>41.04276275634766</v>
       </c>
       <c r="W427" t="n">
         <v>36390000</v>
@@ -27942,7 +27942,7 @@
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr"/>
       <c r="F435" t="n">
-        <v>35.25959777832031</v>
+        <v>35.25959396362305</v>
       </c>
       <c r="G435" t="inlineStr"/>
       <c r="H435" t="inlineStr">
@@ -27961,16 +27961,16 @@
       <c r="Q435" t="inlineStr"/>
       <c r="R435" t="inlineStr"/>
       <c r="S435" t="n">
-        <v>35.72185871842257</v>
+        <v>35.7218548537138</v>
       </c>
       <c r="T435" t="n">
-        <v>35.80054302817376</v>
+        <v>35.80053915495222</v>
       </c>
       <c r="U435" t="n">
-        <v>34.05969206960981</v>
+        <v>34.05968838472903</v>
       </c>
       <c r="V435" t="n">
-        <v>35.25959777832031</v>
+        <v>35.25959396362305</v>
       </c>
       <c r="W435" t="n">
         <v>90451800</v>
@@ -28005,7 +28005,7 @@
       <c r="D436" t="inlineStr"/>
       <c r="E436" t="inlineStr"/>
       <c r="F436" t="n">
-        <v>35.35795211791992</v>
+        <v>35.35795593261719</v>
       </c>
       <c r="G436" t="inlineStr"/>
       <c r="H436" t="inlineStr">
@@ -28024,16 +28024,16 @@
       <c r="Q436" t="inlineStr"/>
       <c r="R436" t="inlineStr"/>
       <c r="S436" t="n">
-        <v>34.62030361929241</v>
+        <v>34.62030735440629</v>
       </c>
       <c r="T436" t="n">
-        <v>35.63333969014109</v>
+        <v>35.63334353454935</v>
       </c>
       <c r="U436" t="n">
-        <v>34.236727000306</v>
+        <v>34.23673069403657</v>
       </c>
       <c r="V436" t="n">
-        <v>35.35795211791992</v>
+        <v>35.35795593261719</v>
       </c>
       <c r="W436" t="n">
         <v>63671900</v>
@@ -28068,7 +28068,7 @@
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr"/>
       <c r="F437" t="n">
-        <v>36.06608963012695</v>
+        <v>36.06609344482422</v>
       </c>
       <c r="G437" t="inlineStr"/>
       <c r="H437" t="inlineStr">
@@ -28087,16 +28087,16 @@
       <c r="Q437" t="inlineStr"/>
       <c r="R437" t="inlineStr"/>
       <c r="S437" t="n">
-        <v>35.8890574544285</v>
+        <v>35.88906125040114</v>
       </c>
       <c r="T437" t="n">
-        <v>36.3808230861578</v>
+        <v>36.38082693414431</v>
       </c>
       <c r="U437" t="n">
-        <v>35.67267937586793</v>
+        <v>35.67268314895433</v>
       </c>
       <c r="V437" t="n">
-        <v>36.06608963012695</v>
+        <v>36.06609344482422</v>
       </c>
       <c r="W437" t="n">
         <v>46830600</v>
@@ -28194,7 +28194,7 @@
       <c r="D439" t="inlineStr"/>
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="n">
-        <v>36.71522521972656</v>
+        <v>36.71522903442383</v>
       </c>
       <c r="G439" t="inlineStr"/>
       <c r="H439" t="inlineStr">
@@ -28213,16 +28213,16 @@
       <c r="Q439" t="inlineStr"/>
       <c r="R439" t="inlineStr"/>
       <c r="S439" t="n">
-        <v>37.2364956079824</v>
+        <v>37.23649947683945</v>
       </c>
       <c r="T439" t="n">
-        <v>37.53155424752581</v>
+        <v>37.53155814703933</v>
       </c>
       <c r="U439" t="n">
-        <v>36.3611533515248</v>
+        <v>36.36115712943414</v>
       </c>
       <c r="V439" t="n">
-        <v>36.71522521972656</v>
+        <v>36.71522903442383</v>
       </c>
       <c r="W439" t="n">
         <v>52872700</v>
@@ -28320,7 +28320,7 @@
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr"/>
       <c r="F441" t="n">
-        <v>36.31197357177734</v>
+        <v>36.31197738647461</v>
       </c>
       <c r="G441" t="inlineStr"/>
       <c r="H441" t="inlineStr">
@@ -28339,16 +28339,16 @@
       <c r="Q441" t="inlineStr"/>
       <c r="R441" t="inlineStr"/>
       <c r="S441" t="n">
-        <v>36.45950476661967</v>
+        <v>36.4595085968156</v>
       </c>
       <c r="T441" t="n">
-        <v>36.66604543789963</v>
+        <v>36.66604928979335</v>
       </c>
       <c r="U441" t="n">
-        <v>35.88905856710255</v>
+        <v>35.88906233737114</v>
       </c>
       <c r="V441" t="n">
-        <v>36.31197357177734</v>
+        <v>36.31197738647461</v>
       </c>
       <c r="W441" t="n">
         <v>34928300</v>
@@ -28383,7 +28383,7 @@
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr"/>
       <c r="F442" t="n">
-        <v>37.68891906738281</v>
+        <v>37.68892288208008</v>
       </c>
       <c r="G442" t="inlineStr"/>
       <c r="H442" t="inlineStr">
@@ -28402,16 +28402,16 @@
       <c r="Q442" t="inlineStr"/>
       <c r="R442" t="inlineStr"/>
       <c r="S442" t="n">
-        <v>36.95127059333142</v>
+        <v>36.95127433336733</v>
       </c>
       <c r="T442" t="n">
-        <v>37.85612133914235</v>
+        <v>37.85612517076306</v>
       </c>
       <c r="U442" t="n">
-        <v>36.78407207344603</v>
+        <v>36.78407579655889</v>
       </c>
       <c r="V442" t="n">
-        <v>37.68891906738281</v>
+        <v>37.68892288208008</v>
       </c>
       <c r="W442" t="n">
         <v>42288900</v>
@@ -28509,7 +28509,7 @@
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr"/>
       <c r="F444" t="n">
-        <v>38.92816925048828</v>
+        <v>38.92817306518555</v>
       </c>
       <c r="G444" t="inlineStr"/>
       <c r="H444" t="inlineStr">
@@ -28528,16 +28528,16 @@
       <c r="Q444" t="inlineStr"/>
       <c r="R444" t="inlineStr"/>
       <c r="S444" t="n">
-        <v>38.02331853615801</v>
+        <v>38.02332226218603</v>
       </c>
       <c r="T444" t="n">
-        <v>39.04619195170561</v>
+        <v>39.0461957779683</v>
       </c>
       <c r="U444" t="n">
-        <v>37.96430530961234</v>
+        <v>37.96430902985745</v>
       </c>
       <c r="V444" t="n">
-        <v>38.92816925048828</v>
+        <v>38.92817306518555</v>
       </c>
       <c r="W444" t="n">
         <v>42457100</v>
@@ -28572,7 +28572,7 @@
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr"/>
       <c r="F445" t="n">
-        <v>39.03635406494141</v>
+        <v>39.03635787963867</v>
       </c>
       <c r="G445" t="inlineStr"/>
       <c r="H445" t="inlineStr">
@@ -28591,16 +28591,16 @@
       <c r="Q445" t="inlineStr"/>
       <c r="R445" t="inlineStr"/>
       <c r="S445" t="n">
-        <v>38.88882662817609</v>
+        <v>38.88883042845673</v>
       </c>
       <c r="T445" t="n">
-        <v>39.1347094413256</v>
+        <v>39.13471326563432</v>
       </c>
       <c r="U445" t="n">
-        <v>38.67244855200484</v>
+        <v>38.67245233114066</v>
       </c>
       <c r="V445" t="n">
-        <v>39.03635406494141</v>
+        <v>39.03635787963867</v>
       </c>
       <c r="W445" t="n">
         <v>32694200</v>
@@ -28824,7 +28824,7 @@
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr"/>
       <c r="F449" t="n">
-        <v>39.50844955444336</v>
+        <v>39.50845336914062</v>
       </c>
       <c r="G449" t="inlineStr"/>
       <c r="H449" t="inlineStr">
@@ -28843,16 +28843,16 @@
       <c r="Q449" t="inlineStr"/>
       <c r="R449" t="inlineStr"/>
       <c r="S449" t="n">
-        <v>39.16421510860673</v>
+        <v>39.16421889006679</v>
       </c>
       <c r="T449" t="n">
-        <v>39.77400344917765</v>
+        <v>39.77400728951519</v>
       </c>
       <c r="U449" t="n">
-        <v>38.92816970342563</v>
+        <v>38.92817346209458</v>
       </c>
       <c r="V449" t="n">
-        <v>39.50844955444336</v>
+        <v>39.50845336914062</v>
       </c>
       <c r="W449" t="n">
         <v>33569100</v>
@@ -29013,7 +29013,7 @@
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr"/>
       <c r="F452" t="n">
-        <v>40.16741943359375</v>
+        <v>40.16742324829102</v>
       </c>
       <c r="G452" t="inlineStr"/>
       <c r="H452" t="inlineStr">
@@ -29032,16 +29032,16 @@
       <c r="Q452" t="inlineStr"/>
       <c r="R452" t="inlineStr"/>
       <c r="S452" t="n">
-        <v>39.98054983265564</v>
+        <v>39.98055362960591</v>
       </c>
       <c r="T452" t="n">
-        <v>40.59033820318329</v>
+        <v>40.59034205804512</v>
       </c>
       <c r="U452" t="n">
-        <v>39.89203186339564</v>
+        <v>39.89203565193936</v>
       </c>
       <c r="V452" t="n">
-        <v>40.16741943359375</v>
+        <v>40.16742324829102</v>
       </c>
       <c r="W452" t="n">
         <v>29541800</v>
@@ -29202,7 +29202,7 @@
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr"/>
       <c r="F455" t="n">
-        <v>41.10177230834961</v>
+        <v>41.10177612304688</v>
       </c>
       <c r="G455" t="inlineStr"/>
       <c r="H455" t="inlineStr">
@@ -29221,16 +29221,16 @@
       <c r="Q455" t="inlineStr"/>
       <c r="R455" t="inlineStr"/>
       <c r="S455" t="n">
-        <v>41.04275908199959</v>
+        <v>41.04276289121977</v>
       </c>
       <c r="T455" t="n">
-        <v>41.28864189731366</v>
+        <v>41.28864572935448</v>
       </c>
       <c r="U455" t="n">
-        <v>41.00341693109957</v>
+        <v>41.00342073666837</v>
       </c>
       <c r="V455" t="n">
-        <v>41.10177230834961</v>
+        <v>41.10177612304688</v>
       </c>
       <c r="W455" t="n">
         <v>27222800</v>
@@ -29265,7 +29265,7 @@
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr"/>
       <c r="F456" t="n">
-        <v>42.64591979980469</v>
+        <v>42.64591598510742</v>
       </c>
       <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr">
@@ -29284,16 +29284,16 @@
       <c r="Q456" t="inlineStr"/>
       <c r="R456" t="inlineStr"/>
       <c r="S456" t="n">
-        <v>42.60657764548076</v>
+        <v>42.60657383430267</v>
       </c>
       <c r="T456" t="n">
-        <v>43.23603710716618</v>
+        <v>43.23603323968265</v>
       </c>
       <c r="U456" t="n">
-        <v>42.23283468315217</v>
+        <v>42.23283090540556</v>
       </c>
       <c r="V456" t="n">
-        <v>42.64591979980469</v>
+        <v>42.64591598510742</v>
       </c>
       <c r="W456" t="n">
         <v>44875100</v>
@@ -29328,7 +29328,7 @@
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr"/>
       <c r="F457" t="n">
-        <v>43.55076599121094</v>
+        <v>43.5507698059082</v>
       </c>
       <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
@@ -29347,16 +29347,16 @@
       <c r="Q457" t="inlineStr"/>
       <c r="R457" t="inlineStr"/>
       <c r="S457" t="n">
-        <v>42.70492844906469</v>
+        <v>42.70493218967338</v>
       </c>
       <c r="T457" t="n">
-        <v>43.75731042145833</v>
+        <v>43.75731425424723</v>
       </c>
       <c r="U457" t="n">
-        <v>42.70492844906469</v>
+        <v>42.70493218967338</v>
       </c>
       <c r="V457" t="n">
-        <v>43.55076599121094</v>
+        <v>43.5507698059082</v>
       </c>
       <c r="W457" t="n">
         <v>43232500</v>
@@ -29391,7 +29391,7 @@
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr"/>
       <c r="F458" t="n">
-        <v>44.00319671630859</v>
+        <v>44.00319290161133</v>
       </c>
       <c r="G458" t="inlineStr"/>
       <c r="H458" t="inlineStr">
@@ -29410,16 +29410,16 @@
       <c r="Q458" t="inlineStr"/>
       <c r="R458" t="inlineStr"/>
       <c r="S458" t="n">
-        <v>43.46225144198785</v>
+        <v>43.46224767418586</v>
       </c>
       <c r="T458" t="n">
-        <v>44.18022891750726</v>
+        <v>44.18022508746284</v>
       </c>
       <c r="U458" t="n">
-        <v>43.4032419588798</v>
+        <v>43.40323819619343</v>
       </c>
       <c r="V458" t="n">
-        <v>44.00319671630859</v>
+        <v>44.00319290161133</v>
       </c>
       <c r="W458" t="n">
         <v>42419500</v>
@@ -29454,7 +29454,7 @@
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr"/>
       <c r="F459" t="n">
-        <v>43.64912414550781</v>
+        <v>43.64912033081055</v>
       </c>
       <c r="G459" t="inlineStr"/>
       <c r="H459" t="inlineStr">
@@ -29473,16 +29473,16 @@
       <c r="Q459" t="inlineStr"/>
       <c r="R459" t="inlineStr"/>
       <c r="S459" t="n">
-        <v>43.86549850006677</v>
+        <v>43.86549466645956</v>
       </c>
       <c r="T459" t="n">
-        <v>44.23924147884971</v>
+        <v>44.23923761257939</v>
       </c>
       <c r="U459" t="n">
-        <v>43.28521482980162</v>
+        <v>43.28521104690806</v>
       </c>
       <c r="V459" t="n">
-        <v>43.64912414550781</v>
+        <v>43.64912033081055</v>
       </c>
       <c r="W459" t="n">
         <v>47379400</v>
@@ -29517,7 +29517,7 @@
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr"/>
       <c r="F460" t="n">
-        <v>43.95401763916016</v>
+        <v>43.95401382446289</v>
       </c>
       <c r="G460" t="inlineStr"/>
       <c r="H460" t="inlineStr">
@@ -29536,16 +29536,16 @@
       <c r="Q460" t="inlineStr"/>
       <c r="R460" t="inlineStr"/>
       <c r="S460" t="n">
-        <v>43.60978314424112</v>
+        <v>43.6097793594194</v>
       </c>
       <c r="T460" t="n">
-        <v>44.0523730319046</v>
+        <v>44.05236920867123</v>
       </c>
       <c r="U460" t="n">
-        <v>42.94098148107732</v>
+        <v>42.94097775429981</v>
       </c>
       <c r="V460" t="n">
-        <v>43.95401763916016</v>
+        <v>43.95401382446289</v>
       </c>
       <c r="W460" t="n">
         <v>49488100</v>
@@ -29580,7 +29580,7 @@
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="n">
-        <v>44.03269958496094</v>
+        <v>44.03269577026367</v>
       </c>
       <c r="G461" t="inlineStr"/>
       <c r="H461" t="inlineStr">
@@ -29599,16 +29599,16 @@
       <c r="Q461" t="inlineStr"/>
       <c r="R461" t="inlineStr"/>
       <c r="S461" t="n">
-        <v>43.38356903526093</v>
+        <v>43.38356527679998</v>
       </c>
       <c r="T461" t="n">
-        <v>44.39660513885541</v>
+        <v>44.39660129263181</v>
       </c>
       <c r="U461" t="n">
-        <v>43.38356903526093</v>
+        <v>43.38356527679998</v>
       </c>
       <c r="V461" t="n">
-        <v>44.03269958496094</v>
+        <v>44.03269577026367</v>
       </c>
       <c r="W461" t="n">
         <v>37915700</v>
@@ -29643,7 +29643,7 @@
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr"/>
       <c r="F462" t="n">
-        <v>43.95401763916016</v>
+        <v>43.95401382446289</v>
       </c>
       <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
@@ -29662,16 +29662,16 @@
       <c r="Q462" t="inlineStr"/>
       <c r="R462" t="inlineStr"/>
       <c r="S462" t="n">
-        <v>43.85566599829032</v>
+        <v>43.85566219212883</v>
       </c>
       <c r="T462" t="n">
-        <v>44.17039575132333</v>
+        <v>44.17039191784696</v>
       </c>
       <c r="U462" t="n">
-        <v>43.67863004322493</v>
+        <v>43.6786262524281</v>
       </c>
       <c r="V462" t="n">
-        <v>43.95401763916016</v>
+        <v>43.95401382446289</v>
       </c>
       <c r="W462" t="n">
         <v>33424300</v>
@@ -29895,7 +29895,7 @@
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr"/>
       <c r="F466" t="n">
-        <v>43.49175262451172</v>
+        <v>43.49176025390625</v>
       </c>
       <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
@@ -29914,16 +29914,16 @@
       <c r="Q466" t="inlineStr"/>
       <c r="R466" t="inlineStr"/>
       <c r="S466" t="n">
-        <v>43.06883389124823</v>
+        <v>43.06884144645367</v>
       </c>
       <c r="T466" t="n">
-        <v>43.49175262451172</v>
+        <v>43.49176025390625</v>
       </c>
       <c r="U466" t="n">
-        <v>42.58690193292219</v>
+        <v>42.58690940358633</v>
       </c>
       <c r="V466" t="n">
-        <v>43.49175262451172</v>
+        <v>43.49176025390625</v>
       </c>
       <c r="W466" t="n">
         <v>36322000</v>
@@ -30147,7 +30147,7 @@
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr"/>
       <c r="F470" t="n">
-        <v>43.35406112670898</v>
+        <v>43.35406494140625</v>
       </c>
       <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
@@ -30166,16 +30166,16 @@
       <c r="Q470" t="inlineStr"/>
       <c r="R470" t="inlineStr"/>
       <c r="S470" t="n">
-        <v>43.15735411805009</v>
+        <v>43.15735791543923</v>
       </c>
       <c r="T470" t="n">
-        <v>43.42290801695848</v>
+        <v>43.42291183771354</v>
       </c>
       <c r="U470" t="n">
-        <v>42.64591739628661</v>
+        <v>42.64592114867474</v>
       </c>
       <c r="V470" t="n">
-        <v>43.35406112670898</v>
+        <v>43.35406494140625</v>
       </c>
       <c r="W470" t="n">
         <v>28582600</v>
@@ -30210,7 +30210,7 @@
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr"/>
       <c r="F471" t="n">
-        <v>43.9146728515625</v>
+        <v>43.91467666625977</v>
       </c>
       <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
@@ -30229,16 +30229,16 @@
       <c r="Q471" t="inlineStr"/>
       <c r="R471" t="inlineStr"/>
       <c r="S471" t="n">
-        <v>43.28520968510542</v>
+        <v>43.28521344512366</v>
       </c>
       <c r="T471" t="n">
-        <v>43.99335340244835</v>
+        <v>43.99335722398029</v>
       </c>
       <c r="U471" t="n">
-        <v>43.21636279612753</v>
+        <v>43.21636655016531</v>
       </c>
       <c r="V471" t="n">
-        <v>43.9146728515625</v>
+        <v>43.91467666625977</v>
       </c>
       <c r="W471" t="n">
         <v>31320200</v>
@@ -30273,7 +30273,7 @@
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr"/>
       <c r="F472" t="n">
-        <v>43.62944793701172</v>
+        <v>43.62945175170898</v>
       </c>
       <c r="G472" t="inlineStr"/>
       <c r="H472" t="inlineStr">
@@ -30292,16 +30292,16 @@
       <c r="Q472" t="inlineStr"/>
       <c r="R472" t="inlineStr"/>
       <c r="S472" t="n">
-        <v>43.86549334184166</v>
+        <v>43.86549717717732</v>
       </c>
       <c r="T472" t="n">
-        <v>44.34742531717005</v>
+        <v>44.34742919464296</v>
       </c>
       <c r="U472" t="n">
-        <v>43.60977686129688</v>
+        <v>43.60978067427423</v>
       </c>
       <c r="V472" t="n">
-        <v>43.62944793701172</v>
+        <v>43.62945175170898</v>
       </c>
       <c r="W472" t="n">
         <v>30591700</v>
@@ -30336,7 +30336,7 @@
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr"/>
       <c r="F473" t="n">
-        <v>43.64912414550781</v>
+        <v>43.64912033081055</v>
       </c>
       <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
@@ -30355,16 +30355,16 @@
       <c r="Q473" t="inlineStr"/>
       <c r="R473" t="inlineStr"/>
       <c r="S473" t="n">
-        <v>43.71797104266855</v>
+        <v>43.71796722195444</v>
       </c>
       <c r="T473" t="n">
-        <v>43.84583117391328</v>
+        <v>43.84582734202489</v>
       </c>
       <c r="U473" t="n">
-        <v>43.28521482980162</v>
+        <v>43.28521104690806</v>
       </c>
       <c r="V473" t="n">
-        <v>43.64912414550781</v>
+        <v>43.64912033081055</v>
       </c>
       <c r="W473" t="n">
         <v>32020900</v>
@@ -30399,7 +30399,7 @@
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr"/>
       <c r="F474" t="n">
-        <v>44.49005126953125</v>
+        <v>44.49004745483398</v>
       </c>
       <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
@@ -30418,16 +30418,16 @@
       <c r="Q474" t="inlineStr"/>
       <c r="R474" t="inlineStr"/>
       <c r="S474" t="n">
-        <v>44.21303705062422</v>
+        <v>44.21303325967891</v>
       </c>
       <c r="T474" t="n">
-        <v>44.68791371648507</v>
+        <v>44.68790988482255</v>
       </c>
       <c r="U474" t="n">
-        <v>44.16357143888577</v>
+        <v>44.16356765218177</v>
       </c>
       <c r="V474" t="n">
-        <v>44.49005126953125</v>
+        <v>44.49004745483398</v>
       </c>
       <c r="W474" t="n">
         <v>37013000</v>
@@ -30903,7 +30903,7 @@
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr"/>
       <c r="F482" t="n">
-        <v>44.5790901184082</v>
+        <v>44.57908630371094</v>
       </c>
       <c r="G482" t="inlineStr"/>
       <c r="H482" t="inlineStr">
@@ -30922,16 +30922,16 @@
       <c r="Q482" t="inlineStr"/>
       <c r="R482" t="inlineStr"/>
       <c r="S482" t="n">
-        <v>43.7876252481818</v>
+        <v>43.78762150121133</v>
       </c>
       <c r="T482" t="n">
-        <v>44.71759533850256</v>
+        <v>44.7175915119532</v>
       </c>
       <c r="U482" t="n">
-        <v>43.7381596372887</v>
+        <v>43.73815589455108</v>
       </c>
       <c r="V482" t="n">
-        <v>44.5790901184082</v>
+        <v>44.57908630371094</v>
       </c>
       <c r="W482" t="n">
         <v>37684700</v>
@@ -31092,7 +31092,7 @@
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr"/>
       <c r="F485" t="n">
-        <v>46.16201400756836</v>
+        <v>46.16201019287109</v>
       </c>
       <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr">
@@ -31111,16 +31111,16 @@
       <c r="Q485" t="inlineStr"/>
       <c r="R485" t="inlineStr"/>
       <c r="S485" t="n">
-        <v>46.25105362004225</v>
+        <v>46.25104979798701</v>
       </c>
       <c r="T485" t="n">
-        <v>46.68635629547887</v>
+        <v>46.68635243745146</v>
       </c>
       <c r="U485" t="n">
-        <v>46.07297439509446</v>
+        <v>46.07297058775518</v>
       </c>
       <c r="V485" t="n">
-        <v>46.16201400756836</v>
+        <v>46.16201019287109</v>
       </c>
       <c r="W485" t="n">
         <v>45437600</v>
@@ -31218,7 +31218,7 @@
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr"/>
       <c r="F487" t="n">
-        <v>46.95347595214844</v>
+        <v>46.95347213745117</v>
       </c>
       <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr">
@@ -31237,16 +31237,16 @@
       <c r="Q487" t="inlineStr"/>
       <c r="R487" t="inlineStr"/>
       <c r="S487" t="n">
-        <v>46.44892065531575</v>
+        <v>46.44891688161067</v>
       </c>
       <c r="T487" t="n">
-        <v>47.07219795350799</v>
+        <v>47.07219412916525</v>
       </c>
       <c r="U487" t="n">
-        <v>46.39945504174147</v>
+        <v>46.39945127205519</v>
       </c>
       <c r="V487" t="n">
-        <v>46.95347595214844</v>
+        <v>46.95347213745117</v>
       </c>
       <c r="W487" t="n">
         <v>40127000</v>
@@ -39156,7 +39156,7 @@
       <c r="D613" t="inlineStr"/>
       <c r="E613" t="inlineStr"/>
       <c r="F613" t="n">
-        <v>122.5095977783203</v>
+        <v>122.5096054077148</v>
       </c>
       <c r="G613" t="inlineStr"/>
       <c r="H613" t="inlineStr">
@@ -39185,16 +39185,16 @@
       <c r="AA613" t="inlineStr"/>
       <c r="AB613" t="inlineStr"/>
       <c r="AC613" t="n">
-        <v>122.2274960248832</v>
+        <v>122.2275036367096</v>
       </c>
       <c r="AD613" t="n">
-        <v>122.5679610991756</v>
+        <v>122.5679687322047</v>
       </c>
       <c r="AE613" t="n">
-        <v>120.7002606159869</v>
+        <v>120.7002681327033</v>
       </c>
       <c r="AF613" t="n">
-        <v>122.5095977783203</v>
+        <v>122.5096054077148</v>
       </c>
       <c r="AG613" t="n">
         <v>3988400</v>
@@ -39345,7 +39345,7 @@
       <c r="D616" t="inlineStr"/>
       <c r="E616" t="inlineStr"/>
       <c r="F616" t="n">
-        <v>124.3772964477539</v>
+        <v>124.3772888183594</v>
       </c>
       <c r="G616" t="inlineStr"/>
       <c r="H616" t="inlineStr">
@@ -39374,16 +39374,16 @@
       <c r="AA616" t="inlineStr"/>
       <c r="AB616" t="inlineStr"/>
       <c r="AC616" t="n">
-        <v>123.4531759136389</v>
+        <v>123.4531683409306</v>
       </c>
       <c r="AD616" t="n">
-        <v>124.5134824754849</v>
+        <v>124.5134748377366</v>
       </c>
       <c r="AE616" t="n">
-        <v>122.3344986102069</v>
+        <v>122.334491106119</v>
       </c>
       <c r="AF616" t="n">
-        <v>124.3772964477539</v>
+        <v>124.3772888183594</v>
       </c>
       <c r="AG616" t="n">
         <v>5744500</v>
@@ -39408,7 +39408,7 @@
       <c r="D617" t="inlineStr"/>
       <c r="E617" t="inlineStr"/>
       <c r="F617" t="n">
-        <v>120.0874099731445</v>
+        <v>120.0874176025391</v>
       </c>
       <c r="G617" t="inlineStr"/>
       <c r="H617" t="inlineStr">
@@ -39437,16 +39437,16 @@
       <c r="AA617" t="inlineStr"/>
       <c r="AB617" t="inlineStr"/>
       <c r="AC617" t="n">
-        <v>122.8695085904716</v>
+        <v>122.8695163966184</v>
       </c>
       <c r="AD617" t="n">
-        <v>123.0543356592532</v>
+        <v>123.0543434771425</v>
       </c>
       <c r="AE617" t="n">
-        <v>119.9317719848928</v>
+        <v>119.9317796043994</v>
       </c>
       <c r="AF617" t="n">
-        <v>120.0874099731445</v>
+        <v>120.0874176025391</v>
       </c>
       <c r="AG617" t="n">
         <v>6873800</v>
@@ -39471,7 +39471,7 @@
       <c r="D618" t="inlineStr"/>
       <c r="E618" t="inlineStr"/>
       <c r="F618" t="n">
-        <v>120.6127090454102</v>
+        <v>120.6127014160156</v>
       </c>
       <c r="G618" t="inlineStr"/>
       <c r="H618" t="inlineStr">
@@ -39500,16 +39500,16 @@
       <c r="AA618" t="inlineStr"/>
       <c r="AB618" t="inlineStr"/>
       <c r="AC618" t="n">
-        <v>119.1146552866042</v>
+        <v>119.1146477519695</v>
       </c>
       <c r="AD618" t="n">
-        <v>120.9142701889347</v>
+        <v>120.9142625404648</v>
       </c>
       <c r="AE618" t="n">
-        <v>119.1146552866042</v>
+        <v>119.1146477519695</v>
       </c>
       <c r="AF618" t="n">
-        <v>120.6127090454102</v>
+        <v>120.6127014160156</v>
       </c>
       <c r="AG618" t="n">
         <v>5433000</v>
@@ -39912,7 +39912,7 @@
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="n">
-        <v>134.0465545654297</v>
+        <v>134.0465393066406</v>
       </c>
       <c r="G625" t="inlineStr"/>
       <c r="H625" t="inlineStr">
@@ -39941,16 +39941,16 @@
       <c r="AA625" t="inlineStr"/>
       <c r="AB625" t="inlineStr"/>
       <c r="AC625" t="n">
-        <v>132.2663990148585</v>
+        <v>132.2663839587082</v>
       </c>
       <c r="AD625" t="n">
-        <v>134.4356532772112</v>
+        <v>134.4356379741303</v>
       </c>
       <c r="AE625" t="n">
-        <v>132.2663990148585</v>
+        <v>132.2663839587082</v>
       </c>
       <c r="AF625" t="n">
-        <v>134.0465545654297</v>
+        <v>134.0465393066406</v>
       </c>
       <c r="AG625" t="n">
         <v>6911000</v>
@@ -40290,7 +40290,7 @@
       <c r="D631" t="inlineStr"/>
       <c r="E631" t="inlineStr"/>
       <c r="F631" t="n">
-        <v>135.5554046630859</v>
+        <v>135.5553894042969</v>
       </c>
       <c r="G631" t="inlineStr"/>
       <c r="H631" t="inlineStr">
@@ -40319,16 +40319,16 @@
       <c r="AA631" t="inlineStr"/>
       <c r="AB631" t="inlineStr"/>
       <c r="AC631" t="n">
-        <v>136.2506676299575</v>
+        <v>136.2506522929062</v>
       </c>
       <c r="AD631" t="n">
-        <v>136.8577881489647</v>
+        <v>136.857772743573</v>
       </c>
       <c r="AE631" t="n">
-        <v>134.9091213443071</v>
+        <v>134.9091061582669</v>
       </c>
       <c r="AF631" t="n">
-        <v>135.5554046630859</v>
+        <v>135.5553894042969</v>
       </c>
       <c r="AG631" t="n">
         <v>5502700</v>
@@ -40479,7 +40479,7 @@
       <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr"/>
       <c r="F634" t="n">
-        <v>136.0449981689453</v>
+        <v>136.0450134277344</v>
       </c>
       <c r="G634" t="inlineStr"/>
       <c r="H634" t="inlineStr">
@@ -40508,16 +40508,16 @@
       <c r="AA634" t="inlineStr"/>
       <c r="AB634" t="inlineStr"/>
       <c r="AC634" t="n">
-        <v>134.615324626125</v>
+        <v>134.6153397245621</v>
       </c>
       <c r="AD634" t="n">
-        <v>136.3289844501146</v>
+        <v>136.3289997407555</v>
       </c>
       <c r="AE634" t="n">
-        <v>133.6752532339453</v>
+        <v>133.6752682269441</v>
       </c>
       <c r="AF634" t="n">
-        <v>136.0449981689453</v>
+        <v>136.0450134277344</v>
       </c>
       <c r="AG634" t="n">
         <v>5871200</v>
@@ -40668,7 +40668,7 @@
       <c r="D637" t="inlineStr"/>
       <c r="E637" t="inlineStr"/>
       <c r="F637" t="n">
-        <v>134.4586486816406</v>
+        <v>134.4586639404297</v>
       </c>
       <c r="G637" t="inlineStr"/>
       <c r="H637" t="inlineStr">
@@ -40697,16 +40697,16 @@
       <c r="AA637" t="inlineStr"/>
       <c r="AB637" t="inlineStr"/>
       <c r="AC637" t="n">
-        <v>137.3375996860897</v>
+        <v>137.3376152715911</v>
       </c>
       <c r="AD637" t="n">
-        <v>137.3963513487228</v>
+        <v>137.3963669408915</v>
       </c>
       <c r="AE637" t="n">
-        <v>132.7939534920131</v>
+        <v>132.7939685618873</v>
       </c>
       <c r="AF637" t="n">
-        <v>134.4586486816406</v>
+        <v>134.4586639404297</v>
       </c>
       <c r="AG637" t="n">
         <v>5517700</v>
@@ -40794,7 +40794,7 @@
       <c r="D639" t="inlineStr"/>
       <c r="E639" t="inlineStr"/>
       <c r="F639" t="n">
-        <v>134.2628173828125</v>
+        <v>134.2628021240234</v>
       </c>
       <c r="G639" t="inlineStr"/>
       <c r="H639" t="inlineStr">
@@ -40823,16 +40823,16 @@
       <c r="AA639" t="inlineStr"/>
       <c r="AB639" t="inlineStr"/>
       <c r="AC639" t="n">
-        <v>133.2542072348025</v>
+        <v>133.2541920906406</v>
       </c>
       <c r="AD639" t="n">
-        <v>134.4292854231517</v>
+        <v>134.4292701454438</v>
       </c>
       <c r="AE639" t="n">
-        <v>132.7841789478488</v>
+        <v>132.784163857105</v>
       </c>
       <c r="AF639" t="n">
-        <v>134.2628173828125</v>
+        <v>134.2628021240234</v>
       </c>
       <c r="AG639" t="n">
         <v>4688900</v>
@@ -40857,7 +40857,7 @@
       <c r="D640" t="inlineStr"/>
       <c r="E640" t="inlineStr"/>
       <c r="F640" t="n">
-        <v>133.9984283447266</v>
+        <v>133.9984130859375</v>
       </c>
       <c r="G640" t="inlineStr"/>
       <c r="H640" t="inlineStr">
@@ -40886,16 +40886,16 @@
       <c r="AA640" t="inlineStr"/>
       <c r="AB640" t="inlineStr"/>
       <c r="AC640" t="n">
-        <v>135.1049679703551</v>
+        <v>135.1049525855612</v>
       </c>
       <c r="AD640" t="n">
-        <v>135.232273220576</v>
+        <v>135.2322578212854</v>
       </c>
       <c r="AE640" t="n">
-        <v>133.5186130636125</v>
+        <v>133.5185978594614</v>
       </c>
       <c r="AF640" t="n">
-        <v>133.9984283447266</v>
+        <v>133.9984130859375</v>
       </c>
       <c r="AG640" t="n">
         <v>4699800</v>
@@ -40920,7 +40920,7 @@
       <c r="D641" t="inlineStr"/>
       <c r="E641" t="inlineStr"/>
       <c r="F641" t="n">
-        <v>136.0645904541016</v>
+        <v>136.0646057128906</v>
       </c>
       <c r="G641" t="inlineStr"/>
       <c r="H641" t="inlineStr">
@@ -40949,16 +40949,16 @@
       <c r="AA641" t="inlineStr"/>
       <c r="AB641" t="inlineStr"/>
       <c r="AC641" t="n">
-        <v>133.6165049297675</v>
+        <v>133.6165199140191</v>
       </c>
       <c r="AD641" t="n">
-        <v>136.6815127876508</v>
+        <v>136.6815281156238</v>
       </c>
       <c r="AE641" t="n">
-        <v>133.6165049297675</v>
+        <v>133.6165199140191</v>
       </c>
       <c r="AF641" t="n">
-        <v>136.0645904541016</v>
+        <v>136.0646057128906</v>
       </c>
       <c r="AG641" t="n">
         <v>5044500</v>
@@ -41046,7 +41046,7 @@
       <c r="D643" t="inlineStr"/>
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="n">
-        <v>137.7684783935547</v>
+        <v>137.7684936523438</v>
       </c>
       <c r="G643" t="inlineStr"/>
       <c r="H643" t="inlineStr">
@@ -41075,16 +41075,16 @@
       <c r="AA643" t="inlineStr"/>
       <c r="AB643" t="inlineStr"/>
       <c r="AC643" t="n">
-        <v>137.1025912884612</v>
+        <v>137.1026064734988</v>
       </c>
       <c r="AD643" t="n">
-        <v>138.0034850667042</v>
+        <v>138.0035003515219</v>
       </c>
       <c r="AE643" t="n">
-        <v>136.3681655510092</v>
+        <v>136.3681806547041</v>
       </c>
       <c r="AF643" t="n">
-        <v>137.7684783935547</v>
+        <v>137.7684936523438</v>
       </c>
       <c r="AG643" t="n">
         <v>3623100</v>
@@ -41235,7 +41235,7 @@
       <c r="D646" t="inlineStr"/>
       <c r="E646" t="inlineStr"/>
       <c r="F646" t="n">
-        <v>127.2710876464844</v>
+        <v>127.2710800170898</v>
       </c>
       <c r="G646" t="inlineStr"/>
       <c r="H646" t="inlineStr">
@@ -41264,16 +41264,16 @@
       <c r="AA646" t="inlineStr"/>
       <c r="AB646" t="inlineStr"/>
       <c r="AC646" t="n">
-        <v>130.0031448652078</v>
+        <v>130.0031370720373</v>
       </c>
       <c r="AD646" t="n">
-        <v>130.2087906498959</v>
+        <v>130.2087828443977</v>
       </c>
       <c r="AE646" t="n">
-        <v>126.2232997364745</v>
+        <v>126.2232921698907</v>
       </c>
       <c r="AF646" t="n">
-        <v>127.2710876464844</v>
+        <v>127.2710800170898</v>
       </c>
       <c r="AG646" t="n">
         <v>7784500</v>
@@ -41361,7 +41361,7 @@
       <c r="D648" t="inlineStr"/>
       <c r="E648" t="inlineStr"/>
       <c r="F648" t="n">
-        <v>128.3286590576172</v>
+        <v>128.3286437988281</v>
       </c>
       <c r="G648" t="inlineStr"/>
       <c r="H648" t="inlineStr">
@@ -41390,16 +41390,16 @@
       <c r="AA648" t="inlineStr"/>
       <c r="AB648" t="inlineStr"/>
       <c r="AC648" t="n">
-        <v>127.7019496981459</v>
+        <v>127.7019345138751</v>
       </c>
       <c r="AD648" t="n">
-        <v>129.4939502748989</v>
+        <v>129.4939348775521</v>
       </c>
       <c r="AE648" t="n">
-        <v>127.4473392152193</v>
+        <v>127.4473240612227</v>
       </c>
       <c r="AF648" t="n">
-        <v>128.3286590576172</v>
+        <v>128.3286437988281</v>
       </c>
       <c r="AG648" t="n">
         <v>5493600</v>
@@ -41424,7 +41424,7 @@
       <c r="D649" t="inlineStr"/>
       <c r="E649" t="inlineStr"/>
       <c r="F649" t="n">
-        <v>126.5562438964844</v>
+        <v>126.5562515258789</v>
       </c>
       <c r="G649" t="inlineStr"/>
       <c r="H649" t="inlineStr">
@@ -41453,16 +41453,16 @@
       <c r="AA649" t="inlineStr"/>
       <c r="AB649" t="inlineStr"/>
       <c r="AC649" t="n">
-        <v>129.0630812659468</v>
+        <v>129.0630890464651</v>
       </c>
       <c r="AD649" t="n">
-        <v>130.1108541771526</v>
+        <v>130.1108620208354</v>
       </c>
       <c r="AE649" t="n">
-        <v>126.1351653857149</v>
+        <v>126.1351729897249</v>
       </c>
       <c r="AF649" t="n">
-        <v>126.5562438964844</v>
+        <v>126.5562515258789</v>
       </c>
       <c r="AG649" t="n">
         <v>5538700</v>
@@ -41487,7 +41487,7 @@
       <c r="D650" t="inlineStr"/>
       <c r="E650" t="inlineStr"/>
       <c r="F650" t="n">
-        <v>130.3458709716797</v>
+        <v>130.3458862304688</v>
       </c>
       <c r="G650" t="inlineStr"/>
       <c r="H650" t="inlineStr">
@@ -41516,16 +41516,16 @@
       <c r="AA650" t="inlineStr"/>
       <c r="AB650" t="inlineStr"/>
       <c r="AC650" t="n">
-        <v>127.2025224702492</v>
+        <v>127.2025373610658</v>
       </c>
       <c r="AD650" t="n">
-        <v>130.6396442336151</v>
+        <v>130.6396595267944</v>
       </c>
       <c r="AE650" t="n">
-        <v>126.3114306630143</v>
+        <v>126.3114454495163</v>
       </c>
       <c r="AF650" t="n">
-        <v>130.3458709716797</v>
+        <v>130.3458862304688</v>
       </c>
       <c r="AG650" t="n">
         <v>7424200</v>
@@ -41550,7 +41550,7 @@
       <c r="D651" t="inlineStr"/>
       <c r="E651" t="inlineStr"/>
       <c r="F651" t="n">
-        <v>126.4485397338867</v>
+        <v>126.4485321044922</v>
       </c>
       <c r="G651" t="inlineStr"/>
       <c r="H651" t="inlineStr">
@@ -41579,16 +41579,16 @@
       <c r="AA651" t="inlineStr"/>
       <c r="AB651" t="inlineStr"/>
       <c r="AC651" t="n">
-        <v>130.5613211240367</v>
+        <v>130.5613132464935</v>
       </c>
       <c r="AD651" t="n">
-        <v>131.2076193981557</v>
+        <v>131.2076114816176</v>
       </c>
       <c r="AE651" t="n">
-        <v>125.0776101135149</v>
+        <v>125.0776025668368</v>
       </c>
       <c r="AF651" t="n">
-        <v>126.4485397338867</v>
+        <v>126.4485321044922</v>
       </c>
       <c r="AG651" t="n">
         <v>5969400</v>
@@ -41739,7 +41739,7 @@
       <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr"/>
       <c r="F654" t="n">
-        <v>116.8912048339844</v>
+        <v>116.8911972045898</v>
       </c>
       <c r="G654" t="inlineStr"/>
       <c r="H654" t="inlineStr">
@@ -41768,16 +41768,16 @@
       <c r="AA654" t="inlineStr"/>
       <c r="AB654" t="inlineStr"/>
       <c r="AC654" t="n">
-        <v>118.2915102267875</v>
+        <v>118.2915025059962</v>
       </c>
       <c r="AD654" t="n">
-        <v>120.5731205411179</v>
+        <v>120.5731126714077</v>
       </c>
       <c r="AE654" t="n">
-        <v>116.1371902150323</v>
+        <v>116.1371826348517</v>
       </c>
       <c r="AF654" t="n">
-        <v>116.8912048339844</v>
+        <v>116.8911972045898</v>
       </c>
       <c r="AG654" t="n">
         <v>8611500</v>
@@ -41802,7 +41802,7 @@
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr"/>
       <c r="F655" t="n">
-        <v>116.812858581543</v>
+        <v>116.8128662109375</v>
       </c>
       <c r="G655" t="inlineStr"/>
       <c r="H655" t="inlineStr">
@@ -41831,16 +41831,16 @@
       <c r="AA655" t="inlineStr"/>
       <c r="AB655" t="inlineStr"/>
       <c r="AC655" t="n">
-        <v>116.264489773462</v>
+        <v>116.264497367041</v>
       </c>
       <c r="AD655" t="n">
-        <v>117.0087024498677</v>
+        <v>117.0087100920534</v>
       </c>
       <c r="AE655" t="n">
-        <v>113.0525950477981</v>
+        <v>113.0526024315987</v>
       </c>
       <c r="AF655" t="n">
-        <v>116.812858581543</v>
+        <v>116.8128662109375</v>
       </c>
       <c r="AG655" t="n">
         <v>8513500</v>
@@ -42054,7 +42054,7 @@
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr"/>
       <c r="F659" t="n">
-        <v>109.3608856201172</v>
+        <v>109.3608932495117</v>
       </c>
       <c r="G659" t="inlineStr"/>
       <c r="H659" t="inlineStr">
@@ -42083,16 +42083,16 @@
       <c r="AA659" t="inlineStr"/>
       <c r="AB659" t="inlineStr"/>
       <c r="AC659" t="n">
-        <v>111.6327088702163</v>
+        <v>111.6327166581011</v>
       </c>
       <c r="AD659" t="n">
-        <v>112.4650565211083</v>
+        <v>112.4650643670606</v>
       </c>
       <c r="AE659" t="n">
-        <v>108.9202331787522</v>
+        <v>108.9202407774053</v>
       </c>
       <c r="AF659" t="n">
-        <v>109.3608856201172</v>
+        <v>109.3608932495117</v>
       </c>
       <c r="AG659" t="n">
         <v>7435500</v>
@@ -42180,7 +42180,7 @@
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr"/>
       <c r="F661" t="n">
-        <v>115.5104751586914</v>
+        <v>115.5104675292969</v>
       </c>
       <c r="G661" t="inlineStr"/>
       <c r="H661" t="inlineStr">
@@ -42209,16 +42209,16 @@
       <c r="AA661" t="inlineStr"/>
       <c r="AB661" t="inlineStr"/>
       <c r="AC661" t="n">
-        <v>112.582566743567</v>
+        <v>112.582559307559</v>
       </c>
       <c r="AD661" t="n">
-        <v>116.8226529831826</v>
+        <v>116.8226452671195</v>
       </c>
       <c r="AE661" t="n">
-        <v>112.4552615053238</v>
+        <v>112.4552540777242</v>
       </c>
       <c r="AF661" t="n">
-        <v>115.5104751586914</v>
+        <v>115.5104675292969</v>
       </c>
       <c r="AG661" t="n">
         <v>8374900</v>
@@ -42369,7 +42369,7 @@
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr"/>
       <c r="F664" t="n">
-        <v>117.9683609008789</v>
+        <v>117.9683532714844</v>
       </c>
       <c r="G664" t="inlineStr"/>
       <c r="H664" t="inlineStr">
@@ -42398,16 +42398,16 @@
       <c r="AA664" t="inlineStr"/>
       <c r="AB664" t="inlineStr"/>
       <c r="AC664" t="n">
-        <v>116.352622762591</v>
+        <v>116.3526152376914</v>
       </c>
       <c r="AD664" t="n">
-        <v>119.2805313166867</v>
+        <v>119.2805236024299</v>
       </c>
       <c r="AE664" t="n">
-        <v>116.352622762591</v>
+        <v>116.3526152376914</v>
       </c>
       <c r="AF664" t="n">
-        <v>117.9683609008789</v>
+        <v>117.9683532714844</v>
       </c>
       <c r="AG664" t="n">
         <v>7026000</v>
@@ -42432,7 +42432,7 @@
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr"/>
       <c r="F665" t="n">
-        <v>117.6452102661133</v>
+        <v>117.6452026367188</v>
       </c>
       <c r="G665" t="inlineStr"/>
       <c r="H665" t="inlineStr">
@@ -42461,16 +42461,16 @@
       <c r="AA665" t="inlineStr"/>
       <c r="AB665" t="inlineStr"/>
       <c r="AC665" t="n">
-        <v>116.8716142590399</v>
+        <v>116.8716066798137</v>
       </c>
       <c r="AD665" t="n">
-        <v>118.3698415689427</v>
+        <v>118.3698338925551</v>
       </c>
       <c r="AE665" t="n">
-        <v>115.8434227085992</v>
+        <v>115.8434151960521</v>
       </c>
       <c r="AF665" t="n">
-        <v>117.6452102661133</v>
+        <v>117.6452026367188</v>
       </c>
       <c r="AG665" t="n">
         <v>10989900</v>
@@ -42495,7 +42495,7 @@
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr"/>
       <c r="F666" t="n">
-        <v>121.6894454956055</v>
+        <v>121.6894378662109</v>
       </c>
       <c r="G666" t="inlineStr"/>
       <c r="H666" t="inlineStr">
@@ -42524,16 +42524,16 @@
       <c r="AA666" t="inlineStr"/>
       <c r="AB666" t="inlineStr"/>
       <c r="AC666" t="n">
-        <v>119.7701471275011</v>
+        <v>119.7701396184382</v>
       </c>
       <c r="AD666" t="n">
-        <v>122.2280273592675</v>
+        <v>122.2280196961063</v>
       </c>
       <c r="AE666" t="n">
-        <v>119.4665868794179</v>
+        <v>119.4665793893869</v>
       </c>
       <c r="AF666" t="n">
-        <v>121.6894454956055</v>
+        <v>121.6894378662109</v>
       </c>
       <c r="AG666" t="n">
         <v>6184400</v>
@@ -42936,7 +42936,7 @@
       <c r="D673" t="inlineStr"/>
       <c r="E673" t="inlineStr"/>
       <c r="F673" t="n">
-        <v>116.7932662963867</v>
+        <v>116.7932739257812</v>
       </c>
       <c r="G673" t="inlineStr"/>
       <c r="H673" t="inlineStr">
@@ -42965,16 +42965,16 @@
       <c r="AA673" t="inlineStr"/>
       <c r="AB673" t="inlineStr"/>
       <c r="AC673" t="n">
-        <v>111.6033292279204</v>
+        <v>111.6033365182879</v>
       </c>
       <c r="AD673" t="n">
-        <v>117.8508410847255</v>
+        <v>117.8508487832049</v>
       </c>
       <c r="AE673" t="n">
-        <v>111.5151942600766</v>
+        <v>111.5152015446867</v>
       </c>
       <c r="AF673" t="n">
-        <v>116.7932662963867</v>
+        <v>116.7932739257812</v>
       </c>
       <c r="AG673" t="n">
         <v>8415300</v>
@@ -42999,7 +42999,7 @@
       <c r="D674" t="inlineStr"/>
       <c r="E674" t="inlineStr"/>
       <c r="F674" t="n">
-        <v>105.6887588500977</v>
+        <v>105.6887664794922</v>
       </c>
       <c r="G674" t="inlineStr"/>
       <c r="H674" t="inlineStr">
@@ -43028,16 +43028,16 @@
       <c r="AA674" t="inlineStr"/>
       <c r="AB674" t="inlineStr"/>
       <c r="AC674" t="n">
-        <v>107.8234899340909</v>
+        <v>107.8234977175861</v>
       </c>
       <c r="AD674" t="n">
-        <v>109.0769086492861</v>
+        <v>109.0769165232623</v>
       </c>
       <c r="AE674" t="n">
-        <v>104.6605598413391</v>
+        <v>104.6605673965106</v>
       </c>
       <c r="AF674" t="n">
-        <v>105.6887588500977</v>
+        <v>105.6887664794922</v>
       </c>
       <c r="AG674" t="n">
         <v>15186100</v>
@@ -43062,7 +43062,7 @@
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr"/>
       <c r="F675" t="n">
-        <v>97.7569580078125</v>
+        <v>97.75696563720703</v>
       </c>
       <c r="G675" t="inlineStr"/>
       <c r="H675" t="inlineStr">
@@ -43091,16 +43091,16 @@
       <c r="AA675" t="inlineStr"/>
       <c r="AB675" t="inlineStr"/>
       <c r="AC675" t="n">
-        <v>99.43144769656448</v>
+        <v>99.43145545664373</v>
       </c>
       <c r="AD675" t="n">
-        <v>101.5465898141064</v>
+        <v>101.5465977392609</v>
       </c>
       <c r="AE675" t="n">
-        <v>95.28928348788838</v>
+        <v>95.28929092469444</v>
       </c>
       <c r="AF675" t="n">
-        <v>97.7569580078125</v>
+        <v>97.75696563720703</v>
       </c>
       <c r="AG675" t="n">
         <v>18876900</v>
@@ -43125,7 +43125,7 @@
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr"/>
       <c r="F676" t="n">
-        <v>98.82431793212891</v>
+        <v>98.82432556152344</v>
       </c>
       <c r="G676" t="inlineStr"/>
       <c r="H676" t="inlineStr">
@@ -43154,16 +43154,16 @@
       <c r="AA676" t="inlineStr"/>
       <c r="AB676" t="inlineStr"/>
       <c r="AC676" t="n">
-        <v>94.27087721159839</v>
+        <v>94.27088448946004</v>
       </c>
       <c r="AD676" t="n">
-        <v>102.1732972475006</v>
+        <v>102.1733051354417</v>
       </c>
       <c r="AE676" t="n">
-        <v>92.37116786194125</v>
+        <v>92.37117499314233</v>
       </c>
       <c r="AF676" t="n">
-        <v>98.82431793212891</v>
+        <v>98.82432556152344</v>
       </c>
       <c r="AG676" t="n">
         <v>20721400</v>
@@ -43188,7 +43188,7 @@
       <c r="D677" t="inlineStr"/>
       <c r="E677" t="inlineStr"/>
       <c r="F677" t="n">
-        <v>98.22698974609375</v>
+        <v>98.22699737548828</v>
       </c>
       <c r="G677" t="inlineStr"/>
       <c r="H677" t="inlineStr">
@@ -43217,16 +43217,16 @@
       <c r="AA677" t="inlineStr"/>
       <c r="AB677" t="inlineStr"/>
       <c r="AC677" t="n">
-        <v>103.0350337208688</v>
+        <v>103.0350417237092</v>
       </c>
       <c r="AD677" t="n">
-        <v>104.719317903715</v>
+        <v>104.7193260373755</v>
       </c>
       <c r="AE677" t="n">
-        <v>96.22935088766913</v>
+        <v>96.22935836190493</v>
       </c>
       <c r="AF677" t="n">
-        <v>98.22698974609375</v>
+        <v>98.22699737548828</v>
       </c>
       <c r="AG677" t="n">
         <v>10710100</v>
@@ -43314,7 +43314,7 @@
       <c r="D679" t="inlineStr"/>
       <c r="E679" t="inlineStr"/>
       <c r="F679" t="n">
-        <v>104.3667907714844</v>
+        <v>104.3667984008789</v>
       </c>
       <c r="G679" t="inlineStr"/>
       <c r="H679" t="inlineStr">
@@ -43343,16 +43343,16 @@
       <c r="AA679" t="inlineStr"/>
       <c r="AB679" t="inlineStr"/>
       <c r="AC679" t="n">
-        <v>106.5113087524295</v>
+        <v>106.5113165385921</v>
       </c>
       <c r="AD679" t="n">
-        <v>106.6092381566533</v>
+        <v>106.6092459499747</v>
       </c>
       <c r="AE679" t="n">
-        <v>101.2626199142842</v>
+        <v>101.2626273167584</v>
       </c>
       <c r="AF679" t="n">
-        <v>104.3667907714844</v>
+        <v>104.3667984008789</v>
       </c>
       <c r="AG679" t="n">
         <v>10956700</v>
@@ -43503,7 +43503,7 @@
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr"/>
       <c r="F682" t="n">
-        <v>108.1466369628906</v>
+        <v>108.1466445922852</v>
       </c>
       <c r="G682" t="inlineStr"/>
       <c r="H682" t="inlineStr">
@@ -43532,16 +43532,16 @@
       <c r="AA682" t="inlineStr"/>
       <c r="AB682" t="inlineStr"/>
       <c r="AC682" t="n">
-        <v>107.8038989859354</v>
+        <v>107.8039065911508</v>
       </c>
       <c r="AD682" t="n">
-        <v>109.8211266958427</v>
+        <v>109.8211344433671</v>
       </c>
       <c r="AE682" t="n">
-        <v>107.7745231527026</v>
+        <v>107.7745307558457</v>
       </c>
       <c r="AF682" t="n">
-        <v>108.1466369628906</v>
+        <v>108.1466445922852</v>
       </c>
       <c r="AG682" t="n">
         <v>6003800</v>
@@ -43566,7 +43566,7 @@
       <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr"/>
       <c r="F683" t="n">
-        <v>105.6202087402344</v>
+        <v>105.6202163696289</v>
       </c>
       <c r="G683" t="inlineStr"/>
       <c r="H683" t="inlineStr">
@@ -43595,16 +43595,16 @@
       <c r="AA683" t="inlineStr"/>
       <c r="AB683" t="inlineStr"/>
       <c r="AC683" t="n">
-        <v>107.3044928764862</v>
+        <v>107.3045006275436</v>
       </c>
       <c r="AD683" t="n">
-        <v>108.0291241429092</v>
+        <v>108.0291319463098</v>
       </c>
       <c r="AE683" t="n">
-        <v>104.4353361725141</v>
+        <v>104.4353437163203</v>
       </c>
       <c r="AF683" t="n">
-        <v>105.6202087402344</v>
+        <v>105.6202163696289</v>
       </c>
       <c r="AG683" t="n">
         <v>6520100</v>
@@ -43629,7 +43629,7 @@
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr"/>
       <c r="F684" t="n">
-        <v>106.9128036499023</v>
+        <v>106.9127960205078</v>
       </c>
       <c r="G684" t="inlineStr"/>
       <c r="H684" t="inlineStr">
@@ -43658,16 +43658,16 @@
       <c r="AA684" t="inlineStr"/>
       <c r="AB684" t="inlineStr"/>
       <c r="AC684" t="n">
-        <v>106.2665054108652</v>
+        <v>106.266497827591</v>
       </c>
       <c r="AD684" t="n">
-        <v>108.4502012376837</v>
+        <v>108.4501934985791</v>
       </c>
       <c r="AE684" t="n">
-        <v>105.9041934928882</v>
+        <v>105.904185935469</v>
       </c>
       <c r="AF684" t="n">
-        <v>106.9128036499023</v>
+        <v>106.9127960205078</v>
       </c>
       <c r="AG684" t="n">
         <v>5233100</v>
@@ -43692,7 +43692,7 @@
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr"/>
       <c r="F685" t="n">
-        <v>104.0926132202148</v>
+        <v>104.0926055908203</v>
       </c>
       <c r="G685" t="inlineStr"/>
       <c r="H685" t="inlineStr">
@@ -43721,16 +43721,16 @@
       <c r="AA685" t="inlineStr"/>
       <c r="AB685" t="inlineStr"/>
       <c r="AC685" t="n">
-        <v>105.8944008178446</v>
+        <v>105.8943930563893</v>
       </c>
       <c r="AD685" t="n">
-        <v>106.0804577329565</v>
+        <v>106.0804499578643</v>
       </c>
       <c r="AE685" t="n">
-        <v>102.6041728412497</v>
+        <v>102.6041653209494</v>
       </c>
       <c r="AF685" t="n">
-        <v>104.0926132202148</v>
+        <v>104.0926055908203</v>
       </c>
       <c r="AG685" t="n">
         <v>7784500</v>
@@ -43755,7 +43755,7 @@
       <c r="D686" t="inlineStr"/>
       <c r="E686" t="inlineStr"/>
       <c r="F686" t="n">
-        <v>108.0878829956055</v>
+        <v>108.0878753662109</v>
       </c>
       <c r="G686" t="inlineStr"/>
       <c r="H686" t="inlineStr">
@@ -43784,16 +43784,16 @@
       <c r="AA686" t="inlineStr"/>
       <c r="AB686" t="inlineStr"/>
       <c r="AC686" t="n">
-        <v>105.7768893718641</v>
+        <v>105.7768819055913</v>
       </c>
       <c r="AD686" t="n">
-        <v>108.4012376833518</v>
+        <v>108.4012300318391</v>
       </c>
       <c r="AE686" t="n">
-        <v>105.7279321377893</v>
+        <v>105.7279246749721</v>
       </c>
       <c r="AF686" t="n">
-        <v>108.0878829956055</v>
+        <v>108.0878753662109</v>
       </c>
       <c r="AG686" t="n">
         <v>6571300</v>
@@ -43818,7 +43818,7 @@
       <c r="D687" t="inlineStr"/>
       <c r="E687" t="inlineStr"/>
       <c r="F687" t="n">
-        <v>109.9777984619141</v>
+        <v>109.9778060913086</v>
       </c>
       <c r="G687" t="inlineStr"/>
       <c r="H687" t="inlineStr">
@@ -43847,16 +43847,16 @@
       <c r="AA687" t="inlineStr"/>
       <c r="AB687" t="inlineStr"/>
       <c r="AC687" t="n">
-        <v>110.89828106633</v>
+        <v>110.8982887595804</v>
       </c>
       <c r="AD687" t="n">
-        <v>114.1885088108758</v>
+        <v>114.1885167323763</v>
       </c>
       <c r="AE687" t="n">
-        <v>109.6056921288988</v>
+        <v>109.6056997324795</v>
       </c>
       <c r="AF687" t="n">
-        <v>109.9777984619141</v>
+        <v>109.9778060913086</v>
       </c>
       <c r="AG687" t="n">
         <v>9243800</v>
@@ -44007,7 +44007,7 @@
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr"/>
       <c r="F690" t="n">
-        <v>113.4247055053711</v>
+        <v>113.4247131347656</v>
       </c>
       <c r="G690" t="inlineStr"/>
       <c r="H690" t="inlineStr">
@@ -44036,16 +44036,16 @@
       <c r="AA690" t="inlineStr"/>
       <c r="AB690" t="inlineStr"/>
       <c r="AC690" t="n">
-        <v>113.4736627355233</v>
+        <v>113.4736703682109</v>
       </c>
       <c r="AD690" t="n">
-        <v>115.4517201135907</v>
+        <v>115.4517278793302</v>
       </c>
       <c r="AE690" t="n">
-        <v>111.4662369961362</v>
+        <v>111.4662444937964</v>
       </c>
       <c r="AF690" t="n">
-        <v>113.4247055053711</v>
+        <v>113.4247131347656</v>
       </c>
       <c r="AG690" t="n">
         <v>4171200</v>
@@ -44070,7 +44070,7 @@
       <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr"/>
       <c r="F691" t="n">
-        <v>113.7968063354492</v>
+        <v>113.7968215942383</v>
       </c>
       <c r="G691" t="inlineStr"/>
       <c r="H691" t="inlineStr">
@@ -44099,16 +44099,16 @@
       <c r="AA691" t="inlineStr"/>
       <c r="AB691" t="inlineStr"/>
       <c r="AC691" t="n">
-        <v>112.9840401503472</v>
+        <v>112.984055300154</v>
       </c>
       <c r="AD691" t="n">
-        <v>114.0514093212208</v>
+        <v>114.0514246141491</v>
       </c>
       <c r="AE691" t="n">
-        <v>111.8579267887073</v>
+        <v>111.8579417875159</v>
       </c>
       <c r="AF691" t="n">
-        <v>113.7968063354492</v>
+        <v>113.7968215942383</v>
       </c>
       <c r="AG691" t="n">
         <v>4689800</v>
@@ -46842,7 +46842,7 @@
       <c r="D735" t="inlineStr"/>
       <c r="E735" t="inlineStr"/>
       <c r="F735" t="n">
-        <v>69.08339691162109</v>
+        <v>69.08338928222656</v>
       </c>
       <c r="G735" t="inlineStr"/>
       <c r="H735" t="inlineStr">
@@ -46876,16 +46876,16 @@
       <c r="AF735" t="inlineStr"/>
       <c r="AG735" t="inlineStr"/>
       <c r="AH735" t="n">
-        <v>68.96663356834489</v>
+        <v>68.9666259518454</v>
       </c>
       <c r="AI735" t="n">
-        <v>69.17096385149561</v>
+        <v>69.17095621243041</v>
       </c>
       <c r="AJ735" t="n">
-        <v>67.96443899808219</v>
+        <v>67.96443149226252</v>
       </c>
       <c r="AK735" t="n">
-        <v>69.08339691162109</v>
+        <v>69.08338928222656</v>
       </c>
       <c r="AL735" t="n">
         <v>11342900</v>
@@ -47094,7 +47094,7 @@
       <c r="D739" t="inlineStr"/>
       <c r="E739" t="inlineStr"/>
       <c r="F739" t="n">
-        <v>69.47258758544922</v>
+        <v>69.47260284423828</v>
       </c>
       <c r="G739" t="inlineStr"/>
       <c r="H739" t="inlineStr">
@@ -47128,16 +47128,16 @@
       <c r="AF739" t="inlineStr"/>
       <c r="AG739" t="inlineStr"/>
       <c r="AH739" t="n">
-        <v>70.50397094197584</v>
+        <v>70.50398642729542</v>
       </c>
       <c r="AI739" t="n">
-        <v>70.50397094197584</v>
+        <v>70.50398642729542</v>
       </c>
       <c r="AJ739" t="n">
-        <v>69.10284077956825</v>
+        <v>69.10285595714703</v>
       </c>
       <c r="AK739" t="n">
-        <v>69.47258758544922</v>
+        <v>69.47260284423828</v>
       </c>
       <c r="AL739" t="n">
         <v>13217700</v>
@@ -47157,7 +47157,7 @@
       <c r="D740" t="inlineStr"/>
       <c r="E740" t="inlineStr"/>
       <c r="F740" t="n">
-        <v>70.80561065673828</v>
+        <v>70.80560302734375</v>
       </c>
       <c r="G740" t="inlineStr"/>
       <c r="H740" t="inlineStr">
@@ -47191,16 +47191,16 @@
       <c r="AF740" t="inlineStr"/>
       <c r="AG740" t="inlineStr"/>
       <c r="AH740" t="n">
-        <v>69.06393725364941</v>
+        <v>69.06392981192241</v>
       </c>
       <c r="AI740" t="n">
-        <v>71.02940519970993</v>
+        <v>71.02939754620125</v>
       </c>
       <c r="AJ740" t="n">
-        <v>69.06393725364941</v>
+        <v>69.06392981192241</v>
       </c>
       <c r="AK740" t="n">
-        <v>70.80561065673828</v>
+        <v>70.80560302734375</v>
       </c>
       <c r="AL740" t="n">
         <v>16720600</v>
@@ -47283,7 +47283,7 @@
       <c r="D742" t="inlineStr"/>
       <c r="E742" t="inlineStr"/>
       <c r="F742" t="n">
-        <v>76.15713500976562</v>
+        <v>76.15714263916016</v>
       </c>
       <c r="G742" t="inlineStr"/>
       <c r="H742" t="inlineStr">
@@ -47317,16 +47317,16 @@
       <c r="AF742" t="inlineStr"/>
       <c r="AG742" t="inlineStr"/>
       <c r="AH742" t="n">
-        <v>74.14301398012243</v>
+        <v>74.14302140774303</v>
       </c>
       <c r="AI742" t="n">
-        <v>77.11068363842303</v>
+        <v>77.11069136334372</v>
       </c>
       <c r="AJ742" t="n">
-        <v>73.81219568297031</v>
+        <v>73.81220307744965</v>
       </c>
       <c r="AK742" t="n">
-        <v>76.15713500976562</v>
+        <v>76.15714263916016</v>
       </c>
       <c r="AL742" t="n">
         <v>44903000</v>
@@ -47346,7 +47346,7 @@
       <c r="D743" t="inlineStr"/>
       <c r="E743" t="inlineStr"/>
       <c r="F743" t="n">
-        <v>76.39066314697266</v>
+        <v>76.39067077636719</v>
       </c>
       <c r="G743" t="inlineStr"/>
       <c r="H743" t="inlineStr">
@@ -47380,16 +47380,16 @@
       <c r="AF743" t="inlineStr"/>
       <c r="AG743" t="inlineStr"/>
       <c r="AH743" t="n">
-        <v>75.72901911641479</v>
+        <v>75.72902667972869</v>
       </c>
       <c r="AI743" t="n">
-        <v>76.63391451962713</v>
+        <v>76.63392217331599</v>
       </c>
       <c r="AJ743" t="n">
-        <v>75.66090902900925</v>
+        <v>75.66091658552077</v>
       </c>
       <c r="AK743" t="n">
-        <v>76.39066314697266</v>
+        <v>76.39067077636719</v>
       </c>
       <c r="AL743" t="n">
         <v>21463100</v>
@@ -47472,7 +47472,7 @@
       <c r="D745" t="inlineStr"/>
       <c r="E745" t="inlineStr"/>
       <c r="F745" t="n">
-        <v>79.46536254882812</v>
+        <v>79.46535491943359</v>
       </c>
       <c r="G745" t="inlineStr"/>
       <c r="H745" t="inlineStr">
@@ -47506,16 +47506,16 @@
       <c r="AF745" t="inlineStr"/>
       <c r="AG745" t="inlineStr"/>
       <c r="AH745" t="n">
-        <v>78.25883772926854</v>
+        <v>78.25883021571133</v>
       </c>
       <c r="AI745" t="n">
-        <v>79.6405038471064</v>
+        <v>79.64049620089672</v>
       </c>
       <c r="AJ745" t="n">
-        <v>77.76260281357288</v>
+        <v>77.76259534765872</v>
       </c>
       <c r="AK745" t="n">
-        <v>79.46536254882812</v>
+        <v>79.46535491943359</v>
       </c>
       <c r="AL745" t="n">
         <v>21297400</v>
@@ -47661,7 +47661,7 @@
       <c r="D748" t="inlineStr"/>
       <c r="E748" t="inlineStr"/>
       <c r="F748" t="n">
-        <v>79.28048706054688</v>
+        <v>79.28049468994141</v>
       </c>
       <c r="G748" t="inlineStr"/>
       <c r="H748" t="inlineStr">
@@ -47695,16 +47695,16 @@
       <c r="AF748" t="inlineStr"/>
       <c r="AG748" t="inlineStr"/>
       <c r="AH748" t="n">
-        <v>79.29021177013497</v>
+        <v>79.29021940046533</v>
       </c>
       <c r="AI748" t="n">
-        <v>79.90320995253683</v>
+        <v>79.90321764185782</v>
       </c>
       <c r="AJ748" t="n">
-        <v>79.14425946844679</v>
+        <v>79.14426708473174</v>
       </c>
       <c r="AK748" t="n">
-        <v>79.28048706054688</v>
+        <v>79.28049468994141</v>
       </c>
       <c r="AL748" t="n">
         <v>16025200</v>
@@ -47724,7 +47724,7 @@
       <c r="D749" t="inlineStr"/>
       <c r="E749" t="inlineStr"/>
       <c r="F749" t="n">
-        <v>78.88156127929688</v>
+        <v>78.88155364990234</v>
       </c>
       <c r="G749" t="inlineStr"/>
       <c r="H749" t="inlineStr">
@@ -47758,16 +47758,16 @@
       <c r="AF749" t="inlineStr"/>
       <c r="AG749" t="inlineStr"/>
       <c r="AH749" t="n">
-        <v>78.57019979377013</v>
+        <v>78.57019219449037</v>
       </c>
       <c r="AI749" t="n">
-        <v>79.21238703335594</v>
+        <v>79.21237937196406</v>
       </c>
       <c r="AJ749" t="n">
-        <v>78.05450802931428</v>
+        <v>78.05450047991204</v>
       </c>
       <c r="AK749" t="n">
-        <v>78.88156127929688</v>
+        <v>78.88155364990234</v>
       </c>
       <c r="AL749" t="n">
         <v>12782800</v>
@@ -47913,7 +47913,7 @@
       <c r="D752" t="inlineStr"/>
       <c r="E752" t="inlineStr"/>
       <c r="F752" t="n">
-        <v>79.65023040771484</v>
+        <v>79.65022277832031</v>
       </c>
       <c r="G752" t="inlineStr"/>
       <c r="H752" t="inlineStr">
@@ -47947,16 +47947,16 @@
       <c r="AF752" t="inlineStr"/>
       <c r="AG752" t="inlineStr"/>
       <c r="AH752" t="n">
-        <v>79.09561757255032</v>
+        <v>79.09560999628006</v>
       </c>
       <c r="AI752" t="n">
-        <v>80.38971666241513</v>
+        <v>80.38970896218801</v>
       </c>
       <c r="AJ752" t="n">
-        <v>78.80371295469834</v>
+        <v>78.80370540638852</v>
       </c>
       <c r="AK752" t="n">
-        <v>79.65023040771484</v>
+        <v>79.65022277832031</v>
       </c>
       <c r="AL752" t="n">
         <v>10775500</v>
@@ -48354,7 +48354,7 @@
       <c r="D759" t="inlineStr"/>
       <c r="E759" t="inlineStr"/>
       <c r="F759" t="n">
-        <v>79.09467315673828</v>
+        <v>79.09468078613281</v>
       </c>
       <c r="G759" t="inlineStr"/>
       <c r="H759" t="inlineStr">
@@ -48388,16 +48388,16 @@
       <c r="AF759" t="inlineStr"/>
       <c r="AG759" t="inlineStr"/>
       <c r="AH759" t="n">
-        <v>79.97643607170758</v>
+        <v>79.9764437861561</v>
       </c>
       <c r="AI759" t="n">
-        <v>80.16258967479322</v>
+        <v>80.16259740719794</v>
       </c>
       <c r="AJ759" t="n">
-        <v>78.44803904592342</v>
+        <v>78.44804661294427</v>
       </c>
       <c r="AK759" t="n">
-        <v>79.09467315673828</v>
+        <v>79.09468078613281</v>
       </c>
       <c r="AL759" t="n">
         <v>10681600</v>
@@ -48417,7 +48417,7 @@
       <c r="D760" t="inlineStr"/>
       <c r="E760" t="inlineStr"/>
       <c r="F760" t="n">
-        <v>79.46697998046875</v>
+        <v>79.46697235107422</v>
       </c>
       <c r="G760" t="inlineStr"/>
       <c r="H760" t="inlineStr">
@@ -48451,16 +48451,16 @@
       <c r="AF760" t="inlineStr"/>
       <c r="AG760" t="inlineStr"/>
       <c r="AH760" t="n">
-        <v>78.83014533793884</v>
+        <v>78.83013776968497</v>
       </c>
       <c r="AI760" t="n">
-        <v>79.87847037415949</v>
+        <v>79.87846270525897</v>
       </c>
       <c r="AJ760" t="n">
-        <v>78.59500903795102</v>
+        <v>78.59500149227189</v>
       </c>
       <c r="AK760" t="n">
-        <v>79.46697998046875</v>
+        <v>79.46697235107422</v>
       </c>
       <c r="AL760" t="n">
         <v>9993800</v>
@@ -48480,7 +48480,7 @@
       <c r="D761" t="inlineStr"/>
       <c r="E761" t="inlineStr"/>
       <c r="F761" t="n">
-        <v>79.62372589111328</v>
+        <v>79.62373352050781</v>
       </c>
       <c r="G761" t="inlineStr"/>
       <c r="H761" t="inlineStr">
@@ -48514,16 +48514,16 @@
       <c r="AF761" t="inlineStr"/>
       <c r="AG761" t="inlineStr"/>
       <c r="AH761" t="n">
-        <v>78.54600987534016</v>
+        <v>78.54601740146998</v>
       </c>
       <c r="AI761" t="n">
-        <v>79.64332494085949</v>
+        <v>79.64333257213195</v>
       </c>
       <c r="AJ761" t="n">
-        <v>78.38925485160732</v>
+        <v>78.38926236271716</v>
       </c>
       <c r="AK761" t="n">
-        <v>79.62372589111328</v>
+        <v>79.62373352050781</v>
       </c>
       <c r="AL761" t="n">
         <v>10448100</v>
@@ -48606,7 +48606,7 @@
       <c r="D763" t="inlineStr"/>
       <c r="E763" t="inlineStr"/>
       <c r="F763" t="n">
-        <v>82.89608001708984</v>
+        <v>82.89607238769531</v>
       </c>
       <c r="G763" t="inlineStr"/>
       <c r="H763" t="inlineStr">
@@ -48640,16 +48640,16 @@
       <c r="AF763" t="inlineStr"/>
       <c r="AG763" t="inlineStr"/>
       <c r="AH763" t="n">
-        <v>80.7406477780724</v>
+        <v>80.74064034705447</v>
       </c>
       <c r="AI763" t="n">
-        <v>82.95486222229182</v>
+        <v>82.95485458748723</v>
       </c>
       <c r="AJ763" t="n">
-        <v>80.56429368761837</v>
+        <v>80.56428627283131</v>
       </c>
       <c r="AK763" t="n">
-        <v>82.89608001708984</v>
+        <v>82.89607238769531</v>
       </c>
       <c r="AL763" t="n">
         <v>16035000</v>
@@ -48669,7 +48669,7 @@
       <c r="D764" t="inlineStr"/>
       <c r="E764" t="inlineStr"/>
       <c r="F764" t="n">
-        <v>82.91566467285156</v>
+        <v>82.91567230224609</v>
       </c>
       <c r="G764" t="inlineStr"/>
       <c r="H764" t="inlineStr">
@@ -48703,16 +48703,16 @@
       <c r="AF764" t="inlineStr"/>
       <c r="AG764" t="inlineStr"/>
       <c r="AH764" t="n">
-        <v>82.2396469449122</v>
+        <v>82.23965451210368</v>
       </c>
       <c r="AI764" t="n">
-        <v>83.02343702329142</v>
+        <v>83.0234446626025</v>
       </c>
       <c r="AJ764" t="n">
-        <v>81.85754769329724</v>
+        <v>81.85755522533029</v>
       </c>
       <c r="AK764" t="n">
-        <v>82.91566467285156</v>
+        <v>82.91567230224609</v>
       </c>
       <c r="AL764" t="n">
         <v>17907000</v>
@@ -49047,7 +49047,7 @@
       <c r="D770" t="inlineStr"/>
       <c r="E770" t="inlineStr"/>
       <c r="F770" t="n">
-        <v>77.46829223632812</v>
+        <v>77.46829986572266</v>
       </c>
       <c r="G770" t="inlineStr"/>
       <c r="H770" t="inlineStr">
@@ -49081,16 +49081,16 @@
       <c r="AF770" t="inlineStr"/>
       <c r="AG770" t="inlineStr"/>
       <c r="AH770" t="n">
-        <v>77.20376486907604</v>
+        <v>77.20377247241882</v>
       </c>
       <c r="AI770" t="n">
-        <v>78.4676269818715</v>
+        <v>78.4676347096846</v>
       </c>
       <c r="AJ770" t="n">
-        <v>76.88044782866454</v>
+        <v>76.88045540016574</v>
       </c>
       <c r="AK770" t="n">
-        <v>77.46829223632812</v>
+        <v>77.46829986572266</v>
       </c>
       <c r="AL770" t="n">
         <v>13115000</v>
@@ -49236,7 +49236,7 @@
       <c r="D773" t="inlineStr"/>
       <c r="E773" t="inlineStr"/>
       <c r="F773" t="n">
-        <v>75.60678863525391</v>
+        <v>75.60678100585938</v>
       </c>
       <c r="G773" t="inlineStr"/>
       <c r="H773" t="inlineStr">
@@ -49270,16 +49270,16 @@
       <c r="AF773" t="inlineStr"/>
       <c r="AG773" t="inlineStr"/>
       <c r="AH773" t="n">
-        <v>78.37946396705193</v>
+        <v>78.3794560578699</v>
       </c>
       <c r="AI773" t="n">
-        <v>78.80075388486875</v>
+        <v>78.80074593317485</v>
       </c>
       <c r="AJ773" t="n">
-        <v>74.70542659359637</v>
+        <v>74.70541905515725</v>
       </c>
       <c r="AK773" t="n">
-        <v>75.60678863525391</v>
+        <v>75.60678100585938</v>
       </c>
       <c r="AL773" t="n">
         <v>20121100</v>
@@ -49299,7 +49299,7 @@
       <c r="D774" t="inlineStr"/>
       <c r="E774" t="inlineStr"/>
       <c r="F774" t="n">
-        <v>70.88441467285156</v>
+        <v>70.88442230224609</v>
       </c>
       <c r="G774" t="inlineStr"/>
       <c r="H774" t="inlineStr">
@@ -49333,16 +49333,16 @@
       <c r="AF774" t="inlineStr"/>
       <c r="AG774" t="inlineStr"/>
       <c r="AH774" t="n">
-        <v>73.0300545410642</v>
+        <v>73.03006240139713</v>
       </c>
       <c r="AI774" t="n">
-        <v>73.34357204682088</v>
+        <v>73.34357994089815</v>
       </c>
       <c r="AJ774" t="n">
-        <v>69.19925527634182</v>
+        <v>69.19926272436014</v>
       </c>
       <c r="AK774" t="n">
-        <v>70.88441467285156</v>
+        <v>70.88442230224609</v>
       </c>
       <c r="AL774" t="n">
         <v>33983900</v>
@@ -49362,7 +49362,7 @@
       <c r="D775" t="inlineStr"/>
       <c r="E775" t="inlineStr"/>
       <c r="F775" t="n">
-        <v>71.48206329345703</v>
+        <v>71.48207092285156</v>
       </c>
       <c r="G775" t="inlineStr"/>
       <c r="H775" t="inlineStr">
@@ -49396,16 +49396,16 @@
       <c r="AF775" t="inlineStr"/>
       <c r="AG775" t="inlineStr"/>
       <c r="AH775" t="n">
-        <v>71.12935514189799</v>
+        <v>71.12936273364743</v>
       </c>
       <c r="AI775" t="n">
-        <v>72.04051662095094</v>
+        <v>72.04052430995009</v>
       </c>
       <c r="AJ775" t="n">
-        <v>70.24758476300039</v>
+        <v>70.24759226063706</v>
       </c>
       <c r="AK775" t="n">
-        <v>71.48206329345703</v>
+        <v>71.48207092285156</v>
       </c>
       <c r="AL775" t="n">
         <v>17214200</v>
@@ -49551,7 +49551,7 @@
       <c r="D778" t="inlineStr"/>
       <c r="E778" t="inlineStr"/>
       <c r="F778" t="n">
-        <v>66.04450225830078</v>
+        <v>66.04449462890625</v>
       </c>
       <c r="G778" t="inlineStr"/>
       <c r="H778" t="inlineStr">
@@ -49585,16 +49585,16 @@
       <c r="AF778" t="inlineStr"/>
       <c r="AG778" t="inlineStr"/>
       <c r="AH778" t="n">
-        <v>67.10261938655408</v>
+        <v>67.10261163492693</v>
       </c>
       <c r="AI778" t="n">
-        <v>67.33776317047571</v>
+        <v>67.33775539168496</v>
       </c>
       <c r="AJ778" t="n">
-        <v>64.71205071547226</v>
+        <v>64.71204324000119</v>
       </c>
       <c r="AK778" t="n">
-        <v>66.04450225830078</v>
+        <v>66.04449462890625</v>
       </c>
       <c r="AL778" t="n">
         <v>22378400</v>
@@ -49677,7 +49677,7 @@
       <c r="D780" t="inlineStr"/>
       <c r="E780" t="inlineStr"/>
       <c r="F780" t="n">
-        <v>66.57355499267578</v>
+        <v>66.57354736328125</v>
       </c>
       <c r="G780" t="inlineStr"/>
       <c r="H780" t="inlineStr">
@@ -49711,16 +49711,16 @@
       <c r="AF780" t="inlineStr"/>
       <c r="AG780" t="inlineStr"/>
       <c r="AH780" t="n">
-        <v>67.39654326083891</v>
+        <v>67.39653553712913</v>
       </c>
       <c r="AI780" t="n">
-        <v>67.71006082136576</v>
+        <v>67.71005306172655</v>
       </c>
       <c r="AJ780" t="n">
-        <v>65.51543789767783</v>
+        <v>65.51543038954456</v>
       </c>
       <c r="AK780" t="n">
-        <v>66.57355499267578</v>
+        <v>66.57354736328125</v>
       </c>
       <c r="AL780" t="n">
         <v>16131100</v>
@@ -49740,7 +49740,7 @@
       <c r="D781" t="inlineStr"/>
       <c r="E781" t="inlineStr"/>
       <c r="F781" t="n">
-        <v>65.86814880371094</v>
+        <v>65.86814117431641</v>
       </c>
       <c r="G781" t="inlineStr"/>
       <c r="H781" t="inlineStr">
@@ -49774,16 +49774,16 @@
       <c r="AF781" t="inlineStr"/>
       <c r="AG781" t="inlineStr"/>
       <c r="AH781" t="n">
-        <v>67.01444673088798</v>
+        <v>67.01443896871973</v>
       </c>
       <c r="AI781" t="n">
-        <v>67.7394547179681</v>
+        <v>67.73944687182342</v>
       </c>
       <c r="AJ781" t="n">
-        <v>65.37827712800978</v>
+        <v>65.37826955535624</v>
       </c>
       <c r="AK781" t="n">
-        <v>65.86814880371094</v>
+        <v>65.86814117431641</v>
       </c>
       <c r="AL781" t="n">
         <v>17125200</v>
@@ -49803,7 +49803,7 @@
       <c r="D782" t="inlineStr"/>
       <c r="E782" t="inlineStr"/>
       <c r="F782" t="n">
-        <v>67.38674926757812</v>
+        <v>67.38674163818359</v>
       </c>
       <c r="G782" t="inlineStr"/>
       <c r="H782" t="inlineStr">
@@ -49837,16 +49837,16 @@
       <c r="AF782" t="inlineStr"/>
       <c r="AG782" t="inlineStr"/>
       <c r="AH782" t="n">
-        <v>66.59315951245971</v>
+        <v>66.59315197291384</v>
       </c>
       <c r="AI782" t="n">
-        <v>67.60229400967174</v>
+        <v>67.60228635587366</v>
       </c>
       <c r="AJ782" t="n">
-        <v>66.21106018778426</v>
+        <v>66.21105269149892</v>
       </c>
       <c r="AK782" t="n">
-        <v>67.38674926757812</v>
+        <v>67.38674163818359</v>
       </c>
       <c r="AL782" t="n">
         <v>12727300</v>
@@ -49866,7 +49866,7 @@
       <c r="D783" t="inlineStr"/>
       <c r="E783" t="inlineStr"/>
       <c r="F783" t="n">
-        <v>68.52324676513672</v>
+        <v>68.52323913574219</v>
       </c>
       <c r="G783" t="inlineStr"/>
       <c r="H783" t="inlineStr">
@@ -49900,16 +49900,16 @@
       <c r="AF783" t="inlineStr"/>
       <c r="AG783" t="inlineStr"/>
       <c r="AH783" t="n">
-        <v>67.49451334065586</v>
+        <v>67.49450582580076</v>
       </c>
       <c r="AI783" t="n">
-        <v>68.93473714498988</v>
+        <v>68.93472946977991</v>
       </c>
       <c r="AJ783" t="n">
-        <v>67.28876815072928</v>
+        <v>67.2887606587819</v>
       </c>
       <c r="AK783" t="n">
-        <v>68.52324676513672</v>
+        <v>68.52323913574219</v>
       </c>
       <c r="AL783" t="n">
         <v>12531700</v>
@@ -49992,7 +49992,7 @@
       <c r="D785" t="inlineStr"/>
       <c r="E785" t="inlineStr"/>
       <c r="F785" t="n">
-        <v>69.99285888671875</v>
+        <v>69.99286651611328</v>
       </c>
       <c r="G785" t="inlineStr"/>
       <c r="H785" t="inlineStr">
@@ -50026,16 +50026,16 @@
       <c r="AF785" t="inlineStr"/>
       <c r="AG785" t="inlineStr"/>
       <c r="AH785" t="n">
-        <v>68.93473440218492</v>
+        <v>68.93474191624126</v>
       </c>
       <c r="AI785" t="n">
-        <v>70.71786678544852</v>
+        <v>70.71787449387071</v>
       </c>
       <c r="AJ785" t="n">
-        <v>68.25870918014702</v>
+        <v>68.25871662051496</v>
       </c>
       <c r="AK785" t="n">
-        <v>69.99285888671875</v>
+        <v>69.99286651611328</v>
       </c>
       <c r="AL785" t="n">
         <v>14400600</v>
@@ -50055,7 +50055,7 @@
       <c r="D786" t="inlineStr"/>
       <c r="E786" t="inlineStr"/>
       <c r="F786" t="n">
-        <v>70.36515808105469</v>
+        <v>70.36515045166016</v>
       </c>
       <c r="G786" t="inlineStr"/>
       <c r="H786" t="inlineStr">
@@ -50089,16 +50089,16 @@
       <c r="AF786" t="inlineStr"/>
       <c r="AG786" t="inlineStr"/>
       <c r="AH786" t="n">
-        <v>69.54217736044295</v>
+        <v>69.54216982028072</v>
       </c>
       <c r="AI786" t="n">
-        <v>71.50166380934434</v>
+        <v>71.50165605672333</v>
       </c>
       <c r="AJ786" t="n">
-        <v>69.11108794973342</v>
+        <v>69.11108045631238</v>
       </c>
       <c r="AK786" t="n">
-        <v>70.36515808105469</v>
+        <v>70.36515045166016</v>
       </c>
       <c r="AL786" t="n">
         <v>15315600</v>
@@ -50118,7 +50118,7 @@
       <c r="D787" t="inlineStr"/>
       <c r="E787" t="inlineStr"/>
       <c r="F787" t="n">
-        <v>70.52192687988281</v>
+        <v>70.52191925048828</v>
       </c>
       <c r="G787" t="inlineStr"/>
       <c r="H787" t="inlineStr">
@@ -50152,16 +50152,16 @@
       <c r="AF787" t="inlineStr"/>
       <c r="AG787" t="inlineStr"/>
       <c r="AH787" t="n">
-        <v>69.83610207664007</v>
+        <v>69.83609452144131</v>
       </c>
       <c r="AI787" t="n">
-        <v>70.78645428516403</v>
+        <v>70.78644662715168</v>
       </c>
       <c r="AJ787" t="n">
-        <v>69.33643089461081</v>
+        <v>69.33642339346883</v>
       </c>
       <c r="AK787" t="n">
-        <v>70.52192687988281</v>
+        <v>70.52191925048828</v>
       </c>
       <c r="AL787" t="n">
         <v>21724000</v>
@@ -50307,7 +50307,7 @@
       <c r="D790" t="inlineStr"/>
       <c r="E790" t="inlineStr"/>
       <c r="F790" t="n">
-        <v>71.75640106201172</v>
+        <v>71.75638580322266</v>
       </c>
       <c r="G790" t="inlineStr"/>
       <c r="H790" t="inlineStr">
@@ -50341,16 +50341,16 @@
       <c r="AF790" t="inlineStr"/>
       <c r="AG790" t="inlineStr"/>
       <c r="AH790" t="n">
-        <v>73.30439735331088</v>
+        <v>73.30438176534491</v>
       </c>
       <c r="AI790" t="n">
-        <v>73.53953366501182</v>
+        <v>73.53951802704482</v>
       </c>
       <c r="AJ790" t="n">
-        <v>71.58004695952386</v>
+        <v>71.58003173823597</v>
       </c>
       <c r="AK790" t="n">
-        <v>71.75640106201172</v>
+        <v>71.75638580322266</v>
       </c>
       <c r="AL790" t="n">
         <v>12345800</v>
@@ -50559,7 +50559,7 @@
       <c r="D794" t="inlineStr"/>
       <c r="E794" t="inlineStr"/>
       <c r="F794" t="n">
-        <v>69.111083984375</v>
+        <v>69.11109161376953</v>
       </c>
       <c r="G794" t="inlineStr"/>
       <c r="H794" t="inlineStr">
@@ -50593,16 +50593,16 @@
       <c r="AF794" t="inlineStr"/>
       <c r="AG794" t="inlineStr"/>
       <c r="AH794" t="n">
-        <v>68.95432148953054</v>
+        <v>68.95432910161955</v>
       </c>
       <c r="AI794" t="n">
-        <v>69.44419307364872</v>
+        <v>69.44420073981624</v>
       </c>
       <c r="AJ794" t="n">
-        <v>67.87660549943998</v>
+        <v>67.87661299255646</v>
       </c>
       <c r="AK794" t="n">
-        <v>69.111083984375</v>
+        <v>69.11109161376953</v>
       </c>
       <c r="AL794" t="n">
         <v>10957100</v>
@@ -50622,7 +50622,7 @@
       <c r="D795" t="inlineStr"/>
       <c r="E795" t="inlineStr"/>
       <c r="F795" t="n">
-        <v>70.30637359619141</v>
+        <v>70.30638122558594</v>
       </c>
       <c r="G795" t="inlineStr"/>
       <c r="H795" t="inlineStr">
@@ -50656,16 +50656,16 @@
       <c r="AF795" t="inlineStr"/>
       <c r="AG795" t="inlineStr"/>
       <c r="AH795" t="n">
-        <v>68.25870643667101</v>
+        <v>68.25871384386008</v>
       </c>
       <c r="AI795" t="n">
-        <v>70.50231924477876</v>
+        <v>70.50232689543661</v>
       </c>
       <c r="AJ795" t="n">
-        <v>68.1901247121807</v>
+        <v>68.19013211192753</v>
       </c>
       <c r="AK795" t="n">
-        <v>70.30637359619141</v>
+        <v>70.30638122558594</v>
       </c>
       <c r="AL795" t="n">
         <v>9731700</v>
@@ -50685,7 +50685,7 @@
       <c r="D796" t="inlineStr"/>
       <c r="E796" t="inlineStr"/>
       <c r="F796" t="n">
-        <v>61.77281188964844</v>
+        <v>61.77280807495117</v>
       </c>
       <c r="G796" t="inlineStr"/>
       <c r="H796" t="inlineStr">
@@ -50719,16 +50719,16 @@
       <c r="AF796" t="inlineStr"/>
       <c r="AG796" t="inlineStr"/>
       <c r="AH796" t="n">
-        <v>64.82960981902788</v>
+        <v>64.82960581556215</v>
       </c>
       <c r="AI796" t="n">
-        <v>65.4468528576711</v>
+        <v>65.44684881608836</v>
       </c>
       <c r="AJ796" t="n">
-        <v>61.62585264287885</v>
+        <v>61.62584883725686</v>
       </c>
       <c r="AK796" t="n">
-        <v>61.77281188964844</v>
+        <v>61.77280807495117</v>
       </c>
       <c r="AL796" t="n">
         <v>39469500</v>
@@ -50874,7 +50874,7 @@
       <c r="D799" t="inlineStr"/>
       <c r="E799" t="inlineStr"/>
       <c r="F799" t="n">
-        <v>57.57950973510742</v>
+        <v>57.57951354980469</v>
       </c>
       <c r="G799" t="inlineStr"/>
       <c r="H799" t="inlineStr">
@@ -50908,16 +50908,16 @@
       <c r="AF799" t="inlineStr"/>
       <c r="AG799" t="inlineStr"/>
       <c r="AH799" t="n">
-        <v>59.99947669487311</v>
+        <v>59.99948066989549</v>
       </c>
       <c r="AI799" t="n">
-        <v>61.39071027928293</v>
+        <v>61.39071434647586</v>
       </c>
       <c r="AJ799" t="n">
-        <v>56.40381711857485</v>
+        <v>56.40382085538136</v>
       </c>
       <c r="AK799" t="n">
-        <v>57.57950973510742</v>
+        <v>57.57951354980469</v>
       </c>
       <c r="AL799" t="n">
         <v>30272300</v>
@@ -50937,7 +50937,7 @@
       <c r="D800" t="inlineStr"/>
       <c r="E800" t="inlineStr"/>
       <c r="F800" t="n">
-        <v>62.85053253173828</v>
+        <v>62.85052871704102</v>
       </c>
       <c r="G800" t="inlineStr"/>
       <c r="H800" t="inlineStr">
@@ -50971,16 +50971,16 @@
       <c r="AF800" t="inlineStr"/>
       <c r="AG800" t="inlineStr"/>
       <c r="AH800" t="n">
-        <v>55.61022659632831</v>
+        <v>55.61022322107959</v>
       </c>
       <c r="AI800" t="n">
-        <v>64.41812027540983</v>
+        <v>64.41811636556822</v>
       </c>
       <c r="AJ800" t="n">
-        <v>54.93420508263695</v>
+        <v>54.93420174841918</v>
       </c>
       <c r="AK800" t="n">
-        <v>62.85053253173828</v>
+        <v>62.85052871704102</v>
       </c>
       <c r="AL800" t="n">
         <v>49437900</v>
@@ -51063,7 +51063,7 @@
       <c r="D802" t="inlineStr"/>
       <c r="E802" t="inlineStr"/>
       <c r="F802" t="n">
-        <v>60.39137649536133</v>
+        <v>60.39137268066406</v>
       </c>
       <c r="G802" t="inlineStr"/>
       <c r="H802" t="inlineStr">
@@ -51097,16 +51097,16 @@
       <c r="AF802" t="inlineStr"/>
       <c r="AG802" t="inlineStr"/>
       <c r="AH802" t="n">
-        <v>59.64677323082492</v>
+        <v>59.64676946316145</v>
       </c>
       <c r="AI802" t="n">
-        <v>61.04780645070608</v>
+        <v>61.0478025945446</v>
       </c>
       <c r="AJ802" t="n">
-        <v>58.70621682111565</v>
+        <v>58.70621311286362</v>
       </c>
       <c r="AK802" t="n">
-        <v>60.39137649536133</v>
+        <v>60.39137268066406</v>
       </c>
       <c r="AL802" t="n">
         <v>24776000</v>
@@ -51315,7 +51315,7 @@
       <c r="D806" t="inlineStr"/>
       <c r="E806" t="inlineStr"/>
       <c r="F806" t="n">
-        <v>61.96875762939453</v>
+        <v>61.9687614440918</v>
       </c>
       <c r="G806" t="inlineStr"/>
       <c r="H806" t="inlineStr">
@@ -51349,16 +51349,16 @@
       <c r="AF806" t="inlineStr"/>
       <c r="AG806" t="inlineStr"/>
       <c r="AH806" t="n">
-        <v>60.92043270050776</v>
+        <v>60.92043645067183</v>
       </c>
       <c r="AI806" t="n">
-        <v>62.48802033134114</v>
+        <v>62.48802417800339</v>
       </c>
       <c r="AJ806" t="n">
-        <v>60.58731986177771</v>
+        <v>60.58732359143588</v>
       </c>
       <c r="AK806" t="n">
-        <v>61.96875762939453</v>
+        <v>61.9687614440918</v>
       </c>
       <c r="AL806" t="n">
         <v>14656300</v>
@@ -51378,7 +51378,7 @@
       <c r="D807" t="inlineStr"/>
       <c r="E807" t="inlineStr"/>
       <c r="F807" t="n">
-        <v>61.42010116577148</v>
+        <v>61.42010498046875</v>
       </c>
       <c r="G807" t="inlineStr"/>
       <c r="H807" t="inlineStr">
@@ -51412,16 +51412,16 @@
       <c r="AF807" t="inlineStr"/>
       <c r="AG807" t="inlineStr"/>
       <c r="AH807" t="n">
-        <v>61.47888710449137</v>
+        <v>61.47889092283973</v>
       </c>
       <c r="AI807" t="n">
-        <v>61.86098636261116</v>
+        <v>61.86099020469105</v>
       </c>
       <c r="AJ807" t="n">
-        <v>60.69509327534517</v>
+        <v>60.69509704501343</v>
       </c>
       <c r="AK807" t="n">
-        <v>61.42010116577148</v>
+        <v>61.42010498046875</v>
       </c>
       <c r="AL807" t="n">
         <v>15136000</v>
@@ -51441,7 +51441,7 @@
       <c r="D808" t="inlineStr"/>
       <c r="E808" t="inlineStr"/>
       <c r="F808" t="n">
-        <v>63.242431640625</v>
+        <v>63.24242782592773</v>
       </c>
       <c r="G808" t="inlineStr"/>
       <c r="H808" t="inlineStr">
@@ -51475,16 +51475,16 @@
       <c r="AF808" t="inlineStr"/>
       <c r="AG808" t="inlineStr"/>
       <c r="AH808" t="n">
-        <v>62.23329352194652</v>
+        <v>62.23328976811909</v>
       </c>
       <c r="AI808" t="n">
-        <v>63.65392202378445</v>
+        <v>63.65391818426664</v>
       </c>
       <c r="AJ808" t="n">
-        <v>62.22349399620043</v>
+        <v>62.2234902429641</v>
       </c>
       <c r="AK808" t="n">
-        <v>63.242431640625</v>
+        <v>63.24242782592773</v>
       </c>
       <c r="AL808" t="n">
         <v>13252300</v>
@@ -51504,7 +51504,7 @@
       <c r="D809" t="inlineStr"/>
       <c r="E809" t="inlineStr"/>
       <c r="F809" t="n">
-        <v>64.95697784423828</v>
+        <v>64.95698547363281</v>
       </c>
       <c r="G809" t="inlineStr"/>
       <c r="H809" t="inlineStr">
@@ -51538,16 +51538,16 @@
       <c r="AF809" t="inlineStr"/>
       <c r="AG809" t="inlineStr"/>
       <c r="AH809" t="n">
-        <v>65.12353239605514</v>
+        <v>65.12354004501201</v>
       </c>
       <c r="AI809" t="n">
-        <v>67.42592744569504</v>
+        <v>67.42593536507522</v>
       </c>
       <c r="AJ809" t="n">
-        <v>64.81981439275999</v>
+        <v>64.81982200604426</v>
       </c>
       <c r="AK809" t="n">
-        <v>64.95697784423828</v>
+        <v>64.95698547363281</v>
       </c>
       <c r="AL809" t="n">
         <v>17243900</v>
@@ -51567,7 +51567,7 @@
       <c r="D810" t="inlineStr"/>
       <c r="E810" t="inlineStr"/>
       <c r="F810" t="n">
-        <v>66.779296875</v>
+        <v>66.77930450439453</v>
       </c>
       <c r="G810" t="inlineStr"/>
       <c r="H810" t="inlineStr">
@@ -51601,16 +51601,16 @@
       <c r="AF810" t="inlineStr"/>
       <c r="AG810" t="inlineStr"/>
       <c r="AH810" t="n">
-        <v>64.91778338992731</v>
+        <v>64.91779080664783</v>
       </c>
       <c r="AI810" t="n">
-        <v>66.95564346663031</v>
+        <v>66.95565111617206</v>
       </c>
       <c r="AJ810" t="n">
-        <v>64.44750338770535</v>
+        <v>64.44751075069738</v>
       </c>
       <c r="AK810" t="n">
-        <v>66.779296875</v>
+        <v>66.77930450439453</v>
       </c>
       <c r="AL810" t="n">
         <v>13672300</v>
@@ -51630,7 +51630,7 @@
       <c r="D811" t="inlineStr"/>
       <c r="E811" t="inlineStr"/>
       <c r="F811" t="n">
-        <v>67.0438232421875</v>
+        <v>67.04383850097656</v>
       </c>
       <c r="G811" t="inlineStr"/>
       <c r="H811" t="inlineStr">
@@ -51664,16 +51664,16 @@
       <c r="AF811" t="inlineStr"/>
       <c r="AG811" t="inlineStr"/>
       <c r="AH811" t="n">
-        <v>66.4853699524393</v>
+        <v>66.4853850841276</v>
       </c>
       <c r="AI811" t="n">
-        <v>67.3181501248923</v>
+        <v>67.31816544611659</v>
       </c>
       <c r="AJ811" t="n">
-        <v>66.38739713359429</v>
+        <v>66.38741224298454</v>
       </c>
       <c r="AK811" t="n">
-        <v>67.0438232421875</v>
+        <v>67.04383850097656</v>
       </c>
       <c r="AL811" t="n">
         <v>12253400</v>
@@ -51693,7 +51693,7 @@
       <c r="D812" t="inlineStr"/>
       <c r="E812" t="inlineStr"/>
       <c r="F812" t="n">
-        <v>66.89686584472656</v>
+        <v>66.89687347412109</v>
       </c>
       <c r="G812" t="inlineStr"/>
       <c r="H812" t="inlineStr">
@@ -51727,16 +51727,16 @@
       <c r="AF812" t="inlineStr"/>
       <c r="AG812" t="inlineStr"/>
       <c r="AH812" t="n">
-        <v>67.26917305211271</v>
+        <v>67.26918072396779</v>
       </c>
       <c r="AI812" t="n">
-        <v>67.9941809417289</v>
+        <v>67.99418869626905</v>
       </c>
       <c r="AJ812" t="n">
-        <v>66.39719470972534</v>
+        <v>66.39720228213382</v>
       </c>
       <c r="AK812" t="n">
-        <v>66.89686584472656</v>
+        <v>66.89687347412109</v>
       </c>
       <c r="AL812" t="n">
         <v>14304800</v>
@@ -51756,7 +51756,7 @@
       <c r="D813" t="inlineStr"/>
       <c r="E813" t="inlineStr"/>
       <c r="F813" t="n">
-        <v>67.48471069335938</v>
+        <v>67.48470306396484</v>
       </c>
       <c r="G813" t="inlineStr"/>
       <c r="H813" t="inlineStr">
@@ -51790,16 +51790,16 @@
       <c r="AF813" t="inlineStr"/>
       <c r="AG813" t="inlineStr"/>
       <c r="AH813" t="n">
-        <v>66.65193044650748</v>
+        <v>66.65192291126182</v>
       </c>
       <c r="AI813" t="n">
-        <v>67.71005492419694</v>
+        <v>67.71004726932641</v>
       </c>
       <c r="AJ813" t="n">
-        <v>66.59314824491838</v>
+        <v>66.59314071631826</v>
       </c>
       <c r="AK813" t="n">
-        <v>67.48471069335938</v>
+        <v>67.48470306396484</v>
       </c>
       <c r="AL813" t="n">
         <v>8862800</v>
@@ -52008,7 +52008,7 @@
       <c r="D817" t="inlineStr"/>
       <c r="E817" t="inlineStr"/>
       <c r="F817" t="n">
-        <v>69.36746215820312</v>
+        <v>69.36746978759766</v>
       </c>
       <c r="G817" t="inlineStr"/>
       <c r="H817" t="inlineStr">
@@ -52042,16 +52042,16 @@
       <c r="AF817" t="inlineStr"/>
       <c r="AG817" t="inlineStr"/>
       <c r="AH817" t="n">
-        <v>68.41938837988066</v>
+        <v>68.41939590500108</v>
       </c>
       <c r="AI817" t="n">
-        <v>70.05877113494827</v>
+        <v>70.05877884037656</v>
       </c>
       <c r="AJ817" t="n">
-        <v>68.37988436395631</v>
+        <v>68.37989188473188</v>
       </c>
       <c r="AK817" t="n">
-        <v>69.36746215820312</v>
+        <v>69.36746978759766</v>
       </c>
       <c r="AL817" t="n">
         <v>10318500</v>
@@ -52134,7 +52134,7 @@
       <c r="D819" t="inlineStr"/>
       <c r="E819" t="inlineStr"/>
       <c r="F819" t="n">
-        <v>69.37734985351562</v>
+        <v>69.37734222412109</v>
       </c>
       <c r="G819" t="inlineStr"/>
       <c r="H819" t="inlineStr">
@@ -52168,16 +52168,16 @@
       <c r="AF819" t="inlineStr"/>
       <c r="AG819" t="inlineStr"/>
       <c r="AH819" t="n">
-        <v>68.88356088658668</v>
+        <v>68.8835533114939</v>
       </c>
       <c r="AI819" t="n">
-        <v>69.81188655549202</v>
+        <v>69.8118788783117</v>
       </c>
       <c r="AJ819" t="n">
-        <v>68.78480460012524</v>
+        <v>68.78479703589262</v>
       </c>
       <c r="AK819" t="n">
-        <v>69.37734985351562</v>
+        <v>69.37734222412109</v>
       </c>
       <c r="AL819" t="n">
         <v>11619200</v>
@@ -52323,7 +52323,7 @@
       <c r="D822" t="inlineStr"/>
       <c r="E822" t="inlineStr"/>
       <c r="F822" t="n">
-        <v>73.97945404052734</v>
+        <v>73.97946166992188</v>
       </c>
       <c r="G822" t="inlineStr"/>
       <c r="H822" t="inlineStr">
@@ -52357,16 +52357,16 @@
       <c r="AF822" t="inlineStr"/>
       <c r="AG822" t="inlineStr"/>
       <c r="AH822" t="n">
-        <v>73.67329980963783</v>
+        <v>73.67330740745912</v>
       </c>
       <c r="AI822" t="n">
-        <v>74.71025947740543</v>
+        <v>74.71026718216687</v>
       </c>
       <c r="AJ822" t="n">
-        <v>73.36715311336872</v>
+        <v>73.36716067961753</v>
       </c>
       <c r="AK822" t="n">
-        <v>73.97945404052734</v>
+        <v>73.97946166992188</v>
       </c>
       <c r="AL822" t="n">
         <v>18464100</v>
@@ -52386,7 +52386,7 @@
       <c r="D823" t="inlineStr"/>
       <c r="E823" t="inlineStr"/>
       <c r="F823" t="n">
-        <v>74.63126373291016</v>
+        <v>74.63125610351562</v>
       </c>
       <c r="G823" t="inlineStr"/>
       <c r="H823" t="inlineStr">
@@ -52420,16 +52420,16 @@
       <c r="AF823" t="inlineStr"/>
       <c r="AG823" t="inlineStr"/>
       <c r="AH823" t="n">
-        <v>74.19672703342195</v>
+        <v>74.19671944844917</v>
       </c>
       <c r="AI823" t="n">
-        <v>75.32256526880354</v>
+        <v>75.32255756873874</v>
       </c>
       <c r="AJ823" t="n">
-        <v>74.09797074752598</v>
+        <v>74.09796317264885</v>
       </c>
       <c r="AK823" t="n">
-        <v>74.63126373291016</v>
+        <v>74.63125610351562</v>
       </c>
       <c r="AL823" t="n">
         <v>12397800</v>
@@ -52512,7 +52512,7 @@
       <c r="D825" t="inlineStr"/>
       <c r="E825" t="inlineStr"/>
       <c r="F825" t="n">
-        <v>75.01641845703125</v>
+        <v>75.01641082763672</v>
       </c>
       <c r="G825" t="inlineStr"/>
       <c r="H825" t="inlineStr">
@@ -52546,16 +52546,16 @@
       <c r="AF825" t="inlineStr"/>
       <c r="AG825" t="inlineStr"/>
       <c r="AH825" t="n">
-        <v>73.66343398410373</v>
+        <v>73.66342649231179</v>
       </c>
       <c r="AI825" t="n">
-        <v>75.22380891761927</v>
+        <v>75.2238012671325</v>
       </c>
       <c r="AJ825" t="n">
-        <v>73.54492945498009</v>
+        <v>73.5449219752404</v>
       </c>
       <c r="AK825" t="n">
-        <v>75.01641845703125</v>
+        <v>75.01641082763672</v>
       </c>
       <c r="AL825" t="n">
         <v>12627700</v>
@@ -52638,7 +52638,7 @@
       <c r="D827" t="inlineStr"/>
       <c r="E827" t="inlineStr"/>
       <c r="F827" t="n">
-        <v>75.18430328369141</v>
+        <v>75.18429565429688</v>
       </c>
       <c r="G827" t="inlineStr"/>
       <c r="H827" t="inlineStr">
@@ -52672,16 +52672,16 @@
       <c r="AF827" t="inlineStr"/>
       <c r="AG827" t="inlineStr"/>
       <c r="AH827" t="n">
-        <v>74.06834296219145</v>
+        <v>74.06833544604</v>
       </c>
       <c r="AI827" t="n">
-        <v>75.37194549694117</v>
+        <v>75.37193784850547</v>
       </c>
       <c r="AJ827" t="n">
-        <v>73.86095250605189</v>
+        <v>73.86094501094557</v>
       </c>
       <c r="AK827" t="n">
-        <v>75.18430328369141</v>
+        <v>75.18429565429688</v>
       </c>
       <c r="AL827" t="n">
         <v>12691700</v>
@@ -52701,7 +52701,7 @@
       <c r="D828" t="inlineStr"/>
       <c r="E828" t="inlineStr"/>
       <c r="F828" t="n">
-        <v>74.95716094970703</v>
+        <v>74.9571533203125</v>
       </c>
       <c r="G828" t="inlineStr"/>
       <c r="H828" t="inlineStr">
@@ -52735,16 +52735,16 @@
       <c r="AF828" t="inlineStr"/>
       <c r="AG828" t="inlineStr"/>
       <c r="AH828" t="n">
-        <v>74.90777904294502</v>
+        <v>74.90777141857676</v>
       </c>
       <c r="AI828" t="n">
-        <v>75.10529913537194</v>
+        <v>75.10529149089939</v>
       </c>
       <c r="AJ828" t="n">
-        <v>74.48312026250358</v>
+        <v>74.48311268135852</v>
       </c>
       <c r="AK828" t="n">
-        <v>74.95716094970703</v>
+        <v>74.9571533203125</v>
       </c>
       <c r="AL828" t="n">
         <v>8930900</v>
@@ -53079,7 +53079,7 @@
       <c r="D834" t="inlineStr"/>
       <c r="E834" t="inlineStr"/>
       <c r="F834" t="n">
-        <v>74.59175872802734</v>
+        <v>74.59175109863281</v>
       </c>
       <c r="G834" t="inlineStr"/>
       <c r="H834" t="inlineStr">
@@ -53113,16 +53113,16 @@
       <c r="AF834" t="inlineStr"/>
       <c r="AG834" t="inlineStr"/>
       <c r="AH834" t="n">
-        <v>74.6608888807051</v>
+        <v>74.6608812442398</v>
       </c>
       <c r="AI834" t="n">
-        <v>74.77940094299049</v>
+        <v>74.77939329440353</v>
       </c>
       <c r="AJ834" t="n">
-        <v>73.75231900704841</v>
+        <v>73.75231146351346</v>
       </c>
       <c r="AK834" t="n">
-        <v>74.59175872802734</v>
+        <v>74.59175109863281</v>
       </c>
       <c r="AL834" t="n">
         <v>11879200</v>
@@ -53520,7 +53520,7 @@
       <c r="D841" t="inlineStr"/>
       <c r="E841" t="inlineStr"/>
       <c r="F841" t="n">
-        <v>77.19895935058594</v>
+        <v>77.19895172119141</v>
       </c>
       <c r="G841" t="inlineStr"/>
       <c r="H841" t="inlineStr">
@@ -53554,16 +53554,16 @@
       <c r="AF841" t="inlineStr"/>
       <c r="AG841" t="inlineStr"/>
       <c r="AH841" t="n">
-        <v>77.62361813090547</v>
+        <v>77.62361045954289</v>
       </c>
       <c r="AI841" t="n">
-        <v>77.92977239042401</v>
+        <v>77.92976468880491</v>
       </c>
       <c r="AJ841" t="n">
-        <v>77.13970709018544</v>
+        <v>77.13969946664666</v>
       </c>
       <c r="AK841" t="n">
-        <v>77.19895935058594</v>
+        <v>77.19895172119141</v>
       </c>
       <c r="AL841" t="n">
         <v>9288000</v>
@@ -53583,7 +53583,7 @@
       <c r="D842" t="inlineStr"/>
       <c r="E842" t="inlineStr"/>
       <c r="F842" t="n">
-        <v>77.06069183349609</v>
+        <v>77.06069946289062</v>
       </c>
       <c r="G842" t="inlineStr"/>
       <c r="H842" t="inlineStr">
@@ -53617,16 +53617,16 @@
       <c r="AF842" t="inlineStr"/>
       <c r="AG842" t="inlineStr"/>
       <c r="AH842" t="n">
-        <v>76.86317929425176</v>
+        <v>76.86318690409156</v>
       </c>
       <c r="AI842" t="n">
-        <v>77.34709028963465</v>
+        <v>77.34709794738406</v>
       </c>
       <c r="AJ842" t="n">
-        <v>76.55702506341653</v>
+        <v>76.55703264294553</v>
       </c>
       <c r="AK842" t="n">
-        <v>77.06069183349609</v>
+        <v>77.06069946289062</v>
       </c>
       <c r="AL842" t="n">
         <v>10942400</v>
@@ -53646,7 +53646,7 @@
       <c r="D843" t="inlineStr"/>
       <c r="E843" t="inlineStr"/>
       <c r="F843" t="n">
-        <v>77.40634918212891</v>
+        <v>77.40634155273438</v>
       </c>
       <c r="G843" t="inlineStr"/>
       <c r="H843" t="inlineStr">
@@ -53680,16 +53680,16 @@
       <c r="AF843" t="inlineStr"/>
       <c r="AG843" t="inlineStr"/>
       <c r="AH843" t="n">
-        <v>77.22858486771744</v>
+        <v>77.22857725584389</v>
       </c>
       <c r="AI843" t="n">
-        <v>77.93964212536329</v>
+        <v>77.93963444340586</v>
       </c>
       <c r="AJ843" t="n">
-        <v>76.89281201528526</v>
+        <v>76.89280443650645</v>
       </c>
       <c r="AK843" t="n">
-        <v>77.40634918212891</v>
+        <v>77.40634155273438</v>
       </c>
       <c r="AL843" t="n">
         <v>9030500</v>
@@ -53772,7 +53772,7 @@
       <c r="D845" t="inlineStr"/>
       <c r="E845" t="inlineStr"/>
       <c r="F845" t="n">
-        <v>75.41144561767578</v>
+        <v>75.41143798828125</v>
       </c>
       <c r="G845" t="inlineStr"/>
       <c r="H845" t="inlineStr">
@@ -53806,16 +53806,16 @@
       <c r="AF845" t="inlineStr"/>
       <c r="AG845" t="inlineStr"/>
       <c r="AH845" t="n">
-        <v>76.0829988605239</v>
+        <v>76.08299116318817</v>
       </c>
       <c r="AI845" t="n">
-        <v>76.27064106407033</v>
+        <v>76.27063334775079</v>
       </c>
       <c r="AJ845" t="n">
-        <v>75.16455115390251</v>
+        <v>75.16454354948637</v>
       </c>
       <c r="AK845" t="n">
-        <v>75.41144561767578</v>
+        <v>75.41143798828125</v>
       </c>
       <c r="AL845" t="n">
         <v>11987200</v>
@@ -53835,7 +53835,7 @@
       <c r="D846" t="inlineStr"/>
       <c r="E846" t="inlineStr"/>
       <c r="F846" t="n">
-        <v>77.10019683837891</v>
+        <v>77.10020446777344</v>
       </c>
       <c r="G846" t="inlineStr"/>
       <c r="H846" t="inlineStr">
@@ -53869,16 +53869,16 @@
       <c r="AF846" t="inlineStr"/>
       <c r="AG846" t="inlineStr"/>
       <c r="AH846" t="n">
-        <v>76.17187131584424</v>
+        <v>76.171878853377</v>
       </c>
       <c r="AI846" t="n">
-        <v>77.32734304258523</v>
+        <v>77.32735069445685</v>
       </c>
       <c r="AJ846" t="n">
-        <v>75.99410701439336</v>
+        <v>75.99411453433557</v>
       </c>
       <c r="AK846" t="n">
-        <v>77.10019683837891</v>
+        <v>77.10020446777344</v>
       </c>
       <c r="AL846" t="n">
         <v>10396600</v>
@@ -54339,7 +54339,7 @@
       <c r="D854" t="inlineStr"/>
       <c r="E854" t="inlineStr"/>
       <c r="F854" t="n">
-        <v>83.33180999755859</v>
+        <v>83.33181762695312</v>
       </c>
       <c r="G854" t="inlineStr"/>
       <c r="H854" t="inlineStr">
@@ -54373,16 +54373,16 @@
       <c r="AF854" t="inlineStr"/>
       <c r="AG854" t="inlineStr"/>
       <c r="AH854" t="n">
-        <v>83.44044415565061</v>
+        <v>83.44045179499108</v>
       </c>
       <c r="AI854" t="n">
-        <v>83.51945218601216</v>
+        <v>83.51945983258616</v>
       </c>
       <c r="AJ854" t="n">
-        <v>82.76889096681835</v>
+        <v>82.76889854467517</v>
       </c>
       <c r="AK854" t="n">
-        <v>83.33180999755859</v>
+        <v>83.33181762695312</v>
       </c>
       <c r="AL854" t="n">
         <v>21872400</v>
@@ -54465,7 +54465,7 @@
       <c r="D856" t="inlineStr"/>
       <c r="E856" t="inlineStr"/>
       <c r="F856" t="n">
-        <v>68.69720458984375</v>
+        <v>68.69719696044922</v>
       </c>
       <c r="G856" t="inlineStr"/>
       <c r="H856" t="inlineStr">
@@ -54504,16 +54504,16 @@
       <c r="AK856" t="inlineStr"/>
       <c r="AL856" t="inlineStr"/>
       <c r="AM856" t="n">
-        <v>68.98103777879192</v>
+        <v>68.98103011787535</v>
       </c>
       <c r="AN856" t="n">
-        <v>69.69550798965031</v>
+        <v>69.6955002493859</v>
       </c>
       <c r="AO856" t="n">
-        <v>68.27634951204239</v>
+        <v>68.2763419293873</v>
       </c>
       <c r="AP856" t="n">
-        <v>68.69720458984375</v>
+        <v>68.69719696044922</v>
       </c>
       <c r="AQ856" t="n">
         <v>8303300</v>
@@ -54717,7 +54717,7 @@
       <c r="D860" t="inlineStr"/>
       <c r="E860" t="inlineStr"/>
       <c r="F860" t="n">
-        <v>70.0478515625</v>
+        <v>70.04784393310547</v>
       </c>
       <c r="G860" t="inlineStr"/>
       <c r="H860" t="inlineStr">
@@ -54756,16 +54756,16 @@
       <c r="AK860" t="inlineStr"/>
       <c r="AL860" t="inlineStr"/>
       <c r="AM860" t="n">
-        <v>69.98913002978506</v>
+        <v>69.98912240678629</v>
       </c>
       <c r="AN860" t="n">
-        <v>70.54700699197548</v>
+        <v>70.54699930821448</v>
       </c>
       <c r="AO860" t="n">
-        <v>69.54869613302452</v>
+        <v>69.54868855799644</v>
       </c>
       <c r="AP860" t="n">
-        <v>70.0478515625</v>
+        <v>70.04784393310547</v>
       </c>
       <c r="AQ860" t="n">
         <v>16544700</v>
@@ -54780,7 +54780,7 @@
       <c r="D861" t="inlineStr"/>
       <c r="E861" t="inlineStr"/>
       <c r="F861" t="n">
-        <v>68.47209167480469</v>
+        <v>68.47208404541016</v>
       </c>
       <c r="G861" t="inlineStr"/>
       <c r="H861" t="inlineStr">
@@ -54819,16 +54819,16 @@
       <c r="AK861" t="inlineStr"/>
       <c r="AL861" t="inlineStr"/>
       <c r="AM861" t="n">
-        <v>69.39210216915579</v>
+        <v>69.39209443725055</v>
       </c>
       <c r="AN861" t="n">
-        <v>69.42146293520824</v>
+        <v>69.42145520003152</v>
       </c>
       <c r="AO861" t="n">
-        <v>67.86527513023418</v>
+        <v>67.86526756845322</v>
       </c>
       <c r="AP861" t="n">
-        <v>68.47209167480469</v>
+        <v>68.47208404541016</v>
       </c>
       <c r="AQ861" t="n">
         <v>14466600</v>
@@ -54843,7 +54843,7 @@
       <c r="D862" t="inlineStr"/>
       <c r="E862" t="inlineStr"/>
       <c r="F862" t="n">
-        <v>69.02996826171875</v>
+        <v>69.02996063232422</v>
       </c>
       <c r="G862" t="inlineStr"/>
       <c r="H862" t="inlineStr">
@@ -54882,16 +54882,16 @@
       <c r="AK862" t="inlineStr"/>
       <c r="AL862" t="inlineStr"/>
       <c r="AM862" t="n">
-        <v>68.4133697765196</v>
+        <v>68.41336221527334</v>
       </c>
       <c r="AN862" t="n">
-        <v>69.10826861552799</v>
+        <v>69.10826097747947</v>
       </c>
       <c r="AO862" t="n">
-        <v>68.08059700639669</v>
+        <v>68.08058948192945</v>
       </c>
       <c r="AP862" t="n">
-        <v>69.02996826171875</v>
+        <v>69.02996063232422</v>
       </c>
       <c r="AQ862" t="n">
         <v>10439800</v>
@@ -54906,7 +54906,7 @@
       <c r="D863" t="inlineStr"/>
       <c r="E863" t="inlineStr"/>
       <c r="F863" t="n">
-        <v>69.67593383789062</v>
+        <v>69.67594146728516</v>
       </c>
       <c r="G863" t="inlineStr"/>
       <c r="H863" t="inlineStr">
@@ -54945,16 +54945,16 @@
       <c r="AK863" t="inlineStr"/>
       <c r="AL863" t="inlineStr"/>
       <c r="AM863" t="n">
-        <v>69.94018819374952</v>
+        <v>69.94019585207946</v>
       </c>
       <c r="AN863" t="n">
-        <v>69.94018819374952</v>
+        <v>69.94019585207946</v>
       </c>
       <c r="AO863" t="n">
-        <v>68.79507353980661</v>
+        <v>68.79508107274846</v>
       </c>
       <c r="AP863" t="n">
-        <v>69.67593383789062</v>
+        <v>69.67594146728516</v>
       </c>
       <c r="AQ863" t="n">
         <v>21909800</v>
@@ -54969,7 +54969,7 @@
       <c r="D864" t="inlineStr"/>
       <c r="E864" t="inlineStr"/>
       <c r="F864" t="n">
-        <v>74.33469390869141</v>
+        <v>74.33468627929688</v>
       </c>
       <c r="G864" t="inlineStr"/>
       <c r="H864" t="inlineStr">
@@ -55008,16 +55008,16 @@
       <c r="AK864" t="inlineStr"/>
       <c r="AL864" t="inlineStr"/>
       <c r="AM864" t="n">
-        <v>73.75724560129731</v>
+        <v>73.75723803116961</v>
       </c>
       <c r="AN864" t="n">
-        <v>75.1861934539905</v>
+        <v>75.18618573720171</v>
       </c>
       <c r="AO864" t="n">
-        <v>72.08361474368134</v>
+        <v>72.08360734532793</v>
       </c>
       <c r="AP864" t="n">
-        <v>74.33469390869141</v>
+        <v>74.33468627929688</v>
       </c>
       <c r="AQ864" t="n">
         <v>33482900</v>
@@ -55032,7 +55032,7 @@
       <c r="D865" t="inlineStr"/>
       <c r="E865" t="inlineStr"/>
       <c r="F865" t="n">
-        <v>74.33469390869141</v>
+        <v>74.33468627929688</v>
       </c>
       <c r="G865" t="inlineStr"/>
       <c r="H865" t="inlineStr">
@@ -55071,16 +55071,16 @@
       <c r="AK865" t="inlineStr"/>
       <c r="AL865" t="inlineStr"/>
       <c r="AM865" t="n">
-        <v>74.23682220014884</v>
+        <v>74.23681458079943</v>
       </c>
       <c r="AN865" t="n">
-        <v>74.81427797467563</v>
+        <v>74.81427029605865</v>
       </c>
       <c r="AO865" t="n">
-        <v>73.10149694021608</v>
+        <v>73.10148943739161</v>
       </c>
       <c r="AP865" t="n">
-        <v>74.33469390869141</v>
+        <v>74.33468627929688</v>
       </c>
       <c r="AQ865" t="n">
         <v>22897900</v>
@@ -55095,7 +55095,7 @@
       <c r="D866" t="inlineStr"/>
       <c r="E866" t="inlineStr"/>
       <c r="F866" t="n">
-        <v>75.44065856933594</v>
+        <v>75.44066619873047</v>
       </c>
       <c r="G866" t="inlineStr"/>
       <c r="H866" t="inlineStr">
@@ -55134,16 +55134,16 @@
       <c r="AK866" t="inlineStr"/>
       <c r="AL866" t="inlineStr"/>
       <c r="AM866" t="n">
-        <v>74.36405494528768</v>
+        <v>74.36406246580414</v>
       </c>
       <c r="AN866" t="n">
-        <v>75.60704120447035</v>
+        <v>75.60704885069133</v>
       </c>
       <c r="AO866" t="n">
-        <v>73.89426033576066</v>
+        <v>73.89426780876629</v>
       </c>
       <c r="AP866" t="n">
-        <v>75.44065856933594</v>
+        <v>75.44066619873047</v>
       </c>
       <c r="AQ866" t="n">
         <v>20673700</v>
@@ -55221,7 +55221,7 @@
       <c r="D868" t="inlineStr"/>
       <c r="E868" t="inlineStr"/>
       <c r="F868" t="n">
-        <v>75.89088439941406</v>
+        <v>75.89087677001953</v>
       </c>
       <c r="G868" t="inlineStr"/>
       <c r="H868" t="inlineStr">
@@ -55260,16 +55260,16 @@
       <c r="AK868" t="inlineStr"/>
       <c r="AL868" t="inlineStr"/>
       <c r="AM868" t="n">
-        <v>75.9202451663068</v>
+        <v>75.92023753396059</v>
       </c>
       <c r="AN868" t="n">
-        <v>76.15513876858159</v>
+        <v>76.15513111262128</v>
       </c>
       <c r="AO868" t="n">
-        <v>75.2253463036913</v>
+        <v>75.22533874120404</v>
       </c>
       <c r="AP868" t="n">
-        <v>75.89088439941406</v>
+        <v>75.89087677001953</v>
       </c>
       <c r="AQ868" t="n">
         <v>11669500</v>
@@ -55284,7 +55284,7 @@
       <c r="D869" t="inlineStr"/>
       <c r="E869" t="inlineStr"/>
       <c r="F869" t="n">
-        <v>75.78322601318359</v>
+        <v>75.78321838378906</v>
       </c>
       <c r="G869" t="inlineStr"/>
       <c r="H869" t="inlineStr">
@@ -55323,16 +55323,16 @@
       <c r="AK869" t="inlineStr"/>
       <c r="AL869" t="inlineStr"/>
       <c r="AM869" t="n">
-        <v>76.05726980359091</v>
+        <v>76.05726214660733</v>
       </c>
       <c r="AN869" t="n">
-        <v>76.63472561949199</v>
+        <v>76.63471790437366</v>
       </c>
       <c r="AO869" t="n">
-        <v>75.3917316838303</v>
+        <v>75.39172409384905</v>
       </c>
       <c r="AP869" t="n">
-        <v>75.78322601318359</v>
+        <v>75.78321838378906</v>
       </c>
       <c r="AQ869" t="n">
         <v>12981800</v>
@@ -55347,7 +55347,7 @@
       <c r="D870" t="inlineStr"/>
       <c r="E870" t="inlineStr"/>
       <c r="F870" t="n">
-        <v>75.67555236816406</v>
+        <v>75.67555999755859</v>
       </c>
       <c r="G870" t="inlineStr"/>
       <c r="H870" t="inlineStr">
@@ -55386,16 +55386,16 @@
       <c r="AK870" t="inlineStr"/>
       <c r="AL870" t="inlineStr"/>
       <c r="AM870" t="n">
-        <v>75.36235844991464</v>
+        <v>75.36236604773384</v>
       </c>
       <c r="AN870" t="n">
-        <v>75.99853569648967</v>
+        <v>75.99854335844645</v>
       </c>
       <c r="AO870" t="n">
-        <v>75.36235844991464</v>
+        <v>75.36236604773384</v>
       </c>
       <c r="AP870" t="n">
-        <v>75.67555236816406</v>
+        <v>75.67555999755859</v>
       </c>
       <c r="AQ870" t="n">
         <v>10393200</v>
@@ -55410,7 +55410,7 @@
       <c r="D871" t="inlineStr"/>
       <c r="E871" t="inlineStr"/>
       <c r="F871" t="n">
-        <v>76.28237152099609</v>
+        <v>76.28236389160156</v>
       </c>
       <c r="G871" t="inlineStr"/>
       <c r="H871" t="inlineStr">
@@ -55449,16 +55449,16 @@
       <c r="AK871" t="inlineStr"/>
       <c r="AL871" t="inlineStr"/>
       <c r="AM871" t="n">
-        <v>75.75385536536854</v>
+        <v>75.75384778883364</v>
       </c>
       <c r="AN871" t="n">
-        <v>76.38024322378662</v>
+        <v>76.38023558460343</v>
       </c>
       <c r="AO871" t="n">
-        <v>75.2546999738649</v>
+        <v>75.25469244725311</v>
       </c>
       <c r="AP871" t="n">
-        <v>76.28237152099609</v>
+        <v>76.28236389160156</v>
       </c>
       <c r="AQ871" t="n">
         <v>10637100</v>
@@ -55473,7 +55473,7 @@
       <c r="D872" t="inlineStr"/>
       <c r="E872" t="inlineStr"/>
       <c r="F872" t="n">
-        <v>76.22364807128906</v>
+        <v>76.22364044189453</v>
       </c>
       <c r="G872" t="inlineStr"/>
       <c r="H872" t="inlineStr">
@@ -55512,16 +55512,16 @@
       <c r="AK872" t="inlineStr"/>
       <c r="AL872" t="inlineStr"/>
       <c r="AM872" t="n">
-        <v>76.21386612729093</v>
+        <v>76.21385849887548</v>
       </c>
       <c r="AN872" t="n">
-        <v>76.48790990189543</v>
+        <v>76.48790224605034</v>
       </c>
       <c r="AO872" t="n">
-        <v>75.52874922364683</v>
+        <v>75.52874166380626</v>
       </c>
       <c r="AP872" t="n">
-        <v>76.22364807128906</v>
+        <v>76.22364044189453</v>
       </c>
       <c r="AQ872" t="n">
         <v>11562000</v>
@@ -55536,7 +55536,7 @@
       <c r="D873" t="inlineStr"/>
       <c r="E873" t="inlineStr"/>
       <c r="F873" t="n">
-        <v>76.70322418212891</v>
+        <v>76.70323181152344</v>
       </c>
       <c r="G873" t="inlineStr"/>
       <c r="H873" t="inlineStr">
@@ -55575,16 +55575,16 @@
       <c r="AK873" t="inlineStr"/>
       <c r="AL873" t="inlineStr"/>
       <c r="AM873" t="n">
-        <v>76.0964076962549</v>
+        <v>76.09641526529157</v>
       </c>
       <c r="AN873" t="n">
-        <v>77.30025125788809</v>
+        <v>77.30025894666676</v>
       </c>
       <c r="AO873" t="n">
-        <v>75.95938582317561</v>
+        <v>75.95939337858321</v>
       </c>
       <c r="AP873" t="n">
-        <v>76.70322418212891</v>
+        <v>76.70323181152344</v>
       </c>
       <c r="AQ873" t="n">
         <v>9175400</v>
@@ -55788,7 +55788,7 @@
       <c r="D877" t="inlineStr"/>
       <c r="E877" t="inlineStr"/>
       <c r="F877" t="n">
-        <v>77.77983093261719</v>
+        <v>77.77982330322266</v>
       </c>
       <c r="G877" t="inlineStr"/>
       <c r="H877" t="inlineStr">
@@ -55827,16 +55827,16 @@
       <c r="AK877" t="inlineStr"/>
       <c r="AL877" t="inlineStr"/>
       <c r="AM877" t="n">
-        <v>78.14195698293416</v>
+        <v>78.14194931801882</v>
       </c>
       <c r="AN877" t="n">
-        <v>78.15174639344153</v>
+        <v>78.15173872756594</v>
       </c>
       <c r="AO877" t="n">
-        <v>76.77173819719589</v>
+        <v>76.77173066668479</v>
       </c>
       <c r="AP877" t="n">
-        <v>77.77983093261719</v>
+        <v>77.77982330322266</v>
       </c>
       <c r="AQ877" t="n">
         <v>14665200</v>
@@ -55851,7 +55851,7 @@
       <c r="D878" t="inlineStr"/>
       <c r="E878" t="inlineStr"/>
       <c r="F878" t="n">
-        <v>78.34748840332031</v>
+        <v>78.34750366210938</v>
       </c>
       <c r="G878" t="inlineStr"/>
       <c r="H878" t="inlineStr">
@@ -55890,16 +55890,16 @@
       <c r="AK878" t="inlineStr"/>
       <c r="AL878" t="inlineStr"/>
       <c r="AM878" t="n">
-        <v>77.9657835751765</v>
+        <v>77.96579875962554</v>
       </c>
       <c r="AN878" t="n">
-        <v>78.64110348112936</v>
+        <v>78.64111879710227</v>
       </c>
       <c r="AO878" t="n">
-        <v>77.49598899669792</v>
+        <v>77.49600408965078</v>
       </c>
       <c r="AP878" t="n">
-        <v>78.34748840332031</v>
+        <v>78.34750366210938</v>
       </c>
       <c r="AQ878" t="n">
         <v>17931000</v>
@@ -55977,7 +55977,7 @@
       <c r="D880" t="inlineStr"/>
       <c r="E880" t="inlineStr"/>
       <c r="F880" t="n">
-        <v>79.3441162109375</v>
+        <v>79.34410858154297</v>
       </c>
       <c r="G880" t="inlineStr"/>
       <c r="H880" t="inlineStr">
@@ -56016,16 +56016,16 @@
       <c r="AK880" t="inlineStr"/>
       <c r="AL880" t="inlineStr"/>
       <c r="AM880" t="n">
-        <v>79.93425318549585</v>
+        <v>79.93424549935625</v>
       </c>
       <c r="AN880" t="n">
-        <v>79.96376641262272</v>
+        <v>79.96375872364524</v>
       </c>
       <c r="AO880" t="n">
-        <v>77.79008309153478</v>
+        <v>77.79007561156951</v>
       </c>
       <c r="AP880" t="n">
-        <v>79.3441162109375</v>
+        <v>79.34410858154297</v>
       </c>
       <c r="AQ880" t="n">
         <v>17951400</v>
@@ -56040,7 +56040,7 @@
       <c r="D881" t="inlineStr"/>
       <c r="E881" t="inlineStr"/>
       <c r="F881" t="n">
-        <v>77.79991912841797</v>
+        <v>77.79991149902344</v>
       </c>
       <c r="G881" t="inlineStr"/>
       <c r="H881" t="inlineStr">
@@ -56079,16 +56079,16 @@
       <c r="AK881" t="inlineStr"/>
       <c r="AL881" t="inlineStr"/>
       <c r="AM881" t="n">
-        <v>79.13756691022631</v>
+        <v>79.13755914965628</v>
       </c>
       <c r="AN881" t="n">
-        <v>79.24575956199011</v>
+        <v>79.24575179081025</v>
       </c>
       <c r="AO881" t="n">
-        <v>76.96389114078741</v>
+        <v>76.96388359337737</v>
       </c>
       <c r="AP881" t="n">
-        <v>77.79991912841797</v>
+        <v>77.79991149902344</v>
       </c>
       <c r="AQ881" t="n">
         <v>18357400</v>
@@ -56292,7 +56292,7 @@
       <c r="D885" t="inlineStr"/>
       <c r="E885" t="inlineStr"/>
       <c r="F885" t="n">
-        <v>78.66545104980469</v>
+        <v>78.66545867919922</v>
       </c>
       <c r="G885" t="inlineStr"/>
       <c r="H885" t="inlineStr">
@@ -56331,16 +56331,16 @@
       <c r="AK885" t="inlineStr"/>
       <c r="AL885" t="inlineStr"/>
       <c r="AM885" t="n">
-        <v>77.92777805891903</v>
+        <v>77.92778561677011</v>
       </c>
       <c r="AN885" t="n">
-        <v>79.01952718175191</v>
+        <v>79.01953484548663</v>
       </c>
       <c r="AO885" t="n">
-        <v>77.59336240097207</v>
+        <v>77.59336992638973</v>
       </c>
       <c r="AP885" t="n">
-        <v>78.66545104980469</v>
+        <v>78.66545867919922</v>
       </c>
       <c r="AQ885" t="n">
         <v>17521300</v>
@@ -56418,7 +56418,7 @@
       <c r="D887" t="inlineStr"/>
       <c r="E887" t="inlineStr"/>
       <c r="F887" t="n">
-        <v>79.02937316894531</v>
+        <v>79.02936553955078</v>
       </c>
       <c r="G887" t="inlineStr"/>
       <c r="H887" t="inlineStr">
@@ -56457,16 +56457,16 @@
       <c r="AK887" t="inlineStr"/>
       <c r="AL887" t="inlineStr"/>
       <c r="AM887" t="n">
-        <v>78.99986744687079</v>
+        <v>78.99985982032472</v>
       </c>
       <c r="AN887" t="n">
-        <v>79.32444539768751</v>
+        <v>79.32443773980708</v>
       </c>
       <c r="AO887" t="n">
-        <v>78.6556215160039</v>
+        <v>78.65561392269088</v>
       </c>
       <c r="AP887" t="n">
-        <v>79.02937316894531</v>
+        <v>79.02936553955078</v>
       </c>
       <c r="AQ887" t="n">
         <v>13917400</v>
@@ -56481,7 +56481,7 @@
       <c r="D888" t="inlineStr"/>
       <c r="E888" t="inlineStr"/>
       <c r="F888" t="n">
-        <v>77.33763885498047</v>
+        <v>77.33763122558594</v>
       </c>
       <c r="G888" t="inlineStr"/>
       <c r="H888" t="inlineStr">
@@ -56520,16 +56520,16 @@
       <c r="AK888" t="inlineStr"/>
       <c r="AL888" t="inlineStr"/>
       <c r="AM888" t="n">
-        <v>78.79331695647899</v>
+        <v>78.79330918348111</v>
       </c>
       <c r="AN888" t="n">
-        <v>78.96052104467866</v>
+        <v>78.96051325518603</v>
       </c>
       <c r="AO888" t="n">
-        <v>76.7376641817951</v>
+        <v>76.73765661158833</v>
       </c>
       <c r="AP888" t="n">
-        <v>77.33763885498047</v>
+        <v>77.33763122558594</v>
       </c>
       <c r="AQ888" t="n">
         <v>14807100</v>
@@ -56607,7 +56607,7 @@
       <c r="D890" t="inlineStr"/>
       <c r="E890" t="inlineStr"/>
       <c r="F890" t="n">
-        <v>75.95081329345703</v>
+        <v>75.95082092285156</v>
       </c>
       <c r="G890" t="inlineStr"/>
       <c r="H890" t="inlineStr">
@@ -56646,16 +56646,16 @@
       <c r="AK890" t="inlineStr"/>
       <c r="AL890" t="inlineStr"/>
       <c r="AM890" t="n">
-        <v>76.68848629358152</v>
+        <v>76.68849399707662</v>
       </c>
       <c r="AN890" t="n">
-        <v>77.22944199127413</v>
+        <v>77.22944974910919</v>
       </c>
       <c r="AO890" t="n">
-        <v>75.15412885460188</v>
+        <v>75.15413640396804</v>
       </c>
       <c r="AP890" t="n">
-        <v>75.95081329345703</v>
+        <v>75.95082092285156</v>
       </c>
       <c r="AQ890" t="n">
         <v>12989700</v>
@@ -56670,7 +56670,7 @@
       <c r="D891" t="inlineStr"/>
       <c r="E891" t="inlineStr"/>
       <c r="F891" t="n">
-        <v>74.75086212158203</v>
+        <v>74.75086975097656</v>
       </c>
       <c r="G891" t="inlineStr"/>
       <c r="H891" t="inlineStr">
@@ -56709,16 +56709,16 @@
       <c r="AK891" t="inlineStr"/>
       <c r="AL891" t="inlineStr"/>
       <c r="AM891" t="n">
-        <v>76.5901294568022</v>
+        <v>76.59013727392026</v>
       </c>
       <c r="AN891" t="n">
-        <v>76.75733353164105</v>
+        <v>76.75734136582469</v>
       </c>
       <c r="AO891" t="n">
-        <v>73.69844896818809</v>
+        <v>73.69845649016879</v>
       </c>
       <c r="AP891" t="n">
-        <v>74.75086212158203</v>
+        <v>74.75086975097656</v>
       </c>
       <c r="AQ891" t="n">
         <v>15683000</v>
@@ -56733,7 +56733,7 @@
       <c r="D892" t="inlineStr"/>
       <c r="E892" t="inlineStr"/>
       <c r="F892" t="n">
-        <v>75.19347381591797</v>
+        <v>75.19346618652344</v>
       </c>
       <c r="G892" t="inlineStr"/>
       <c r="H892" t="inlineStr">
@@ -56772,16 +56772,16 @@
       <c r="AK892" t="inlineStr"/>
       <c r="AL892" t="inlineStr"/>
       <c r="AM892" t="n">
-        <v>75.0951189049224</v>
+        <v>75.0951112855073</v>
       </c>
       <c r="AN892" t="n">
-        <v>76.49177815145617</v>
+        <v>76.4917703903311</v>
       </c>
       <c r="AO892" t="n">
-        <v>75.01643197452645</v>
+        <v>75.01642436309521</v>
       </c>
       <c r="AP892" t="n">
-        <v>75.19347381591797</v>
+        <v>75.19346618652344</v>
       </c>
       <c r="AQ892" t="n">
         <v>13466800</v>
@@ -56859,7 +56859,7 @@
       <c r="D894" t="inlineStr"/>
       <c r="E894" t="inlineStr"/>
       <c r="F894" t="n">
-        <v>77.03273010253906</v>
+        <v>77.03273773193359</v>
       </c>
       <c r="G894" t="inlineStr"/>
       <c r="H894" t="inlineStr">
@@ -56898,16 +56898,16 @@
       <c r="AK894" t="inlineStr"/>
       <c r="AL894" t="inlineStr"/>
       <c r="AM894" t="n">
-        <v>75.77376941712845</v>
+        <v>75.77377692183431</v>
       </c>
       <c r="AN894" t="n">
-        <v>77.13108499908722</v>
+        <v>77.13109263822291</v>
       </c>
       <c r="AO894" t="n">
-        <v>75.33116112666535</v>
+        <v>75.33116858753488</v>
       </c>
       <c r="AP894" t="n">
-        <v>77.03273010253906</v>
+        <v>77.03273773193359</v>
       </c>
       <c r="AQ894" t="n">
         <v>24698800</v>
@@ -56985,7 +56985,7 @@
       <c r="D896" t="inlineStr"/>
       <c r="E896" t="inlineStr"/>
       <c r="F896" t="n">
-        <v>72.09523773193359</v>
+        <v>72.09524536132812</v>
       </c>
       <c r="G896" t="inlineStr"/>
       <c r="H896" t="inlineStr">
@@ -57024,16 +57024,16 @@
       <c r="AK896" t="inlineStr"/>
       <c r="AL896" t="inlineStr"/>
       <c r="AM896" t="n">
-        <v>74.22956961944395</v>
+        <v>74.22957747470166</v>
       </c>
       <c r="AN896" t="n">
-        <v>74.40661142371653</v>
+        <v>74.40661929770948</v>
       </c>
       <c r="AO896" t="n">
-        <v>70.16744586141127</v>
+        <v>70.16745328679946</v>
       </c>
       <c r="AP896" t="n">
-        <v>72.09523773193359</v>
+        <v>72.09524536132812</v>
       </c>
       <c r="AQ896" t="n">
         <v>28858200</v>
@@ -57048,7 +57048,7 @@
       <c r="D897" t="inlineStr"/>
       <c r="E897" t="inlineStr"/>
       <c r="F897" t="n">
-        <v>72.94110870361328</v>
+        <v>72.94111633300781</v>
       </c>
       <c r="G897" t="inlineStr"/>
       <c r="H897" t="inlineStr">
@@ -57087,16 +57087,16 @@
       <c r="AK897" t="inlineStr"/>
       <c r="AL897" t="inlineStr"/>
       <c r="AM897" t="n">
-        <v>72.00671841579653</v>
+        <v>72.00672594745697</v>
       </c>
       <c r="AN897" t="n">
-        <v>73.40337747304105</v>
+        <v>73.40338515078733</v>
       </c>
       <c r="AO897" t="n">
-        <v>71.24937744937448</v>
+        <v>71.24938490181962</v>
       </c>
       <c r="AP897" t="n">
-        <v>72.94110870361328</v>
+        <v>72.94111633300781</v>
       </c>
       <c r="AQ897" t="n">
         <v>20422000</v>
@@ -57111,7 +57111,7 @@
       <c r="D898" t="inlineStr"/>
       <c r="E898" t="inlineStr"/>
       <c r="F898" t="n">
-        <v>71.45592498779297</v>
+        <v>71.4559326171875</v>
       </c>
       <c r="G898" t="inlineStr"/>
       <c r="H898" t="inlineStr">
@@ -57150,16 +57150,16 @@
       <c r="AK898" t="inlineStr"/>
       <c r="AL898" t="inlineStr"/>
       <c r="AM898" t="n">
-        <v>72.57718733000821</v>
+        <v>72.57719507912064</v>
       </c>
       <c r="AN898" t="n">
-        <v>72.67554222767667</v>
+        <v>72.67554998729051</v>
       </c>
       <c r="AO898" t="n">
-        <v>70.45268552118078</v>
+        <v>70.45269304345881</v>
       </c>
       <c r="AP898" t="n">
-        <v>71.45592498779297</v>
+        <v>71.4559326171875</v>
       </c>
       <c r="AQ898" t="n">
         <v>19460400</v>
@@ -57174,7 +57174,7 @@
       <c r="D899" t="inlineStr"/>
       <c r="E899" t="inlineStr"/>
       <c r="F899" t="n">
-        <v>69.88222503662109</v>
+        <v>69.88223266601562</v>
       </c>
       <c r="G899" t="inlineStr"/>
       <c r="H899" t="inlineStr">
@@ -57213,16 +57213,16 @@
       <c r="AK899" t="inlineStr"/>
       <c r="AL899" t="inlineStr"/>
       <c r="AM899" t="n">
-        <v>71.06249883223558</v>
+        <v>71.06250659048655</v>
       </c>
       <c r="AN899" t="n">
-        <v>71.06249883223558</v>
+        <v>71.06250659048655</v>
       </c>
       <c r="AO899" t="n">
-        <v>66.98070674107231</v>
+        <v>66.98071405369348</v>
       </c>
       <c r="AP899" t="n">
-        <v>69.88222503662109</v>
+        <v>69.88223266601562</v>
       </c>
       <c r="AQ899" t="n">
         <v>21256900</v>
@@ -57237,7 +57237,7 @@
       <c r="D900" t="inlineStr"/>
       <c r="E900" t="inlineStr"/>
       <c r="F900" t="n">
-        <v>65.68240356445312</v>
+        <v>65.68241119384766</v>
       </c>
       <c r="G900" t="inlineStr"/>
       <c r="H900" t="inlineStr">
@@ -57276,16 +57276,16 @@
       <c r="AK900" t="inlineStr"/>
       <c r="AL900" t="inlineStr"/>
       <c r="AM900" t="n">
-        <v>68.40688008174597</v>
+        <v>68.40688802760434</v>
       </c>
       <c r="AN900" t="n">
-        <v>68.40688008174597</v>
+        <v>68.40688802760434</v>
       </c>
       <c r="AO900" t="n">
-        <v>64.44311080738856</v>
+        <v>64.44311829283201</v>
       </c>
       <c r="AP900" t="n">
-        <v>65.68240356445312</v>
+        <v>65.68241119384766</v>
       </c>
       <c r="AQ900" t="n">
         <v>27582900</v>
@@ -57300,7 +57300,7 @@
       <c r="D901" t="inlineStr"/>
       <c r="E901" t="inlineStr"/>
       <c r="F901" t="n">
-        <v>66.1741943359375</v>
+        <v>66.17418670654297</v>
       </c>
       <c r="G901" t="inlineStr"/>
       <c r="H901" t="inlineStr">
@@ -57339,16 +57339,16 @@
       <c r="AK901" t="inlineStr"/>
       <c r="AL901" t="inlineStr"/>
       <c r="AM901" t="n">
-        <v>65.7315934732169</v>
+        <v>65.73158589485098</v>
       </c>
       <c r="AN901" t="n">
-        <v>66.89219946203859</v>
+        <v>66.89219174986339</v>
       </c>
       <c r="AO901" t="n">
-        <v>64.70868586408602</v>
+        <v>64.70867840365376</v>
       </c>
       <c r="AP901" t="n">
-        <v>66.1741943359375</v>
+        <v>66.17418670654297</v>
       </c>
       <c r="AQ901" t="n">
         <v>24310700</v>
@@ -57426,7 +57426,7 @@
       <c r="D903" t="inlineStr"/>
       <c r="E903" t="inlineStr"/>
       <c r="F903" t="n">
-        <v>67.33479309082031</v>
+        <v>67.33478546142578</v>
       </c>
       <c r="G903" t="inlineStr"/>
       <c r="H903" t="inlineStr">
@@ -57465,16 +57465,16 @@
       <c r="AK903" t="inlineStr"/>
       <c r="AL903" t="inlineStr"/>
       <c r="AM903" t="n">
-        <v>68.48556121346319</v>
+        <v>68.48555345368044</v>
       </c>
       <c r="AN903" t="n">
-        <v>68.57408587889623</v>
+        <v>68.57407810908315</v>
       </c>
       <c r="AO903" t="n">
-        <v>67.18725698443065</v>
+        <v>67.18724937175274</v>
       </c>
       <c r="AP903" t="n">
-        <v>67.33479309082031</v>
+        <v>67.33478546142578</v>
       </c>
       <c r="AQ903" t="n">
         <v>17471500</v>
@@ -57489,7 +57489,7 @@
       <c r="D904" t="inlineStr"/>
       <c r="E904" t="inlineStr"/>
       <c r="F904" t="n">
-        <v>69.68551635742188</v>
+        <v>69.68550872802734</v>
       </c>
       <c r="G904" t="inlineStr"/>
       <c r="H904" t="inlineStr">
@@ -57528,16 +57528,16 @@
       <c r="AK904" t="inlineStr"/>
       <c r="AL904" t="inlineStr"/>
       <c r="AM904" t="n">
-        <v>68.31836283180066</v>
+        <v>68.31835535208648</v>
       </c>
       <c r="AN904" t="n">
-        <v>69.90190166432573</v>
+        <v>69.90189401124064</v>
       </c>
       <c r="AO904" t="n">
-        <v>68.11181526721026</v>
+        <v>68.11180781010958</v>
       </c>
       <c r="AP904" t="n">
-        <v>69.68551635742188</v>
+        <v>69.68550872802734</v>
       </c>
       <c r="AQ904" t="n">
         <v>15762300</v>
@@ -57552,7 +57552,7 @@
       <c r="D905" t="inlineStr"/>
       <c r="E905" t="inlineStr"/>
       <c r="F905" t="n">
-        <v>69.67566680908203</v>
+        <v>69.67567443847656</v>
       </c>
       <c r="G905" t="inlineStr"/>
       <c r="H905" t="inlineStr">
@@ -57591,16 +57591,16 @@
       <c r="AK905" t="inlineStr"/>
       <c r="AL905" t="inlineStr"/>
       <c r="AM905" t="n">
-        <v>69.31175294913234</v>
+        <v>69.31176053867878</v>
       </c>
       <c r="AN905" t="n">
-        <v>70.38383405568324</v>
+        <v>70.38384176262116</v>
       </c>
       <c r="AO905" t="n">
-        <v>68.9281636078896</v>
+        <v>68.9281711554335</v>
       </c>
       <c r="AP905" t="n">
-        <v>69.67566680908203</v>
+        <v>69.67567443847656</v>
       </c>
       <c r="AQ905" t="n">
         <v>11185000</v>
@@ -57615,7 +57615,7 @@
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr"/>
       <c r="F906" t="n">
-        <v>69.94123840332031</v>
+        <v>69.94123077392578</v>
       </c>
       <c r="G906" t="inlineStr"/>
       <c r="H906" t="inlineStr">
@@ -57654,16 +57654,16 @@
       <c r="AK906" t="inlineStr"/>
       <c r="AL906" t="inlineStr"/>
       <c r="AM906" t="n">
-        <v>69.84288350164066</v>
+        <v>69.84287588297497</v>
       </c>
       <c r="AN906" t="n">
-        <v>70.30515979393284</v>
+        <v>70.3051521248407</v>
       </c>
       <c r="AO906" t="n">
-        <v>69.23307110482997</v>
+        <v>69.2330635526844</v>
       </c>
       <c r="AP906" t="n">
-        <v>69.94123840332031</v>
+        <v>69.94123077392578</v>
       </c>
       <c r="AQ906" t="n">
         <v>11102100</v>
@@ -57741,7 +57741,7 @@
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr"/>
       <c r="F908" t="n">
-        <v>71.32805633544922</v>
+        <v>71.32806396484375</v>
       </c>
       <c r="G908" t="inlineStr"/>
       <c r="H908" t="inlineStr">
@@ -57780,16 +57780,16 @@
       <c r="AK908" t="inlineStr"/>
       <c r="AL908" t="inlineStr"/>
       <c r="AM908" t="n">
-        <v>70.65923253069332</v>
+        <v>70.6592400885491</v>
       </c>
       <c r="AN908" t="n">
-        <v>72.16409171939232</v>
+        <v>72.1640994382109</v>
       </c>
       <c r="AO908" t="n">
-        <v>70.60022109333174</v>
+        <v>70.60022864487553</v>
       </c>
       <c r="AP908" t="n">
-        <v>71.32805633544922</v>
+        <v>71.32806396484375</v>
       </c>
       <c r="AQ908" t="n">
         <v>12388300</v>
@@ -57804,7 +57804,7 @@
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr"/>
       <c r="F909" t="n">
-        <v>71.32805633544922</v>
+        <v>71.32806396484375</v>
       </c>
       <c r="G909" t="inlineStr"/>
       <c r="H909" t="inlineStr">
@@ -57843,16 +57843,16 @@
       <c r="AK909" t="inlineStr"/>
       <c r="AL909" t="inlineStr"/>
       <c r="AM909" t="n">
-        <v>70.77726290941411</v>
+        <v>70.77727047989465</v>
       </c>
       <c r="AN909" t="n">
-        <v>71.58378507067879</v>
+        <v>71.58379272742658</v>
       </c>
       <c r="AO909" t="n">
-        <v>69.98057848904224</v>
+        <v>69.9805859743078</v>
       </c>
       <c r="AP909" t="n">
-        <v>71.32805633544922</v>
+        <v>71.32806396484375</v>
       </c>
       <c r="AQ909" t="n">
         <v>32647100</v>
@@ -57867,7 +57867,7 @@
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr"/>
       <c r="F910" t="n">
-        <v>73.05913543701172</v>
+        <v>73.05912780761719</v>
       </c>
       <c r="G910" t="inlineStr"/>
       <c r="H910" t="inlineStr">
@@ -57906,16 +57906,16 @@
       <c r="AK910" t="inlineStr"/>
       <c r="AL910" t="inlineStr"/>
       <c r="AM910" t="n">
-        <v>72.42965505391615</v>
+        <v>72.42964749025678</v>
       </c>
       <c r="AN910" t="n">
-        <v>73.30502644615837</v>
+        <v>73.30501879108601</v>
       </c>
       <c r="AO910" t="n">
-        <v>72.13458284134094</v>
+        <v>72.13457530849527</v>
       </c>
       <c r="AP910" t="n">
-        <v>73.05913543701172</v>
+        <v>73.05912780761719</v>
       </c>
       <c r="AQ910" t="n">
         <v>10688900</v>
@@ -57930,7 +57930,7 @@
       <c r="D911" t="inlineStr"/>
       <c r="E911" t="inlineStr"/>
       <c r="F911" t="n">
-        <v>73.01978302001953</v>
+        <v>73.01979064941406</v>
       </c>
       <c r="G911" t="inlineStr"/>
       <c r="H911" t="inlineStr">
@@ -57969,16 +57969,16 @@
       <c r="AK911" t="inlineStr"/>
       <c r="AL911" t="inlineStr"/>
       <c r="AM911" t="n">
-        <v>73.24600602244992</v>
+        <v>73.24601367548112</v>
       </c>
       <c r="AN911" t="n">
-        <v>73.4328855677621</v>
+        <v>73.4328932403192</v>
       </c>
       <c r="AO911" t="n">
-        <v>72.61652571655297</v>
+        <v>72.6165333038136</v>
       </c>
       <c r="AP911" t="n">
-        <v>73.01978302001953</v>
+        <v>73.01979064941406</v>
       </c>
       <c r="AQ911" t="n">
         <v>9499100</v>
@@ -58056,7 +58056,7 @@
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr"/>
       <c r="F913" t="n">
-        <v>71.09201049804688</v>
+        <v>71.09200286865234</v>
       </c>
       <c r="G913" t="inlineStr"/>
       <c r="H913" t="inlineStr">
@@ -58095,16 +58095,16 @@
       <c r="AK913" t="inlineStr"/>
       <c r="AL913" t="inlineStr"/>
       <c r="AM913" t="n">
-        <v>72.3608090616604</v>
+        <v>72.36080129610198</v>
       </c>
       <c r="AN913" t="n">
-        <v>72.3608090616604</v>
+        <v>72.36080129610198</v>
       </c>
       <c r="AO913" t="n">
-        <v>71.03299905452944</v>
+        <v>71.03299143146786</v>
       </c>
       <c r="AP913" t="n">
-        <v>71.09201049804688</v>
+        <v>71.09200286865234</v>
       </c>
       <c r="AQ913" t="n">
         <v>10457600</v>
@@ -58119,7 +58119,7 @@
       <c r="D914" t="inlineStr"/>
       <c r="E914" t="inlineStr"/>
       <c r="F914" t="n">
-        <v>69.52814483642578</v>
+        <v>69.52813720703125</v>
       </c>
       <c r="G914" t="inlineStr"/>
       <c r="H914" t="inlineStr">
@@ -58158,16 +58158,16 @@
       <c r="AK914" t="inlineStr"/>
       <c r="AL914" t="inlineStr"/>
       <c r="AM914" t="n">
-        <v>71.08217032659034</v>
+        <v>71.082162526671</v>
       </c>
       <c r="AN914" t="n">
-        <v>71.3575745629215</v>
+        <v>71.35756673278178</v>
       </c>
       <c r="AO914" t="n">
-        <v>68.80030203926209</v>
+        <v>68.80029448973448</v>
       </c>
       <c r="AP914" t="n">
-        <v>69.52814483642578</v>
+        <v>69.52813720703125</v>
       </c>
       <c r="AQ914" t="n">
         <v>13555200</v>
@@ -58308,7 +58308,7 @@
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr"/>
       <c r="F917" t="n">
-        <v>71.07233428955078</v>
+        <v>71.07234191894531</v>
       </c>
       <c r="G917" t="inlineStr"/>
       <c r="H917" t="inlineStr">
@@ -58347,16 +58347,16 @@
       <c r="AK917" t="inlineStr"/>
       <c r="AL917" t="inlineStr"/>
       <c r="AM917" t="n">
-        <v>69.40027104482823</v>
+        <v>69.40027849473198</v>
       </c>
       <c r="AN917" t="n">
-        <v>71.2788818219464</v>
+        <v>71.27888947351316</v>
       </c>
       <c r="AO917" t="n">
-        <v>69.06586289828225</v>
+        <v>69.06587031228831</v>
       </c>
       <c r="AP917" t="n">
-        <v>71.07233428955078</v>
+        <v>71.07234191894531</v>
       </c>
       <c r="AQ917" t="n">
         <v>8854100</v>
@@ -58371,7 +58371,7 @@
       <c r="D918" t="inlineStr"/>
       <c r="E918" t="inlineStr"/>
       <c r="F918" t="n">
-        <v>64.59064483642578</v>
+        <v>64.59065246582031</v>
       </c>
       <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
@@ -58410,16 +58410,16 @@
       <c r="AK918" t="inlineStr"/>
       <c r="AL918" t="inlineStr"/>
       <c r="AM918" t="n">
-        <v>66.66596543681995</v>
+        <v>66.66597331134966</v>
       </c>
       <c r="AN918" t="n">
-        <v>67.59051798031241</v>
+        <v>67.59052596404953</v>
       </c>
       <c r="AO918" t="n">
-        <v>64.33492360422385</v>
+        <v>64.33493120341279</v>
       </c>
       <c r="AP918" t="n">
-        <v>64.59064483642578</v>
+        <v>64.59065246582031</v>
       </c>
       <c r="AQ918" t="n">
         <v>25880300</v>
@@ -58686,7 +58686,7 @@
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr"/>
       <c r="F923" t="n">
-        <v>62.07272338867188</v>
+        <v>62.07272720336914</v>
       </c>
       <c r="G923" t="inlineStr"/>
       <c r="H923" t="inlineStr">
@@ -58725,16 +58725,16 @@
       <c r="AK923" t="inlineStr"/>
       <c r="AL923" t="inlineStr"/>
       <c r="AM923" t="n">
-        <v>63.88247751026066</v>
+        <v>63.88248143617688</v>
       </c>
       <c r="AN923" t="n">
-        <v>63.93165871086808</v>
+        <v>63.93166263980675</v>
       </c>
       <c r="AO923" t="n">
-        <v>60.47935079136068</v>
+        <v>60.47935450813677</v>
       </c>
       <c r="AP923" t="n">
-        <v>62.07272338867188</v>
+        <v>62.07272720336914</v>
       </c>
       <c r="AQ923" t="n">
         <v>29026000</v>
@@ -58749,7 +58749,7 @@
       <c r="D924" t="inlineStr"/>
       <c r="E924" t="inlineStr"/>
       <c r="F924" t="n">
-        <v>61.48258209228516</v>
+        <v>61.48258590698242</v>
       </c>
       <c r="G924" t="inlineStr"/>
       <c r="H924" t="inlineStr">
@@ -58788,16 +58788,16 @@
       <c r="AK924" t="inlineStr"/>
       <c r="AL924" t="inlineStr"/>
       <c r="AM924" t="n">
-        <v>60.52852759307851</v>
+        <v>60.5285313485813</v>
       </c>
       <c r="AN924" t="n">
-        <v>62.57433869892255</v>
+        <v>62.57434258135805</v>
       </c>
       <c r="AO924" t="n">
-        <v>58.66959229074943</v>
+        <v>58.66959593091428</v>
       </c>
       <c r="AP924" t="n">
-        <v>61.48258209228516</v>
+        <v>61.48258590698242</v>
       </c>
       <c r="AQ924" t="n">
         <v>33867000</v>
@@ -58875,7 +58875,7 @@
       <c r="D926" t="inlineStr"/>
       <c r="E926" t="inlineStr"/>
       <c r="F926" t="n">
-        <v>63.47921752929688</v>
+        <v>63.47922134399414</v>
       </c>
       <c r="G926" t="inlineStr"/>
       <c r="H926" t="inlineStr">
@@ -58914,16 +58914,16 @@
       <c r="AK926" t="inlineStr"/>
       <c r="AL926" t="inlineStr"/>
       <c r="AM926" t="n">
-        <v>62.39729494509955</v>
+        <v>62.39729869478015</v>
       </c>
       <c r="AN926" t="n">
-        <v>64.34475109425632</v>
+        <v>64.34475496096665</v>
       </c>
       <c r="AO926" t="n">
-        <v>62.25959659394685</v>
+        <v>62.25960033535265</v>
       </c>
       <c r="AP926" t="n">
-        <v>63.47921752929688</v>
+        <v>63.47922134399414</v>
       </c>
       <c r="AQ926" t="n">
         <v>20903300</v>
@@ -58938,7 +58938,7 @@
       <c r="D927" t="inlineStr"/>
       <c r="E927" t="inlineStr"/>
       <c r="F927" t="n">
-        <v>62.92842864990234</v>
+        <v>62.92842483520508</v>
       </c>
       <c r="G927" t="inlineStr"/>
       <c r="H927" t="inlineStr">
@@ -58977,16 +58977,16 @@
       <c r="AK927" t="inlineStr"/>
       <c r="AL927" t="inlineStr"/>
       <c r="AM927" t="n">
-        <v>62.83990773366088</v>
+        <v>62.83990392432971</v>
       </c>
       <c r="AN927" t="n">
-        <v>63.91199647036262</v>
+        <v>63.91199259604185</v>
       </c>
       <c r="AO927" t="n">
-        <v>62.3284539678212</v>
+        <v>62.32845018949416</v>
       </c>
       <c r="AP927" t="n">
-        <v>62.92842864990234</v>
+        <v>62.92842483520508</v>
       </c>
       <c r="AQ927" t="n">
         <v>17351000</v>
@@ -59001,7 +59001,7 @@
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr"/>
       <c r="F928" t="n">
-        <v>63.64643096923828</v>
+        <v>63.64642715454102</v>
       </c>
       <c r="G928" t="inlineStr"/>
       <c r="H928" t="inlineStr">
@@ -59040,16 +59040,16 @@
       <c r="AK928" t="inlineStr"/>
       <c r="AL928" t="inlineStr"/>
       <c r="AM928" t="n">
-        <v>63.32185302058885</v>
+        <v>63.32184922534542</v>
       </c>
       <c r="AN928" t="n">
-        <v>64.62999505314677</v>
+        <v>64.62999117949884</v>
       </c>
       <c r="AO928" t="n">
-        <v>63.01695055585673</v>
+        <v>63.01694677888785</v>
       </c>
       <c r="AP928" t="n">
-        <v>63.64643096923828</v>
+        <v>63.64642715454102</v>
       </c>
       <c r="AQ928" t="n">
         <v>18961800</v>
@@ -59064,7 +59064,7 @@
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr"/>
       <c r="F929" t="n">
-        <v>62.95793533325195</v>
+        <v>62.95793151855469</v>
       </c>
       <c r="G929" t="inlineStr"/>
       <c r="H929" t="inlineStr">
@@ -59103,16 +59103,16 @@
       <c r="AK929" t="inlineStr"/>
       <c r="AL929" t="inlineStr"/>
       <c r="AM929" t="n">
-        <v>63.14480739525922</v>
+        <v>63.14480356923915</v>
       </c>
       <c r="AN929" t="n">
-        <v>64.08903546265572</v>
+        <v>64.08903157942372</v>
       </c>
       <c r="AO929" t="n">
-        <v>62.35796067775946</v>
+        <v>62.35795689941539</v>
       </c>
       <c r="AP929" t="n">
-        <v>62.95793533325195</v>
+        <v>62.95793151855469</v>
       </c>
       <c r="AQ929" t="n">
         <v>17859100</v>
@@ -59190,7 +59190,7 @@
       <c r="D931" t="inlineStr"/>
       <c r="E931" t="inlineStr"/>
       <c r="F931" t="n">
-        <v>66.82334899902344</v>
+        <v>66.82334136962891</v>
       </c>
       <c r="G931" t="inlineStr"/>
       <c r="H931" t="inlineStr">
@@ -59229,16 +59229,16 @@
       <c r="AK931" t="inlineStr"/>
       <c r="AL931" t="inlineStr"/>
       <c r="AM931" t="n">
-        <v>66.33156693692641</v>
+        <v>66.33155936367992</v>
       </c>
       <c r="AN931" t="n">
-        <v>68.35770663148655</v>
+        <v>68.35769882691045</v>
       </c>
       <c r="AO931" t="n">
-        <v>66.33156693692641</v>
+        <v>66.33155936367992</v>
       </c>
       <c r="AP931" t="n">
-        <v>66.82334899902344</v>
+        <v>66.82334136962891</v>
       </c>
       <c r="AQ931" t="n">
         <v>20678800</v>
@@ -59316,7 +59316,7 @@
       <c r="D933" t="inlineStr"/>
       <c r="E933" t="inlineStr"/>
       <c r="F933" t="n">
-        <v>68.58392333984375</v>
+        <v>68.58391571044922</v>
       </c>
       <c r="G933" t="inlineStr"/>
       <c r="H933" t="inlineStr">
@@ -59355,16 +59355,16 @@
       <c r="AK933" t="inlineStr"/>
       <c r="AL933" t="inlineStr"/>
       <c r="AM933" t="n">
-        <v>67.93476747598382</v>
+        <v>67.93475991880253</v>
       </c>
       <c r="AN933" t="n">
-        <v>69.0363618946561</v>
+        <v>69.03635421493152</v>
       </c>
       <c r="AO933" t="n">
-        <v>67.86591829381669</v>
+        <v>67.86591074429428</v>
       </c>
       <c r="AP933" t="n">
-        <v>68.58392333984375</v>
+        <v>68.58391571044922</v>
       </c>
       <c r="AQ933" t="n">
         <v>17775900</v>

--- a/stock_data_raw.xlsx
+++ b/stock_data_raw.xlsx
@@ -659,19 +659,19 @@
         <v>45659</v>
       </c>
       <c r="B2" t="n">
-        <v>247.8092359360387</v>
+        <v>247.8092203593721</v>
       </c>
       <c r="C2" t="n">
-        <v>247.9784839128408</v>
+        <v>247.9784683255357</v>
       </c>
       <c r="D2" t="n">
-        <v>240.7312618496379</v>
+        <v>240.731246717875</v>
       </c>
       <c r="E2" t="n">
-        <v>242.7521209716797</v>
+        <v>242.7521057128906</v>
       </c>
       <c r="F2" t="n">
-        <v>242.7521209716797</v>
+        <v>242.7521057128906</v>
       </c>
       <c r="G2" t="n">
         <v>55740700</v>
@@ -722,19 +722,19 @@
         <v>45660</v>
       </c>
       <c r="B3" t="n">
-        <v>242.2643127441406</v>
+        <v>242.2642974853516</v>
       </c>
       <c r="C3" t="n">
-        <v>243.080612931882</v>
+        <v>243.080597621679</v>
       </c>
       <c r="D3" t="n">
-        <v>240.8009299590752</v>
+        <v>240.800914792456</v>
       </c>
       <c r="E3" t="n">
-        <v>242.2643127441406</v>
+        <v>242.2642974853516</v>
       </c>
       <c r="F3" t="n">
-        <v>242.2643127441406</v>
+        <v>242.2642974853516</v>
       </c>
       <c r="G3" t="n">
         <v>40244100</v>
@@ -911,19 +911,19 @@
         <v>45665</v>
       </c>
       <c r="B6" t="n">
-        <v>240.8307671491237</v>
+        <v>240.8307823588735</v>
       </c>
       <c r="C6" t="n">
-        <v>242.6127162824731</v>
+        <v>242.6127316047624</v>
       </c>
       <c r="D6" t="n">
-        <v>238.969191578497</v>
+        <v>238.9692066706783</v>
       </c>
       <c r="E6" t="n">
-        <v>241.6072540283203</v>
+        <v>241.6072692871094</v>
       </c>
       <c r="F6" t="n">
-        <v>241.6072540283203</v>
+        <v>241.6072692871094</v>
       </c>
       <c r="G6" t="n">
         <v>37628900</v>
@@ -1037,19 +1037,19 @@
         <v>45670</v>
       </c>
       <c r="B8" t="n">
-        <v>232.4785569450621</v>
+        <v>232.4785721472169</v>
       </c>
       <c r="C8" t="n">
-        <v>233.6134236191898</v>
+        <v>233.6134388955554</v>
       </c>
       <c r="D8" t="n">
-        <v>228.6857134602163</v>
+        <v>228.6857284143509</v>
       </c>
       <c r="E8" t="n">
-        <v>233.3446350097656</v>
+        <v>233.3446502685547</v>
       </c>
       <c r="F8" t="n">
-        <v>233.3446350097656</v>
+        <v>233.3446502685547</v>
       </c>
       <c r="G8" t="n">
         <v>49630700</v>
@@ -1163,19 +1163,19 @@
         <v>45672</v>
       </c>
       <c r="B10" t="n">
-        <v>233.5835431572242</v>
+        <v>233.5835582088168</v>
       </c>
       <c r="C10" t="n">
-        <v>237.8840998392947</v>
+        <v>237.8841151680055</v>
       </c>
       <c r="D10" t="n">
-        <v>233.3744819893095</v>
+        <v>233.3744970274307</v>
       </c>
       <c r="E10" t="n">
-        <v>236.7989959716797</v>
+        <v>236.7990112304688</v>
       </c>
       <c r="F10" t="n">
-        <v>236.7989959716797</v>
+        <v>236.7990112304688</v>
       </c>
       <c r="G10" t="n">
         <v>39832000</v>
@@ -1478,19 +1478,19 @@
         <v>45680</v>
       </c>
       <c r="B15" t="n">
-        <v>223.7281391233053</v>
+        <v>223.7281544557755</v>
       </c>
       <c r="C15" t="n">
-        <v>226.0078219745498</v>
+        <v>226.0078374632505</v>
       </c>
       <c r="D15" t="n">
-        <v>221.299122515985</v>
+        <v>221.2991376819906</v>
       </c>
       <c r="E15" t="n">
-        <v>222.6529998779297</v>
+        <v>222.6530151367188</v>
       </c>
       <c r="F15" t="n">
-        <v>222.6529998779297</v>
+        <v>222.6530151367188</v>
       </c>
       <c r="G15" t="n">
         <v>60234800</v>
@@ -1667,19 +1667,19 @@
         <v>45685</v>
       </c>
       <c r="B18" t="n">
-        <v>229.8106300898193</v>
+        <v>229.8106153055851</v>
       </c>
       <c r="C18" t="n">
-        <v>239.1085741517517</v>
+        <v>239.1085587693599</v>
       </c>
       <c r="D18" t="n">
-        <v>229.7708016788408</v>
+        <v>229.7707868971689</v>
       </c>
       <c r="E18" t="n">
-        <v>237.187255859375</v>
+        <v>237.1872406005859</v>
       </c>
       <c r="F18" t="n">
-        <v>237.187255859375</v>
+        <v>237.1872406005859</v>
       </c>
       <c r="G18" t="n">
         <v>75707600</v>
@@ -1793,19 +1793,19 @@
         <v>45687</v>
       </c>
       <c r="B20" t="n">
-        <v>237.5954028687454</v>
+        <v>237.5954181968957</v>
       </c>
       <c r="C20" t="n">
-        <v>239.7058528532943</v>
+        <v>239.7058683175974</v>
       </c>
       <c r="D20" t="n">
-        <v>236.1419849250763</v>
+        <v>236.1420001594612</v>
       </c>
       <c r="E20" t="n">
-        <v>236.520263671875</v>
+        <v>236.5202789306641</v>
       </c>
       <c r="F20" t="n">
-        <v>236.520263671875</v>
+        <v>236.5202789306641</v>
       </c>
       <c r="G20" t="n">
         <v>55658300</v>
@@ -1982,19 +1982,19 @@
         <v>45692</v>
       </c>
       <c r="B23" t="n">
-        <v>226.2268315478868</v>
+        <v>226.226846442903</v>
       </c>
       <c r="C23" t="n">
-        <v>232.0803623471157</v>
+        <v>232.0803776275347</v>
       </c>
       <c r="D23" t="n">
-        <v>225.6295269067087</v>
+        <v>225.6295417623977</v>
       </c>
       <c r="E23" t="n">
-        <v>231.7518463134766</v>
+        <v>231.7518615722656</v>
       </c>
       <c r="F23" t="n">
-        <v>231.7518463134766</v>
+        <v>231.7518615722656</v>
       </c>
       <c r="G23" t="n">
         <v>45067300</v>
@@ -2045,19 +2045,19 @@
         <v>45693</v>
       </c>
       <c r="B24" t="n">
-        <v>227.5010616732941</v>
+        <v>227.5010766734706</v>
       </c>
       <c r="C24" t="n">
-        <v>231.6224210637583</v>
+        <v>231.6224363356746</v>
       </c>
       <c r="D24" t="n">
-        <v>227.2422377698664</v>
+        <v>227.2422527529774</v>
       </c>
       <c r="E24" t="n">
-        <v>231.4233245849609</v>
+        <v>231.42333984375</v>
       </c>
       <c r="F24" t="n">
-        <v>231.4233245849609</v>
+        <v>231.42333984375</v>
       </c>
       <c r="G24" t="n">
         <v>39620300</v>
@@ -2171,19 +2171,19 @@
         <v>45695</v>
       </c>
       <c r="B26" t="n">
-        <v>231.5527419594936</v>
+        <v>231.5527575514382</v>
       </c>
       <c r="C26" t="n">
-        <v>232.9464324880882</v>
+        <v>232.946448173879</v>
       </c>
       <c r="D26" t="n">
-        <v>226.2367733659399</v>
+        <v>226.236788599926</v>
       </c>
       <c r="E26" t="n">
-        <v>226.6051177978516</v>
+        <v>226.6051330566406</v>
       </c>
       <c r="F26" t="n">
-        <v>226.6051177978516</v>
+        <v>226.6051330566406</v>
       </c>
       <c r="G26" t="n">
         <v>39707200</v>
@@ -2297,19 +2297,19 @@
         <v>45699</v>
       </c>
       <c r="B28" t="n">
-        <v>227.4223348502397</v>
+        <v>227.4223198813819</v>
       </c>
       <c r="C28" t="n">
-        <v>234.4283767335121</v>
+        <v>234.4283613035192</v>
       </c>
       <c r="D28" t="n">
-        <v>227.3525813044295</v>
+        <v>227.3525663401629</v>
       </c>
       <c r="E28" t="n">
-        <v>231.8272705078125</v>
+        <v>231.8272552490234</v>
       </c>
       <c r="F28" t="n">
-        <v>231.8272705078125</v>
+        <v>231.8272552490234</v>
       </c>
       <c r="G28" t="n">
         <v>53718400</v>
@@ -2486,19 +2486,19 @@
         <v>45702</v>
       </c>
       <c r="B31" t="n">
-        <v>240.4278591482801</v>
+        <v>240.4278440984732</v>
       </c>
       <c r="C31" t="n">
-        <v>244.7132084874105</v>
+        <v>244.7131931693581</v>
       </c>
       <c r="D31" t="n">
-        <v>240.1687506605335</v>
+        <v>240.1687356269457</v>
       </c>
       <c r="E31" t="n">
-        <v>243.7664489746094</v>
+        <v>243.7664337158203</v>
       </c>
       <c r="F31" t="n">
-        <v>243.7664489746094</v>
+        <v>243.7664337158203</v>
       </c>
       <c r="G31" t="n">
         <v>40896200</v>
@@ -2675,19 +2675,19 @@
         <v>45708</v>
       </c>
       <c r="B34" t="n">
-        <v>244.1052821354459</v>
+        <v>244.1052973389922</v>
       </c>
       <c r="C34" t="n">
-        <v>245.9390080304084</v>
+        <v>245.9390233481642</v>
       </c>
       <c r="D34" t="n">
-        <v>243.4574881179023</v>
+        <v>243.4575032811023</v>
       </c>
       <c r="E34" t="n">
-        <v>244.9922485351562</v>
+        <v>244.9922637939453</v>
       </c>
       <c r="F34" t="n">
-        <v>244.9922485351562</v>
+        <v>244.9922637939453</v>
       </c>
       <c r="G34" t="n">
         <v>32316900</v>
@@ -3116,19 +3116,19 @@
         <v>45719</v>
       </c>
       <c r="B41" t="n">
-        <v>240.966007272635</v>
+        <v>240.9659917728134</v>
       </c>
       <c r="C41" t="n">
-        <v>243.1983791446907</v>
+        <v>243.1983635012748</v>
       </c>
       <c r="D41" t="n">
-        <v>235.3053712065215</v>
+        <v>235.3053560708129</v>
       </c>
       <c r="E41" t="n">
-        <v>237.2188262939453</v>
+        <v>237.2188110351562</v>
       </c>
       <c r="F41" t="n">
-        <v>237.2188262939453</v>
+        <v>237.2188110351562</v>
       </c>
       <c r="G41" t="n">
         <v>47184000</v>
@@ -3305,19 +3305,19 @@
         <v>45722</v>
       </c>
       <c r="B44" t="n">
-        <v>233.6410791992606</v>
+        <v>233.6410639981791</v>
       </c>
       <c r="C44" t="n">
-        <v>237.0494227188423</v>
+        <v>237.0494072960082</v>
       </c>
       <c r="D44" t="n">
-        <v>232.3654423921701</v>
+        <v>232.3654272740836</v>
       </c>
       <c r="E44" t="n">
-        <v>234.5280456542969</v>
+        <v>234.5280303955078</v>
       </c>
       <c r="F44" t="n">
-        <v>234.5280456542969</v>
+        <v>234.5280303955078</v>
       </c>
       <c r="G44" t="n">
         <v>45170400</v>
@@ -3746,19 +3746,19 @@
         <v>45733</v>
       </c>
       <c r="B51" t="n">
-        <v>212.5830552050643</v>
+        <v>212.5830704146544</v>
       </c>
       <c r="C51" t="n">
-        <v>214.4865497369254</v>
+        <v>214.4865650827039</v>
       </c>
       <c r="D51" t="n">
-        <v>209.2544412910003</v>
+        <v>209.2544562624393</v>
       </c>
       <c r="E51" t="n">
-        <v>213.2707061767578</v>
+        <v>213.2707214355469</v>
       </c>
       <c r="F51" t="n">
-        <v>213.2707061767578</v>
+        <v>213.2707214355469</v>
       </c>
       <c r="G51" t="n">
         <v>48073400</v>
@@ -3998,19 +3998,19 @@
         <v>45737</v>
       </c>
       <c r="B55" t="n">
-        <v>210.8390289291879</v>
+        <v>210.8390437188948</v>
       </c>
       <c r="C55" t="n">
-        <v>218.0942184307265</v>
+        <v>218.0942337293625</v>
       </c>
       <c r="D55" t="n">
-        <v>210.5599843488818</v>
+        <v>210.5599991190145</v>
       </c>
       <c r="E55" t="n">
-        <v>217.5261688232422</v>
+        <v>217.5261840820312</v>
       </c>
       <c r="F55" t="n">
-        <v>217.5261688232422</v>
+        <v>217.5261840820312</v>
       </c>
       <c r="G55" t="n">
         <v>94127800</v>
@@ -4061,19 +4061,19 @@
         <v>45740</v>
       </c>
       <c r="B56" t="n">
-        <v>220.2468520667527</v>
+        <v>220.2468673442068</v>
       </c>
       <c r="C56" t="n">
-        <v>220.7252120124358</v>
+        <v>220.7252273230714</v>
       </c>
       <c r="D56" t="n">
-        <v>217.8351010318318</v>
+        <v>217.8351161419945</v>
       </c>
       <c r="E56" t="n">
-        <v>219.9777679443359</v>
+        <v>219.977783203125</v>
       </c>
       <c r="F56" t="n">
-        <v>219.9777679443359</v>
+        <v>219.977783203125</v>
       </c>
       <c r="G56" t="n">
         <v>44299500</v>
@@ -4124,19 +4124,19 @@
         <v>45741</v>
       </c>
       <c r="B57" t="n">
-        <v>220.0176475207108</v>
+        <v>220.017662576277</v>
       </c>
       <c r="C57" t="n">
-        <v>223.3363011191594</v>
+        <v>223.3363164018174</v>
       </c>
       <c r="D57" t="n">
-        <v>219.3299965219166</v>
+        <v>219.3300115304276</v>
       </c>
       <c r="E57" t="n">
-        <v>222.9874877929688</v>
+        <v>222.9875030517578</v>
       </c>
       <c r="F57" t="n">
-        <v>222.9874877929688</v>
+        <v>222.9875030517578</v>
       </c>
       <c r="G57" t="n">
         <v>34493600</v>
@@ -4250,19 +4250,19 @@
         <v>45743</v>
       </c>
       <c r="B59" t="n">
-        <v>220.6355499214609</v>
+        <v>220.6355348303588</v>
       </c>
       <c r="C59" t="n">
-        <v>224.2232879790045</v>
+        <v>224.2232726425071</v>
       </c>
       <c r="D59" t="n">
-        <v>219.8083765580053</v>
+        <v>219.8083615234804</v>
       </c>
       <c r="E59" t="n">
-        <v>223.0871734619141</v>
+        <v>223.087158203125</v>
       </c>
       <c r="F59" t="n">
-        <v>223.0871734619141</v>
+        <v>223.087158203125</v>
       </c>
       <c r="G59" t="n">
         <v>37094800</v>
@@ -4439,19 +4439,19 @@
         <v>45748</v>
       </c>
       <c r="B62" t="n">
-        <v>219.0609113529448</v>
+        <v>219.0609263806537</v>
       </c>
       <c r="C62" t="n">
-        <v>222.9177179892151</v>
+        <v>222.9177332815032</v>
       </c>
       <c r="D62" t="n">
-        <v>218.1540088745757</v>
+        <v>218.1540238400705</v>
       </c>
       <c r="E62" t="n">
-        <v>222.4293975830078</v>
+        <v>222.4294128417969</v>
       </c>
       <c r="F62" t="n">
-        <v>222.4293975830078</v>
+        <v>222.4294128417969</v>
       </c>
       <c r="G62" t="n">
         <v>36412700</v>
@@ -4502,19 +4502,19 @@
         <v>45749</v>
       </c>
       <c r="B63" t="n">
-        <v>220.5657802616442</v>
+        <v>220.5657953452804</v>
       </c>
       <c r="C63" t="n">
-        <v>224.4225869866718</v>
+        <v>224.4226023340601</v>
       </c>
       <c r="D63" t="n">
-        <v>220.2667995775576</v>
+        <v>220.2668146407477</v>
       </c>
       <c r="E63" t="n">
-        <v>223.1270141601562</v>
+        <v>223.1270294189453</v>
       </c>
       <c r="F63" t="n">
-        <v>223.1270141601562</v>
+        <v>223.1270294189453</v>
       </c>
       <c r="G63" t="n">
         <v>35905900</v>
@@ -4754,19 +4754,19 @@
         <v>45755</v>
       </c>
       <c r="B67" t="n">
-        <v>186.0637470773399</v>
+        <v>186.0637305548024</v>
       </c>
       <c r="C67" t="n">
-        <v>189.6913418115003</v>
+        <v>189.691324966831</v>
       </c>
       <c r="D67" t="n">
-        <v>168.6333605077243</v>
+        <v>168.6333455330125</v>
       </c>
       <c r="E67" t="n">
-        <v>171.8324127197266</v>
+        <v>171.8323974609375</v>
       </c>
       <c r="F67" t="n">
-        <v>171.8324127197266</v>
+        <v>171.8323974609375</v>
       </c>
       <c r="G67" t="n">
         <v>120859500</v>
@@ -4817,19 +4817,19 @@
         <v>45756</v>
       </c>
       <c r="B68" t="n">
-        <v>171.3640242168161</v>
+        <v>171.3640110222038</v>
       </c>
       <c r="C68" t="n">
-        <v>199.9263600631265</v>
+        <v>199.926344669284</v>
       </c>
       <c r="D68" t="n">
-        <v>171.304231118437</v>
+        <v>171.3042179284287</v>
       </c>
       <c r="E68" t="n">
-        <v>198.17236328125</v>
+        <v>198.1723480224609</v>
       </c>
       <c r="F68" t="n">
-        <v>198.17236328125</v>
+        <v>198.1723480224609</v>
       </c>
       <c r="G68" t="n">
         <v>184395900</v>
@@ -4943,19 +4943,19 @@
         <v>45758</v>
       </c>
       <c r="B70" t="n">
-        <v>185.4658080204705</v>
+        <v>185.4657936896058</v>
       </c>
       <c r="C70" t="n">
-        <v>198.8599939466243</v>
+        <v>198.8599785807966</v>
       </c>
       <c r="D70" t="n">
-        <v>185.4259358180616</v>
+        <v>185.4259214902779</v>
       </c>
       <c r="E70" t="n">
-        <v>197.4747314453125</v>
+        <v>197.4747161865234</v>
       </c>
       <c r="F70" t="n">
-        <v>197.4747314453125</v>
+        <v>197.4747161865234</v>
       </c>
       <c r="G70" t="n">
         <v>87435900</v>
@@ -5447,19 +5447,19 @@
         <v>45771</v>
       </c>
       <c r="B78" t="n">
-        <v>204.1917755069081</v>
+        <v>204.1917605029567</v>
       </c>
       <c r="C78" t="n">
-        <v>208.1183512129401</v>
+        <v>208.118335920465</v>
       </c>
       <c r="D78" t="n">
-        <v>202.2484237558185</v>
+        <v>202.248408894664</v>
       </c>
       <c r="E78" t="n">
-        <v>207.659912109375</v>
+        <v>207.6598968505859</v>
       </c>
       <c r="F78" t="n">
-        <v>207.659912109375</v>
+        <v>207.6598968505859</v>
       </c>
       <c r="G78" t="n">
         <v>47311000</v>
@@ -5825,19 +5825,19 @@
         <v>45779</v>
       </c>
       <c r="B84" t="n">
-        <v>205.3876606767868</v>
+        <v>205.3876759905618</v>
       </c>
       <c r="C84" t="n">
-        <v>206.2846026840361</v>
+        <v>206.2846180646874</v>
       </c>
       <c r="D84" t="n">
-        <v>201.4710610528427</v>
+        <v>201.4710760745947</v>
       </c>
       <c r="E84" t="n">
-        <v>204.6501922607422</v>
+        <v>204.6502075195312</v>
       </c>
       <c r="F84" t="n">
-        <v>204.6501922607422</v>
+        <v>204.6502075195312</v>
       </c>
       <c r="G84" t="n">
         <v>101010600</v>
@@ -5951,19 +5951,19 @@
         <v>45783</v>
       </c>
       <c r="B86" t="n">
-        <v>197.5345306234426</v>
+        <v>197.5345458591726</v>
       </c>
       <c r="C86" t="n">
-        <v>199.9662026204134</v>
+        <v>199.9662180436969</v>
       </c>
       <c r="D86" t="n">
-        <v>196.3485835685935</v>
+        <v>196.3485987128521</v>
       </c>
       <c r="E86" t="n">
-        <v>197.83349609375</v>
+        <v>197.8335113525391</v>
       </c>
       <c r="F86" t="n">
-        <v>197.83349609375</v>
+        <v>197.8335113525391</v>
       </c>
       <c r="G86" t="n">
         <v>51216500</v>
@@ -9294,7 +9294,7 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
-        <v>118.3876190185547</v>
+        <v>118.3876113891602</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
@@ -9303,16 +9303,16 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>124.7658794397831</v>
+        <v>124.7658713993467</v>
       </c>
       <c r="J139" t="n">
-        <v>128.3648859520762</v>
+        <v>128.3648776797048</v>
       </c>
       <c r="K139" t="n">
-        <v>116.668088091544</v>
+        <v>116.6680805729632</v>
       </c>
       <c r="L139" t="n">
-        <v>118.3876190185547</v>
+        <v>118.3876113891602</v>
       </c>
       <c r="M139" t="n">
         <v>818830900</v>
@@ -9483,7 +9483,7 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
-        <v>124.6159133911133</v>
+        <v>124.6159210205078</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
@@ -9492,16 +9492,16 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>123.0663342199192</v>
+        <v>123.0663417544434</v>
       </c>
       <c r="J142" t="n">
-        <v>124.9658161508741</v>
+        <v>124.9658238016908</v>
       </c>
       <c r="K142" t="n">
-        <v>118.0677015738842</v>
+        <v>118.0677088023758</v>
       </c>
       <c r="L142" t="n">
-        <v>124.6159133911133</v>
+        <v>124.6159210205078</v>
       </c>
       <c r="M142" t="n">
         <v>392925500</v>
@@ -9987,7 +9987,7 @@
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
-        <v>132.7636871337891</v>
+        <v>132.7637023925781</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
@@ -9996,16 +9996,16 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>132.5437460753307</v>
+        <v>132.5437613088415</v>
       </c>
       <c r="J150" t="n">
-        <v>134.4432203933444</v>
+        <v>134.4432358451655</v>
       </c>
       <c r="K150" t="n">
-        <v>130.9841751187103</v>
+        <v>130.9841901729766</v>
       </c>
       <c r="L150" t="n">
-        <v>132.7636871337891</v>
+        <v>132.7637023925781</v>
       </c>
       <c r="M150" t="n">
         <v>178902400</v>
@@ -10743,7 +10743,7 @@
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="n">
-        <v>124.8858337402344</v>
+        <v>124.8858413696289</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
@@ -10752,16 +10752,16 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>117.9877192989992</v>
+        <v>117.9877265069813</v>
       </c>
       <c r="J162" t="n">
-        <v>125.055785416301</v>
+        <v>125.055793056078</v>
       </c>
       <c r="K162" t="n">
-        <v>116.3681672350338</v>
+        <v>116.3681743440759</v>
       </c>
       <c r="L162" t="n">
-        <v>124.8858337402344</v>
+        <v>124.8858413696289</v>
       </c>
       <c r="M162" t="n">
         <v>389091100</v>
@@ -16035,7 +16035,7 @@
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="n">
-        <v>235.0247650146484</v>
+        <v>233.9694061279297</v>
       </c>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr">
@@ -16049,16 +16049,16 @@
       <c r="L246" t="inlineStr"/>
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="n">
-        <v>235.9256914874413</v>
+        <v>234.8662870663752</v>
       </c>
       <c r="O246" t="n">
-        <v>238.2367689411175</v>
+        <v>237.1669868216481</v>
       </c>
       <c r="P246" t="n">
-        <v>234.4861636063288</v>
+        <v>233.4332232638117</v>
       </c>
       <c r="Q246" t="n">
-        <v>235.0247650146484</v>
+        <v>233.9694061279297</v>
       </c>
       <c r="R246" t="n">
         <v>9220900</v>
@@ -16098,7 +16098,7 @@
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="n">
-        <v>238.2367706298828</v>
+        <v>237.1669616699219</v>
       </c>
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr">
@@ -16112,16 +16112,16 @@
       <c r="L247" t="inlineStr"/>
       <c r="M247" t="inlineStr"/>
       <c r="N247" t="n">
-        <v>238.834125842895</v>
+        <v>237.7616344424465</v>
       </c>
       <c r="O247" t="n">
-        <v>239.8036083847427</v>
+        <v>238.7267634955063</v>
       </c>
       <c r="P247" t="n">
-        <v>235.2793714652591</v>
+        <v>234.2228427899332</v>
       </c>
       <c r="Q247" t="n">
-        <v>238.2367706298828</v>
+        <v>237.1669616699219</v>
       </c>
       <c r="R247" t="n">
         <v>9491100</v>
@@ -16161,7 +16161,7 @@
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="n">
-        <v>237.0752716064453</v>
+        <v>236.0106658935547</v>
       </c>
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="inlineStr">
@@ -16175,16 +16175,16 @@
       <c r="L248" t="inlineStr"/>
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="n">
-        <v>239.8805958184739</v>
+        <v>238.8033925699466</v>
       </c>
       <c r="O248" t="n">
-        <v>241.8394128449822</v>
+        <v>240.7534133699113</v>
       </c>
       <c r="P248" t="n">
-        <v>236.8094989902675</v>
+        <v>235.7460867508403</v>
       </c>
       <c r="Q248" t="n">
-        <v>237.0752716064453</v>
+        <v>236.0106658935547</v>
       </c>
       <c r="R248" t="n">
         <v>9917800</v>
@@ -16224,7 +16224,7 @@
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="n">
-        <v>239.3589019775391</v>
+        <v>238.2840576171875</v>
       </c>
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr">
@@ -16238,16 +16238,16 @@
       <c r="L249" t="inlineStr"/>
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="n">
-        <v>238.3450459150843</v>
+        <v>237.2747542889821</v>
       </c>
       <c r="O249" t="n">
-        <v>241.4161427241011</v>
+        <v>240.332060296579</v>
       </c>
       <c r="P249" t="n">
-        <v>237.1244744814173</v>
+        <v>236.0596638477121</v>
       </c>
       <c r="Q249" t="n">
-        <v>239.3589019775391</v>
+        <v>238.2840576171875</v>
       </c>
       <c r="R249" t="n">
         <v>8753400</v>
@@ -16287,7 +16287,7 @@
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="n">
-        <v>239.3195343017578</v>
+        <v>238.244873046875</v>
       </c>
       <c r="G250" t="inlineStr"/>
       <c r="H250" t="inlineStr">
@@ -16301,16 +16301,16 @@
       <c r="L250" t="inlineStr"/>
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="n">
-        <v>238.9454850698215</v>
+        <v>237.8725034781478</v>
       </c>
       <c r="O250" t="n">
-        <v>240.421976223703</v>
+        <v>239.3423644677141</v>
       </c>
       <c r="P250" t="n">
-        <v>236.7307483389993</v>
+        <v>235.6677119937983</v>
       </c>
       <c r="Q250" t="n">
-        <v>239.3195343017578</v>
+        <v>238.244873046875</v>
       </c>
       <c r="R250" t="n">
         <v>8675300</v>
@@ -16350,7 +16350,7 @@
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="n">
-        <v>236.1106262207031</v>
+        <v>235.0503692626953</v>
       </c>
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr">
@@ -16364,16 +16364,16 @@
       <c r="L251" t="inlineStr"/>
       <c r="M251" t="inlineStr"/>
       <c r="N251" t="n">
-        <v>239.2801618863882</v>
+        <v>238.2056720990623</v>
       </c>
       <c r="O251" t="n">
-        <v>239.9888788687554</v>
+        <v>238.9112065812437</v>
       </c>
       <c r="P251" t="n">
-        <v>234.9983463892022</v>
+        <v>233.943084134099</v>
       </c>
       <c r="Q251" t="n">
-        <v>236.1106262207031</v>
+        <v>235.0503692626953</v>
       </c>
       <c r="R251" t="n">
         <v>10256800</v>
@@ -16413,7 +16413,7 @@
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="n">
-        <v>240.3825988769531</v>
+        <v>239.3031768798828</v>
       </c>
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr">
@@ -16427,16 +16427,16 @@
       <c r="L252" t="inlineStr"/>
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="n">
-        <v>235.9137441087266</v>
+        <v>234.8543892053689</v>
       </c>
       <c r="O252" t="n">
-        <v>240.707413698848</v>
+        <v>239.6265331425252</v>
       </c>
       <c r="P252" t="n">
-        <v>235.2542465588061</v>
+        <v>234.1978530851264</v>
       </c>
       <c r="Q252" t="n">
-        <v>240.3825988769531</v>
+        <v>239.3031768798828</v>
       </c>
       <c r="R252" t="n">
         <v>10005300</v>
@@ -16476,7 +16476,7 @@
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="n">
-        <v>243.5915069580078</v>
+        <v>242.4976654052734</v>
       </c>
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr">
@@ -16490,16 +16490,16 @@
       <c r="L253" t="inlineStr"/>
       <c r="M253" t="inlineStr"/>
       <c r="N253" t="n">
-        <v>238.8568944878796</v>
+        <v>237.7843135936985</v>
       </c>
       <c r="O253" t="n">
-        <v>243.837588812128</v>
+        <v>242.7426422349994</v>
       </c>
       <c r="P253" t="n">
-        <v>238.3942594005622</v>
+        <v>237.3237559576378</v>
       </c>
       <c r="Q253" t="n">
-        <v>243.5915069580078</v>
+        <v>242.4976654052734</v>
       </c>
       <c r="R253" t="n">
         <v>12407400</v>
@@ -16539,7 +16539,7 @@
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="n">
-        <v>248.39501953125</v>
+        <v>247.2796325683594</v>
       </c>
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr">
@@ -16553,16 +16553,16 @@
       <c r="L254" t="inlineStr"/>
       <c r="M254" t="inlineStr"/>
       <c r="N254" t="n">
-        <v>246.4755691308683</v>
+        <v>245.3688012214376</v>
       </c>
       <c r="O254" t="n">
-        <v>249.694323858348</v>
+        <v>248.5731025308634</v>
       </c>
       <c r="P254" t="n">
-        <v>239.8608879575227</v>
+        <v>238.7838224517808</v>
       </c>
       <c r="Q254" t="n">
-        <v>248.39501953125</v>
+        <v>247.2796325683594</v>
       </c>
       <c r="R254" t="n">
         <v>18448500</v>
@@ -16602,7 +16602,7 @@
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="n">
-        <v>250.2849426269531</v>
+        <v>249.1610260009766</v>
       </c>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr">
@@ -16616,16 +16616,16 @@
       <c r="L255" t="inlineStr"/>
       <c r="M255" t="inlineStr"/>
       <c r="N255" t="n">
-        <v>250.0191700123843</v>
+        <v>248.8964468511728</v>
       </c>
       <c r="O255" t="n">
-        <v>253.011533844006</v>
+        <v>251.8753733284494</v>
       </c>
       <c r="P255" t="n">
-        <v>248.3753449882823</v>
+        <v>247.2600035027537</v>
       </c>
       <c r="Q255" t="n">
-        <v>250.2849426269531</v>
+        <v>249.1610260009766</v>
       </c>
       <c r="R255" t="n">
         <v>15292300</v>
@@ -16665,7 +16665,7 @@
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="n">
-        <v>255.0983123779297</v>
+        <v>253.9527893066406</v>
       </c>
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr">
@@ -16679,16 +16679,16 @@
       <c r="L256" t="inlineStr"/>
       <c r="M256" t="inlineStr"/>
       <c r="N256" t="n">
-        <v>250.1569842411065</v>
+        <v>249.0336502832254</v>
       </c>
       <c r="O256" t="n">
-        <v>256.5354220824125</v>
+        <v>255.3834456469004</v>
       </c>
       <c r="P256" t="n">
-        <v>248.1883292883884</v>
+        <v>247.0738356072097</v>
       </c>
       <c r="Q256" t="n">
-        <v>255.0983123779297</v>
+        <v>253.9527893066406</v>
       </c>
       <c r="R256" t="n">
         <v>17678100</v>
@@ -16728,7 +16728,7 @@
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="n">
-        <v>258.9076232910156</v>
+        <v>257.7450561523438</v>
       </c>
       <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr">
@@ -16742,16 +16742,16 @@
       <c r="L257" t="inlineStr"/>
       <c r="M257" t="inlineStr"/>
       <c r="N257" t="n">
-        <v>255.9940227277619</v>
+        <v>254.8445384648547</v>
       </c>
       <c r="O257" t="n">
-        <v>260.1085038671108</v>
+        <v>258.9405444411146</v>
       </c>
       <c r="P257" t="n">
-        <v>255.4329489253178</v>
+        <v>254.2859840396187</v>
       </c>
       <c r="Q257" t="n">
-        <v>258.9076232910156</v>
+        <v>257.7450561523438</v>
       </c>
       <c r="R257" t="n">
         <v>13712100</v>
@@ -16791,7 +16791,7 @@
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="n">
-        <v>258.7206115722656</v>
+        <v>257.5588684082031</v>
       </c>
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr">
@@ -16805,16 +16805,16 @@
       <c r="L258" t="inlineStr"/>
       <c r="M258" t="inlineStr"/>
       <c r="N258" t="n">
-        <v>258.7796688134332</v>
+        <v>257.6176604623576</v>
       </c>
       <c r="O258" t="n">
-        <v>259.2521567820625</v>
+        <v>258.0880267999954</v>
       </c>
       <c r="P258" t="n">
-        <v>256.1712071975693</v>
+        <v>255.0209117225283</v>
       </c>
       <c r="Q258" t="n">
-        <v>258.7206115722656</v>
+        <v>257.5588684082031</v>
       </c>
       <c r="R258" t="n">
         <v>9021900</v>
@@ -16854,7 +16854,7 @@
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="n">
-        <v>261.7819213867188</v>
+        <v>260.6063537597656</v>
       </c>
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr">
@@ -16868,16 +16868,16 @@
       <c r="L259" t="inlineStr"/>
       <c r="M259" t="inlineStr"/>
       <c r="N259" t="n">
-        <v>260.5416590732335</v>
+        <v>259.3716610143274</v>
       </c>
       <c r="O259" t="n">
-        <v>262.6776330139108</v>
+        <v>261.4980430710298</v>
       </c>
       <c r="P259" t="n">
-        <v>259.6754460313892</v>
+        <v>258.5093378209672</v>
       </c>
       <c r="Q259" t="n">
-        <v>261.7819213867188</v>
+        <v>260.6063537597656</v>
       </c>
       <c r="R259" t="n">
         <v>10749700</v>
@@ -16917,7 +16917,7 @@
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="n">
-        <v>260.6892700195312</v>
+        <v>259.5186462402344</v>
       </c>
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="inlineStr">
@@ -16931,16 +16931,16 @@
       <c r="L260" t="inlineStr"/>
       <c r="M260" t="inlineStr"/>
       <c r="N260" t="n">
-        <v>259.557299495642</v>
+        <v>258.3917588239568</v>
       </c>
       <c r="O260" t="n">
-        <v>262.9138595988413</v>
+        <v>261.7332463118807</v>
       </c>
       <c r="P260" t="n">
-        <v>258.8879640602123</v>
+        <v>257.7254290357368</v>
       </c>
       <c r="Q260" t="n">
-        <v>260.6892700195312</v>
+        <v>259.5186462402344</v>
       </c>
       <c r="R260" t="n">
         <v>7666300</v>
@@ -16980,7 +16980,7 @@
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="n">
-        <v>261.6834716796875</v>
+        <v>260.5083923339844</v>
       </c>
       <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr">
@@ -16994,16 +16994,16 @@
       <c r="L261" t="inlineStr"/>
       <c r="M261" t="inlineStr"/>
       <c r="N261" t="n">
-        <v>260.0298086904014</v>
+        <v>258.8621550533645</v>
       </c>
       <c r="O261" t="n">
-        <v>261.8015861733091</v>
+        <v>260.6259764391142</v>
       </c>
       <c r="P261" t="n">
-        <v>258.1497395621461</v>
+        <v>256.9905283016449</v>
       </c>
       <c r="Q261" t="n">
-        <v>261.6834716796875</v>
+        <v>260.5083923339844</v>
       </c>
       <c r="R261" t="n">
         <v>7522300</v>
@@ -17043,7 +17043,7 @@
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="n">
-        <v>262.9532470703125</v>
+        <v>261.7724609375</v>
       </c>
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr">
@@ -17057,16 +17057,16 @@
       <c r="L262" t="inlineStr"/>
       <c r="M262" t="inlineStr"/>
       <c r="N262" t="n">
-        <v>261.6834562601186</v>
+        <v>260.508372096751</v>
       </c>
       <c r="O262" t="n">
-        <v>263.1402416480007</v>
+        <v>261.9586158198937</v>
       </c>
       <c r="P262" t="n">
-        <v>260.6794230449138</v>
+        <v>259.5088474719919</v>
       </c>
       <c r="Q262" t="n">
-        <v>262.9532470703125</v>
+        <v>261.7724609375</v>
       </c>
       <c r="R262" t="n">
         <v>7375400</v>
@@ -17106,7 +17106,7 @@
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="n">
-        <v>262.4020080566406</v>
+        <v>261.2236633300781</v>
       </c>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr">
@@ -17120,16 +17120,16 @@
       <c r="L263" t="inlineStr"/>
       <c r="M263" t="inlineStr"/>
       <c r="N263" t="n">
-        <v>263.0221391792397</v>
+        <v>261.8410096864953</v>
       </c>
       <c r="O263" t="n">
-        <v>266.4377567579609</v>
+        <v>265.2412890633801</v>
       </c>
       <c r="P263" t="n">
-        <v>261.4472091934451</v>
+        <v>260.2731520949145</v>
       </c>
       <c r="Q263" t="n">
-        <v>262.4020080566406</v>
+        <v>261.2236633300781</v>
       </c>
       <c r="R263" t="n">
         <v>7684900</v>
@@ -17169,7 +17169,7 @@
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="n">
-        <v>264.0261535644531</v>
+        <v>262.8405456542969</v>
       </c>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr">
@@ -17183,16 +17183,16 @@
       <c r="L264" t="inlineStr"/>
       <c r="M264" t="inlineStr"/>
       <c r="N264" t="n">
-        <v>264.4198785229307</v>
+        <v>263.2325025931336</v>
       </c>
       <c r="O264" t="n">
-        <v>265.473116067307</v>
+        <v>264.2810105804299</v>
       </c>
       <c r="P264" t="n">
-        <v>262.4413708045233</v>
+        <v>261.2628793521523</v>
       </c>
       <c r="Q264" t="n">
-        <v>264.0261535644531</v>
+        <v>262.8405456542969</v>
       </c>
       <c r="R264" t="n">
         <v>8753500</v>
@@ -17232,7 +17232,7 @@
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="n">
-        <v>263.1107177734375</v>
+        <v>261.92919921875</v>
       </c>
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr">
@@ -17246,16 +17246,16 @@
       <c r="L265" t="inlineStr"/>
       <c r="M265" t="inlineStr"/>
       <c r="N265" t="n">
-        <v>265.0104925991569</v>
+        <v>263.8204429620972</v>
       </c>
       <c r="O265" t="n">
-        <v>266.5755696542428</v>
+        <v>265.3784919204346</v>
       </c>
       <c r="P265" t="n">
-        <v>262.7760500420943</v>
+        <v>261.5960343381366</v>
       </c>
       <c r="Q265" t="n">
-        <v>263.1107177734375</v>
+        <v>261.92919921875</v>
       </c>
       <c r="R265" t="n">
         <v>7193800</v>
@@ -17295,7 +17295,7 @@
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="n">
-        <v>262.62841796875</v>
+        <v>261.4490356445312</v>
       </c>
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr">
@@ -17309,16 +17309,16 @@
       <c r="L266" t="inlineStr"/>
       <c r="M266" t="inlineStr"/>
       <c r="N266" t="n">
-        <v>257.7264562027966</v>
+        <v>256.5690870601881</v>
       </c>
       <c r="O266" t="n">
-        <v>263.9671189896754</v>
+        <v>262.7817249766467</v>
       </c>
       <c r="P266" t="n">
-        <v>257.5985188607542</v>
+        <v>256.4417242448514</v>
       </c>
       <c r="Q266" t="n">
-        <v>262.62841796875</v>
+        <v>261.4490356445312</v>
       </c>
       <c r="R266" t="n">
         <v>8381400</v>
@@ -17358,7 +17358,7 @@
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="n">
-        <v>263.7406921386719</v>
+        <v>262.556396484375</v>
       </c>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr">
@@ -17372,16 +17372,16 @@
       <c r="L267" t="inlineStr"/>
       <c r="M267" t="inlineStr"/>
       <c r="N267" t="n">
-        <v>265.610908234634</v>
+        <v>264.4182146013332</v>
       </c>
       <c r="O267" t="n">
-        <v>265.610908234634</v>
+        <v>264.4182146013332</v>
       </c>
       <c r="P267" t="n">
-        <v>262.6480730786415</v>
+        <v>261.4686836979807</v>
       </c>
       <c r="Q267" t="n">
-        <v>263.7406921386719</v>
+        <v>262.556396484375</v>
       </c>
       <c r="R267" t="n">
         <v>5626000</v>
@@ -17421,7 +17421,7 @@
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="n">
-        <v>266.1916809082031</v>
+        <v>264.9963073730469</v>
       </c>
       <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr">
@@ -17435,16 +17435,16 @@
       <c r="L268" t="inlineStr"/>
       <c r="M268" t="inlineStr"/>
       <c r="N268" t="n">
-        <v>264.695513909462</v>
+        <v>263.5068591358702</v>
       </c>
       <c r="O268" t="n">
-        <v>266.3984113132734</v>
+        <v>265.2021094243298</v>
       </c>
       <c r="P268" t="n">
-        <v>264.1245871325415</v>
+        <v>262.9384961909873</v>
       </c>
       <c r="Q268" t="n">
-        <v>266.1916809082031</v>
+        <v>264.9963073730469</v>
       </c>
       <c r="R268" t="n">
         <v>5704400</v>
@@ -17484,7 +17484,7 @@
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="n">
-        <v>272.5602416992188</v>
+        <v>271.3363342285156</v>
       </c>
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr">
@@ -17498,16 +17498,16 @@
       <c r="L269" t="inlineStr"/>
       <c r="M269" t="inlineStr"/>
       <c r="N269" t="n">
-        <v>268.1800029431</v>
+        <v>266.9757645440988</v>
       </c>
       <c r="O269" t="n">
-        <v>272.6390047105174</v>
+        <v>271.4147435615326</v>
       </c>
       <c r="P269" t="n">
-        <v>266.9397408490873</v>
+        <v>265.7410717364686</v>
       </c>
       <c r="Q269" t="n">
-        <v>272.5602416992188</v>
+        <v>271.3363342285156</v>
       </c>
       <c r="R269" t="n">
         <v>7264400</v>
@@ -17547,7 +17547,7 @@
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="n">
-        <v>271.4775085449219</v>
+        <v>270.2584228515625</v>
       </c>
       <c r="G270" t="inlineStr"/>
       <c r="H270" t="inlineStr">
@@ -17561,16 +17561,16 @@
       <c r="L270" t="inlineStr"/>
       <c r="M270" t="inlineStr"/>
       <c r="N270" t="n">
-        <v>272.9244711504969</v>
+        <v>271.6988877865912</v>
       </c>
       <c r="O270" t="n">
-        <v>274.1844091306425</v>
+        <v>272.953167941253</v>
       </c>
       <c r="P270" t="n">
-        <v>270.4045951902057</v>
+        <v>269.1903274772675</v>
       </c>
       <c r="Q270" t="n">
-        <v>271.4775085449219</v>
+        <v>270.2584228515625</v>
       </c>
       <c r="R270" t="n">
         <v>6857900</v>
@@ -17610,7 +17610,7 @@
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="n">
-        <v>266.7920837402344</v>
+        <v>265.5941162109375</v>
       </c>
       <c r="G271" t="inlineStr"/>
       <c r="H271" t="inlineStr">
@@ -17624,16 +17624,16 @@
       <c r="L271" t="inlineStr"/>
       <c r="M271" t="inlineStr"/>
       <c r="N271" t="n">
-        <v>271.8219818986071</v>
+        <v>270.6014287866163</v>
       </c>
       <c r="O271" t="n">
-        <v>271.8515105164715</v>
+        <v>270.6308248131201</v>
       </c>
       <c r="P271" t="n">
-        <v>265.3647971184568</v>
+        <v>264.1732384863203</v>
       </c>
       <c r="Q271" t="n">
-        <v>266.7920837402344</v>
+        <v>265.5941162109375</v>
       </c>
       <c r="R271" t="n">
         <v>8627400</v>
@@ -17673,7 +17673,7 @@
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="n">
-        <v>270.6802062988281</v>
+        <v>269.4647216796875</v>
       </c>
       <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr">
@@ -17687,16 +17687,16 @@
       <c r="L272" t="inlineStr"/>
       <c r="M272" t="inlineStr"/>
       <c r="N272" t="n">
-        <v>266.0243565059703</v>
+        <v>264.8297788969493</v>
       </c>
       <c r="O272" t="n">
-        <v>271.8909399231515</v>
+        <v>270.6700185263523</v>
       </c>
       <c r="P272" t="n">
-        <v>265.4337540053421</v>
+        <v>264.2418284862738</v>
       </c>
       <c r="Q272" t="n">
-        <v>270.6802062988281</v>
+        <v>269.4647216796875</v>
       </c>
       <c r="R272" t="n">
         <v>7196400</v>
@@ -17736,7 +17736,7 @@
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="n">
-        <v>271.1330261230469</v>
+        <v>269.9154968261719</v>
       </c>
       <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr">
@@ -17750,16 +17750,16 @@
       <c r="L273" t="inlineStr"/>
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="n">
-        <v>269.7844721939915</v>
+        <v>268.5729986105812</v>
       </c>
       <c r="O273" t="n">
-        <v>272.117353638412</v>
+        <v>270.8954041954382</v>
       </c>
       <c r="P273" t="n">
-        <v>268.9674935735268</v>
+        <v>267.7596886520261</v>
       </c>
       <c r="Q273" t="n">
-        <v>271.1330261230469</v>
+        <v>269.9154968261719</v>
       </c>
       <c r="R273" t="n">
         <v>6683900</v>
@@ -17799,7 +17799,7 @@
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="n">
-        <v>271.9893493652344</v>
+        <v>270.7679748535156</v>
       </c>
       <c r="G274" t="inlineStr"/>
       <c r="H274" t="inlineStr">
@@ -17813,16 +17813,16 @@
       <c r="L274" t="inlineStr"/>
       <c r="M274" t="inlineStr"/>
       <c r="N274" t="n">
-        <v>271.1821937026794</v>
+        <v>269.9644437422731</v>
       </c>
       <c r="O274" t="n">
-        <v>272.6291561555864</v>
+        <v>271.4049085765656</v>
       </c>
       <c r="P274" t="n">
-        <v>269.5186780241914</v>
+        <v>268.3083981197057</v>
       </c>
       <c r="Q274" t="n">
-        <v>271.9893493652344</v>
+        <v>270.7679748535156</v>
       </c>
       <c r="R274" t="n">
         <v>8398700</v>
@@ -17862,7 +17862,7 @@
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="n">
-        <v>272.255126953125</v>
+        <v>271.0325622558594</v>
       </c>
       <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr">
@@ -17876,16 +17876,16 @@
       <c r="L275" t="inlineStr"/>
       <c r="M275" t="inlineStr"/>
       <c r="N275" t="n">
-        <v>273.0229011658313</v>
+        <v>271.7968887698632</v>
       </c>
       <c r="O275" t="n">
-        <v>274.8537658510785</v>
+        <v>273.6195319367328</v>
       </c>
       <c r="P275" t="n">
-        <v>272.1173367299675</v>
+        <v>270.8953907812424</v>
       </c>
       <c r="Q275" t="n">
-        <v>272.255126953125</v>
+        <v>271.0325622558594</v>
       </c>
       <c r="R275" t="n">
         <v>5688600</v>
@@ -17925,7 +17925,7 @@
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="n">
-        <v>275.5624694824219</v>
+        <v>274.3250732421875</v>
       </c>
       <c r="G276" t="inlineStr"/>
       <c r="H276" t="inlineStr">
@@ -17939,16 +17939,16 @@
       <c r="L276" t="inlineStr"/>
       <c r="M276" t="inlineStr"/>
       <c r="N276" t="n">
-        <v>272.4224626523497</v>
+        <v>271.1991664187423</v>
       </c>
       <c r="O276" t="n">
-        <v>275.5821452164092</v>
+        <v>274.3446606235073</v>
       </c>
       <c r="P276" t="n">
-        <v>271.6940399447785</v>
+        <v>270.474014648325</v>
       </c>
       <c r="Q276" t="n">
-        <v>275.5624694824219</v>
+        <v>274.3250732421875</v>
       </c>
       <c r="R276" t="n">
         <v>7919800</v>
@@ -17988,7 +17988,7 @@
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="n">
-        <v>274.8734436035156</v>
+        <v>273.6391296386719</v>
       </c>
       <c r="G277" t="inlineStr"/>
       <c r="H277" t="inlineStr">
@@ -18002,16 +18002,16 @@
       <c r="L277" t="inlineStr"/>
       <c r="M277" t="inlineStr"/>
       <c r="N277" t="n">
-        <v>274.0170835183605</v>
+        <v>272.7866150221738</v>
       </c>
       <c r="O277" t="n">
-        <v>275.8577710649427</v>
+        <v>274.6190369963753</v>
       </c>
       <c r="P277" t="n">
-        <v>272.8752600583903</v>
+        <v>271.64991889871</v>
       </c>
       <c r="Q277" t="n">
-        <v>274.8734436035156</v>
+        <v>273.6391296386719</v>
       </c>
       <c r="R277" t="n">
         <v>7007200</v>
@@ -18051,7 +18051,7 @@
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="n">
-        <v>262.6185302734375</v>
+        <v>261.4392700195312</v>
       </c>
       <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr">
@@ -18065,16 +18065,16 @@
       <c r="L278" t="inlineStr"/>
       <c r="M278" t="inlineStr"/>
       <c r="N278" t="n">
-        <v>274.312344234128</v>
+        <v>273.0805741668203</v>
       </c>
       <c r="O278" t="n">
-        <v>274.371401473179</v>
+        <v>273.1393662156936</v>
       </c>
       <c r="P278" t="n">
-        <v>261.5751456644871</v>
+        <v>260.400570616905</v>
       </c>
       <c r="Q278" t="n">
-        <v>262.6185302734375</v>
+        <v>261.4392700195312</v>
       </c>
       <c r="R278" t="n">
         <v>13846700</v>
@@ -18114,7 +18114,7 @@
       <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="n">
-        <v>260.0986938476562</v>
+        <v>258.9307250976562</v>
       </c>
       <c r="G279" t="inlineStr"/>
       <c r="H279" t="inlineStr">
@@ -18128,16 +18128,16 @@
       <c r="L279" t="inlineStr"/>
       <c r="M279" t="inlineStr"/>
       <c r="N279" t="n">
-        <v>264.1147669447042</v>
+        <v>262.9287640869366</v>
       </c>
       <c r="O279" t="n">
-        <v>264.9809799671769</v>
+        <v>263.7910873946009</v>
       </c>
       <c r="P279" t="n">
-        <v>258.7206413297641</v>
+        <v>257.5588607010997</v>
       </c>
       <c r="Q279" t="n">
-        <v>260.0986938476562</v>
+        <v>258.9307250976562</v>
       </c>
       <c r="R279" t="n">
         <v>12835600</v>
@@ -18177,7 +18177,7 @@
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="n">
-        <v>257.2441101074219</v>
+        <v>256.0889587402344</v>
       </c>
       <c r="G280" t="inlineStr"/>
       <c r="H280" t="inlineStr">
@@ -18191,16 +18191,16 @@
       <c r="L280" t="inlineStr"/>
       <c r="M280" t="inlineStr"/>
       <c r="N280" t="n">
-        <v>261.3290626665858</v>
+        <v>260.1555678724812</v>
       </c>
       <c r="O280" t="n">
-        <v>262.8154066011342</v>
+        <v>261.6352373987121</v>
       </c>
       <c r="P280" t="n">
-        <v>254.5568855853343</v>
+        <v>253.4138011652941</v>
       </c>
       <c r="Q280" t="n">
-        <v>257.2441101074219</v>
+        <v>256.0889587402344</v>
       </c>
       <c r="R280" t="n">
         <v>10372800</v>
@@ -18240,7 +18240,7 @@
       <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="n">
-        <v>253.3658752441406</v>
+        <v>252.2281341552734</v>
       </c>
       <c r="G281" t="inlineStr"/>
       <c r="H281" t="inlineStr">
@@ -18254,16 +18254,16 @@
       <c r="L281" t="inlineStr"/>
       <c r="M281" t="inlineStr"/>
       <c r="N281" t="n">
-        <v>258.1201935674914</v>
+        <v>256.9611031816803</v>
       </c>
       <c r="O281" t="n">
-        <v>258.8781148767506</v>
+        <v>257.715621040436</v>
       </c>
       <c r="P281" t="n">
-        <v>249.379361156241</v>
+        <v>248.2595215344707</v>
       </c>
       <c r="Q281" t="n">
-        <v>253.3658752441406</v>
+        <v>252.2281341552734</v>
       </c>
       <c r="R281" t="n">
         <v>9608400</v>
@@ -18303,7 +18303,7 @@
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="n">
-        <v>254.7341156005859</v>
+        <v>253.5902099609375</v>
       </c>
       <c r="G282" t="inlineStr"/>
       <c r="H282" t="inlineStr">
@@ -18317,16 +18317,16 @@
       <c r="L282" t="inlineStr"/>
       <c r="M282" t="inlineStr"/>
       <c r="N282" t="n">
-        <v>253.129657010463</v>
+        <v>251.9929563312711</v>
       </c>
       <c r="O282" t="n">
-        <v>256.8208850407615</v>
+        <v>255.6676085819527</v>
       </c>
       <c r="P282" t="n">
-        <v>252.9032508771268</v>
+        <v>251.7675668943132</v>
       </c>
       <c r="Q282" t="n">
-        <v>254.7341156005859</v>
+        <v>253.5902099609375</v>
       </c>
       <c r="R282" t="n">
         <v>5943600</v>
@@ -18366,7 +18366,7 @@
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="n">
-        <v>254.9900054931641</v>
+        <v>253.844970703125</v>
       </c>
       <c r="G283" t="inlineStr"/>
       <c r="H283" t="inlineStr">
@@ -18380,16 +18380,16 @@
       <c r="L283" t="inlineStr"/>
       <c r="M283" t="inlineStr"/>
       <c r="N283" t="n">
-        <v>256.1023002812493</v>
+        <v>254.9522707219969</v>
       </c>
       <c r="O283" t="n">
-        <v>259.5080947741608</v>
+        <v>258.3427714657493</v>
       </c>
       <c r="P283" t="n">
-        <v>253.8186534631706</v>
+        <v>252.6788786393924</v>
       </c>
       <c r="Q283" t="n">
-        <v>254.9900054931641</v>
+        <v>253.844970703125</v>
       </c>
       <c r="R283" t="n">
         <v>8204400</v>
@@ -18429,7 +18429,7 @@
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
-        <v>260.5022277832031</v>
+        <v>259.3324584960938</v>
       </c>
       <c r="G284" t="inlineStr"/>
       <c r="H284" t="inlineStr">
@@ -18443,16 +18443,16 @@
       <c r="L284" t="inlineStr"/>
       <c r="M284" t="inlineStr"/>
       <c r="N284" t="n">
-        <v>256.6436813841157</v>
+        <v>255.4912386631127</v>
       </c>
       <c r="O284" t="n">
-        <v>260.6597237642885</v>
+        <v>259.4892472511293</v>
       </c>
       <c r="P284" t="n">
-        <v>253.8481953082459</v>
+        <v>252.7083055461252</v>
       </c>
       <c r="Q284" t="n">
-        <v>260.5022277832031</v>
+        <v>259.3324584960938</v>
       </c>
       <c r="R284" t="n">
         <v>10467100</v>
@@ -18492,7 +18492,7 @@
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="n">
-        <v>256.535400390625</v>
+        <v>255.3834381103516</v>
       </c>
       <c r="G285" t="inlineStr"/>
       <c r="H285" t="inlineStr">
@@ -18506,16 +18506,16 @@
       <c r="L285" t="inlineStr"/>
       <c r="M285" t="inlineStr"/>
       <c r="N285" t="n">
-        <v>259.8624317856823</v>
+        <v>258.6955295997797</v>
       </c>
       <c r="O285" t="n">
-        <v>262.1460785471675</v>
+        <v>260.9689217339241</v>
       </c>
       <c r="P285" t="n">
-        <v>253.779295705583</v>
+        <v>252.6397096066585</v>
       </c>
       <c r="Q285" t="n">
-        <v>256.535400390625</v>
+        <v>255.3834381103516</v>
       </c>
       <c r="R285" t="n">
         <v>9058300</v>
@@ -18555,7 +18555,7 @@
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="n">
-        <v>246.3279418945312</v>
+        <v>245.2218017578125</v>
       </c>
       <c r="G286" t="inlineStr"/>
       <c r="H286" t="inlineStr">
@@ -18569,16 +18569,16 @@
       <c r="L286" t="inlineStr"/>
       <c r="M286" t="inlineStr"/>
       <c r="N286" t="n">
-        <v>251.2791077168537</v>
+        <v>250.1507342792861</v>
       </c>
       <c r="O286" t="n">
-        <v>253.1985582408387</v>
+        <v>252.0615654755216</v>
       </c>
       <c r="P286" t="n">
-        <v>242.0953308980089</v>
+        <v>241.0081973785272</v>
       </c>
       <c r="Q286" t="n">
-        <v>246.3279418945312</v>
+        <v>245.2218017578125</v>
       </c>
       <c r="R286" t="n">
         <v>13465600</v>
@@ -18618,7 +18618,7 @@
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="n">
-        <v>247.5878753662109</v>
+        <v>246.47607421875</v>
       </c>
       <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr">
@@ -18632,16 +18632,16 @@
       <c r="L287" t="inlineStr"/>
       <c r="M287" t="inlineStr"/>
       <c r="N287" t="n">
-        <v>247.3122648894977</v>
+        <v>246.2017013795576</v>
       </c>
       <c r="O287" t="n">
-        <v>249.0840572538289</v>
+        <v>247.9655374545075</v>
       </c>
       <c r="P287" t="n">
-        <v>243.9458669070905</v>
+        <v>242.8504203132519</v>
       </c>
       <c r="Q287" t="n">
-        <v>247.5878753662109</v>
+        <v>246.47607421875</v>
       </c>
       <c r="R287" t="n">
         <v>7861400</v>
@@ -18681,7 +18681,7 @@
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="n">
-        <v>242.6760864257812</v>
+        <v>241.5863494873047</v>
       </c>
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr">
@@ -18695,16 +18695,16 @@
       <c r="L288" t="inlineStr"/>
       <c r="M288" t="inlineStr"/>
       <c r="N288" t="n">
-        <v>244.2214877540722</v>
+        <v>243.1248111911068</v>
       </c>
       <c r="O288" t="n">
-        <v>245.4518970843757</v>
+        <v>244.3496953684526</v>
       </c>
       <c r="P288" t="n">
-        <v>240.02825816347</v>
+        <v>238.950411297504</v>
       </c>
       <c r="Q288" t="n">
-        <v>242.6760864257812</v>
+        <v>241.5863494873047</v>
       </c>
       <c r="R288" t="n">
         <v>9983200</v>
@@ -18744,7 +18744,7 @@
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="n">
-        <v>238.4828491210938</v>
+        <v>237.4119567871094</v>
       </c>
       <c r="G289" t="inlineStr"/>
       <c r="H289" t="inlineStr">
@@ -18758,16 +18758,16 @@
       <c r="L289" t="inlineStr"/>
       <c r="M289" t="inlineStr"/>
       <c r="N289" t="n">
-        <v>241.3866120427545</v>
+        <v>240.3026805427924</v>
       </c>
       <c r="O289" t="n">
-        <v>242.8532653241074</v>
+        <v>241.7627479092194</v>
       </c>
       <c r="P289" t="n">
-        <v>235.6676720636346</v>
+        <v>234.6094211063394</v>
       </c>
       <c r="Q289" t="n">
-        <v>238.4828491210938</v>
+        <v>237.4119567871094</v>
       </c>
       <c r="R289" t="n">
         <v>20498700</v>
@@ -18807,7 +18807,7 @@
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="n">
-        <v>228.5805358886719</v>
+        <v>227.5540771484375</v>
       </c>
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr">
@@ -18821,16 +18821,16 @@
       <c r="L290" t="inlineStr"/>
       <c r="M290" t="inlineStr"/>
       <c r="N290" t="n">
-        <v>232.508008066055</v>
+        <v>231.4639127054154</v>
       </c>
       <c r="O290" t="n">
-        <v>233.7876218151011</v>
+        <v>232.7377802490301</v>
       </c>
       <c r="P290" t="n">
-        <v>225.1156988431978</v>
+        <v>224.1047992241938</v>
       </c>
       <c r="Q290" t="n">
-        <v>228.5805358886719</v>
+        <v>227.5540771484375</v>
       </c>
       <c r="R290" t="n">
         <v>18887200</v>
@@ -18870,7 +18870,7 @@
       <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="n">
-        <v>225.5487976074219</v>
+        <v>224.5359649658203</v>
       </c>
       <c r="G291" t="inlineStr"/>
       <c r="H291" t="inlineStr">
@@ -18884,16 +18884,16 @@
       <c r="L291" t="inlineStr"/>
       <c r="M291" t="inlineStr"/>
       <c r="N291" t="n">
-        <v>228.1178929246406</v>
+        <v>227.0935236948405</v>
       </c>
       <c r="O291" t="n">
-        <v>229.6632942738403</v>
+        <v>228.6319853797748</v>
       </c>
       <c r="P291" t="n">
-        <v>223.1371982913278</v>
+        <v>222.1351949981054</v>
       </c>
       <c r="Q291" t="n">
-        <v>225.5487976074219</v>
+        <v>224.5359649658203</v>
       </c>
       <c r="R291" t="n">
         <v>18143000</v>
@@ -18933,7 +18933,7 @@
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="n">
-        <v>224.3282318115234</v>
+        <v>223.3208770751953</v>
       </c>
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr">
@@ -18947,16 +18947,16 @@
       <c r="L292" t="inlineStr"/>
       <c r="M292" t="inlineStr"/>
       <c r="N292" t="n">
-        <v>230.3326355846219</v>
+        <v>229.298317837304</v>
       </c>
       <c r="O292" t="n">
-        <v>230.6476275948513</v>
+        <v>229.6118953635389</v>
       </c>
       <c r="P292" t="n">
-        <v>223.6982628107103</v>
+        <v>222.6937369749249</v>
       </c>
       <c r="Q292" t="n">
-        <v>224.3282318115234</v>
+        <v>223.3208770751953</v>
       </c>
       <c r="R292" t="n">
         <v>16054000</v>
@@ -18996,7 +18996,7 @@
       <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="n">
-        <v>221.6607055664062</v>
+        <v>220.6653442382812</v>
       </c>
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr">
@@ -19010,16 +19010,16 @@
       <c r="L293" t="inlineStr"/>
       <c r="M293" t="inlineStr"/>
       <c r="N293" t="n">
-        <v>225.7062920724321</v>
+        <v>224.692764148891</v>
       </c>
       <c r="O293" t="n">
-        <v>225.9031545626753</v>
+        <v>224.8887426335129</v>
       </c>
       <c r="P293" t="n">
-        <v>220.7157445857355</v>
+        <v>219.7246265790162</v>
       </c>
       <c r="Q293" t="n">
-        <v>221.6607055664062</v>
+        <v>220.6653442382812</v>
       </c>
       <c r="R293" t="n">
         <v>16467900</v>
@@ -19059,7 +19059,7 @@
       <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="n">
-        <v>228.7970733642578</v>
+        <v>227.7696533203125</v>
       </c>
       <c r="G294" t="inlineStr"/>
       <c r="H294" t="inlineStr">
@@ -19073,16 +19073,16 @@
       <c r="L294" t="inlineStr"/>
       <c r="M294" t="inlineStr"/>
       <c r="N294" t="n">
-        <v>224.5447715990203</v>
+        <v>223.5364466422729</v>
       </c>
       <c r="O294" t="n">
-        <v>229.4860995707607</v>
+        <v>228.455585434199</v>
       </c>
       <c r="P294" t="n">
-        <v>224.013241388188</v>
+        <v>223.0073032836172</v>
       </c>
       <c r="Q294" t="n">
-        <v>228.7970733642578</v>
+        <v>227.7696533203125</v>
       </c>
       <c r="R294" t="n">
         <v>11962100</v>
@@ -19122,7 +19122,7 @@
       <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="n">
-        <v>230.2637023925781</v>
+        <v>229.2297210693359</v>
       </c>
       <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr">
@@ -19136,16 +19136,16 @@
       <c r="L295" t="inlineStr"/>
       <c r="M295" t="inlineStr"/>
       <c r="N295" t="n">
-        <v>227.5568020317628</v>
+        <v>226.5349758349599</v>
       </c>
       <c r="O295" t="n">
-        <v>231.9764374824932</v>
+        <v>230.9347652549694</v>
       </c>
       <c r="P295" t="n">
-        <v>226.8481001190039</v>
+        <v>225.8294562932561</v>
       </c>
       <c r="Q295" t="n">
-        <v>230.2637023925781</v>
+        <v>229.2297210693359</v>
       </c>
       <c r="R295" t="n">
         <v>9586000</v>
@@ -19185,7 +19185,7 @@
       <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="n">
-        <v>231.2874145507812</v>
+        <v>230.2488098144531</v>
       </c>
       <c r="G296" t="inlineStr"/>
       <c r="H296" t="inlineStr">
@@ -19199,16 +19199,16 @@
       <c r="L296" t="inlineStr"/>
       <c r="M296" t="inlineStr"/>
       <c r="N296" t="n">
-        <v>230.6476077371002</v>
+        <v>229.6118760770625</v>
       </c>
       <c r="O296" t="n">
-        <v>232.4686044481549</v>
+        <v>231.4246955346656</v>
       </c>
       <c r="P296" t="n">
-        <v>229.8601427989696</v>
+        <v>228.8279472795214</v>
       </c>
       <c r="Q296" t="n">
-        <v>231.2874145507812</v>
+        <v>230.2488098144531</v>
       </c>
       <c r="R296" t="n">
         <v>10344900</v>
@@ -19248,7 +19248,7 @@
       <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="n">
-        <v>235.3625335693359</v>
+        <v>234.3056488037109</v>
       </c>
       <c r="G297" t="inlineStr"/>
       <c r="H297" t="inlineStr">
@@ -19262,16 +19262,16 @@
       <c r="L297" t="inlineStr"/>
       <c r="M297" t="inlineStr"/>
       <c r="N297" t="n">
-        <v>232.0453549198738</v>
+        <v>231.003365794291</v>
       </c>
       <c r="O297" t="n">
-        <v>238.5320691114149</v>
+        <v>237.4609516904147</v>
       </c>
       <c r="P297" t="n">
-        <v>231.2086705923167</v>
+        <v>230.1704385597004</v>
       </c>
       <c r="Q297" t="n">
-        <v>235.3625335693359</v>
+        <v>234.3056488037109</v>
       </c>
       <c r="R297" t="n">
         <v>10120600</v>
@@ -19311,7 +19311,7 @@
       <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="n">
-        <v>235.2640838623047</v>
+        <v>234.2076416015625</v>
       </c>
       <c r="G298" t="inlineStr"/>
       <c r="H298" t="inlineStr">
@@ -19325,16 +19325,16 @@
       <c r="L298" t="inlineStr"/>
       <c r="M298" t="inlineStr"/>
       <c r="N298" t="n">
-        <v>232.8524847629325</v>
+        <v>231.8068716740839</v>
       </c>
       <c r="O298" t="n">
-        <v>237.9709841823364</v>
+        <v>236.9023867135117</v>
       </c>
       <c r="P298" t="n">
-        <v>232.4981263020698</v>
+        <v>231.454104443159</v>
       </c>
       <c r="Q298" t="n">
-        <v>235.2640838623047</v>
+        <v>234.2076416015625</v>
       </c>
       <c r="R298" t="n">
         <v>8328500</v>
@@ -19374,7 +19374,7 @@
       <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="n">
-        <v>237.8430480957031</v>
+        <v>236.7750091552734</v>
       </c>
       <c r="G299" t="inlineStr"/>
       <c r="H299" t="inlineStr">
@@ -19388,16 +19388,16 @@
       <c r="L299" t="inlineStr"/>
       <c r="M299" t="inlineStr"/>
       <c r="N299" t="n">
-        <v>234.0829100028336</v>
+        <v>233.0317560373348</v>
       </c>
       <c r="O299" t="n">
-        <v>238.5025456891323</v>
+        <v>237.4315452616356</v>
       </c>
       <c r="P299" t="n">
-        <v>232.7934434380957</v>
+        <v>231.7480798478655</v>
       </c>
       <c r="Q299" t="n">
-        <v>237.8430480957031</v>
+        <v>236.7750091552734</v>
       </c>
       <c r="R299" t="n">
         <v>19326900</v>
@@ -19437,7 +19437,7 @@
       <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="n">
-        <v>244.1722717285156</v>
+        <v>243.0758056640625</v>
       </c>
       <c r="G300" t="inlineStr"/>
       <c r="H300" t="inlineStr">
@@ -19451,16 +19451,16 @@
       <c r="L300" t="inlineStr"/>
       <c r="M300" t="inlineStr"/>
       <c r="N300" t="n">
-        <v>241.6327050335528</v>
+        <v>240.5476430023248</v>
       </c>
       <c r="O300" t="n">
-        <v>244.7924028457872</v>
+        <v>243.69315205594</v>
       </c>
       <c r="P300" t="n">
-        <v>240.5794824425716</v>
+        <v>239.4991499525858</v>
       </c>
       <c r="Q300" t="n">
-        <v>244.1722717285156</v>
+        <v>243.0758056640625</v>
       </c>
       <c r="R300" t="n">
         <v>9422700</v>
@@ -19500,7 +19500,7 @@
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="n">
-        <v>247.1941528320312</v>
+        <v>246.0841369628906</v>
       </c>
       <c r="G301" t="inlineStr"/>
       <c r="H301" t="inlineStr">
@@ -19514,16 +19514,16 @@
       <c r="L301" t="inlineStr"/>
       <c r="M301" t="inlineStr"/>
       <c r="N301" t="n">
-        <v>245.4026696961619</v>
+        <v>244.3006984133812</v>
       </c>
       <c r="O301" t="n">
-        <v>247.8733411633302</v>
+        <v>246.760275425019</v>
       </c>
       <c r="P301" t="n">
-        <v>243.7391539327531</v>
+        <v>242.6446526037508</v>
       </c>
       <c r="Q301" t="n">
-        <v>247.1941528320312</v>
+        <v>246.0841369628906</v>
       </c>
       <c r="R301" t="n">
         <v>9287700</v>
@@ -19563,7 +19563,7 @@
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="n">
-        <v>247.0957183837891</v>
+        <v>245.9861450195312</v>
       </c>
       <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr">
@@ -19577,16 +19577,16 @@
       <c r="L302" t="inlineStr"/>
       <c r="M302" t="inlineStr"/>
       <c r="N302" t="n">
-        <v>248.6411196885419</v>
+        <v>247.5246067620122</v>
       </c>
       <c r="O302" t="n">
-        <v>250.6786696982752</v>
+        <v>249.5530072355498</v>
       </c>
       <c r="P302" t="n">
-        <v>245.8653090722259</v>
+        <v>244.7612608113903</v>
       </c>
       <c r="Q302" t="n">
-        <v>247.0957183837891</v>
+        <v>245.9861450195312</v>
       </c>
       <c r="R302" t="n">
         <v>12779300</v>
@@ -19626,7 +19626,7 @@
       <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="n">
-        <v>244.2313079833984</v>
+        <v>243.1345977783203</v>
       </c>
       <c r="G303" t="inlineStr"/>
       <c r="H303" t="inlineStr">
@@ -19640,16 +19640,16 @@
       <c r="L303" t="inlineStr"/>
       <c r="M303" t="inlineStr"/>
       <c r="N303" t="n">
-        <v>245.6192132124619</v>
+        <v>244.5162706785274</v>
       </c>
       <c r="O303" t="n">
-        <v>246.71181721965</v>
+        <v>245.6039683943203</v>
       </c>
       <c r="P303" t="n">
-        <v>243.3060378306894</v>
+        <v>242.2134825115156</v>
       </c>
       <c r="Q303" t="n">
-        <v>244.2313079833984</v>
+        <v>243.1345977783203</v>
       </c>
       <c r="R303" t="n">
         <v>8022500</v>
@@ -19689,7 +19689,7 @@
       <c r="D304" t="inlineStr"/>
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="n">
-        <v>239.0439300537109</v>
+        <v>237.9705047607422</v>
       </c>
       <c r="G304" t="inlineStr"/>
       <c r="H304" t="inlineStr">
@@ -19703,16 +19703,16 @@
       <c r="L304" t="inlineStr"/>
       <c r="M304" t="inlineStr"/>
       <c r="N304" t="n">
-        <v>243.0698257668777</v>
+        <v>241.9783222140493</v>
       </c>
       <c r="O304" t="n">
-        <v>245.599539532935</v>
+        <v>244.4966763160489</v>
       </c>
       <c r="P304" t="n">
-        <v>237.3311948634813</v>
+        <v>236.2654605973164</v>
       </c>
       <c r="Q304" t="n">
-        <v>239.0439300537109</v>
+        <v>237.9705047607422</v>
       </c>
       <c r="R304" t="n">
         <v>11978400</v>
@@ -19752,7 +19752,7 @@
       <c r="D305" t="inlineStr"/>
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="n">
-        <v>241.4555358886719</v>
+        <v>240.3712615966797</v>
       </c>
       <c r="G305" t="inlineStr"/>
       <c r="H305" t="inlineStr">
@@ -19766,16 +19766,16 @@
       <c r="L305" t="inlineStr"/>
       <c r="M305" t="inlineStr"/>
       <c r="N305" t="n">
-        <v>235.6578475832566</v>
+        <v>234.5996082478017</v>
       </c>
       <c r="O305" t="n">
-        <v>242.0067568789874</v>
+        <v>240.9200072875709</v>
       </c>
       <c r="P305" t="n">
-        <v>233.6399732282727</v>
+        <v>232.5907953097762</v>
       </c>
       <c r="Q305" t="n">
-        <v>241.4555358886719</v>
+        <v>240.3712615966797</v>
       </c>
       <c r="R305" t="n">
         <v>13603000</v>
@@ -19815,7 +19815,7 @@
       <c r="D306" t="inlineStr"/>
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="n">
-        <v>239.8412322998047</v>
+        <v>238.7642211914062</v>
       </c>
       <c r="G306" t="inlineStr"/>
       <c r="H306" t="inlineStr">
@@ -19829,16 +19829,16 @@
       <c r="L306" t="inlineStr"/>
       <c r="M306" t="inlineStr"/>
       <c r="N306" t="n">
-        <v>238.8175233312934</v>
+        <v>237.7451092053249</v>
       </c>
       <c r="O306" t="n">
-        <v>241.8394158402959</v>
+        <v>240.7534318549276</v>
       </c>
       <c r="P306" t="n">
-        <v>237.1048031649553</v>
+        <v>236.0400800378489</v>
       </c>
       <c r="Q306" t="n">
-        <v>239.8412322998047</v>
+        <v>238.7642211914062</v>
       </c>
       <c r="R306" t="n">
         <v>8054700</v>
@@ -19878,7 +19878,7 @@
       <c r="D307" t="inlineStr"/>
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="n">
-        <v>241.9673767089844</v>
+        <v>240.8808441162109</v>
       </c>
       <c r="G307" t="inlineStr"/>
       <c r="H307" t="inlineStr">
@@ -19892,16 +19892,16 @@
       <c r="L307" t="inlineStr"/>
       <c r="M307" t="inlineStr"/>
       <c r="N307" t="n">
-        <v>237.8135137415348</v>
+        <v>236.7456336942468</v>
       </c>
       <c r="O307" t="n">
-        <v>243.3749577282766</v>
+        <v>242.2821045204053</v>
       </c>
       <c r="P307" t="n">
-        <v>237.6757085017465</v>
+        <v>236.6084472564082</v>
       </c>
       <c r="Q307" t="n">
-        <v>241.9673767089844</v>
+        <v>240.8808441162109</v>
       </c>
       <c r="R307" t="n">
         <v>7758800</v>
@@ -19941,7 +19941,7 @@
       <c r="D308" t="inlineStr"/>
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="n">
-        <v>225.1058502197266</v>
+        <v>224.0950012207031</v>
       </c>
       <c r="G308" t="inlineStr"/>
       <c r="H308" t="inlineStr">
@@ -19955,16 +19955,16 @@
       <c r="L308" t="inlineStr"/>
       <c r="M308" t="inlineStr"/>
       <c r="N308" t="n">
-        <v>230.5983992730199</v>
+        <v>229.5628857097162</v>
       </c>
       <c r="O308" t="n">
-        <v>231.4547593606966</v>
+        <v>230.4154002698929</v>
       </c>
       <c r="P308" t="n">
-        <v>223.7376356451</v>
+        <v>222.7329306815686</v>
       </c>
       <c r="Q308" t="n">
-        <v>225.1058502197266</v>
+        <v>224.0950012207031</v>
       </c>
       <c r="R308" t="n">
         <v>17188500</v>
@@ -20004,7 +20004,7 @@
       <c r="D309" t="inlineStr"/>
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="n">
-        <v>208.2592926025391</v>
+        <v>207.3241119384766</v>
       </c>
       <c r="G309" t="inlineStr"/>
       <c r="H309" t="inlineStr">
@@ -20018,16 +20018,16 @@
       <c r="L309" t="inlineStr"/>
       <c r="M309" t="inlineStr"/>
       <c r="N309" t="n">
-        <v>213.240955117515</v>
+        <v>212.2834044818624</v>
       </c>
       <c r="O309" t="n">
-        <v>215.607987574706</v>
+        <v>214.6398078672002</v>
       </c>
       <c r="P309" t="n">
-        <v>206.9222595144689</v>
+        <v>205.9930827481223</v>
       </c>
       <c r="Q309" t="n">
-        <v>208.2592926025391</v>
+        <v>207.3241119384766</v>
       </c>
       <c r="R309" t="n">
         <v>27170700</v>
@@ -20067,7 +20067,7 @@
       <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="n">
-        <v>212.3793334960938</v>
+        <v>211.4256439208984</v>
       </c>
       <c r="G310" t="inlineStr"/>
       <c r="H310" t="inlineStr">
@@ -20081,16 +20081,16 @@
       <c r="L310" t="inlineStr"/>
       <c r="M310" t="inlineStr"/>
       <c r="N310" t="n">
-        <v>203.7926499875628</v>
+        <v>202.8775189218645</v>
       </c>
       <c r="O310" t="n">
-        <v>219.916205530839</v>
+        <v>218.9286716254502</v>
       </c>
       <c r="P310" t="n">
-        <v>200.217339808407</v>
+        <v>199.318263676067</v>
       </c>
       <c r="Q310" t="n">
-        <v>212.3793334960938</v>
+        <v>211.4256439208984</v>
       </c>
       <c r="R310" t="n">
         <v>22914400</v>
@@ -20130,7 +20130,7 @@
       <c r="D311" t="inlineStr"/>
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="n">
-        <v>214.7859649658203</v>
+        <v>213.8214721679688</v>
       </c>
       <c r="G311" t="inlineStr"/>
       <c r="H311" t="inlineStr">
@@ -20144,16 +20144,16 @@
       <c r="L311" t="inlineStr"/>
       <c r="M311" t="inlineStr"/>
       <c r="N311" t="n">
-        <v>221.3720703082174</v>
+        <v>220.3780027140348</v>
       </c>
       <c r="O311" t="n">
-        <v>225.6505490526681</v>
+        <v>224.6372690209529</v>
       </c>
       <c r="P311" t="n">
-        <v>211.200756491054</v>
+        <v>210.2523630121372</v>
       </c>
       <c r="Q311" t="n">
-        <v>214.7859649658203</v>
+        <v>213.8214721679688</v>
       </c>
       <c r="R311" t="n">
         <v>19485700</v>
@@ -20193,7 +20193,7 @@
       <c r="D312" t="inlineStr"/>
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="n">
-        <v>232.0880889892578</v>
+        <v>231.0458984375</v>
       </c>
       <c r="G312" t="inlineStr"/>
       <c r="H312" t="inlineStr">
@@ -20207,16 +20207,16 @@
       <c r="L312" t="inlineStr"/>
       <c r="M312" t="inlineStr"/>
       <c r="N312" t="n">
-        <v>210.4579656948766</v>
+        <v>209.51290511747</v>
       </c>
       <c r="O312" t="n">
-        <v>235.1979143249216</v>
+        <v>234.1417591160521</v>
       </c>
       <c r="P312" t="n">
-        <v>208.9723800546774</v>
+        <v>208.0339904931114</v>
       </c>
       <c r="Q312" t="n">
-        <v>232.0880889892578</v>
+        <v>231.0458984375</v>
       </c>
       <c r="R312" t="n">
         <v>24022400</v>
@@ -20256,7 +20256,7 @@
       <c r="D313" t="inlineStr"/>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="n">
-        <v>224.9275817871094</v>
+        <v>223.9175262451172</v>
       </c>
       <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr">
@@ -20270,16 +20270,16 @@
       <c r="L313" t="inlineStr"/>
       <c r="M313" t="inlineStr"/>
       <c r="N313" t="n">
-        <v>227.7898096605314</v>
+        <v>226.7669010522188</v>
       </c>
       <c r="O313" t="n">
-        <v>228.1364523722699</v>
+        <v>227.1119871367562</v>
       </c>
       <c r="P313" t="n">
-        <v>217.9849499852245</v>
+        <v>217.0060708942117</v>
       </c>
       <c r="Q313" t="n">
-        <v>224.9275817871094</v>
+        <v>223.9175262451172</v>
       </c>
       <c r="R313" t="n">
         <v>18896400</v>
@@ -20319,7 +20319,7 @@
       <c r="D314" t="inlineStr"/>
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="n">
-        <v>233.9302062988281</v>
+        <v>232.8797607421875</v>
       </c>
       <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr">
@@ -20333,16 +20333,16 @@
       <c r="L314" t="inlineStr"/>
       <c r="M314" t="inlineStr"/>
       <c r="N314" t="n">
-        <v>224.135245979575</v>
+        <v>223.1287839371099</v>
       </c>
       <c r="O314" t="n">
-        <v>236.2873402548906</v>
+        <v>235.2263101699424</v>
       </c>
       <c r="P314" t="n">
-        <v>222.8378369910391</v>
+        <v>221.8372008636139</v>
       </c>
       <c r="Q314" t="n">
-        <v>233.9302062988281</v>
+        <v>232.8797607421875</v>
       </c>
       <c r="R314" t="n">
         <v>20284500</v>
@@ -20382,7 +20382,7 @@
       <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="n">
-        <v>232.4644317626953</v>
+        <v>231.4205627441406</v>
       </c>
       <c r="G315" t="inlineStr"/>
       <c r="H315" t="inlineStr">
@@ -20396,16 +20396,16 @@
       <c r="L315" t="inlineStr"/>
       <c r="M315" t="inlineStr"/>
       <c r="N315" t="n">
-        <v>234.8215657086653</v>
+        <v>233.7671121069978</v>
       </c>
       <c r="O315" t="n">
-        <v>237.4758046796249</v>
+        <v>236.4094323607213</v>
       </c>
       <c r="P315" t="n">
-        <v>231.3849098728121</v>
+        <v>230.3458883891992</v>
       </c>
       <c r="Q315" t="n">
-        <v>232.4644317626953</v>
+        <v>231.4205627441406</v>
       </c>
       <c r="R315" t="n">
         <v>13017800</v>
@@ -20445,7 +20445,7 @@
       <c r="D316" t="inlineStr"/>
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="n">
-        <v>230.8897247314453</v>
+        <v>229.8529052734375</v>
       </c>
       <c r="G316" t="inlineStr"/>
       <c r="H316" t="inlineStr">
@@ -20459,16 +20459,16 @@
       <c r="L316" t="inlineStr"/>
       <c r="M316" t="inlineStr"/>
       <c r="N316" t="n">
-        <v>233.831185504137</v>
+        <v>232.7811572999728</v>
       </c>
       <c r="O316" t="n">
-        <v>236.3566689994213</v>
+        <v>235.2953000115482</v>
       </c>
       <c r="P316" t="n">
-        <v>230.5827061174874</v>
+        <v>229.5472653387313</v>
       </c>
       <c r="Q316" t="n">
-        <v>230.8897247314453</v>
+        <v>229.8529052734375</v>
       </c>
       <c r="R316" t="n">
         <v>10912900</v>
@@ -20508,7 +20508,7 @@
       <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="n">
-        <v>227.4035491943359</v>
+        <v>226.3823852539062</v>
       </c>
       <c r="G317" t="inlineStr"/>
       <c r="H317" t="inlineStr">
@@ -20522,16 +20522,16 @@
       <c r="L317" t="inlineStr"/>
       <c r="M317" t="inlineStr"/>
       <c r="N317" t="n">
-        <v>229.7705817379256</v>
+        <v>228.7387885514358</v>
       </c>
       <c r="O317" t="n">
-        <v>231.335400444255</v>
+        <v>230.296580382231</v>
       </c>
       <c r="P317" t="n">
-        <v>225.7396853992905</v>
+        <v>224.725993099982</v>
       </c>
       <c r="Q317" t="n">
-        <v>227.4035491943359</v>
+        <v>226.3823852539062</v>
       </c>
       <c r="R317" t="n">
         <v>9322300</v>
@@ -20571,7 +20571,7 @@
       <c r="D318" t="inlineStr"/>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="n">
-        <v>229.7309722900391</v>
+        <v>228.6993713378906</v>
       </c>
       <c r="G318" t="inlineStr"/>
       <c r="H318" t="inlineStr">
@@ -20585,16 +20585,16 @@
       <c r="L318" t="inlineStr"/>
       <c r="M318" t="inlineStr"/>
       <c r="N318" t="n">
-        <v>228.5821157568302</v>
+        <v>227.5556737150443</v>
       </c>
       <c r="O318" t="n">
-        <v>232.08809125254</v>
+        <v>231.0459057190363</v>
       </c>
       <c r="P318" t="n">
-        <v>228.3345181477158</v>
+        <v>227.3091879365497</v>
       </c>
       <c r="Q318" t="n">
-        <v>229.7309722900391</v>
+        <v>228.6993713378906</v>
       </c>
       <c r="R318" t="n">
         <v>9557900</v>
@@ -20634,7 +20634,7 @@
       <c r="D319" t="inlineStr"/>
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="n">
-        <v>226.7895050048828</v>
+        <v>225.7711181640625</v>
       </c>
       <c r="G319" t="inlineStr"/>
       <c r="H319" t="inlineStr">
@@ -20648,16 +20648,16 @@
       <c r="L319" t="inlineStr"/>
       <c r="M319" t="inlineStr"/>
       <c r="N319" t="n">
-        <v>228.4137446697785</v>
+        <v>227.3880642626133</v>
       </c>
       <c r="O319" t="n">
-        <v>229.582398097571</v>
+        <v>228.5514699110948</v>
       </c>
       <c r="P319" t="n">
-        <v>224.1649613559644</v>
+        <v>223.1583598961085</v>
       </c>
       <c r="Q319" t="n">
-        <v>226.7895050048828</v>
+        <v>225.7711181640625</v>
       </c>
       <c r="R319" t="n">
         <v>8716200</v>
@@ -20697,7 +20697,7 @@
       <c r="D320" t="inlineStr"/>
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="n">
-        <v>233.3260803222656</v>
+        <v>232.2783355712891</v>
       </c>
       <c r="G320" t="inlineStr"/>
       <c r="H320" t="inlineStr">
@@ -20711,16 +20711,16 @@
       <c r="L320" t="inlineStr"/>
       <c r="M320" t="inlineStr"/>
       <c r="N320" t="n">
-        <v>229.7507702264742</v>
+        <v>228.7190803133487</v>
       </c>
       <c r="O320" t="n">
-        <v>233.7222455658828</v>
+        <v>232.6727218450888</v>
       </c>
       <c r="P320" t="n">
-        <v>229.146631453097</v>
+        <v>228.1176544095649</v>
       </c>
       <c r="Q320" t="n">
-        <v>233.3260803222656</v>
+        <v>232.2783355712891</v>
       </c>
       <c r="R320" t="n">
         <v>10701400</v>
@@ -20760,7 +20760,7 @@
       <c r="D321" t="inlineStr"/>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="n">
-        <v>238.5652465820312</v>
+        <v>237.4939880371094</v>
       </c>
       <c r="G321" t="inlineStr"/>
       <c r="H321" t="inlineStr">
@@ -20774,16 +20774,16 @@
       <c r="L321" t="inlineStr"/>
       <c r="M321" t="inlineStr"/>
       <c r="N321" t="n">
-        <v>237.9115852851014</v>
+        <v>236.8432619550101</v>
       </c>
       <c r="O321" t="n">
-        <v>244.4184424146243</v>
+        <v>243.3209005524942</v>
       </c>
       <c r="P321" t="n">
-        <v>237.6936981861248</v>
+        <v>236.626353260977</v>
       </c>
       <c r="Q321" t="n">
-        <v>238.5652465820312</v>
+        <v>237.4939880371094</v>
       </c>
       <c r="R321" t="n">
         <v>14126800</v>
@@ -20823,7 +20823,7 @@
       <c r="D322" t="inlineStr"/>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="n">
-        <v>242.2891082763672</v>
+        <v>241.2011260986328</v>
       </c>
       <c r="G322" t="inlineStr"/>
       <c r="H322" t="inlineStr">
@@ -20837,16 +20837,16 @@
       <c r="L322" t="inlineStr"/>
       <c r="M322" t="inlineStr"/>
       <c r="N322" t="n">
-        <v>237.4362013326915</v>
+        <v>236.3700107918263</v>
       </c>
       <c r="O322" t="n">
-        <v>243.1111341266603</v>
+        <v>242.0194606997356</v>
       </c>
       <c r="P322" t="n">
-        <v>235.2969544291931</v>
+        <v>234.2403700258936</v>
       </c>
       <c r="Q322" t="n">
-        <v>242.2891082763672</v>
+        <v>241.2011260986328</v>
       </c>
       <c r="R322" t="n">
         <v>9055200</v>
@@ -20886,7 +20886,7 @@
       <c r="D323" t="inlineStr"/>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="n">
-        <v>241.2095947265625</v>
+        <v>240.1264495849609</v>
       </c>
       <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr">
@@ -20900,16 +20900,16 @@
       <c r="L323" t="inlineStr"/>
       <c r="M323" t="inlineStr"/>
       <c r="N323" t="n">
-        <v>242.2990151434575</v>
+        <v>241.2109779890276</v>
       </c>
       <c r="O323" t="n">
-        <v>243.259695079398</v>
+        <v>242.167344017777</v>
       </c>
       <c r="P323" t="n">
-        <v>239.4268889118194</v>
+        <v>238.3517489623178</v>
       </c>
       <c r="Q323" t="n">
-        <v>241.2095947265625</v>
+        <v>240.1264495849609</v>
       </c>
       <c r="R323" t="n">
         <v>8588600</v>
@@ -20949,7 +20949,7 @@
       <c r="D324" t="inlineStr"/>
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="n">
-        <v>240.8827667236328</v>
+        <v>239.8010864257812</v>
       </c>
       <c r="G324" t="inlineStr"/>
       <c r="H324" t="inlineStr">
@@ -20963,16 +20963,16 @@
       <c r="L324" t="inlineStr"/>
       <c r="M324" t="inlineStr"/>
       <c r="N324" t="n">
-        <v>242.2098863011783</v>
+        <v>241.1222465936128</v>
       </c>
       <c r="O324" t="n">
-        <v>244.4679753206959</v>
+        <v>243.3701956996928</v>
       </c>
       <c r="P324" t="n">
-        <v>238.5256326141424</v>
+        <v>237.4545369901565</v>
       </c>
       <c r="Q324" t="n">
-        <v>240.8827667236328</v>
+        <v>239.8010864257812</v>
       </c>
       <c r="R324" t="n">
         <v>7394300</v>
@@ -21012,7 +21012,7 @@
       <c r="D325" t="inlineStr"/>
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="n">
-        <v>242.2693023681641</v>
+        <v>241.181396484375</v>
       </c>
       <c r="G325" t="inlineStr"/>
       <c r="H325" t="inlineStr">
@@ -21026,16 +21026,16 @@
       <c r="L325" t="inlineStr"/>
       <c r="M325" t="inlineStr"/>
       <c r="N325" t="n">
-        <v>239.8626608749401</v>
+        <v>238.7855619708841</v>
       </c>
       <c r="O325" t="n">
-        <v>242.8932531755149</v>
+        <v>241.802545452005</v>
       </c>
       <c r="P325" t="n">
-        <v>239.3674656594956</v>
+        <v>238.2925904205233</v>
       </c>
       <c r="Q325" t="n">
-        <v>242.2693023681641</v>
+        <v>241.181396484375</v>
       </c>
       <c r="R325" t="n">
         <v>7216800</v>
@@ -21075,7 +21075,7 @@
       <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="n">
-        <v>242.2693023681641</v>
+        <v>241.181396484375</v>
       </c>
       <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr">
@@ -21089,16 +21089,16 @@
       <c r="L326" t="inlineStr"/>
       <c r="M326" t="inlineStr"/>
       <c r="N326" t="n">
-        <v>238.8920824840733</v>
+        <v>237.8193419445802</v>
       </c>
       <c r="O326" t="n">
-        <v>242.8635426715609</v>
+        <v>241.7729683625272</v>
       </c>
       <c r="P326" t="n">
-        <v>236.1387831830161</v>
+        <v>235.0784062838198</v>
       </c>
       <c r="Q326" t="n">
-        <v>242.2693023681641</v>
+        <v>241.181396484375</v>
       </c>
       <c r="R326" t="n">
         <v>12991700</v>
@@ -21138,7 +21138,7 @@
       <c r="D327" t="inlineStr"/>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="n">
-        <v>244.5174865722656</v>
+        <v>243.4194946289062</v>
       </c>
       <c r="G327" t="inlineStr"/>
       <c r="H327" t="inlineStr">
@@ -21152,16 +21152,16 @@
       <c r="L327" t="inlineStr"/>
       <c r="M327" t="inlineStr"/>
       <c r="N327" t="n">
-        <v>240.5064024081683</v>
+        <v>239.4264220113778</v>
       </c>
       <c r="O327" t="n">
-        <v>246.0624931866656</v>
+        <v>244.957563478491</v>
       </c>
       <c r="P327" t="n">
-        <v>239.8428426500431</v>
+        <v>238.765841930815</v>
       </c>
       <c r="Q327" t="n">
-        <v>244.5174865722656</v>
+        <v>243.4194946289062</v>
       </c>
       <c r="R327" t="n">
         <v>8689600</v>
@@ -21201,7 +21201,7 @@
       <c r="D328" t="inlineStr"/>
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="n">
-        <v>250.0834808349609</v>
+        <v>248.9604797363281</v>
       </c>
       <c r="G328" t="inlineStr"/>
       <c r="H328" t="inlineStr">
@@ -21215,16 +21215,16 @@
       <c r="L328" t="inlineStr"/>
       <c r="M328" t="inlineStr"/>
       <c r="N328" t="n">
-        <v>248.8454928034209</v>
+        <v>247.7280508961224</v>
       </c>
       <c r="O328" t="n">
-        <v>251.1828148114548</v>
+        <v>250.0548771482027</v>
       </c>
       <c r="P328" t="n">
-        <v>247.0628021277301</v>
+        <v>245.9533654016641</v>
       </c>
       <c r="Q328" t="n">
-        <v>250.0834808349609</v>
+        <v>248.9604797363281</v>
       </c>
       <c r="R328" t="n">
         <v>7165000</v>
@@ -21264,7 +21264,7 @@
       <c r="D329" t="inlineStr"/>
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="n">
-        <v>250.1330108642578</v>
+        <v>249.0097808837891</v>
       </c>
       <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr">
@@ -21278,16 +21278,16 @@
       <c r="L329" t="inlineStr"/>
       <c r="M329" t="inlineStr"/>
       <c r="N329" t="n">
-        <v>248.766267200645</v>
+        <v>247.6491746246447</v>
       </c>
       <c r="O329" t="n">
-        <v>252.7080320917859</v>
+        <v>251.573238899276</v>
       </c>
       <c r="P329" t="n">
-        <v>248.1819404591893</v>
+        <v>247.067471820398</v>
       </c>
       <c r="Q329" t="n">
-        <v>250.1330108642578</v>
+        <v>249.0097808837891</v>
       </c>
       <c r="R329" t="n">
         <v>5450700</v>
@@ -21327,7 +21327,7 @@
       <c r="D330" t="inlineStr"/>
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="n">
-        <v>246.8548126220703</v>
+        <v>245.7463073730469</v>
       </c>
       <c r="G330" t="inlineStr"/>
       <c r="H330" t="inlineStr">
@@ -21341,16 +21341,16 @@
       <c r="L330" t="inlineStr"/>
       <c r="M330" t="inlineStr"/>
       <c r="N330" t="n">
-        <v>247.5976054383855</v>
+        <v>246.485764667048</v>
       </c>
       <c r="O330" t="n">
-        <v>250.2221340111689</v>
+        <v>249.0985077547999</v>
       </c>
       <c r="P330" t="n">
-        <v>246.6072150166319</v>
+        <v>245.4998216083798</v>
       </c>
       <c r="Q330" t="n">
-        <v>246.8548126220703</v>
+        <v>245.7463073730469</v>
       </c>
       <c r="R330" t="n">
         <v>6369900</v>
@@ -21390,7 +21390,7 @@
       <c r="D331" t="inlineStr"/>
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="n">
-        <v>246.9934692382812</v>
+        <v>245.8843383789062</v>
       </c>
       <c r="G331" t="inlineStr"/>
       <c r="H331" t="inlineStr">
@@ -21404,16 +21404,16 @@
       <c r="L331" t="inlineStr"/>
       <c r="M331" t="inlineStr"/>
       <c r="N331" t="n">
-        <v>247.4490554863627</v>
+        <v>246.3378788046086</v>
       </c>
       <c r="O331" t="n">
-        <v>250.024061542333</v>
+        <v>248.9013217261829</v>
       </c>
       <c r="P331" t="n">
-        <v>246.4388530142925</v>
+        <v>245.332212674084</v>
       </c>
       <c r="Q331" t="n">
-        <v>246.9934692382812</v>
+        <v>245.8843383789062</v>
       </c>
       <c r="R331" t="n">
         <v>8724100</v>
@@ -21453,7 +21453,7 @@
       <c r="D332" t="inlineStr"/>
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="n">
-        <v>251.0342712402344</v>
+        <v>249.9070129394531</v>
       </c>
       <c r="G332" t="inlineStr"/>
       <c r="H332" t="inlineStr">
@@ -21467,16 +21467,16 @@
       <c r="L332" t="inlineStr"/>
       <c r="M332" t="inlineStr"/>
       <c r="N332" t="n">
-        <v>249.1525354100856</v>
+        <v>248.0337269608881</v>
       </c>
       <c r="O332" t="n">
-        <v>253.4211158770367</v>
+        <v>252.2831395558983</v>
       </c>
       <c r="P332" t="n">
-        <v>249.1327233694704</v>
+        <v>248.0140038853657</v>
       </c>
       <c r="Q332" t="n">
-        <v>251.0342712402344</v>
+        <v>249.9070129394531</v>
       </c>
       <c r="R332" t="n">
         <v>8320100</v>
@@ -21516,7 +21516,7 @@
       <c r="D333" t="inlineStr"/>
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="n">
-        <v>250.6480255126953</v>
+        <v>249.5224761962891</v>
       </c>
       <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr">
@@ -21530,16 +21530,16 @@
       <c r="L333" t="inlineStr"/>
       <c r="M333" t="inlineStr"/>
       <c r="N333" t="n">
-        <v>252.054378186564</v>
+        <v>250.9225135629158</v>
       </c>
       <c r="O333" t="n">
-        <v>253.0546671350605</v>
+        <v>251.9183106565897</v>
       </c>
       <c r="P333" t="n">
-        <v>249.915131114133</v>
+        <v>248.7928729020058</v>
       </c>
       <c r="Q333" t="n">
-        <v>250.6480255126953</v>
+        <v>249.5224761962891</v>
       </c>
       <c r="R333" t="n">
         <v>5087600</v>
@@ -21579,7 +21579,7 @@
       <c r="D334" t="inlineStr"/>
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="n">
-        <v>257.551025390625</v>
+        <v>256.3945007324219</v>
       </c>
       <c r="G334" t="inlineStr"/>
       <c r="H334" t="inlineStr">
@@ -21593,16 +21593,16 @@
       <c r="L334" t="inlineStr"/>
       <c r="M334" t="inlineStr"/>
       <c r="N334" t="n">
-        <v>260.3736442284861</v>
+        <v>259.2044446904927</v>
       </c>
       <c r="O334" t="n">
-        <v>261.0669296357917</v>
+        <v>259.8946169218072</v>
       </c>
       <c r="P334" t="n">
-        <v>256.2140224576069</v>
+        <v>255.0635015683959</v>
       </c>
       <c r="Q334" t="n">
-        <v>257.551025390625</v>
+        <v>256.3945007324219</v>
       </c>
       <c r="R334" t="n">
         <v>9603900</v>
@@ -21642,7 +21642,7 @@
       <c r="D335" t="inlineStr"/>
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="n">
-        <v>260.4826049804688</v>
+        <v>259.3129272460938</v>
       </c>
       <c r="G335" t="inlineStr"/>
       <c r="H335" t="inlineStr">
@@ -21656,16 +21656,16 @@
       <c r="L335" t="inlineStr"/>
       <c r="M335" t="inlineStr"/>
       <c r="N335" t="n">
-        <v>258.5216209857215</v>
+        <v>257.3607489039017</v>
       </c>
       <c r="O335" t="n">
-        <v>261.1362663120511</v>
+        <v>259.9636533601578</v>
       </c>
       <c r="P335" t="n">
-        <v>257.8877868069351</v>
+        <v>256.729760910281</v>
       </c>
       <c r="Q335" t="n">
-        <v>260.4826049804688</v>
+        <v>259.3129272460938</v>
       </c>
       <c r="R335" t="n">
         <v>8589000</v>
@@ -21705,7 +21705,7 @@
       <c r="D336" t="inlineStr"/>
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="n">
-        <v>263.0873413085938</v>
+        <v>261.9059448242188</v>
       </c>
       <c r="G336" t="inlineStr"/>
       <c r="H336" t="inlineStr">
@@ -21719,16 +21719,16 @@
       <c r="L336" t="inlineStr"/>
       <c r="M336" t="inlineStr"/>
       <c r="N336" t="n">
-        <v>260.4726959367646</v>
+        <v>259.3030405450427</v>
       </c>
       <c r="O336" t="n">
-        <v>264.0777317874408</v>
+        <v>262.8918879441619</v>
       </c>
       <c r="P336" t="n">
-        <v>259.7695271595925</v>
+        <v>258.60302935469</v>
       </c>
       <c r="Q336" t="n">
-        <v>263.0873413085938</v>
+        <v>261.9059448242188</v>
       </c>
       <c r="R336" t="n">
         <v>8643100</v>
@@ -21768,7 +21768,7 @@
       <c r="D337" t="inlineStr"/>
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="n">
-        <v>264.9195251464844</v>
+        <v>263.7298889160156</v>
       </c>
       <c r="G337" t="inlineStr"/>
       <c r="H337" t="inlineStr">
@@ -21782,16 +21782,16 @@
       <c r="L337" t="inlineStr"/>
       <c r="M337" t="inlineStr"/>
       <c r="N337" t="n">
-        <v>264.4045330061705</v>
+        <v>263.217209377267</v>
       </c>
       <c r="O337" t="n">
-        <v>266.9300165005274</v>
+        <v>265.7313520440172</v>
       </c>
       <c r="P337" t="n">
-        <v>262.21577862944</v>
+        <v>261.0382837268439</v>
       </c>
       <c r="Q337" t="n">
-        <v>264.9195251464844</v>
+        <v>263.7298889160156</v>
       </c>
       <c r="R337" t="n">
         <v>9214600</v>
@@ -21831,7 +21831,7 @@
       <c r="D338" t="inlineStr"/>
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="n">
-        <v>264.9888610839844</v>
+        <v>263.7989196777344</v>
       </c>
       <c r="G338" t="inlineStr"/>
       <c r="H338" t="inlineStr">
@@ -21845,16 +21845,16 @@
       <c r="L338" t="inlineStr"/>
       <c r="M338" t="inlineStr"/>
       <c r="N338" t="n">
-        <v>264.9294400761183</v>
+        <v>263.7397655019056</v>
       </c>
       <c r="O338" t="n">
-        <v>265.8802064262929</v>
+        <v>264.6862624037603</v>
       </c>
       <c r="P338" t="n">
-        <v>262.1662423130763</v>
+        <v>260.9889759714906</v>
       </c>
       <c r="Q338" t="n">
-        <v>264.9888610839844</v>
+        <v>263.7989196777344</v>
       </c>
       <c r="R338" t="n">
         <v>8932900</v>
@@ -21894,7 +21894,7 @@
       <c r="D339" t="inlineStr"/>
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="n">
-        <v>262.3346252441406</v>
+        <v>261.1565856933594</v>
       </c>
       <c r="G339" t="inlineStr"/>
       <c r="H339" t="inlineStr">
@@ -21908,16 +21908,16 @@
       <c r="L339" t="inlineStr"/>
       <c r="M339" t="inlineStr"/>
       <c r="N339" t="n">
-        <v>262.9981699149948</v>
+        <v>261.8171506513173</v>
       </c>
       <c r="O339" t="n">
-        <v>265.7415707842711</v>
+        <v>264.5482320079686</v>
       </c>
       <c r="P339" t="n">
-        <v>259.4129613490514</v>
+        <v>258.2480418186231</v>
       </c>
       <c r="Q339" t="n">
-        <v>262.3346252441406</v>
+        <v>261.1565856933594</v>
       </c>
       <c r="R339" t="n">
         <v>12145000</v>
@@ -21957,7 +21957,7 @@
       <c r="D340" t="inlineStr"/>
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="n">
-        <v>263.1269226074219</v>
+        <v>261.9453735351562</v>
       </c>
       <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr">
@@ -21971,16 +21971,16 @@
       <c r="L340" t="inlineStr"/>
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="n">
-        <v>259.9972852167219</v>
+        <v>258.8297895150459</v>
       </c>
       <c r="O340" t="n">
-        <v>264.0975161111211</v>
+        <v>262.9116086712568</v>
       </c>
       <c r="P340" t="n">
-        <v>259.7793981128024</v>
+        <v>258.6128808146395</v>
       </c>
       <c r="Q340" t="n">
-        <v>263.1269226074219</v>
+        <v>261.9453735351562</v>
       </c>
       <c r="R340" t="n">
         <v>8436300</v>
@@ -22020,7 +22020,7 @@
       <c r="D341" t="inlineStr"/>
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="n">
-        <v>258.5315246582031</v>
+        <v>257.3705749511719</v>
       </c>
       <c r="G341" t="inlineStr"/>
       <c r="H341" t="inlineStr">
@@ -22034,16 +22034,16 @@
       <c r="L341" t="inlineStr"/>
       <c r="M341" t="inlineStr"/>
       <c r="N341" t="n">
-        <v>261.8097145426128</v>
+        <v>260.6340439477094</v>
       </c>
       <c r="O341" t="n">
-        <v>263.0972100036598</v>
+        <v>261.9157578411883</v>
       </c>
       <c r="P341" t="n">
-        <v>258.2245060448101</v>
+        <v>257.064935021364</v>
       </c>
       <c r="Q341" t="n">
-        <v>258.5315246582031</v>
+        <v>257.3705749511719</v>
       </c>
       <c r="R341" t="n">
         <v>7464000</v>
@@ -22083,7 +22083,7 @@
       <c r="D342" t="inlineStr"/>
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="n">
-        <v>258.1651000976562</v>
+        <v>257.0057983398438</v>
       </c>
       <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr">
@@ -22097,16 +22097,16 @@
       <c r="L342" t="inlineStr"/>
       <c r="M342" t="inlineStr"/>
       <c r="N342" t="n">
-        <v>256.9469089247208</v>
+        <v>255.793077508049</v>
       </c>
       <c r="O342" t="n">
-        <v>259.779411193988</v>
+        <v>258.6128603010642</v>
       </c>
       <c r="P342" t="n">
-        <v>256.3823790964591</v>
+        <v>255.2310827258566</v>
       </c>
       <c r="Q342" t="n">
-        <v>258.1651000976562</v>
+        <v>257.0057983398438</v>
       </c>
       <c r="R342" t="n">
         <v>6514100</v>
@@ -22146,7 +22146,7 @@
       <c r="D343" t="inlineStr"/>
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="n">
-        <v>258.2046813964844</v>
+        <v>257.0451965332031</v>
       </c>
       <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr">
@@ -22160,16 +22160,16 @@
       <c r="L343" t="inlineStr"/>
       <c r="M343" t="inlineStr"/>
       <c r="N343" t="n">
-        <v>254.3421647515728</v>
+        <v>253.2000247697234</v>
       </c>
       <c r="O343" t="n">
-        <v>259.4723799421045</v>
+        <v>258.3072023963092</v>
       </c>
       <c r="P343" t="n">
-        <v>253.539950918565</v>
+        <v>252.4014133299465</v>
       </c>
       <c r="Q343" t="n">
-        <v>258.2046813964844</v>
+        <v>257.0451965332031</v>
       </c>
       <c r="R343" t="n">
         <v>6671800</v>
@@ -22209,7 +22209,7 @@
       <c r="D344" t="inlineStr"/>
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="n">
-        <v>262.7406921386719</v>
+        <v>261.5608520507812</v>
       </c>
       <c r="G344" t="inlineStr"/>
       <c r="H344" t="inlineStr">
@@ -22223,16 +22223,16 @@
       <c r="L344" t="inlineStr"/>
       <c r="M344" t="inlineStr"/>
       <c r="N344" t="n">
-        <v>259.5219231615278</v>
+        <v>258.3565369926018</v>
       </c>
       <c r="O344" t="n">
-        <v>262.7505754906807</v>
+        <v>261.5706910214846</v>
       </c>
       <c r="P344" t="n">
-        <v>259.4723855042117</v>
+        <v>258.3072217847034</v>
       </c>
       <c r="Q344" t="n">
-        <v>262.7406921386719</v>
+        <v>261.5608520507812</v>
       </c>
       <c r="R344" t="n">
         <v>7506600</v>
@@ -22272,7 +22272,7 @@
       <c r="D345" t="inlineStr"/>
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="n">
-        <v>260.9579772949219</v>
+        <v>259.7861633300781</v>
       </c>
       <c r="G345" t="inlineStr"/>
       <c r="H345" t="inlineStr">
@@ -22286,16 +22286,16 @@
       <c r="L345" t="inlineStr"/>
       <c r="M345" t="inlineStr"/>
       <c r="N345" t="n">
-        <v>263.6815511085711</v>
+        <v>262.4975071216288</v>
       </c>
       <c r="O345" t="n">
-        <v>264.1569494186174</v>
+        <v>262.9707706880495</v>
       </c>
       <c r="P345" t="n">
-        <v>260.3736505400026</v>
+        <v>259.2044604545227</v>
       </c>
       <c r="Q345" t="n">
-        <v>260.9579772949219</v>
+        <v>259.7861633300781</v>
       </c>
       <c r="R345" t="n">
         <v>5535400</v>
@@ -22335,7 +22335,7 @@
       <c r="D346" t="inlineStr"/>
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="n">
-        <v>261.8295288085938</v>
+        <v>260.6537475585938</v>
       </c>
       <c r="G346" t="inlineStr"/>
       <c r="H346" t="inlineStr">
@@ -22349,16 +22349,16 @@
       <c r="L346" t="inlineStr"/>
       <c r="M346" t="inlineStr"/>
       <c r="N346" t="n">
-        <v>262.2553894651371</v>
+        <v>261.0776958297107</v>
       </c>
       <c r="O346" t="n">
-        <v>262.8595433802288</v>
+        <v>261.6791367091541</v>
       </c>
       <c r="P346" t="n">
-        <v>260.0072139352819</v>
+        <v>258.8396160390441</v>
       </c>
       <c r="Q346" t="n">
-        <v>261.8295288085938</v>
+        <v>260.6537475585938</v>
       </c>
       <c r="R346" t="n">
         <v>5081200</v>
@@ -22398,7 +22398,7 @@
       <c r="D347" t="inlineStr"/>
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="n">
-        <v>261.4630737304688</v>
+        <v>260.2889709472656</v>
       </c>
       <c r="G347" t="inlineStr"/>
       <c r="H347" t="inlineStr">
@@ -22412,16 +22412,16 @@
       <c r="L347" t="inlineStr"/>
       <c r="M347" t="inlineStr"/>
       <c r="N347" t="n">
-        <v>260.9183710832572</v>
+        <v>259.7467142932301</v>
       </c>
       <c r="O347" t="n">
-        <v>262.7802797047294</v>
+        <v>261.600261993738</v>
       </c>
       <c r="P347" t="n">
-        <v>260.2052887641105</v>
+        <v>259.0368340780119</v>
       </c>
       <c r="Q347" t="n">
-        <v>261.4630737304688</v>
+        <v>260.2889709472656</v>
       </c>
       <c r="R347" t="n">
         <v>10977700</v>
@@ -22461,7 +22461,7 @@
       <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="n">
-        <v>262.1167297363281</v>
+        <v>260.9397277832031</v>
       </c>
       <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr">
@@ -22475,16 +22475,16 @@
       <c r="L348" t="inlineStr"/>
       <c r="M348" t="inlineStr"/>
       <c r="N348" t="n">
-        <v>260.4924749550241</v>
+        <v>259.3227665121298</v>
       </c>
       <c r="O348" t="n">
-        <v>262.4831693524154</v>
+        <v>261.3045219486384</v>
       </c>
       <c r="P348" t="n">
-        <v>259.3832425308735</v>
+        <v>258.2185149555912</v>
       </c>
       <c r="Q348" t="n">
-        <v>262.1167297363281</v>
+        <v>260.9397277832031</v>
       </c>
       <c r="R348" t="n">
         <v>6011200</v>
@@ -22524,7 +22524,7 @@
       <c r="D349" t="inlineStr"/>
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="n">
-        <v>263.7112426757812</v>
+        <v>262.5270690917969</v>
       </c>
       <c r="G349" t="inlineStr"/>
       <c r="H349" t="inlineStr">
@@ -22538,16 +22538,16 @@
       <c r="L349" t="inlineStr"/>
       <c r="M349" t="inlineStr"/>
       <c r="N349" t="n">
-        <v>261.1956728046096</v>
+        <v>260.0227951796442</v>
       </c>
       <c r="O349" t="n">
-        <v>264.0182612838717</v>
+        <v>262.8327090581509</v>
       </c>
       <c r="P349" t="n">
-        <v>260.3538349141645</v>
+        <v>259.1847374928103</v>
       </c>
       <c r="Q349" t="n">
-        <v>263.7112426757812</v>
+        <v>262.5270690917969</v>
       </c>
       <c r="R349" t="n">
         <v>6998400</v>
@@ -22587,7 +22587,7 @@
       <c r="D350" t="inlineStr"/>
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="n">
-        <v>261.6809692382812</v>
+        <v>260.505859375</v>
       </c>
       <c r="G350" t="inlineStr"/>
       <c r="H350" t="inlineStr">
@@ -22601,16 +22601,16 @@
       <c r="L350" t="inlineStr"/>
       <c r="M350" t="inlineStr"/>
       <c r="N350" t="n">
-        <v>263.3646451144359</v>
+        <v>262.1819745021464</v>
       </c>
       <c r="O350" t="n">
-        <v>264.5530955349701</v>
+        <v>263.3650880431389</v>
       </c>
       <c r="P350" t="n">
-        <v>261.6413451569679</v>
+        <v>260.4664132303892</v>
       </c>
       <c r="Q350" t="n">
-        <v>261.6809692382812</v>
+        <v>260.505859375</v>
       </c>
       <c r="R350" t="n">
         <v>5915700</v>
@@ -22650,7 +22650,7 @@
       <c r="D351" t="inlineStr"/>
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="n">
-        <v>259.4328002929688</v>
+        <v>258.2677917480469</v>
       </c>
       <c r="G351" t="inlineStr"/>
       <c r="H351" t="inlineStr">
@@ -22664,16 +22664,16 @@
       <c r="L351" t="inlineStr"/>
       <c r="M351" t="inlineStr"/>
       <c r="N351" t="n">
-        <v>262.1959679916118</v>
+        <v>261.0185511699558</v>
       </c>
       <c r="O351" t="n">
-        <v>262.1959679916118</v>
+        <v>261.0185511699558</v>
       </c>
       <c r="P351" t="n">
-        <v>257.8085453857792</v>
+        <v>256.6508307175139</v>
       </c>
       <c r="Q351" t="n">
-        <v>259.4328002929688</v>
+        <v>258.2677917480469</v>
       </c>
       <c r="R351" t="n">
         <v>8173800</v>
@@ -22713,7 +22713,7 @@
       <c r="D352" t="inlineStr"/>
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="n">
-        <v>263.1764526367188</v>
+        <v>261.9946594238281</v>
       </c>
       <c r="G352" t="inlineStr"/>
       <c r="H352" t="inlineStr">
@@ -22727,16 +22727,16 @@
       <c r="L352" t="inlineStr"/>
       <c r="M352" t="inlineStr"/>
       <c r="N352" t="n">
-        <v>261.7898818932406</v>
+        <v>260.6143150728612</v>
       </c>
       <c r="O352" t="n">
-        <v>264.0875948817465</v>
+        <v>262.9017101868469</v>
       </c>
       <c r="P352" t="n">
-        <v>261.7205775355199</v>
+        <v>260.5453219261883</v>
       </c>
       <c r="Q352" t="n">
-        <v>263.1764526367188</v>
+        <v>261.9946594238281</v>
       </c>
       <c r="R352" t="n">
         <v>7738100</v>
@@ -22776,7 +22776,7 @@
       <c r="D353" t="inlineStr"/>
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="n">
-        <v>264.1767272949219</v>
+        <v>262.9904479980469</v>
       </c>
       <c r="G353" t="inlineStr"/>
       <c r="H353" t="inlineStr">
@@ -22790,16 +22790,16 @@
       <c r="L353" t="inlineStr"/>
       <c r="M353" t="inlineStr"/>
       <c r="N353" t="n">
-        <v>263.4438480660683</v>
+        <v>262.2608597459011</v>
       </c>
       <c r="O353" t="n">
-        <v>265.3255837931054</v>
+        <v>264.13414558351</v>
       </c>
       <c r="P353" t="n">
-        <v>260.8193195343335</v>
+        <v>259.6481165969787</v>
       </c>
       <c r="Q353" t="n">
-        <v>264.1767272949219</v>
+        <v>262.9904479980469</v>
       </c>
       <c r="R353" t="n">
         <v>8285000</v>
@@ -22839,7 +22839,7 @@
       <c r="D354" t="inlineStr"/>
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="n">
-        <v>266.0188903808594</v>
+        <v>264.8243103027344</v>
       </c>
       <c r="G354" t="inlineStr"/>
       <c r="H354" t="inlineStr">
@@ -22853,16 +22853,16 @@
       <c r="L354" t="inlineStr"/>
       <c r="M354" t="inlineStr"/>
       <c r="N354" t="n">
-        <v>263.3250270520284</v>
+        <v>262.1425439925069</v>
       </c>
       <c r="O354" t="n">
-        <v>266.3159954367044</v>
+        <v>265.1200811834751</v>
       </c>
       <c r="P354" t="n">
-        <v>263.2953165464439</v>
+        <v>262.1129669044328</v>
       </c>
       <c r="Q354" t="n">
-        <v>266.0188903808594</v>
+        <v>264.8243103027344</v>
       </c>
       <c r="R354" t="n">
         <v>7538100</v>
@@ -22902,7 +22902,7 @@
       <c r="D355" t="inlineStr"/>
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="n">
-        <v>265.5732116699219</v>
+        <v>264.3806457519531</v>
       </c>
       <c r="G355" t="inlineStr"/>
       <c r="H355" t="inlineStr">
@@ -22916,16 +22916,16 @@
       <c r="L355" t="inlineStr"/>
       <c r="M355" t="inlineStr"/>
       <c r="N355" t="n">
-        <v>266.0981174361079</v>
+        <v>264.9031944101953</v>
       </c>
       <c r="O355" t="n">
-        <v>267.029086942071</v>
+        <v>265.8299833646017</v>
       </c>
       <c r="P355" t="n">
-        <v>263.23590455236</v>
+        <v>262.0538343948285</v>
       </c>
       <c r="Q355" t="n">
-        <v>265.5732116699219</v>
+        <v>264.3806457519531</v>
       </c>
       <c r="R355" t="n">
         <v>7434100</v>
@@ -22965,7 +22965,7 @@
       <c r="D356" t="inlineStr"/>
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="n">
-        <v>265.6623229980469</v>
+        <v>264.4693603515625</v>
       </c>
       <c r="G356" t="inlineStr"/>
       <c r="H356" t="inlineStr">
@@ -22979,16 +22979,16 @@
       <c r="L356" t="inlineStr"/>
       <c r="M356" t="inlineStr"/>
       <c r="N356" t="n">
-        <v>264.2955793495838</v>
+        <v>263.108754096244</v>
       </c>
       <c r="O356" t="n">
-        <v>265.7118606548322</v>
+        <v>264.518675558384</v>
       </c>
       <c r="P356" t="n">
-        <v>262.5921368014331</v>
+        <v>261.4129608952323</v>
       </c>
       <c r="Q356" t="n">
-        <v>265.6623229980469</v>
+        <v>264.4693603515625</v>
       </c>
       <c r="R356" t="n">
         <v>6618000</v>
@@ -23028,7 +23028,7 @@
       <c r="D357" t="inlineStr"/>
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="n">
-        <v>262.4039306640625</v>
+        <v>261.2256164550781</v>
       </c>
       <c r="G357" t="inlineStr"/>
       <c r="H357" t="inlineStr">
@@ -23042,16 +23042,16 @@
       <c r="L357" t="inlineStr"/>
       <c r="M357" t="inlineStr"/>
       <c r="N357" t="n">
-        <v>262.5326560188529</v>
+        <v>261.3537637738832</v>
       </c>
       <c r="O357" t="n">
-        <v>264.4540156816904</v>
+        <v>263.2664956490745</v>
       </c>
       <c r="P357" t="n">
-        <v>260.1854357669109</v>
+        <v>259.0170836192922</v>
       </c>
       <c r="Q357" t="n">
-        <v>262.4039306640625</v>
+        <v>261.2256164550781</v>
       </c>
       <c r="R357" t="n">
         <v>7098300</v>
@@ -23091,7 +23091,7 @@
       <c r="D358" t="inlineStr"/>
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="n">
-        <v>267.7619323730469</v>
+        <v>266.5595397949219</v>
       </c>
       <c r="G358" t="inlineStr"/>
       <c r="H358" t="inlineStr">
@@ -23105,16 +23105,16 @@
       <c r="L358" t="inlineStr"/>
       <c r="M358" t="inlineStr"/>
       <c r="N358" t="n">
-        <v>264.4342351573897</v>
+        <v>263.2467856983216</v>
       </c>
       <c r="O358" t="n">
-        <v>269.1187926010441</v>
+        <v>267.9103070034475</v>
       </c>
       <c r="P358" t="n">
-        <v>264.2856826431757</v>
+        <v>263.0989002634007</v>
       </c>
       <c r="Q358" t="n">
-        <v>267.7619323730469</v>
+        <v>266.5595397949219</v>
       </c>
       <c r="R358" t="n">
         <v>8566000</v>
@@ -23154,7 +23154,7 @@
       <c r="D359" t="inlineStr"/>
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="n">
-        <v>266.9299926757812</v>
+        <v>265.7313842773438</v>
       </c>
       <c r="G359" t="inlineStr"/>
       <c r="H359" t="inlineStr">
@@ -23168,16 +23168,16 @@
       <c r="L359" t="inlineStr"/>
       <c r="M359" t="inlineStr"/>
       <c r="N359" t="n">
-        <v>265.592989900642</v>
+        <v>264.4003851091389</v>
       </c>
       <c r="O359" t="n">
-        <v>267.9897175899221</v>
+        <v>266.7863506584723</v>
       </c>
       <c r="P359" t="n">
-        <v>265.2265200876263</v>
+        <v>264.035560872895</v>
       </c>
       <c r="Q359" t="n">
-        <v>266.9299926757812</v>
+        <v>265.7313842773438</v>
       </c>
       <c r="R359" t="n">
         <v>6739300</v>
@@ -23217,7 +23217,7 @@
       <c r="D360" t="inlineStr"/>
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="n">
-        <v>271.3273620605469</v>
+        <v>270.1089477539062</v>
       </c>
       <c r="G360" t="inlineStr"/>
       <c r="H360" t="inlineStr">
@@ -23231,16 +23231,16 @@
       <c r="L360" t="inlineStr"/>
       <c r="M360" t="inlineStr"/>
       <c r="N360" t="n">
-        <v>267.4054243002851</v>
+        <v>266.2046217267206</v>
       </c>
       <c r="O360" t="n">
-        <v>275.0512398633253</v>
+        <v>273.8161032255617</v>
       </c>
       <c r="P360" t="n">
-        <v>267.1281161803539</v>
+        <v>265.9285588781033</v>
       </c>
       <c r="Q360" t="n">
-        <v>271.3273620605469</v>
+        <v>270.1089477539062</v>
       </c>
       <c r="R360" t="n">
         <v>9586400</v>
@@ -23280,7 +23280,7 @@
       <c r="D361" t="inlineStr"/>
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="n">
-        <v>272.3573608398438</v>
+        <v>271.1343383789062</v>
       </c>
       <c r="G361" t="inlineStr"/>
       <c r="H361" t="inlineStr">
@@ -23294,16 +23294,16 @@
       <c r="L361" t="inlineStr"/>
       <c r="M361" t="inlineStr"/>
       <c r="N361" t="n">
-        <v>272.9218906234205</v>
+        <v>271.6963331378996</v>
       </c>
       <c r="O361" t="n">
-        <v>274.6352466771413</v>
+        <v>273.4019953553649</v>
       </c>
       <c r="P361" t="n">
-        <v>271.1787938422642</v>
+        <v>269.9610637439246</v>
       </c>
       <c r="Q361" t="n">
-        <v>272.3573608398438</v>
+        <v>271.1343383789062</v>
       </c>
       <c r="R361" t="n">
         <v>13969700</v>
@@ -23343,7 +23343,7 @@
       <c r="D362" t="inlineStr"/>
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="n">
-        <v>275.595947265625</v>
+        <v>274.3583679199219</v>
       </c>
       <c r="G362" t="inlineStr"/>
       <c r="H362" t="inlineStr">
@@ -23357,16 +23357,16 @@
       <c r="L362" t="inlineStr"/>
       <c r="M362" t="inlineStr"/>
       <c r="N362" t="n">
-        <v>272.416802295977</v>
+        <v>271.1934990823813</v>
       </c>
       <c r="O362" t="n">
-        <v>275.8732553903245</v>
+        <v>274.6344307766452</v>
       </c>
       <c r="P362" t="n">
-        <v>269.4951382979165</v>
+        <v>268.2849549834157</v>
       </c>
       <c r="Q362" t="n">
-        <v>275.595947265625</v>
+        <v>274.3583679199219</v>
       </c>
       <c r="R362" t="n">
         <v>8094600</v>
@@ -23406,7 +23406,7 @@
       <c r="D363" t="inlineStr"/>
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="n">
-        <v>278.5572204589844</v>
+        <v>277.3063354492188</v>
       </c>
       <c r="G363" t="inlineStr"/>
       <c r="H363" t="inlineStr">
@@ -23420,16 +23420,16 @@
       <c r="L363" t="inlineStr"/>
       <c r="M363" t="inlineStr"/>
       <c r="N363" t="n">
-        <v>277.5172923786977</v>
+        <v>276.2710772548705</v>
       </c>
       <c r="O363" t="n">
-        <v>279.9932684398796</v>
+        <v>278.7359347339012</v>
       </c>
       <c r="P363" t="n">
-        <v>276.8240372161571</v>
+        <v>275.5809352138972</v>
       </c>
       <c r="Q363" t="n">
-        <v>278.5572204589844</v>
+        <v>277.3063354492188</v>
       </c>
       <c r="R363" t="n">
         <v>9267900</v>
@@ -23469,7 +23469,7 @@
       <c r="D364" t="inlineStr"/>
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="n">
-        <v>281.3302917480469</v>
+        <v>280.0669860839844</v>
       </c>
       <c r="G364" t="inlineStr"/>
       <c r="H364" t="inlineStr">
@@ -23483,16 +23483,16 @@
       <c r="L364" t="inlineStr"/>
       <c r="M364" t="inlineStr"/>
       <c r="N364" t="n">
-        <v>278.794894767749</v>
+        <v>277.5429742316298</v>
       </c>
       <c r="O364" t="n">
-        <v>281.5481788428061</v>
+        <v>280.283894762949</v>
       </c>
       <c r="P364" t="n">
-        <v>278.2105680646031</v>
+        <v>276.9612714309054</v>
       </c>
       <c r="Q364" t="n">
-        <v>281.3302917480469</v>
+        <v>280.0669860839844</v>
       </c>
       <c r="R364" t="n">
         <v>6826900</v>
@@ -23532,7 +23532,7 @@
       <c r="D365" t="inlineStr"/>
       <c r="E365" t="inlineStr"/>
       <c r="F365" t="n">
-        <v>285.9752197265625</v>
+        <v>284.6910705566406</v>
       </c>
       <c r="G365" t="inlineStr"/>
       <c r="H365" t="inlineStr">
@@ -23546,16 +23546,16 @@
       <c r="L365" t="inlineStr"/>
       <c r="M365" t="inlineStr"/>
       <c r="N365" t="n">
-        <v>281.9641508123318</v>
+        <v>280.6980130310247</v>
       </c>
       <c r="O365" t="n">
-        <v>286.6288809985696</v>
+        <v>285.3417966142587</v>
       </c>
       <c r="P365" t="n">
-        <v>281.7363501461683</v>
+        <v>280.4712352857865</v>
       </c>
       <c r="Q365" t="n">
-        <v>285.9752197265625</v>
+        <v>284.6910705566406</v>
       </c>
       <c r="R365" t="n">
         <v>8942100</v>
@@ -23595,7 +23595,7 @@
       <c r="D366" t="inlineStr"/>
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="n">
-        <v>284.3509826660156</v>
+        <v>283.0740966796875</v>
       </c>
       <c r="G366" t="inlineStr"/>
       <c r="H366" t="inlineStr">
@@ -23609,16 +23609,16 @@
       <c r="L366" t="inlineStr"/>
       <c r="M366" t="inlineStr"/>
       <c r="N366" t="n">
-        <v>283.0634871930461</v>
+        <v>281.7923827409032</v>
       </c>
       <c r="O366" t="n">
-        <v>285.925730051636</v>
+        <v>284.6417726184297</v>
       </c>
       <c r="P366" t="n">
-        <v>282.3008974405109</v>
+        <v>281.0332174188349</v>
       </c>
       <c r="Q366" t="n">
-        <v>284.3509826660156</v>
+        <v>283.0740966796875</v>
       </c>
       <c r="R366" t="n">
         <v>17868600</v>
@@ -23658,7 +23658,7 @@
       <c r="D367" t="inlineStr"/>
       <c r="E367" t="inlineStr"/>
       <c r="F367" t="n">
-        <v>287.1240844726562</v>
+        <v>285.8347778320312</v>
       </c>
       <c r="G367" t="inlineStr"/>
       <c r="H367" t="inlineStr">
@@ -23672,16 +23672,16 @@
       <c r="L367" t="inlineStr"/>
       <c r="M367" t="inlineStr"/>
       <c r="N367" t="n">
-        <v>287.6093660968442</v>
+        <v>286.3178803397518</v>
       </c>
       <c r="O367" t="n">
-        <v>289.8377444967024</v>
+        <v>288.5362523931413</v>
       </c>
       <c r="P367" t="n">
-        <v>286.1436076484999</v>
+        <v>284.8587037568908</v>
       </c>
       <c r="Q367" t="n">
-        <v>287.1240844726562</v>
+        <v>285.8347778320312</v>
       </c>
       <c r="R367" t="n">
         <v>12689200</v>
@@ -23784,7 +23784,7 @@
       <c r="D369" t="inlineStr"/>
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="n">
-        <v>43.79565811157227</v>
+        <v>43.79566192626953</v>
       </c>
       <c r="G369" t="inlineStr"/>
       <c r="H369" t="inlineStr">
@@ -23803,16 +23803,16 @@
       <c r="Q369" t="inlineStr"/>
       <c r="R369" t="inlineStr"/>
       <c r="S369" t="n">
-        <v>43.73701496159806</v>
+        <v>43.73701877118738</v>
       </c>
       <c r="T369" t="n">
-        <v>43.83474981654267</v>
+        <v>43.83475363464491</v>
       </c>
       <c r="U369" t="n">
-        <v>43.15059837523895</v>
+        <v>43.15060213375011</v>
       </c>
       <c r="V369" t="n">
-        <v>43.79565811157227</v>
+        <v>43.79566192626953</v>
       </c>
       <c r="W369" t="n">
         <v>23455700</v>
@@ -23847,7 +23847,7 @@
       <c r="D370" t="inlineStr"/>
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="n">
-        <v>44.37230682373047</v>
+        <v>44.3723030090332</v>
       </c>
       <c r="G370" t="inlineStr"/>
       <c r="H370" t="inlineStr">
@@ -23866,16 +23866,16 @@
       <c r="Q370" t="inlineStr"/>
       <c r="R370" t="inlineStr"/>
       <c r="S370" t="n">
-        <v>44.13773793039974</v>
+        <v>44.13773413586841</v>
       </c>
       <c r="T370" t="n">
-        <v>45.10532948891316</v>
+        <v>45.10532561119776</v>
       </c>
       <c r="U370" t="n">
-        <v>44.07909477498053</v>
+        <v>44.07909098549077</v>
       </c>
       <c r="V370" t="n">
-        <v>44.37230682373047</v>
+        <v>44.3723030090332</v>
       </c>
       <c r="W370" t="n">
         <v>30518500</v>
@@ -24288,7 +24288,7 @@
       <c r="D377" t="inlineStr"/>
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="n">
-        <v>45.584228515625</v>
+        <v>45.58423614501953</v>
       </c>
       <c r="G377" t="inlineStr"/>
       <c r="H377" t="inlineStr">
@@ -24307,16 +24307,16 @@
       <c r="Q377" t="inlineStr"/>
       <c r="R377" t="inlineStr"/>
       <c r="S377" t="n">
-        <v>45.93607993721126</v>
+        <v>45.93608762549487</v>
       </c>
       <c r="T377" t="n">
-        <v>46.43453363222812</v>
+        <v>46.43454140393752</v>
       </c>
       <c r="U377" t="n">
-        <v>44.78279082349874</v>
+        <v>44.78279831875731</v>
       </c>
       <c r="V377" t="n">
-        <v>45.584228515625</v>
+        <v>45.58423614501953</v>
       </c>
       <c r="W377" t="n">
         <v>56339300</v>
@@ -24351,7 +24351,7 @@
       <c r="D378" t="inlineStr"/>
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="n">
-        <v>45.47671890258789</v>
+        <v>45.47672653198242</v>
       </c>
       <c r="G378" t="inlineStr"/>
       <c r="H378" t="inlineStr">
@@ -24370,16 +24370,16 @@
       <c r="Q378" t="inlineStr"/>
       <c r="R378" t="inlineStr"/>
       <c r="S378" t="n">
-        <v>45.55490976607412</v>
+        <v>45.55491740858633</v>
       </c>
       <c r="T378" t="n">
-        <v>45.81879833782177</v>
+        <v>45.8188060246052</v>
       </c>
       <c r="U378" t="n">
-        <v>45.03690834468738</v>
+        <v>45.03691590029717</v>
       </c>
       <c r="V378" t="n">
-        <v>45.47671890258789</v>
+        <v>45.47672653198242</v>
       </c>
       <c r="W378" t="n">
         <v>44486100</v>
@@ -24666,7 +24666,7 @@
       <c r="D383" t="inlineStr"/>
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="n">
-        <v>46.0240478515625</v>
+        <v>46.02404403686523</v>
       </c>
       <c r="G383" t="inlineStr"/>
       <c r="H383" t="inlineStr">
@@ -24685,16 +24685,16 @@
       <c r="Q383" t="inlineStr"/>
       <c r="R383" t="inlineStr"/>
       <c r="S383" t="n">
-        <v>45.49627066116994</v>
+        <v>45.49626689021742</v>
       </c>
       <c r="T383" t="n">
-        <v>46.07291528141086</v>
+        <v>46.07291146266324</v>
       </c>
       <c r="U383" t="n">
-        <v>45.33012065401631</v>
+        <v>45.33011689683511</v>
       </c>
       <c r="V383" t="n">
-        <v>46.0240478515625</v>
+        <v>46.02404403686523</v>
       </c>
       <c r="W383" t="n">
         <v>44260000</v>
@@ -24792,7 +24792,7 @@
       <c r="D385" t="inlineStr"/>
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="n">
-        <v>45.69174575805664</v>
+        <v>45.69174194335938</v>
       </c>
       <c r="G385" t="inlineStr"/>
       <c r="H385" t="inlineStr">
@@ -24811,16 +24811,16 @@
       <c r="Q385" t="inlineStr"/>
       <c r="R385" t="inlineStr"/>
       <c r="S385" t="n">
-        <v>45.69174575805664</v>
+        <v>45.69174194335938</v>
       </c>
       <c r="T385" t="n">
-        <v>46.31725783072248</v>
+        <v>46.31725396380267</v>
       </c>
       <c r="U385" t="n">
-        <v>45.58423517150231</v>
+        <v>45.58423136578086</v>
       </c>
       <c r="V385" t="n">
-        <v>45.69174575805664</v>
+        <v>45.69174194335938</v>
       </c>
       <c r="W385" t="n">
         <v>23681500</v>
@@ -24855,7 +24855,7 @@
       <c r="D386" t="inlineStr"/>
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="n">
-        <v>45.66242599487305</v>
+        <v>45.66242218017578</v>
       </c>
       <c r="G386" t="inlineStr"/>
       <c r="H386" t="inlineStr">
@@ -24874,16 +24874,16 @@
       <c r="Q386" t="inlineStr"/>
       <c r="R386" t="inlineStr"/>
       <c r="S386" t="n">
-        <v>46.04359718071574</v>
+        <v>46.04359333417495</v>
       </c>
       <c r="T386" t="n">
-        <v>46.10223660724782</v>
+        <v>46.10223275580822</v>
       </c>
       <c r="U386" t="n">
-        <v>45.34966995888181</v>
+        <v>45.34966617031259</v>
       </c>
       <c r="V386" t="n">
-        <v>45.66242599487305</v>
+        <v>45.66242218017578</v>
       </c>
       <c r="W386" t="n">
         <v>31199900</v>
@@ -25044,7 +25044,7 @@
       <c r="D389" t="inlineStr"/>
       <c r="E389" t="inlineStr"/>
       <c r="F389" t="n">
-        <v>45.65264511108398</v>
+        <v>45.65264892578125</v>
       </c>
       <c r="G389" t="inlineStr"/>
       <c r="H389" t="inlineStr">
@@ -25063,16 +25063,16 @@
       <c r="Q389" t="inlineStr"/>
       <c r="R389" t="inlineStr"/>
       <c r="S389" t="n">
-        <v>45.30079367827981</v>
+        <v>45.30079746357666</v>
       </c>
       <c r="T389" t="n">
-        <v>46.0631396921374</v>
+        <v>46.06314354113525</v>
       </c>
       <c r="U389" t="n">
-        <v>45.22260654229311</v>
+        <v>45.22261032105671</v>
       </c>
       <c r="V389" t="n">
-        <v>45.65264511108398</v>
+        <v>45.65264892578125</v>
       </c>
       <c r="W389" t="n">
         <v>32894000</v>
@@ -25170,7 +25170,7 @@
       <c r="D391" t="inlineStr"/>
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="n">
-        <v>46.65933609008789</v>
+        <v>46.65933227539062</v>
       </c>
       <c r="G391" t="inlineStr"/>
       <c r="H391" t="inlineStr">
@@ -25189,16 +25189,16 @@
       <c r="Q391" t="inlineStr"/>
       <c r="R391" t="inlineStr"/>
       <c r="S391" t="n">
-        <v>46.36612405138087</v>
+        <v>46.36612026065556</v>
       </c>
       <c r="T391" t="n">
-        <v>46.89390124703837</v>
+        <v>46.89389741316391</v>
       </c>
       <c r="U391" t="n">
-        <v>46.10223545355212</v>
+        <v>46.10223168440137</v>
       </c>
       <c r="V391" t="n">
-        <v>46.65933609008789</v>
+        <v>46.65933227539062</v>
       </c>
       <c r="W391" t="n">
         <v>39793400</v>
@@ -25548,7 +25548,7 @@
       <c r="D397" t="inlineStr"/>
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="n">
-        <v>45.8969841003418</v>
+        <v>45.89699172973633</v>
       </c>
       <c r="G397" t="inlineStr"/>
       <c r="H397" t="inlineStr">
@@ -25567,16 +25567,16 @@
       <c r="Q397" t="inlineStr"/>
       <c r="R397" t="inlineStr"/>
       <c r="S397" t="n">
-        <v>45.42785011849135</v>
+        <v>45.42785766990237</v>
       </c>
       <c r="T397" t="n">
-        <v>46.02404238553425</v>
+        <v>46.02405003604952</v>
       </c>
       <c r="U397" t="n">
-        <v>45.42785011849135</v>
+        <v>45.42785766990237</v>
       </c>
       <c r="V397" t="n">
-        <v>45.8969841003418</v>
+        <v>45.89699172973633</v>
       </c>
       <c r="W397" t="n">
         <v>25960500</v>
@@ -25611,7 +25611,7 @@
       <c r="D398" t="inlineStr"/>
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="n">
-        <v>45.47671890258789</v>
+        <v>45.47672653198242</v>
       </c>
       <c r="G398" t="inlineStr"/>
       <c r="H398" t="inlineStr">
@@ -25630,16 +25630,16 @@
       <c r="Q398" t="inlineStr"/>
       <c r="R398" t="inlineStr"/>
       <c r="S398" t="n">
-        <v>45.50604234056802</v>
+        <v>45.50604997488199</v>
       </c>
       <c r="T398" t="n">
-        <v>45.59400519781723</v>
+        <v>45.59401284688828</v>
       </c>
       <c r="U398" t="n">
-        <v>45.11509547982804</v>
+        <v>45.11510304855487</v>
       </c>
       <c r="V398" t="n">
-        <v>45.47671890258789</v>
+        <v>45.47672653198242</v>
       </c>
       <c r="W398" t="n">
         <v>37824100</v>
@@ -25737,7 +25737,7 @@
       <c r="D400" t="inlineStr"/>
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="n">
-        <v>44.27456283569336</v>
+        <v>44.27456665039062</v>
       </c>
       <c r="G400" t="inlineStr"/>
       <c r="H400" t="inlineStr">
@@ -25756,16 +25756,16 @@
       <c r="Q400" t="inlineStr"/>
       <c r="R400" t="inlineStr"/>
       <c r="S400" t="n">
-        <v>44.86098313338103</v>
+        <v>44.86098699860428</v>
       </c>
       <c r="T400" t="n">
-        <v>45.14441569583384</v>
+        <v>45.14441958547764</v>
       </c>
       <c r="U400" t="n">
-        <v>44.02044998320397</v>
+        <v>44.02045377600687</v>
       </c>
       <c r="V400" t="n">
-        <v>44.27456283569336</v>
+        <v>44.27456665039062</v>
       </c>
       <c r="W400" t="n">
         <v>40001100</v>
@@ -25800,7 +25800,7 @@
       <c r="D401" t="inlineStr"/>
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="n">
-        <v>43.79565811157227</v>
+        <v>43.79566192626953</v>
       </c>
       <c r="G401" t="inlineStr"/>
       <c r="H401" t="inlineStr">
@@ -25819,16 +25819,16 @@
       <c r="Q401" t="inlineStr"/>
       <c r="R401" t="inlineStr"/>
       <c r="S401" t="n">
-        <v>44.22569669301257</v>
+        <v>44.22570054516713</v>
       </c>
       <c r="T401" t="n">
-        <v>44.47980955287598</v>
+        <v>44.47981342716433</v>
       </c>
       <c r="U401" t="n">
-        <v>43.53176952920695</v>
+        <v>43.53177332091894</v>
       </c>
       <c r="V401" t="n">
-        <v>43.79565811157227</v>
+        <v>43.79566192626953</v>
       </c>
       <c r="W401" t="n">
         <v>43485900</v>
@@ -25863,7 +25863,7 @@
       <c r="D402" t="inlineStr"/>
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="n">
-        <v>43.45358276367188</v>
+        <v>43.45357894897461</v>
       </c>
       <c r="G402" t="inlineStr"/>
       <c r="H402" t="inlineStr">
@@ -25882,16 +25882,16 @@
       <c r="Q402" t="inlineStr"/>
       <c r="R402" t="inlineStr"/>
       <c r="S402" t="n">
-        <v>44.01067969179489</v>
+        <v>44.01067582819127</v>
       </c>
       <c r="T402" t="n">
-        <v>44.36253116815598</v>
+        <v>44.36252727366407</v>
       </c>
       <c r="U402" t="n">
-        <v>43.43403504516892</v>
+        <v>43.43403123218771</v>
       </c>
       <c r="V402" t="n">
-        <v>43.45358276367188</v>
+        <v>43.45357894897461</v>
       </c>
       <c r="W402" t="n">
         <v>35512200</v>
@@ -25926,7 +25926,7 @@
       <c r="D403" t="inlineStr"/>
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="n">
-        <v>42.94534683227539</v>
+        <v>42.94535064697266</v>
       </c>
       <c r="G403" t="inlineStr"/>
       <c r="H403" t="inlineStr">
@@ -25945,16 +25945,16 @@
       <c r="Q403" t="inlineStr"/>
       <c r="R403" t="inlineStr"/>
       <c r="S403" t="n">
-        <v>43.52199139249121</v>
+        <v>43.52199525840997</v>
       </c>
       <c r="T403" t="n">
-        <v>43.8249753913658</v>
+        <v>43.82497928419765</v>
       </c>
       <c r="U403" t="n">
-        <v>42.36870227205956</v>
+        <v>42.36870603553535</v>
       </c>
       <c r="V403" t="n">
-        <v>42.94534683227539</v>
+        <v>42.94535064697266</v>
       </c>
       <c r="W403" t="n">
         <v>38119000</v>
@@ -25989,7 +25989,7 @@
       <c r="D404" t="inlineStr"/>
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="n">
-        <v>42.94534683227539</v>
+        <v>42.94535064697266</v>
       </c>
       <c r="G404" t="inlineStr"/>
       <c r="H404" t="inlineStr">
@@ -26008,16 +26008,16 @@
       <c r="Q404" t="inlineStr"/>
       <c r="R404" t="inlineStr"/>
       <c r="S404" t="n">
-        <v>43.04308541014406</v>
+        <v>43.04308923352313</v>
       </c>
       <c r="T404" t="n">
-        <v>43.54153910806495</v>
+        <v>43.54154297572006</v>
       </c>
       <c r="U404" t="n">
-        <v>42.86715969832598</v>
+        <v>42.86716350607814</v>
       </c>
       <c r="V404" t="n">
-        <v>42.94534683227539</v>
+        <v>42.94535064697266</v>
       </c>
       <c r="W404" t="n">
         <v>32251700</v>
@@ -26115,7 +26115,7 @@
       <c r="D406" t="inlineStr"/>
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="n">
-        <v>45.05645751953125</v>
+        <v>45.05645370483398</v>
       </c>
       <c r="G406" t="inlineStr"/>
       <c r="H406" t="inlineStr">
@@ -26134,16 +26134,16 @@
       <c r="Q406" t="inlineStr"/>
       <c r="R406" t="inlineStr"/>
       <c r="S406" t="n">
-        <v>43.31675161847295</v>
+        <v>43.31674795106759</v>
       </c>
       <c r="T406" t="n">
-        <v>45.15419611014161</v>
+        <v>45.15419228716932</v>
       </c>
       <c r="U406" t="n">
-        <v>43.19946903808653</v>
+        <v>43.19946538061087</v>
       </c>
       <c r="V406" t="n">
-        <v>45.05645751953125</v>
+        <v>45.05645370483398</v>
       </c>
       <c r="W406" t="n">
         <v>62621100</v>
@@ -26178,7 +26178,7 @@
       <c r="D407" t="inlineStr"/>
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="n">
-        <v>44.52868270874023</v>
+        <v>44.52867889404297</v>
       </c>
       <c r="G407" t="inlineStr"/>
       <c r="H407" t="inlineStr">
@@ -26197,16 +26197,16 @@
       <c r="Q407" t="inlineStr"/>
       <c r="R407" t="inlineStr"/>
       <c r="S407" t="n">
-        <v>45.16396675110601</v>
+        <v>45.16396288198503</v>
       </c>
       <c r="T407" t="n">
-        <v>45.89698938115215</v>
+        <v>45.89698544923435</v>
       </c>
       <c r="U407" t="n">
-        <v>44.19637896731882</v>
+        <v>44.19637518108945</v>
       </c>
       <c r="V407" t="n">
-        <v>44.52868270874023</v>
+        <v>44.52867889404297</v>
       </c>
       <c r="W407" t="n">
         <v>46946000</v>
@@ -26304,7 +26304,7 @@
       <c r="D409" t="inlineStr"/>
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="n">
-        <v>41.33270263671875</v>
+        <v>41.33270645141602</v>
       </c>
       <c r="G409" t="inlineStr"/>
       <c r="H409" t="inlineStr">
@@ -26323,16 +26323,16 @@
       <c r="Q409" t="inlineStr"/>
       <c r="R409" t="inlineStr"/>
       <c r="S409" t="n">
-        <v>41.68455408752435</v>
+        <v>41.68455793469485</v>
       </c>
       <c r="T409" t="n">
-        <v>41.76274122751125</v>
+        <v>41.76274508189784</v>
       </c>
       <c r="U409" t="n">
-        <v>40.76583002634399</v>
+        <v>40.76583378872319</v>
       </c>
       <c r="V409" t="n">
-        <v>41.33270263671875</v>
+        <v>41.33270645141602</v>
       </c>
       <c r="W409" t="n">
         <v>52588900</v>
@@ -26430,7 +26430,7 @@
       <c r="D411" t="inlineStr"/>
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="n">
-        <v>40.71820068359375</v>
+        <v>40.71819686889648</v>
       </c>
       <c r="G411" t="inlineStr"/>
       <c r="H411" t="inlineStr">
@@ -26449,16 +26449,16 @@
       <c r="Q411" t="inlineStr"/>
       <c r="R411" t="inlineStr"/>
       <c r="S411" t="n">
-        <v>40.62968270920824</v>
+        <v>40.6296789028038</v>
       </c>
       <c r="T411" t="n">
-        <v>41.04276408842431</v>
+        <v>41.04276024332021</v>
       </c>
       <c r="U411" t="n">
-        <v>39.94120999197366</v>
+        <v>39.94120625006902</v>
       </c>
       <c r="V411" t="n">
-        <v>40.71820068359375</v>
+        <v>40.71819686889648</v>
       </c>
       <c r="W411" t="n">
         <v>50651400</v>
@@ -26556,7 +26556,7 @@
       <c r="D413" t="inlineStr"/>
       <c r="E413" t="inlineStr"/>
       <c r="F413" t="n">
-        <v>38.95767974853516</v>
+        <v>38.95767593383789</v>
       </c>
       <c r="G413" t="inlineStr"/>
       <c r="H413" t="inlineStr">
@@ -26575,16 +26575,16 @@
       <c r="Q413" t="inlineStr"/>
       <c r="R413" t="inlineStr"/>
       <c r="S413" t="n">
-        <v>39.0461977255059</v>
+        <v>39.04619390214104</v>
       </c>
       <c r="T413" t="n">
-        <v>39.99038697861081</v>
+        <v>39.99038306279188</v>
       </c>
       <c r="U413" t="n">
-        <v>38.62327891907618</v>
+        <v>38.62327513712311</v>
       </c>
       <c r="V413" t="n">
-        <v>38.95767974853516</v>
+        <v>38.95767593383789</v>
       </c>
       <c r="W413" t="n">
         <v>50608400</v>
@@ -26619,7 +26619,7 @@
       <c r="D414" t="inlineStr"/>
       <c r="E414" t="inlineStr"/>
       <c r="F414" t="n">
-        <v>39.25273513793945</v>
+        <v>39.25273895263672</v>
       </c>
       <c r="G414" t="inlineStr"/>
       <c r="H414" t="inlineStr">
@@ -26638,16 +26638,16 @@
       <c r="Q414" t="inlineStr"/>
       <c r="R414" t="inlineStr"/>
       <c r="S414" t="n">
-        <v>39.64614916976422</v>
+        <v>39.64615302269463</v>
       </c>
       <c r="T414" t="n">
-        <v>39.83301877135014</v>
+        <v>39.83302264244109</v>
       </c>
       <c r="U414" t="n">
-        <v>38.55442879573104</v>
+        <v>38.55443254256483</v>
       </c>
       <c r="V414" t="n">
-        <v>39.25273513793945</v>
+        <v>39.25273895263672</v>
       </c>
       <c r="W414" t="n">
         <v>42290700</v>
@@ -27186,7 +27186,7 @@
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr"/>
       <c r="F423" t="n">
-        <v>42.56723785400391</v>
+        <v>42.56723403930664</v>
       </c>
       <c r="G423" t="inlineStr"/>
       <c r="H423" t="inlineStr">
@@ -27205,16 +27205,16 @@
       <c r="Q423" t="inlineStr"/>
       <c r="R423" t="inlineStr"/>
       <c r="S423" t="n">
-        <v>42.6360847519552</v>
+        <v>42.63608093108816</v>
       </c>
       <c r="T423" t="n">
-        <v>42.81312070436552</v>
+        <v>42.81311686763327</v>
       </c>
       <c r="U423" t="n">
-        <v>42.33119241870649</v>
+        <v>42.33118862516263</v>
       </c>
       <c r="V423" t="n">
-        <v>42.56723785400391</v>
+        <v>42.56723403930664</v>
       </c>
       <c r="W423" t="n">
         <v>25445300</v>
@@ -27249,7 +27249,7 @@
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr"/>
       <c r="F424" t="n">
-        <v>42.11481094360352</v>
+        <v>42.11481475830078</v>
       </c>
       <c r="G424" t="inlineStr"/>
       <c r="H424" t="inlineStr">
@@ -27268,16 +27268,16 @@
       <c r="Q424" t="inlineStr"/>
       <c r="R424" t="inlineStr"/>
       <c r="S424" t="n">
-        <v>42.74427038991742</v>
+        <v>42.74427426163019</v>
       </c>
       <c r="T424" t="n">
-        <v>42.99999063490385</v>
+        <v>42.99999452977938</v>
       </c>
       <c r="U424" t="n">
-        <v>42.02629297447348</v>
+        <v>42.02629678115292</v>
       </c>
       <c r="V424" t="n">
-        <v>42.11481094360352</v>
+        <v>42.11481475830078</v>
       </c>
       <c r="W424" t="n">
         <v>30012100</v>
@@ -27312,7 +27312,7 @@
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr"/>
       <c r="F425" t="n">
-        <v>41.85909652709961</v>
+        <v>41.85909271240234</v>
       </c>
       <c r="G425" t="inlineStr"/>
       <c r="H425" t="inlineStr">
@@ -27331,16 +27331,16 @@
       <c r="Q425" t="inlineStr"/>
       <c r="R425" t="inlineStr"/>
       <c r="S425" t="n">
-        <v>42.11481303289775</v>
+        <v>42.11480919489657</v>
       </c>
       <c r="T425" t="n">
-        <v>42.38036695346185</v>
+        <v>42.38036309126024</v>
       </c>
       <c r="U425" t="n">
-        <v>41.81975437178468</v>
+        <v>41.81975056067274</v>
       </c>
       <c r="V425" t="n">
-        <v>41.85909652709961</v>
+        <v>41.85909271240234</v>
       </c>
       <c r="W425" t="n">
         <v>25619200</v>
@@ -27438,7 +27438,7 @@
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr"/>
       <c r="F427" t="n">
-        <v>41.04276275634766</v>
+        <v>41.04276657104492</v>
       </c>
       <c r="G427" t="inlineStr"/>
       <c r="H427" t="inlineStr">
@@ -27457,16 +27457,16 @@
       <c r="Q427" t="inlineStr"/>
       <c r="R427" t="inlineStr"/>
       <c r="S427" t="n">
-        <v>40.10840722413133</v>
+        <v>40.10841095198543</v>
       </c>
       <c r="T427" t="n">
-        <v>41.20996503670447</v>
+        <v>41.20996886694226</v>
       </c>
       <c r="U427" t="n">
-        <v>39.93137128110616</v>
+        <v>39.93137499250575</v>
       </c>
       <c r="V427" t="n">
-        <v>41.04276275634766</v>
+        <v>41.04276657104492</v>
       </c>
       <c r="W427" t="n">
         <v>36390000</v>
@@ -27942,7 +27942,7 @@
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr"/>
       <c r="F435" t="n">
-        <v>35.25959396362305</v>
+        <v>35.25959777832031</v>
       </c>
       <c r="G435" t="inlineStr"/>
       <c r="H435" t="inlineStr">
@@ -27961,16 +27961,16 @@
       <c r="Q435" t="inlineStr"/>
       <c r="R435" t="inlineStr"/>
       <c r="S435" t="n">
-        <v>35.7218548537138</v>
+        <v>35.72185871842257</v>
       </c>
       <c r="T435" t="n">
-        <v>35.80053915495222</v>
+        <v>35.80054302817376</v>
       </c>
       <c r="U435" t="n">
-        <v>34.05968838472903</v>
+        <v>34.05969206960981</v>
       </c>
       <c r="V435" t="n">
-        <v>35.25959396362305</v>
+        <v>35.25959777832031</v>
       </c>
       <c r="W435" t="n">
         <v>90451800</v>
@@ -28005,7 +28005,7 @@
       <c r="D436" t="inlineStr"/>
       <c r="E436" t="inlineStr"/>
       <c r="F436" t="n">
-        <v>35.35795593261719</v>
+        <v>35.35795211791992</v>
       </c>
       <c r="G436" t="inlineStr"/>
       <c r="H436" t="inlineStr">
@@ -28024,16 +28024,16 @@
       <c r="Q436" t="inlineStr"/>
       <c r="R436" t="inlineStr"/>
       <c r="S436" t="n">
-        <v>34.62030735440629</v>
+        <v>34.62030361929241</v>
       </c>
       <c r="T436" t="n">
-        <v>35.63334353454935</v>
+        <v>35.63333969014109</v>
       </c>
       <c r="U436" t="n">
-        <v>34.23673069403657</v>
+        <v>34.236727000306</v>
       </c>
       <c r="V436" t="n">
-        <v>35.35795593261719</v>
+        <v>35.35795211791992</v>
       </c>
       <c r="W436" t="n">
         <v>63671900</v>
@@ -28068,7 +28068,7 @@
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr"/>
       <c r="F437" t="n">
-        <v>36.06609344482422</v>
+        <v>36.06608963012695</v>
       </c>
       <c r="G437" t="inlineStr"/>
       <c r="H437" t="inlineStr">
@@ -28087,16 +28087,16 @@
       <c r="Q437" t="inlineStr"/>
       <c r="R437" t="inlineStr"/>
       <c r="S437" t="n">
-        <v>35.88906125040114</v>
+        <v>35.8890574544285</v>
       </c>
       <c r="T437" t="n">
-        <v>36.38082693414431</v>
+        <v>36.3808230861578</v>
       </c>
       <c r="U437" t="n">
-        <v>35.67268314895433</v>
+        <v>35.67267937586793</v>
       </c>
       <c r="V437" t="n">
-        <v>36.06609344482422</v>
+        <v>36.06608963012695</v>
       </c>
       <c r="W437" t="n">
         <v>46830600</v>
@@ -28383,7 +28383,7 @@
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr"/>
       <c r="F442" t="n">
-        <v>37.68892288208008</v>
+        <v>37.68891906738281</v>
       </c>
       <c r="G442" t="inlineStr"/>
       <c r="H442" t="inlineStr">
@@ -28402,16 +28402,16 @@
       <c r="Q442" t="inlineStr"/>
       <c r="R442" t="inlineStr"/>
       <c r="S442" t="n">
-        <v>36.95127433336733</v>
+        <v>36.95127059333142</v>
       </c>
       <c r="T442" t="n">
-        <v>37.85612517076306</v>
+        <v>37.85612133914235</v>
       </c>
       <c r="U442" t="n">
-        <v>36.78407579655889</v>
+        <v>36.78407207344603</v>
       </c>
       <c r="V442" t="n">
-        <v>37.68892288208008</v>
+        <v>37.68891906738281</v>
       </c>
       <c r="W442" t="n">
         <v>42288900</v>
@@ -28509,7 +28509,7 @@
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr"/>
       <c r="F444" t="n">
-        <v>38.92817306518555</v>
+        <v>38.92816925048828</v>
       </c>
       <c r="G444" t="inlineStr"/>
       <c r="H444" t="inlineStr">
@@ -28528,16 +28528,16 @@
       <c r="Q444" t="inlineStr"/>
       <c r="R444" t="inlineStr"/>
       <c r="S444" t="n">
-        <v>38.02332226218603</v>
+        <v>38.02331853615801</v>
       </c>
       <c r="T444" t="n">
-        <v>39.0461957779683</v>
+        <v>39.04619195170561</v>
       </c>
       <c r="U444" t="n">
-        <v>37.96430902985745</v>
+        <v>37.96430530961234</v>
       </c>
       <c r="V444" t="n">
-        <v>38.92817306518555</v>
+        <v>38.92816925048828</v>
       </c>
       <c r="W444" t="n">
         <v>42457100</v>
@@ -28572,7 +28572,7 @@
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr"/>
       <c r="F445" t="n">
-        <v>39.03635787963867</v>
+        <v>39.03635406494141</v>
       </c>
       <c r="G445" t="inlineStr"/>
       <c r="H445" t="inlineStr">
@@ -28591,16 +28591,16 @@
       <c r="Q445" t="inlineStr"/>
       <c r="R445" t="inlineStr"/>
       <c r="S445" t="n">
-        <v>38.88883042845673</v>
+        <v>38.88882662817609</v>
       </c>
       <c r="T445" t="n">
-        <v>39.13471326563432</v>
+        <v>39.1347094413256</v>
       </c>
       <c r="U445" t="n">
-        <v>38.67245233114066</v>
+        <v>38.67244855200484</v>
       </c>
       <c r="V445" t="n">
-        <v>39.03635787963867</v>
+        <v>39.03635406494141</v>
       </c>
       <c r="W445" t="n">
         <v>32694200</v>
@@ -29013,7 +29013,7 @@
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr"/>
       <c r="F452" t="n">
-        <v>40.16742324829102</v>
+        <v>40.16741943359375</v>
       </c>
       <c r="G452" t="inlineStr"/>
       <c r="H452" t="inlineStr">
@@ -29032,16 +29032,16 @@
       <c r="Q452" t="inlineStr"/>
       <c r="R452" t="inlineStr"/>
       <c r="S452" t="n">
-        <v>39.98055362960591</v>
+        <v>39.98054983265564</v>
       </c>
       <c r="T452" t="n">
-        <v>40.59034205804512</v>
+        <v>40.59033820318329</v>
       </c>
       <c r="U452" t="n">
-        <v>39.89203565193936</v>
+        <v>39.89203186339564</v>
       </c>
       <c r="V452" t="n">
-        <v>40.16742324829102</v>
+        <v>40.16741943359375</v>
       </c>
       <c r="W452" t="n">
         <v>29541800</v>
@@ -29265,7 +29265,7 @@
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr"/>
       <c r="F456" t="n">
-        <v>42.64591598510742</v>
+        <v>42.64591979980469</v>
       </c>
       <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr">
@@ -29284,16 +29284,16 @@
       <c r="Q456" t="inlineStr"/>
       <c r="R456" t="inlineStr"/>
       <c r="S456" t="n">
-        <v>42.60657383430267</v>
+        <v>42.60657764548076</v>
       </c>
       <c r="T456" t="n">
-        <v>43.23603323968265</v>
+        <v>43.23603710716618</v>
       </c>
       <c r="U456" t="n">
-        <v>42.23283090540556</v>
+        <v>42.23283468315217</v>
       </c>
       <c r="V456" t="n">
-        <v>42.64591598510742</v>
+        <v>42.64591979980469</v>
       </c>
       <c r="W456" t="n">
         <v>44875100</v>
@@ -29328,7 +29328,7 @@
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr"/>
       <c r="F457" t="n">
-        <v>43.5507698059082</v>
+        <v>43.55076599121094</v>
       </c>
       <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
@@ -29347,16 +29347,16 @@
       <c r="Q457" t="inlineStr"/>
       <c r="R457" t="inlineStr"/>
       <c r="S457" t="n">
-        <v>42.70493218967338</v>
+        <v>42.70492844906469</v>
       </c>
       <c r="T457" t="n">
-        <v>43.75731425424723</v>
+        <v>43.75731042145833</v>
       </c>
       <c r="U457" t="n">
-        <v>42.70493218967338</v>
+        <v>42.70492844906469</v>
       </c>
       <c r="V457" t="n">
-        <v>43.5507698059082</v>
+        <v>43.55076599121094</v>
       </c>
       <c r="W457" t="n">
         <v>43232500</v>
@@ -29517,7 +29517,7 @@
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr"/>
       <c r="F460" t="n">
-        <v>43.95401382446289</v>
+        <v>43.95401763916016</v>
       </c>
       <c r="G460" t="inlineStr"/>
       <c r="H460" t="inlineStr">
@@ -29536,16 +29536,16 @@
       <c r="Q460" t="inlineStr"/>
       <c r="R460" t="inlineStr"/>
       <c r="S460" t="n">
-        <v>43.6097793594194</v>
+        <v>43.60978314424112</v>
       </c>
       <c r="T460" t="n">
-        <v>44.05236920867123</v>
+        <v>44.0523730319046</v>
       </c>
       <c r="U460" t="n">
-        <v>42.94097775429981</v>
+        <v>42.94098148107732</v>
       </c>
       <c r="V460" t="n">
-        <v>43.95401382446289</v>
+        <v>43.95401763916016</v>
       </c>
       <c r="W460" t="n">
         <v>49488100</v>
@@ -29580,7 +29580,7 @@
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="n">
-        <v>44.03269577026367</v>
+        <v>44.03269958496094</v>
       </c>
       <c r="G461" t="inlineStr"/>
       <c r="H461" t="inlineStr">
@@ -29599,16 +29599,16 @@
       <c r="Q461" t="inlineStr"/>
       <c r="R461" t="inlineStr"/>
       <c r="S461" t="n">
-        <v>43.38356527679998</v>
+        <v>43.38356903526093</v>
       </c>
       <c r="T461" t="n">
-        <v>44.39660129263181</v>
+        <v>44.39660513885541</v>
       </c>
       <c r="U461" t="n">
-        <v>43.38356527679998</v>
+        <v>43.38356903526093</v>
       </c>
       <c r="V461" t="n">
-        <v>44.03269577026367</v>
+        <v>44.03269958496094</v>
       </c>
       <c r="W461" t="n">
         <v>37915700</v>
@@ -29643,7 +29643,7 @@
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr"/>
       <c r="F462" t="n">
-        <v>43.95401382446289</v>
+        <v>43.95401763916016</v>
       </c>
       <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
@@ -29662,16 +29662,16 @@
       <c r="Q462" t="inlineStr"/>
       <c r="R462" t="inlineStr"/>
       <c r="S462" t="n">
-        <v>43.85566219212883</v>
+        <v>43.85566599829032</v>
       </c>
       <c r="T462" t="n">
-        <v>44.17039191784696</v>
+        <v>44.17039575132333</v>
       </c>
       <c r="U462" t="n">
-        <v>43.6786262524281</v>
+        <v>43.67863004322493</v>
       </c>
       <c r="V462" t="n">
-        <v>43.95401382446289</v>
+        <v>43.95401763916016</v>
       </c>
       <c r="W462" t="n">
         <v>33424300</v>
@@ -29895,7 +29895,7 @@
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr"/>
       <c r="F466" t="n">
-        <v>43.49176025390625</v>
+        <v>43.49175643920898</v>
       </c>
       <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
@@ -29914,16 +29914,16 @@
       <c r="Q466" t="inlineStr"/>
       <c r="R466" t="inlineStr"/>
       <c r="S466" t="n">
-        <v>43.06884144645367</v>
+        <v>43.06883766885095</v>
       </c>
       <c r="T466" t="n">
-        <v>43.49176025390625</v>
+        <v>43.49175643920898</v>
       </c>
       <c r="U466" t="n">
-        <v>42.58690940358633</v>
+        <v>42.58690566825426</v>
       </c>
       <c r="V466" t="n">
-        <v>43.49176025390625</v>
+        <v>43.49175643920898</v>
       </c>
       <c r="W466" t="n">
         <v>36322000</v>
@@ -30273,7 +30273,7 @@
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr"/>
       <c r="F472" t="n">
-        <v>43.62945175170898</v>
+        <v>43.62944793701172</v>
       </c>
       <c r="G472" t="inlineStr"/>
       <c r="H472" t="inlineStr">
@@ -30292,16 +30292,16 @@
       <c r="Q472" t="inlineStr"/>
       <c r="R472" t="inlineStr"/>
       <c r="S472" t="n">
-        <v>43.86549717717732</v>
+        <v>43.86549334184166</v>
       </c>
       <c r="T472" t="n">
-        <v>44.34742919464296</v>
+        <v>44.34742531717005</v>
       </c>
       <c r="U472" t="n">
-        <v>43.60978067427423</v>
+        <v>43.60977686129688</v>
       </c>
       <c r="V472" t="n">
-        <v>43.62945175170898</v>
+        <v>43.62944793701172</v>
       </c>
       <c r="W472" t="n">
         <v>30591700</v>
@@ -39093,7 +39093,7 @@
       <c r="D612" t="inlineStr"/>
       <c r="E612" t="inlineStr"/>
       <c r="F612" t="n">
-        <v>121.3811874389648</v>
+        <v>121.3811950683594</v>
       </c>
       <c r="G612" t="inlineStr"/>
       <c r="H612" t="inlineStr">
@@ -39122,16 +39122,16 @@
       <c r="AA612" t="inlineStr"/>
       <c r="AB612" t="inlineStr"/>
       <c r="AC612" t="n">
-        <v>123.0640682194769</v>
+        <v>123.0640759546486</v>
       </c>
       <c r="AD612" t="n">
-        <v>123.8130913623985</v>
+        <v>123.8130991446499</v>
       </c>
       <c r="AE612" t="n">
-        <v>120.8267136412853</v>
+        <v>120.8267212358284</v>
       </c>
       <c r="AF612" t="n">
-        <v>121.3811874389648</v>
+        <v>121.3811950683594</v>
       </c>
       <c r="AG612" t="n">
         <v>5014300</v>
@@ -39156,7 +39156,7 @@
       <c r="D613" t="inlineStr"/>
       <c r="E613" t="inlineStr"/>
       <c r="F613" t="n">
-        <v>122.5096054077148</v>
+        <v>122.5095977783203</v>
       </c>
       <c r="G613" t="inlineStr"/>
       <c r="H613" t="inlineStr">
@@ -39185,16 +39185,16 @@
       <c r="AA613" t="inlineStr"/>
       <c r="AB613" t="inlineStr"/>
       <c r="AC613" t="n">
-        <v>122.2275036367096</v>
+        <v>122.2274960248832</v>
       </c>
       <c r="AD613" t="n">
-        <v>122.5679687322047</v>
+        <v>122.5679610991756</v>
       </c>
       <c r="AE613" t="n">
-        <v>120.7002681327033</v>
+        <v>120.7002606159869</v>
       </c>
       <c r="AF613" t="n">
-        <v>122.5096054077148</v>
+        <v>122.5095977783203</v>
       </c>
       <c r="AG613" t="n">
         <v>3988400</v>
@@ -39219,7 +39219,7 @@
       <c r="D614" t="inlineStr"/>
       <c r="E614" t="inlineStr"/>
       <c r="F614" t="n">
-        <v>125.1360473632812</v>
+        <v>125.1360549926758</v>
       </c>
       <c r="G614" t="inlineStr"/>
       <c r="H614" t="inlineStr">
@@ -39248,16 +39248,16 @@
       <c r="AA614" t="inlineStr"/>
       <c r="AB614" t="inlineStr"/>
       <c r="AC614" t="n">
-        <v>124.1535561027401</v>
+        <v>124.1535636722333</v>
       </c>
       <c r="AD614" t="n">
-        <v>126.4103626409223</v>
+        <v>126.4103703480103</v>
       </c>
       <c r="AE614" t="n">
-        <v>124.1535561027401</v>
+        <v>124.1535636722333</v>
       </c>
       <c r="AF614" t="n">
-        <v>125.1360473632812</v>
+        <v>125.1360549926758</v>
       </c>
       <c r="AG614" t="n">
         <v>6665200</v>
@@ -39345,7 +39345,7 @@
       <c r="D616" t="inlineStr"/>
       <c r="E616" t="inlineStr"/>
       <c r="F616" t="n">
-        <v>124.3772888183594</v>
+        <v>124.3772964477539</v>
       </c>
       <c r="G616" t="inlineStr"/>
       <c r="H616" t="inlineStr">
@@ -39374,16 +39374,16 @@
       <c r="AA616" t="inlineStr"/>
       <c r="AB616" t="inlineStr"/>
       <c r="AC616" t="n">
-        <v>123.4531683409306</v>
+        <v>123.4531759136389</v>
       </c>
       <c r="AD616" t="n">
-        <v>124.5134748377366</v>
+        <v>124.5134824754849</v>
       </c>
       <c r="AE616" t="n">
-        <v>122.334491106119</v>
+        <v>122.3344986102069</v>
       </c>
       <c r="AF616" t="n">
-        <v>124.3772888183594</v>
+        <v>124.3772964477539</v>
       </c>
       <c r="AG616" t="n">
         <v>5744500</v>
@@ -39408,7 +39408,7 @@
       <c r="D617" t="inlineStr"/>
       <c r="E617" t="inlineStr"/>
       <c r="F617" t="n">
-        <v>120.0874176025391</v>
+        <v>120.0874099731445</v>
       </c>
       <c r="G617" t="inlineStr"/>
       <c r="H617" t="inlineStr">
@@ -39437,16 +39437,16 @@
       <c r="AA617" t="inlineStr"/>
       <c r="AB617" t="inlineStr"/>
       <c r="AC617" t="n">
-        <v>122.8695163966184</v>
+        <v>122.8695085904716</v>
       </c>
       <c r="AD617" t="n">
-        <v>123.0543434771425</v>
+        <v>123.0543356592532</v>
       </c>
       <c r="AE617" t="n">
-        <v>119.9317796043994</v>
+        <v>119.9317719848928</v>
       </c>
       <c r="AF617" t="n">
-        <v>120.0874176025391</v>
+        <v>120.0874099731445</v>
       </c>
       <c r="AG617" t="n">
         <v>6873800</v>
@@ -39471,7 +39471,7 @@
       <c r="D618" t="inlineStr"/>
       <c r="E618" t="inlineStr"/>
       <c r="F618" t="n">
-        <v>120.6127014160156</v>
+        <v>120.6127090454102</v>
       </c>
       <c r="G618" t="inlineStr"/>
       <c r="H618" t="inlineStr">
@@ -39500,16 +39500,16 @@
       <c r="AA618" t="inlineStr"/>
       <c r="AB618" t="inlineStr"/>
       <c r="AC618" t="n">
-        <v>119.1146477519695</v>
+        <v>119.1146552866042</v>
       </c>
       <c r="AD618" t="n">
-        <v>120.9142625404648</v>
+        <v>120.9142701889347</v>
       </c>
       <c r="AE618" t="n">
-        <v>119.1146477519695</v>
+        <v>119.1146552866042</v>
       </c>
       <c r="AF618" t="n">
-        <v>120.6127014160156</v>
+        <v>120.6127090454102</v>
       </c>
       <c r="AG618" t="n">
         <v>5433000</v>
@@ -39786,7 +39786,7 @@
       <c r="D623" t="inlineStr"/>
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="n">
-        <v>133.5601806640625</v>
+        <v>133.5601654052734</v>
       </c>
       <c r="G623" t="inlineStr"/>
       <c r="H623" t="inlineStr">
@@ -39815,16 +39815,16 @@
       <c r="AA623" t="inlineStr"/>
       <c r="AB623" t="inlineStr"/>
       <c r="AC623" t="n">
-        <v>132.7236050316027</v>
+        <v>132.7235898683895</v>
       </c>
       <c r="AD623" t="n">
-        <v>133.8714566809592</v>
+        <v>133.8714413866079</v>
       </c>
       <c r="AE623" t="n">
-        <v>131.6049202018162</v>
+        <v>131.6049051664089</v>
       </c>
       <c r="AF623" t="n">
-        <v>133.5601806640625</v>
+        <v>133.5601654052734</v>
       </c>
       <c r="AG623" t="n">
         <v>11213300</v>
@@ -40101,7 +40101,7 @@
       <c r="D628" t="inlineStr"/>
       <c r="E628" t="inlineStr"/>
       <c r="F628" t="n">
-        <v>134.7663879394531</v>
+        <v>134.7664031982422</v>
       </c>
       <c r="G628" t="inlineStr"/>
       <c r="H628" t="inlineStr">
@@ -40130,16 +40130,16 @@
       <c r="AA628" t="inlineStr"/>
       <c r="AB628" t="inlineStr"/>
       <c r="AC628" t="n">
-        <v>132.3636804002603</v>
+        <v>132.3636953870052</v>
       </c>
       <c r="AD628" t="n">
-        <v>135.058219393297</v>
+        <v>135.0582346851284</v>
       </c>
       <c r="AE628" t="n">
-        <v>131.9453851863457</v>
+        <v>131.9454001257296</v>
       </c>
       <c r="AF628" t="n">
-        <v>134.7663879394531</v>
+        <v>134.7664031982422</v>
       </c>
       <c r="AG628" t="n">
         <v>5885100</v>
@@ -40227,7 +40227,7 @@
       <c r="D630" t="inlineStr"/>
       <c r="E630" t="inlineStr"/>
       <c r="F630" t="n">
-        <v>136.1282501220703</v>
+        <v>136.1282653808594</v>
       </c>
       <c r="G630" t="inlineStr"/>
       <c r="H630" t="inlineStr">
@@ -40256,16 +40256,16 @@
       <c r="AA630" t="inlineStr"/>
       <c r="AB630" t="inlineStr"/>
       <c r="AC630" t="n">
-        <v>136.0017863740651</v>
+        <v>136.0018016186787</v>
       </c>
       <c r="AD630" t="n">
-        <v>136.6632719292118</v>
+        <v>136.6632872479722</v>
       </c>
       <c r="AE630" t="n">
-        <v>135.1068475526479</v>
+        <v>135.1068626969467</v>
       </c>
       <c r="AF630" t="n">
-        <v>136.1282501220703</v>
+        <v>136.1282653808594</v>
       </c>
       <c r="AG630" t="n">
         <v>4545700</v>
@@ -40416,7 +40416,7 @@
       <c r="D633" t="inlineStr"/>
       <c r="E633" t="inlineStr"/>
       <c r="F633" t="n">
-        <v>133.9298706054688</v>
+        <v>133.9298858642578</v>
       </c>
       <c r="G633" t="inlineStr"/>
       <c r="H633" t="inlineStr">
@@ -40445,16 +40445,16 @@
       <c r="AA633" t="inlineStr"/>
       <c r="AB633" t="inlineStr"/>
       <c r="AC633" t="n">
-        <v>134.8699271042961</v>
+        <v>134.8699424701869</v>
       </c>
       <c r="AD633" t="n">
-        <v>135.0168212048138</v>
+        <v>135.0168365874404</v>
       </c>
       <c r="AE633" t="n">
-        <v>133.4598274141264</v>
+        <v>133.4598426193629</v>
       </c>
       <c r="AF633" t="n">
-        <v>133.9298706054688</v>
+        <v>133.9298858642578</v>
       </c>
       <c r="AG633" t="n">
         <v>5997300</v>
@@ -40668,7 +40668,7 @@
       <c r="D637" t="inlineStr"/>
       <c r="E637" t="inlineStr"/>
       <c r="F637" t="n">
-        <v>134.4586639404297</v>
+        <v>134.4586486816406</v>
       </c>
       <c r="G637" t="inlineStr"/>
       <c r="H637" t="inlineStr">
@@ -40697,16 +40697,16 @@
       <c r="AA637" t="inlineStr"/>
       <c r="AB637" t="inlineStr"/>
       <c r="AC637" t="n">
-        <v>137.3376152715911</v>
+        <v>137.3375996860897</v>
       </c>
       <c r="AD637" t="n">
-        <v>137.3963669408915</v>
+        <v>137.3963513487228</v>
       </c>
       <c r="AE637" t="n">
-        <v>132.7939685618873</v>
+        <v>132.7939534920131</v>
       </c>
       <c r="AF637" t="n">
-        <v>134.4586639404297</v>
+        <v>134.4586486816406</v>
       </c>
       <c r="AG637" t="n">
         <v>5517700</v>
@@ -40794,7 +40794,7 @@
       <c r="D639" t="inlineStr"/>
       <c r="E639" t="inlineStr"/>
       <c r="F639" t="n">
-        <v>134.2628021240234</v>
+        <v>134.2628173828125</v>
       </c>
       <c r="G639" t="inlineStr"/>
       <c r="H639" t="inlineStr">
@@ -40823,16 +40823,16 @@
       <c r="AA639" t="inlineStr"/>
       <c r="AB639" t="inlineStr"/>
       <c r="AC639" t="n">
-        <v>133.2541920906406</v>
+        <v>133.2542072348025</v>
       </c>
       <c r="AD639" t="n">
-        <v>134.4292701454438</v>
+        <v>134.4292854231517</v>
       </c>
       <c r="AE639" t="n">
-        <v>132.784163857105</v>
+        <v>132.7841789478488</v>
       </c>
       <c r="AF639" t="n">
-        <v>134.2628021240234</v>
+        <v>134.2628173828125</v>
       </c>
       <c r="AG639" t="n">
         <v>4688900</v>
@@ -41046,7 +41046,7 @@
       <c r="D643" t="inlineStr"/>
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="n">
-        <v>137.7684936523438</v>
+        <v>137.7684783935547</v>
       </c>
       <c r="G643" t="inlineStr"/>
       <c r="H643" t="inlineStr">
@@ -41075,16 +41075,16 @@
       <c r="AA643" t="inlineStr"/>
       <c r="AB643" t="inlineStr"/>
       <c r="AC643" t="n">
-        <v>137.1026064734988</v>
+        <v>137.1025912884612</v>
       </c>
       <c r="AD643" t="n">
-        <v>138.0035003515219</v>
+        <v>138.0034850667042</v>
       </c>
       <c r="AE643" t="n">
-        <v>136.3681806547041</v>
+        <v>136.3681655510092</v>
       </c>
       <c r="AF643" t="n">
-        <v>137.7684936523438</v>
+        <v>137.7684783935547</v>
       </c>
       <c r="AG643" t="n">
         <v>3623100</v>
@@ -41109,7 +41109,7 @@
       <c r="D644" t="inlineStr"/>
       <c r="E644" t="inlineStr"/>
       <c r="F644" t="n">
-        <v>131.5503234863281</v>
+        <v>131.5503387451172</v>
       </c>
       <c r="G644" t="inlineStr"/>
       <c r="H644" t="inlineStr">
@@ -41138,16 +41138,16 @@
       <c r="AA644" t="inlineStr"/>
       <c r="AB644" t="inlineStr"/>
       <c r="AC644" t="n">
-        <v>137.337601398711</v>
+        <v>137.3376173287782</v>
       </c>
       <c r="AD644" t="n">
-        <v>138.1405806431857</v>
+        <v>138.1405966663921</v>
       </c>
       <c r="AE644" t="n">
-        <v>129.6799825122329</v>
+        <v>129.6799975540773</v>
       </c>
       <c r="AF644" t="n">
-        <v>131.5503234863281</v>
+        <v>131.5503387451172</v>
       </c>
       <c r="AG644" t="n">
         <v>8860800</v>
@@ -41172,7 +41172,7 @@
       <c r="D645" t="inlineStr"/>
       <c r="E645" t="inlineStr"/>
       <c r="F645" t="n">
-        <v>128.9553680419922</v>
+        <v>128.9553527832031</v>
       </c>
       <c r="G645" t="inlineStr"/>
       <c r="H645" t="inlineStr">
@@ -41201,16 +41201,16 @@
       <c r="AA645" t="inlineStr"/>
       <c r="AB645" t="inlineStr"/>
       <c r="AC645" t="n">
-        <v>132.3728862042918</v>
+        <v>132.372870541121</v>
       </c>
       <c r="AD645" t="n">
-        <v>132.7841777613723</v>
+        <v>132.784162049535</v>
       </c>
       <c r="AE645" t="n">
-        <v>128.1915664792936</v>
+        <v>128.1915513108822</v>
       </c>
       <c r="AF645" t="n">
-        <v>128.9553680419922</v>
+        <v>128.9553527832031</v>
       </c>
       <c r="AG645" t="n">
         <v>6704100</v>
@@ -41361,7 +41361,7 @@
       <c r="D648" t="inlineStr"/>
       <c r="E648" t="inlineStr"/>
       <c r="F648" t="n">
-        <v>128.3286437988281</v>
+        <v>128.3286590576172</v>
       </c>
       <c r="G648" t="inlineStr"/>
       <c r="H648" t="inlineStr">
@@ -41390,16 +41390,16 @@
       <c r="AA648" t="inlineStr"/>
       <c r="AB648" t="inlineStr"/>
       <c r="AC648" t="n">
-        <v>127.7019345138751</v>
+        <v>127.7019496981459</v>
       </c>
       <c r="AD648" t="n">
-        <v>129.4939348775521</v>
+        <v>129.4939502748989</v>
       </c>
       <c r="AE648" t="n">
-        <v>127.4473240612227</v>
+        <v>127.4473392152193</v>
       </c>
       <c r="AF648" t="n">
-        <v>128.3286437988281</v>
+        <v>128.3286590576172</v>
       </c>
       <c r="AG648" t="n">
         <v>5493600</v>
@@ -41424,7 +41424,7 @@
       <c r="D649" t="inlineStr"/>
       <c r="E649" t="inlineStr"/>
       <c r="F649" t="n">
-        <v>126.5562515258789</v>
+        <v>126.5562438964844</v>
       </c>
       <c r="G649" t="inlineStr"/>
       <c r="H649" t="inlineStr">
@@ -41453,16 +41453,16 @@
       <c r="AA649" t="inlineStr"/>
       <c r="AB649" t="inlineStr"/>
       <c r="AC649" t="n">
-        <v>129.0630890464651</v>
+        <v>129.0630812659468</v>
       </c>
       <c r="AD649" t="n">
-        <v>130.1108620208354</v>
+        <v>130.1108541771526</v>
       </c>
       <c r="AE649" t="n">
-        <v>126.1351729897249</v>
+        <v>126.1351653857149</v>
       </c>
       <c r="AF649" t="n">
-        <v>126.5562515258789</v>
+        <v>126.5562438964844</v>
       </c>
       <c r="AG649" t="n">
         <v>5538700</v>
@@ -41487,7 +41487,7 @@
       <c r="D650" t="inlineStr"/>
       <c r="E650" t="inlineStr"/>
       <c r="F650" t="n">
-        <v>130.3458862304688</v>
+        <v>130.3458709716797</v>
       </c>
       <c r="G650" t="inlineStr"/>
       <c r="H650" t="inlineStr">
@@ -41516,16 +41516,16 @@
       <c r="AA650" t="inlineStr"/>
       <c r="AB650" t="inlineStr"/>
       <c r="AC650" t="n">
-        <v>127.2025373610658</v>
+        <v>127.2025224702492</v>
       </c>
       <c r="AD650" t="n">
-        <v>130.6396595267944</v>
+        <v>130.6396442336151</v>
       </c>
       <c r="AE650" t="n">
-        <v>126.3114454495163</v>
+        <v>126.3114306630143</v>
       </c>
       <c r="AF650" t="n">
-        <v>130.3458862304688</v>
+        <v>130.3458709716797</v>
       </c>
       <c r="AG650" t="n">
         <v>7424200</v>
@@ -41550,7 +41550,7 @@
       <c r="D651" t="inlineStr"/>
       <c r="E651" t="inlineStr"/>
       <c r="F651" t="n">
-        <v>126.4485321044922</v>
+        <v>126.4485397338867</v>
       </c>
       <c r="G651" t="inlineStr"/>
       <c r="H651" t="inlineStr">
@@ -41579,16 +41579,16 @@
       <c r="AA651" t="inlineStr"/>
       <c r="AB651" t="inlineStr"/>
       <c r="AC651" t="n">
-        <v>130.5613132464935</v>
+        <v>130.5613211240367</v>
       </c>
       <c r="AD651" t="n">
-        <v>131.2076114816176</v>
+        <v>131.2076193981557</v>
       </c>
       <c r="AE651" t="n">
-        <v>125.0776025668368</v>
+        <v>125.0776101135149</v>
       </c>
       <c r="AF651" t="n">
-        <v>126.4485321044922</v>
+        <v>126.4485397338867</v>
       </c>
       <c r="AG651" t="n">
         <v>5969400</v>
@@ -41739,7 +41739,7 @@
       <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr"/>
       <c r="F654" t="n">
-        <v>116.8911972045898</v>
+        <v>116.8912048339844</v>
       </c>
       <c r="G654" t="inlineStr"/>
       <c r="H654" t="inlineStr">
@@ -41768,16 +41768,16 @@
       <c r="AA654" t="inlineStr"/>
       <c r="AB654" t="inlineStr"/>
       <c r="AC654" t="n">
-        <v>118.2915025059962</v>
+        <v>118.2915102267875</v>
       </c>
       <c r="AD654" t="n">
-        <v>120.5731126714077</v>
+        <v>120.5731205411179</v>
       </c>
       <c r="AE654" t="n">
-        <v>116.1371826348517</v>
+        <v>116.1371902150323</v>
       </c>
       <c r="AF654" t="n">
-        <v>116.8911972045898</v>
+        <v>116.8912048339844</v>
       </c>
       <c r="AG654" t="n">
         <v>8611500</v>
@@ -41802,7 +41802,7 @@
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr"/>
       <c r="F655" t="n">
-        <v>116.8128662109375</v>
+        <v>116.812858581543</v>
       </c>
       <c r="G655" t="inlineStr"/>
       <c r="H655" t="inlineStr">
@@ -41831,16 +41831,16 @@
       <c r="AA655" t="inlineStr"/>
       <c r="AB655" t="inlineStr"/>
       <c r="AC655" t="n">
-        <v>116.264497367041</v>
+        <v>116.264489773462</v>
       </c>
       <c r="AD655" t="n">
-        <v>117.0087100920534</v>
+        <v>117.0087024498677</v>
       </c>
       <c r="AE655" t="n">
-        <v>113.0526024315987</v>
+        <v>113.0525950477981</v>
       </c>
       <c r="AF655" t="n">
-        <v>116.8128662109375</v>
+        <v>116.812858581543</v>
       </c>
       <c r="AG655" t="n">
         <v>8513500</v>
@@ -41865,7 +41865,7 @@
       <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="n">
-        <v>109.3706741333008</v>
+        <v>109.3706817626953</v>
       </c>
       <c r="G656" t="inlineStr"/>
       <c r="H656" t="inlineStr">
@@ -41894,16 +41894,16 @@
       <c r="AA656" t="inlineStr"/>
       <c r="AB656" t="inlineStr"/>
       <c r="AC656" t="n">
-        <v>113.5911712968099</v>
+        <v>113.5911792206146</v>
       </c>
       <c r="AD656" t="n">
-        <v>113.8653556873444</v>
+        <v>113.8653636302755</v>
       </c>
       <c r="AE656" t="n">
-        <v>106.9519643767127</v>
+        <v>106.9519718373847</v>
       </c>
       <c r="AF656" t="n">
-        <v>109.3706741333008</v>
+        <v>109.3706817626953</v>
       </c>
       <c r="AG656" t="n">
         <v>16765700</v>
@@ -41928,7 +41928,7 @@
       <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="n">
-        <v>109.7134094238281</v>
+        <v>109.7134170532227</v>
       </c>
       <c r="G657" t="inlineStr"/>
       <c r="H657" t="inlineStr">
@@ -41957,16 +41957,16 @@
       <c r="AA657" t="inlineStr"/>
       <c r="AB657" t="inlineStr"/>
       <c r="AC657" t="n">
-        <v>109.3902603189971</v>
+        <v>109.3902679259201</v>
       </c>
       <c r="AD657" t="n">
-        <v>111.1528850081074</v>
+        <v>111.1528927376021</v>
       </c>
       <c r="AE657" t="n">
-        <v>108.048706668343</v>
+        <v>108.0487141819752</v>
       </c>
       <c r="AF657" t="n">
-        <v>109.7134094238281</v>
+        <v>109.7134170532227</v>
       </c>
       <c r="AG657" t="n">
         <v>13490400</v>
@@ -42180,7 +42180,7 @@
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr"/>
       <c r="F661" t="n">
-        <v>115.5104675292969</v>
+        <v>115.5104827880859</v>
       </c>
       <c r="G661" t="inlineStr"/>
       <c r="H661" t="inlineStr">
@@ -42209,16 +42209,16 @@
       <c r="AA661" t="inlineStr"/>
       <c r="AB661" t="inlineStr"/>
       <c r="AC661" t="n">
-        <v>112.582559307559</v>
+        <v>112.582574179575</v>
       </c>
       <c r="AD661" t="n">
-        <v>116.8226452671195</v>
+        <v>116.8226606992456</v>
       </c>
       <c r="AE661" t="n">
-        <v>112.4552540777242</v>
+        <v>112.4552689329234</v>
       </c>
       <c r="AF661" t="n">
-        <v>115.5104675292969</v>
+        <v>115.5104827880859</v>
       </c>
       <c r="AG661" t="n">
         <v>8374900</v>
@@ -42306,7 +42306,7 @@
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr"/>
       <c r="F663" t="n">
-        <v>117.3612289428711</v>
+        <v>117.3612365722656</v>
       </c>
       <c r="G663" t="inlineStr"/>
       <c r="H663" t="inlineStr">
@@ -42335,16 +42335,16 @@
       <c r="AA663" t="inlineStr"/>
       <c r="AB663" t="inlineStr"/>
       <c r="AC663" t="n">
-        <v>114.7956398674249</v>
+        <v>114.7956473300362</v>
       </c>
       <c r="AD663" t="n">
-        <v>118.732158452182</v>
+        <v>118.7321661706977</v>
       </c>
       <c r="AE663" t="n">
-        <v>113.8164055709121</v>
+        <v>113.8164129698655</v>
       </c>
       <c r="AF663" t="n">
-        <v>117.3612289428711</v>
+        <v>117.3612365722656</v>
       </c>
       <c r="AG663" t="n">
         <v>8430800</v>
@@ -42369,7 +42369,7 @@
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr"/>
       <c r="F664" t="n">
-        <v>117.9683532714844</v>
+        <v>117.9683609008789</v>
       </c>
       <c r="G664" t="inlineStr"/>
       <c r="H664" t="inlineStr">
@@ -42398,16 +42398,16 @@
       <c r="AA664" t="inlineStr"/>
       <c r="AB664" t="inlineStr"/>
       <c r="AC664" t="n">
-        <v>116.3526152376914</v>
+        <v>116.352622762591</v>
       </c>
       <c r="AD664" t="n">
-        <v>119.2805236024299</v>
+        <v>119.2805313166867</v>
       </c>
       <c r="AE664" t="n">
-        <v>116.3526152376914</v>
+        <v>116.352622762591</v>
       </c>
       <c r="AF664" t="n">
-        <v>117.9683532714844</v>
+        <v>117.9683609008789</v>
       </c>
       <c r="AG664" t="n">
         <v>7026000</v>
@@ -42495,7 +42495,7 @@
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr"/>
       <c r="F666" t="n">
-        <v>121.6894378662109</v>
+        <v>121.6894454956055</v>
       </c>
       <c r="G666" t="inlineStr"/>
       <c r="H666" t="inlineStr">
@@ -42524,16 +42524,16 @@
       <c r="AA666" t="inlineStr"/>
       <c r="AB666" t="inlineStr"/>
       <c r="AC666" t="n">
-        <v>119.7701396184382</v>
+        <v>119.7701471275011</v>
       </c>
       <c r="AD666" t="n">
-        <v>122.2280196961063</v>
+        <v>122.2280273592675</v>
       </c>
       <c r="AE666" t="n">
-        <v>119.4665793893869</v>
+        <v>119.4665868794179</v>
       </c>
       <c r="AF666" t="n">
-        <v>121.6894378662109</v>
+        <v>121.6894454956055</v>
       </c>
       <c r="AG666" t="n">
         <v>6184400</v>
@@ -42873,7 +42873,7 @@
       <c r="D672" t="inlineStr"/>
       <c r="E672" t="inlineStr"/>
       <c r="F672" t="n">
-        <v>113.3365783691406</v>
+        <v>113.3365707397461</v>
       </c>
       <c r="G672" t="inlineStr"/>
       <c r="H672" t="inlineStr">
@@ -42902,16 +42902,16 @@
       <c r="AA672" t="inlineStr"/>
       <c r="AB672" t="inlineStr"/>
       <c r="AC672" t="n">
-        <v>113.5813869497113</v>
+        <v>113.5813793038372</v>
       </c>
       <c r="AD672" t="n">
-        <v>114.4529048988658</v>
+        <v>114.4528971943244</v>
       </c>
       <c r="AE672" t="n">
-        <v>111.1822658485045</v>
+        <v>111.1822583641302</v>
       </c>
       <c r="AF672" t="n">
-        <v>113.3365783691406</v>
+        <v>113.3365707397461</v>
       </c>
       <c r="AG672" t="n">
         <v>6651000</v>
@@ -42999,7 +42999,7 @@
       <c r="D674" t="inlineStr"/>
       <c r="E674" t="inlineStr"/>
       <c r="F674" t="n">
-        <v>105.6887664794922</v>
+        <v>105.6887588500977</v>
       </c>
       <c r="G674" t="inlineStr"/>
       <c r="H674" t="inlineStr">
@@ -43028,16 +43028,16 @@
       <c r="AA674" t="inlineStr"/>
       <c r="AB674" t="inlineStr"/>
       <c r="AC674" t="n">
-        <v>107.8234977175861</v>
+        <v>107.8234899340909</v>
       </c>
       <c r="AD674" t="n">
-        <v>109.0769165232623</v>
+        <v>109.0769086492861</v>
       </c>
       <c r="AE674" t="n">
-        <v>104.6605673965106</v>
+        <v>104.6605598413391</v>
       </c>
       <c r="AF674" t="n">
-        <v>105.6887664794922</v>
+        <v>105.6887588500977</v>
       </c>
       <c r="AG674" t="n">
         <v>15186100</v>
@@ -43125,7 +43125,7 @@
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr"/>
       <c r="F676" t="n">
-        <v>98.82432556152344</v>
+        <v>98.82431793212891</v>
       </c>
       <c r="G676" t="inlineStr"/>
       <c r="H676" t="inlineStr">
@@ -43154,16 +43154,16 @@
       <c r="AA676" t="inlineStr"/>
       <c r="AB676" t="inlineStr"/>
       <c r="AC676" t="n">
-        <v>94.27088448946004</v>
+        <v>94.27087721159839</v>
       </c>
       <c r="AD676" t="n">
-        <v>102.1733051354417</v>
+        <v>102.1732972475006</v>
       </c>
       <c r="AE676" t="n">
-        <v>92.37117499314233</v>
+        <v>92.37116786194125</v>
       </c>
       <c r="AF676" t="n">
-        <v>98.82432556152344</v>
+        <v>98.82431793212891</v>
       </c>
       <c r="AG676" t="n">
         <v>20721400</v>
@@ -43188,7 +43188,7 @@
       <c r="D677" t="inlineStr"/>
       <c r="E677" t="inlineStr"/>
       <c r="F677" t="n">
-        <v>98.22699737548828</v>
+        <v>98.22698974609375</v>
       </c>
       <c r="G677" t="inlineStr"/>
       <c r="H677" t="inlineStr">
@@ -43217,16 +43217,16 @@
       <c r="AA677" t="inlineStr"/>
       <c r="AB677" t="inlineStr"/>
       <c r="AC677" t="n">
-        <v>103.0350417237092</v>
+        <v>103.0350337208688</v>
       </c>
       <c r="AD677" t="n">
-        <v>104.7193260373755</v>
+        <v>104.719317903715</v>
       </c>
       <c r="AE677" t="n">
-        <v>96.22935836190493</v>
+        <v>96.22935088766913</v>
       </c>
       <c r="AF677" t="n">
-        <v>98.22699737548828</v>
+        <v>98.22698974609375</v>
       </c>
       <c r="AG677" t="n">
         <v>10710100</v>
@@ -43251,7 +43251,7 @@
       <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr"/>
       <c r="F678" t="n">
-        <v>109.3804626464844</v>
+        <v>109.3804702758789</v>
       </c>
       <c r="G678" t="inlineStr"/>
       <c r="H678" t="inlineStr">
@@ -43280,16 +43280,16 @@
       <c r="AA678" t="inlineStr"/>
       <c r="AB678" t="inlineStr"/>
       <c r="AC678" t="n">
-        <v>96.16080028237742</v>
+        <v>96.16080698968754</v>
       </c>
       <c r="AD678" t="n">
-        <v>111.5347824772879</v>
+        <v>111.5347902569483</v>
       </c>
       <c r="AE678" t="n">
-        <v>95.85724005583617</v>
+        <v>95.85724674197267</v>
       </c>
       <c r="AF678" t="n">
-        <v>109.3804626464844</v>
+        <v>109.3804702758789</v>
       </c>
       <c r="AG678" t="n">
         <v>16919500</v>
@@ -43314,7 +43314,7 @@
       <c r="D679" t="inlineStr"/>
       <c r="E679" t="inlineStr"/>
       <c r="F679" t="n">
-        <v>104.3667984008789</v>
+        <v>104.3667907714844</v>
       </c>
       <c r="G679" t="inlineStr"/>
       <c r="H679" t="inlineStr">
@@ -43343,16 +43343,16 @@
       <c r="AA679" t="inlineStr"/>
       <c r="AB679" t="inlineStr"/>
       <c r="AC679" t="n">
-        <v>106.5113165385921</v>
+        <v>106.5113087524295</v>
       </c>
       <c r="AD679" t="n">
-        <v>106.6092459499747</v>
+        <v>106.6092381566533</v>
       </c>
       <c r="AE679" t="n">
-        <v>101.2626273167584</v>
+        <v>101.2626199142842</v>
       </c>
       <c r="AF679" t="n">
-        <v>104.3667984008789</v>
+        <v>104.3667907714844</v>
       </c>
       <c r="AG679" t="n">
         <v>10956700</v>
@@ -43503,7 +43503,7 @@
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr"/>
       <c r="F682" t="n">
-        <v>108.1466445922852</v>
+        <v>108.1466293334961</v>
       </c>
       <c r="G682" t="inlineStr"/>
       <c r="H682" t="inlineStr">
@@ -43532,16 +43532,16 @@
       <c r="AA682" t="inlineStr"/>
       <c r="AB682" t="inlineStr"/>
       <c r="AC682" t="n">
-        <v>107.8039065911508</v>
+        <v>107.8038913807199</v>
       </c>
       <c r="AD682" t="n">
-        <v>109.8211344433671</v>
+        <v>109.8211189483184</v>
       </c>
       <c r="AE682" t="n">
-        <v>107.7745307558457</v>
+        <v>107.7745155495595</v>
       </c>
       <c r="AF682" t="n">
-        <v>108.1466445922852</v>
+        <v>108.1466293334961</v>
       </c>
       <c r="AG682" t="n">
         <v>6003800</v>
@@ -43566,7 +43566,7 @@
       <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr"/>
       <c r="F683" t="n">
-        <v>105.6202163696289</v>
+        <v>105.6202087402344</v>
       </c>
       <c r="G683" t="inlineStr"/>
       <c r="H683" t="inlineStr">
@@ -43595,16 +43595,16 @@
       <c r="AA683" t="inlineStr"/>
       <c r="AB683" t="inlineStr"/>
       <c r="AC683" t="n">
-        <v>107.3045006275436</v>
+        <v>107.3044928764862</v>
       </c>
       <c r="AD683" t="n">
-        <v>108.0291319463098</v>
+        <v>108.0291241429092</v>
       </c>
       <c r="AE683" t="n">
-        <v>104.4353437163203</v>
+        <v>104.4353361725141</v>
       </c>
       <c r="AF683" t="n">
-        <v>105.6202163696289</v>
+        <v>105.6202087402344</v>
       </c>
       <c r="AG683" t="n">
         <v>6520100</v>
@@ -43629,7 +43629,7 @@
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr"/>
       <c r="F684" t="n">
-        <v>106.9127960205078</v>
+        <v>106.9128036499023</v>
       </c>
       <c r="G684" t="inlineStr"/>
       <c r="H684" t="inlineStr">
@@ -43658,16 +43658,16 @@
       <c r="AA684" t="inlineStr"/>
       <c r="AB684" t="inlineStr"/>
       <c r="AC684" t="n">
-        <v>106.266497827591</v>
+        <v>106.2665054108652</v>
       </c>
       <c r="AD684" t="n">
-        <v>108.4501934985791</v>
+        <v>108.4502012376837</v>
       </c>
       <c r="AE684" t="n">
-        <v>105.904185935469</v>
+        <v>105.9041934928882</v>
       </c>
       <c r="AF684" t="n">
-        <v>106.9127960205078</v>
+        <v>106.9128036499023</v>
       </c>
       <c r="AG684" t="n">
         <v>5233100</v>
@@ -43692,7 +43692,7 @@
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr"/>
       <c r="F685" t="n">
-        <v>104.0926055908203</v>
+        <v>104.0926132202148</v>
       </c>
       <c r="G685" t="inlineStr"/>
       <c r="H685" t="inlineStr">
@@ -43721,16 +43721,16 @@
       <c r="AA685" t="inlineStr"/>
       <c r="AB685" t="inlineStr"/>
       <c r="AC685" t="n">
-        <v>105.8943930563893</v>
+        <v>105.8944008178446</v>
       </c>
       <c r="AD685" t="n">
-        <v>106.0804499578643</v>
+        <v>106.0804577329565</v>
       </c>
       <c r="AE685" t="n">
-        <v>102.6041653209494</v>
+        <v>102.6041728412497</v>
       </c>
       <c r="AF685" t="n">
-        <v>104.0926055908203</v>
+        <v>104.0926132202148</v>
       </c>
       <c r="AG685" t="n">
         <v>7784500</v>
@@ -43755,7 +43755,7 @@
       <c r="D686" t="inlineStr"/>
       <c r="E686" t="inlineStr"/>
       <c r="F686" t="n">
-        <v>108.0878753662109</v>
+        <v>108.0878829956055</v>
       </c>
       <c r="G686" t="inlineStr"/>
       <c r="H686" t="inlineStr">
@@ -43784,16 +43784,16 @@
       <c r="AA686" t="inlineStr"/>
       <c r="AB686" t="inlineStr"/>
       <c r="AC686" t="n">
-        <v>105.7768819055913</v>
+        <v>105.7768893718641</v>
       </c>
       <c r="AD686" t="n">
-        <v>108.4012300318391</v>
+        <v>108.4012376833518</v>
       </c>
       <c r="AE686" t="n">
-        <v>105.7279246749721</v>
+        <v>105.7279321377893</v>
       </c>
       <c r="AF686" t="n">
-        <v>108.0878753662109</v>
+        <v>108.0878829956055</v>
       </c>
       <c r="AG686" t="n">
         <v>6571300</v>
@@ -43818,7 +43818,7 @@
       <c r="D687" t="inlineStr"/>
       <c r="E687" t="inlineStr"/>
       <c r="F687" t="n">
-        <v>109.9778060913086</v>
+        <v>109.9777984619141</v>
       </c>
       <c r="G687" t="inlineStr"/>
       <c r="H687" t="inlineStr">
@@ -43847,16 +43847,16 @@
       <c r="AA687" t="inlineStr"/>
       <c r="AB687" t="inlineStr"/>
       <c r="AC687" t="n">
-        <v>110.8982887595804</v>
+        <v>110.89828106633</v>
       </c>
       <c r="AD687" t="n">
-        <v>114.1885167323763</v>
+        <v>114.1885088108758</v>
       </c>
       <c r="AE687" t="n">
-        <v>109.6056997324795</v>
+        <v>109.6056921288988</v>
       </c>
       <c r="AF687" t="n">
-        <v>109.9778060913086</v>
+        <v>109.9777984619141</v>
       </c>
       <c r="AG687" t="n">
         <v>9243800</v>
@@ -44070,7 +44070,7 @@
       <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr"/>
       <c r="F691" t="n">
-        <v>113.7968215942383</v>
+        <v>113.7968139648438</v>
       </c>
       <c r="G691" t="inlineStr"/>
       <c r="H691" t="inlineStr">
@@ -44099,16 +44099,16 @@
       <c r="AA691" t="inlineStr"/>
       <c r="AB691" t="inlineStr"/>
       <c r="AC691" t="n">
-        <v>112.984055300154</v>
+        <v>112.9840477252506</v>
       </c>
       <c r="AD691" t="n">
-        <v>114.0514246141491</v>
+        <v>114.051416967685</v>
       </c>
       <c r="AE691" t="n">
-        <v>111.8579417875159</v>
+        <v>111.8579342881116</v>
       </c>
       <c r="AF691" t="n">
-        <v>113.7968215942383</v>
+        <v>113.7968139648438</v>
       </c>
       <c r="AG691" t="n">
         <v>4689800</v>
@@ -44133,7 +44133,7 @@
       <c r="D692" t="inlineStr"/>
       <c r="E692" t="inlineStr"/>
       <c r="F692" t="n">
-        <v>113.9300689697266</v>
+        <v>113.9300765991211</v>
       </c>
       <c r="G692" t="inlineStr"/>
       <c r="H692" t="inlineStr">
@@ -44162,16 +44162,16 @@
       <c r="AA692" t="inlineStr"/>
       <c r="AB692" t="inlineStr"/>
       <c r="AC692" t="n">
-        <v>111.6498906180924</v>
+        <v>111.6498980947934</v>
       </c>
       <c r="AD692" t="n">
-        <v>114.3249069714104</v>
+        <v>114.3249146272455</v>
       </c>
       <c r="AE692" t="n">
-        <v>110.5838302728185</v>
+        <v>110.5838376781302</v>
       </c>
       <c r="AF692" t="n">
-        <v>113.9300689697266</v>
+        <v>113.9300765991211</v>
       </c>
       <c r="AG692" t="n">
         <v>6502400</v>
@@ -44196,7 +44196,7 @@
       <c r="D693" t="inlineStr"/>
       <c r="E693" t="inlineStr"/>
       <c r="F693" t="n">
-        <v>115.2527847290039</v>
+        <v>115.2527770996094</v>
       </c>
       <c r="G693" t="inlineStr"/>
       <c r="H693" t="inlineStr">
@@ -44225,16 +44225,16 @@
       <c r="AA693" t="inlineStr"/>
       <c r="AB693" t="inlineStr"/>
       <c r="AC693" t="n">
-        <v>114.0485321126434</v>
+        <v>114.0485245629668</v>
       </c>
       <c r="AD693" t="n">
-        <v>116.2990991191949</v>
+        <v>116.2990914205375</v>
       </c>
       <c r="AE693" t="n">
-        <v>113.1897599523922</v>
+        <v>113.1897524595638</v>
       </c>
       <c r="AF693" t="n">
-        <v>115.2527847290039</v>
+        <v>115.2527770996094</v>
       </c>
       <c r="AG693" t="n">
         <v>7743600</v>
@@ -44700,7 +44700,7 @@
       <c r="D701" t="inlineStr"/>
       <c r="E701" t="inlineStr"/>
       <c r="F701" t="n">
-        <v>127.6802597045898</v>
+        <v>127.6802673339844</v>
       </c>
       <c r="G701" t="inlineStr"/>
       <c r="H701" t="inlineStr">
@@ -44729,16 +44729,16 @@
       <c r="AA701" t="inlineStr"/>
       <c r="AB701" t="inlineStr"/>
       <c r="AC701" t="n">
-        <v>126.1107806949651</v>
+        <v>126.1107882305771</v>
       </c>
       <c r="AD701" t="n">
-        <v>128.4304436352285</v>
+        <v>128.4304513094495</v>
       </c>
       <c r="AE701" t="n">
-        <v>125.5876235353931</v>
+        <v>125.5876310397444</v>
       </c>
       <c r="AF701" t="n">
-        <v>127.6802597045898</v>
+        <v>127.6802673339844</v>
       </c>
       <c r="AG701" t="n">
         <v>6086700</v>
@@ -44763,7 +44763,7 @@
       <c r="D702" t="inlineStr"/>
       <c r="E702" t="inlineStr"/>
       <c r="F702" t="n">
-        <v>129.3484344482422</v>
+        <v>129.3484191894531</v>
       </c>
       <c r="G702" t="inlineStr"/>
       <c r="H702" t="inlineStr">
@@ -44792,16 +44792,16 @@
       <c r="AA702" t="inlineStr"/>
       <c r="AB702" t="inlineStr"/>
       <c r="AC702" t="n">
-        <v>127.6901283307936</v>
+        <v>127.6901132676292</v>
       </c>
       <c r="AD702" t="n">
-        <v>129.8716066824799</v>
+        <v>129.8715913619741</v>
       </c>
       <c r="AE702" t="n">
-        <v>127.4631015541514</v>
+        <v>127.4630865177686</v>
       </c>
       <c r="AF702" t="n">
-        <v>129.3484344482422</v>
+        <v>129.3484191894531</v>
       </c>
       <c r="AG702" t="n">
         <v>6273400</v>
@@ -44826,7 +44826,7 @@
       <c r="D703" t="inlineStr"/>
       <c r="E703" t="inlineStr"/>
       <c r="F703" t="n">
-        <v>130.7994537353516</v>
+        <v>130.7994689941406</v>
       </c>
       <c r="G703" t="inlineStr"/>
       <c r="H703" t="inlineStr">
@@ -44855,16 +44855,16 @@
       <c r="AA703" t="inlineStr"/>
       <c r="AB703" t="inlineStr"/>
       <c r="AC703" t="n">
-        <v>128.5784984632618</v>
+        <v>128.5785134629589</v>
       </c>
       <c r="AD703" t="n">
-        <v>131.3127453933211</v>
+        <v>131.3127607119896</v>
       </c>
       <c r="AE703" t="n">
-        <v>128.341606207135</v>
+        <v>128.3416211791968</v>
       </c>
       <c r="AF703" t="n">
-        <v>130.7994537353516</v>
+        <v>130.7994689941406</v>
       </c>
       <c r="AG703" t="n">
         <v>7209300</v>
@@ -45078,7 +45078,7 @@
       <c r="D707" t="inlineStr"/>
       <c r="E707" t="inlineStr"/>
       <c r="F707" t="n">
-        <v>123.6825408935547</v>
+        <v>123.6825332641602</v>
       </c>
       <c r="G707" t="inlineStr"/>
       <c r="H707" t="inlineStr">
@@ -45107,16 +45107,16 @@
       <c r="AA707" t="inlineStr"/>
       <c r="AB707" t="inlineStr"/>
       <c r="AC707" t="n">
-        <v>126.4365189486256</v>
+        <v>126.4365111493511</v>
       </c>
       <c r="AD707" t="n">
-        <v>126.9794221671716</v>
+        <v>126.9794143344079</v>
       </c>
       <c r="AE707" t="n">
-        <v>123.4555065846422</v>
+        <v>123.4554989692523</v>
       </c>
       <c r="AF707" t="n">
-        <v>123.6825408935547</v>
+        <v>123.6825332641602</v>
       </c>
       <c r="AG707" t="n">
         <v>6371600</v>
@@ -45141,7 +45141,7 @@
       <c r="D708" t="inlineStr"/>
       <c r="E708" t="inlineStr"/>
       <c r="F708" t="n">
-        <v>124.6301498413086</v>
+        <v>124.6301422119141</v>
       </c>
       <c r="G708" t="inlineStr"/>
       <c r="H708" t="inlineStr">
@@ -45170,16 +45170,16 @@
       <c r="AA708" t="inlineStr"/>
       <c r="AB708" t="inlineStr"/>
       <c r="AC708" t="n">
-        <v>123.001447687583</v>
+        <v>123.0014401578916</v>
       </c>
       <c r="AD708" t="n">
-        <v>125.4296913856665</v>
+        <v>125.429683707327</v>
       </c>
       <c r="AE708" t="n">
-        <v>123.001447687583</v>
+        <v>123.0014401578916</v>
       </c>
       <c r="AF708" t="n">
-        <v>124.6301498413086</v>
+        <v>124.6301422119141</v>
       </c>
       <c r="AG708" t="n">
         <v>5689200</v>
@@ -45267,7 +45267,7 @@
       <c r="D710" t="inlineStr"/>
       <c r="E710" t="inlineStr"/>
       <c r="F710" t="n">
-        <v>127.5420608520508</v>
+        <v>127.5420684814453</v>
       </c>
       <c r="G710" t="inlineStr"/>
       <c r="H710" t="inlineStr">
@@ -45296,16 +45296,16 @@
       <c r="AA710" t="inlineStr"/>
       <c r="AB710" t="inlineStr"/>
       <c r="AC710" t="n">
-        <v>125.893612821034</v>
+        <v>125.8936203518206</v>
       </c>
       <c r="AD710" t="n">
-        <v>127.857922204582</v>
+        <v>127.8579298528709</v>
       </c>
       <c r="AE710" t="n">
-        <v>125.1829059505683</v>
+        <v>125.1829134388413</v>
       </c>
       <c r="AF710" t="n">
-        <v>127.5420608520508</v>
+        <v>127.5420684814453</v>
       </c>
       <c r="AG710" t="n">
         <v>5472400</v>
@@ -45330,7 +45330,7 @@
       <c r="D711" t="inlineStr"/>
       <c r="E711" t="inlineStr"/>
       <c r="F711" t="n">
-        <v>125.8640060424805</v>
+        <v>125.864013671875</v>
       </c>
       <c r="G711" t="inlineStr"/>
       <c r="H711" t="inlineStr">
@@ -45359,16 +45359,16 @@
       <c r="AA711" t="inlineStr"/>
       <c r="AB711" t="inlineStr"/>
       <c r="AC711" t="n">
-        <v>127.542065667978</v>
+        <v>127.5420733990901</v>
       </c>
       <c r="AD711" t="n">
-        <v>127.7493463936311</v>
+        <v>127.7493541373077</v>
       </c>
       <c r="AE711" t="n">
-        <v>125.6270987227742</v>
+        <v>125.6271063378084</v>
       </c>
       <c r="AF711" t="n">
-        <v>125.8640060424805</v>
+        <v>125.864013671875</v>
       </c>
       <c r="AG711" t="n">
         <v>4050900</v>
@@ -45393,7 +45393,7 @@
       <c r="D712" t="inlineStr"/>
       <c r="E712" t="inlineStr"/>
       <c r="F712" t="n">
-        <v>126.505615234375</v>
+        <v>126.5056228637695</v>
       </c>
       <c r="G712" t="inlineStr"/>
       <c r="H712" t="inlineStr">
@@ -45422,16 +45422,16 @@
       <c r="AA712" t="inlineStr"/>
       <c r="AB712" t="inlineStr"/>
       <c r="AC712" t="n">
-        <v>126.446392170661</v>
+        <v>126.4463997964839</v>
       </c>
       <c r="AD712" t="n">
-        <v>126.7425074892308</v>
+        <v>126.7425151329121</v>
       </c>
       <c r="AE712" t="n">
-        <v>125.2914897118799</v>
+        <v>125.2914972680521</v>
       </c>
       <c r="AF712" t="n">
-        <v>126.505615234375</v>
+        <v>126.5056228637695</v>
       </c>
       <c r="AG712" t="n">
         <v>4337500</v>
@@ -45456,7 +45456,7 @@
       <c r="D713" t="inlineStr"/>
       <c r="E713" t="inlineStr"/>
       <c r="F713" t="n">
-        <v>126.3772964477539</v>
+        <v>126.3772888183594</v>
       </c>
       <c r="G713" t="inlineStr"/>
       <c r="H713" t="inlineStr">
@@ -45485,16 +45485,16 @@
       <c r="AA713" t="inlineStr"/>
       <c r="AB713" t="inlineStr"/>
       <c r="AC713" t="n">
-        <v>125.9627199140478</v>
+        <v>125.9627123096813</v>
       </c>
       <c r="AD713" t="n">
-        <v>126.6734268466348</v>
+        <v>126.6734191993628</v>
       </c>
       <c r="AE713" t="n">
-        <v>124.7189827820207</v>
+        <v>124.7189752527385</v>
       </c>
       <c r="AF713" t="n">
-        <v>126.3772964477539</v>
+        <v>126.3772888183594</v>
       </c>
       <c r="AG713" t="n">
         <v>6436100</v>
@@ -45519,7 +45519,7 @@
       <c r="D714" t="inlineStr"/>
       <c r="E714" t="inlineStr"/>
       <c r="F714" t="n">
-        <v>126.7425079345703</v>
+        <v>126.7425155639648</v>
       </c>
       <c r="G714" t="inlineStr"/>
       <c r="H714" t="inlineStr">
@@ -45548,16 +45548,16 @@
       <c r="AA714" t="inlineStr"/>
       <c r="AB714" t="inlineStr"/>
       <c r="AC714" t="n">
-        <v>125.8343933411012</v>
+        <v>125.8344009158308</v>
       </c>
       <c r="AD714" t="n">
-        <v>126.8116115503573</v>
+        <v>126.8116191839116</v>
       </c>
       <c r="AE714" t="n">
-        <v>124.728848452136</v>
+        <v>124.7288559603163</v>
       </c>
       <c r="AF714" t="n">
-        <v>126.7425079345703</v>
+        <v>126.7425155639648</v>
       </c>
       <c r="AG714" t="n">
         <v>3607900</v>
@@ -45645,7 +45645,7 @@
       <c r="D716" t="inlineStr"/>
       <c r="E716" t="inlineStr"/>
       <c r="F716" t="n">
-        <v>126.505615234375</v>
+        <v>126.5056228637695</v>
       </c>
       <c r="G716" t="inlineStr"/>
       <c r="H716" t="inlineStr">
@@ -45674,16 +45674,16 @@
       <c r="AA716" t="inlineStr"/>
       <c r="AB716" t="inlineStr"/>
       <c r="AC716" t="n">
-        <v>127.176830038889</v>
+        <v>127.1768377087637</v>
       </c>
       <c r="AD716" t="n">
-        <v>127.7493447578187</v>
+        <v>127.749352462221</v>
       </c>
       <c r="AE716" t="n">
-        <v>126.505615234375</v>
+        <v>126.5056228637695</v>
       </c>
       <c r="AF716" t="n">
-        <v>126.505615234375</v>
+        <v>126.5056228637695</v>
       </c>
       <c r="AG716" t="n">
         <v>3123200</v>
@@ -45960,7 +45960,7 @@
       <c r="D721" t="inlineStr"/>
       <c r="E721" t="inlineStr"/>
       <c r="F721" t="n">
-        <v>130.1085052490234</v>
+        <v>130.1084899902344</v>
       </c>
       <c r="G721" t="inlineStr"/>
       <c r="H721" t="inlineStr">
@@ -45989,16 +45989,16 @@
       <c r="AA721" t="inlineStr"/>
       <c r="AB721" t="inlineStr"/>
       <c r="AC721" t="n">
-        <v>130.3256665456536</v>
+        <v>130.3256512613964</v>
       </c>
       <c r="AD721" t="n">
-        <v>131.7273344209276</v>
+        <v>131.7273189722864</v>
       </c>
       <c r="AE721" t="n">
-        <v>129.7235402344187</v>
+        <v>129.7235250207774</v>
       </c>
       <c r="AF721" t="n">
-        <v>130.1085052490234</v>
+        <v>130.1084899902344</v>
       </c>
       <c r="AG721" t="n">
         <v>5810200</v>
@@ -46086,7 +46086,7 @@
       <c r="D723" t="inlineStr"/>
       <c r="E723" t="inlineStr"/>
       <c r="F723" t="n">
-        <v>127.8184585571289</v>
+        <v>127.8184509277344</v>
       </c>
       <c r="G723" t="inlineStr"/>
       <c r="H723" t="inlineStr">
@@ -46115,16 +46115,16 @@
       <c r="AA723" t="inlineStr"/>
       <c r="AB723" t="inlineStr"/>
       <c r="AC723" t="n">
-        <v>128.5094194585379</v>
+        <v>128.5094117879004</v>
       </c>
       <c r="AD723" t="n">
-        <v>129.3780646270623</v>
+        <v>129.378056904576</v>
       </c>
       <c r="AE723" t="n">
-        <v>127.1472286373187</v>
+        <v>127.1472210479895</v>
       </c>
       <c r="AF723" t="n">
-        <v>127.8184585571289</v>
+        <v>127.8184509277344</v>
       </c>
       <c r="AG723" t="n">
         <v>4367500</v>
@@ -46527,7 +46527,7 @@
       <c r="D730" t="inlineStr"/>
       <c r="E730" t="inlineStr"/>
       <c r="F730" t="n">
-        <v>135.9422149658203</v>
+        <v>135.9421997070312</v>
       </c>
       <c r="G730" t="inlineStr"/>
       <c r="H730" t="inlineStr">
@@ -46556,16 +46556,16 @@
       <c r="AA730" t="inlineStr"/>
       <c r="AB730" t="inlineStr"/>
       <c r="AC730" t="n">
-        <v>134.3628628619659</v>
+        <v>134.3628477804507</v>
       </c>
       <c r="AD730" t="n">
-        <v>136.1100186793094</v>
+        <v>136.1100034016853</v>
       </c>
       <c r="AE730" t="n">
-        <v>133.6620364739713</v>
+        <v>133.6620214711201</v>
       </c>
       <c r="AF730" t="n">
-        <v>135.9422149658203</v>
+        <v>135.9421997070312</v>
       </c>
       <c r="AG730" t="n">
         <v>5736400</v>
@@ -46590,7 +46590,7 @@
       <c r="D731" t="inlineStr"/>
       <c r="E731" t="inlineStr"/>
       <c r="F731" t="n">
-        <v>137.9460144042969</v>
+        <v>137.9459991455078</v>
       </c>
       <c r="G731" t="inlineStr"/>
       <c r="H731" t="inlineStr">
@@ -46619,16 +46619,16 @@
       <c r="AA731" t="inlineStr"/>
       <c r="AB731" t="inlineStr"/>
       <c r="AC731" t="n">
-        <v>136.2284700549333</v>
+        <v>136.228454986129</v>
       </c>
       <c r="AD731" t="n">
-        <v>138.3902024937717</v>
+        <v>138.3901871858491</v>
       </c>
       <c r="AE731" t="n">
-        <v>136.0606663349903</v>
+        <v>136.0606512847475</v>
       </c>
       <c r="AF731" t="n">
-        <v>137.9460144042969</v>
+        <v>137.9459991455078</v>
       </c>
       <c r="AG731" t="n">
         <v>6013200</v>
@@ -46716,7 +46716,7 @@
       <c r="D733" t="inlineStr"/>
       <c r="E733" t="inlineStr"/>
       <c r="F733" t="n">
-        <v>139.0416870117188</v>
+        <v>139.0416717529297</v>
       </c>
       <c r="G733" t="inlineStr"/>
       <c r="H733" t="inlineStr">
@@ -46745,16 +46745,16 @@
       <c r="AA733" t="inlineStr"/>
       <c r="AB733" t="inlineStr"/>
       <c r="AC733" t="n">
-        <v>139.6832903591765</v>
+        <v>139.6832750299763</v>
       </c>
       <c r="AD733" t="n">
-        <v>140.0189128623786</v>
+        <v>140.0188974963463</v>
       </c>
       <c r="AE733" t="n">
-        <v>137.7485997638211</v>
+        <v>137.7485846469387</v>
       </c>
       <c r="AF733" t="n">
-        <v>139.0416870117188</v>
+        <v>139.0416717529297</v>
       </c>
       <c r="AG733" t="n">
         <v>8034400</v>
@@ -46905,7 +46905,7 @@
       <c r="D736" t="inlineStr"/>
       <c r="E736" t="inlineStr"/>
       <c r="F736" t="n">
-        <v>70.77641296386719</v>
+        <v>70.77642059326172</v>
       </c>
       <c r="G736" t="inlineStr"/>
       <c r="H736" t="inlineStr">
@@ -46939,16 +46939,16 @@
       <c r="AF736" t="inlineStr"/>
       <c r="AG736" t="inlineStr"/>
       <c r="AH736" t="n">
-        <v>70.28018553899531</v>
+        <v>70.28019311489865</v>
       </c>
       <c r="AI736" t="n">
-        <v>71.99266975247096</v>
+        <v>71.99267751297278</v>
       </c>
       <c r="AJ736" t="n">
-        <v>69.93962769943241</v>
+        <v>69.93963523862506</v>
       </c>
       <c r="AK736" t="n">
-        <v>70.77641296386719</v>
+        <v>70.77642059326172</v>
       </c>
       <c r="AL736" t="n">
         <v>19199700</v>
@@ -47031,7 +47031,7 @@
       <c r="D738" t="inlineStr"/>
       <c r="E738" t="inlineStr"/>
       <c r="F738" t="n">
-        <v>71.28238677978516</v>
+        <v>71.28237915039062</v>
       </c>
       <c r="G738" t="inlineStr"/>
       <c r="H738" t="inlineStr">
@@ -47065,16 +47065,16 @@
       <c r="AF738" t="inlineStr"/>
       <c r="AG738" t="inlineStr"/>
       <c r="AH738" t="n">
-        <v>71.46725278143757</v>
+        <v>71.46724513225672</v>
       </c>
       <c r="AI738" t="n">
-        <v>71.4867170490492</v>
+        <v>71.48670939778509</v>
       </c>
       <c r="AJ738" t="n">
-        <v>70.72777392794188</v>
+        <v>70.72776635790788</v>
       </c>
       <c r="AK738" t="n">
-        <v>71.28238677978516</v>
+        <v>71.28237915039062</v>
       </c>
       <c r="AL738" t="n">
         <v>13742800</v>
@@ -47094,7 +47094,7 @@
       <c r="D739" t="inlineStr"/>
       <c r="E739" t="inlineStr"/>
       <c r="F739" t="n">
-        <v>69.47260284423828</v>
+        <v>69.47258758544922</v>
       </c>
       <c r="G739" t="inlineStr"/>
       <c r="H739" t="inlineStr">
@@ -47128,16 +47128,16 @@
       <c r="AF739" t="inlineStr"/>
       <c r="AG739" t="inlineStr"/>
       <c r="AH739" t="n">
-        <v>70.50398642729542</v>
+        <v>70.50397094197584</v>
       </c>
       <c r="AI739" t="n">
-        <v>70.50398642729542</v>
+        <v>70.50397094197584</v>
       </c>
       <c r="AJ739" t="n">
-        <v>69.10285595714703</v>
+        <v>69.10284077956825</v>
       </c>
       <c r="AK739" t="n">
-        <v>69.47260284423828</v>
+        <v>69.47258758544922</v>
       </c>
       <c r="AL739" t="n">
         <v>13217700</v>
@@ -47346,7 +47346,7 @@
       <c r="D743" t="inlineStr"/>
       <c r="E743" t="inlineStr"/>
       <c r="F743" t="n">
-        <v>76.39067077636719</v>
+        <v>76.39065551757812</v>
       </c>
       <c r="G743" t="inlineStr"/>
       <c r="H743" t="inlineStr">
@@ -47380,16 +47380,16 @@
       <c r="AF743" t="inlineStr"/>
       <c r="AG743" t="inlineStr"/>
       <c r="AH743" t="n">
-        <v>75.72902667972869</v>
+        <v>75.7290115531009</v>
       </c>
       <c r="AI743" t="n">
-        <v>76.63392217331599</v>
+        <v>76.63390686593826</v>
       </c>
       <c r="AJ743" t="n">
-        <v>75.66091658552077</v>
+        <v>75.66090147249774</v>
       </c>
       <c r="AK743" t="n">
-        <v>76.39067077636719</v>
+        <v>76.39065551757812</v>
       </c>
       <c r="AL743" t="n">
         <v>21463100</v>
@@ -47409,7 +47409,7 @@
       <c r="D744" t="inlineStr"/>
       <c r="E744" t="inlineStr"/>
       <c r="F744" t="n">
-        <v>77.83070373535156</v>
+        <v>77.83071136474609</v>
       </c>
       <c r="G744" t="inlineStr"/>
       <c r="H744" t="inlineStr">
@@ -47443,16 +47443,16 @@
       <c r="AF744" t="inlineStr"/>
       <c r="AG744" t="inlineStr"/>
       <c r="AH744" t="n">
-        <v>76.42958093766124</v>
+        <v>76.42958842970999</v>
       </c>
       <c r="AI744" t="n">
-        <v>78.27828535078176</v>
+        <v>78.27829302405071</v>
       </c>
       <c r="AJ744" t="n">
-        <v>76.05010940667819</v>
+        <v>76.05011686152906</v>
       </c>
       <c r="AK744" t="n">
-        <v>77.83070373535156</v>
+        <v>77.83071136474609</v>
       </c>
       <c r="AL744" t="n">
         <v>22084800</v>
@@ -47535,7 +47535,7 @@
       <c r="D746" t="inlineStr"/>
       <c r="E746" t="inlineStr"/>
       <c r="F746" t="n">
-        <v>79.48481750488281</v>
+        <v>79.48482513427734</v>
       </c>
       <c r="G746" t="inlineStr"/>
       <c r="H746" t="inlineStr">
@@ -47569,16 +47569,16 @@
       <c r="AF746" t="inlineStr"/>
       <c r="AG746" t="inlineStr"/>
       <c r="AH746" t="n">
-        <v>79.27075511835048</v>
+        <v>79.27076272719812</v>
       </c>
       <c r="AI746" t="n">
-        <v>80.05888715654456</v>
+        <v>80.05889484104148</v>
       </c>
       <c r="AJ746" t="n">
-        <v>79.03723588915268</v>
+        <v>79.03724347558585</v>
       </c>
       <c r="AK746" t="n">
-        <v>79.48481750488281</v>
+        <v>79.48482513427734</v>
       </c>
       <c r="AL746" t="n">
         <v>14725700</v>
@@ -47661,7 +47661,7 @@
       <c r="D748" t="inlineStr"/>
       <c r="E748" t="inlineStr"/>
       <c r="F748" t="n">
-        <v>79.28049468994141</v>
+        <v>79.28048706054688</v>
       </c>
       <c r="G748" t="inlineStr"/>
       <c r="H748" t="inlineStr">
@@ -47695,16 +47695,16 @@
       <c r="AF748" t="inlineStr"/>
       <c r="AG748" t="inlineStr"/>
       <c r="AH748" t="n">
-        <v>79.29021940046533</v>
+        <v>79.29021177013497</v>
       </c>
       <c r="AI748" t="n">
-        <v>79.90321764185782</v>
+        <v>79.90320995253683</v>
       </c>
       <c r="AJ748" t="n">
-        <v>79.14426708473174</v>
+        <v>79.14425946844679</v>
       </c>
       <c r="AK748" t="n">
-        <v>79.28049468994141</v>
+        <v>79.28048706054688</v>
       </c>
       <c r="AL748" t="n">
         <v>16025200</v>
@@ -47850,7 +47850,7 @@
       <c r="D751" t="inlineStr"/>
       <c r="E751" t="inlineStr"/>
       <c r="F751" t="n">
-        <v>78.45343017578125</v>
+        <v>78.45342254638672</v>
       </c>
       <c r="G751" t="inlineStr"/>
       <c r="H751" t="inlineStr">
@@ -47884,16 +47884,16 @@
       <c r="AF751" t="inlineStr"/>
       <c r="AG751" t="inlineStr"/>
       <c r="AH751" t="n">
-        <v>77.72367605651837</v>
+        <v>77.72366849809056</v>
       </c>
       <c r="AI751" t="n">
-        <v>79.39724669111207</v>
+        <v>79.39723896993382</v>
       </c>
       <c r="AJ751" t="n">
-        <v>77.72367605651837</v>
+        <v>77.72366849809056</v>
       </c>
       <c r="AK751" t="n">
-        <v>78.45343017578125</v>
+        <v>78.45342254638672</v>
       </c>
       <c r="AL751" t="n">
         <v>10573000</v>
@@ -47913,7 +47913,7 @@
       <c r="D752" t="inlineStr"/>
       <c r="E752" t="inlineStr"/>
       <c r="F752" t="n">
-        <v>79.65022277832031</v>
+        <v>79.65023803710938</v>
       </c>
       <c r="G752" t="inlineStr"/>
       <c r="H752" t="inlineStr">
@@ -47947,16 +47947,16 @@
       <c r="AF752" t="inlineStr"/>
       <c r="AG752" t="inlineStr"/>
       <c r="AH752" t="n">
-        <v>79.09560999628006</v>
+        <v>79.09562514882059</v>
       </c>
       <c r="AI752" t="n">
-        <v>80.38970896218801</v>
+        <v>80.38972436264226</v>
       </c>
       <c r="AJ752" t="n">
-        <v>78.80370540638852</v>
+        <v>78.80372050300817</v>
       </c>
       <c r="AK752" t="n">
-        <v>79.65022277832031</v>
+        <v>79.65023803710938</v>
       </c>
       <c r="AL752" t="n">
         <v>10775500</v>
@@ -47976,7 +47976,7 @@
       <c r="D753" t="inlineStr"/>
       <c r="E753" t="inlineStr"/>
       <c r="F753" t="n">
-        <v>79.23184204101562</v>
+        <v>79.23183441162109</v>
       </c>
       <c r="G753" t="inlineStr"/>
       <c r="H753" t="inlineStr">
@@ -48010,16 +48010,16 @@
       <c r="AF753" t="inlineStr"/>
       <c r="AG753" t="inlineStr"/>
       <c r="AH753" t="n">
-        <v>79.48482556196534</v>
+        <v>79.4848179082105</v>
       </c>
       <c r="AI753" t="n">
-        <v>80.1172732291748</v>
+        <v>80.1172655145203</v>
       </c>
       <c r="AJ753" t="n">
-        <v>78.88155944999086</v>
+        <v>78.88155185432575</v>
       </c>
       <c r="AK753" t="n">
-        <v>79.23184204101562</v>
+        <v>79.23183441162109</v>
       </c>
       <c r="AL753" t="n">
         <v>12818300</v>
@@ -48039,7 +48039,7 @@
       <c r="D754" t="inlineStr"/>
       <c r="E754" t="inlineStr"/>
       <c r="F754" t="n">
-        <v>77.99736022949219</v>
+        <v>77.99736785888672</v>
       </c>
       <c r="G754" t="inlineStr"/>
       <c r="H754" t="inlineStr">
@@ -48073,16 +48073,16 @@
       <c r="AF754" t="inlineStr"/>
       <c r="AG754" t="inlineStr"/>
       <c r="AH754" t="n">
-        <v>76.90984463098974</v>
+        <v>76.90985215400777</v>
       </c>
       <c r="AI754" t="n">
-        <v>78.29128619254335</v>
+        <v>78.29129385068856</v>
       </c>
       <c r="AJ754" t="n">
-        <v>75.33245741063385</v>
+        <v>75.33246477935808</v>
       </c>
       <c r="AK754" t="n">
-        <v>77.99736022949219</v>
+        <v>77.99736785888672</v>
       </c>
       <c r="AL754" t="n">
         <v>20998500</v>
@@ -48102,7 +48102,7 @@
       <c r="D755" t="inlineStr"/>
       <c r="E755" t="inlineStr"/>
       <c r="F755" t="n">
-        <v>76.89025115966797</v>
+        <v>76.8902587890625</v>
       </c>
       <c r="G755" t="inlineStr"/>
       <c r="H755" t="inlineStr">
@@ -48136,16 +48136,16 @@
       <c r="AF755" t="inlineStr"/>
       <c r="AG755" t="inlineStr"/>
       <c r="AH755" t="n">
-        <v>78.48722991659871</v>
+        <v>78.48723770445262</v>
       </c>
       <c r="AI755" t="n">
-        <v>78.61459384419584</v>
+        <v>78.61460164468737</v>
       </c>
       <c r="AJ755" t="n">
-        <v>76.77267928237616</v>
+        <v>76.77268690010469</v>
       </c>
       <c r="AK755" t="n">
-        <v>76.89025115966797</v>
+        <v>76.8902587890625</v>
       </c>
       <c r="AL755" t="n">
         <v>13417700</v>
@@ -48165,7 +48165,7 @@
       <c r="D756" t="inlineStr"/>
       <c r="E756" t="inlineStr"/>
       <c r="F756" t="n">
-        <v>77.85040283203125</v>
+        <v>77.85038757324219</v>
       </c>
       <c r="G756" t="inlineStr"/>
       <c r="H756" t="inlineStr">
@@ -48199,16 +48199,16 @@
       <c r="AF756" t="inlineStr"/>
       <c r="AG756" t="inlineStr"/>
       <c r="AH756" t="n">
-        <v>77.43891243412239</v>
+        <v>77.43889725598602</v>
       </c>
       <c r="AI756" t="n">
-        <v>77.98756629800087</v>
+        <v>77.98755101232757</v>
       </c>
       <c r="AJ756" t="n">
-        <v>76.62572368955369</v>
+        <v>76.62570867080348</v>
       </c>
       <c r="AK756" t="n">
-        <v>77.85040283203125</v>
+        <v>77.85038757324219</v>
       </c>
       <c r="AL756" t="n">
         <v>10736100</v>
@@ -48228,7 +48228,7 @@
       <c r="D757" t="inlineStr"/>
       <c r="E757" t="inlineStr"/>
       <c r="F757" t="n">
-        <v>80.66226959228516</v>
+        <v>80.66226196289062</v>
       </c>
       <c r="G757" t="inlineStr"/>
       <c r="H757" t="inlineStr">
@@ -48262,16 +48262,16 @@
       <c r="AF757" t="inlineStr"/>
       <c r="AG757" t="inlineStr"/>
       <c r="AH757" t="n">
-        <v>78.61460215989466</v>
+        <v>78.61459472417758</v>
       </c>
       <c r="AI757" t="n">
-        <v>80.82882416326404</v>
+        <v>80.82881651811603</v>
       </c>
       <c r="AJ757" t="n">
-        <v>78.3108841216569</v>
+        <v>78.3108767146668</v>
       </c>
       <c r="AK757" t="n">
-        <v>80.66226959228516</v>
+        <v>80.66226196289062</v>
       </c>
       <c r="AL757" t="n">
         <v>19545700</v>
@@ -48354,7 +48354,7 @@
       <c r="D759" t="inlineStr"/>
       <c r="E759" t="inlineStr"/>
       <c r="F759" t="n">
-        <v>79.09468078613281</v>
+        <v>79.09467315673828</v>
       </c>
       <c r="G759" t="inlineStr"/>
       <c r="H759" t="inlineStr">
@@ -48388,16 +48388,16 @@
       <c r="AF759" t="inlineStr"/>
       <c r="AG759" t="inlineStr"/>
       <c r="AH759" t="n">
-        <v>79.9764437861561</v>
+        <v>79.97643607170758</v>
       </c>
       <c r="AI759" t="n">
-        <v>80.16259740719794</v>
+        <v>80.16258967479322</v>
       </c>
       <c r="AJ759" t="n">
-        <v>78.44804661294427</v>
+        <v>78.44803904592342</v>
       </c>
       <c r="AK759" t="n">
-        <v>79.09468078613281</v>
+        <v>79.09467315673828</v>
       </c>
       <c r="AL759" t="n">
         <v>10681600</v>
@@ -48417,7 +48417,7 @@
       <c r="D760" t="inlineStr"/>
       <c r="E760" t="inlineStr"/>
       <c r="F760" t="n">
-        <v>79.46697235107422</v>
+        <v>79.46697998046875</v>
       </c>
       <c r="G760" t="inlineStr"/>
       <c r="H760" t="inlineStr">
@@ -48451,16 +48451,16 @@
       <c r="AF760" t="inlineStr"/>
       <c r="AG760" t="inlineStr"/>
       <c r="AH760" t="n">
-        <v>78.83013776968497</v>
+        <v>78.83014533793884</v>
       </c>
       <c r="AI760" t="n">
-        <v>79.87846270525897</v>
+        <v>79.87847037415949</v>
       </c>
       <c r="AJ760" t="n">
-        <v>78.59500149227189</v>
+        <v>78.59500903795102</v>
       </c>
       <c r="AK760" t="n">
-        <v>79.46697235107422</v>
+        <v>79.46697998046875</v>
       </c>
       <c r="AL760" t="n">
         <v>9993800</v>
@@ -48480,7 +48480,7 @@
       <c r="D761" t="inlineStr"/>
       <c r="E761" t="inlineStr"/>
       <c r="F761" t="n">
-        <v>79.62373352050781</v>
+        <v>79.62372589111328</v>
       </c>
       <c r="G761" t="inlineStr"/>
       <c r="H761" t="inlineStr">
@@ -48514,16 +48514,16 @@
       <c r="AF761" t="inlineStr"/>
       <c r="AG761" t="inlineStr"/>
       <c r="AH761" t="n">
-        <v>78.54601740146998</v>
+        <v>78.54600987534016</v>
       </c>
       <c r="AI761" t="n">
-        <v>79.64333257213195</v>
+        <v>79.64332494085949</v>
       </c>
       <c r="AJ761" t="n">
-        <v>78.38926236271716</v>
+        <v>78.38925485160732</v>
       </c>
       <c r="AK761" t="n">
-        <v>79.62373352050781</v>
+        <v>79.62372589111328</v>
       </c>
       <c r="AL761" t="n">
         <v>10448100</v>
@@ -48543,7 +48543,7 @@
       <c r="D762" t="inlineStr"/>
       <c r="E762" t="inlineStr"/>
       <c r="F762" t="n">
-        <v>80.43692016601562</v>
+        <v>80.43691253662109</v>
       </c>
       <c r="G762" t="inlineStr"/>
       <c r="H762" t="inlineStr">
@@ -48577,16 +48577,16 @@
       <c r="AF762" t="inlineStr"/>
       <c r="AG762" t="inlineStr"/>
       <c r="AH762" t="n">
-        <v>79.75110287382701</v>
+        <v>79.75109530948184</v>
       </c>
       <c r="AI762" t="n">
-        <v>80.46631126784544</v>
+        <v>80.46630363566318</v>
       </c>
       <c r="AJ762" t="n">
-        <v>79.14365936156861</v>
+        <v>79.14365185483911</v>
       </c>
       <c r="AK762" t="n">
-        <v>80.43692016601562</v>
+        <v>80.43691253662109</v>
       </c>
       <c r="AL762" t="n">
         <v>11108400</v>
@@ -49173,7 +49173,7 @@
       <c r="D772" t="inlineStr"/>
       <c r="E772" t="inlineStr"/>
       <c r="F772" t="n">
-        <v>78.33047485351562</v>
+        <v>78.33046722412109</v>
       </c>
       <c r="G772" t="inlineStr"/>
       <c r="H772" t="inlineStr">
@@ -49207,16 +49207,16 @@
       <c r="AF772" t="inlineStr"/>
       <c r="AG772" t="inlineStr"/>
       <c r="AH772" t="n">
-        <v>77.61526642122276</v>
+        <v>77.61525886148958</v>
       </c>
       <c r="AI772" t="n">
-        <v>78.35007390568293</v>
+        <v>78.35006627437944</v>
       </c>
       <c r="AJ772" t="n">
-        <v>76.03787908992705</v>
+        <v>76.03787168383153</v>
       </c>
       <c r="AK772" t="n">
-        <v>78.33047485351562</v>
+        <v>78.33046722412109</v>
       </c>
       <c r="AL772" t="n">
         <v>21233600</v>
@@ -49236,7 +49236,7 @@
       <c r="D773" t="inlineStr"/>
       <c r="E773" t="inlineStr"/>
       <c r="F773" t="n">
-        <v>75.60678100585938</v>
+        <v>75.60678863525391</v>
       </c>
       <c r="G773" t="inlineStr"/>
       <c r="H773" t="inlineStr">
@@ -49270,16 +49270,16 @@
       <c r="AF773" t="inlineStr"/>
       <c r="AG773" t="inlineStr"/>
       <c r="AH773" t="n">
-        <v>78.3794560578699</v>
+        <v>78.37946396705193</v>
       </c>
       <c r="AI773" t="n">
-        <v>78.80074593317485</v>
+        <v>78.80075388486875</v>
       </c>
       <c r="AJ773" t="n">
-        <v>74.70541905515725</v>
+        <v>74.70542659359637</v>
       </c>
       <c r="AK773" t="n">
-        <v>75.60678100585938</v>
+        <v>75.60678863525391</v>
       </c>
       <c r="AL773" t="n">
         <v>20121100</v>
@@ -49362,7 +49362,7 @@
       <c r="D775" t="inlineStr"/>
       <c r="E775" t="inlineStr"/>
       <c r="F775" t="n">
-        <v>71.48207092285156</v>
+        <v>71.48206329345703</v>
       </c>
       <c r="G775" t="inlineStr"/>
       <c r="H775" t="inlineStr">
@@ -49396,16 +49396,16 @@
       <c r="AF775" t="inlineStr"/>
       <c r="AG775" t="inlineStr"/>
       <c r="AH775" t="n">
-        <v>71.12936273364743</v>
+        <v>71.12935514189799</v>
       </c>
       <c r="AI775" t="n">
-        <v>72.04052430995009</v>
+        <v>72.04051662095094</v>
       </c>
       <c r="AJ775" t="n">
-        <v>70.24759226063706</v>
+        <v>70.24758476300039</v>
       </c>
       <c r="AK775" t="n">
-        <v>71.48207092285156</v>
+        <v>71.48206329345703</v>
       </c>
       <c r="AL775" t="n">
         <v>17214200</v>
@@ -49425,7 +49425,7 @@
       <c r="D776" t="inlineStr"/>
       <c r="E776" t="inlineStr"/>
       <c r="F776" t="n">
-        <v>69.15027618408203</v>
+        <v>69.15028381347656</v>
       </c>
       <c r="G776" t="inlineStr"/>
       <c r="H776" t="inlineStr">
@@ -49459,16 +49459,16 @@
       <c r="AF776" t="inlineStr"/>
       <c r="AG776" t="inlineStr"/>
       <c r="AH776" t="n">
-        <v>70.35535612256318</v>
+        <v>70.35536388491496</v>
       </c>
       <c r="AI776" t="n">
-        <v>70.92360896705458</v>
+        <v>70.92361679210207</v>
       </c>
       <c r="AJ776" t="n">
-        <v>68.62121396419494</v>
+        <v>68.6212215352177</v>
       </c>
       <c r="AK776" t="n">
-        <v>69.15027618408203</v>
+        <v>69.15028381347656</v>
       </c>
       <c r="AL776" t="n">
         <v>18550800</v>
@@ -49866,7 +49866,7 @@
       <c r="D783" t="inlineStr"/>
       <c r="E783" t="inlineStr"/>
       <c r="F783" t="n">
-        <v>68.52323913574219</v>
+        <v>68.52325439453125</v>
       </c>
       <c r="G783" t="inlineStr"/>
       <c r="H783" t="inlineStr">
@@ -49900,16 +49900,16 @@
       <c r="AF783" t="inlineStr"/>
       <c r="AG783" t="inlineStr"/>
       <c r="AH783" t="n">
-        <v>67.49450582580076</v>
+        <v>67.49452085551097</v>
       </c>
       <c r="AI783" t="n">
-        <v>68.93472946977991</v>
+        <v>68.93474482019984</v>
       </c>
       <c r="AJ783" t="n">
-        <v>67.2887606587819</v>
+        <v>67.28877564267667</v>
       </c>
       <c r="AK783" t="n">
-        <v>68.52323913574219</v>
+        <v>68.52325439453125</v>
       </c>
       <c r="AL783" t="n">
         <v>12531700</v>
@@ -49992,7 +49992,7 @@
       <c r="D785" t="inlineStr"/>
       <c r="E785" t="inlineStr"/>
       <c r="F785" t="n">
-        <v>69.99286651611328</v>
+        <v>69.99285888671875</v>
       </c>
       <c r="G785" t="inlineStr"/>
       <c r="H785" t="inlineStr">
@@ -50026,16 +50026,16 @@
       <c r="AF785" t="inlineStr"/>
       <c r="AG785" t="inlineStr"/>
       <c r="AH785" t="n">
-        <v>68.93474191624126</v>
+        <v>68.93473440218492</v>
       </c>
       <c r="AI785" t="n">
-        <v>70.71787449387071</v>
+        <v>70.71786678544852</v>
       </c>
       <c r="AJ785" t="n">
-        <v>68.25871662051496</v>
+        <v>68.25870918014702</v>
       </c>
       <c r="AK785" t="n">
-        <v>69.99286651611328</v>
+        <v>69.99285888671875</v>
       </c>
       <c r="AL785" t="n">
         <v>14400600</v>
@@ -50055,7 +50055,7 @@
       <c r="D786" t="inlineStr"/>
       <c r="E786" t="inlineStr"/>
       <c r="F786" t="n">
-        <v>70.36515045166016</v>
+        <v>70.36515808105469</v>
       </c>
       <c r="G786" t="inlineStr"/>
       <c r="H786" t="inlineStr">
@@ -50089,16 +50089,16 @@
       <c r="AF786" t="inlineStr"/>
       <c r="AG786" t="inlineStr"/>
       <c r="AH786" t="n">
-        <v>69.54216982028072</v>
+        <v>69.54217736044295</v>
       </c>
       <c r="AI786" t="n">
-        <v>71.50165605672333</v>
+        <v>71.50166380934434</v>
       </c>
       <c r="AJ786" t="n">
-        <v>69.11108045631238</v>
+        <v>69.11108794973342</v>
       </c>
       <c r="AK786" t="n">
-        <v>70.36515045166016</v>
+        <v>70.36515808105469</v>
       </c>
       <c r="AL786" t="n">
         <v>15315600</v>
@@ -50181,7 +50181,7 @@
       <c r="D788" t="inlineStr"/>
       <c r="E788" t="inlineStr"/>
       <c r="F788" t="n">
-        <v>72.54019165039062</v>
+        <v>72.54018402099609</v>
       </c>
       <c r="G788" t="inlineStr"/>
       <c r="H788" t="inlineStr">
@@ -50215,16 +50215,16 @@
       <c r="AF788" t="inlineStr"/>
       <c r="AG788" t="inlineStr"/>
       <c r="AH788" t="n">
-        <v>71.77599310585225</v>
+        <v>71.77598555683208</v>
       </c>
       <c r="AI788" t="n">
-        <v>72.84390966813079</v>
+        <v>72.8439020067928</v>
       </c>
       <c r="AJ788" t="n">
-        <v>71.19794069726049</v>
+        <v>71.19793320903683</v>
       </c>
       <c r="AK788" t="n">
-        <v>72.54019165039062</v>
+        <v>72.54018402099609</v>
       </c>
       <c r="AL788" t="n">
         <v>15310600</v>
@@ -50307,7 +50307,7 @@
       <c r="D790" t="inlineStr"/>
       <c r="E790" t="inlineStr"/>
       <c r="F790" t="n">
-        <v>71.75638580322266</v>
+        <v>71.75639343261719</v>
       </c>
       <c r="G790" t="inlineStr"/>
       <c r="H790" t="inlineStr">
@@ -50341,16 +50341,16 @@
       <c r="AF790" t="inlineStr"/>
       <c r="AG790" t="inlineStr"/>
       <c r="AH790" t="n">
-        <v>73.30438176534491</v>
+        <v>73.30438955932789</v>
       </c>
       <c r="AI790" t="n">
-        <v>73.53951802704482</v>
+        <v>73.53952584602833</v>
       </c>
       <c r="AJ790" t="n">
-        <v>71.58003173823597</v>
+        <v>71.58003934887992</v>
       </c>
       <c r="AK790" t="n">
-        <v>71.75638580322266</v>
+        <v>71.75639343261719</v>
       </c>
       <c r="AL790" t="n">
         <v>12345800</v>
@@ -50370,7 +50370,7 @@
       <c r="D791" t="inlineStr"/>
       <c r="E791" t="inlineStr"/>
       <c r="F791" t="n">
-        <v>70.39455413818359</v>
+        <v>70.39454650878906</v>
       </c>
       <c r="G791" t="inlineStr"/>
       <c r="H791" t="inlineStr">
@@ -50404,16 +50404,16 @@
       <c r="AF791" t="inlineStr"/>
       <c r="AG791" t="inlineStr"/>
       <c r="AH791" t="n">
-        <v>71.51146089470924</v>
+        <v>71.51145314426384</v>
       </c>
       <c r="AI791" t="n">
-        <v>71.51146089470924</v>
+        <v>71.51145314426384</v>
       </c>
       <c r="AJ791" t="n">
-        <v>70.30638082970174</v>
+        <v>70.30637320986347</v>
       </c>
       <c r="AK791" t="n">
-        <v>70.39455413818359</v>
+        <v>70.39454650878906</v>
       </c>
       <c r="AL791" t="n">
         <v>13155800</v>
@@ -50433,7 +50433,7 @@
       <c r="D792" t="inlineStr"/>
       <c r="E792" t="inlineStr"/>
       <c r="F792" t="n">
-        <v>68.90533447265625</v>
+        <v>68.90534210205078</v>
       </c>
       <c r="G792" t="inlineStr"/>
       <c r="H792" t="inlineStr">
@@ -50467,16 +50467,16 @@
       <c r="AF792" t="inlineStr"/>
       <c r="AG792" t="inlineStr"/>
       <c r="AH792" t="n">
-        <v>70.13980540493061</v>
+        <v>70.13981317100928</v>
       </c>
       <c r="AI792" t="n">
-        <v>70.73744929787075</v>
+        <v>70.73745713012225</v>
       </c>
       <c r="AJ792" t="n">
-        <v>68.26849995847533</v>
+        <v>68.26850751735773</v>
       </c>
       <c r="AK792" t="n">
-        <v>68.90533447265625</v>
+        <v>68.90534210205078</v>
       </c>
       <c r="AL792" t="n">
         <v>13630700</v>
@@ -50496,7 +50496,7 @@
       <c r="D793" t="inlineStr"/>
       <c r="E793" t="inlineStr"/>
       <c r="F793" t="n">
-        <v>69.55197143554688</v>
+        <v>69.55197906494141</v>
       </c>
       <c r="G793" t="inlineStr"/>
       <c r="H793" t="inlineStr">
@@ -50530,16 +50530,16 @@
       <c r="AF793" t="inlineStr"/>
       <c r="AG793" t="inlineStr"/>
       <c r="AH793" t="n">
-        <v>68.09215608157552</v>
+        <v>68.0921635508379</v>
       </c>
       <c r="AI793" t="n">
-        <v>69.75771662168933</v>
+        <v>69.75772427365274</v>
       </c>
       <c r="AJ793" t="n">
-        <v>67.02423952376266</v>
+        <v>67.02424687588159</v>
       </c>
       <c r="AK793" t="n">
-        <v>69.55197143554688</v>
+        <v>69.55197906494141</v>
       </c>
       <c r="AL793" t="n">
         <v>15568400</v>
@@ -50622,7 +50622,7 @@
       <c r="D795" t="inlineStr"/>
       <c r="E795" t="inlineStr"/>
       <c r="F795" t="n">
-        <v>70.30638122558594</v>
+        <v>70.30637359619141</v>
       </c>
       <c r="G795" t="inlineStr"/>
       <c r="H795" t="inlineStr">
@@ -50656,16 +50656,16 @@
       <c r="AF795" t="inlineStr"/>
       <c r="AG795" t="inlineStr"/>
       <c r="AH795" t="n">
-        <v>68.25871384386008</v>
+        <v>68.25870643667101</v>
       </c>
       <c r="AI795" t="n">
-        <v>70.50232689543661</v>
+        <v>70.50231924477876</v>
       </c>
       <c r="AJ795" t="n">
-        <v>68.19013211192753</v>
+        <v>68.1901247121807</v>
       </c>
       <c r="AK795" t="n">
-        <v>70.30638122558594</v>
+        <v>70.30637359619141</v>
       </c>
       <c r="AL795" t="n">
         <v>9731700</v>
@@ -50685,7 +50685,7 @@
       <c r="D796" t="inlineStr"/>
       <c r="E796" t="inlineStr"/>
       <c r="F796" t="n">
-        <v>61.77280807495117</v>
+        <v>61.77281188964844</v>
       </c>
       <c r="G796" t="inlineStr"/>
       <c r="H796" t="inlineStr">
@@ -50719,16 +50719,16 @@
       <c r="AF796" t="inlineStr"/>
       <c r="AG796" t="inlineStr"/>
       <c r="AH796" t="n">
-        <v>64.82960581556215</v>
+        <v>64.82960981902788</v>
       </c>
       <c r="AI796" t="n">
-        <v>65.44684881608836</v>
+        <v>65.4468528576711</v>
       </c>
       <c r="AJ796" t="n">
-        <v>61.62584883725686</v>
+        <v>61.62585264287885</v>
       </c>
       <c r="AK796" t="n">
-        <v>61.77280807495117</v>
+        <v>61.77281188964844</v>
       </c>
       <c r="AL796" t="n">
         <v>39469500</v>
@@ -50748,7 +50748,7 @@
       <c r="D797" t="inlineStr"/>
       <c r="E797" t="inlineStr"/>
       <c r="F797" t="n">
-        <v>56.95247650146484</v>
+        <v>56.95247268676758</v>
       </c>
       <c r="G797" t="inlineStr"/>
       <c r="H797" t="inlineStr">
@@ -50782,16 +50782,16 @@
       <c r="AF797" t="inlineStr"/>
       <c r="AG797" t="inlineStr"/>
       <c r="AH797" t="n">
-        <v>59.02953115711191</v>
+        <v>59.02952720329278</v>
       </c>
       <c r="AI797" t="n">
-        <v>59.19608571662078</v>
+        <v>59.19608175164576</v>
       </c>
       <c r="AJ797" t="n">
-        <v>55.1693440750489</v>
+        <v>55.16934037978649</v>
       </c>
       <c r="AK797" t="n">
-        <v>56.95247650146484</v>
+        <v>56.95247268676758</v>
       </c>
       <c r="AL797" t="n">
         <v>51730500</v>
@@ -50811,7 +50811,7 @@
       <c r="D798" t="inlineStr"/>
       <c r="E798" t="inlineStr"/>
       <c r="F798" t="n">
-        <v>57.65788650512695</v>
+        <v>57.65789031982422</v>
       </c>
       <c r="G798" t="inlineStr"/>
       <c r="H798" t="inlineStr">
@@ -50845,16 +50845,16 @@
       <c r="AF798" t="inlineStr"/>
       <c r="AG798" t="inlineStr"/>
       <c r="AH798" t="n">
-        <v>55.02237861151268</v>
+        <v>55.02238225184239</v>
       </c>
       <c r="AI798" t="n">
-        <v>60.08765295871982</v>
+        <v>60.08765693417261</v>
       </c>
       <c r="AJ798" t="n">
-        <v>54.38554402903149</v>
+        <v>54.38554762722766</v>
       </c>
       <c r="AK798" t="n">
-        <v>57.65788650512695</v>
+        <v>57.65789031982422</v>
       </c>
       <c r="AL798" t="n">
         <v>37487700</v>
@@ -50874,7 +50874,7 @@
       <c r="D799" t="inlineStr"/>
       <c r="E799" t="inlineStr"/>
       <c r="F799" t="n">
-        <v>57.57951354980469</v>
+        <v>57.57950592041016</v>
       </c>
       <c r="G799" t="inlineStr"/>
       <c r="H799" t="inlineStr">
@@ -50908,16 +50908,16 @@
       <c r="AF799" t="inlineStr"/>
       <c r="AG799" t="inlineStr"/>
       <c r="AH799" t="n">
-        <v>59.99948066989549</v>
+        <v>59.99947271985074</v>
       </c>
       <c r="AI799" t="n">
-        <v>61.39071434647586</v>
+        <v>61.39070621209001</v>
       </c>
       <c r="AJ799" t="n">
-        <v>56.40382085538136</v>
+        <v>56.40381338176834</v>
       </c>
       <c r="AK799" t="n">
-        <v>57.57951354980469</v>
+        <v>57.57950592041016</v>
       </c>
       <c r="AL799" t="n">
         <v>30272300</v>
@@ -50937,7 +50937,7 @@
       <c r="D800" t="inlineStr"/>
       <c r="E800" t="inlineStr"/>
       <c r="F800" t="n">
-        <v>62.85052871704102</v>
+        <v>62.85053253173828</v>
       </c>
       <c r="G800" t="inlineStr"/>
       <c r="H800" t="inlineStr">
@@ -50971,16 +50971,16 @@
       <c r="AF800" t="inlineStr"/>
       <c r="AG800" t="inlineStr"/>
       <c r="AH800" t="n">
-        <v>55.61022322107959</v>
+        <v>55.61022659632831</v>
       </c>
       <c r="AI800" t="n">
-        <v>64.41811636556822</v>
+        <v>64.41812027540983</v>
       </c>
       <c r="AJ800" t="n">
-        <v>54.93420174841918</v>
+        <v>54.93420508263695</v>
       </c>
       <c r="AK800" t="n">
-        <v>62.85052871704102</v>
+        <v>62.85053253173828</v>
       </c>
       <c r="AL800" t="n">
         <v>49437900</v>
@@ -51252,7 +51252,7 @@
       <c r="D805" t="inlineStr"/>
       <c r="E805" t="inlineStr"/>
       <c r="F805" t="n">
-        <v>60.84205627441406</v>
+        <v>60.8420524597168</v>
       </c>
       <c r="G805" t="inlineStr"/>
       <c r="H805" t="inlineStr">
@@ -51286,16 +51286,16 @@
       <c r="AF805" t="inlineStr"/>
       <c r="AG805" t="inlineStr"/>
       <c r="AH805" t="n">
-        <v>61.78261266491442</v>
+        <v>61.78260879124581</v>
       </c>
       <c r="AI805" t="n">
-        <v>62.52721591424385</v>
+        <v>62.52721199388984</v>
       </c>
       <c r="AJ805" t="n">
-        <v>60.05826239685044</v>
+        <v>60.05825863129577</v>
       </c>
       <c r="AK805" t="n">
-        <v>60.84205627441406</v>
+        <v>60.8420524597168</v>
       </c>
       <c r="AL805" t="n">
         <v>21922600</v>
@@ -51504,7 +51504,7 @@
       <c r="D809" t="inlineStr"/>
       <c r="E809" t="inlineStr"/>
       <c r="F809" t="n">
-        <v>64.95698547363281</v>
+        <v>64.95697784423828</v>
       </c>
       <c r="G809" t="inlineStr"/>
       <c r="H809" t="inlineStr">
@@ -51538,16 +51538,16 @@
       <c r="AF809" t="inlineStr"/>
       <c r="AG809" t="inlineStr"/>
       <c r="AH809" t="n">
-        <v>65.12354004501201</v>
+        <v>65.12353239605514</v>
       </c>
       <c r="AI809" t="n">
-        <v>67.42593536507522</v>
+        <v>67.42592744569504</v>
       </c>
       <c r="AJ809" t="n">
-        <v>64.81982200604426</v>
+        <v>64.81981439275999</v>
       </c>
       <c r="AK809" t="n">
-        <v>64.95698547363281</v>
+        <v>64.95697784423828</v>
       </c>
       <c r="AL809" t="n">
         <v>17243900</v>
@@ -51756,7 +51756,7 @@
       <c r="D813" t="inlineStr"/>
       <c r="E813" t="inlineStr"/>
       <c r="F813" t="n">
-        <v>67.48470306396484</v>
+        <v>67.48471069335938</v>
       </c>
       <c r="G813" t="inlineStr"/>
       <c r="H813" t="inlineStr">
@@ -51790,16 +51790,16 @@
       <c r="AF813" t="inlineStr"/>
       <c r="AG813" t="inlineStr"/>
       <c r="AH813" t="n">
-        <v>66.65192291126182</v>
+        <v>66.65193044650748</v>
       </c>
       <c r="AI813" t="n">
-        <v>67.71004726932641</v>
+        <v>67.71005492419694</v>
       </c>
       <c r="AJ813" t="n">
-        <v>66.59314071631826</v>
+        <v>66.59314824491838</v>
       </c>
       <c r="AK813" t="n">
-        <v>67.48470306396484</v>
+        <v>67.48471069335938</v>
       </c>
       <c r="AL813" t="n">
         <v>8862800</v>
@@ -51819,7 +51819,7 @@
       <c r="D814" t="inlineStr"/>
       <c r="E814" t="inlineStr"/>
       <c r="F814" t="n">
-        <v>66.99483489990234</v>
+        <v>66.99484252929688</v>
       </c>
       <c r="G814" t="inlineStr"/>
       <c r="H814" t="inlineStr">
@@ -51853,16 +51853,16 @@
       <c r="AF814" t="inlineStr"/>
       <c r="AG814" t="inlineStr"/>
       <c r="AH814" t="n">
-        <v>66.14246313065978</v>
+        <v>66.14247066298593</v>
       </c>
       <c r="AI814" t="n">
-        <v>67.26916926484351</v>
+        <v>67.26917692547934</v>
       </c>
       <c r="AJ814" t="n">
-        <v>65.36846513369612</v>
+        <v>65.3684725778791</v>
       </c>
       <c r="AK814" t="n">
-        <v>66.99483489990234</v>
+        <v>66.99484252929688</v>
       </c>
       <c r="AL814" t="n">
         <v>15756500</v>
@@ -54465,7 +54465,7 @@
       <c r="D856" t="inlineStr"/>
       <c r="E856" t="inlineStr"/>
       <c r="F856" t="n">
-        <v>68.69719696044922</v>
+        <v>68.69720458984375</v>
       </c>
       <c r="G856" t="inlineStr"/>
       <c r="H856" t="inlineStr">
@@ -54504,16 +54504,16 @@
       <c r="AK856" t="inlineStr"/>
       <c r="AL856" t="inlineStr"/>
       <c r="AM856" t="n">
-        <v>68.98103011787535</v>
+        <v>68.98103777879192</v>
       </c>
       <c r="AN856" t="n">
-        <v>69.6955002493859</v>
+        <v>69.69550798965031</v>
       </c>
       <c r="AO856" t="n">
-        <v>68.2763419293873</v>
+        <v>68.27634951204239</v>
       </c>
       <c r="AP856" t="n">
-        <v>68.69719696044922</v>
+        <v>68.69720458984375</v>
       </c>
       <c r="AQ856" t="n">
         <v>8303300</v>
@@ -54528,7 +54528,7 @@
       <c r="D857" t="inlineStr"/>
       <c r="E857" t="inlineStr"/>
       <c r="F857" t="n">
-        <v>69.79337310791016</v>
+        <v>69.79336547851562</v>
       </c>
       <c r="G857" t="inlineStr"/>
       <c r="H857" t="inlineStr">
@@ -54567,16 +54567,16 @@
       <c r="AK857" t="inlineStr"/>
       <c r="AL857" t="inlineStr"/>
       <c r="AM857" t="n">
-        <v>68.85379133004236</v>
+        <v>68.85378380335729</v>
       </c>
       <c r="AN857" t="n">
-        <v>69.90103422000115</v>
+        <v>69.90102657883776</v>
       </c>
       <c r="AO857" t="n">
-        <v>68.25676424194944</v>
+        <v>68.25675678052782</v>
       </c>
       <c r="AP857" t="n">
-        <v>69.79337310791016</v>
+        <v>69.79336547851562</v>
       </c>
       <c r="AQ857" t="n">
         <v>9152800</v>
@@ -54654,7 +54654,7 @@
       <c r="D859" t="inlineStr"/>
       <c r="E859" t="inlineStr"/>
       <c r="F859" t="n">
-        <v>70.06742095947266</v>
+        <v>70.06741333007812</v>
       </c>
       <c r="G859" t="inlineStr"/>
       <c r="H859" t="inlineStr">
@@ -54693,16 +54693,16 @@
       <c r="AK859" t="inlineStr"/>
       <c r="AL859" t="inlineStr"/>
       <c r="AM859" t="n">
-        <v>71.41807591123124</v>
+        <v>71.41806813476866</v>
       </c>
       <c r="AN859" t="n">
-        <v>71.5746691498056</v>
+        <v>71.57466135629213</v>
       </c>
       <c r="AO859" t="n">
-        <v>69.9891280737518</v>
+        <v>69.9891204528823</v>
       </c>
       <c r="AP859" t="n">
-        <v>70.06742095947266</v>
+        <v>70.06741333007812</v>
       </c>
       <c r="AQ859" t="n">
         <v>13522000</v>
@@ -54780,7 +54780,7 @@
       <c r="D861" t="inlineStr"/>
       <c r="E861" t="inlineStr"/>
       <c r="F861" t="n">
-        <v>68.47208404541016</v>
+        <v>68.47209167480469</v>
       </c>
       <c r="G861" t="inlineStr"/>
       <c r="H861" t="inlineStr">
@@ -54819,16 +54819,16 @@
       <c r="AK861" t="inlineStr"/>
       <c r="AL861" t="inlineStr"/>
       <c r="AM861" t="n">
-        <v>69.39209443725055</v>
+        <v>69.39210216915579</v>
       </c>
       <c r="AN861" t="n">
-        <v>69.42145520003152</v>
+        <v>69.42146293520824</v>
       </c>
       <c r="AO861" t="n">
-        <v>67.86526756845322</v>
+        <v>67.86527513023418</v>
       </c>
       <c r="AP861" t="n">
-        <v>68.47208404541016</v>
+        <v>68.47209167480469</v>
       </c>
       <c r="AQ861" t="n">
         <v>14466600</v>
@@ -54843,7 +54843,7 @@
       <c r="D862" t="inlineStr"/>
       <c r="E862" t="inlineStr"/>
       <c r="F862" t="n">
-        <v>69.02996063232422</v>
+        <v>69.02996826171875</v>
       </c>
       <c r="G862" t="inlineStr"/>
       <c r="H862" t="inlineStr">
@@ -54882,16 +54882,16 @@
       <c r="AK862" t="inlineStr"/>
       <c r="AL862" t="inlineStr"/>
       <c r="AM862" t="n">
-        <v>68.41336221527334</v>
+        <v>68.4133697765196</v>
       </c>
       <c r="AN862" t="n">
-        <v>69.10826097747947</v>
+        <v>69.10826861552799</v>
       </c>
       <c r="AO862" t="n">
-        <v>68.08058948192945</v>
+        <v>68.08059700639669</v>
       </c>
       <c r="AP862" t="n">
-        <v>69.02996063232422</v>
+        <v>69.02996826171875</v>
       </c>
       <c r="AQ862" t="n">
         <v>10439800</v>
@@ -54906,7 +54906,7 @@
       <c r="D863" t="inlineStr"/>
       <c r="E863" t="inlineStr"/>
       <c r="F863" t="n">
-        <v>69.67594146728516</v>
+        <v>69.67593383789062</v>
       </c>
       <c r="G863" t="inlineStr"/>
       <c r="H863" t="inlineStr">
@@ -54945,16 +54945,16 @@
       <c r="AK863" t="inlineStr"/>
       <c r="AL863" t="inlineStr"/>
       <c r="AM863" t="n">
-        <v>69.94019585207946</v>
+        <v>69.94018819374952</v>
       </c>
       <c r="AN863" t="n">
-        <v>69.94019585207946</v>
+        <v>69.94018819374952</v>
       </c>
       <c r="AO863" t="n">
-        <v>68.79508107274846</v>
+        <v>68.79507353980661</v>
       </c>
       <c r="AP863" t="n">
-        <v>69.67594146728516</v>
+        <v>69.67593383789062</v>
       </c>
       <c r="AQ863" t="n">
         <v>21909800</v>
@@ -54969,7 +54969,7 @@
       <c r="D864" t="inlineStr"/>
       <c r="E864" t="inlineStr"/>
       <c r="F864" t="n">
-        <v>74.33468627929688</v>
+        <v>74.33469390869141</v>
       </c>
       <c r="G864" t="inlineStr"/>
       <c r="H864" t="inlineStr">
@@ -55008,16 +55008,16 @@
       <c r="AK864" t="inlineStr"/>
       <c r="AL864" t="inlineStr"/>
       <c r="AM864" t="n">
-        <v>73.75723803116961</v>
+        <v>73.75724560129731</v>
       </c>
       <c r="AN864" t="n">
-        <v>75.18618573720171</v>
+        <v>75.1861934539905</v>
       </c>
       <c r="AO864" t="n">
-        <v>72.08360734532793</v>
+        <v>72.08361474368134</v>
       </c>
       <c r="AP864" t="n">
-        <v>74.33468627929688</v>
+        <v>74.33469390869141</v>
       </c>
       <c r="AQ864" t="n">
         <v>33482900</v>
@@ -55032,7 +55032,7 @@
       <c r="D865" t="inlineStr"/>
       <c r="E865" t="inlineStr"/>
       <c r="F865" t="n">
-        <v>74.33468627929688</v>
+        <v>74.33469390869141</v>
       </c>
       <c r="G865" t="inlineStr"/>
       <c r="H865" t="inlineStr">
@@ -55071,16 +55071,16 @@
       <c r="AK865" t="inlineStr"/>
       <c r="AL865" t="inlineStr"/>
       <c r="AM865" t="n">
-        <v>74.23681458079943</v>
+        <v>74.23682220014884</v>
       </c>
       <c r="AN865" t="n">
-        <v>74.81427029605865</v>
+        <v>74.81427797467563</v>
       </c>
       <c r="AO865" t="n">
-        <v>73.10148943739161</v>
+        <v>73.10149694021608</v>
       </c>
       <c r="AP865" t="n">
-        <v>74.33468627929688</v>
+        <v>74.33469390869141</v>
       </c>
       <c r="AQ865" t="n">
         <v>22897900</v>
@@ -55221,7 +55221,7 @@
       <c r="D868" t="inlineStr"/>
       <c r="E868" t="inlineStr"/>
       <c r="F868" t="n">
-        <v>75.89087677001953</v>
+        <v>75.89088439941406</v>
       </c>
       <c r="G868" t="inlineStr"/>
       <c r="H868" t="inlineStr">
@@ -55260,16 +55260,16 @@
       <c r="AK868" t="inlineStr"/>
       <c r="AL868" t="inlineStr"/>
       <c r="AM868" t="n">
-        <v>75.92023753396059</v>
+        <v>75.9202451663068</v>
       </c>
       <c r="AN868" t="n">
-        <v>76.15513111262128</v>
+        <v>76.15513876858159</v>
       </c>
       <c r="AO868" t="n">
-        <v>75.22533874120404</v>
+        <v>75.2253463036913</v>
       </c>
       <c r="AP868" t="n">
-        <v>75.89087677001953</v>
+        <v>75.89088439941406</v>
       </c>
       <c r="AQ868" t="n">
         <v>11669500</v>
@@ -55410,7 +55410,7 @@
       <c r="D871" t="inlineStr"/>
       <c r="E871" t="inlineStr"/>
       <c r="F871" t="n">
-        <v>76.28236389160156</v>
+        <v>76.28237152099609</v>
       </c>
       <c r="G871" t="inlineStr"/>
       <c r="H871" t="inlineStr">
@@ -55449,16 +55449,16 @@
       <c r="AK871" t="inlineStr"/>
       <c r="AL871" t="inlineStr"/>
       <c r="AM871" t="n">
-        <v>75.75384778883364</v>
+        <v>75.75385536536854</v>
       </c>
       <c r="AN871" t="n">
-        <v>76.38023558460343</v>
+        <v>76.38024322378662</v>
       </c>
       <c r="AO871" t="n">
-        <v>75.25469244725311</v>
+        <v>75.2546999738649</v>
       </c>
       <c r="AP871" t="n">
-        <v>76.28236389160156</v>
+        <v>76.28237152099609</v>
       </c>
       <c r="AQ871" t="n">
         <v>10637100</v>
@@ -55473,7 +55473,7 @@
       <c r="D872" t="inlineStr"/>
       <c r="E872" t="inlineStr"/>
       <c r="F872" t="n">
-        <v>76.22364044189453</v>
+        <v>76.22364807128906</v>
       </c>
       <c r="G872" t="inlineStr"/>
       <c r="H872" t="inlineStr">
@@ -55512,16 +55512,16 @@
       <c r="AK872" t="inlineStr"/>
       <c r="AL872" t="inlineStr"/>
       <c r="AM872" t="n">
-        <v>76.21385849887548</v>
+        <v>76.21386612729093</v>
       </c>
       <c r="AN872" t="n">
-        <v>76.48790224605034</v>
+        <v>76.48790990189543</v>
       </c>
       <c r="AO872" t="n">
-        <v>75.52874166380626</v>
+        <v>75.52874922364683</v>
       </c>
       <c r="AP872" t="n">
-        <v>76.22364044189453</v>
+        <v>76.22364807128906</v>
       </c>
       <c r="AQ872" t="n">
         <v>11562000</v>
@@ -55536,7 +55536,7 @@
       <c r="D873" t="inlineStr"/>
       <c r="E873" t="inlineStr"/>
       <c r="F873" t="n">
-        <v>76.70323181152344</v>
+        <v>76.70322418212891</v>
       </c>
       <c r="G873" t="inlineStr"/>
       <c r="H873" t="inlineStr">
@@ -55575,16 +55575,16 @@
       <c r="AK873" t="inlineStr"/>
       <c r="AL873" t="inlineStr"/>
       <c r="AM873" t="n">
-        <v>76.09641526529157</v>
+        <v>76.0964076962549</v>
       </c>
       <c r="AN873" t="n">
-        <v>77.30025894666676</v>
+        <v>77.30025125788809</v>
       </c>
       <c r="AO873" t="n">
-        <v>75.95939337858321</v>
+        <v>75.95938582317561</v>
       </c>
       <c r="AP873" t="n">
-        <v>76.70323181152344</v>
+        <v>76.70322418212891</v>
       </c>
       <c r="AQ873" t="n">
         <v>9175400</v>
@@ -55599,7 +55599,7 @@
       <c r="D874" t="inlineStr"/>
       <c r="E874" t="inlineStr"/>
       <c r="F874" t="n">
-        <v>77.14365386962891</v>
+        <v>77.14364624023438</v>
       </c>
       <c r="G874" t="inlineStr"/>
       <c r="H874" t="inlineStr">
@@ -55638,16 +55638,16 @@
       <c r="AK874" t="inlineStr"/>
       <c r="AL874" t="inlineStr"/>
       <c r="AM874" t="n">
-        <v>77.46663721306703</v>
+        <v>77.46662955172992</v>
       </c>
       <c r="AN874" t="n">
-        <v>77.55471950647797</v>
+        <v>77.55471183642963</v>
       </c>
       <c r="AO874" t="n">
-        <v>76.41939429987595</v>
+        <v>76.41938674210962</v>
       </c>
       <c r="AP874" t="n">
-        <v>77.14365386962891</v>
+        <v>77.14364624023438</v>
       </c>
       <c r="AQ874" t="n">
         <v>11276000</v>
@@ -55788,7 +55788,7 @@
       <c r="D877" t="inlineStr"/>
       <c r="E877" t="inlineStr"/>
       <c r="F877" t="n">
-        <v>77.77982330322266</v>
+        <v>77.77983093261719</v>
       </c>
       <c r="G877" t="inlineStr"/>
       <c r="H877" t="inlineStr">
@@ -55827,16 +55827,16 @@
       <c r="AK877" t="inlineStr"/>
       <c r="AL877" t="inlineStr"/>
       <c r="AM877" t="n">
-        <v>78.14194931801882</v>
+        <v>78.14195698293416</v>
       </c>
       <c r="AN877" t="n">
-        <v>78.15173872756594</v>
+        <v>78.15174639344153</v>
       </c>
       <c r="AO877" t="n">
-        <v>76.77173066668479</v>
+        <v>76.77173819719589</v>
       </c>
       <c r="AP877" t="n">
-        <v>77.77982330322266</v>
+        <v>77.77983093261719</v>
       </c>
       <c r="AQ877" t="n">
         <v>14665200</v>
@@ -55851,7 +55851,7 @@
       <c r="D878" t="inlineStr"/>
       <c r="E878" t="inlineStr"/>
       <c r="F878" t="n">
-        <v>78.34750366210938</v>
+        <v>78.34748840332031</v>
       </c>
       <c r="G878" t="inlineStr"/>
       <c r="H878" t="inlineStr">
@@ -55890,16 +55890,16 @@
       <c r="AK878" t="inlineStr"/>
       <c r="AL878" t="inlineStr"/>
       <c r="AM878" t="n">
-        <v>77.96579875962554</v>
+        <v>77.9657835751765</v>
       </c>
       <c r="AN878" t="n">
-        <v>78.64111879710227</v>
+        <v>78.64110348112936</v>
       </c>
       <c r="AO878" t="n">
-        <v>77.49600408965078</v>
+        <v>77.49598899669792</v>
       </c>
       <c r="AP878" t="n">
-        <v>78.34750366210938</v>
+        <v>78.34748840332031</v>
       </c>
       <c r="AQ878" t="n">
         <v>17931000</v>

--- a/stock_data_raw.xlsx
+++ b/stock_data_raw.xlsx
@@ -659,19 +659,19 @@
         <v>45659</v>
       </c>
       <c r="B2" t="n">
-        <v>247.8092203593721</v>
+        <v>247.8092047827055</v>
       </c>
       <c r="C2" t="n">
-        <v>247.9784683255357</v>
+        <v>247.9784527382305</v>
       </c>
       <c r="D2" t="n">
-        <v>240.731246717875</v>
+        <v>240.731231586112</v>
       </c>
       <c r="E2" t="n">
-        <v>242.7521057128906</v>
+        <v>242.7520904541016</v>
       </c>
       <c r="F2" t="n">
-        <v>242.7521057128906</v>
+        <v>242.7520904541016</v>
       </c>
       <c r="G2" t="n">
         <v>55740700</v>
@@ -848,19 +848,19 @@
         <v>45664</v>
       </c>
       <c r="B5" t="n">
-        <v>241.8860138278822</v>
+        <v>241.8859985205852</v>
       </c>
       <c r="C5" t="n">
-        <v>244.4444500699373</v>
+        <v>244.4444346007346</v>
       </c>
       <c r="D5" t="n">
-        <v>240.2633629937866</v>
+        <v>240.263347789176</v>
       </c>
       <c r="E5" t="n">
-        <v>241.1194915771484</v>
+        <v>241.1194763183594</v>
       </c>
       <c r="F5" t="n">
-        <v>241.1194915771484</v>
+        <v>241.1194763183594</v>
       </c>
       <c r="G5" t="n">
         <v>40856000</v>
@@ -974,19 +974,19 @@
         <v>45667</v>
       </c>
       <c r="B7" t="n">
-        <v>238.9293760168756</v>
+        <v>238.9293605545079</v>
       </c>
       <c r="C7" t="n">
-        <v>239.0787097724967</v>
+        <v>239.0786943004649</v>
       </c>
       <c r="D7" t="n">
-        <v>231.9509432360177</v>
+        <v>231.9509282252608</v>
       </c>
       <c r="E7" t="n">
-        <v>235.7836151123047</v>
+        <v>235.7835998535156</v>
       </c>
       <c r="F7" t="n">
-        <v>235.7836151123047</v>
+        <v>235.7835998535156</v>
       </c>
       <c r="G7" t="n">
         <v>61710900</v>
@@ -1037,19 +1037,19 @@
         <v>45670</v>
       </c>
       <c r="B8" t="n">
-        <v>232.4785721472169</v>
+        <v>232.4785569450621</v>
       </c>
       <c r="C8" t="n">
-        <v>233.6134388955554</v>
+        <v>233.6134236191898</v>
       </c>
       <c r="D8" t="n">
-        <v>228.6857284143509</v>
+        <v>228.6857134602163</v>
       </c>
       <c r="E8" t="n">
-        <v>233.3446502685547</v>
+        <v>233.3446350097656</v>
       </c>
       <c r="F8" t="n">
-        <v>233.3446502685547</v>
+        <v>233.3446350097656</v>
       </c>
       <c r="G8" t="n">
         <v>49630700</v>
@@ -1100,19 +1100,19 @@
         <v>45671</v>
       </c>
       <c r="B9" t="n">
-        <v>233.6930579573657</v>
+        <v>233.6930733123071</v>
       </c>
       <c r="C9" t="n">
-        <v>235.0568847872792</v>
+        <v>235.0569002318317</v>
       </c>
       <c r="D9" t="n">
-        <v>231.4233246799516</v>
+        <v>231.4233398857589</v>
       </c>
       <c r="E9" t="n">
-        <v>232.2296752929688</v>
+        <v>232.2296905517578</v>
       </c>
       <c r="F9" t="n">
-        <v>232.2296752929688</v>
+        <v>232.2296905517578</v>
       </c>
       <c r="G9" t="n">
         <v>39435300</v>
@@ -1226,19 +1226,19 @@
         <v>45673</v>
       </c>
       <c r="B11" t="n">
-        <v>236.2813854529523</v>
+        <v>236.2813695865115</v>
       </c>
       <c r="C11" t="n">
-        <v>236.9384023912682</v>
+        <v>236.9383864807084</v>
       </c>
       <c r="D11" t="n">
-        <v>227.0033395866394</v>
+        <v>227.0033243432251</v>
       </c>
       <c r="E11" t="n">
-        <v>227.2322998046875</v>
+        <v>227.2322845458984</v>
       </c>
       <c r="F11" t="n">
-        <v>227.2322998046875</v>
+        <v>227.2322845458984</v>
       </c>
       <c r="G11" t="n">
         <v>71759100</v>
@@ -1352,19 +1352,19 @@
         <v>45678</v>
       </c>
       <c r="B13" t="n">
-        <v>222.9914658656214</v>
+        <v>222.9914505136237</v>
       </c>
       <c r="C13" t="n">
-        <v>223.4095730413088</v>
+        <v>223.4095576605263</v>
       </c>
       <c r="D13" t="n">
-        <v>218.3922717429711</v>
+        <v>218.3922567076081</v>
       </c>
       <c r="E13" t="n">
-        <v>221.6375885009766</v>
+        <v>221.6375732421875</v>
       </c>
       <c r="F13" t="n">
-        <v>221.6375885009766</v>
+        <v>221.6375732421875</v>
       </c>
       <c r="G13" t="n">
         <v>98070400</v>
@@ -1667,19 +1667,19 @@
         <v>45685</v>
       </c>
       <c r="B18" t="n">
-        <v>229.8106153055851</v>
+        <v>229.8106300898193</v>
       </c>
       <c r="C18" t="n">
-        <v>239.1085587693599</v>
+        <v>239.1085741517517</v>
       </c>
       <c r="D18" t="n">
-        <v>229.7707868971689</v>
+        <v>229.7708016788408</v>
       </c>
       <c r="E18" t="n">
-        <v>237.1872406005859</v>
+        <v>237.187255859375</v>
       </c>
       <c r="F18" t="n">
-        <v>237.1872406005859</v>
+        <v>237.187255859375</v>
       </c>
       <c r="G18" t="n">
         <v>75707600</v>
@@ -1730,19 +1730,19 @@
         <v>45686</v>
       </c>
       <c r="B19" t="n">
-        <v>233.065904960723</v>
+        <v>233.0658751112276</v>
       </c>
       <c r="C19" t="n">
-        <v>238.780066940242</v>
+        <v>238.7800363589156</v>
       </c>
       <c r="D19" t="n">
-        <v>232.9563996116177</v>
+        <v>232.9563697761471</v>
       </c>
       <c r="E19" t="n">
-        <v>238.2823181152344</v>
+        <v>238.2822875976562</v>
       </c>
       <c r="F19" t="n">
-        <v>238.2823181152344</v>
+        <v>238.2822875976562</v>
       </c>
       <c r="G19" t="n">
         <v>45486100</v>
@@ -1793,19 +1793,19 @@
         <v>45687</v>
       </c>
       <c r="B20" t="n">
-        <v>237.5954181968957</v>
+        <v>237.5954028687454</v>
       </c>
       <c r="C20" t="n">
-        <v>239.7058683175974</v>
+        <v>239.7058528532943</v>
       </c>
       <c r="D20" t="n">
-        <v>236.1420001594612</v>
+        <v>236.1419849250763</v>
       </c>
       <c r="E20" t="n">
-        <v>236.5202789306641</v>
+        <v>236.520263671875</v>
       </c>
       <c r="F20" t="n">
-        <v>236.5202789306641</v>
+        <v>236.520263671875</v>
       </c>
       <c r="G20" t="n">
         <v>55658300</v>
@@ -1856,19 +1856,19 @@
         <v>45688</v>
       </c>
       <c r="B21" t="n">
-        <v>246.0770597936333</v>
+        <v>246.0770438113447</v>
       </c>
       <c r="C21" t="n">
-        <v>246.0770597936333</v>
+        <v>246.0770438113447</v>
       </c>
       <c r="D21" t="n">
-        <v>232.3889674810629</v>
+        <v>232.3889523877928</v>
       </c>
       <c r="E21" t="n">
-        <v>234.9374389648438</v>
+        <v>234.9374237060547</v>
       </c>
       <c r="F21" t="n">
-        <v>234.9374389648438</v>
+        <v>234.9374237060547</v>
       </c>
       <c r="G21" t="n">
         <v>100959800</v>
@@ -1919,19 +1919,19 @@
         <v>45691</v>
       </c>
       <c r="B22" t="n">
-        <v>228.9545099800506</v>
+        <v>228.9544945887561</v>
       </c>
       <c r="C22" t="n">
-        <v>230.7862220103343</v>
+        <v>230.7862064959043</v>
       </c>
       <c r="D22" t="n">
-        <v>224.6838165553226</v>
+        <v>224.6838014511222</v>
       </c>
       <c r="E22" t="n">
-        <v>226.9834136962891</v>
+        <v>226.9833984375</v>
       </c>
       <c r="F22" t="n">
-        <v>226.9834136962891</v>
+        <v>226.9833984375</v>
       </c>
       <c r="G22" t="n">
         <v>73063300</v>
@@ -1982,19 +1982,19 @@
         <v>45692</v>
       </c>
       <c r="B23" t="n">
-        <v>226.226846442903</v>
+        <v>226.2268166528706</v>
       </c>
       <c r="C23" t="n">
-        <v>232.0803776275347</v>
+        <v>232.0803470666968</v>
       </c>
       <c r="D23" t="n">
-        <v>225.6295417623977</v>
+        <v>225.6295120510196</v>
       </c>
       <c r="E23" t="n">
-        <v>231.7518615722656</v>
+        <v>231.7518310546875</v>
       </c>
       <c r="F23" t="n">
-        <v>231.7518615722656</v>
+        <v>231.7518310546875</v>
       </c>
       <c r="G23" t="n">
         <v>45067300</v>
@@ -2045,19 +2045,19 @@
         <v>45693</v>
       </c>
       <c r="B24" t="n">
-        <v>227.5010766734706</v>
+        <v>227.5010616732941</v>
       </c>
       <c r="C24" t="n">
-        <v>231.6224363356746</v>
+        <v>231.6224210637583</v>
       </c>
       <c r="D24" t="n">
-        <v>227.2422527529774</v>
+        <v>227.2422377698664</v>
       </c>
       <c r="E24" t="n">
-        <v>231.42333984375</v>
+        <v>231.4233245849609</v>
       </c>
       <c r="F24" t="n">
-        <v>231.42333984375</v>
+        <v>231.4233245849609</v>
       </c>
       <c r="G24" t="n">
         <v>39620300</v>
@@ -2297,19 +2297,19 @@
         <v>45699</v>
       </c>
       <c r="B28" t="n">
-        <v>227.4223198813819</v>
+        <v>227.4223348502397</v>
       </c>
       <c r="C28" t="n">
-        <v>234.4283613035192</v>
+        <v>234.4283767335121</v>
       </c>
       <c r="D28" t="n">
-        <v>227.3525663401629</v>
+        <v>227.3525813044295</v>
       </c>
       <c r="E28" t="n">
-        <v>231.8272552490234</v>
+        <v>231.8272705078125</v>
       </c>
       <c r="F28" t="n">
-        <v>231.8272552490234</v>
+        <v>231.8272705078125</v>
       </c>
       <c r="G28" t="n">
         <v>53718400</v>
@@ -2423,19 +2423,19 @@
         <v>45701</v>
       </c>
       <c r="B30" t="n">
-        <v>236.1026431851375</v>
+        <v>236.1026282182191</v>
       </c>
       <c r="C30" t="n">
-        <v>241.514131106333</v>
+        <v>241.5141157963719</v>
       </c>
       <c r="D30" t="n">
-        <v>234.7672133917818</v>
+        <v>234.7671985095185</v>
       </c>
       <c r="E30" t="n">
-        <v>240.7068939208984</v>
+        <v>240.7068786621094</v>
       </c>
       <c r="F30" t="n">
-        <v>240.7068939208984</v>
+        <v>240.7068786621094</v>
       </c>
       <c r="G30" t="n">
         <v>53614100</v>
@@ -2486,19 +2486,19 @@
         <v>45702</v>
       </c>
       <c r="B31" t="n">
-        <v>240.4278440984732</v>
+        <v>240.427874198087</v>
       </c>
       <c r="C31" t="n">
-        <v>244.7131931693581</v>
+        <v>244.7132238054628</v>
       </c>
       <c r="D31" t="n">
-        <v>240.1687356269457</v>
+        <v>240.1687656941212</v>
       </c>
       <c r="E31" t="n">
-        <v>243.7664337158203</v>
+        <v>243.7664642333984</v>
       </c>
       <c r="F31" t="n">
-        <v>243.7664337158203</v>
+        <v>243.7664642333984</v>
       </c>
       <c r="G31" t="n">
         <v>40896200</v>
@@ -2612,19 +2612,19 @@
         <v>45707</v>
       </c>
       <c r="B33" t="n">
-        <v>243.8262313730556</v>
+        <v>243.8262161273519</v>
       </c>
       <c r="C33" t="n">
-        <v>245.1716216090192</v>
+        <v>245.1716062791923</v>
       </c>
       <c r="D33" t="n">
-        <v>242.3313431952368</v>
+        <v>242.3313280430039</v>
       </c>
       <c r="E33" t="n">
-        <v>244.0355072021484</v>
+        <v>244.0354919433594</v>
       </c>
       <c r="F33" t="n">
-        <v>244.0355072021484</v>
+        <v>244.0354919433594</v>
       </c>
       <c r="G33" t="n">
         <v>32204200</v>
@@ -2675,19 +2675,19 @@
         <v>45708</v>
       </c>
       <c r="B34" t="n">
-        <v>244.1052973389922</v>
+        <v>244.1052669318995</v>
       </c>
       <c r="C34" t="n">
-        <v>245.9390233481642</v>
+        <v>245.9389927126525</v>
       </c>
       <c r="D34" t="n">
-        <v>243.4575032811023</v>
+        <v>243.4574729547024</v>
       </c>
       <c r="E34" t="n">
-        <v>244.9922637939453</v>
+        <v>244.9922332763672</v>
       </c>
       <c r="F34" t="n">
-        <v>244.9922637939453</v>
+        <v>244.9922332763672</v>
       </c>
       <c r="G34" t="n">
         <v>32316900</v>
@@ -3116,19 +3116,19 @@
         <v>45719</v>
       </c>
       <c r="B41" t="n">
-        <v>240.9659917728134</v>
+        <v>240.966007272635</v>
       </c>
       <c r="C41" t="n">
-        <v>243.1983635012748</v>
+        <v>243.1983791446907</v>
       </c>
       <c r="D41" t="n">
-        <v>235.3053560708129</v>
+        <v>235.3053712065215</v>
       </c>
       <c r="E41" t="n">
-        <v>237.2188110351562</v>
+        <v>237.2188262939453</v>
       </c>
       <c r="F41" t="n">
-        <v>237.2188110351562</v>
+        <v>237.2188262939453</v>
       </c>
       <c r="G41" t="n">
         <v>47184000</v>
@@ -3305,19 +3305,19 @@
         <v>45722</v>
       </c>
       <c r="B44" t="n">
-        <v>233.6410639981791</v>
+        <v>233.6410791992606</v>
       </c>
       <c r="C44" t="n">
-        <v>237.0494072960082</v>
+        <v>237.0494227188423</v>
       </c>
       <c r="D44" t="n">
-        <v>232.3654272740836</v>
+        <v>232.3654423921701</v>
       </c>
       <c r="E44" t="n">
-        <v>234.5280303955078</v>
+        <v>234.5280456542969</v>
       </c>
       <c r="F44" t="n">
-        <v>234.5280303955078</v>
+        <v>234.5280456542969</v>
       </c>
       <c r="G44" t="n">
         <v>45170400</v>
@@ -3494,19 +3494,19 @@
         <v>45727</v>
       </c>
       <c r="B47" t="n">
-        <v>223.0472821864493</v>
+        <v>223.0472976504486</v>
       </c>
       <c r="C47" t="n">
-        <v>225.0703629938446</v>
+        <v>225.0703785981053</v>
       </c>
       <c r="D47" t="n">
-        <v>216.7089556312574</v>
+        <v>216.7089706558168</v>
       </c>
       <c r="E47" t="n">
-        <v>220.08740234375</v>
+        <v>220.0874176025391</v>
       </c>
       <c r="F47" t="n">
-        <v>220.08740234375</v>
+        <v>220.0874176025391</v>
       </c>
       <c r="G47" t="n">
         <v>76137400</v>
@@ -3557,19 +3557,19 @@
         <v>45728</v>
       </c>
       <c r="B48" t="n">
-        <v>219.3897895710681</v>
+        <v>219.3898050520796</v>
       </c>
       <c r="C48" t="n">
-        <v>220.9943034989941</v>
+        <v>220.9943190932265</v>
       </c>
       <c r="D48" t="n">
-        <v>214.177617020402</v>
+        <v>214.177632133622</v>
       </c>
       <c r="E48" t="n">
-        <v>216.2405548095703</v>
+        <v>216.2405700683594</v>
       </c>
       <c r="F48" t="n">
-        <v>216.2405548095703</v>
+        <v>216.2405700683594</v>
       </c>
       <c r="G48" t="n">
         <v>62547500</v>
@@ -3683,19 +3683,19 @@
         <v>45730</v>
       </c>
       <c r="B50" t="n">
-        <v>210.5300794115992</v>
+        <v>210.5300945102882</v>
       </c>
       <c r="C50" t="n">
-        <v>213.2208750183425</v>
+        <v>213.2208903100085</v>
       </c>
       <c r="D50" t="n">
-        <v>208.8657724429589</v>
+        <v>208.8657874222879</v>
       </c>
       <c r="E50" t="n">
-        <v>212.762451171875</v>
+        <v>212.7624664306641</v>
       </c>
       <c r="F50" t="n">
-        <v>212.762451171875</v>
+        <v>212.7624664306641</v>
       </c>
       <c r="G50" t="n">
         <v>60107600</v>
@@ -3872,19 +3872,19 @@
         <v>45735</v>
       </c>
       <c r="B53" t="n">
-        <v>213.4899568048476</v>
+        <v>213.4899719913265</v>
       </c>
       <c r="C53" t="n">
-        <v>218.0144781615262</v>
+        <v>218.0144936698542</v>
       </c>
       <c r="D53" t="n">
-        <v>213.0215573102422</v>
+        <v>213.0215724634018</v>
       </c>
       <c r="E53" t="n">
-        <v>214.5064849853516</v>
+        <v>214.5065002441406</v>
       </c>
       <c r="F53" t="n">
-        <v>214.5064849853516</v>
+        <v>214.5065002441406</v>
       </c>
       <c r="G53" t="n">
         <v>54385400</v>
@@ -3935,19 +3935,19 @@
         <v>45736</v>
       </c>
       <c r="B54" t="n">
-        <v>213.2607660976187</v>
+        <v>213.2607508466693</v>
       </c>
       <c r="C54" t="n">
-        <v>216.7488387280272</v>
+        <v>216.7488232276347</v>
       </c>
       <c r="D54" t="n">
-        <v>211.496793680911</v>
+        <v>211.4967785561088</v>
       </c>
       <c r="E54" t="n">
-        <v>213.3703918457031</v>
+        <v>213.3703765869141</v>
       </c>
       <c r="F54" t="n">
-        <v>213.3703918457031</v>
+        <v>213.3703765869141</v>
       </c>
       <c r="G54" t="n">
         <v>48862900</v>
@@ -4124,19 +4124,19 @@
         <v>45741</v>
       </c>
       <c r="B57" t="n">
-        <v>220.017662576277</v>
+        <v>220.0176475207108</v>
       </c>
       <c r="C57" t="n">
-        <v>223.3363164018174</v>
+        <v>223.3363011191594</v>
       </c>
       <c r="D57" t="n">
-        <v>219.3300115304276</v>
+        <v>219.3299965219166</v>
       </c>
       <c r="E57" t="n">
-        <v>222.9875030517578</v>
+        <v>222.9874877929688</v>
       </c>
       <c r="F57" t="n">
-        <v>222.9875030517578</v>
+        <v>222.9874877929688</v>
       </c>
       <c r="G57" t="n">
         <v>34493600</v>
@@ -4250,19 +4250,19 @@
         <v>45743</v>
       </c>
       <c r="B59" t="n">
-        <v>220.6355348303588</v>
+        <v>220.6355499214609</v>
       </c>
       <c r="C59" t="n">
-        <v>224.2232726425071</v>
+        <v>224.2232879790045</v>
       </c>
       <c r="D59" t="n">
-        <v>219.8083615234804</v>
+        <v>219.8083765580053</v>
       </c>
       <c r="E59" t="n">
-        <v>223.087158203125</v>
+        <v>223.0871734619141</v>
       </c>
       <c r="F59" t="n">
-        <v>223.087158203125</v>
+        <v>223.0871734619141</v>
       </c>
       <c r="G59" t="n">
         <v>37094800</v>
@@ -4313,19 +4313,19 @@
         <v>45744</v>
       </c>
       <c r="B60" t="n">
-        <v>220.9145816165346</v>
+        <v>220.914566093745</v>
       </c>
       <c r="C60" t="n">
-        <v>223.0472882242349</v>
+        <v>223.0472725515885</v>
       </c>
       <c r="D60" t="n">
-        <v>216.9381734356755</v>
+        <v>216.9381581922923</v>
       </c>
       <c r="E60" t="n">
-        <v>217.1574249267578</v>
+        <v>217.1574096679688</v>
       </c>
       <c r="F60" t="n">
-        <v>217.1574249267578</v>
+        <v>217.1574096679688</v>
       </c>
       <c r="G60" t="n">
         <v>39818600</v>
@@ -4439,19 +4439,19 @@
         <v>45748</v>
       </c>
       <c r="B62" t="n">
-        <v>219.0609263806537</v>
+        <v>219.0609113529448</v>
       </c>
       <c r="C62" t="n">
-        <v>222.9177332815032</v>
+        <v>222.9177179892151</v>
       </c>
       <c r="D62" t="n">
-        <v>218.1540238400705</v>
+        <v>218.1540088745757</v>
       </c>
       <c r="E62" t="n">
-        <v>222.4294128417969</v>
+        <v>222.4293975830078</v>
       </c>
       <c r="F62" t="n">
-        <v>222.4294128417969</v>
+        <v>222.4293975830078</v>
       </c>
       <c r="G62" t="n">
         <v>36412700</v>
@@ -4502,19 +4502,19 @@
         <v>45749</v>
       </c>
       <c r="B63" t="n">
-        <v>220.5657953452804</v>
+        <v>220.5657802616442</v>
       </c>
       <c r="C63" t="n">
-        <v>224.4226023340601</v>
+        <v>224.4225869866718</v>
       </c>
       <c r="D63" t="n">
-        <v>220.2668146407477</v>
+        <v>220.2667995775576</v>
       </c>
       <c r="E63" t="n">
-        <v>223.1270294189453</v>
+        <v>223.1270141601562</v>
       </c>
       <c r="F63" t="n">
-        <v>223.1270294189453</v>
+        <v>223.1270141601562</v>
       </c>
       <c r="G63" t="n">
         <v>35905900</v>
@@ -4565,19 +4565,19 @@
         <v>45750</v>
       </c>
       <c r="B64" t="n">
-        <v>204.8395255545537</v>
+        <v>204.839540989818</v>
       </c>
       <c r="C64" t="n">
-        <v>206.782892239196</v>
+        <v>206.7829078208987</v>
       </c>
       <c r="D64" t="n">
-        <v>200.5641523032743</v>
+        <v>200.5641674163767</v>
       </c>
       <c r="E64" t="n">
-        <v>202.4975433349609</v>
+        <v>202.49755859375</v>
       </c>
       <c r="F64" t="n">
-        <v>202.4975433349609</v>
+        <v>202.49755859375</v>
       </c>
       <c r="G64" t="n">
         <v>103419000</v>
@@ -4754,19 +4754,19 @@
         <v>45755</v>
       </c>
       <c r="B67" t="n">
-        <v>186.0637305548024</v>
+        <v>186.0637635998773</v>
       </c>
       <c r="C67" t="n">
-        <v>189.691324966831</v>
+        <v>189.6913586561697</v>
       </c>
       <c r="D67" t="n">
-        <v>168.6333455330125</v>
+        <v>168.6333754824363</v>
       </c>
       <c r="E67" t="n">
-        <v>171.8323974609375</v>
+        <v>171.8324279785156</v>
       </c>
       <c r="F67" t="n">
-        <v>171.8323974609375</v>
+        <v>171.8324279785156</v>
       </c>
       <c r="G67" t="n">
         <v>120859500</v>
@@ -4943,19 +4943,19 @@
         <v>45758</v>
       </c>
       <c r="B70" t="n">
-        <v>185.4657936896058</v>
+        <v>185.4658080204705</v>
       </c>
       <c r="C70" t="n">
-        <v>198.8599785807966</v>
+        <v>198.8599939466243</v>
       </c>
       <c r="D70" t="n">
-        <v>185.4259214902779</v>
+        <v>185.4259358180616</v>
       </c>
       <c r="E70" t="n">
-        <v>197.4747161865234</v>
+        <v>197.4747314453125</v>
       </c>
       <c r="F70" t="n">
-        <v>197.4747161865234</v>
+        <v>197.4747314453125</v>
       </c>
       <c r="G70" t="n">
         <v>87435900</v>
@@ -5258,19 +5258,19 @@
         <v>45768</v>
       </c>
       <c r="B75" t="n">
-        <v>192.6113652445369</v>
+        <v>192.6113499770583</v>
       </c>
       <c r="C75" t="n">
-        <v>193.1395578569529</v>
+        <v>193.1395425476067</v>
       </c>
       <c r="D75" t="n">
-        <v>189.1631497833642</v>
+        <v>189.1631347892109</v>
       </c>
       <c r="E75" t="n">
-        <v>192.5017395019531</v>
+        <v>192.5017242431641</v>
       </c>
       <c r="F75" t="n">
-        <v>192.5017395019531</v>
+        <v>192.5017242431641</v>
       </c>
       <c r="G75" t="n">
         <v>46742500</v>
@@ -5384,19 +5384,19 @@
         <v>45770</v>
       </c>
       <c r="B77" t="n">
-        <v>205.2979786356077</v>
+        <v>205.297963272409</v>
       </c>
       <c r="C77" t="n">
-        <v>207.2911628942059</v>
+        <v>207.2911473818499</v>
       </c>
       <c r="D77" t="n">
-        <v>202.1088868632085</v>
+        <v>202.1088717386613</v>
       </c>
       <c r="E77" t="n">
-        <v>203.9027557373047</v>
+        <v>203.9027404785156</v>
       </c>
       <c r="F77" t="n">
-        <v>203.9027557373047</v>
+        <v>203.9027404785156</v>
       </c>
       <c r="G77" t="n">
         <v>52929200</v>
@@ -5447,19 +5447,19 @@
         <v>45771</v>
       </c>
       <c r="B78" t="n">
-        <v>204.1917605029567</v>
+        <v>204.1917755069081</v>
       </c>
       <c r="C78" t="n">
-        <v>208.118335920465</v>
+        <v>208.1183512129401</v>
       </c>
       <c r="D78" t="n">
-        <v>202.248408894664</v>
+        <v>202.2484237558185</v>
       </c>
       <c r="E78" t="n">
-        <v>207.6598968505859</v>
+        <v>207.659912109375</v>
       </c>
       <c r="F78" t="n">
-        <v>207.6598968505859</v>
+        <v>207.659912109375</v>
       </c>
       <c r="G78" t="n">
         <v>47311000</v>
@@ -5951,19 +5951,19 @@
         <v>45783</v>
       </c>
       <c r="B86" t="n">
-        <v>197.5345458591726</v>
+        <v>197.5345306234426</v>
       </c>
       <c r="C86" t="n">
-        <v>199.9662180436969</v>
+        <v>199.9662026204134</v>
       </c>
       <c r="D86" t="n">
-        <v>196.3485987128521</v>
+        <v>196.3485835685935</v>
       </c>
       <c r="E86" t="n">
-        <v>197.8335113525391</v>
+        <v>197.83349609375</v>
       </c>
       <c r="F86" t="n">
-        <v>197.8335113525391</v>
+        <v>197.83349609375</v>
       </c>
       <c r="G86" t="n">
         <v>51216500</v>
@@ -6203,19 +6203,19 @@
         <v>45789</v>
       </c>
       <c r="B90" t="n">
-        <v>210.5267672009768</v>
+        <v>210.5267519291572</v>
       </c>
       <c r="C90" t="n">
-        <v>210.826139966164</v>
+        <v>210.8261246726276</v>
       </c>
       <c r="D90" t="n">
-        <v>206.3156319237418</v>
+        <v>206.3156169574021</v>
       </c>
       <c r="E90" t="n">
-        <v>210.3471374511719</v>
+        <v>210.3471221923828</v>
       </c>
       <c r="F90" t="n">
-        <v>210.3471374511719</v>
+        <v>210.3471221923828</v>
       </c>
       <c r="G90" t="n">
         <v>63775800</v>
@@ -6329,19 +6329,19 @@
         <v>45791</v>
       </c>
       <c r="B92" t="n">
-        <v>211.9836766376918</v>
+        <v>211.9836919036665</v>
       </c>
       <c r="C92" t="n">
-        <v>213.4905138683673</v>
+        <v>213.4905292428568</v>
       </c>
       <c r="D92" t="n">
-        <v>210.1375726291596</v>
+        <v>210.1375877621875</v>
       </c>
       <c r="E92" t="n">
-        <v>211.8838958740234</v>
+        <v>211.8839111328125</v>
       </c>
       <c r="F92" t="n">
-        <v>211.8838958740234</v>
+        <v>211.8839111328125</v>
       </c>
       <c r="G92" t="n">
         <v>49325800</v>
@@ -6644,19 +6644,19 @@
         <v>45798</v>
       </c>
       <c r="B97" t="n">
-        <v>204.7389360209172</v>
+        <v>204.7389515122616</v>
       </c>
       <c r="C97" t="n">
-        <v>206.6050022785287</v>
+        <v>206.6050179110669</v>
       </c>
       <c r="D97" t="n">
-        <v>200.2883150074922</v>
+        <v>200.2883301620853</v>
       </c>
       <c r="E97" t="n">
-        <v>201.6654052734375</v>
+        <v>201.6654205322266</v>
       </c>
       <c r="F97" t="n">
-        <v>201.6654052734375</v>
+        <v>201.6654205322266</v>
       </c>
       <c r="G97" t="n">
         <v>59211800</v>
@@ -6707,19 +6707,19 @@
         <v>45799</v>
       </c>
       <c r="B98" t="n">
-        <v>200.2883071907537</v>
+        <v>200.2883224002871</v>
       </c>
       <c r="C98" t="n">
-        <v>202.3240143717241</v>
+        <v>202.3240297358455</v>
       </c>
       <c r="D98" t="n">
-        <v>199.2804194948923</v>
+        <v>199.2804346278886</v>
       </c>
       <c r="E98" t="n">
-        <v>200.9369354248047</v>
+        <v>200.9369506835938</v>
       </c>
       <c r="F98" t="n">
-        <v>200.9369354248047</v>
+        <v>200.9369506835938</v>
       </c>
       <c r="G98" t="n">
         <v>46742400</v>
@@ -6770,19 +6770,19 @@
         <v>45800</v>
       </c>
       <c r="B99" t="n">
-        <v>193.2631118604188</v>
+        <v>193.2630967266574</v>
       </c>
       <c r="C99" t="n">
-        <v>197.2846439110423</v>
+        <v>197.2846284623687</v>
       </c>
       <c r="D99" t="n">
-        <v>193.0535615818202</v>
+        <v>193.053546464468</v>
       </c>
       <c r="E99" t="n">
-        <v>194.8597564697266</v>
+        <v>194.8597412109375</v>
       </c>
       <c r="F99" t="n">
-        <v>194.8597564697266</v>
+        <v>194.8597412109375</v>
       </c>
       <c r="G99" t="n">
         <v>78432900</v>
@@ -6896,19 +6896,19 @@
         <v>45805</v>
       </c>
       <c r="B101" t="n">
-        <v>200.1685576295096</v>
+        <v>200.1685729012413</v>
       </c>
       <c r="C101" t="n">
-        <v>202.3040608897638</v>
+        <v>202.3040763244224</v>
       </c>
       <c r="D101" t="n">
-        <v>199.4800048802265</v>
+        <v>199.4800200994256</v>
       </c>
       <c r="E101" t="n">
-        <v>199.9989166259766</v>
+        <v>199.9989318847656</v>
       </c>
       <c r="F101" t="n">
-        <v>199.9989166259766</v>
+        <v>199.9989318847656</v>
       </c>
       <c r="G101" t="n">
         <v>45339700</v>
@@ -7148,19 +7148,19 @@
         <v>45811</v>
       </c>
       <c r="B105" t="n">
-        <v>200.9269618478613</v>
+        <v>200.9269769625227</v>
       </c>
       <c r="C105" t="n">
-        <v>203.3418755057909</v>
+        <v>203.3418908021132</v>
       </c>
       <c r="D105" t="n">
-        <v>200.5377818622184</v>
+        <v>200.5377969476038</v>
       </c>
       <c r="E105" t="n">
-        <v>202.8429260253906</v>
+        <v>202.8429412841797</v>
       </c>
       <c r="F105" t="n">
-        <v>202.8429260253906</v>
+        <v>202.8429412841797</v>
       </c>
       <c r="G105" t="n">
         <v>46381600</v>
@@ -7211,19 +7211,19 @@
         <v>45812</v>
       </c>
       <c r="B106" t="n">
-        <v>202.483697639946</v>
+        <v>202.4836823743862</v>
       </c>
       <c r="C106" t="n">
-        <v>205.806703266729</v>
+        <v>205.8066877506427</v>
       </c>
       <c r="D106" t="n">
-        <v>201.6754018547046</v>
+        <v>201.6753866500835</v>
       </c>
       <c r="E106" t="n">
-        <v>202.3938903808594</v>
+        <v>202.3938751220703</v>
       </c>
       <c r="F106" t="n">
-        <v>202.3938903808594</v>
+        <v>202.3938751220703</v>
       </c>
       <c r="G106" t="n">
         <v>43604000</v>
@@ -7274,19 +7274,19 @@
         <v>45813</v>
       </c>
       <c r="B107" t="n">
-        <v>203.0724615636414</v>
+        <v>203.0724460865767</v>
       </c>
       <c r="C107" t="n">
-        <v>204.3198354061699</v>
+        <v>204.3198198340372</v>
       </c>
       <c r="D107" t="n">
-        <v>199.7294935749724</v>
+        <v>199.7294783526903</v>
       </c>
       <c r="E107" t="n">
-        <v>200.20849609375</v>
+        <v>200.2084808349609</v>
       </c>
       <c r="F107" t="n">
-        <v>200.20849609375</v>
+        <v>200.2084808349609</v>
       </c>
       <c r="G107" t="n">
         <v>55126100</v>
@@ -7400,19 +7400,19 @@
         <v>45817</v>
       </c>
       <c r="B109" t="n">
-        <v>203.9605896080207</v>
+        <v>203.9605741265417</v>
       </c>
       <c r="C109" t="n">
-        <v>205.5672077142743</v>
+        <v>205.5671921108462</v>
       </c>
       <c r="D109" t="n">
-        <v>199.5997755596456</v>
+        <v>199.5997604091711</v>
       </c>
       <c r="E109" t="n">
-        <v>201.0267639160156</v>
+        <v>201.0267486572266</v>
       </c>
       <c r="F109" t="n">
-        <v>201.0267639160156</v>
+        <v>201.0267486572266</v>
       </c>
       <c r="G109" t="n">
         <v>72862600</v>
@@ -7463,19 +7463,19 @@
         <v>45818</v>
       </c>
       <c r="B110" t="n">
-        <v>200.1785434107301</v>
+        <v>200.1785585136719</v>
       </c>
       <c r="C110" t="n">
-        <v>203.9206646218475</v>
+        <v>203.9206800071224</v>
       </c>
       <c r="D110" t="n">
-        <v>200.1486076591796</v>
+        <v>200.1486227598628</v>
       </c>
       <c r="E110" t="n">
-        <v>202.2441864013672</v>
+        <v>202.2442016601562</v>
       </c>
       <c r="F110" t="n">
-        <v>202.2441864013672</v>
+        <v>202.2442016601562</v>
       </c>
       <c r="G110" t="n">
         <v>54672600</v>
@@ -7841,19 +7841,19 @@
         <v>45826</v>
       </c>
       <c r="B116" t="n">
-        <v>195.5283222113738</v>
+        <v>195.5283374204853</v>
       </c>
       <c r="C116" t="n">
-        <v>197.1549023683684</v>
+        <v>197.154917704003</v>
       </c>
       <c r="D116" t="n">
-        <v>194.6601549995936</v>
+        <v>194.6601701411749</v>
       </c>
       <c r="E116" t="n">
-        <v>196.1669769287109</v>
+        <v>196.1669921875</v>
       </c>
       <c r="F116" t="n">
-        <v>196.1669769287109</v>
+        <v>196.1669921875</v>
       </c>
       <c r="G116" t="n">
         <v>45394700</v>
@@ -7904,19 +7904,19 @@
         <v>45828</v>
       </c>
       <c r="B117" t="n">
-        <v>197.8235020126397</v>
+        <v>197.8235170619055</v>
       </c>
       <c r="C117" t="n">
-        <v>201.2762240042206</v>
+        <v>201.2762393161495</v>
       </c>
       <c r="D117" t="n">
-        <v>196.4463965286413</v>
+        <v>196.4464114731449</v>
       </c>
       <c r="E117" t="n">
-        <v>200.5776977539062</v>
+        <v>200.5777130126953</v>
       </c>
       <c r="F117" t="n">
-        <v>200.5776977539062</v>
+        <v>200.5777130126953</v>
       </c>
       <c r="G117" t="n">
         <v>96813500</v>
@@ -7967,19 +7967,19 @@
         <v>45831</v>
       </c>
       <c r="B118" t="n">
-        <v>201.2063919063241</v>
+        <v>201.2063766376903</v>
       </c>
       <c r="C118" t="n">
-        <v>201.8749824478741</v>
+        <v>201.8749671285041</v>
       </c>
       <c r="D118" t="n">
-        <v>198.5420032490794</v>
+        <v>198.5419881826338</v>
       </c>
       <c r="E118" t="n">
-        <v>201.07666015625</v>
+        <v>201.0766448974609</v>
       </c>
       <c r="F118" t="n">
-        <v>201.07666015625</v>
+        <v>201.0766448974609</v>
       </c>
       <c r="G118" t="n">
         <v>55814300</v>
@@ -8093,19 +8093,19 @@
         <v>45833</v>
       </c>
       <c r="B120" t="n">
-        <v>201.0267661369261</v>
+        <v>201.0267508864645</v>
       </c>
       <c r="C120" t="n">
-        <v>203.2421033073339</v>
+        <v>203.2420878888105</v>
       </c>
       <c r="D120" t="n">
-        <v>200.1985080753114</v>
+        <v>200.1984928876837</v>
       </c>
       <c r="E120" t="n">
-        <v>201.1365356445312</v>
+        <v>201.1365203857422</v>
       </c>
       <c r="F120" t="n">
-        <v>201.1365356445312</v>
+        <v>201.1365203857422</v>
       </c>
       <c r="G120" t="n">
         <v>39525700</v>
@@ -8156,19 +8156,19 @@
         <v>45834</v>
       </c>
       <c r="B121" t="n">
-        <v>201.0067870124099</v>
+        <v>201.0068023038417</v>
       </c>
       <c r="C121" t="n">
-        <v>202.2142514946699</v>
+        <v>202.2142668779585</v>
       </c>
       <c r="D121" t="n">
-        <v>199.0409400032148</v>
+        <v>199.0409551450962</v>
       </c>
       <c r="E121" t="n">
-        <v>200.5776977539062</v>
+        <v>200.5777130126953</v>
       </c>
       <c r="F121" t="n">
-        <v>200.5776977539062</v>
+        <v>200.5777130126953</v>
       </c>
       <c r="G121" t="n">
         <v>50799100</v>
@@ -8219,19 +8219,19 @@
         <v>45835</v>
       </c>
       <c r="B122" t="n">
-        <v>201.4658274879402</v>
+        <v>201.4658428081952</v>
       </c>
       <c r="C122" t="n">
-        <v>202.7930349784745</v>
+        <v>202.7930503996556</v>
       </c>
       <c r="D122" t="n">
-        <v>199.5797989964926</v>
+        <v>199.5798141733266</v>
       </c>
       <c r="E122" t="n">
-        <v>200.6575317382812</v>
+        <v>200.6575469970703</v>
       </c>
       <c r="F122" t="n">
-        <v>200.6575317382812</v>
+        <v>200.6575469970703</v>
       </c>
       <c r="G122" t="n">
         <v>73188600</v>
@@ -8349,7 +8349,7 @@
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
-        <v>138.2721710205078</v>
+        <v>138.2721862792969</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
@@ -8358,16 +8358,16 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>135.962805225432</v>
+        <v>135.962820229375</v>
       </c>
       <c r="J124" t="n">
-        <v>138.8420224528595</v>
+        <v>138.8420377745335</v>
       </c>
       <c r="K124" t="n">
-        <v>134.5931847895647</v>
+        <v>134.5931996423655</v>
       </c>
       <c r="L124" t="n">
-        <v>138.2721710205078</v>
+        <v>138.2721862792969</v>
       </c>
       <c r="M124" t="n">
         <v>198247200</v>
@@ -8601,7 +8601,7 @@
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
-        <v>140.0717010498047</v>
+        <v>140.0716857910156</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
@@ -8610,16 +8610,16 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>142.5410270870028</v>
+        <v>142.5410115592163</v>
       </c>
       <c r="J128" t="n">
-        <v>143.9106477112154</v>
+        <v>143.9106320342285</v>
       </c>
       <c r="K128" t="n">
-        <v>137.5223950503333</v>
+        <v>137.5223800692543</v>
       </c>
       <c r="L128" t="n">
-        <v>140.0717010498047</v>
+        <v>140.0716857910156</v>
       </c>
       <c r="M128" t="n">
         <v>227349900</v>
@@ -8790,7 +8790,7 @@
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
-        <v>131.7239685058594</v>
+        <v>131.7239532470703</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
@@ -8799,16 +8799,16 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>136.0128040706775</v>
+        <v>136.0127883150735</v>
       </c>
       <c r="J131" t="n">
-        <v>136.3427156721725</v>
+        <v>136.3426998783518</v>
       </c>
       <c r="K131" t="n">
-        <v>130.0144445990235</v>
+        <v>130.0144295382642</v>
       </c>
       <c r="L131" t="n">
-        <v>131.7239685058594</v>
+        <v>131.7239532470703</v>
       </c>
       <c r="M131" t="n">
         <v>195590500</v>
@@ -9231,7 +9231,7 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
-        <v>142.5809936523438</v>
+        <v>142.5810089111328</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
@@ -9240,16 +9240,16 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>148.3294212331141</v>
+        <v>148.3294371070907</v>
       </c>
       <c r="J138" t="n">
-        <v>148.9292632564324</v>
+        <v>148.929279194603</v>
       </c>
       <c r="K138" t="n">
-        <v>141.8412057788165</v>
+        <v>141.8412209584346</v>
       </c>
       <c r="L138" t="n">
-        <v>142.5809936523438</v>
+        <v>142.5810089111328</v>
       </c>
       <c r="M138" t="n">
         <v>234657600</v>
@@ -9294,7 +9294,7 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
-        <v>118.3876113891602</v>
+        <v>118.3876190185547</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
@@ -9303,16 +9303,16 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>124.7658713993467</v>
+        <v>124.7658794397831</v>
       </c>
       <c r="J139" t="n">
-        <v>128.3648776797048</v>
+        <v>128.3648859520762</v>
       </c>
       <c r="K139" t="n">
-        <v>116.6680805729632</v>
+        <v>116.668088091544</v>
       </c>
       <c r="L139" t="n">
-        <v>118.3876113891602</v>
+        <v>118.3876190185547</v>
       </c>
       <c r="M139" t="n">
         <v>818830900</v>
@@ -9735,7 +9735,7 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
-        <v>124.7958679199219</v>
+        <v>124.7958602905273</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
@@ -9744,16 +9744,16 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>121.7267076955392</v>
+        <v>121.7267002537778</v>
       </c>
       <c r="J146" t="n">
-        <v>124.9658196040294</v>
+        <v>124.9658119642448</v>
       </c>
       <c r="K146" t="n">
-        <v>120.726981138707</v>
+        <v>120.7269737580638</v>
       </c>
       <c r="L146" t="n">
-        <v>124.7958679199219</v>
+        <v>124.7958602905273</v>
       </c>
       <c r="M146" t="n">
         <v>262230800</v>
@@ -9798,7 +9798,7 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
-        <v>128.6448211669922</v>
+        <v>128.6448059082031</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
@@ -9807,16 +9807,16 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>127.3851710486424</v>
+        <v>127.3851559392626</v>
       </c>
       <c r="J147" t="n">
-        <v>128.7348081612174</v>
+        <v>128.7347928917548</v>
       </c>
       <c r="K147" t="n">
-        <v>125.1757760130246</v>
+        <v>125.1757611657051</v>
       </c>
       <c r="L147" t="n">
-        <v>128.6448211669922</v>
+        <v>128.6448059082031</v>
       </c>
       <c r="M147" t="n">
         <v>251483600</v>
@@ -9861,7 +9861,7 @@
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
-        <v>129.8044738769531</v>
+        <v>129.8044891357422</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
@@ -9870,16 +9870,16 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>129.1846483820157</v>
+        <v>129.184663567943</v>
       </c>
       <c r="J148" t="n">
-        <v>130.3343276557766</v>
+        <v>130.3343429768511</v>
       </c>
       <c r="K148" t="n">
-        <v>124.9658016963769</v>
+        <v>124.9658163863699</v>
       </c>
       <c r="L148" t="n">
-        <v>129.8044738769531</v>
+        <v>129.8044891357422</v>
       </c>
       <c r="M148" t="n">
         <v>228186300</v>
@@ -10302,7 +10302,7 @@
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
-        <v>139.1919403076172</v>
+        <v>139.1919250488281</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
@@ -10311,16 +10311,16 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>139.4718625554808</v>
+        <v>139.4718472660055</v>
       </c>
       <c r="J155" t="n">
-        <v>141.3213630010112</v>
+        <v>141.3213475087861</v>
       </c>
       <c r="K155" t="n">
-        <v>137.182495188035</v>
+        <v>137.1824801495296</v>
       </c>
       <c r="L155" t="n">
-        <v>139.1919403076172</v>
+        <v>139.1919250488281</v>
       </c>
       <c r="M155" t="n">
         <v>167536000</v>
@@ -10365,7 +10365,7 @@
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
-        <v>140.0717010498047</v>
+        <v>140.0716857910156</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
@@ -10374,16 +10374,16 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>139.9917210875314</v>
+        <v>139.991705837455</v>
       </c>
       <c r="J156" t="n">
-        <v>140.6215537562974</v>
+        <v>140.6215384376098</v>
       </c>
       <c r="K156" t="n">
-        <v>136.7526012612435</v>
+        <v>136.7525863640224</v>
       </c>
       <c r="L156" t="n">
-        <v>140.0717010498047</v>
+        <v>140.0716857910156</v>
       </c>
       <c r="M156" t="n">
         <v>143903600</v>
@@ -10869,7 +10869,7 @@
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="n">
-        <v>115.9582901000977</v>
+        <v>115.9582824707031</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
@@ -10878,16 +10878,16 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>110.6197535375757</v>
+        <v>110.6197462594264</v>
       </c>
       <c r="J164" t="n">
-        <v>119.2773822186855</v>
+        <v>119.2773743709137</v>
       </c>
       <c r="K164" t="n">
-        <v>110.0799002401338</v>
+        <v>110.0798929975038</v>
       </c>
       <c r="L164" t="n">
-        <v>115.9582901000977</v>
+        <v>115.9582824707031</v>
       </c>
       <c r="M164" t="n">
         <v>398163300</v>
@@ -11058,7 +11058,7 @@
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="n">
-        <v>112.6591949462891</v>
+        <v>112.6591873168945</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
@@ -11067,16 +11067,16 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>111.2195861766125</v>
+        <v>111.2195786447098</v>
       </c>
       <c r="J167" t="n">
-        <v>113.4489798892472</v>
+        <v>113.4489722063677</v>
       </c>
       <c r="K167" t="n">
-        <v>107.5305925179708</v>
+        <v>107.5305852358904</v>
       </c>
       <c r="L167" t="n">
-        <v>112.6591949462891</v>
+        <v>112.6591873168945</v>
       </c>
       <c r="M167" t="n">
         <v>341755500</v>
@@ -11247,7 +11247,7 @@
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="n">
-        <v>115.718994140625</v>
+        <v>115.7190017700195</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
@@ -11256,16 +11256,16 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>114.0992930093504</v>
+        <v>114.0993005319575</v>
       </c>
       <c r="J170" t="n">
-        <v>116.7388133095112</v>
+        <v>116.7388210061428</v>
       </c>
       <c r="K170" t="n">
-        <v>112.8595125441159</v>
+        <v>112.8595199849837</v>
       </c>
       <c r="L170" t="n">
-        <v>115.718994140625</v>
+        <v>115.7190017700195</v>
       </c>
       <c r="M170" t="n">
         <v>323857500</v>
@@ -11940,7 +11940,7 @@
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="n">
-        <v>111.409782409668</v>
+        <v>111.4097747802734</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>111.3297950941715</v>
+        <v>111.3297874702546</v>
       </c>
       <c r="J181" t="n">
-        <v>114.4292311035609</v>
+        <v>114.4292232673931</v>
       </c>
       <c r="K181" t="n">
-        <v>110.639925475043</v>
+        <v>110.6399178983686</v>
       </c>
       <c r="L181" t="n">
-        <v>111.409782409668</v>
+        <v>111.4097747802734</v>
       </c>
       <c r="M181" t="n">
         <v>236902100</v>
@@ -12003,7 +12003,7 @@
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="n">
-        <v>109.6501007080078</v>
+        <v>109.6500930786133</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
@@ -12012,16 +12012,16 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>111.4697701997369</v>
+        <v>111.4697624437308</v>
       </c>
       <c r="J182" t="n">
-        <v>112.8495247078462</v>
+        <v>112.8495168558375</v>
       </c>
       <c r="K182" t="n">
-        <v>109.0502110917914</v>
+        <v>109.0502035041368</v>
       </c>
       <c r="L182" t="n">
-        <v>109.6501007080078</v>
+        <v>109.6500930786133</v>
       </c>
       <c r="M182" t="n">
         <v>229872500</v>
@@ -13326,7 +13326,7 @@
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="n">
-        <v>109.0002059936523</v>
+        <v>109.0002136230469</v>
       </c>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr">
@@ -13335,16 +13335,16 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>107.6504525878429</v>
+        <v>107.6504601227623</v>
       </c>
       <c r="J203" t="n">
-        <v>110.179992090673</v>
+        <v>110.1799998026459</v>
       </c>
       <c r="K203" t="n">
-        <v>107.4204986119544</v>
+        <v>107.4205061307784</v>
       </c>
       <c r="L203" t="n">
-        <v>109.0002059936523</v>
+        <v>109.0002136230469</v>
       </c>
       <c r="M203" t="n">
         <v>170444300</v>
@@ -13578,7 +13578,7 @@
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="n">
-        <v>113.7993392944336</v>
+        <v>113.7993469238281</v>
       </c>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
@@ -13587,16 +13587,16 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>112.889508442552</v>
+        <v>112.8895160109492</v>
       </c>
       <c r="J207" t="n">
-        <v>114.6491834783697</v>
+        <v>114.6491911647399</v>
       </c>
       <c r="K207" t="n">
-        <v>112.6395538220996</v>
+        <v>112.6395613737392</v>
       </c>
       <c r="L207" t="n">
-        <v>113.7993392944336</v>
+        <v>113.7993469238281</v>
       </c>
       <c r="M207" t="n">
         <v>133163200</v>
@@ -13893,7 +13893,7 @@
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
-        <v>122.9776763916016</v>
+        <v>122.9776840209961</v>
       </c>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr">
@@ -13902,16 +13902,16 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>121.9478645496169</v>
+        <v>121.9478721151231</v>
       </c>
       <c r="J212" t="n">
-        <v>122.9776763916016</v>
+        <v>122.9776840209961</v>
       </c>
       <c r="K212" t="n">
-        <v>120.2581688314033</v>
+        <v>120.2581762920827</v>
       </c>
       <c r="L212" t="n">
-        <v>122.9776763916016</v>
+        <v>122.9776840209961</v>
       </c>
       <c r="M212" t="n">
         <v>225023300</v>
@@ -16035,7 +16035,7 @@
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="n">
-        <v>233.9694061279297</v>
+        <v>233.9693908691406</v>
       </c>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr">
@@ -16049,16 +16049,16 @@
       <c r="L246" t="inlineStr"/>
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="n">
-        <v>234.8662870663752</v>
+        <v>234.8662717490942</v>
       </c>
       <c r="O246" t="n">
-        <v>237.1669868216481</v>
+        <v>237.1669713543224</v>
       </c>
       <c r="P246" t="n">
-        <v>233.4332232638117</v>
+        <v>233.4332080399909</v>
       </c>
       <c r="Q246" t="n">
-        <v>233.9694061279297</v>
+        <v>233.9693908691406</v>
       </c>
       <c r="R246" t="n">
         <v>9220900</v>
@@ -16161,7 +16161,7 @@
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="n">
-        <v>236.0106658935547</v>
+        <v>236.0106811523438</v>
       </c>
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="inlineStr">
@@ -16175,16 +16175,16 @@
       <c r="L248" t="inlineStr"/>
       <c r="M248" t="inlineStr"/>
       <c r="N248" t="n">
-        <v>238.8033925699466</v>
+        <v>238.8034080092937</v>
       </c>
       <c r="O248" t="n">
-        <v>240.7534133699113</v>
+        <v>240.7534289353331</v>
       </c>
       <c r="P248" t="n">
-        <v>235.7460867508403</v>
+        <v>235.7461019925236</v>
       </c>
       <c r="Q248" t="n">
-        <v>236.0106658935547</v>
+        <v>236.0106811523438</v>
       </c>
       <c r="R248" t="n">
         <v>9917800</v>
@@ -16224,7 +16224,7 @@
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="n">
-        <v>238.2840576171875</v>
+        <v>238.2840728759766</v>
       </c>
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr">
@@ -16238,16 +16238,16 @@
       <c r="L249" t="inlineStr"/>
       <c r="M249" t="inlineStr"/>
       <c r="N249" t="n">
-        <v>237.2747542889821</v>
+        <v>237.2747694831393</v>
       </c>
       <c r="O249" t="n">
-        <v>240.332060296579</v>
+        <v>240.3320756865143</v>
       </c>
       <c r="P249" t="n">
-        <v>236.0596638477121</v>
+        <v>236.0596789640596</v>
       </c>
       <c r="Q249" t="n">
-        <v>238.2840576171875</v>
+        <v>238.2840728759766</v>
       </c>
       <c r="R249" t="n">
         <v>8753400</v>
@@ -16602,7 +16602,7 @@
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="n">
-        <v>249.1610260009766</v>
+        <v>249.1610412597656</v>
       </c>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr">
@@ -16616,16 +16616,16 @@
       <c r="L255" t="inlineStr"/>
       <c r="M255" t="inlineStr"/>
       <c r="N255" t="n">
-        <v>248.8964468511728</v>
+        <v>248.8964620937588</v>
       </c>
       <c r="O255" t="n">
-        <v>251.8753733284494</v>
+        <v>251.8753887534669</v>
       </c>
       <c r="P255" t="n">
-        <v>247.2600035027537</v>
+        <v>247.2600186451228</v>
       </c>
       <c r="Q255" t="n">
-        <v>249.1610260009766</v>
+        <v>249.1610412597656</v>
       </c>
       <c r="R255" t="n">
         <v>15292300</v>
@@ -16665,7 +16665,7 @@
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="n">
-        <v>253.9527893066406</v>
+        <v>253.9528045654297</v>
       </c>
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr">
@@ -16679,16 +16679,16 @@
       <c r="L256" t="inlineStr"/>
       <c r="M256" t="inlineStr"/>
       <c r="N256" t="n">
-        <v>249.0336502832254</v>
+        <v>249.0336652464473</v>
       </c>
       <c r="O256" t="n">
-        <v>255.3834456469004</v>
+        <v>255.3834609916507</v>
       </c>
       <c r="P256" t="n">
-        <v>247.0738356072097</v>
+        <v>247.0738504526759</v>
       </c>
       <c r="Q256" t="n">
-        <v>253.9527893066406</v>
+        <v>253.9528045654297</v>
       </c>
       <c r="R256" t="n">
         <v>17678100</v>
@@ -17358,7 +17358,7 @@
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="n">
-        <v>262.556396484375</v>
+        <v>262.5563659667969</v>
       </c>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr">
@@ -17372,16 +17372,16 @@
       <c r="L267" t="inlineStr"/>
       <c r="M267" t="inlineStr"/>
       <c r="N267" t="n">
-        <v>264.4182146013332</v>
+        <v>264.4181838673514</v>
       </c>
       <c r="O267" t="n">
-        <v>264.4182146013332</v>
+        <v>264.4181838673514</v>
       </c>
       <c r="P267" t="n">
-        <v>261.4686836979807</v>
+        <v>261.4686533068301</v>
       </c>
       <c r="Q267" t="n">
-        <v>262.556396484375</v>
+        <v>262.5563659667969</v>
       </c>
       <c r="R267" t="n">
         <v>5626000</v>
@@ -17421,7 +17421,7 @@
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="n">
-        <v>264.9963073730469</v>
+        <v>264.996337890625</v>
       </c>
       <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr">
@@ -17435,16 +17435,16 @@
       <c r="L268" t="inlineStr"/>
       <c r="M268" t="inlineStr"/>
       <c r="N268" t="n">
-        <v>263.5068591358702</v>
+        <v>263.50688948192</v>
       </c>
       <c r="O268" t="n">
-        <v>265.2021094243298</v>
+        <v>265.2021399656086</v>
       </c>
       <c r="P268" t="n">
-        <v>262.9384961909873</v>
+        <v>262.9385264715833</v>
       </c>
       <c r="Q268" t="n">
-        <v>264.9963073730469</v>
+        <v>264.996337890625</v>
       </c>
       <c r="R268" t="n">
         <v>5704400</v>
@@ -17484,7 +17484,7 @@
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="n">
-        <v>271.3363342285156</v>
+        <v>271.3363647460938</v>
       </c>
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr">
@@ -17498,16 +17498,16 @@
       <c r="L269" t="inlineStr"/>
       <c r="M269" t="inlineStr"/>
       <c r="N269" t="n">
-        <v>266.9757645440988</v>
+        <v>266.9757945712375</v>
       </c>
       <c r="O269" t="n">
-        <v>271.4147435615326</v>
+        <v>271.4147740879296</v>
       </c>
       <c r="P269" t="n">
-        <v>265.7410717364686</v>
+        <v>265.7411016247397</v>
       </c>
       <c r="Q269" t="n">
-        <v>271.3363342285156</v>
+        <v>271.3363647460938</v>
       </c>
       <c r="R269" t="n">
         <v>7264400</v>
@@ -17736,7 +17736,7 @@
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="n">
-        <v>269.9154968261719</v>
+        <v>269.91552734375</v>
       </c>
       <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr">
@@ -17750,16 +17750,16 @@
       <c r="L273" t="inlineStr"/>
       <c r="M273" t="inlineStr"/>
       <c r="N273" t="n">
-        <v>268.5729986105812</v>
+        <v>268.5730289763719</v>
       </c>
       <c r="O273" t="n">
-        <v>270.8954041954382</v>
+        <v>270.895434823808</v>
       </c>
       <c r="P273" t="n">
-        <v>267.7596886520261</v>
+        <v>267.7597189258611</v>
       </c>
       <c r="Q273" t="n">
-        <v>269.9154968261719</v>
+        <v>269.91552734375</v>
       </c>
       <c r="R273" t="n">
         <v>6683900</v>
@@ -18240,7 +18240,7 @@
       <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="n">
-        <v>252.2281341552734</v>
+        <v>252.2281494140625</v>
       </c>
       <c r="G281" t="inlineStr"/>
       <c r="H281" t="inlineStr">
@@ -18254,16 +18254,16 @@
       <c r="L281" t="inlineStr"/>
       <c r="M281" t="inlineStr"/>
       <c r="N281" t="n">
-        <v>256.9611031816803</v>
+        <v>256.961118726795</v>
       </c>
       <c r="O281" t="n">
-        <v>257.715621040436</v>
+        <v>257.715636631196</v>
       </c>
       <c r="P281" t="n">
-        <v>248.2595215344707</v>
+        <v>248.2595365531746</v>
       </c>
       <c r="Q281" t="n">
-        <v>252.2281341552734</v>
+        <v>252.2281494140625</v>
       </c>
       <c r="R281" t="n">
         <v>9608400</v>
@@ -18555,7 +18555,7 @@
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="n">
-        <v>245.2218017578125</v>
+        <v>245.2218170166016</v>
       </c>
       <c r="G286" t="inlineStr"/>
       <c r="H286" t="inlineStr">
@@ -18569,16 +18569,16 @@
       <c r="L286" t="inlineStr"/>
       <c r="M286" t="inlineStr"/>
       <c r="N286" t="n">
-        <v>250.1507342792861</v>
+        <v>250.1507498447752</v>
       </c>
       <c r="O286" t="n">
-        <v>252.0615654755216</v>
+        <v>252.0615811599111</v>
       </c>
       <c r="P286" t="n">
-        <v>241.0081973785272</v>
+        <v>241.0082123751271</v>
       </c>
       <c r="Q286" t="n">
-        <v>245.2218017578125</v>
+        <v>245.2218170166016</v>
       </c>
       <c r="R286" t="n">
         <v>13465600</v>
@@ -19185,7 +19185,7 @@
       <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="n">
-        <v>230.2488098144531</v>
+        <v>230.2488250732422</v>
       </c>
       <c r="G296" t="inlineStr"/>
       <c r="H296" t="inlineStr">
@@ -19199,16 +19199,16 @@
       <c r="L296" t="inlineStr"/>
       <c r="M296" t="inlineStr"/>
       <c r="N296" t="n">
-        <v>229.6118760770625</v>
+        <v>229.6118912936414</v>
       </c>
       <c r="O296" t="n">
-        <v>231.4246955346656</v>
+        <v>231.4247108713817</v>
       </c>
       <c r="P296" t="n">
-        <v>228.8279472795214</v>
+        <v>228.8279624441487</v>
       </c>
       <c r="Q296" t="n">
-        <v>230.2488098144531</v>
+        <v>230.2488250732422</v>
       </c>
       <c r="R296" t="n">
         <v>10344900</v>
@@ -19311,7 +19311,7 @@
       <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="n">
-        <v>234.2076416015625</v>
+        <v>234.2076263427734</v>
       </c>
       <c r="G298" t="inlineStr"/>
       <c r="H298" t="inlineStr">
@@ -19325,16 +19325,16 @@
       <c r="L298" t="inlineStr"/>
       <c r="M298" t="inlineStr"/>
       <c r="N298" t="n">
-        <v>231.8068716740839</v>
+        <v>231.8068565717067</v>
       </c>
       <c r="O298" t="n">
-        <v>236.9023867135117</v>
+        <v>236.9023712791581</v>
       </c>
       <c r="P298" t="n">
-        <v>231.454104443159</v>
+        <v>231.4540893637648</v>
       </c>
       <c r="Q298" t="n">
-        <v>234.2076416015625</v>
+        <v>234.2076263427734</v>
       </c>
       <c r="R298" t="n">
         <v>8328500</v>
@@ -19626,7 +19626,7 @@
       <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="n">
-        <v>243.1345977783203</v>
+        <v>243.1346130371094</v>
       </c>
       <c r="G303" t="inlineStr"/>
       <c r="H303" t="inlineStr">
@@ -19640,16 +19640,16 @@
       <c r="L303" t="inlineStr"/>
       <c r="M303" t="inlineStr"/>
       <c r="N303" t="n">
-        <v>244.5162706785274</v>
+        <v>244.5162860240283</v>
       </c>
       <c r="O303" t="n">
-        <v>245.6039683943203</v>
+        <v>245.6039838080836</v>
       </c>
       <c r="P303" t="n">
-        <v>242.2134825115156</v>
+        <v>242.2134977124968</v>
       </c>
       <c r="Q303" t="n">
-        <v>243.1345977783203</v>
+        <v>243.1346130371094</v>
       </c>
       <c r="R303" t="n">
         <v>8022500</v>
@@ -19689,7 +19689,7 @@
       <c r="D304" t="inlineStr"/>
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="n">
-        <v>237.9705047607422</v>
+        <v>237.9704895019531</v>
       </c>
       <c r="G304" t="inlineStr"/>
       <c r="H304" t="inlineStr">
@@ -19703,16 +19703,16 @@
       <c r="L304" t="inlineStr"/>
       <c r="M304" t="inlineStr"/>
       <c r="N304" t="n">
-        <v>241.9783222140493</v>
+        <v>241.978306698277</v>
       </c>
       <c r="O304" t="n">
-        <v>244.4966763160489</v>
+        <v>244.4966606387984</v>
       </c>
       <c r="P304" t="n">
-        <v>236.2654605973164</v>
+        <v>236.2654454478557</v>
       </c>
       <c r="Q304" t="n">
-        <v>237.9705047607422</v>
+        <v>237.9704895019531</v>
       </c>
       <c r="R304" t="n">
         <v>11978400</v>
@@ -19815,7 +19815,7 @@
       <c r="D306" t="inlineStr"/>
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="n">
-        <v>238.7642211914062</v>
+        <v>238.7642364501953</v>
       </c>
       <c r="G306" t="inlineStr"/>
       <c r="H306" t="inlineStr">
@@ -19829,16 +19829,16 @@
       <c r="L306" t="inlineStr"/>
       <c r="M306" t="inlineStr"/>
       <c r="N306" t="n">
-        <v>237.7451092053249</v>
+        <v>237.7451243989852</v>
       </c>
       <c r="O306" t="n">
-        <v>240.7534318549276</v>
+        <v>240.7534472408419</v>
       </c>
       <c r="P306" t="n">
-        <v>236.0400800378489</v>
+        <v>236.0400951225454</v>
       </c>
       <c r="Q306" t="n">
-        <v>238.7642211914062</v>
+        <v>238.7642364501953</v>
       </c>
       <c r="R306" t="n">
         <v>8054700</v>
@@ -20256,7 +20256,7 @@
       <c r="D313" t="inlineStr"/>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="n">
-        <v>223.9175262451172</v>
+        <v>223.9175415039062</v>
       </c>
       <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr">
@@ -20270,16 +20270,16 @@
       <c r="L313" t="inlineStr"/>
       <c r="M313" t="inlineStr"/>
       <c r="N313" t="n">
-        <v>226.7669010522188</v>
+        <v>226.7669165051776</v>
       </c>
       <c r="O313" t="n">
-        <v>227.1119871367562</v>
+        <v>227.1120026132308</v>
       </c>
       <c r="P313" t="n">
-        <v>217.0060708942117</v>
+        <v>217.0060856820218</v>
       </c>
       <c r="Q313" t="n">
-        <v>223.9175262451172</v>
+        <v>223.9175415039062</v>
       </c>
       <c r="R313" t="n">
         <v>18896400</v>
@@ -20319,7 +20319,7 @@
       <c r="D314" t="inlineStr"/>
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="n">
-        <v>232.8797607421875</v>
+        <v>232.8797454833984</v>
       </c>
       <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr">
@@ -20333,16 +20333,16 @@
       <c r="L314" t="inlineStr"/>
       <c r="M314" t="inlineStr"/>
       <c r="N314" t="n">
-        <v>223.1287839371099</v>
+        <v>223.1287693172261</v>
       </c>
       <c r="O314" t="n">
-        <v>235.2263101699424</v>
+        <v>235.2262947574023</v>
       </c>
       <c r="P314" t="n">
-        <v>221.8372008636139</v>
+        <v>221.8371863283574</v>
       </c>
       <c r="Q314" t="n">
-        <v>232.8797607421875</v>
+        <v>232.8797454833984</v>
       </c>
       <c r="R314" t="n">
         <v>20284500</v>
@@ -20445,7 +20445,7 @@
       <c r="D316" t="inlineStr"/>
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="n">
-        <v>229.8529052734375</v>
+        <v>229.8529205322266</v>
       </c>
       <c r="G316" t="inlineStr"/>
       <c r="H316" t="inlineStr">
@@ -20459,16 +20459,16 @@
       <c r="L316" t="inlineStr"/>
       <c r="M316" t="inlineStr"/>
       <c r="N316" t="n">
-        <v>232.7811572999728</v>
+        <v>232.7811727531539</v>
       </c>
       <c r="O316" t="n">
-        <v>235.2953000115482</v>
+        <v>235.2953156316307</v>
       </c>
       <c r="P316" t="n">
-        <v>229.5472653387313</v>
+        <v>229.5472805772304</v>
       </c>
       <c r="Q316" t="n">
-        <v>229.8529052734375</v>
+        <v>229.8529205322266</v>
       </c>
       <c r="R316" t="n">
         <v>10912900</v>
@@ -20508,7 +20508,7 @@
       <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="n">
-        <v>226.3823852539062</v>
+        <v>226.3824005126953</v>
       </c>
       <c r="G317" t="inlineStr"/>
       <c r="H317" t="inlineStr">
@@ -20522,16 +20522,16 @@
       <c r="L317" t="inlineStr"/>
       <c r="M317" t="inlineStr"/>
       <c r="N317" t="n">
-        <v>228.7387885514358</v>
+        <v>228.7388039690529</v>
       </c>
       <c r="O317" t="n">
-        <v>230.296580382231</v>
+        <v>230.2965959048475</v>
       </c>
       <c r="P317" t="n">
-        <v>224.725993099982</v>
+        <v>224.7260082471258</v>
       </c>
       <c r="Q317" t="n">
-        <v>226.3823852539062</v>
+        <v>226.3824005126953</v>
       </c>
       <c r="R317" t="n">
         <v>9322300</v>
@@ -20697,7 +20697,7 @@
       <c r="D320" t="inlineStr"/>
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="n">
-        <v>232.2783355712891</v>
+        <v>232.2783203125</v>
       </c>
       <c r="G320" t="inlineStr"/>
       <c r="H320" t="inlineStr">
@@ -20711,16 +20711,16 @@
       <c r="L320" t="inlineStr"/>
       <c r="M320" t="inlineStr"/>
       <c r="N320" t="n">
-        <v>228.7190803133487</v>
+        <v>228.7190652883736</v>
       </c>
       <c r="O320" t="n">
-        <v>232.6727218450888</v>
+        <v>232.6727065603918</v>
       </c>
       <c r="P320" t="n">
-        <v>228.1176544095649</v>
+        <v>228.1176394240986</v>
       </c>
       <c r="Q320" t="n">
-        <v>232.2783355712891</v>
+        <v>232.2783203125</v>
       </c>
       <c r="R320" t="n">
         <v>10701400</v>
@@ -20760,7 +20760,7 @@
       <c r="D321" t="inlineStr"/>
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="n">
-        <v>237.4939880371094</v>
+        <v>237.4939727783203</v>
       </c>
       <c r="G321" t="inlineStr"/>
       <c r="H321" t="inlineStr">
@@ -20774,16 +20774,16 @@
       <c r="L321" t="inlineStr"/>
       <c r="M321" t="inlineStr"/>
       <c r="N321" t="n">
-        <v>236.8432619550101</v>
+        <v>236.8432467380296</v>
       </c>
       <c r="O321" t="n">
-        <v>243.3209005524942</v>
+        <v>243.3208849193309</v>
       </c>
       <c r="P321" t="n">
-        <v>236.626353260977</v>
+        <v>236.6263380579327</v>
       </c>
       <c r="Q321" t="n">
-        <v>237.4939880371094</v>
+        <v>237.4939727783203</v>
       </c>
       <c r="R321" t="n">
         <v>14126800</v>
@@ -20823,7 +20823,7 @@
       <c r="D322" t="inlineStr"/>
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="n">
-        <v>241.2011260986328</v>
+        <v>241.2011108398438</v>
       </c>
       <c r="G322" t="inlineStr"/>
       <c r="H322" t="inlineStr">
@@ -20837,16 +20837,16 @@
       <c r="L322" t="inlineStr"/>
       <c r="M322" t="inlineStr"/>
       <c r="N322" t="n">
-        <v>236.3700107918263</v>
+        <v>236.3699958386618</v>
       </c>
       <c r="O322" t="n">
-        <v>242.0194606997356</v>
+        <v>242.0194453891773</v>
       </c>
       <c r="P322" t="n">
-        <v>234.2403700258936</v>
+        <v>234.2403552074537</v>
       </c>
       <c r="Q322" t="n">
-        <v>241.2011260986328</v>
+        <v>241.2011108398438</v>
       </c>
       <c r="R322" t="n">
         <v>9055200</v>
@@ -20886,7 +20886,7 @@
       <c r="D323" t="inlineStr"/>
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="n">
-        <v>240.1264495849609</v>
+        <v>240.1264343261719</v>
       </c>
       <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr">
@@ -20900,16 +20900,16 @@
       <c r="L323" t="inlineStr"/>
       <c r="M323" t="inlineStr"/>
       <c r="N323" t="n">
-        <v>241.2109779890276</v>
+        <v>241.2109626613224</v>
       </c>
       <c r="O323" t="n">
-        <v>242.167344017777</v>
+        <v>242.1673286292997</v>
       </c>
       <c r="P323" t="n">
-        <v>238.3517489623178</v>
+        <v>238.3517338163017</v>
       </c>
       <c r="Q323" t="n">
-        <v>240.1264495849609</v>
+        <v>240.1264343261719</v>
       </c>
       <c r="R323" t="n">
         <v>8588600</v>
@@ -21264,7 +21264,7 @@
       <c r="D329" t="inlineStr"/>
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="n">
-        <v>249.0097808837891</v>
+        <v>249.009765625</v>
       </c>
       <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr">
@@ -21278,16 +21278,16 @@
       <c r="L329" t="inlineStr"/>
       <c r="M329" t="inlineStr"/>
       <c r="N329" t="n">
-        <v>247.6491746246447</v>
+        <v>247.6491594492307</v>
       </c>
       <c r="O329" t="n">
-        <v>251.573238899276</v>
+        <v>251.5732234834037</v>
       </c>
       <c r="P329" t="n">
-        <v>247.067471820398</v>
+        <v>247.0674566806295</v>
       </c>
       <c r="Q329" t="n">
-        <v>249.0097808837891</v>
+        <v>249.009765625</v>
       </c>
       <c r="R329" t="n">
         <v>5450700</v>
@@ -21453,7 +21453,7 @@
       <c r="D332" t="inlineStr"/>
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="n">
-        <v>249.9070129394531</v>
+        <v>249.9069976806641</v>
       </c>
       <c r="G332" t="inlineStr"/>
       <c r="H332" t="inlineStr">
@@ -21467,16 +21467,16 @@
       <c r="L332" t="inlineStr"/>
       <c r="M332" t="inlineStr"/>
       <c r="N332" t="n">
-        <v>248.0337269608881</v>
+        <v>248.0337118164779</v>
       </c>
       <c r="O332" t="n">
-        <v>252.2831395558983</v>
+        <v>252.283124152028</v>
       </c>
       <c r="P332" t="n">
-        <v>248.0140038853657</v>
+        <v>248.0139887421597</v>
       </c>
       <c r="Q332" t="n">
-        <v>249.9070129394531</v>
+        <v>249.9069976806641</v>
       </c>
       <c r="R332" t="n">
         <v>8320100</v>
@@ -21579,7 +21579,7 @@
       <c r="D334" t="inlineStr"/>
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="n">
-        <v>256.3945007324219</v>
+        <v>256.3944702148438</v>
       </c>
       <c r="G334" t="inlineStr"/>
       <c r="H334" t="inlineStr">
@@ -21593,16 +21593,16 @@
       <c r="L334" t="inlineStr"/>
       <c r="M334" t="inlineStr"/>
       <c r="N334" t="n">
-        <v>259.2044446904927</v>
+        <v>259.2044138384585</v>
       </c>
       <c r="O334" t="n">
-        <v>259.8946169218072</v>
+        <v>259.8945859876247</v>
       </c>
       <c r="P334" t="n">
-        <v>255.0635015683959</v>
+        <v>255.0634712092411</v>
       </c>
       <c r="Q334" t="n">
-        <v>256.3945007324219</v>
+        <v>256.3944702148438</v>
       </c>
       <c r="R334" t="n">
         <v>9603900</v>
@@ -21831,7 +21831,7 @@
       <c r="D338" t="inlineStr"/>
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="n">
-        <v>263.7989196777344</v>
+        <v>263.7989501953125</v>
       </c>
       <c r="G338" t="inlineStr"/>
       <c r="H338" t="inlineStr">
@@ -21845,16 +21845,16 @@
       <c r="L338" t="inlineStr"/>
       <c r="M338" t="inlineStr"/>
       <c r="N338" t="n">
-        <v>263.7397655019056</v>
+        <v>263.7397960126405</v>
       </c>
       <c r="O338" t="n">
-        <v>264.6862624037603</v>
+        <v>264.6862930239907</v>
       </c>
       <c r="P338" t="n">
-        <v>260.9889759714906</v>
+        <v>260.9890061640004</v>
       </c>
       <c r="Q338" t="n">
-        <v>263.7989196777344</v>
+        <v>263.7989501953125</v>
       </c>
       <c r="R338" t="n">
         <v>8932900</v>
@@ -21894,7 +21894,7 @@
       <c r="D339" t="inlineStr"/>
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="n">
-        <v>261.1565856933594</v>
+        <v>261.1566162109375</v>
       </c>
       <c r="G339" t="inlineStr"/>
       <c r="H339" t="inlineStr">
@@ -21908,16 +21908,16 @@
       <c r="L339" t="inlineStr"/>
       <c r="M339" t="inlineStr"/>
       <c r="N339" t="n">
-        <v>261.8171506513173</v>
+        <v>261.817181246086</v>
       </c>
       <c r="O339" t="n">
-        <v>264.5482320079686</v>
+        <v>264.5482629218792</v>
       </c>
       <c r="P339" t="n">
-        <v>258.2480418186231</v>
+        <v>258.2480719963219</v>
       </c>
       <c r="Q339" t="n">
-        <v>261.1565856933594</v>
+        <v>261.1566162109375</v>
       </c>
       <c r="R339" t="n">
         <v>12145000</v>
@@ -21957,7 +21957,7 @@
       <c r="D340" t="inlineStr"/>
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="n">
-        <v>261.9453735351562</v>
+        <v>261.9453430175781</v>
       </c>
       <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr">
@@ -21971,16 +21971,16 @@
       <c r="L340" t="inlineStr"/>
       <c r="M340" t="inlineStr"/>
       <c r="N340" t="n">
-        <v>258.8297895150459</v>
+        <v>258.8297593604445</v>
       </c>
       <c r="O340" t="n">
-        <v>262.9116086712568</v>
+        <v>262.9115780411088</v>
       </c>
       <c r="P340" t="n">
-        <v>258.6128808146395</v>
+        <v>258.6128506853088</v>
       </c>
       <c r="Q340" t="n">
-        <v>261.9453735351562</v>
+        <v>261.9453430175781</v>
       </c>
       <c r="R340" t="n">
         <v>8436300</v>
@@ -22146,7 +22146,7 @@
       <c r="D343" t="inlineStr"/>
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="n">
-        <v>257.0451965332031</v>
+        <v>257.0452270507812</v>
       </c>
       <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr">
@@ -22160,16 +22160,16 @@
       <c r="L343" t="inlineStr"/>
       <c r="M343" t="inlineStr"/>
       <c r="N343" t="n">
-        <v>253.2000247697234</v>
+        <v>253.2000548307851</v>
       </c>
       <c r="O343" t="n">
-        <v>258.3072023963092</v>
+        <v>258.3072330637183</v>
       </c>
       <c r="P343" t="n">
-        <v>252.4014133299465</v>
+        <v>252.4014432961935</v>
       </c>
       <c r="Q343" t="n">
-        <v>257.0451965332031</v>
+        <v>257.0452270507812</v>
       </c>
       <c r="R343" t="n">
         <v>6671800</v>
@@ -22272,7 +22272,7 @@
       <c r="D345" t="inlineStr"/>
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="n">
-        <v>259.7861633300781</v>
+        <v>259.7861328125</v>
       </c>
       <c r="G345" t="inlineStr"/>
       <c r="H345" t="inlineStr">
@@ -22286,16 +22286,16 @@
       <c r="L345" t="inlineStr"/>
       <c r="M345" t="inlineStr"/>
       <c r="N345" t="n">
-        <v>262.4975071216288</v>
+        <v>262.4974762855439</v>
       </c>
       <c r="O345" t="n">
-        <v>262.9707706880495</v>
+        <v>262.9707397963694</v>
       </c>
       <c r="P345" t="n">
-        <v>259.2044604545227</v>
+        <v>259.2044300052784</v>
       </c>
       <c r="Q345" t="n">
-        <v>259.7861633300781</v>
+        <v>259.7861328125</v>
       </c>
       <c r="R345" t="n">
         <v>5535400</v>
@@ -22398,7 +22398,7 @@
       <c r="D347" t="inlineStr"/>
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="n">
-        <v>260.2889709472656</v>
+        <v>260.2890014648438</v>
       </c>
       <c r="G347" t="inlineStr"/>
       <c r="H347" t="inlineStr">
@@ -22412,16 +22412,16 @@
       <c r="L347" t="inlineStr"/>
       <c r="M347" t="inlineStr"/>
       <c r="N347" t="n">
-        <v>259.7467142932301</v>
+        <v>259.7467447472313</v>
       </c>
       <c r="O347" t="n">
-        <v>261.600261993738</v>
+        <v>261.6002926650584</v>
       </c>
       <c r="P347" t="n">
-        <v>259.0368340780119</v>
+        <v>259.0368644487833</v>
       </c>
       <c r="Q347" t="n">
-        <v>260.2889709472656</v>
+        <v>260.2890014648438</v>
       </c>
       <c r="R347" t="n">
         <v>10977700</v>
@@ -22461,7 +22461,7 @@
       <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="n">
-        <v>260.9397277832031</v>
+        <v>260.939697265625</v>
       </c>
       <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr">
@@ -22475,16 +22475,16 @@
       <c r="L348" t="inlineStr"/>
       <c r="M348" t="inlineStr"/>
       <c r="N348" t="n">
-        <v>259.3227665121298</v>
+        <v>259.3227361836595</v>
       </c>
       <c r="O348" t="n">
-        <v>261.3045219486384</v>
+        <v>261.3044913883967</v>
       </c>
       <c r="P348" t="n">
-        <v>258.2185149555912</v>
+        <v>258.2184847562659</v>
       </c>
       <c r="Q348" t="n">
-        <v>260.9397277832031</v>
+        <v>260.939697265625</v>
       </c>
       <c r="R348" t="n">
         <v>6011200</v>
@@ -22524,7 +22524,7 @@
       <c r="D349" t="inlineStr"/>
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="n">
-        <v>262.5270690917969</v>
+        <v>262.5270385742188</v>
       </c>
       <c r="G349" t="inlineStr"/>
       <c r="H349" t="inlineStr">
@@ -22538,16 +22538,16 @@
       <c r="L349" t="inlineStr"/>
       <c r="M349" t="inlineStr"/>
       <c r="N349" t="n">
-        <v>260.0227951796442</v>
+        <v>260.0227649531765</v>
       </c>
       <c r="O349" t="n">
-        <v>262.8327090581509</v>
+        <v>262.8326785050435</v>
       </c>
       <c r="P349" t="n">
-        <v>259.1847374928103</v>
+        <v>259.184707363763</v>
       </c>
       <c r="Q349" t="n">
-        <v>262.5270690917969</v>
+        <v>262.5270385742188</v>
       </c>
       <c r="R349" t="n">
         <v>6998400</v>
@@ -22839,7 +22839,7 @@
       <c r="D354" t="inlineStr"/>
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="n">
-        <v>264.8243103027344</v>
+        <v>264.8243408203125</v>
       </c>
       <c r="G354" t="inlineStr"/>
       <c r="H354" t="inlineStr">
@@ -22853,16 +22853,16 @@
       <c r="L354" t="inlineStr"/>
       <c r="M354" t="inlineStr"/>
       <c r="N354" t="n">
-        <v>262.1425439925069</v>
+        <v>262.1425742010461</v>
       </c>
       <c r="O354" t="n">
-        <v>265.1200811834751</v>
+        <v>265.120111735137</v>
       </c>
       <c r="P354" t="n">
-        <v>262.1129669044328</v>
+        <v>262.1129971095637</v>
       </c>
       <c r="Q354" t="n">
-        <v>264.8243103027344</v>
+        <v>264.8243408203125</v>
       </c>
       <c r="R354" t="n">
         <v>7538100</v>
@@ -23028,7 +23028,7 @@
       <c r="D357" t="inlineStr"/>
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="n">
-        <v>261.2256164550781</v>
+        <v>261.2256469726562</v>
       </c>
       <c r="G357" t="inlineStr"/>
       <c r="H357" t="inlineStr">
@@ -23042,16 +23042,16 @@
       <c r="L357" t="inlineStr"/>
       <c r="M357" t="inlineStr"/>
       <c r="N357" t="n">
-        <v>261.3537637738832</v>
+        <v>261.3537943064321</v>
       </c>
       <c r="O357" t="n">
-        <v>263.2664956490745</v>
+        <v>263.2665264050775</v>
       </c>
       <c r="P357" t="n">
-        <v>259.0170836192922</v>
+        <v>259.0171138788593</v>
       </c>
       <c r="Q357" t="n">
-        <v>261.2256164550781</v>
+        <v>261.2256469726562</v>
       </c>
       <c r="R357" t="n">
         <v>7098300</v>
@@ -23091,7 +23091,7 @@
       <c r="D358" t="inlineStr"/>
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="n">
-        <v>266.5595397949219</v>
+        <v>266.5595703125</v>
       </c>
       <c r="G358" t="inlineStr"/>
       <c r="H358" t="inlineStr">
@@ -23105,16 +23105,16 @@
       <c r="L358" t="inlineStr"/>
       <c r="M358" t="inlineStr"/>
       <c r="N358" t="n">
-        <v>263.2467856983216</v>
+        <v>263.2468158366327</v>
       </c>
       <c r="O358" t="n">
-        <v>267.9103070034475</v>
+        <v>267.9103376756709</v>
       </c>
       <c r="P358" t="n">
-        <v>263.0989002634007</v>
+        <v>263.0989303847809</v>
       </c>
       <c r="Q358" t="n">
-        <v>266.5595397949219</v>
+        <v>266.5595703125</v>
       </c>
       <c r="R358" t="n">
         <v>8566000</v>
@@ -23280,7 +23280,7 @@
       <c r="D361" t="inlineStr"/>
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="n">
-        <v>271.1343383789062</v>
+        <v>271.1343688964844</v>
       </c>
       <c r="G361" t="inlineStr"/>
       <c r="H361" t="inlineStr">
@@ -23294,16 +23294,16 @@
       <c r="L361" t="inlineStr"/>
       <c r="M361" t="inlineStr"/>
       <c r="N361" t="n">
-        <v>271.6963331378996</v>
+        <v>271.6963637187332</v>
       </c>
       <c r="O361" t="n">
-        <v>273.4019953553649</v>
+        <v>273.4020261281797</v>
       </c>
       <c r="P361" t="n">
-        <v>269.9610637439246</v>
+        <v>269.9610941294445</v>
       </c>
       <c r="Q361" t="n">
-        <v>271.1343383789062</v>
+        <v>271.1343688964844</v>
       </c>
       <c r="R361" t="n">
         <v>13969700</v>
@@ -23406,7 +23406,7 @@
       <c r="D363" t="inlineStr"/>
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="n">
-        <v>277.3063354492188</v>
+        <v>277.3063659667969</v>
       </c>
       <c r="G363" t="inlineStr"/>
       <c r="H363" t="inlineStr">
@@ -23420,16 +23420,16 @@
       <c r="L363" t="inlineStr"/>
       <c r="M363" t="inlineStr"/>
       <c r="N363" t="n">
-        <v>276.2710772548705</v>
+        <v>276.2711076585184</v>
       </c>
       <c r="O363" t="n">
-        <v>278.7359347339012</v>
+        <v>278.7359654088068</v>
       </c>
       <c r="P363" t="n">
-        <v>275.5809352138972</v>
+        <v>275.580965541595</v>
       </c>
       <c r="Q363" t="n">
-        <v>277.3063354492188</v>
+        <v>277.3063659667969</v>
       </c>
       <c r="R363" t="n">
         <v>9267900</v>
@@ -23532,7 +23532,7 @@
       <c r="D365" t="inlineStr"/>
       <c r="E365" t="inlineStr"/>
       <c r="F365" t="n">
-        <v>284.6910705566406</v>
+        <v>284.6910400390625</v>
       </c>
       <c r="G365" t="inlineStr"/>
       <c r="H365" t="inlineStr">
@@ -23546,16 +23546,16 @@
       <c r="L365" t="inlineStr"/>
       <c r="M365" t="inlineStr"/>
       <c r="N365" t="n">
-        <v>280.6980130310247</v>
+        <v>280.697982941484</v>
       </c>
       <c r="O365" t="n">
-        <v>285.3417966142587</v>
+        <v>285.3417660269258</v>
       </c>
       <c r="P365" t="n">
-        <v>280.4712352857865</v>
+        <v>280.4712052205554</v>
       </c>
       <c r="Q365" t="n">
-        <v>284.6910705566406</v>
+        <v>284.6910400390625</v>
       </c>
       <c r="R365" t="n">
         <v>8942100</v>
@@ -23658,7 +23658,7 @@
       <c r="D367" t="inlineStr"/>
       <c r="E367" t="inlineStr"/>
       <c r="F367" t="n">
-        <v>285.8347778320312</v>
+        <v>285.8347473144531</v>
       </c>
       <c r="G367" t="inlineStr"/>
       <c r="H367" t="inlineStr">
@@ -23672,16 +23672,16 @@
       <c r="L367" t="inlineStr"/>
       <c r="M367" t="inlineStr"/>
       <c r="N367" t="n">
-        <v>286.3178803397518</v>
+        <v>286.3178497705945</v>
       </c>
       <c r="O367" t="n">
-        <v>288.5362523931413</v>
+        <v>288.5362215871362</v>
       </c>
       <c r="P367" t="n">
-        <v>284.8587037568908</v>
+        <v>284.8586733435247</v>
       </c>
       <c r="Q367" t="n">
-        <v>285.8347778320312</v>
+        <v>285.8347473144531</v>
       </c>
       <c r="R367" t="n">
         <v>12689200</v>
@@ -23784,7 +23784,7 @@
       <c r="D369" t="inlineStr"/>
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="n">
-        <v>43.79566192626953</v>
+        <v>43.79565811157227</v>
       </c>
       <c r="G369" t="inlineStr"/>
       <c r="H369" t="inlineStr">
@@ -23803,16 +23803,16 @@
       <c r="Q369" t="inlineStr"/>
       <c r="R369" t="inlineStr"/>
       <c r="S369" t="n">
-        <v>43.73701877118738</v>
+        <v>43.73701496159806</v>
       </c>
       <c r="T369" t="n">
-        <v>43.83475363464491</v>
+        <v>43.83474981654267</v>
       </c>
       <c r="U369" t="n">
-        <v>43.15060213375011</v>
+        <v>43.15059837523895</v>
       </c>
       <c r="V369" t="n">
-        <v>43.79566192626953</v>
+        <v>43.79565811157227</v>
       </c>
       <c r="W369" t="n">
         <v>23455700</v>
@@ -23847,7 +23847,7 @@
       <c r="D370" t="inlineStr"/>
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="n">
-        <v>44.3723030090332</v>
+        <v>44.37229919433594</v>
       </c>
       <c r="G370" t="inlineStr"/>
       <c r="H370" t="inlineStr">
@@ -23866,16 +23866,16 @@
       <c r="Q370" t="inlineStr"/>
       <c r="R370" t="inlineStr"/>
       <c r="S370" t="n">
-        <v>44.13773413586841</v>
+        <v>44.13773034133709</v>
       </c>
       <c r="T370" t="n">
-        <v>45.10532561119776</v>
+        <v>45.10532173348238</v>
       </c>
       <c r="U370" t="n">
-        <v>44.07909098549077</v>
+        <v>44.07908719600102</v>
       </c>
       <c r="V370" t="n">
-        <v>44.3723030090332</v>
+        <v>44.37229919433594</v>
       </c>
       <c r="W370" t="n">
         <v>30518500</v>
@@ -24162,7 +24162,7 @@
       <c r="D375" t="inlineStr"/>
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="n">
-        <v>44.74370193481445</v>
+        <v>44.74369812011719</v>
       </c>
       <c r="G375" t="inlineStr"/>
       <c r="H375" t="inlineStr">
@@ -24181,16 +24181,16 @@
       <c r="Q375" t="inlineStr"/>
       <c r="R375" t="inlineStr"/>
       <c r="S375" t="n">
-        <v>44.5677761982982</v>
+        <v>44.56777239859978</v>
       </c>
       <c r="T375" t="n">
-        <v>44.88053223469464</v>
+        <v>44.88052840833168</v>
       </c>
       <c r="U375" t="n">
-        <v>44.20615273027971</v>
+        <v>44.20614896141208</v>
       </c>
       <c r="V375" t="n">
-        <v>44.74370193481445</v>
+        <v>44.74369812011719</v>
       </c>
       <c r="W375" t="n">
         <v>36379000</v>
@@ -24288,7 +24288,7 @@
       <c r="D377" t="inlineStr"/>
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="n">
-        <v>45.58423614501953</v>
+        <v>45.58423233032227</v>
       </c>
       <c r="G377" t="inlineStr"/>
       <c r="H377" t="inlineStr">
@@ -24307,16 +24307,16 @@
       <c r="Q377" t="inlineStr"/>
       <c r="R377" t="inlineStr"/>
       <c r="S377" t="n">
-        <v>45.93608762549487</v>
+        <v>45.93608378135307</v>
       </c>
       <c r="T377" t="n">
-        <v>46.43454140393752</v>
+        <v>46.43453751808283</v>
       </c>
       <c r="U377" t="n">
-        <v>44.78279831875731</v>
+        <v>44.78279457112803</v>
       </c>
       <c r="V377" t="n">
-        <v>45.58423614501953</v>
+        <v>45.58423233032227</v>
       </c>
       <c r="W377" t="n">
         <v>56339300</v>
@@ -24351,7 +24351,7 @@
       <c r="D378" t="inlineStr"/>
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="n">
-        <v>45.47672653198242</v>
+        <v>45.47671890258789</v>
       </c>
       <c r="G378" t="inlineStr"/>
       <c r="H378" t="inlineStr">
@@ -24370,16 +24370,16 @@
       <c r="Q378" t="inlineStr"/>
       <c r="R378" t="inlineStr"/>
       <c r="S378" t="n">
-        <v>45.55491740858633</v>
+        <v>45.55490976607412</v>
       </c>
       <c r="T378" t="n">
-        <v>45.8188060246052</v>
+        <v>45.81879833782177</v>
       </c>
       <c r="U378" t="n">
-        <v>45.03691590029717</v>
+        <v>45.03690834468738</v>
       </c>
       <c r="V378" t="n">
-        <v>45.47672653198242</v>
+        <v>45.47671890258789</v>
       </c>
       <c r="W378" t="n">
         <v>44486100</v>
@@ -24414,7 +24414,7 @@
       <c r="D379" t="inlineStr"/>
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="n">
-        <v>45.60378265380859</v>
+        <v>45.60377883911133</v>
       </c>
       <c r="G379" t="inlineStr"/>
       <c r="H379" t="inlineStr">
@@ -24433,16 +24433,16 @@
       <c r="Q379" t="inlineStr"/>
       <c r="R379" t="inlineStr"/>
       <c r="S379" t="n">
-        <v>45.5646872173828</v>
+        <v>45.56468340595581</v>
       </c>
       <c r="T379" t="n">
-        <v>46.08269242915959</v>
+        <v>46.08268857440213</v>
       </c>
       <c r="U379" t="n">
-        <v>45.48650007287722</v>
+        <v>45.48649626799049</v>
       </c>
       <c r="V379" t="n">
-        <v>45.60378265380859</v>
+        <v>45.60377883911133</v>
       </c>
       <c r="W379" t="n">
         <v>52089100</v>
@@ -24666,7 +24666,7 @@
       <c r="D383" t="inlineStr"/>
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="n">
-        <v>46.02404403686523</v>
+        <v>46.0240478515625</v>
       </c>
       <c r="G383" t="inlineStr"/>
       <c r="H383" t="inlineStr">
@@ -24685,16 +24685,16 @@
       <c r="Q383" t="inlineStr"/>
       <c r="R383" t="inlineStr"/>
       <c r="S383" t="n">
-        <v>45.49626689021742</v>
+        <v>45.49627066116994</v>
       </c>
       <c r="T383" t="n">
-        <v>46.07291146266324</v>
+        <v>46.07291528141086</v>
       </c>
       <c r="U383" t="n">
-        <v>45.33011689683511</v>
+        <v>45.33012065401631</v>
       </c>
       <c r="V383" t="n">
-        <v>46.02404403686523</v>
+        <v>46.0240478515625</v>
       </c>
       <c r="W383" t="n">
         <v>44260000</v>
@@ -24729,7 +24729,7 @@
       <c r="D384" t="inlineStr"/>
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="n">
-        <v>45.77970886230469</v>
+        <v>45.77970504760742</v>
       </c>
       <c r="G384" t="inlineStr"/>
       <c r="H384" t="inlineStr">
@@ -24748,16 +24748,16 @@
       <c r="Q384" t="inlineStr"/>
       <c r="R384" t="inlineStr"/>
       <c r="S384" t="n">
-        <v>46.01427775493666</v>
+        <v>46.01427392069343</v>
       </c>
       <c r="T384" t="n">
-        <v>46.36612550136554</v>
+        <v>46.3661216378038</v>
       </c>
       <c r="U384" t="n">
-        <v>45.65265055678127</v>
+        <v>45.65264675267144</v>
       </c>
       <c r="V384" t="n">
-        <v>45.77970886230469</v>
+        <v>45.77970504760742</v>
       </c>
       <c r="W384" t="n">
         <v>27156600</v>
@@ -24792,7 +24792,7 @@
       <c r="D385" t="inlineStr"/>
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="n">
-        <v>45.69174194335938</v>
+        <v>45.69174575805664</v>
       </c>
       <c r="G385" t="inlineStr"/>
       <c r="H385" t="inlineStr">
@@ -24811,16 +24811,16 @@
       <c r="Q385" t="inlineStr"/>
       <c r="R385" t="inlineStr"/>
       <c r="S385" t="n">
-        <v>45.69174194335938</v>
+        <v>45.69174575805664</v>
       </c>
       <c r="T385" t="n">
-        <v>46.31725396380267</v>
+        <v>46.31725783072248</v>
       </c>
       <c r="U385" t="n">
-        <v>45.58423136578086</v>
+        <v>45.58423517150231</v>
       </c>
       <c r="V385" t="n">
-        <v>45.69174194335938</v>
+        <v>45.69174575805664</v>
       </c>
       <c r="W385" t="n">
         <v>23681500</v>
@@ -25044,7 +25044,7 @@
       <c r="D389" t="inlineStr"/>
       <c r="E389" t="inlineStr"/>
       <c r="F389" t="n">
-        <v>45.65264892578125</v>
+        <v>45.65264511108398</v>
       </c>
       <c r="G389" t="inlineStr"/>
       <c r="H389" t="inlineStr">
@@ -25063,16 +25063,16 @@
       <c r="Q389" t="inlineStr"/>
       <c r="R389" t="inlineStr"/>
       <c r="S389" t="n">
-        <v>45.30079746357666</v>
+        <v>45.30079367827981</v>
       </c>
       <c r="T389" t="n">
-        <v>46.06314354113525</v>
+        <v>46.0631396921374</v>
       </c>
       <c r="U389" t="n">
-        <v>45.22261032105671</v>
+        <v>45.22260654229311</v>
       </c>
       <c r="V389" t="n">
-        <v>45.65264892578125</v>
+        <v>45.65264511108398</v>
       </c>
       <c r="W389" t="n">
         <v>32894000</v>
@@ -25170,7 +25170,7 @@
       <c r="D391" t="inlineStr"/>
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="n">
-        <v>46.65933227539062</v>
+        <v>46.65933609008789</v>
       </c>
       <c r="G391" t="inlineStr"/>
       <c r="H391" t="inlineStr">
@@ -25189,16 +25189,16 @@
       <c r="Q391" t="inlineStr"/>
       <c r="R391" t="inlineStr"/>
       <c r="S391" t="n">
-        <v>46.36612026065556</v>
+        <v>46.36612405138087</v>
       </c>
       <c r="T391" t="n">
-        <v>46.89389741316391</v>
+        <v>46.89390124703837</v>
       </c>
       <c r="U391" t="n">
-        <v>46.10223168440137</v>
+        <v>46.10223545355212</v>
       </c>
       <c r="V391" t="n">
-        <v>46.65933227539062</v>
+        <v>46.65933609008789</v>
       </c>
       <c r="W391" t="n">
         <v>39793400</v>
@@ -25233,7 +25233,7 @@
       <c r="D392" t="inlineStr"/>
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="n">
-        <v>46.32703018188477</v>
+        <v>46.32703399658203</v>
       </c>
       <c r="G392" t="inlineStr"/>
       <c r="H392" t="inlineStr">
@@ -25252,16 +25252,16 @@
       <c r="Q392" t="inlineStr"/>
       <c r="R392" t="inlineStr"/>
       <c r="S392" t="n">
-        <v>46.75706876845329</v>
+        <v>46.75707261856114</v>
       </c>
       <c r="T392" t="n">
-        <v>46.88412706407304</v>
+        <v>46.88413092464322</v>
       </c>
       <c r="U392" t="n">
-        <v>46.30748246499359</v>
+        <v>46.30748627808124</v>
       </c>
       <c r="V392" t="n">
-        <v>46.32703018188477</v>
+        <v>46.32703399658203</v>
       </c>
       <c r="W392" t="n">
         <v>26504700</v>
@@ -25296,7 +25296,7 @@
       <c r="D393" t="inlineStr"/>
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="n">
-        <v>45.61354827880859</v>
+        <v>45.61355590820312</v>
       </c>
       <c r="G393" t="inlineStr"/>
       <c r="H393" t="inlineStr">
@@ -25315,16 +25315,16 @@
       <c r="Q393" t="inlineStr"/>
       <c r="R393" t="inlineStr"/>
       <c r="S393" t="n">
-        <v>46.40521397831779</v>
+        <v>46.40522174012759</v>
       </c>
       <c r="T393" t="n">
-        <v>46.48340484025003</v>
+        <v>46.48341261513816</v>
       </c>
       <c r="U393" t="n">
-        <v>45.34966344065103</v>
+        <v>45.34967102590777</v>
       </c>
       <c r="V393" t="n">
-        <v>45.61354827880859</v>
+        <v>45.61355590820312</v>
       </c>
       <c r="W393" t="n">
         <v>26725200</v>
@@ -25359,7 +25359,7 @@
       <c r="D394" t="inlineStr"/>
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="n">
-        <v>45.73083877563477</v>
+        <v>45.73084259033203</v>
       </c>
       <c r="G394" t="inlineStr"/>
       <c r="H394" t="inlineStr">
@@ -25378,16 +25378,16 @@
       <c r="Q394" t="inlineStr"/>
       <c r="R394" t="inlineStr"/>
       <c r="S394" t="n">
-        <v>45.49626989662018</v>
+        <v>45.49627369175057</v>
       </c>
       <c r="T394" t="n">
-        <v>45.86766906824917</v>
+        <v>45.86767289436032</v>
       </c>
       <c r="U394" t="n">
-        <v>45.23238130585846</v>
+        <v>45.23238507897625</v>
       </c>
       <c r="V394" t="n">
-        <v>45.73083877563477</v>
+        <v>45.73084259033203</v>
       </c>
       <c r="W394" t="n">
         <v>20314900</v>
@@ -25548,7 +25548,7 @@
       <c r="D397" t="inlineStr"/>
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="n">
-        <v>45.89699172973633</v>
+        <v>45.8969841003418</v>
       </c>
       <c r="G397" t="inlineStr"/>
       <c r="H397" t="inlineStr">
@@ -25567,16 +25567,16 @@
       <c r="Q397" t="inlineStr"/>
       <c r="R397" t="inlineStr"/>
       <c r="S397" t="n">
-        <v>45.42785766990237</v>
+        <v>45.42785011849135</v>
       </c>
       <c r="T397" t="n">
-        <v>46.02405003604952</v>
+        <v>46.02404238553425</v>
       </c>
       <c r="U397" t="n">
-        <v>45.42785766990237</v>
+        <v>45.42785011849135</v>
       </c>
       <c r="V397" t="n">
-        <v>45.89699172973633</v>
+        <v>45.8969841003418</v>
       </c>
       <c r="W397" t="n">
         <v>25960500</v>
@@ -25611,7 +25611,7 @@
       <c r="D398" t="inlineStr"/>
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="n">
-        <v>45.47672653198242</v>
+        <v>45.47671890258789</v>
       </c>
       <c r="G398" t="inlineStr"/>
       <c r="H398" t="inlineStr">
@@ -25630,16 +25630,16 @@
       <c r="Q398" t="inlineStr"/>
       <c r="R398" t="inlineStr"/>
       <c r="S398" t="n">
-        <v>45.50604997488199</v>
+        <v>45.50604234056802</v>
       </c>
       <c r="T398" t="n">
-        <v>45.59401284688828</v>
+        <v>45.59400519781723</v>
       </c>
       <c r="U398" t="n">
-        <v>45.11510304855487</v>
+        <v>45.11509547982804</v>
       </c>
       <c r="V398" t="n">
-        <v>45.47672653198242</v>
+        <v>45.47671890258789</v>
       </c>
       <c r="W398" t="n">
         <v>37824100</v>
@@ -25674,7 +25674,7 @@
       <c r="D399" t="inlineStr"/>
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="n">
-        <v>44.9684944152832</v>
+        <v>44.96849060058594</v>
       </c>
       <c r="G399" t="inlineStr"/>
       <c r="H399" t="inlineStr">
@@ -25693,16 +25693,16 @@
       <c r="Q399" t="inlineStr"/>
       <c r="R399" t="inlineStr"/>
       <c r="S399" t="n">
-        <v>44.84143984067801</v>
+        <v>44.84143603675884</v>
       </c>
       <c r="T399" t="n">
-        <v>45.01736557450396</v>
+        <v>45.01736175566093</v>
       </c>
       <c r="U399" t="n">
-        <v>44.39184978293059</v>
+        <v>44.39184601715034</v>
       </c>
       <c r="V399" t="n">
-        <v>44.9684944152832</v>
+        <v>44.96849060058594</v>
       </c>
       <c r="W399" t="n">
         <v>38967800</v>
@@ -25737,7 +25737,7 @@
       <c r="D400" t="inlineStr"/>
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="n">
-        <v>44.27456665039062</v>
+        <v>44.27456283569336</v>
       </c>
       <c r="G400" t="inlineStr"/>
       <c r="H400" t="inlineStr">
@@ -25756,16 +25756,16 @@
       <c r="Q400" t="inlineStr"/>
       <c r="R400" t="inlineStr"/>
       <c r="S400" t="n">
-        <v>44.86098699860428</v>
+        <v>44.86098313338103</v>
       </c>
       <c r="T400" t="n">
-        <v>45.14441958547764</v>
+        <v>45.14441569583384</v>
       </c>
       <c r="U400" t="n">
-        <v>44.02045377600687</v>
+        <v>44.02044998320397</v>
       </c>
       <c r="V400" t="n">
-        <v>44.27456665039062</v>
+        <v>44.27456283569336</v>
       </c>
       <c r="W400" t="n">
         <v>40001100</v>
@@ -25800,7 +25800,7 @@
       <c r="D401" t="inlineStr"/>
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="n">
-        <v>43.79566192626953</v>
+        <v>43.79565811157227</v>
       </c>
       <c r="G401" t="inlineStr"/>
       <c r="H401" t="inlineStr">
@@ -25819,16 +25819,16 @@
       <c r="Q401" t="inlineStr"/>
       <c r="R401" t="inlineStr"/>
       <c r="S401" t="n">
-        <v>44.22570054516713</v>
+        <v>44.22569669301257</v>
       </c>
       <c r="T401" t="n">
-        <v>44.47981342716433</v>
+        <v>44.47980955287598</v>
       </c>
       <c r="U401" t="n">
-        <v>43.53177332091894</v>
+        <v>43.53176952920695</v>
       </c>
       <c r="V401" t="n">
-        <v>43.79566192626953</v>
+        <v>43.79565811157227</v>
       </c>
       <c r="W401" t="n">
         <v>43485900</v>
@@ -26115,7 +26115,7 @@
       <c r="D406" t="inlineStr"/>
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="n">
-        <v>45.05645370483398</v>
+        <v>45.05645751953125</v>
       </c>
       <c r="G406" t="inlineStr"/>
       <c r="H406" t="inlineStr">
@@ -26134,16 +26134,16 @@
       <c r="Q406" t="inlineStr"/>
       <c r="R406" t="inlineStr"/>
       <c r="S406" t="n">
-        <v>43.31674795106759</v>
+        <v>43.31675161847295</v>
       </c>
       <c r="T406" t="n">
-        <v>45.15419228716932</v>
+        <v>45.15419611014161</v>
       </c>
       <c r="U406" t="n">
-        <v>43.19946538061087</v>
+        <v>43.19946903808653</v>
       </c>
       <c r="V406" t="n">
-        <v>45.05645370483398</v>
+        <v>45.05645751953125</v>
       </c>
       <c r="W406" t="n">
         <v>62621100</v>
@@ -26178,7 +26178,7 @@
       <c r="D407" t="inlineStr"/>
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="n">
-        <v>44.52867889404297</v>
+        <v>44.5286865234375</v>
       </c>
       <c r="G407" t="inlineStr"/>
       <c r="H407" t="inlineStr">
@@ -26197,16 +26197,16 @@
       <c r="Q407" t="inlineStr"/>
       <c r="R407" t="inlineStr"/>
       <c r="S407" t="n">
-        <v>45.16396288198503</v>
+        <v>45.16397062022699</v>
       </c>
       <c r="T407" t="n">
-        <v>45.89698544923435</v>
+        <v>45.89699331306993</v>
       </c>
       <c r="U407" t="n">
-        <v>44.19637518108945</v>
+        <v>44.19638275354818</v>
       </c>
       <c r="V407" t="n">
-        <v>44.52867889404297</v>
+        <v>44.5286865234375</v>
       </c>
       <c r="W407" t="n">
         <v>46946000</v>
@@ -26304,7 +26304,7 @@
       <c r="D409" t="inlineStr"/>
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="n">
-        <v>41.33270645141602</v>
+        <v>41.33269882202148</v>
       </c>
       <c r="G409" t="inlineStr"/>
       <c r="H409" t="inlineStr">
@@ -26323,16 +26323,16 @@
       <c r="Q409" t="inlineStr"/>
       <c r="R409" t="inlineStr"/>
       <c r="S409" t="n">
-        <v>41.68455793469485</v>
+        <v>41.68455024035384</v>
       </c>
       <c r="T409" t="n">
-        <v>41.76274508189784</v>
+        <v>41.76273737312466</v>
       </c>
       <c r="U409" t="n">
-        <v>40.76583378872319</v>
+        <v>40.7658262639648</v>
       </c>
       <c r="V409" t="n">
-        <v>41.33270645141602</v>
+        <v>41.33269882202148</v>
       </c>
       <c r="W409" t="n">
         <v>52588900</v>
@@ -26619,7 +26619,7 @@
       <c r="D414" t="inlineStr"/>
       <c r="E414" t="inlineStr"/>
       <c r="F414" t="n">
-        <v>39.25273895263672</v>
+        <v>39.25273513793945</v>
       </c>
       <c r="G414" t="inlineStr"/>
       <c r="H414" t="inlineStr">
@@ -26638,16 +26638,16 @@
       <c r="Q414" t="inlineStr"/>
       <c r="R414" t="inlineStr"/>
       <c r="S414" t="n">
-        <v>39.64615302269463</v>
+        <v>39.64614916976422</v>
       </c>
       <c r="T414" t="n">
-        <v>39.83302264244109</v>
+        <v>39.83301877135014</v>
       </c>
       <c r="U414" t="n">
-        <v>38.55443254256483</v>
+        <v>38.55442879573104</v>
       </c>
       <c r="V414" t="n">
-        <v>39.25273895263672</v>
+        <v>39.25273513793945</v>
       </c>
       <c r="W414" t="n">
         <v>42290700</v>
@@ -26745,7 +26745,7 @@
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr"/>
       <c r="F416" t="n">
-        <v>40.21659469604492</v>
+        <v>40.21659851074219</v>
       </c>
       <c r="G416" t="inlineStr"/>
       <c r="H416" t="inlineStr">
@@ -26764,16 +26764,16 @@
       <c r="Q416" t="inlineStr"/>
       <c r="R416" t="inlineStr"/>
       <c r="S416" t="n">
-        <v>39.59696891975108</v>
+        <v>39.59697267567447</v>
       </c>
       <c r="T416" t="n">
-        <v>40.34445481696649</v>
+        <v>40.34445864379177</v>
       </c>
       <c r="U416" t="n">
-        <v>39.5084509517091</v>
+        <v>39.50845469923623</v>
       </c>
       <c r="V416" t="n">
-        <v>40.21659469604492</v>
+        <v>40.21659851074219</v>
       </c>
       <c r="W416" t="n">
         <v>35979900</v>
@@ -26934,7 +26934,7 @@
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr"/>
       <c r="F419" t="n">
-        <v>41.51485443115234</v>
+        <v>41.51485824584961</v>
       </c>
       <c r="G419" t="inlineStr"/>
       <c r="H419" t="inlineStr">
@@ -26953,16 +26953,16 @@
       <c r="Q419" t="inlineStr"/>
       <c r="R419" t="inlineStr"/>
       <c r="S419" t="n">
-        <v>41.03292620496931</v>
+        <v>41.03292997538338</v>
       </c>
       <c r="T419" t="n">
-        <v>41.99678640920947</v>
+        <v>41.99679026819027</v>
       </c>
       <c r="U419" t="n">
-        <v>40.6198411163669</v>
+        <v>40.6198448488236</v>
       </c>
       <c r="V419" t="n">
-        <v>41.51485443115234</v>
+        <v>41.51485824584961</v>
       </c>
       <c r="W419" t="n">
         <v>42471100</v>
@@ -26997,7 +26997,7 @@
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr"/>
       <c r="F420" t="n">
-        <v>41.78041076660156</v>
+        <v>41.78041458129883</v>
       </c>
       <c r="G420" t="inlineStr"/>
       <c r="H420" t="inlineStr">
@@ -27016,16 +27016,16 @@
       <c r="Q420" t="inlineStr"/>
       <c r="R420" t="inlineStr"/>
       <c r="S420" t="n">
-        <v>41.07226700300473</v>
+        <v>41.072270753046</v>
       </c>
       <c r="T420" t="n">
-        <v>42.01645993842528</v>
+        <v>42.01646377467465</v>
       </c>
       <c r="U420" t="n">
-        <v>40.96408170745459</v>
+        <v>40.96408544761817</v>
       </c>
       <c r="V420" t="n">
-        <v>41.78041076660156</v>
+        <v>41.78041458129883</v>
       </c>
       <c r="W420" t="n">
         <v>41018100</v>
@@ -27249,7 +27249,7 @@
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr"/>
       <c r="F424" t="n">
-        <v>42.11481475830078</v>
+        <v>42.11481094360352</v>
       </c>
       <c r="G424" t="inlineStr"/>
       <c r="H424" t="inlineStr">
@@ -27268,16 +27268,16 @@
       <c r="Q424" t="inlineStr"/>
       <c r="R424" t="inlineStr"/>
       <c r="S424" t="n">
-        <v>42.74427426163019</v>
+        <v>42.74427038991742</v>
       </c>
       <c r="T424" t="n">
-        <v>42.99999452977938</v>
+        <v>42.99999063490385</v>
       </c>
       <c r="U424" t="n">
-        <v>42.02629678115292</v>
+        <v>42.02629297447348</v>
       </c>
       <c r="V424" t="n">
-        <v>42.11481475830078</v>
+        <v>42.11481094360352</v>
       </c>
       <c r="W424" t="n">
         <v>30012100</v>
@@ -27312,7 +27312,7 @@
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr"/>
       <c r="F425" t="n">
-        <v>41.85909271240234</v>
+        <v>41.85909652709961</v>
       </c>
       <c r="G425" t="inlineStr"/>
       <c r="H425" t="inlineStr">
@@ -27331,16 +27331,16 @@
       <c r="Q425" t="inlineStr"/>
       <c r="R425" t="inlineStr"/>
       <c r="S425" t="n">
-        <v>42.11480919489657</v>
+        <v>42.11481303289775</v>
       </c>
       <c r="T425" t="n">
-        <v>42.38036309126024</v>
+        <v>42.38036695346185</v>
       </c>
       <c r="U425" t="n">
-        <v>41.81975056067274</v>
+        <v>41.81975437178468</v>
       </c>
       <c r="V425" t="n">
-        <v>41.85909271240234</v>
+        <v>41.85909652709961</v>
       </c>
       <c r="W425" t="n">
         <v>25619200</v>
@@ -27375,7 +27375,7 @@
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr"/>
       <c r="F426" t="n">
-        <v>40.5706672668457</v>
+        <v>40.57067108154297</v>
       </c>
       <c r="G426" t="inlineStr"/>
       <c r="H426" t="inlineStr">
@@ -27394,16 +27394,16 @@
       <c r="Q426" t="inlineStr"/>
       <c r="R426" t="inlineStr"/>
       <c r="S426" t="n">
-        <v>41.74106819611148</v>
+        <v>41.74107212085686</v>
       </c>
       <c r="T426" t="n">
-        <v>41.91810413524403</v>
+        <v>41.91810807663538</v>
       </c>
       <c r="U426" t="n">
-        <v>40.3149507724733</v>
+        <v>40.31495456312656</v>
       </c>
       <c r="V426" t="n">
-        <v>40.5706672668457</v>
+        <v>40.57067108154297</v>
       </c>
       <c r="W426" t="n">
         <v>34253000</v>
@@ -28194,7 +28194,7 @@
       <c r="D439" t="inlineStr"/>
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="n">
-        <v>36.71522903442383</v>
+        <v>36.71522521972656</v>
       </c>
       <c r="G439" t="inlineStr"/>
       <c r="H439" t="inlineStr">
@@ -28213,16 +28213,16 @@
       <c r="Q439" t="inlineStr"/>
       <c r="R439" t="inlineStr"/>
       <c r="S439" t="n">
-        <v>37.23649947683945</v>
+        <v>37.2364956079824</v>
       </c>
       <c r="T439" t="n">
-        <v>37.53155814703933</v>
+        <v>37.53155424752581</v>
       </c>
       <c r="U439" t="n">
-        <v>36.36115712943414</v>
+        <v>36.3611533515248</v>
       </c>
       <c r="V439" t="n">
-        <v>36.71522903442383</v>
+        <v>36.71522521972656</v>
       </c>
       <c r="W439" t="n">
         <v>52872700</v>
@@ -28320,7 +28320,7 @@
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr"/>
       <c r="F441" t="n">
-        <v>36.31197738647461</v>
+        <v>36.31197357177734</v>
       </c>
       <c r="G441" t="inlineStr"/>
       <c r="H441" t="inlineStr">
@@ -28339,16 +28339,16 @@
       <c r="Q441" t="inlineStr"/>
       <c r="R441" t="inlineStr"/>
       <c r="S441" t="n">
-        <v>36.4595085968156</v>
+        <v>36.45950476661967</v>
       </c>
       <c r="T441" t="n">
-        <v>36.66604928979335</v>
+        <v>36.66604543789963</v>
       </c>
       <c r="U441" t="n">
-        <v>35.88906233737114</v>
+        <v>35.88905856710255</v>
       </c>
       <c r="V441" t="n">
-        <v>36.31197738647461</v>
+        <v>36.31197357177734</v>
       </c>
       <c r="W441" t="n">
         <v>34928300</v>
@@ -28824,7 +28824,7 @@
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr"/>
       <c r="F449" t="n">
-        <v>39.50845336914062</v>
+        <v>39.50844955444336</v>
       </c>
       <c r="G449" t="inlineStr"/>
       <c r="H449" t="inlineStr">
@@ -28843,16 +28843,16 @@
       <c r="Q449" t="inlineStr"/>
       <c r="R449" t="inlineStr"/>
       <c r="S449" t="n">
-        <v>39.16421889006679</v>
+        <v>39.16421510860673</v>
       </c>
       <c r="T449" t="n">
-        <v>39.77400728951519</v>
+        <v>39.77400344917765</v>
       </c>
       <c r="U449" t="n">
-        <v>38.92817346209458</v>
+        <v>38.92816970342563</v>
       </c>
       <c r="V449" t="n">
-        <v>39.50845336914062</v>
+        <v>39.50844955444336</v>
       </c>
       <c r="W449" t="n">
         <v>33569100</v>
@@ -29202,7 +29202,7 @@
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr"/>
       <c r="F455" t="n">
-        <v>41.10177612304688</v>
+        <v>41.10177230834961</v>
       </c>
       <c r="G455" t="inlineStr"/>
       <c r="H455" t="inlineStr">
@@ -29221,16 +29221,16 @@
       <c r="Q455" t="inlineStr"/>
       <c r="R455" t="inlineStr"/>
       <c r="S455" t="n">
-        <v>41.04276289121977</v>
+        <v>41.04275908199959</v>
       </c>
       <c r="T455" t="n">
-        <v>41.28864572935448</v>
+        <v>41.28864189731366</v>
       </c>
       <c r="U455" t="n">
-        <v>41.00342073666837</v>
+        <v>41.00341693109957</v>
       </c>
       <c r="V455" t="n">
-        <v>41.10177612304688</v>
+        <v>41.10177230834961</v>
       </c>
       <c r="W455" t="n">
         <v>27222800</v>
@@ -29391,7 +29391,7 @@
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr"/>
       <c r="F458" t="n">
-        <v>44.00319290161133</v>
+        <v>44.00319671630859</v>
       </c>
       <c r="G458" t="inlineStr"/>
       <c r="H458" t="inlineStr">
@@ -29410,16 +29410,16 @@
       <c r="Q458" t="inlineStr"/>
       <c r="R458" t="inlineStr"/>
       <c r="S458" t="n">
-        <v>43.46224767418586</v>
+        <v>43.46225144198785</v>
       </c>
       <c r="T458" t="n">
-        <v>44.18022508746284</v>
+        <v>44.18022891750726</v>
       </c>
       <c r="U458" t="n">
-        <v>43.40323819619343</v>
+        <v>43.4032419588798</v>
       </c>
       <c r="V458" t="n">
-        <v>44.00319290161133</v>
+        <v>44.00319671630859</v>
       </c>
       <c r="W458" t="n">
         <v>42419500</v>
@@ -29454,7 +29454,7 @@
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr"/>
       <c r="F459" t="n">
-        <v>43.64912033081055</v>
+        <v>43.64912414550781</v>
       </c>
       <c r="G459" t="inlineStr"/>
       <c r="H459" t="inlineStr">
@@ -29473,16 +29473,16 @@
       <c r="Q459" t="inlineStr"/>
       <c r="R459" t="inlineStr"/>
       <c r="S459" t="n">
-        <v>43.86549466645956</v>
+        <v>43.86549850006677</v>
       </c>
       <c r="T459" t="n">
-        <v>44.23923761257939</v>
+        <v>44.23924147884971</v>
       </c>
       <c r="U459" t="n">
-        <v>43.28521104690806</v>
+        <v>43.28521482980162</v>
       </c>
       <c r="V459" t="n">
-        <v>43.64912033081055</v>
+        <v>43.64912414550781</v>
       </c>
       <c r="W459" t="n">
         <v>47379400</v>
@@ -29895,7 +29895,7 @@
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr"/>
       <c r="F466" t="n">
-        <v>43.49175643920898</v>
+        <v>43.49175262451172</v>
       </c>
       <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
@@ -29914,16 +29914,16 @@
       <c r="Q466" t="inlineStr"/>
       <c r="R466" t="inlineStr"/>
       <c r="S466" t="n">
-        <v>43.06883766885095</v>
+        <v>43.06883389124823</v>
       </c>
       <c r="T466" t="n">
-        <v>43.49175643920898</v>
+        <v>43.49175262451172</v>
       </c>
       <c r="U466" t="n">
-        <v>42.58690566825426</v>
+        <v>42.58690193292219</v>
       </c>
       <c r="V466" t="n">
-        <v>43.49175643920898</v>
+        <v>43.49175262451172</v>
       </c>
       <c r="W466" t="n">
         <v>36322000</v>
@@ -30147,7 +30147,7 @@
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr"/>
       <c r="F470" t="n">
-        <v>43.35406494140625</v>
+        <v>43.35406112670898</v>
       </c>
       <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
@@ -30166,16 +30166,16 @@
       <c r="Q470" t="inlineStr"/>
       <c r="R470" t="inlineStr"/>
       <c r="S470" t="n">
-        <v>43.15735791543923</v>
+        <v>43.15735411805009</v>
       </c>
       <c r="T470" t="n">
-        <v>43.42291183771354</v>
+        <v>43.42290801695848</v>
       </c>
       <c r="U470" t="n">
-        <v>42.64592114867474</v>
+        <v>42.64591739628661</v>
       </c>
       <c r="V470" t="n">
-        <v>43.35406494140625</v>
+        <v>43.35406112670898</v>
       </c>
       <c r="W470" t="n">
         <v>28582600</v>
@@ -30210,7 +30210,7 @@
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr"/>
       <c r="F471" t="n">
-        <v>43.91467666625977</v>
+        <v>43.9146728515625</v>
       </c>
       <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
@@ -30229,16 +30229,16 @@
       <c r="Q471" t="inlineStr"/>
       <c r="R471" t="inlineStr"/>
       <c r="S471" t="n">
-        <v>43.28521344512366</v>
+        <v>43.28520968510542</v>
       </c>
       <c r="T471" t="n">
-        <v>43.99335722398029</v>
+        <v>43.99335340244835</v>
       </c>
       <c r="U471" t="n">
-        <v>43.21636655016531</v>
+        <v>43.21636279612753</v>
       </c>
       <c r="V471" t="n">
-        <v>43.91467666625977</v>
+        <v>43.9146728515625</v>
       </c>
       <c r="W471" t="n">
         <v>31320200</v>
@@ -30336,7 +30336,7 @@
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr"/>
       <c r="F473" t="n">
-        <v>43.64912033081055</v>
+        <v>43.64912414550781</v>
       </c>
       <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
@@ -30355,16 +30355,16 @@
       <c r="Q473" t="inlineStr"/>
       <c r="R473" t="inlineStr"/>
       <c r="S473" t="n">
-        <v>43.71796722195444</v>
+        <v>43.71797104266855</v>
       </c>
       <c r="T473" t="n">
-        <v>43.84582734202489</v>
+        <v>43.84583117391328</v>
       </c>
       <c r="U473" t="n">
-        <v>43.28521104690806</v>
+        <v>43.28521482980162</v>
       </c>
       <c r="V473" t="n">
-        <v>43.64912033081055</v>
+        <v>43.64912414550781</v>
       </c>
       <c r="W473" t="n">
         <v>32020900</v>
@@ -30399,7 +30399,7 @@
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr"/>
       <c r="F474" t="n">
-        <v>44.49004745483398</v>
+        <v>44.49005126953125</v>
       </c>
       <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
@@ -30418,16 +30418,16 @@
       <c r="Q474" t="inlineStr"/>
       <c r="R474" t="inlineStr"/>
       <c r="S474" t="n">
-        <v>44.21303325967891</v>
+        <v>44.21303705062422</v>
       </c>
       <c r="T474" t="n">
-        <v>44.68790988482255</v>
+        <v>44.68791371648507</v>
       </c>
       <c r="U474" t="n">
-        <v>44.16356765218177</v>
+        <v>44.16357143888577</v>
       </c>
       <c r="V474" t="n">
-        <v>44.49004745483398</v>
+        <v>44.49005126953125</v>
       </c>
       <c r="W474" t="n">
         <v>37013000</v>
@@ -30903,7 +30903,7 @@
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr"/>
       <c r="F482" t="n">
-        <v>44.57908630371094</v>
+        <v>44.5790901184082</v>
       </c>
       <c r="G482" t="inlineStr"/>
       <c r="H482" t="inlineStr">
@@ -30922,16 +30922,16 @@
       <c r="Q482" t="inlineStr"/>
       <c r="R482" t="inlineStr"/>
       <c r="S482" t="n">
-        <v>43.78762150121133</v>
+        <v>43.7876252481818</v>
       </c>
       <c r="T482" t="n">
-        <v>44.7175915119532</v>
+        <v>44.71759533850256</v>
       </c>
       <c r="U482" t="n">
-        <v>43.73815589455108</v>
+        <v>43.7381596372887</v>
       </c>
       <c r="V482" t="n">
-        <v>44.57908630371094</v>
+        <v>44.5790901184082</v>
       </c>
       <c r="W482" t="n">
         <v>37684700</v>
@@ -31092,7 +31092,7 @@
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr"/>
       <c r="F485" t="n">
-        <v>46.16201019287109</v>
+        <v>46.16201400756836</v>
       </c>
       <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr">
@@ -31111,16 +31111,16 @@
       <c r="Q485" t="inlineStr"/>
       <c r="R485" t="inlineStr"/>
       <c r="S485" t="n">
-        <v>46.25104979798701</v>
+        <v>46.25105362004225</v>
       </c>
       <c r="T485" t="n">
-        <v>46.68635243745146</v>
+        <v>46.68635629547887</v>
       </c>
       <c r="U485" t="n">
-        <v>46.07297058775518</v>
+        <v>46.07297439509446</v>
       </c>
       <c r="V485" t="n">
-        <v>46.16201019287109</v>
+        <v>46.16201400756836</v>
       </c>
       <c r="W485" t="n">
         <v>45437600</v>
@@ -31218,7 +31218,7 @@
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr"/>
       <c r="F487" t="n">
-        <v>46.95347213745117</v>
+        <v>46.95347595214844</v>
       </c>
       <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr">
@@ -31237,16 +31237,16 @@
       <c r="Q487" t="inlineStr"/>
       <c r="R487" t="inlineStr"/>
       <c r="S487" t="n">
-        <v>46.44891688161067</v>
+        <v>46.44892065531575</v>
       </c>
       <c r="T487" t="n">
-        <v>47.07219412916525</v>
+        <v>47.07219795350799</v>
       </c>
       <c r="U487" t="n">
-        <v>46.39945127205519</v>
+        <v>46.39945504174147</v>
       </c>
       <c r="V487" t="n">
-        <v>46.95347213745117</v>
+        <v>46.95347595214844</v>
       </c>
       <c r="W487" t="n">
         <v>40127000</v>
@@ -31407,7 +31407,7 @@
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr"/>
       <c r="F490" t="n">
-        <v>563.4705200195312</v>
+        <v>563.4705810546875</v>
       </c>
       <c r="G490" t="inlineStr"/>
       <c r="H490" t="inlineStr">
@@ -31431,16 +31431,16 @@
       <c r="V490" t="inlineStr"/>
       <c r="W490" t="inlineStr"/>
       <c r="X490" t="n">
-        <v>567.7237459508945</v>
+        <v>567.7238074467605</v>
       </c>
       <c r="Y490" t="n">
-        <v>572.6237455050492</v>
+        <v>572.6238075316834</v>
       </c>
       <c r="Z490" t="n">
-        <v>558.3451396265086</v>
+        <v>558.3452001064835</v>
       </c>
       <c r="AA490" t="n">
-        <v>563.4705200195312</v>
+        <v>563.4705810546875</v>
       </c>
       <c r="AB490" t="n">
         <v>2219000</v>
@@ -31596,7 +31596,7 @@
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr"/>
       <c r="F493" t="n">
-        <v>568.5175170898438</v>
+        <v>568.5176391601562</v>
       </c>
       <c r="G493" t="inlineStr"/>
       <c r="H493" t="inlineStr">
@@ -31620,16 +31620,16 @@
       <c r="V493" t="inlineStr"/>
       <c r="W493" t="inlineStr"/>
       <c r="X493" t="n">
-        <v>575.3677065781864</v>
+        <v>575.3678301193503</v>
       </c>
       <c r="Y493" t="n">
-        <v>576.5143494870223</v>
+        <v>576.5144732743898</v>
       </c>
       <c r="Z493" t="n">
-        <v>557.0319473791145</v>
+        <v>557.0320669832813</v>
       </c>
       <c r="AA493" t="n">
-        <v>568.5175170898438</v>
+        <v>568.5176391601562</v>
       </c>
       <c r="AB493" t="n">
         <v>2021900</v>
@@ -31848,7 +31848,7 @@
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr"/>
       <c r="F497" t="n">
-        <v>560.0994262695312</v>
+        <v>560.0994873046875</v>
       </c>
       <c r="G497" t="inlineStr"/>
       <c r="H497" t="inlineStr">
@@ -31872,16 +31872,16 @@
       <c r="V497" t="inlineStr"/>
       <c r="W497" t="inlineStr"/>
       <c r="X497" t="n">
-        <v>558.2667712482228</v>
+        <v>558.2668320836708</v>
       </c>
       <c r="Y497" t="n">
-        <v>562.1182238681534</v>
+        <v>562.1182851233021</v>
       </c>
       <c r="Z497" t="n">
-        <v>553.8960095485244</v>
+        <v>553.8960699076819</v>
       </c>
       <c r="AA497" t="n">
-        <v>560.0994262695312</v>
+        <v>560.0994873046875</v>
       </c>
       <c r="AB497" t="n">
         <v>2221900</v>
@@ -31974,7 +31974,7 @@
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr"/>
       <c r="F499" t="n">
-        <v>600.730224609375</v>
+        <v>600.7301635742188</v>
       </c>
       <c r="G499" t="inlineStr"/>
       <c r="H499" t="inlineStr">
@@ -31998,16 +31998,16 @@
       <c r="V499" t="inlineStr"/>
       <c r="W499" t="inlineStr"/>
       <c r="X499" t="n">
-        <v>597.7902244420981</v>
+        <v>597.7901637056506</v>
       </c>
       <c r="Y499" t="n">
-        <v>604.5032607127209</v>
+        <v>604.5031992942181</v>
       </c>
       <c r="Z499" t="n">
-        <v>593.8800337899329</v>
+        <v>593.879973450767</v>
       </c>
       <c r="AA499" t="n">
-        <v>600.730224609375</v>
+        <v>600.7301635742188</v>
       </c>
       <c r="AB499" t="n">
         <v>3224500</v>
@@ -32100,7 +32100,7 @@
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr"/>
       <c r="F501" t="n">
-        <v>622.045166015625</v>
+        <v>622.0452270507812</v>
       </c>
       <c r="G501" t="inlineStr"/>
       <c r="H501" t="inlineStr">
@@ -32124,16 +32124,16 @@
       <c r="V501" t="inlineStr"/>
       <c r="W501" t="inlineStr"/>
       <c r="X501" t="n">
-        <v>604.4737738830023</v>
+        <v>604.4738331940512</v>
       </c>
       <c r="Y501" t="n">
-        <v>622.7213683816635</v>
+        <v>622.7214294831689</v>
       </c>
       <c r="Z501" t="n">
-        <v>596.8199765759772</v>
+        <v>596.8200351360343</v>
       </c>
       <c r="AA501" t="n">
-        <v>622.045166015625</v>
+        <v>622.0452270507812</v>
       </c>
       <c r="AB501" t="n">
         <v>5076700</v>
@@ -32163,7 +32163,7 @@
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr"/>
       <c r="F502" t="n">
-        <v>620.0753784179688</v>
+        <v>620.0753173828125</v>
       </c>
       <c r="G502" t="inlineStr"/>
       <c r="H502" t="inlineStr">
@@ -32187,16 +32187,16 @@
       <c r="V502" t="inlineStr"/>
       <c r="W502" t="inlineStr"/>
       <c r="X502" t="n">
-        <v>620.7711999484322</v>
+        <v>620.771138844785</v>
       </c>
       <c r="Y502" t="n">
-        <v>622.8879736217385</v>
+        <v>622.8879123097333</v>
       </c>
       <c r="Z502" t="n">
-        <v>617.1158191034494</v>
+        <v>617.1157583596081</v>
       </c>
       <c r="AA502" t="n">
-        <v>620.0753784179688</v>
+        <v>620.0753173828125</v>
       </c>
       <c r="AB502" t="n">
         <v>2835700</v>
@@ -32226,7 +32226,7 @@
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr"/>
       <c r="F503" t="n">
-        <v>626.7100830078125</v>
+        <v>626.7099609375</v>
       </c>
       <c r="G503" t="inlineStr"/>
       <c r="H503" t="inlineStr">
@@ -32250,16 +32250,16 @@
       <c r="V503" t="inlineStr"/>
       <c r="W503" t="inlineStr"/>
       <c r="X503" t="n">
-        <v>622.2216656652744</v>
+        <v>622.2215444692138</v>
       </c>
       <c r="Y503" t="n">
-        <v>632.6292622586053</v>
+        <v>632.6291390353576</v>
       </c>
       <c r="Z503" t="n">
-        <v>621.8002727871951</v>
+        <v>621.8001516732133</v>
       </c>
       <c r="AA503" t="n">
-        <v>626.7100830078125</v>
+        <v>626.7099609375</v>
       </c>
       <c r="AB503" t="n">
         <v>2582700</v>
@@ -32289,7 +32289,7 @@
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr"/>
       <c r="F504" t="n">
-        <v>624.1620483398438</v>
+        <v>624.1619873046875</v>
       </c>
       <c r="G504" t="inlineStr"/>
       <c r="H504" t="inlineStr">
@@ -32313,16 +32313,16 @@
       <c r="V504" t="inlineStr"/>
       <c r="W504" t="inlineStr"/>
       <c r="X504" t="n">
-        <v>617.4000241495663</v>
+        <v>617.3999637756506</v>
       </c>
       <c r="Y504" t="n">
-        <v>627.7880006301101</v>
+        <v>627.7879392403817</v>
       </c>
       <c r="Z504" t="n">
-        <v>616.3808456429043</v>
+        <v>616.3807853686513</v>
       </c>
       <c r="AA504" t="n">
-        <v>624.1620483398438</v>
+        <v>624.1619873046875</v>
       </c>
       <c r="AB504" t="n">
         <v>3183500</v>
@@ -32352,7 +32352,7 @@
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="n">
-        <v>620.6144409179688</v>
+        <v>620.6143798828125</v>
       </c>
       <c r="G505" t="inlineStr"/>
       <c r="H505" t="inlineStr">
@@ -32376,16 +32376,16 @@
       <c r="V505" t="inlineStr"/>
       <c r="W505" t="inlineStr"/>
       <c r="X505" t="n">
-        <v>612.5000120474264</v>
+        <v>612.4999518102945</v>
       </c>
       <c r="Y505" t="n">
-        <v>622.9958337870746</v>
+        <v>622.9957725177171</v>
       </c>
       <c r="Z505" t="n">
-        <v>611.970833570221</v>
+        <v>611.9707733851318</v>
       </c>
       <c r="AA505" t="n">
-        <v>620.6144409179688</v>
+        <v>620.6143798828125</v>
       </c>
       <c r="AB505" t="n">
         <v>3351700</v>
@@ -32415,7 +32415,7 @@
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr"/>
       <c r="F506" t="n">
-        <v>625.0439453125</v>
+        <v>625.0440063476562</v>
       </c>
       <c r="G506" t="inlineStr"/>
       <c r="H506" t="inlineStr">
@@ -32439,16 +32439,16 @@
       <c r="V506" t="inlineStr"/>
       <c r="W506" t="inlineStr"/>
       <c r="X506" t="n">
-        <v>619.5559696134095</v>
+        <v>619.5560301126683</v>
       </c>
       <c r="Y506" t="n">
-        <v>626.2983739376916</v>
+        <v>626.298435095342</v>
       </c>
       <c r="Z506" t="n">
-        <v>619.1737552840668</v>
+        <v>619.1738157460026</v>
       </c>
       <c r="AA506" t="n">
-        <v>625.0439453125</v>
+        <v>625.0440063476562</v>
       </c>
       <c r="AB506" t="n">
         <v>2338000</v>
@@ -32478,7 +32478,7 @@
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr"/>
       <c r="F507" t="n">
-        <v>624.6323852539062</v>
+        <v>624.63232421875</v>
       </c>
       <c r="G507" t="inlineStr"/>
       <c r="H507" t="inlineStr">
@@ -32502,16 +32502,16 @@
       <c r="V507" t="inlineStr"/>
       <c r="W507" t="inlineStr"/>
       <c r="X507" t="n">
-        <v>624.2599804803945</v>
+        <v>624.2599194816273</v>
       </c>
       <c r="Y507" t="n">
-        <v>636.0199801126782</v>
+        <v>636.0199179647976</v>
       </c>
       <c r="Z507" t="n">
-        <v>623.6817541801153</v>
+        <v>623.6816932378488</v>
       </c>
       <c r="AA507" t="n">
-        <v>624.6323852539062</v>
+        <v>624.63232421875</v>
       </c>
       <c r="AB507" t="n">
         <v>1918900</v>
@@ -32604,7 +32604,7 @@
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr"/>
       <c r="F509" t="n">
-        <v>627.5919799804688</v>
+        <v>627.592041015625</v>
       </c>
       <c r="G509" t="inlineStr"/>
       <c r="H509" t="inlineStr">
@@ -32628,16 +32628,16 @@
       <c r="V509" t="inlineStr"/>
       <c r="W509" t="inlineStr"/>
       <c r="X509" t="n">
-        <v>636.9999553959212</v>
+        <v>637.0000173460306</v>
       </c>
       <c r="Y509" t="n">
-        <v>636.9999553959212</v>
+        <v>637.0000173460306</v>
       </c>
       <c r="Z509" t="n">
-        <v>624.6911586503873</v>
+        <v>624.6912194034302</v>
       </c>
       <c r="AA509" t="n">
-        <v>627.5919799804688</v>
+        <v>627.592041015625</v>
       </c>
       <c r="AB509" t="n">
         <v>1995100</v>
@@ -32667,7 +32667,7 @@
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr"/>
       <c r="F510" t="n">
-        <v>619.7225341796875</v>
+        <v>619.7225952148438</v>
       </c>
       <c r="G510" t="inlineStr"/>
       <c r="H510" t="inlineStr">
@@ -32691,16 +32691,16 @@
       <c r="V510" t="inlineStr"/>
       <c r="W510" t="inlineStr"/>
       <c r="X510" t="n">
-        <v>613.4799395796637</v>
+        <v>613.48</v>
       </c>
       <c r="Y510" t="n">
-        <v>625.7103192344945</v>
+        <v>625.7103808593749</v>
       </c>
       <c r="Z510" t="n">
-        <v>610.0303207787842</v>
+        <v>610.030380859375</v>
       </c>
       <c r="AA510" t="n">
-        <v>619.7225341796875</v>
+        <v>619.7225952148438</v>
       </c>
       <c r="AB510" t="n">
         <v>2102600</v>
@@ -32730,7 +32730,7 @@
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr"/>
       <c r="F511" t="n">
-        <v>621.4963989257812</v>
+        <v>621.4964599609375</v>
       </c>
       <c r="G511" t="inlineStr"/>
       <c r="H511" t="inlineStr">
@@ -32754,16 +32754,16 @@
       <c r="V511" t="inlineStr"/>
       <c r="W511" t="inlineStr"/>
       <c r="X511" t="n">
-        <v>619.3600060825348</v>
+        <v>619.3600669078828</v>
       </c>
       <c r="Y511" t="n">
-        <v>624.9165893890573</v>
+        <v>624.9166507600994</v>
       </c>
       <c r="Z511" t="n">
-        <v>616.5082323728878</v>
+        <v>616.5082929181723</v>
       </c>
       <c r="AA511" t="n">
-        <v>621.4963989257812</v>
+        <v>621.4964599609375</v>
       </c>
       <c r="AB511" t="n">
         <v>1743400</v>
@@ -33297,7 +33297,7 @@
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr"/>
       <c r="F520" t="n">
-        <v>658.7461547851562</v>
+        <v>658.7462158203125</v>
       </c>
       <c r="G520" t="inlineStr"/>
       <c r="H520" t="inlineStr">
@@ -33321,16 +33321,16 @@
       <c r="V520" t="inlineStr"/>
       <c r="W520" t="inlineStr"/>
       <c r="X520" t="n">
-        <v>649.3381793908495</v>
+        <v>649.3382395543236</v>
       </c>
       <c r="Y520" t="n">
-        <v>658.7461547851562</v>
+        <v>658.7462158203125</v>
       </c>
       <c r="Z520" t="n">
-        <v>647.7995723243099</v>
+        <v>647.7996323452267</v>
       </c>
       <c r="AA520" t="n">
-        <v>658.7461547851562</v>
+        <v>658.7462158203125</v>
       </c>
       <c r="AB520" t="n">
         <v>2350100</v>
@@ -33360,7 +33360,7 @@
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="n">
-        <v>654.7869873046875</v>
+        <v>654.7870483398438</v>
       </c>
       <c r="G521" t="inlineStr"/>
       <c r="H521" t="inlineStr">
@@ -33384,16 +33384,16 @@
       <c r="V521" t="inlineStr"/>
       <c r="W521" t="inlineStr"/>
       <c r="X521" t="n">
-        <v>655.6983800759806</v>
+        <v>655.6984411960912</v>
       </c>
       <c r="Y521" t="n">
-        <v>657.6191416873057</v>
+        <v>657.6192029864577</v>
       </c>
       <c r="Z521" t="n">
-        <v>650.0143923567667</v>
+        <v>650.0144529470514</v>
       </c>
       <c r="AA521" t="n">
-        <v>654.7869873046875</v>
+        <v>654.7870483398438</v>
       </c>
       <c r="AB521" t="n">
         <v>1953600</v>
@@ -33423,7 +33423,7 @@
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr"/>
       <c r="F522" t="n">
-        <v>629.4148559570312</v>
+        <v>629.414794921875</v>
       </c>
       <c r="G522" t="inlineStr"/>
       <c r="H522" t="inlineStr">
@@ -33447,16 +33447,16 @@
       <c r="V522" t="inlineStr"/>
       <c r="W522" t="inlineStr"/>
       <c r="X522" t="n">
-        <v>654.6694769588754</v>
+        <v>654.6694134747465</v>
       </c>
       <c r="Y522" t="n">
-        <v>656.8744771213799</v>
+        <v>656.8744134234294</v>
       </c>
       <c r="Z522" t="n">
-        <v>619.0268193027802</v>
+        <v>619.026759274965</v>
       </c>
       <c r="AA522" t="n">
-        <v>629.4148559570312</v>
+        <v>629.414794921875</v>
       </c>
       <c r="AB522" t="n">
         <v>3929000</v>
@@ -33486,7 +33486,7 @@
       <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr"/>
       <c r="F523" t="n">
-        <v>613.087890625</v>
+        <v>613.0880126953125</v>
       </c>
       <c r="G523" t="inlineStr"/>
       <c r="H523" t="inlineStr">
@@ -33510,16 +33510,16 @@
       <c r="V523" t="inlineStr"/>
       <c r="W523" t="inlineStr"/>
       <c r="X523" t="n">
-        <v>631.8549119351247</v>
+        <v>631.8550377420894</v>
       </c>
       <c r="Y523" t="n">
-        <v>634.5499115595088</v>
+        <v>634.5500379030676</v>
       </c>
       <c r="Z523" t="n">
-        <v>610.9613076694397</v>
+        <v>610.9614293163339</v>
       </c>
       <c r="AA523" t="n">
-        <v>613.087890625</v>
+        <v>613.0880126953125</v>
       </c>
       <c r="AB523" t="n">
         <v>3000800</v>
@@ -33549,7 +33549,7 @@
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr"/>
       <c r="F524" t="n">
-        <v>613.6172485351562</v>
+        <v>613.6171875</v>
       </c>
       <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr">
@@ -33573,16 +33573,16 @@
       <c r="V524" t="inlineStr"/>
       <c r="W524" t="inlineStr"/>
       <c r="X524" t="n">
-        <v>620.8398441523128</v>
+        <v>620.8397823987408</v>
       </c>
       <c r="Y524" t="n">
-        <v>624.5540228259968</v>
+        <v>624.5539607029835</v>
       </c>
       <c r="Z524" t="n">
-        <v>602.5040215977683</v>
+        <v>602.5039616680202</v>
       </c>
       <c r="AA524" t="n">
-        <v>613.6172485351562</v>
+        <v>613.6171875</v>
       </c>
       <c r="AB524" t="n">
         <v>3274100</v>
@@ -33612,7 +33612,7 @@
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr"/>
       <c r="F525" t="n">
-        <v>602.6117553710938</v>
+        <v>602.61181640625</v>
       </c>
       <c r="G525" t="inlineStr"/>
       <c r="H525" t="inlineStr">
@@ -33636,16 +33636,16 @@
       <c r="V525" t="inlineStr"/>
       <c r="W525" t="inlineStr"/>
       <c r="X525" t="n">
-        <v>615.959409994818</v>
+        <v>615.9594723818831</v>
       </c>
       <c r="Y525" t="n">
-        <v>618.693588378536</v>
+        <v>618.6936510425306</v>
       </c>
       <c r="Z525" t="n">
-        <v>593.8799819547708</v>
+        <v>593.8800421055348</v>
       </c>
       <c r="AA525" t="n">
-        <v>602.6117553710938</v>
+        <v>602.61181640625</v>
       </c>
       <c r="AB525" t="n">
         <v>2885900</v>
@@ -33675,7 +33675,7 @@
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr"/>
       <c r="F526" t="n">
-        <v>605.41455078125</v>
+        <v>605.4146118164062</v>
       </c>
       <c r="G526" t="inlineStr"/>
       <c r="H526" t="inlineStr">
@@ -33699,16 +33699,16 @@
       <c r="V526" t="inlineStr"/>
       <c r="W526" t="inlineStr"/>
       <c r="X526" t="n">
-        <v>604.3365150143027</v>
+        <v>604.3365759407764</v>
       </c>
       <c r="Y526" t="n">
-        <v>610.6673358326717</v>
+        <v>610.6673973973901</v>
       </c>
       <c r="Z526" t="n">
-        <v>602.8959438878999</v>
+        <v>602.8960046691417</v>
       </c>
       <c r="AA526" t="n">
-        <v>605.41455078125</v>
+        <v>605.4146118164062</v>
       </c>
       <c r="AB526" t="n">
         <v>2001200</v>
@@ -33738,7 +33738,7 @@
       <c r="D527" t="inlineStr"/>
       <c r="E527" t="inlineStr"/>
       <c r="F527" t="n">
-        <v>595.8399658203125</v>
+        <v>595.8400268554688</v>
       </c>
       <c r="G527" t="inlineStr"/>
       <c r="H527" t="inlineStr">
@@ -33762,16 +33762,16 @@
       <c r="V527" t="inlineStr"/>
       <c r="W527" t="inlineStr"/>
       <c r="X527" t="n">
-        <v>605.1891437508043</v>
+        <v>605.1892057436481</v>
       </c>
       <c r="Y527" t="n">
-        <v>612.7253457110767</v>
+        <v>612.7254084758951</v>
       </c>
       <c r="Z527" t="n">
-        <v>595.163763466524</v>
+        <v>595.1638244324131</v>
       </c>
       <c r="AA527" t="n">
-        <v>595.8399658203125</v>
+        <v>595.8400268554688</v>
       </c>
       <c r="AB527" t="n">
         <v>2396300</v>
@@ -33801,7 +33801,7 @@
       <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr"/>
       <c r="F528" t="n">
-        <v>612.8682250976562</v>
+        <v>612.8681640625</v>
       </c>
       <c r="G528" t="inlineStr"/>
       <c r="H528" t="inlineStr">
@@ -33825,16 +33825,16 @@
       <c r="V528" t="inlineStr"/>
       <c r="W528" t="inlineStr"/>
       <c r="X528" t="n">
-        <v>598.5877616839814</v>
+        <v>598.5877020710075</v>
       </c>
       <c r="Y528" t="n">
-        <v>614.207679764307</v>
+        <v>614.2076185957554</v>
       </c>
       <c r="Z528" t="n">
-        <v>594.8650238587174</v>
+        <v>594.8649646164886</v>
       </c>
       <c r="AA528" t="n">
-        <v>612.8682250976562</v>
+        <v>612.8681640625</v>
       </c>
       <c r="AB528" t="n">
         <v>3337200</v>
@@ -34116,7 +34116,7 @@
       <c r="D533" t="inlineStr"/>
       <c r="E533" t="inlineStr"/>
       <c r="F533" t="n">
-        <v>551.1963500976562</v>
+        <v>551.1962890625</v>
       </c>
       <c r="G533" t="inlineStr"/>
       <c r="H533" t="inlineStr">
@@ -34140,16 +34140,16 @@
       <c r="V533" t="inlineStr"/>
       <c r="W533" t="inlineStr"/>
       <c r="X533" t="n">
-        <v>559.5676566155943</v>
+        <v>559.5675946534653</v>
       </c>
       <c r="Y533" t="n">
-        <v>559.5676566155943</v>
+        <v>559.5675946534653</v>
       </c>
       <c r="Z533" t="n">
-        <v>536.6598129263849</v>
+        <v>536.6597535008907</v>
       </c>
       <c r="AA533" t="n">
-        <v>551.1963500976562</v>
+        <v>551.1962890625</v>
       </c>
       <c r="AB533" t="n">
         <v>4069600</v>
@@ -34179,7 +34179,7 @@
       <c r="D534" t="inlineStr"/>
       <c r="E534" t="inlineStr"/>
       <c r="F534" t="n">
-        <v>523.6104125976562</v>
+        <v>523.6102905273438</v>
       </c>
       <c r="G534" t="inlineStr"/>
       <c r="H534" t="inlineStr">
@@ -34203,16 +34203,16 @@
       <c r="V534" t="inlineStr"/>
       <c r="W534" t="inlineStr"/>
       <c r="X534" t="n">
-        <v>534.0893328503173</v>
+        <v>534.0892083370338</v>
       </c>
       <c r="Y534" t="n">
-        <v>538.1961804265942</v>
+        <v>538.1960549558734</v>
       </c>
       <c r="Z534" t="n">
-        <v>515.2095917223385</v>
+        <v>515.2094716105256</v>
       </c>
       <c r="AA534" t="n">
-        <v>523.6104125976562</v>
+        <v>523.6102905273438</v>
       </c>
       <c r="AB534" t="n">
         <v>5272100</v>
@@ -34494,7 +34494,7 @@
       <c r="D539" t="inlineStr"/>
       <c r="E539" t="inlineStr"/>
       <c r="F539" t="n">
-        <v>542.992431640625</v>
+        <v>542.9924926757812</v>
       </c>
       <c r="G539" t="inlineStr"/>
       <c r="H539" t="inlineStr">
@@ -34518,16 +34518,16 @@
       <c r="V539" t="inlineStr"/>
       <c r="W539" t="inlineStr"/>
       <c r="X539" t="n">
-        <v>533.0354569895482</v>
+        <v>533.035516905489</v>
       </c>
       <c r="Y539" t="n">
-        <v>548.7242606999802</v>
+        <v>548.7243223794237</v>
       </c>
       <c r="Z539" t="n">
-        <v>531.8240991104436</v>
+        <v>531.8241588902216</v>
       </c>
       <c r="AA539" t="n">
-        <v>542.992431640625</v>
+        <v>542.9924926757812</v>
       </c>
       <c r="AB539" t="n">
         <v>2695600</v>
@@ -34872,7 +34872,7 @@
       <c r="D545" t="inlineStr"/>
       <c r="E545" t="inlineStr"/>
       <c r="F545" t="n">
-        <v>577.0684814453125</v>
+        <v>577.0685424804688</v>
       </c>
       <c r="G545" t="inlineStr"/>
       <c r="H545" t="inlineStr">
@@ -34896,16 +34896,16 @@
       <c r="V545" t="inlineStr"/>
       <c r="W545" t="inlineStr"/>
       <c r="X545" t="n">
-        <v>575.8374072759418</v>
+        <v>575.8374681808903</v>
       </c>
       <c r="Y545" t="n">
-        <v>578.0041098362429</v>
+        <v>578.0041709703584</v>
       </c>
       <c r="Z545" t="n">
-        <v>569.4555380174578</v>
+        <v>569.4555982474111</v>
       </c>
       <c r="AA545" t="n">
-        <v>577.0684814453125</v>
+        <v>577.0685424804688</v>
       </c>
       <c r="AB545" t="n">
         <v>1875500</v>
@@ -34935,7 +34935,7 @@
       <c r="D546" t="inlineStr"/>
       <c r="E546" t="inlineStr"/>
       <c r="F546" t="n">
-        <v>565.2305297851562</v>
+        <v>565.2305908203125</v>
       </c>
       <c r="G546" t="inlineStr"/>
       <c r="H546" t="inlineStr">
@@ -34959,16 +34959,16 @@
       <c r="V546" t="inlineStr"/>
       <c r="W546" t="inlineStr"/>
       <c r="X546" t="n">
-        <v>579.481477563563</v>
+        <v>579.481540137576</v>
       </c>
       <c r="Y546" t="n">
-        <v>583.6671303080553</v>
+        <v>583.6671933340467</v>
       </c>
       <c r="Z546" t="n">
-        <v>562.3547569659171</v>
+        <v>562.3548176905394</v>
       </c>
       <c r="AA546" t="n">
-        <v>565.2305297851562</v>
+        <v>565.2305908203125</v>
       </c>
       <c r="AB546" t="n">
         <v>1944200</v>
@@ -34998,7 +34998,7 @@
       <c r="D547" t="inlineStr"/>
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="n">
-        <v>550.4575805664062</v>
+        <v>550.4576416015625</v>
       </c>
       <c r="G547" t="inlineStr"/>
       <c r="H547" t="inlineStr">
@@ -35022,16 +35022,16 @@
       <c r="V547" t="inlineStr"/>
       <c r="W547" t="inlineStr"/>
       <c r="X547" t="n">
-        <v>556.4455423487922</v>
+        <v>556.4456040478982</v>
       </c>
       <c r="Y547" t="n">
-        <v>557.4304017157812</v>
+        <v>557.4304635240892</v>
       </c>
       <c r="Z547" t="n">
-        <v>544.1840312075699</v>
+        <v>544.1840915471103</v>
       </c>
       <c r="AA547" t="n">
-        <v>550.4575805664062</v>
+        <v>550.4576416015625</v>
       </c>
       <c r="AB547" t="n">
         <v>2100900</v>
@@ -35061,7 +35061,7 @@
       <c r="D548" t="inlineStr"/>
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="n">
-        <v>534.8968505859375</v>
+        <v>534.8969116210938</v>
       </c>
       <c r="G548" t="inlineStr"/>
       <c r="H548" t="inlineStr">
@@ -35085,16 +35085,16 @@
       <c r="V548" t="inlineStr"/>
       <c r="W548" t="inlineStr"/>
       <c r="X548" t="n">
-        <v>547.5326139458198</v>
+        <v>547.5326764227975</v>
       </c>
       <c r="Y548" t="n">
-        <v>552.013712344965</v>
+        <v>552.0137753332649</v>
       </c>
       <c r="Z548" t="n">
-        <v>529.5687875008363</v>
+        <v>529.5688479280263</v>
       </c>
       <c r="AA548" t="n">
-        <v>534.8968505859375</v>
+        <v>534.8969116210938</v>
       </c>
       <c r="AB548" t="n">
         <v>2773100</v>
@@ -35250,7 +35250,7 @@
       <c r="D551" t="inlineStr"/>
       <c r="E551" t="inlineStr"/>
       <c r="F551" t="n">
-        <v>554.5742797851562</v>
+        <v>554.5743408203125</v>
       </c>
       <c r="G551" t="inlineStr"/>
       <c r="H551" t="inlineStr">
@@ -35274,16 +35274,16 @@
       <c r="V551" t="inlineStr"/>
       <c r="W551" t="inlineStr"/>
       <c r="X551" t="n">
-        <v>531.6270687932841</v>
+        <v>531.6271273029236</v>
       </c>
       <c r="Y551" t="n">
-        <v>558.7304175287117</v>
+        <v>558.7304790212827</v>
       </c>
       <c r="Z551" t="n">
-        <v>530.9179989096698</v>
+        <v>530.9180573412707</v>
       </c>
       <c r="AA551" t="n">
-        <v>554.5742797851562</v>
+        <v>554.5743408203125</v>
       </c>
       <c r="AB551" t="n">
         <v>2560700</v>
@@ -35376,7 +35376,7 @@
       <c r="D553" t="inlineStr"/>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="n">
-        <v>463.6816711425781</v>
+        <v>463.6817016601562</v>
       </c>
       <c r="G553" t="inlineStr"/>
       <c r="H553" t="inlineStr">
@@ -35400,16 +35400,16 @@
       <c r="V553" t="inlineStr"/>
       <c r="W553" t="inlineStr"/>
       <c r="X553" t="n">
-        <v>479.626547901274</v>
+        <v>479.6265794682769</v>
       </c>
       <c r="Y553" t="n">
-        <v>484.5508451076525</v>
+        <v>484.550876998752</v>
       </c>
       <c r="Z553" t="n">
-        <v>453.0353429868296</v>
+        <v>453.0353728037112</v>
       </c>
       <c r="AA553" t="n">
-        <v>463.6816711425781</v>
+        <v>463.6817016601562</v>
       </c>
       <c r="AB553" t="n">
         <v>8105200</v>
@@ -35439,7 +35439,7 @@
       <c r="D554" t="inlineStr"/>
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="n">
-        <v>458.4619445800781</v>
+        <v>458.4619750976562</v>
       </c>
       <c r="G554" t="inlineStr"/>
       <c r="H554" t="inlineStr">
@@ -35463,16 +35463,16 @@
       <c r="V554" t="inlineStr"/>
       <c r="W554" t="inlineStr"/>
       <c r="X554" t="n">
-        <v>440.1336940912691</v>
+        <v>440.1337233888248</v>
       </c>
       <c r="Y554" t="n">
-        <v>482.5614571752396</v>
+        <v>482.5614892970049</v>
       </c>
       <c r="Z554" t="n">
-        <v>432.727561647061</v>
+        <v>432.7275904516266</v>
       </c>
       <c r="AA554" t="n">
-        <v>458.4619445800781</v>
+        <v>458.4619750976562</v>
       </c>
       <c r="AB554" t="n">
         <v>6353800</v>
@@ -35565,7 +35565,7 @@
       <c r="D556" t="inlineStr"/>
       <c r="E556" t="inlineStr"/>
       <c r="F556" t="n">
-        <v>509.0443115234375</v>
+        <v>509.0443420410156</v>
       </c>
       <c r="G556" t="inlineStr"/>
       <c r="H556" t="inlineStr">
@@ -35589,16 +35589,16 @@
       <c r="V556" t="inlineStr"/>
       <c r="W556" t="inlineStr"/>
       <c r="X556" t="n">
-        <v>444.5261577631761</v>
+        <v>444.5261844128439</v>
       </c>
       <c r="Y556" t="n">
-        <v>514.0966454340006</v>
+        <v>514.0966762544699</v>
       </c>
       <c r="Z556" t="n">
-        <v>440.3405049986273</v>
+        <v>440.340531397362</v>
       </c>
       <c r="AA556" t="n">
-        <v>509.0443115234375</v>
+        <v>509.0443420410156</v>
       </c>
       <c r="AB556" t="n">
         <v>7024100</v>
@@ -35628,7 +35628,7 @@
       <c r="D557" t="inlineStr"/>
       <c r="E557" t="inlineStr"/>
       <c r="F557" t="n">
-        <v>482.3841857910156</v>
+        <v>482.3841552734375</v>
       </c>
       <c r="G557" t="inlineStr"/>
       <c r="H557" t="inlineStr">
@@ -35652,16 +35652,16 @@
       <c r="V557" t="inlineStr"/>
       <c r="W557" t="inlineStr"/>
       <c r="X557" t="n">
-        <v>495.4828355738543</v>
+        <v>495.4828042276025</v>
       </c>
       <c r="Y557" t="n">
-        <v>495.4828355738543</v>
+        <v>495.4828042276025</v>
       </c>
       <c r="Z557" t="n">
-        <v>466.8234172386065</v>
+        <v>466.8233877054656</v>
       </c>
       <c r="AA557" t="n">
-        <v>482.3841857910156</v>
+        <v>482.3841552734375</v>
       </c>
       <c r="AB557" t="n">
         <v>5374500</v>
@@ -35754,7 +35754,7 @@
       <c r="D559" t="inlineStr"/>
       <c r="E559" t="inlineStr"/>
       <c r="F559" t="n">
-        <v>496.3494567871094</v>
+        <v>496.3494873046875</v>
       </c>
       <c r="G559" t="inlineStr"/>
       <c r="H559" t="inlineStr">
@@ -35778,16 +35778,16 @@
       <c r="V559" t="inlineStr"/>
       <c r="W559" t="inlineStr"/>
       <c r="X559" t="n">
-        <v>502.2782996214762</v>
+        <v>502.2783305035836</v>
       </c>
       <c r="Y559" t="n">
-        <v>504.2480184435212</v>
+        <v>504.2480494467349</v>
       </c>
       <c r="Z559" t="n">
-        <v>489.6228501787322</v>
+        <v>489.6228802827313</v>
       </c>
       <c r="AA559" t="n">
-        <v>496.3494567871094</v>
+        <v>496.3494873046875</v>
       </c>
       <c r="AB559" t="n">
         <v>4392600</v>
@@ -35943,7 +35943,7 @@
       <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="n">
-        <v>501.7760314941406</v>
+        <v>501.7760620117188</v>
       </c>
       <c r="G562" t="inlineStr"/>
       <c r="H562" t="inlineStr">
@@ -35967,16 +35967,16 @@
       <c r="V562" t="inlineStr"/>
       <c r="W562" t="inlineStr"/>
       <c r="X562" t="n">
-        <v>495.6206599324821</v>
+        <v>495.6206900756959</v>
       </c>
       <c r="Y562" t="n">
-        <v>507.0352074052839</v>
+        <v>507.0352382427205</v>
       </c>
       <c r="Z562" t="n">
-        <v>491.5630438079208</v>
+        <v>491.5630737043539</v>
       </c>
       <c r="AA562" t="n">
-        <v>501.7760314941406</v>
+        <v>501.7760620117188</v>
       </c>
       <c r="AB562" t="n">
         <v>2593500</v>
@@ -36006,7 +36006,7 @@
       <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr"/>
       <c r="F563" t="n">
-        <v>493.7691345214844</v>
+        <v>493.7691040039062</v>
       </c>
       <c r="G563" t="inlineStr"/>
       <c r="H563" t="inlineStr">
@@ -36030,16 +36030,16 @@
       <c r="V563" t="inlineStr"/>
       <c r="W563" t="inlineStr"/>
       <c r="X563" t="n">
-        <v>497.7479752366776</v>
+        <v>497.7479444731858</v>
       </c>
       <c r="Y563" t="n">
-        <v>501.5593766158206</v>
+        <v>501.5593456167638</v>
       </c>
       <c r="Z563" t="n">
-        <v>487.1902804076734</v>
+        <v>487.1902502967037</v>
       </c>
       <c r="AA563" t="n">
-        <v>493.7691345214844</v>
+        <v>493.7691040039062</v>
       </c>
       <c r="AB563" t="n">
         <v>2859300</v>
@@ -36132,7 +36132,7 @@
       <c r="D565" t="inlineStr"/>
       <c r="E565" t="inlineStr"/>
       <c r="F565" t="n">
-        <v>521.2959594726562</v>
+        <v>521.2958984375</v>
       </c>
       <c r="G565" t="inlineStr"/>
       <c r="H565" t="inlineStr">
@@ -36156,16 +36156,16 @@
       <c r="V565" t="inlineStr"/>
       <c r="W565" t="inlineStr"/>
       <c r="X565" t="n">
-        <v>525.5505595621968</v>
+        <v>525.5504980288971</v>
       </c>
       <c r="Y565" t="n">
-        <v>543.4355809448283</v>
+        <v>543.4355173174877</v>
       </c>
       <c r="Z565" t="n">
-        <v>520.2618690596754</v>
+        <v>520.2618081455942</v>
       </c>
       <c r="AA565" t="n">
-        <v>521.2959594726562</v>
+        <v>521.2958984375</v>
       </c>
       <c r="AB565" t="n">
         <v>3048100</v>
@@ -36258,7 +36258,7 @@
       <c r="D567" t="inlineStr"/>
       <c r="E567" t="inlineStr"/>
       <c r="F567" t="n">
-        <v>536.6105346679688</v>
+        <v>536.6104736328125</v>
       </c>
       <c r="G567" t="inlineStr"/>
       <c r="H567" t="inlineStr">
@@ -36282,16 +36282,16 @@
       <c r="V567" t="inlineStr"/>
       <c r="W567" t="inlineStr"/>
       <c r="X567" t="n">
-        <v>536.3544615792817</v>
+        <v>536.3544005732517</v>
       </c>
       <c r="Y567" t="n">
-        <v>540.7765312434269</v>
+        <v>540.7764697344219</v>
       </c>
       <c r="Z567" t="n">
-        <v>533.0256316484582</v>
+        <v>533.025571021056</v>
       </c>
       <c r="AA567" t="n">
-        <v>536.6105346679688</v>
+        <v>536.6104736328125</v>
       </c>
       <c r="AB567" t="n">
         <v>1612700</v>
@@ -36321,7 +36321,7 @@
       <c r="D568" t="inlineStr"/>
       <c r="E568" t="inlineStr"/>
       <c r="F568" t="n">
-        <v>538.1272583007812</v>
+        <v>538.127197265625</v>
       </c>
       <c r="G568" t="inlineStr"/>
       <c r="H568" t="inlineStr">
@@ -36345,16 +36345,16 @@
       <c r="V568" t="inlineStr"/>
       <c r="W568" t="inlineStr"/>
       <c r="X568" t="n">
-        <v>536.6105361899653</v>
+        <v>536.6104753268378</v>
       </c>
       <c r="Y568" t="n">
-        <v>546.1045962575979</v>
+        <v>546.1045343176406</v>
       </c>
       <c r="Z568" t="n">
-        <v>534.2567075431939</v>
+        <v>534.256646947041</v>
       </c>
       <c r="AA568" t="n">
-        <v>538.1272583007812</v>
+        <v>538.127197265625</v>
       </c>
       <c r="AB568" t="n">
         <v>1459700</v>
@@ -36447,7 +36447,7 @@
       <c r="D570" t="inlineStr"/>
       <c r="E570" t="inlineStr"/>
       <c r="F570" t="n">
-        <v>539.2598266601562</v>
+        <v>539.259765625</v>
       </c>
       <c r="G570" t="inlineStr"/>
       <c r="H570" t="inlineStr">
@@ -36471,16 +36471,16 @@
       <c r="V570" t="inlineStr"/>
       <c r="W570" t="inlineStr"/>
       <c r="X570" t="n">
-        <v>527.6483543761748</v>
+        <v>527.6482946552421</v>
       </c>
       <c r="Y570" t="n">
-        <v>541.2000312029098</v>
+        <v>541.1999699481549</v>
       </c>
       <c r="Z570" t="n">
-        <v>523.4036121824598</v>
+        <v>523.4035529419607</v>
       </c>
       <c r="AA570" t="n">
-        <v>539.2598266601562</v>
+        <v>539.259765625</v>
       </c>
       <c r="AB570" t="n">
         <v>2438300</v>
@@ -36510,7 +36510,7 @@
       <c r="D571" t="inlineStr"/>
       <c r="E571" t="inlineStr"/>
       <c r="F571" t="n">
-        <v>545.4447631835938</v>
+        <v>545.4447021484375</v>
       </c>
       <c r="G571" t="inlineStr"/>
       <c r="H571" t="inlineStr">
@@ -36534,16 +36534,16 @@
       <c r="V571" t="inlineStr"/>
       <c r="W571" t="inlineStr"/>
       <c r="X571" t="n">
-        <v>539.8014772751246</v>
+        <v>539.801416871451</v>
       </c>
       <c r="Y571" t="n">
-        <v>549.8962873253442</v>
+        <v>549.8962257920634</v>
       </c>
       <c r="Z571" t="n">
-        <v>537.2408665751005</v>
+        <v>537.2408064579587</v>
       </c>
       <c r="AA571" t="n">
-        <v>545.4447631835938</v>
+        <v>545.4447021484375</v>
       </c>
       <c r="AB571" t="n">
         <v>2583000</v>
@@ -36636,7 +36636,7 @@
       <c r="D573" t="inlineStr"/>
       <c r="E573" t="inlineStr"/>
       <c r="F573" t="n">
-        <v>551.0880126953125</v>
+        <v>551.087890625</v>
       </c>
       <c r="G573" t="inlineStr"/>
       <c r="H573" t="inlineStr">
@@ -36660,16 +36660,16 @@
       <c r="V573" t="inlineStr"/>
       <c r="W573" t="inlineStr"/>
       <c r="X573" t="n">
-        <v>549.9061692017312</v>
+        <v>549.9060473932063</v>
       </c>
       <c r="Y573" t="n">
-        <v>557.9820296116366</v>
+        <v>557.9819060142453</v>
       </c>
       <c r="Z573" t="n">
-        <v>549.0592044072366</v>
+        <v>549.059082786321</v>
       </c>
       <c r="AA573" t="n">
-        <v>551.0880126953125</v>
+        <v>551.087890625</v>
       </c>
       <c r="AB573" t="n">
         <v>2197200</v>
@@ -36762,7 +36762,7 @@
       <c r="D575" t="inlineStr"/>
       <c r="E575" t="inlineStr"/>
       <c r="F575" t="n">
-        <v>543.5635986328125</v>
+        <v>543.5636596679688</v>
       </c>
       <c r="G575" t="inlineStr"/>
       <c r="H575" t="inlineStr">
@@ -36786,16 +36786,16 @@
       <c r="V575" t="inlineStr"/>
       <c r="W575" t="inlineStr"/>
       <c r="X575" t="n">
-        <v>541.8795274821213</v>
+        <v>541.879588328178</v>
       </c>
       <c r="Y575" t="n">
-        <v>546.9712338934329</v>
+        <v>546.9712953112224</v>
       </c>
       <c r="Z575" t="n">
-        <v>539.4468934373851</v>
+        <v>539.4469540102887</v>
       </c>
       <c r="AA575" t="n">
-        <v>543.5635986328125</v>
+        <v>543.5636596679688</v>
       </c>
       <c r="AB575" t="n">
         <v>1954900</v>
@@ -37014,7 +37014,7 @@
       <c r="D579" t="inlineStr"/>
       <c r="E579" t="inlineStr"/>
       <c r="F579" t="n">
-        <v>594.66796875</v>
+        <v>594.6680297851562</v>
       </c>
       <c r="G579" t="inlineStr"/>
       <c r="H579" t="inlineStr">
@@ -37038,16 +37038,16 @@
       <c r="V579" t="inlineStr"/>
       <c r="W579" t="inlineStr"/>
       <c r="X579" t="n">
-        <v>584.3170865451051</v>
+        <v>584.317146517874</v>
       </c>
       <c r="Y579" t="n">
-        <v>598.5089445631918</v>
+        <v>598.5090059925757</v>
       </c>
       <c r="Z579" t="n">
-        <v>584.0807299001793</v>
+        <v>584.0807898486892</v>
       </c>
       <c r="AA579" t="n">
-        <v>594.66796875</v>
+        <v>594.6680297851562</v>
       </c>
       <c r="AB579" t="n">
         <v>2765800</v>
@@ -37077,7 +37077,7 @@
       <c r="D580" t="inlineStr"/>
       <c r="E580" t="inlineStr"/>
       <c r="F580" t="n">
-        <v>602.340087890625</v>
+        <v>602.3400268554688</v>
       </c>
       <c r="G580" t="inlineStr"/>
       <c r="H580" t="inlineStr">
@@ -37101,16 +37101,16 @@
       <c r="V580" t="inlineStr"/>
       <c r="W580" t="inlineStr"/>
       <c r="X580" t="n">
-        <v>594.6581952805714</v>
+        <v>594.6581350238217</v>
       </c>
       <c r="Y580" t="n">
-        <v>605.6886344670611</v>
+        <v>605.6885730925965</v>
       </c>
       <c r="Z580" t="n">
-        <v>593.377889864072</v>
+        <v>593.3778297370559</v>
       </c>
       <c r="AA580" t="n">
-        <v>602.340087890625</v>
+        <v>602.3400268554688</v>
       </c>
       <c r="AB580" t="n">
         <v>2874400</v>
@@ -37140,7 +37140,7 @@
       <c r="D581" t="inlineStr"/>
       <c r="E581" t="inlineStr"/>
       <c r="F581" t="n">
-        <v>606.5750122070312</v>
+        <v>606.574951171875</v>
       </c>
       <c r="G581" t="inlineStr"/>
       <c r="H581" t="inlineStr">
@@ -37164,16 +37164,16 @@
       <c r="V581" t="inlineStr"/>
       <c r="W581" t="inlineStr"/>
       <c r="X581" t="n">
-        <v>600.4983855905501</v>
+        <v>600.4983251668399</v>
       </c>
       <c r="Y581" t="n">
-        <v>609.8348948664277</v>
+        <v>609.8348335032535</v>
       </c>
       <c r="Z581" t="n">
-        <v>600.4983855905501</v>
+        <v>600.4983251668399</v>
       </c>
       <c r="AA581" t="n">
-        <v>606.5750122070312</v>
+        <v>606.574951171875</v>
       </c>
       <c r="AB581" t="n">
         <v>2428100</v>
@@ -37203,7 +37203,7 @@
       <c r="D582" t="inlineStr"/>
       <c r="E582" t="inlineStr"/>
       <c r="F582" t="n">
-        <v>609.6575927734375</v>
+        <v>609.6575317382812</v>
       </c>
       <c r="G582" t="inlineStr"/>
       <c r="H582" t="inlineStr">
@@ -37227,16 +37227,16 @@
       <c r="V582" t="inlineStr"/>
       <c r="W582" t="inlineStr"/>
       <c r="X582" t="n">
-        <v>607.6090682238901</v>
+        <v>607.6090073938194</v>
       </c>
       <c r="Y582" t="n">
-        <v>611.3908949649983</v>
+        <v>611.3908337563146</v>
       </c>
       <c r="Z582" t="n">
-        <v>604.2703801599513</v>
+        <v>604.2703196641295</v>
       </c>
       <c r="AA582" t="n">
-        <v>609.6575927734375</v>
+        <v>609.6575317382812</v>
       </c>
       <c r="AB582" t="n">
         <v>2021800</v>
@@ -37266,7 +37266,7 @@
       <c r="D583" t="inlineStr"/>
       <c r="E583" t="inlineStr"/>
       <c r="F583" t="n">
-        <v>603.0294799804688</v>
+        <v>603.0294189453125</v>
       </c>
       <c r="G583" t="inlineStr"/>
       <c r="H583" t="inlineStr">
@@ -37290,16 +37290,16 @@
       <c r="V583" t="inlineStr"/>
       <c r="W583" t="inlineStr"/>
       <c r="X583" t="n">
-        <v>599.9665812597624</v>
+        <v>599.966520534615</v>
       </c>
       <c r="Y583" t="n">
-        <v>610.002302304589</v>
+        <v>610.0022405636839</v>
       </c>
       <c r="Z583" t="n">
-        <v>589.2808793720776</v>
+        <v>589.2808197284752</v>
       </c>
       <c r="AA583" t="n">
-        <v>603.0294799804688</v>
+        <v>603.0294189453125</v>
       </c>
       <c r="AB583" t="n">
         <v>2842100</v>
@@ -37329,7 +37329,7 @@
       <c r="D584" t="inlineStr"/>
       <c r="E584" t="inlineStr"/>
       <c r="F584" t="n">
-        <v>597.3369750976562</v>
+        <v>597.3370361328125</v>
       </c>
       <c r="G584" t="inlineStr"/>
       <c r="H584" t="inlineStr">
@@ -37353,16 +37353,16 @@
       <c r="V584" t="inlineStr"/>
       <c r="W584" t="inlineStr"/>
       <c r="X584" t="n">
-        <v>598.5483329901791</v>
+        <v>598.5483941491104</v>
       </c>
       <c r="Y584" t="n">
-        <v>602.290786892054</v>
+        <v>602.2908484333847</v>
       </c>
       <c r="Z584" t="n">
-        <v>593.8801087973781</v>
+        <v>593.8801694793159</v>
       </c>
       <c r="AA584" t="n">
-        <v>597.3369750976562</v>
+        <v>597.3370361328125</v>
       </c>
       <c r="AB584" t="n">
         <v>1601600</v>
@@ -37581,7 +37581,7 @@
       <c r="D588" t="inlineStr"/>
       <c r="E588" t="inlineStr"/>
       <c r="F588" t="n">
-        <v>606.4075317382812</v>
+        <v>606.407470703125</v>
       </c>
       <c r="G588" t="inlineStr"/>
       <c r="H588" t="inlineStr">
@@ -37605,16 +37605,16 @@
       <c r="V588" t="inlineStr"/>
       <c r="W588" t="inlineStr"/>
       <c r="X588" t="n">
-        <v>596.7264059570081</v>
+        <v>596.7263458962609</v>
       </c>
       <c r="Y588" t="n">
-        <v>608.3181616075037</v>
+        <v>608.3181003800419</v>
       </c>
       <c r="Z588" t="n">
-        <v>595.7907773927656</v>
+        <v>595.7907174261898</v>
       </c>
       <c r="AA588" t="n">
-        <v>606.4075317382812</v>
+        <v>606.407470703125</v>
       </c>
       <c r="AB588" t="n">
         <v>2364700</v>
@@ -37644,7 +37644,7 @@
       <c r="D589" t="inlineStr"/>
       <c r="E589" t="inlineStr"/>
       <c r="F589" t="n">
-        <v>599.2279052734375</v>
+        <v>599.2278442382812</v>
       </c>
       <c r="G589" t="inlineStr"/>
       <c r="H589" t="inlineStr">
@@ -37668,16 +37668,16 @@
       <c r="V589" t="inlineStr"/>
       <c r="W589" t="inlineStr"/>
       <c r="X589" t="n">
-        <v>607.9340895379635</v>
+        <v>607.9340276160272</v>
       </c>
       <c r="Y589" t="n">
-        <v>609.2636257934457</v>
+        <v>609.2635637360878</v>
       </c>
       <c r="Z589" t="n">
-        <v>598.1150092505602</v>
+        <v>598.1149483287595</v>
       </c>
       <c r="AA589" t="n">
-        <v>599.2279052734375</v>
+        <v>599.2278442382812</v>
       </c>
       <c r="AB589" t="n">
         <v>2001900</v>
@@ -37770,7 +37770,7 @@
       <c r="D591" t="inlineStr"/>
       <c r="E591" t="inlineStr"/>
       <c r="F591" t="n">
-        <v>594.3065795898438</v>
+        <v>594.3065185546875</v>
       </c>
       <c r="G591" t="inlineStr"/>
       <c r="H591" t="inlineStr">
@@ -37794,16 +37794,16 @@
       <c r="V591" t="inlineStr"/>
       <c r="W591" t="inlineStr"/>
       <c r="X591" t="n">
-        <v>593.8611716289856</v>
+        <v>593.8611106395726</v>
       </c>
       <c r="Y591" t="n">
-        <v>597.4243144944866</v>
+        <v>597.4242531391395</v>
       </c>
       <c r="Z591" t="n">
-        <v>587.7543161623919</v>
+        <v>587.7542558001517</v>
       </c>
       <c r="AA591" t="n">
-        <v>594.3065795898438</v>
+        <v>594.3065185546875</v>
       </c>
       <c r="AB591" t="n">
         <v>2129500</v>
@@ -37833,7 +37833,7 @@
       <c r="D592" t="inlineStr"/>
       <c r="E592" t="inlineStr"/>
       <c r="F592" t="n">
-        <v>592.59423828125</v>
+        <v>592.5941772460938</v>
       </c>
       <c r="G592" t="inlineStr"/>
       <c r="H592" t="inlineStr">
@@ -37857,16 +37857,16 @@
       <c r="V592" t="inlineStr"/>
       <c r="W592" t="inlineStr"/>
       <c r="X592" t="n">
-        <v>592.4754708798826</v>
+        <v>592.4754098569589</v>
       </c>
       <c r="Y592" t="n">
-        <v>593.039646241719</v>
+        <v>593.0395851606872</v>
       </c>
       <c r="Z592" t="n">
-        <v>586.1112659121014</v>
+        <v>586.1112055446689</v>
       </c>
       <c r="AA592" t="n">
-        <v>592.59423828125</v>
+        <v>592.5941772460938</v>
       </c>
       <c r="AB592" t="n">
         <v>1221200</v>
@@ -37896,7 +37896,7 @@
       <c r="D593" t="inlineStr"/>
       <c r="E593" t="inlineStr"/>
       <c r="F593" t="n">
-        <v>597.6519775390625</v>
+        <v>597.6519165039062</v>
       </c>
       <c r="G593" t="inlineStr"/>
       <c r="H593" t="inlineStr">
@@ -37920,16 +37920,16 @@
       <c r="V593" t="inlineStr"/>
       <c r="W593" t="inlineStr"/>
       <c r="X593" t="n">
-        <v>593.8611469692518</v>
+        <v>593.8610863212338</v>
       </c>
       <c r="Y593" t="n">
-        <v>600.1164916332762</v>
+        <v>600.1164303464316</v>
       </c>
       <c r="Z593" t="n">
-        <v>587.6552786520056</v>
+        <v>587.6552186377613</v>
       </c>
       <c r="AA593" t="n">
-        <v>597.6519775390625</v>
+        <v>597.6519165039062</v>
       </c>
       <c r="AB593" t="n">
         <v>1730300</v>
@@ -38526,7 +38526,7 @@
       <c r="D603" t="inlineStr"/>
       <c r="E603" t="inlineStr"/>
       <c r="F603" t="n">
-        <v>618.2490844726562</v>
+        <v>618.2490234375</v>
       </c>
       <c r="G603" t="inlineStr"/>
       <c r="H603" t="inlineStr">
@@ -38550,16 +38550,16 @@
       <c r="V603" t="inlineStr"/>
       <c r="W603" t="inlineStr"/>
       <c r="X603" t="n">
-        <v>618.3084681733499</v>
+        <v>618.3084071323312</v>
       </c>
       <c r="Y603" t="n">
-        <v>625.2071264484423</v>
+        <v>625.20706472637</v>
       </c>
       <c r="Z603" t="n">
-        <v>616.6258494394525</v>
+        <v>616.6257885645463</v>
       </c>
       <c r="AA603" t="n">
-        <v>618.2490844726562</v>
+        <v>618.2490234375</v>
       </c>
       <c r="AB603" t="n">
         <v>1479300</v>
@@ -38589,7 +38589,7 @@
       <c r="D604" t="inlineStr"/>
       <c r="E604" t="inlineStr"/>
       <c r="F604" t="n">
-        <v>628.7406005859375</v>
+        <v>628.7405395507812</v>
       </c>
       <c r="G604" t="inlineStr"/>
       <c r="H604" t="inlineStr">
@@ -38613,16 +38613,16 @@
       <c r="V604" t="inlineStr"/>
       <c r="W604" t="inlineStr"/>
       <c r="X604" t="n">
-        <v>618.1204027584863</v>
+        <v>618.1203427542885</v>
       </c>
       <c r="Y604" t="n">
-        <v>633.3331414234716</v>
+        <v>633.3330799424932</v>
       </c>
       <c r="Z604" t="n">
-        <v>617.2692162545683</v>
+        <v>617.2691563329996</v>
       </c>
       <c r="AA604" t="n">
-        <v>628.7406005859375</v>
+        <v>628.7405395507812</v>
       </c>
       <c r="AB604" t="n">
         <v>2423100</v>
@@ -39093,7 +39093,7 @@
       <c r="D612" t="inlineStr"/>
       <c r="E612" t="inlineStr"/>
       <c r="F612" t="n">
-        <v>121.3811950683594</v>
+        <v>121.3811798095703</v>
       </c>
       <c r="G612" t="inlineStr"/>
       <c r="H612" t="inlineStr">
@@ -39122,16 +39122,16 @@
       <c r="AA612" t="inlineStr"/>
       <c r="AB612" t="inlineStr"/>
       <c r="AC612" t="n">
-        <v>123.0640759546486</v>
+        <v>123.0640604843052</v>
       </c>
       <c r="AD612" t="n">
-        <v>123.8130991446499</v>
+        <v>123.813083580147</v>
       </c>
       <c r="AE612" t="n">
-        <v>120.8267212358284</v>
+        <v>120.8267060467421</v>
       </c>
       <c r="AF612" t="n">
-        <v>121.3811950683594</v>
+        <v>121.3811798095703</v>
       </c>
       <c r="AG612" t="n">
         <v>5014300</v>
@@ -39156,7 +39156,7 @@
       <c r="D613" t="inlineStr"/>
       <c r="E613" t="inlineStr"/>
       <c r="F613" t="n">
-        <v>122.5095977783203</v>
+        <v>122.5095901489258</v>
       </c>
       <c r="G613" t="inlineStr"/>
       <c r="H613" t="inlineStr">
@@ -39185,16 +39185,16 @@
       <c r="AA613" t="inlineStr"/>
       <c r="AB613" t="inlineStr"/>
       <c r="AC613" t="n">
-        <v>122.2274960248832</v>
+        <v>122.2274884130568</v>
       </c>
       <c r="AD613" t="n">
-        <v>122.5679610991756</v>
+        <v>122.5679534661464</v>
       </c>
       <c r="AE613" t="n">
-        <v>120.7002606159869</v>
+        <v>120.7002530992704</v>
       </c>
       <c r="AF613" t="n">
-        <v>122.5095977783203</v>
+        <v>122.5095901489258</v>
       </c>
       <c r="AG613" t="n">
         <v>3988400</v>
@@ -39219,7 +39219,7 @@
       <c r="D614" t="inlineStr"/>
       <c r="E614" t="inlineStr"/>
       <c r="F614" t="n">
-        <v>125.1360549926758</v>
+        <v>125.1360473632812</v>
       </c>
       <c r="G614" t="inlineStr"/>
       <c r="H614" t="inlineStr">
@@ -39248,16 +39248,16 @@
       <c r="AA614" t="inlineStr"/>
       <c r="AB614" t="inlineStr"/>
       <c r="AC614" t="n">
-        <v>124.1535636722333</v>
+        <v>124.1535561027401</v>
       </c>
       <c r="AD614" t="n">
-        <v>126.4103703480103</v>
+        <v>126.4103626409223</v>
       </c>
       <c r="AE614" t="n">
-        <v>124.1535636722333</v>
+        <v>124.1535561027401</v>
       </c>
       <c r="AF614" t="n">
-        <v>125.1360549926758</v>
+        <v>125.1360473632812</v>
       </c>
       <c r="AG614" t="n">
         <v>6665200</v>
@@ -39660,7 +39660,7 @@
       <c r="D621" t="inlineStr"/>
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="n">
-        <v>132.1107482910156</v>
+        <v>132.1107635498047</v>
       </c>
       <c r="G621" t="inlineStr"/>
       <c r="H621" t="inlineStr">
@@ -39689,16 +39689,16 @@
       <c r="AA621" t="inlineStr"/>
       <c r="AB621" t="inlineStr"/>
       <c r="AC621" t="n">
-        <v>128.7450015240025</v>
+        <v>128.7450163940479</v>
       </c>
       <c r="AD621" t="n">
-        <v>132.4414836670733</v>
+        <v>132.4414989640623</v>
       </c>
       <c r="AE621" t="n">
-        <v>128.3072469368607</v>
+        <v>128.3072617563455</v>
       </c>
       <c r="AF621" t="n">
-        <v>132.1107482910156</v>
+        <v>132.1107635498047</v>
       </c>
       <c r="AG621" t="n">
         <v>16235700</v>
@@ -39723,7 +39723,7 @@
       <c r="D622" t="inlineStr"/>
       <c r="E622" t="inlineStr"/>
       <c r="F622" t="n">
-        <v>134.1146392822266</v>
+        <v>134.1146240234375</v>
       </c>
       <c r="G622" t="inlineStr"/>
       <c r="H622" t="inlineStr">
@@ -39752,16 +39752,16 @@
       <c r="AA622" t="inlineStr"/>
       <c r="AB622" t="inlineStr"/>
       <c r="AC622" t="n">
-        <v>132.4512252306154</v>
+        <v>132.45121016108</v>
       </c>
       <c r="AD622" t="n">
-        <v>134.3189257526308</v>
+        <v>134.3189104705992</v>
       </c>
       <c r="AE622" t="n">
-        <v>130.8656190463194</v>
+        <v>130.8656041571851</v>
       </c>
       <c r="AF622" t="n">
-        <v>134.1146392822266</v>
+        <v>134.1146240234375</v>
       </c>
       <c r="AG622" t="n">
         <v>12481500</v>
@@ -39786,7 +39786,7 @@
       <c r="D623" t="inlineStr"/>
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="n">
-        <v>133.5601654052734</v>
+        <v>133.5601806640625</v>
       </c>
       <c r="G623" t="inlineStr"/>
       <c r="H623" t="inlineStr">
@@ -39815,16 +39815,16 @@
       <c r="AA623" t="inlineStr"/>
       <c r="AB623" t="inlineStr"/>
       <c r="AC623" t="n">
-        <v>132.7235898683895</v>
+        <v>132.7236050316027</v>
       </c>
       <c r="AD623" t="n">
-        <v>133.8714413866079</v>
+        <v>133.8714566809592</v>
       </c>
       <c r="AE623" t="n">
-        <v>131.6049051664089</v>
+        <v>131.6049202018162</v>
       </c>
       <c r="AF623" t="n">
-        <v>133.5601654052734</v>
+        <v>133.5601806640625</v>
       </c>
       <c r="AG623" t="n">
         <v>11213300</v>
@@ -39912,7 +39912,7 @@
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="n">
-        <v>134.0465393066406</v>
+        <v>134.0465545654297</v>
       </c>
       <c r="G625" t="inlineStr"/>
       <c r="H625" t="inlineStr">
@@ -39941,16 +39941,16 @@
       <c r="AA625" t="inlineStr"/>
       <c r="AB625" t="inlineStr"/>
       <c r="AC625" t="n">
-        <v>132.2663839587082</v>
+        <v>132.2663990148585</v>
       </c>
       <c r="AD625" t="n">
-        <v>134.4356379741303</v>
+        <v>134.4356532772112</v>
       </c>
       <c r="AE625" t="n">
-        <v>132.2663839587082</v>
+        <v>132.2663990148585</v>
       </c>
       <c r="AF625" t="n">
-        <v>134.0465393066406</v>
+        <v>134.0465545654297</v>
       </c>
       <c r="AG625" t="n">
         <v>6911000</v>
@@ -39975,7 +39975,7 @@
       <c r="D626" t="inlineStr"/>
       <c r="E626" t="inlineStr"/>
       <c r="F626" t="n">
-        <v>134.0660247802734</v>
+        <v>134.0660095214844</v>
       </c>
       <c r="G626" t="inlineStr"/>
       <c r="H626" t="inlineStr">
@@ -40004,16 +40004,16 @@
       <c r="AA626" t="inlineStr"/>
       <c r="AB626" t="inlineStr"/>
       <c r="AC626" t="n">
-        <v>132.7527905464247</v>
+        <v>132.752775437102</v>
       </c>
       <c r="AD626" t="n">
-        <v>135.2527803999912</v>
+        <v>135.2527650061309</v>
       </c>
       <c r="AE626" t="n">
-        <v>132.7527905464247</v>
+        <v>132.752775437102</v>
       </c>
       <c r="AF626" t="n">
-        <v>134.0660247802734</v>
+        <v>134.0660095214844</v>
       </c>
       <c r="AG626" t="n">
         <v>6475500</v>
@@ -40038,7 +40038,7 @@
       <c r="D627" t="inlineStr"/>
       <c r="E627" t="inlineStr"/>
       <c r="F627" t="n">
-        <v>132.9278564453125</v>
+        <v>132.9278717041016</v>
       </c>
       <c r="G627" t="inlineStr"/>
       <c r="H627" t="inlineStr">
@@ -40067,16 +40067,16 @@
       <c r="AA627" t="inlineStr"/>
       <c r="AB627" t="inlineStr"/>
       <c r="AC627" t="n">
-        <v>131.5757185193772</v>
+        <v>131.5757336229544</v>
       </c>
       <c r="AD627" t="n">
-        <v>133.034860806782</v>
+        <v>133.0348760778541</v>
       </c>
       <c r="AE627" t="n">
-        <v>130.4667709746761</v>
+        <v>130.4667859509572</v>
       </c>
       <c r="AF627" t="n">
-        <v>132.9278564453125</v>
+        <v>132.9278717041016</v>
       </c>
       <c r="AG627" t="n">
         <v>6460700</v>
@@ -40101,7 +40101,7 @@
       <c r="D628" t="inlineStr"/>
       <c r="E628" t="inlineStr"/>
       <c r="F628" t="n">
-        <v>134.7664031982422</v>
+        <v>134.7663726806641</v>
       </c>
       <c r="G628" t="inlineStr"/>
       <c r="H628" t="inlineStr">
@@ -40130,16 +40130,16 @@
       <c r="AA628" t="inlineStr"/>
       <c r="AB628" t="inlineStr"/>
       <c r="AC628" t="n">
-        <v>132.3636953870052</v>
+        <v>132.3636654135154</v>
       </c>
       <c r="AD628" t="n">
-        <v>135.0582346851284</v>
+        <v>135.0582041014656</v>
       </c>
       <c r="AE628" t="n">
-        <v>131.9454001257296</v>
+        <v>131.9453702469619</v>
       </c>
       <c r="AF628" t="n">
-        <v>134.7664031982422</v>
+        <v>134.7663726806641</v>
       </c>
       <c r="AG628" t="n">
         <v>5885100</v>
@@ -40290,7 +40290,7 @@
       <c r="D631" t="inlineStr"/>
       <c r="E631" t="inlineStr"/>
       <c r="F631" t="n">
-        <v>135.5553894042969</v>
+        <v>135.5554046630859</v>
       </c>
       <c r="G631" t="inlineStr"/>
       <c r="H631" t="inlineStr">
@@ -40319,16 +40319,16 @@
       <c r="AA631" t="inlineStr"/>
       <c r="AB631" t="inlineStr"/>
       <c r="AC631" t="n">
-        <v>136.2506522929062</v>
+        <v>136.2506676299575</v>
       </c>
       <c r="AD631" t="n">
-        <v>136.857772743573</v>
+        <v>136.8577881489647</v>
       </c>
       <c r="AE631" t="n">
-        <v>134.9091061582669</v>
+        <v>134.9091213443071</v>
       </c>
       <c r="AF631" t="n">
-        <v>135.5553894042969</v>
+        <v>135.5554046630859</v>
       </c>
       <c r="AG631" t="n">
         <v>5502700</v>
@@ -40416,7 +40416,7 @@
       <c r="D633" t="inlineStr"/>
       <c r="E633" t="inlineStr"/>
       <c r="F633" t="n">
-        <v>133.9298858642578</v>
+        <v>133.9298706054688</v>
       </c>
       <c r="G633" t="inlineStr"/>
       <c r="H633" t="inlineStr">
@@ -40445,16 +40445,16 @@
       <c r="AA633" t="inlineStr"/>
       <c r="AB633" t="inlineStr"/>
       <c r="AC633" t="n">
-        <v>134.8699424701869</v>
+        <v>134.8699271042961</v>
       </c>
       <c r="AD633" t="n">
-        <v>135.0168365874404</v>
+        <v>135.0168212048138</v>
       </c>
       <c r="AE633" t="n">
-        <v>133.4598426193629</v>
+        <v>133.4598274141264</v>
       </c>
       <c r="AF633" t="n">
-        <v>133.9298858642578</v>
+        <v>133.9298706054688</v>
       </c>
       <c r="AG633" t="n">
         <v>5997300</v>
@@ -40479,7 +40479,7 @@
       <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr"/>
       <c r="F634" t="n">
-        <v>136.0450134277344</v>
+        <v>136.0449981689453</v>
       </c>
       <c r="G634" t="inlineStr"/>
       <c r="H634" t="inlineStr">
@@ -40508,16 +40508,16 @@
       <c r="AA634" t="inlineStr"/>
       <c r="AB634" t="inlineStr"/>
       <c r="AC634" t="n">
-        <v>134.6153397245621</v>
+        <v>134.615324626125</v>
       </c>
       <c r="AD634" t="n">
-        <v>136.3289997407555</v>
+        <v>136.3289844501146</v>
       </c>
       <c r="AE634" t="n">
-        <v>133.6752682269441</v>
+        <v>133.6752532339453</v>
       </c>
       <c r="AF634" t="n">
-        <v>136.0450134277344</v>
+        <v>136.0449981689453</v>
       </c>
       <c r="AG634" t="n">
         <v>5871200</v>
@@ -40857,7 +40857,7 @@
       <c r="D640" t="inlineStr"/>
       <c r="E640" t="inlineStr"/>
       <c r="F640" t="n">
-        <v>133.9984130859375</v>
+        <v>133.9984283447266</v>
       </c>
       <c r="G640" t="inlineStr"/>
       <c r="H640" t="inlineStr">
@@ -40886,16 +40886,16 @@
       <c r="AA640" t="inlineStr"/>
       <c r="AB640" t="inlineStr"/>
       <c r="AC640" t="n">
-        <v>135.1049525855612</v>
+        <v>135.1049679703551</v>
       </c>
       <c r="AD640" t="n">
-        <v>135.2322578212854</v>
+        <v>135.232273220576</v>
       </c>
       <c r="AE640" t="n">
-        <v>133.5185978594614</v>
+        <v>133.5186130636125</v>
       </c>
       <c r="AF640" t="n">
-        <v>133.9984130859375</v>
+        <v>133.9984283447266</v>
       </c>
       <c r="AG640" t="n">
         <v>4699800</v>
@@ -40920,7 +40920,7 @@
       <c r="D641" t="inlineStr"/>
       <c r="E641" t="inlineStr"/>
       <c r="F641" t="n">
-        <v>136.0646057128906</v>
+        <v>136.0645904541016</v>
       </c>
       <c r="G641" t="inlineStr"/>
       <c r="H641" t="inlineStr">
@@ -40949,16 +40949,16 @@
       <c r="AA641" t="inlineStr"/>
       <c r="AB641" t="inlineStr"/>
       <c r="AC641" t="n">
-        <v>133.6165199140191</v>
+        <v>133.6165049297675</v>
       </c>
       <c r="AD641" t="n">
-        <v>136.6815281156238</v>
+        <v>136.6815127876508</v>
       </c>
       <c r="AE641" t="n">
-        <v>133.6165199140191</v>
+        <v>133.6165049297675</v>
       </c>
       <c r="AF641" t="n">
-        <v>136.0646057128906</v>
+        <v>136.0645904541016</v>
       </c>
       <c r="AG641" t="n">
         <v>5044500</v>
@@ -41109,7 +41109,7 @@
       <c r="D644" t="inlineStr"/>
       <c r="E644" t="inlineStr"/>
       <c r="F644" t="n">
-        <v>131.5503387451172</v>
+        <v>131.5503234863281</v>
       </c>
       <c r="G644" t="inlineStr"/>
       <c r="H644" t="inlineStr">
@@ -41138,16 +41138,16 @@
       <c r="AA644" t="inlineStr"/>
       <c r="AB644" t="inlineStr"/>
       <c r="AC644" t="n">
-        <v>137.3376173287782</v>
+        <v>137.337601398711</v>
       </c>
       <c r="AD644" t="n">
-        <v>138.1405966663921</v>
+        <v>138.1405806431857</v>
       </c>
       <c r="AE644" t="n">
-        <v>129.6799975540773</v>
+        <v>129.6799825122329</v>
       </c>
       <c r="AF644" t="n">
-        <v>131.5503387451172</v>
+        <v>131.5503234863281</v>
       </c>
       <c r="AG644" t="n">
         <v>8860800</v>
@@ -41172,7 +41172,7 @@
       <c r="D645" t="inlineStr"/>
       <c r="E645" t="inlineStr"/>
       <c r="F645" t="n">
-        <v>128.9553527832031</v>
+        <v>128.9553680419922</v>
       </c>
       <c r="G645" t="inlineStr"/>
       <c r="H645" t="inlineStr">
@@ -41201,16 +41201,16 @@
       <c r="AA645" t="inlineStr"/>
       <c r="AB645" t="inlineStr"/>
       <c r="AC645" t="n">
-        <v>132.372870541121</v>
+        <v>132.3728862042918</v>
       </c>
       <c r="AD645" t="n">
-        <v>132.784162049535</v>
+        <v>132.7841777613723</v>
       </c>
       <c r="AE645" t="n">
-        <v>128.1915513108822</v>
+        <v>128.1915664792936</v>
       </c>
       <c r="AF645" t="n">
-        <v>128.9553527832031</v>
+        <v>128.9553680419922</v>
       </c>
       <c r="AG645" t="n">
         <v>6704100</v>
@@ -41235,7 +41235,7 @@
       <c r="D646" t="inlineStr"/>
       <c r="E646" t="inlineStr"/>
       <c r="F646" t="n">
-        <v>127.2710800170898</v>
+        <v>127.2710876464844</v>
       </c>
       <c r="G646" t="inlineStr"/>
       <c r="H646" t="inlineStr">
@@ -41264,16 +41264,16 @@
       <c r="AA646" t="inlineStr"/>
       <c r="AB646" t="inlineStr"/>
       <c r="AC646" t="n">
-        <v>130.0031370720373</v>
+        <v>130.0031448652078</v>
       </c>
       <c r="AD646" t="n">
-        <v>130.2087828443977</v>
+        <v>130.2087906498959</v>
       </c>
       <c r="AE646" t="n">
-        <v>126.2232921698907</v>
+        <v>126.2232997364745</v>
       </c>
       <c r="AF646" t="n">
-        <v>127.2710800170898</v>
+        <v>127.2710876464844</v>
       </c>
       <c r="AG646" t="n">
         <v>7784500</v>
@@ -41865,7 +41865,7 @@
       <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="n">
-        <v>109.3706817626953</v>
+        <v>109.3706741333008</v>
       </c>
       <c r="G656" t="inlineStr"/>
       <c r="H656" t="inlineStr">
@@ -41894,16 +41894,16 @@
       <c r="AA656" t="inlineStr"/>
       <c r="AB656" t="inlineStr"/>
       <c r="AC656" t="n">
-        <v>113.5911792206146</v>
+        <v>113.5911712968099</v>
       </c>
       <c r="AD656" t="n">
-        <v>113.8653636302755</v>
+        <v>113.8653556873444</v>
       </c>
       <c r="AE656" t="n">
-        <v>106.9519718373847</v>
+        <v>106.9519643767127</v>
       </c>
       <c r="AF656" t="n">
-        <v>109.3706817626953</v>
+        <v>109.3706741333008</v>
       </c>
       <c r="AG656" t="n">
         <v>16765700</v>
@@ -41928,7 +41928,7 @@
       <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="n">
-        <v>109.7134170532227</v>
+        <v>109.7134094238281</v>
       </c>
       <c r="G657" t="inlineStr"/>
       <c r="H657" t="inlineStr">
@@ -41957,16 +41957,16 @@
       <c r="AA657" t="inlineStr"/>
       <c r="AB657" t="inlineStr"/>
       <c r="AC657" t="n">
-        <v>109.3902679259201</v>
+        <v>109.3902603189971</v>
       </c>
       <c r="AD657" t="n">
-        <v>111.1528927376021</v>
+        <v>111.1528850081074</v>
       </c>
       <c r="AE657" t="n">
-        <v>108.0487141819752</v>
+        <v>108.048706668343</v>
       </c>
       <c r="AF657" t="n">
-        <v>109.7134170532227</v>
+        <v>109.7134094238281</v>
       </c>
       <c r="AG657" t="n">
         <v>13490400</v>
@@ -42054,7 +42054,7 @@
       <c r="D659" t="inlineStr"/>
       <c r="E659" t="inlineStr"/>
       <c r="F659" t="n">
-        <v>109.3608932495117</v>
+        <v>109.3608856201172</v>
       </c>
       <c r="G659" t="inlineStr"/>
       <c r="H659" t="inlineStr">
@@ -42083,16 +42083,16 @@
       <c r="AA659" t="inlineStr"/>
       <c r="AB659" t="inlineStr"/>
       <c r="AC659" t="n">
-        <v>111.6327166581011</v>
+        <v>111.6327088702163</v>
       </c>
       <c r="AD659" t="n">
-        <v>112.4650643670606</v>
+        <v>112.4650565211083</v>
       </c>
       <c r="AE659" t="n">
-        <v>108.9202407774053</v>
+        <v>108.9202331787522</v>
       </c>
       <c r="AF659" t="n">
-        <v>109.3608932495117</v>
+        <v>109.3608856201172</v>
       </c>
       <c r="AG659" t="n">
         <v>7435500</v>
@@ -42180,7 +42180,7 @@
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr"/>
       <c r="F661" t="n">
-        <v>115.5104827880859</v>
+        <v>115.5104751586914</v>
       </c>
       <c r="G661" t="inlineStr"/>
       <c r="H661" t="inlineStr">
@@ -42209,16 +42209,16 @@
       <c r="AA661" t="inlineStr"/>
       <c r="AB661" t="inlineStr"/>
       <c r="AC661" t="n">
-        <v>112.582574179575</v>
+        <v>112.582566743567</v>
       </c>
       <c r="AD661" t="n">
-        <v>116.8226606992456</v>
+        <v>116.8226529831826</v>
       </c>
       <c r="AE661" t="n">
-        <v>112.4552689329234</v>
+        <v>112.4552615053238</v>
       </c>
       <c r="AF661" t="n">
-        <v>115.5104827880859</v>
+        <v>115.5104751586914</v>
       </c>
       <c r="AG661" t="n">
         <v>8374900</v>
@@ -42306,7 +42306,7 @@
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr"/>
       <c r="F663" t="n">
-        <v>117.3612365722656</v>
+        <v>117.3612289428711</v>
       </c>
       <c r="G663" t="inlineStr"/>
       <c r="H663" t="inlineStr">
@@ -42335,16 +42335,16 @@
       <c r="AA663" t="inlineStr"/>
       <c r="AB663" t="inlineStr"/>
       <c r="AC663" t="n">
-        <v>114.7956473300362</v>
+        <v>114.7956398674249</v>
       </c>
       <c r="AD663" t="n">
-        <v>118.7321661706977</v>
+        <v>118.732158452182</v>
       </c>
       <c r="AE663" t="n">
-        <v>113.8164129698655</v>
+        <v>113.8164055709121</v>
       </c>
       <c r="AF663" t="n">
-        <v>117.3612365722656</v>
+        <v>117.3612289428711</v>
       </c>
       <c r="AG663" t="n">
         <v>8430800</v>
@@ -42432,7 +42432,7 @@
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr"/>
       <c r="F665" t="n">
-        <v>117.6452026367188</v>
+        <v>117.6452102661133</v>
       </c>
       <c r="G665" t="inlineStr"/>
       <c r="H665" t="inlineStr">
@@ -42461,16 +42461,16 @@
       <c r="AA665" t="inlineStr"/>
       <c r="AB665" t="inlineStr"/>
       <c r="AC665" t="n">
-        <v>116.8716066798137</v>
+        <v>116.8716142590399</v>
       </c>
       <c r="AD665" t="n">
-        <v>118.3698338925551</v>
+        <v>118.3698415689427</v>
       </c>
       <c r="AE665" t="n">
-        <v>115.8434151960521</v>
+        <v>115.8434227085992</v>
       </c>
       <c r="AF665" t="n">
-        <v>117.6452026367188</v>
+        <v>117.6452102661133</v>
       </c>
       <c r="AG665" t="n">
         <v>10989900</v>
@@ -42873,7 +42873,7 @@
       <c r="D672" t="inlineStr"/>
       <c r="E672" t="inlineStr"/>
       <c r="F672" t="n">
-        <v>113.3365707397461</v>
+        <v>113.3365783691406</v>
       </c>
       <c r="G672" t="inlineStr"/>
       <c r="H672" t="inlineStr">
@@ -42902,16 +42902,16 @@
       <c r="AA672" t="inlineStr"/>
       <c r="AB672" t="inlineStr"/>
       <c r="AC672" t="n">
-        <v>113.5813793038372</v>
+        <v>113.5813869497113</v>
       </c>
       <c r="AD672" t="n">
-        <v>114.4528971943244</v>
+        <v>114.4529048988658</v>
       </c>
       <c r="AE672" t="n">
-        <v>111.1822583641302</v>
+        <v>111.1822658485045</v>
       </c>
       <c r="AF672" t="n">
-        <v>113.3365707397461</v>
+        <v>113.3365783691406</v>
       </c>
       <c r="AG672" t="n">
         <v>6651000</v>
@@ -42936,7 +42936,7 @@
       <c r="D673" t="inlineStr"/>
       <c r="E673" t="inlineStr"/>
       <c r="F673" t="n">
-        <v>116.7932739257812</v>
+        <v>116.7932662963867</v>
       </c>
       <c r="G673" t="inlineStr"/>
       <c r="H673" t="inlineStr">
@@ -42965,16 +42965,16 @@
       <c r="AA673" t="inlineStr"/>
       <c r="AB673" t="inlineStr"/>
       <c r="AC673" t="n">
-        <v>111.6033365182879</v>
+        <v>111.6033292279204</v>
       </c>
       <c r="AD673" t="n">
-        <v>117.8508487832049</v>
+        <v>117.8508410847255</v>
       </c>
       <c r="AE673" t="n">
-        <v>111.5152015446867</v>
+        <v>111.5151942600766</v>
       </c>
       <c r="AF673" t="n">
-        <v>116.7932739257812</v>
+        <v>116.7932662963867</v>
       </c>
       <c r="AG673" t="n">
         <v>8415300</v>
@@ -43062,7 +43062,7 @@
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr"/>
       <c r="F675" t="n">
-        <v>97.75696563720703</v>
+        <v>97.7569580078125</v>
       </c>
       <c r="G675" t="inlineStr"/>
       <c r="H675" t="inlineStr">
@@ -43091,16 +43091,16 @@
       <c r="AA675" t="inlineStr"/>
       <c r="AB675" t="inlineStr"/>
       <c r="AC675" t="n">
-        <v>99.43145545664373</v>
+        <v>99.43144769656448</v>
       </c>
       <c r="AD675" t="n">
-        <v>101.5465977392609</v>
+        <v>101.5465898141064</v>
       </c>
       <c r="AE675" t="n">
-        <v>95.28929092469444</v>
+        <v>95.28928348788838</v>
       </c>
       <c r="AF675" t="n">
-        <v>97.75696563720703</v>
+        <v>97.7569580078125</v>
       </c>
       <c r="AG675" t="n">
         <v>18876900</v>
@@ -43251,7 +43251,7 @@
       <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr"/>
       <c r="F678" t="n">
-        <v>109.3804702758789</v>
+        <v>109.3804626464844</v>
       </c>
       <c r="G678" t="inlineStr"/>
       <c r="H678" t="inlineStr">
@@ -43280,16 +43280,16 @@
       <c r="AA678" t="inlineStr"/>
       <c r="AB678" t="inlineStr"/>
       <c r="AC678" t="n">
-        <v>96.16080698968754</v>
+        <v>96.16080028237742</v>
       </c>
       <c r="AD678" t="n">
-        <v>111.5347902569483</v>
+        <v>111.5347824772879</v>
       </c>
       <c r="AE678" t="n">
-        <v>95.85724674197267</v>
+        <v>95.85724005583617</v>
       </c>
       <c r="AF678" t="n">
-        <v>109.3804702758789</v>
+        <v>109.3804626464844</v>
       </c>
       <c r="AG678" t="n">
         <v>16919500</v>
@@ -43503,7 +43503,7 @@
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr"/>
       <c r="F682" t="n">
-        <v>108.1466293334961</v>
+        <v>108.1466369628906</v>
       </c>
       <c r="G682" t="inlineStr"/>
       <c r="H682" t="inlineStr">
@@ -43532,16 +43532,16 @@
       <c r="AA682" t="inlineStr"/>
       <c r="AB682" t="inlineStr"/>
       <c r="AC682" t="n">
-        <v>107.8038913807199</v>
+        <v>107.8038989859354</v>
       </c>
       <c r="AD682" t="n">
-        <v>109.8211189483184</v>
+        <v>109.8211266958427</v>
       </c>
       <c r="AE682" t="n">
-        <v>107.7745155495595</v>
+        <v>107.7745231527026</v>
       </c>
       <c r="AF682" t="n">
-        <v>108.1466293334961</v>
+        <v>108.1466369628906</v>
       </c>
       <c r="AG682" t="n">
         <v>6003800</v>
@@ -44007,7 +44007,7 @@
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr"/>
       <c r="F690" t="n">
-        <v>113.4247131347656</v>
+        <v>113.4247055053711</v>
       </c>
       <c r="G690" t="inlineStr"/>
       <c r="H690" t="inlineStr">
@@ -44036,16 +44036,16 @@
       <c r="AA690" t="inlineStr"/>
       <c r="AB690" t="inlineStr"/>
       <c r="AC690" t="n">
-        <v>113.4736703682109</v>
+        <v>113.4736627355233</v>
       </c>
       <c r="AD690" t="n">
-        <v>115.4517278793302</v>
+        <v>115.4517201135907</v>
       </c>
       <c r="AE690" t="n">
-        <v>111.4662444937964</v>
+        <v>111.4662369961362</v>
       </c>
       <c r="AF690" t="n">
-        <v>113.4247131347656</v>
+        <v>113.4247055053711</v>
       </c>
       <c r="AG690" t="n">
         <v>4171200</v>
@@ -44070,7 +44070,7 @@
       <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr"/>
       <c r="F691" t="n">
-        <v>113.7968139648438</v>
+        <v>113.7968063354492</v>
       </c>
       <c r="G691" t="inlineStr"/>
       <c r="H691" t="inlineStr">
@@ -44099,16 +44099,16 @@
       <c r="AA691" t="inlineStr"/>
       <c r="AB691" t="inlineStr"/>
       <c r="AC691" t="n">
-        <v>112.9840477252506</v>
+        <v>112.9840401503472</v>
       </c>
       <c r="AD691" t="n">
-        <v>114.051416967685</v>
+        <v>114.0514093212208</v>
       </c>
       <c r="AE691" t="n">
-        <v>111.8579342881116</v>
+        <v>111.8579267887073</v>
       </c>
       <c r="AF691" t="n">
-        <v>113.7968139648438</v>
+        <v>113.7968063354492</v>
       </c>
       <c r="AG691" t="n">
         <v>4689800</v>
@@ -44133,7 +44133,7 @@
       <c r="D692" t="inlineStr"/>
       <c r="E692" t="inlineStr"/>
       <c r="F692" t="n">
-        <v>113.9300765991211</v>
+        <v>113.9300689697266</v>
       </c>
       <c r="G692" t="inlineStr"/>
       <c r="H692" t="inlineStr">
@@ -44162,16 +44162,16 @@
       <c r="AA692" t="inlineStr"/>
       <c r="AB692" t="inlineStr"/>
       <c r="AC692" t="n">
-        <v>111.6498980947934</v>
+        <v>111.6498906180924</v>
       </c>
       <c r="AD692" t="n">
-        <v>114.3249146272455</v>
+        <v>114.3249069714104</v>
       </c>
       <c r="AE692" t="n">
-        <v>110.5838376781302</v>
+        <v>110.5838302728185</v>
       </c>
       <c r="AF692" t="n">
-        <v>113.9300765991211</v>
+        <v>113.9300689697266</v>
       </c>
       <c r="AG692" t="n">
         <v>6502400</v>
@@ -44196,7 +44196,7 @@
       <c r="D693" t="inlineStr"/>
       <c r="E693" t="inlineStr"/>
       <c r="F693" t="n">
-        <v>115.2527770996094</v>
+        <v>115.2527847290039</v>
       </c>
       <c r="G693" t="inlineStr"/>
       <c r="H693" t="inlineStr">
@@ -44225,16 +44225,16 @@
       <c r="AA693" t="inlineStr"/>
       <c r="AB693" t="inlineStr"/>
       <c r="AC693" t="n">
-        <v>114.0485245629668</v>
+        <v>114.0485321126434</v>
       </c>
       <c r="AD693" t="n">
-        <v>116.2990914205375</v>
+        <v>116.2990991191949</v>
       </c>
       <c r="AE693" t="n">
-        <v>113.1897524595638</v>
+        <v>113.1897599523922</v>
       </c>
       <c r="AF693" t="n">
-        <v>115.2527770996094</v>
+        <v>115.2527847290039</v>
       </c>
       <c r="AG693" t="n">
         <v>7743600</v>
@@ -44700,7 +44700,7 @@
       <c r="D701" t="inlineStr"/>
       <c r="E701" t="inlineStr"/>
       <c r="F701" t="n">
-        <v>127.6802673339844</v>
+        <v>127.6802597045898</v>
       </c>
       <c r="G701" t="inlineStr"/>
       <c r="H701" t="inlineStr">
@@ -44729,16 +44729,16 @@
       <c r="AA701" t="inlineStr"/>
       <c r="AB701" t="inlineStr"/>
       <c r="AC701" t="n">
-        <v>126.1107882305771</v>
+        <v>126.1107806949651</v>
       </c>
       <c r="AD701" t="n">
-        <v>128.4304513094495</v>
+        <v>128.4304436352285</v>
       </c>
       <c r="AE701" t="n">
-        <v>125.5876310397444</v>
+        <v>125.5876235353931</v>
       </c>
       <c r="AF701" t="n">
-        <v>127.6802673339844</v>
+        <v>127.6802597045898</v>
       </c>
       <c r="AG701" t="n">
         <v>6086700</v>
@@ -44763,7 +44763,7 @@
       <c r="D702" t="inlineStr"/>
       <c r="E702" t="inlineStr"/>
       <c r="F702" t="n">
-        <v>129.3484191894531</v>
+        <v>129.3484344482422</v>
       </c>
       <c r="G702" t="inlineStr"/>
       <c r="H702" t="inlineStr">
@@ -44792,16 +44792,16 @@
       <c r="AA702" t="inlineStr"/>
       <c r="AB702" t="inlineStr"/>
       <c r="AC702" t="n">
-        <v>127.6901132676292</v>
+        <v>127.6901283307936</v>
       </c>
       <c r="AD702" t="n">
-        <v>129.8715913619741</v>
+        <v>129.8716066824799</v>
       </c>
       <c r="AE702" t="n">
-        <v>127.4630865177686</v>
+        <v>127.4631015541514</v>
       </c>
       <c r="AF702" t="n">
-        <v>129.3484191894531</v>
+        <v>129.3484344482422</v>
       </c>
       <c r="AG702" t="n">
         <v>6273400</v>
@@ -44826,7 +44826,7 @@
       <c r="D703" t="inlineStr"/>
       <c r="E703" t="inlineStr"/>
       <c r="F703" t="n">
-        <v>130.7994689941406</v>
+        <v>130.7994537353516</v>
       </c>
       <c r="G703" t="inlineStr"/>
       <c r="H703" t="inlineStr">
@@ -44855,16 +44855,16 @@
       <c r="AA703" t="inlineStr"/>
       <c r="AB703" t="inlineStr"/>
       <c r="AC703" t="n">
-        <v>128.5785134629589</v>
+        <v>128.5784984632618</v>
       </c>
       <c r="AD703" t="n">
-        <v>131.3127607119896</v>
+        <v>131.3127453933211</v>
       </c>
       <c r="AE703" t="n">
-        <v>128.3416211791968</v>
+        <v>128.341606207135</v>
       </c>
       <c r="AF703" t="n">
-        <v>130.7994689941406</v>
+        <v>130.7994537353516</v>
       </c>
       <c r="AG703" t="n">
         <v>7209300</v>
@@ -45078,7 +45078,7 @@
       <c r="D707" t="inlineStr"/>
       <c r="E707" t="inlineStr"/>
       <c r="F707" t="n">
-        <v>123.6825332641602</v>
+        <v>123.6825408935547</v>
       </c>
       <c r="G707" t="inlineStr"/>
       <c r="H707" t="inlineStr">
@@ -45107,16 +45107,16 @@
       <c r="AA707" t="inlineStr"/>
       <c r="AB707" t="inlineStr"/>
       <c r="AC707" t="n">
-        <v>126.4365111493511</v>
+        <v>126.4365189486256</v>
       </c>
       <c r="AD707" t="n">
-        <v>126.9794143344079</v>
+        <v>126.9794221671716</v>
       </c>
       <c r="AE707" t="n">
-        <v>123.4554989692523</v>
+        <v>123.4555065846422</v>
       </c>
       <c r="AF707" t="n">
-        <v>123.6825332641602</v>
+        <v>123.6825408935547</v>
       </c>
       <c r="AG707" t="n">
         <v>6371600</v>
@@ -45141,7 +45141,7 @@
       <c r="D708" t="inlineStr"/>
       <c r="E708" t="inlineStr"/>
       <c r="F708" t="n">
-        <v>124.6301422119141</v>
+        <v>124.6301498413086</v>
       </c>
       <c r="G708" t="inlineStr"/>
       <c r="H708" t="inlineStr">
@@ -45170,16 +45170,16 @@
       <c r="AA708" t="inlineStr"/>
       <c r="AB708" t="inlineStr"/>
       <c r="AC708" t="n">
-        <v>123.0014401578916</v>
+        <v>123.001447687583</v>
       </c>
       <c r="AD708" t="n">
-        <v>125.429683707327</v>
+        <v>125.4296913856665</v>
       </c>
       <c r="AE708" t="n">
-        <v>123.0014401578916</v>
+        <v>123.001447687583</v>
       </c>
       <c r="AF708" t="n">
-        <v>124.6301422119141</v>
+        <v>124.6301498413086</v>
       </c>
       <c r="AG708" t="n">
         <v>5689200</v>
@@ -45267,7 +45267,7 @@
       <c r="D710" t="inlineStr"/>
       <c r="E710" t="inlineStr"/>
       <c r="F710" t="n">
-        <v>127.5420684814453</v>
+        <v>127.5420608520508</v>
       </c>
       <c r="G710" t="inlineStr"/>
       <c r="H710" t="inlineStr">
@@ -45296,16 +45296,16 @@
       <c r="AA710" t="inlineStr"/>
       <c r="AB710" t="inlineStr"/>
       <c r="AC710" t="n">
-        <v>125.8936203518206</v>
+        <v>125.893612821034</v>
       </c>
       <c r="AD710" t="n">
-        <v>127.8579298528709</v>
+        <v>127.857922204582</v>
       </c>
       <c r="AE710" t="n">
-        <v>125.1829134388413</v>
+        <v>125.1829059505683</v>
       </c>
       <c r="AF710" t="n">
-        <v>127.5420684814453</v>
+        <v>127.5420608520508</v>
       </c>
       <c r="AG710" t="n">
         <v>5472400</v>
@@ -45330,7 +45330,7 @@
       <c r="D711" t="inlineStr"/>
       <c r="E711" t="inlineStr"/>
       <c r="F711" t="n">
-        <v>125.864013671875</v>
+        <v>125.8640060424805</v>
       </c>
       <c r="G711" t="inlineStr"/>
       <c r="H711" t="inlineStr">
@@ -45359,16 +45359,16 @@
       <c r="AA711" t="inlineStr"/>
       <c r="AB711" t="inlineStr"/>
       <c r="AC711" t="n">
-        <v>127.5420733990901</v>
+        <v>127.542065667978</v>
       </c>
       <c r="AD711" t="n">
-        <v>127.7493541373077</v>
+        <v>127.7493463936311</v>
       </c>
       <c r="AE711" t="n">
-        <v>125.6271063378084</v>
+        <v>125.6270987227742</v>
       </c>
       <c r="AF711" t="n">
-        <v>125.864013671875</v>
+        <v>125.8640060424805</v>
       </c>
       <c r="AG711" t="n">
         <v>4050900</v>
@@ -45393,7 +45393,7 @@
       <c r="D712" t="inlineStr"/>
       <c r="E712" t="inlineStr"/>
       <c r="F712" t="n">
-        <v>126.5056228637695</v>
+        <v>126.505615234375</v>
       </c>
       <c r="G712" t="inlineStr"/>
       <c r="H712" t="inlineStr">
@@ -45422,16 +45422,16 @@
       <c r="AA712" t="inlineStr"/>
       <c r="AB712" t="inlineStr"/>
       <c r="AC712" t="n">
-        <v>126.4463997964839</v>
+        <v>126.446392170661</v>
       </c>
       <c r="AD712" t="n">
-        <v>126.7425151329121</v>
+        <v>126.7425074892308</v>
       </c>
       <c r="AE712" t="n">
-        <v>125.2914972680521</v>
+        <v>125.2914897118799</v>
       </c>
       <c r="AF712" t="n">
-        <v>126.5056228637695</v>
+        <v>126.505615234375</v>
       </c>
       <c r="AG712" t="n">
         <v>4337500</v>
@@ -45456,7 +45456,7 @@
       <c r="D713" t="inlineStr"/>
       <c r="E713" t="inlineStr"/>
       <c r="F713" t="n">
-        <v>126.3772888183594</v>
+        <v>126.3772964477539</v>
       </c>
       <c r="G713" t="inlineStr"/>
       <c r="H713" t="inlineStr">
@@ -45485,16 +45485,16 @@
       <c r="AA713" t="inlineStr"/>
       <c r="AB713" t="inlineStr"/>
       <c r="AC713" t="n">
-        <v>125.9627123096813</v>
+        <v>125.9627199140478</v>
       </c>
       <c r="AD713" t="n">
-        <v>126.6734191993628</v>
+        <v>126.6734268466348</v>
       </c>
       <c r="AE713" t="n">
-        <v>124.7189752527385</v>
+        <v>124.7189827820207</v>
       </c>
       <c r="AF713" t="n">
-        <v>126.3772888183594</v>
+        <v>126.3772964477539</v>
       </c>
       <c r="AG713" t="n">
         <v>6436100</v>
@@ -45519,7 +45519,7 @@
       <c r="D714" t="inlineStr"/>
       <c r="E714" t="inlineStr"/>
       <c r="F714" t="n">
-        <v>126.7425155639648</v>
+        <v>126.7425079345703</v>
       </c>
       <c r="G714" t="inlineStr"/>
       <c r="H714" t="inlineStr">
@@ -45548,16 +45548,16 @@
       <c r="AA714" t="inlineStr"/>
       <c r="AB714" t="inlineStr"/>
       <c r="AC714" t="n">
-        <v>125.8344009158308</v>
+        <v>125.8343933411012</v>
       </c>
       <c r="AD714" t="n">
-        <v>126.8116191839116</v>
+        <v>126.8116115503573</v>
       </c>
       <c r="AE714" t="n">
-        <v>124.7288559603163</v>
+        <v>124.728848452136</v>
       </c>
       <c r="AF714" t="n">
-        <v>126.7425155639648</v>
+        <v>126.7425079345703</v>
       </c>
       <c r="AG714" t="n">
         <v>3607900</v>
@@ -45645,7 +45645,7 @@
       <c r="D716" t="inlineStr"/>
       <c r="E716" t="inlineStr"/>
       <c r="F716" t="n">
-        <v>126.5056228637695</v>
+        <v>126.505615234375</v>
       </c>
       <c r="G716" t="inlineStr"/>
       <c r="H716" t="inlineStr">
@@ -45674,16 +45674,16 @@
       <c r="AA716" t="inlineStr"/>
       <c r="AB716" t="inlineStr"/>
       <c r="AC716" t="n">
-        <v>127.1768377087637</v>
+        <v>127.176830038889</v>
       </c>
       <c r="AD716" t="n">
-        <v>127.749352462221</v>
+        <v>127.7493447578187</v>
       </c>
       <c r="AE716" t="n">
-        <v>126.5056228637695</v>
+        <v>126.505615234375</v>
       </c>
       <c r="AF716" t="n">
-        <v>126.5056228637695</v>
+        <v>126.505615234375</v>
       </c>
       <c r="AG716" t="n">
         <v>3123200</v>
@@ -45960,7 +45960,7 @@
       <c r="D721" t="inlineStr"/>
       <c r="E721" t="inlineStr"/>
       <c r="F721" t="n">
-        <v>130.1084899902344</v>
+        <v>130.1085052490234</v>
       </c>
       <c r="G721" t="inlineStr"/>
       <c r="H721" t="inlineStr">
@@ -45989,16 +45989,16 @@
       <c r="AA721" t="inlineStr"/>
       <c r="AB721" t="inlineStr"/>
       <c r="AC721" t="n">
-        <v>130.3256512613964</v>
+        <v>130.3256665456536</v>
       </c>
       <c r="AD721" t="n">
-        <v>131.7273189722864</v>
+        <v>131.7273344209276</v>
       </c>
       <c r="AE721" t="n">
-        <v>129.7235250207774</v>
+        <v>129.7235402344187</v>
       </c>
       <c r="AF721" t="n">
-        <v>130.1084899902344</v>
+        <v>130.1085052490234</v>
       </c>
       <c r="AG721" t="n">
         <v>5810200</v>
@@ -46086,7 +46086,7 @@
       <c r="D723" t="inlineStr"/>
       <c r="E723" t="inlineStr"/>
       <c r="F723" t="n">
-        <v>127.8184509277344</v>
+        <v>127.8184585571289</v>
       </c>
       <c r="G723" t="inlineStr"/>
       <c r="H723" t="inlineStr">
@@ -46115,16 +46115,16 @@
       <c r="AA723" t="inlineStr"/>
       <c r="AB723" t="inlineStr"/>
       <c r="AC723" t="n">
-        <v>128.5094117879004</v>
+        <v>128.5094194585379</v>
       </c>
       <c r="AD723" t="n">
-        <v>129.378056904576</v>
+        <v>129.3780646270623</v>
       </c>
       <c r="AE723" t="n">
-        <v>127.1472210479895</v>
+        <v>127.1472286373187</v>
       </c>
       <c r="AF723" t="n">
-        <v>127.8184509277344</v>
+        <v>127.8184585571289</v>
       </c>
       <c r="AG723" t="n">
         <v>4367500</v>
@@ -46527,7 +46527,7 @@
       <c r="D730" t="inlineStr"/>
       <c r="E730" t="inlineStr"/>
       <c r="F730" t="n">
-        <v>135.9421997070312</v>
+        <v>135.9422149658203</v>
       </c>
       <c r="G730" t="inlineStr"/>
       <c r="H730" t="inlineStr">
@@ -46556,16 +46556,16 @@
       <c r="AA730" t="inlineStr"/>
       <c r="AB730" t="inlineStr"/>
       <c r="AC730" t="n">
-        <v>134.3628477804507</v>
+        <v>134.3628628619659</v>
       </c>
       <c r="AD730" t="n">
-        <v>136.1100034016853</v>
+        <v>136.1100186793094</v>
       </c>
       <c r="AE730" t="n">
-        <v>133.6620214711201</v>
+        <v>133.6620364739713</v>
       </c>
       <c r="AF730" t="n">
-        <v>135.9421997070312</v>
+        <v>135.9422149658203</v>
       </c>
       <c r="AG730" t="n">
         <v>5736400</v>
@@ -46590,7 +46590,7 @@
       <c r="D731" t="inlineStr"/>
       <c r="E731" t="inlineStr"/>
       <c r="F731" t="n">
-        <v>137.9459991455078</v>
+        <v>137.9460144042969</v>
       </c>
       <c r="G731" t="inlineStr"/>
       <c r="H731" t="inlineStr">
@@ -46619,16 +46619,16 @@
       <c r="AA731" t="inlineStr"/>
       <c r="AB731" t="inlineStr"/>
       <c r="AC731" t="n">
-        <v>136.228454986129</v>
+        <v>136.2284700549333</v>
       </c>
       <c r="AD731" t="n">
-        <v>138.3901871858491</v>
+        <v>138.3902024937717</v>
       </c>
       <c r="AE731" t="n">
-        <v>136.0606512847475</v>
+        <v>136.0606663349903</v>
       </c>
       <c r="AF731" t="n">
-        <v>137.9459991455078</v>
+        <v>137.9460144042969</v>
       </c>
       <c r="AG731" t="n">
         <v>6013200</v>
@@ -46716,7 +46716,7 @@
       <c r="D733" t="inlineStr"/>
       <c r="E733" t="inlineStr"/>
       <c r="F733" t="n">
-        <v>139.0416717529297</v>
+        <v>139.0416870117188</v>
       </c>
       <c r="G733" t="inlineStr"/>
       <c r="H733" t="inlineStr">
@@ -46745,16 +46745,16 @@
       <c r="AA733" t="inlineStr"/>
       <c r="AB733" t="inlineStr"/>
       <c r="AC733" t="n">
-        <v>139.6832750299763</v>
+        <v>139.6832903591765</v>
       </c>
       <c r="AD733" t="n">
-        <v>140.0188974963463</v>
+        <v>140.0189128623786</v>
       </c>
       <c r="AE733" t="n">
-        <v>137.7485846469387</v>
+        <v>137.7485997638211</v>
       </c>
       <c r="AF733" t="n">
-        <v>139.0416717529297</v>
+        <v>139.0416870117188</v>
       </c>
       <c r="AG733" t="n">
         <v>8034400</v>
@@ -46842,7 +46842,7 @@
       <c r="D735" t="inlineStr"/>
       <c r="E735" t="inlineStr"/>
       <c r="F735" t="n">
-        <v>69.08338928222656</v>
+        <v>69.08339691162109</v>
       </c>
       <c r="G735" t="inlineStr"/>
       <c r="H735" t="inlineStr">
@@ -46876,16 +46876,16 @@
       <c r="AF735" t="inlineStr"/>
       <c r="AG735" t="inlineStr"/>
       <c r="AH735" t="n">
-        <v>68.9666259518454</v>
+        <v>68.96663356834489</v>
       </c>
       <c r="AI735" t="n">
-        <v>69.17095621243041</v>
+        <v>69.17096385149561</v>
       </c>
       <c r="AJ735" t="n">
-        <v>67.96443149226252</v>
+        <v>67.96443899808219</v>
       </c>
       <c r="AK735" t="n">
-        <v>69.08338928222656</v>
+        <v>69.08339691162109</v>
       </c>
       <c r="AL735" t="n">
         <v>11342900</v>
@@ -47031,7 +47031,7 @@
       <c r="D738" t="inlineStr"/>
       <c r="E738" t="inlineStr"/>
       <c r="F738" t="n">
-        <v>71.28237915039062</v>
+        <v>71.28238677978516</v>
       </c>
       <c r="G738" t="inlineStr"/>
       <c r="H738" t="inlineStr">
@@ -47065,16 +47065,16 @@
       <c r="AF738" t="inlineStr"/>
       <c r="AG738" t="inlineStr"/>
       <c r="AH738" t="n">
-        <v>71.46724513225672</v>
+        <v>71.46725278143757</v>
       </c>
       <c r="AI738" t="n">
-        <v>71.48670939778509</v>
+        <v>71.4867170490492</v>
       </c>
       <c r="AJ738" t="n">
-        <v>70.72776635790788</v>
+        <v>70.72777392794188</v>
       </c>
       <c r="AK738" t="n">
-        <v>71.28237915039062</v>
+        <v>71.28238677978516</v>
       </c>
       <c r="AL738" t="n">
         <v>13742800</v>
@@ -47157,7 +47157,7 @@
       <c r="D740" t="inlineStr"/>
       <c r="E740" t="inlineStr"/>
       <c r="F740" t="n">
-        <v>70.80560302734375</v>
+        <v>70.80561065673828</v>
       </c>
       <c r="G740" t="inlineStr"/>
       <c r="H740" t="inlineStr">
@@ -47191,16 +47191,16 @@
       <c r="AF740" t="inlineStr"/>
       <c r="AG740" t="inlineStr"/>
       <c r="AH740" t="n">
-        <v>69.06392981192241</v>
+        <v>69.06393725364941</v>
       </c>
       <c r="AI740" t="n">
-        <v>71.02939754620125</v>
+        <v>71.02940519970993</v>
       </c>
       <c r="AJ740" t="n">
-        <v>69.06392981192241</v>
+        <v>69.06393725364941</v>
       </c>
       <c r="AK740" t="n">
-        <v>70.80560302734375</v>
+        <v>70.80561065673828</v>
       </c>
       <c r="AL740" t="n">
         <v>16720600</v>
@@ -47346,7 +47346,7 @@
       <c r="D743" t="inlineStr"/>
       <c r="E743" t="inlineStr"/>
       <c r="F743" t="n">
-        <v>76.39065551757812</v>
+        <v>76.39066314697266</v>
       </c>
       <c r="G743" t="inlineStr"/>
       <c r="H743" t="inlineStr">
@@ -47380,16 +47380,16 @@
       <c r="AF743" t="inlineStr"/>
       <c r="AG743" t="inlineStr"/>
       <c r="AH743" t="n">
-        <v>75.7290115531009</v>
+        <v>75.72901911641479</v>
       </c>
       <c r="AI743" t="n">
-        <v>76.63390686593826</v>
+        <v>76.63391451962713</v>
       </c>
       <c r="AJ743" t="n">
-        <v>75.66090147249774</v>
+        <v>75.66090902900925</v>
       </c>
       <c r="AK743" t="n">
-        <v>76.39065551757812</v>
+        <v>76.39066314697266</v>
       </c>
       <c r="AL743" t="n">
         <v>21463100</v>
@@ -47661,7 +47661,7 @@
       <c r="D748" t="inlineStr"/>
       <c r="E748" t="inlineStr"/>
       <c r="F748" t="n">
-        <v>79.28048706054688</v>
+        <v>79.28049468994141</v>
       </c>
       <c r="G748" t="inlineStr"/>
       <c r="H748" t="inlineStr">
@@ -47695,16 +47695,16 @@
       <c r="AF748" t="inlineStr"/>
       <c r="AG748" t="inlineStr"/>
       <c r="AH748" t="n">
-        <v>79.29021177013497</v>
+        <v>79.29021940046533</v>
       </c>
       <c r="AI748" t="n">
-        <v>79.90320995253683</v>
+        <v>79.90321764185782</v>
       </c>
       <c r="AJ748" t="n">
-        <v>79.14425946844679</v>
+        <v>79.14426708473174</v>
       </c>
       <c r="AK748" t="n">
-        <v>79.28048706054688</v>
+        <v>79.28049468994141</v>
       </c>
       <c r="AL748" t="n">
         <v>16025200</v>
@@ -47724,7 +47724,7 @@
       <c r="D749" t="inlineStr"/>
       <c r="E749" t="inlineStr"/>
       <c r="F749" t="n">
-        <v>78.88155364990234</v>
+        <v>78.88156127929688</v>
       </c>
       <c r="G749" t="inlineStr"/>
       <c r="H749" t="inlineStr">
@@ -47758,16 +47758,16 @@
       <c r="AF749" t="inlineStr"/>
       <c r="AG749" t="inlineStr"/>
       <c r="AH749" t="n">
-        <v>78.57019219449037</v>
+        <v>78.57019979377013</v>
       </c>
       <c r="AI749" t="n">
-        <v>79.21237937196406</v>
+        <v>79.21238703335594</v>
       </c>
       <c r="AJ749" t="n">
-        <v>78.05450047991204</v>
+        <v>78.05450802931428</v>
       </c>
       <c r="AK749" t="n">
-        <v>78.88155364990234</v>
+        <v>78.88156127929688</v>
       </c>
       <c r="AL749" t="n">
         <v>12782800</v>
@@ -47850,7 +47850,7 @@
       <c r="D751" t="inlineStr"/>
       <c r="E751" t="inlineStr"/>
       <c r="F751" t="n">
-        <v>78.45342254638672</v>
+        <v>78.45343780517578</v>
       </c>
       <c r="G751" t="inlineStr"/>
       <c r="H751" t="inlineStr">
@@ -47884,16 +47884,16 @@
       <c r="AF751" t="inlineStr"/>
       <c r="AG751" t="inlineStr"/>
       <c r="AH751" t="n">
-        <v>77.72366849809056</v>
+        <v>77.7236836149462</v>
       </c>
       <c r="AI751" t="n">
-        <v>79.39723896993382</v>
+        <v>79.39725441229034</v>
       </c>
       <c r="AJ751" t="n">
-        <v>77.72366849809056</v>
+        <v>77.7236836149462</v>
       </c>
       <c r="AK751" t="n">
-        <v>78.45342254638672</v>
+        <v>78.45343780517578</v>
       </c>
       <c r="AL751" t="n">
         <v>10573000</v>
@@ -47913,7 +47913,7 @@
       <c r="D752" t="inlineStr"/>
       <c r="E752" t="inlineStr"/>
       <c r="F752" t="n">
-        <v>79.65023803710938</v>
+        <v>79.65023040771484</v>
       </c>
       <c r="G752" t="inlineStr"/>
       <c r="H752" t="inlineStr">
@@ -47947,16 +47947,16 @@
       <c r="AF752" t="inlineStr"/>
       <c r="AG752" t="inlineStr"/>
       <c r="AH752" t="n">
-        <v>79.09562514882059</v>
+        <v>79.09561757255032</v>
       </c>
       <c r="AI752" t="n">
-        <v>80.38972436264226</v>
+        <v>80.38971666241513</v>
       </c>
       <c r="AJ752" t="n">
-        <v>78.80372050300817</v>
+        <v>78.80371295469834</v>
       </c>
       <c r="AK752" t="n">
-        <v>79.65023803710938</v>
+        <v>79.65023040771484</v>
       </c>
       <c r="AL752" t="n">
         <v>10775500</v>
@@ -48039,7 +48039,7 @@
       <c r="D754" t="inlineStr"/>
       <c r="E754" t="inlineStr"/>
       <c r="F754" t="n">
-        <v>77.99736785888672</v>
+        <v>77.99736022949219</v>
       </c>
       <c r="G754" t="inlineStr"/>
       <c r="H754" t="inlineStr">
@@ -48073,16 +48073,16 @@
       <c r="AF754" t="inlineStr"/>
       <c r="AG754" t="inlineStr"/>
       <c r="AH754" t="n">
-        <v>76.90985215400777</v>
+        <v>76.90984463098974</v>
       </c>
       <c r="AI754" t="n">
-        <v>78.29129385068856</v>
+        <v>78.29128619254335</v>
       </c>
       <c r="AJ754" t="n">
-        <v>75.33246477935808</v>
+        <v>75.33245741063385</v>
       </c>
       <c r="AK754" t="n">
-        <v>77.99736785888672</v>
+        <v>77.99736022949219</v>
       </c>
       <c r="AL754" t="n">
         <v>20998500</v>
@@ -48165,7 +48165,7 @@
       <c r="D756" t="inlineStr"/>
       <c r="E756" t="inlineStr"/>
       <c r="F756" t="n">
-        <v>77.85038757324219</v>
+        <v>77.85039520263672</v>
       </c>
       <c r="G756" t="inlineStr"/>
       <c r="H756" t="inlineStr">
@@ -48199,16 +48199,16 @@
       <c r="AF756" t="inlineStr"/>
       <c r="AG756" t="inlineStr"/>
       <c r="AH756" t="n">
-        <v>77.43889725598602</v>
+        <v>77.4389048450542</v>
       </c>
       <c r="AI756" t="n">
-        <v>77.98755101232757</v>
+        <v>77.98755865516422</v>
       </c>
       <c r="AJ756" t="n">
-        <v>76.62570867080348</v>
+        <v>76.62571618017859</v>
       </c>
       <c r="AK756" t="n">
-        <v>77.85038757324219</v>
+        <v>77.85039520263672</v>
       </c>
       <c r="AL756" t="n">
         <v>10736100</v>
@@ -48228,7 +48228,7 @@
       <c r="D757" t="inlineStr"/>
       <c r="E757" t="inlineStr"/>
       <c r="F757" t="n">
-        <v>80.66226196289062</v>
+        <v>80.66226959228516</v>
       </c>
       <c r="G757" t="inlineStr"/>
       <c r="H757" t="inlineStr">
@@ -48262,16 +48262,16 @@
       <c r="AF757" t="inlineStr"/>
       <c r="AG757" t="inlineStr"/>
       <c r="AH757" t="n">
-        <v>78.61459472417758</v>
+        <v>78.61460215989466</v>
       </c>
       <c r="AI757" t="n">
-        <v>80.82881651811603</v>
+        <v>80.82882416326404</v>
       </c>
       <c r="AJ757" t="n">
-        <v>78.3108767146668</v>
+        <v>78.3108841216569</v>
       </c>
       <c r="AK757" t="n">
-        <v>80.66226196289062</v>
+        <v>80.66226959228516</v>
       </c>
       <c r="AL757" t="n">
         <v>19545700</v>
@@ -48480,7 +48480,7 @@
       <c r="D761" t="inlineStr"/>
       <c r="E761" t="inlineStr"/>
       <c r="F761" t="n">
-        <v>79.62372589111328</v>
+        <v>79.62373352050781</v>
       </c>
       <c r="G761" t="inlineStr"/>
       <c r="H761" t="inlineStr">
@@ -48514,16 +48514,16 @@
       <c r="AF761" t="inlineStr"/>
       <c r="AG761" t="inlineStr"/>
       <c r="AH761" t="n">
-        <v>78.54600987534016</v>
+        <v>78.54601740146998</v>
       </c>
       <c r="AI761" t="n">
-        <v>79.64332494085949</v>
+        <v>79.64333257213195</v>
       </c>
       <c r="AJ761" t="n">
-        <v>78.38925485160732</v>
+        <v>78.38926236271716</v>
       </c>
       <c r="AK761" t="n">
-        <v>79.62372589111328</v>
+        <v>79.62373352050781</v>
       </c>
       <c r="AL761" t="n">
         <v>10448100</v>
@@ -48543,7 +48543,7 @@
       <c r="D762" t="inlineStr"/>
       <c r="E762" t="inlineStr"/>
       <c r="F762" t="n">
-        <v>80.43691253662109</v>
+        <v>80.43692016601562</v>
       </c>
       <c r="G762" t="inlineStr"/>
       <c r="H762" t="inlineStr">
@@ -48577,16 +48577,16 @@
       <c r="AF762" t="inlineStr"/>
       <c r="AG762" t="inlineStr"/>
       <c r="AH762" t="n">
-        <v>79.75109530948184</v>
+        <v>79.75110287382701</v>
       </c>
       <c r="AI762" t="n">
-        <v>80.46630363566318</v>
+        <v>80.46631126784544</v>
       </c>
       <c r="AJ762" t="n">
-        <v>79.14365185483911</v>
+        <v>79.14365936156861</v>
       </c>
       <c r="AK762" t="n">
-        <v>80.43691253662109</v>
+        <v>80.43692016601562</v>
       </c>
       <c r="AL762" t="n">
         <v>11108400</v>
@@ -49614,7 +49614,7 @@
       <c r="D779" t="inlineStr"/>
       <c r="E779" t="inlineStr"/>
       <c r="F779" t="n">
-        <v>66.13267517089844</v>
+        <v>66.13266754150391</v>
       </c>
       <c r="G779" t="inlineStr"/>
       <c r="H779" t="inlineStr">
@@ -49648,16 +49648,16 @@
       <c r="AF779" t="inlineStr"/>
       <c r="AG779" t="inlineStr"/>
       <c r="AH779" t="n">
-        <v>65.92692996734857</v>
+        <v>65.92692236168983</v>
       </c>
       <c r="AI779" t="n">
-        <v>67.08302740266339</v>
+        <v>67.0830196636315</v>
       </c>
       <c r="AJ779" t="n">
-        <v>64.82961474023415</v>
+        <v>64.82960726116715</v>
       </c>
       <c r="AK779" t="n">
-        <v>66.13267517089844</v>
+        <v>66.13266754150391</v>
       </c>
       <c r="AL779" t="n">
         <v>21269200</v>
@@ -49866,7 +49866,7 @@
       <c r="D783" t="inlineStr"/>
       <c r="E783" t="inlineStr"/>
       <c r="F783" t="n">
-        <v>68.52325439453125</v>
+        <v>68.52324676513672</v>
       </c>
       <c r="G783" t="inlineStr"/>
       <c r="H783" t="inlineStr">
@@ -49900,16 +49900,16 @@
       <c r="AF783" t="inlineStr"/>
       <c r="AG783" t="inlineStr"/>
       <c r="AH783" t="n">
-        <v>67.49452085551097</v>
+        <v>67.49451334065586</v>
       </c>
       <c r="AI783" t="n">
-        <v>68.93474482019984</v>
+        <v>68.93473714498988</v>
       </c>
       <c r="AJ783" t="n">
-        <v>67.28877564267667</v>
+        <v>67.28876815072928</v>
       </c>
       <c r="AK783" t="n">
-        <v>68.52325439453125</v>
+        <v>68.52324676513672</v>
       </c>
       <c r="AL783" t="n">
         <v>12531700</v>
@@ -50370,7 +50370,7 @@
       <c r="D791" t="inlineStr"/>
       <c r="E791" t="inlineStr"/>
       <c r="F791" t="n">
-        <v>70.39454650878906</v>
+        <v>70.39455413818359</v>
       </c>
       <c r="G791" t="inlineStr"/>
       <c r="H791" t="inlineStr">
@@ -50404,16 +50404,16 @@
       <c r="AF791" t="inlineStr"/>
       <c r="AG791" t="inlineStr"/>
       <c r="AH791" t="n">
-        <v>71.51145314426384</v>
+        <v>71.51146089470924</v>
       </c>
       <c r="AI791" t="n">
-        <v>71.51145314426384</v>
+        <v>71.51146089470924</v>
       </c>
       <c r="AJ791" t="n">
-        <v>70.30637320986347</v>
+        <v>70.30638082970174</v>
       </c>
       <c r="AK791" t="n">
-        <v>70.39454650878906</v>
+        <v>70.39455413818359</v>
       </c>
       <c r="AL791" t="n">
         <v>13155800</v>
@@ -50496,7 +50496,7 @@
       <c r="D793" t="inlineStr"/>
       <c r="E793" t="inlineStr"/>
       <c r="F793" t="n">
-        <v>69.55197906494141</v>
+        <v>69.55197143554688</v>
       </c>
       <c r="G793" t="inlineStr"/>
       <c r="H793" t="inlineStr">
@@ -50530,16 +50530,16 @@
       <c r="AF793" t="inlineStr"/>
       <c r="AG793" t="inlineStr"/>
       <c r="AH793" t="n">
-        <v>68.0921635508379</v>
+        <v>68.09215608157552</v>
       </c>
       <c r="AI793" t="n">
-        <v>69.75772427365274</v>
+        <v>69.75771662168933</v>
       </c>
       <c r="AJ793" t="n">
-        <v>67.02424687588159</v>
+        <v>67.02423952376266</v>
       </c>
       <c r="AK793" t="n">
-        <v>69.55197906494141</v>
+        <v>69.55197143554688</v>
       </c>
       <c r="AL793" t="n">
         <v>15568400</v>
@@ -50622,7 +50622,7 @@
       <c r="D795" t="inlineStr"/>
       <c r="E795" t="inlineStr"/>
       <c r="F795" t="n">
-        <v>70.30637359619141</v>
+        <v>70.30638122558594</v>
       </c>
       <c r="G795" t="inlineStr"/>
       <c r="H795" t="inlineStr">
@@ -50656,16 +50656,16 @@
       <c r="AF795" t="inlineStr"/>
       <c r="AG795" t="inlineStr"/>
       <c r="AH795" t="n">
-        <v>68.25870643667101</v>
+        <v>68.25871384386008</v>
       </c>
       <c r="AI795" t="n">
-        <v>70.50231924477876</v>
+        <v>70.50232689543661</v>
       </c>
       <c r="AJ795" t="n">
-        <v>68.1901247121807</v>
+        <v>68.19013211192753</v>
       </c>
       <c r="AK795" t="n">
-        <v>70.30637359619141</v>
+        <v>70.30638122558594</v>
       </c>
       <c r="AL795" t="n">
         <v>9731700</v>
@@ -50685,7 +50685,7 @@
       <c r="D796" t="inlineStr"/>
       <c r="E796" t="inlineStr"/>
       <c r="F796" t="n">
-        <v>61.77281188964844</v>
+        <v>61.77280807495117</v>
       </c>
       <c r="G796" t="inlineStr"/>
       <c r="H796" t="inlineStr">
@@ -50719,16 +50719,16 @@
       <c r="AF796" t="inlineStr"/>
       <c r="AG796" t="inlineStr"/>
       <c r="AH796" t="n">
-        <v>64.82960981902788</v>
+        <v>64.82960581556215</v>
       </c>
       <c r="AI796" t="n">
-        <v>65.4468528576711</v>
+        <v>65.44684881608836</v>
       </c>
       <c r="AJ796" t="n">
-        <v>61.62585264287885</v>
+        <v>61.62584883725686</v>
       </c>
       <c r="AK796" t="n">
-        <v>61.77281188964844</v>
+        <v>61.77280807495117</v>
       </c>
       <c r="AL796" t="n">
         <v>39469500</v>
@@ -50874,7 +50874,7 @@
       <c r="D799" t="inlineStr"/>
       <c r="E799" t="inlineStr"/>
       <c r="F799" t="n">
-        <v>57.57950592041016</v>
+        <v>57.57950973510742</v>
       </c>
       <c r="G799" t="inlineStr"/>
       <c r="H799" t="inlineStr">
@@ -50908,16 +50908,16 @@
       <c r="AF799" t="inlineStr"/>
       <c r="AG799" t="inlineStr"/>
       <c r="AH799" t="n">
-        <v>59.99947271985074</v>
+        <v>59.99947669487311</v>
       </c>
       <c r="AI799" t="n">
-        <v>61.39070621209001</v>
+        <v>61.39071027928293</v>
       </c>
       <c r="AJ799" t="n">
-        <v>56.40381338176834</v>
+        <v>56.40381711857485</v>
       </c>
       <c r="AK799" t="n">
-        <v>57.57950592041016</v>
+        <v>57.57950973510742</v>
       </c>
       <c r="AL799" t="n">
         <v>30272300</v>
@@ -51063,7 +51063,7 @@
       <c r="D802" t="inlineStr"/>
       <c r="E802" t="inlineStr"/>
       <c r="F802" t="n">
-        <v>60.39137268066406</v>
+        <v>60.3913688659668</v>
       </c>
       <c r="G802" t="inlineStr"/>
       <c r="H802" t="inlineStr">
@@ -51097,16 +51097,16 @@
       <c r="AF802" t="inlineStr"/>
       <c r="AG802" t="inlineStr"/>
       <c r="AH802" t="n">
-        <v>59.64676946316145</v>
+        <v>59.646765695498</v>
       </c>
       <c r="AI802" t="n">
-        <v>61.0478025945446</v>
+        <v>61.04779873838311</v>
       </c>
       <c r="AJ802" t="n">
-        <v>58.70621311286362</v>
+        <v>58.70620940461158</v>
       </c>
       <c r="AK802" t="n">
-        <v>60.39137268066406</v>
+        <v>60.3913688659668</v>
       </c>
       <c r="AL802" t="n">
         <v>24776000</v>
@@ -51441,7 +51441,7 @@
       <c r="D808" t="inlineStr"/>
       <c r="E808" t="inlineStr"/>
       <c r="F808" t="n">
-        <v>63.24242782592773</v>
+        <v>63.24242401123047</v>
       </c>
       <c r="G808" t="inlineStr"/>
       <c r="H808" t="inlineStr">
@@ -51475,16 +51475,16 @@
       <c r="AF808" t="inlineStr"/>
       <c r="AG808" t="inlineStr"/>
       <c r="AH808" t="n">
-        <v>62.23328976811909</v>
+        <v>62.23328601429166</v>
       </c>
       <c r="AI808" t="n">
-        <v>63.65391818426664</v>
+        <v>63.65391434474884</v>
       </c>
       <c r="AJ808" t="n">
-        <v>62.2234902429641</v>
+        <v>62.22348648972776</v>
       </c>
       <c r="AK808" t="n">
-        <v>63.24242782592773</v>
+        <v>63.24242401123047</v>
       </c>
       <c r="AL808" t="n">
         <v>13252300</v>
@@ -51504,7 +51504,7 @@
       <c r="D809" t="inlineStr"/>
       <c r="E809" t="inlineStr"/>
       <c r="F809" t="n">
-        <v>64.95697784423828</v>
+        <v>64.95698547363281</v>
       </c>
       <c r="G809" t="inlineStr"/>
       <c r="H809" t="inlineStr">
@@ -51538,16 +51538,16 @@
       <c r="AF809" t="inlineStr"/>
       <c r="AG809" t="inlineStr"/>
       <c r="AH809" t="n">
-        <v>65.12353239605514</v>
+        <v>65.12354004501201</v>
       </c>
       <c r="AI809" t="n">
-        <v>67.42592744569504</v>
+        <v>67.42593536507522</v>
       </c>
       <c r="AJ809" t="n">
-        <v>64.81981439275999</v>
+        <v>64.81982200604426</v>
       </c>
       <c r="AK809" t="n">
-        <v>64.95697784423828</v>
+        <v>64.95698547363281</v>
       </c>
       <c r="AL809" t="n">
         <v>17243900</v>
@@ -51693,7 +51693,7 @@
       <c r="D812" t="inlineStr"/>
       <c r="E812" t="inlineStr"/>
       <c r="F812" t="n">
-        <v>66.89687347412109</v>
+        <v>66.89686584472656</v>
       </c>
       <c r="G812" t="inlineStr"/>
       <c r="H812" t="inlineStr">
@@ -51727,16 +51727,16 @@
       <c r="AF812" t="inlineStr"/>
       <c r="AG812" t="inlineStr"/>
       <c r="AH812" t="n">
-        <v>67.26918072396779</v>
+        <v>67.26917305211271</v>
       </c>
       <c r="AI812" t="n">
-        <v>67.99418869626905</v>
+        <v>67.9941809417289</v>
       </c>
       <c r="AJ812" t="n">
-        <v>66.39720228213382</v>
+        <v>66.39719470972534</v>
       </c>
       <c r="AK812" t="n">
-        <v>66.89687347412109</v>
+        <v>66.89686584472656</v>
       </c>
       <c r="AL812" t="n">
         <v>14304800</v>
@@ -51819,7 +51819,7 @@
       <c r="D814" t="inlineStr"/>
       <c r="E814" t="inlineStr"/>
       <c r="F814" t="n">
-        <v>66.99484252929688</v>
+        <v>66.99483489990234</v>
       </c>
       <c r="G814" t="inlineStr"/>
       <c r="H814" t="inlineStr">
@@ -51853,16 +51853,16 @@
       <c r="AF814" t="inlineStr"/>
       <c r="AG814" t="inlineStr"/>
       <c r="AH814" t="n">
-        <v>66.14247066298593</v>
+        <v>66.14246313065978</v>
       </c>
       <c r="AI814" t="n">
-        <v>67.26917692547934</v>
+        <v>67.26916926484351</v>
       </c>
       <c r="AJ814" t="n">
-        <v>65.3684725778791</v>
+        <v>65.36846513369612</v>
       </c>
       <c r="AK814" t="n">
-        <v>66.99484252929688</v>
+        <v>66.99483489990234</v>
       </c>
       <c r="AL814" t="n">
         <v>15756500</v>
@@ -54528,7 +54528,7 @@
       <c r="D857" t="inlineStr"/>
       <c r="E857" t="inlineStr"/>
       <c r="F857" t="n">
-        <v>69.79336547851562</v>
+        <v>69.79337310791016</v>
       </c>
       <c r="G857" t="inlineStr"/>
       <c r="H857" t="inlineStr">
@@ -54567,16 +54567,16 @@
       <c r="AK857" t="inlineStr"/>
       <c r="AL857" t="inlineStr"/>
       <c r="AM857" t="n">
-        <v>68.85378380335729</v>
+        <v>68.85379133004236</v>
       </c>
       <c r="AN857" t="n">
-        <v>69.90102657883776</v>
+        <v>69.90103422000115</v>
       </c>
       <c r="AO857" t="n">
-        <v>68.25675678052782</v>
+        <v>68.25676424194944</v>
       </c>
       <c r="AP857" t="n">
-        <v>69.79336547851562</v>
+        <v>69.79337310791016</v>
       </c>
       <c r="AQ857" t="n">
         <v>9152800</v>
@@ -54654,7 +54654,7 @@
       <c r="D859" t="inlineStr"/>
       <c r="E859" t="inlineStr"/>
       <c r="F859" t="n">
-        <v>70.06741333007812</v>
+        <v>70.06742095947266</v>
       </c>
       <c r="G859" t="inlineStr"/>
       <c r="H859" t="inlineStr">
@@ -54693,16 +54693,16 @@
       <c r="AK859" t="inlineStr"/>
       <c r="AL859" t="inlineStr"/>
       <c r="AM859" t="n">
-        <v>71.41806813476866</v>
+        <v>71.41807591123124</v>
       </c>
       <c r="AN859" t="n">
-        <v>71.57466135629213</v>
+        <v>71.5746691498056</v>
       </c>
       <c r="AO859" t="n">
-        <v>69.9891204528823</v>
+        <v>69.9891280737518</v>
       </c>
       <c r="AP859" t="n">
-        <v>70.06741333007812</v>
+        <v>70.06742095947266</v>
       </c>
       <c r="AQ859" t="n">
         <v>13522000</v>
@@ -55095,7 +55095,7 @@
       <c r="D866" t="inlineStr"/>
       <c r="E866" t="inlineStr"/>
       <c r="F866" t="n">
-        <v>75.44066619873047</v>
+        <v>75.440673828125</v>
       </c>
       <c r="G866" t="inlineStr"/>
       <c r="H866" t="inlineStr">
@@ -55134,16 +55134,16 @@
       <c r="AK866" t="inlineStr"/>
       <c r="AL866" t="inlineStr"/>
       <c r="AM866" t="n">
-        <v>74.36406246580414</v>
+        <v>74.36406998632059</v>
       </c>
       <c r="AN866" t="n">
-        <v>75.60704885069133</v>
+        <v>75.60705649691231</v>
       </c>
       <c r="AO866" t="n">
-        <v>73.89426780876629</v>
+        <v>73.89427528177191</v>
       </c>
       <c r="AP866" t="n">
-        <v>75.44066619873047</v>
+        <v>75.440673828125</v>
       </c>
       <c r="AQ866" t="n">
         <v>20673700</v>
@@ -55410,7 +55410,7 @@
       <c r="D871" t="inlineStr"/>
       <c r="E871" t="inlineStr"/>
       <c r="F871" t="n">
-        <v>76.28237152099609</v>
+        <v>76.28236389160156</v>
       </c>
       <c r="G871" t="inlineStr"/>
       <c r="H871" t="inlineStr">
@@ -55449,16 +55449,16 @@
       <c r="AK871" t="inlineStr"/>
       <c r="AL871" t="inlineStr"/>
       <c r="AM871" t="n">
-        <v>75.75385536536854</v>
+        <v>75.75384778883364</v>
       </c>
       <c r="AN871" t="n">
-        <v>76.38024322378662</v>
+        <v>76.38023558460343</v>
       </c>
       <c r="AO871" t="n">
-        <v>75.2546999738649</v>
+        <v>75.25469244725311</v>
       </c>
       <c r="AP871" t="n">
-        <v>76.28237152099609</v>
+        <v>76.28236389160156</v>
       </c>
       <c r="AQ871" t="n">
         <v>10637100</v>
@@ -55536,7 +55536,7 @@
       <c r="D873" t="inlineStr"/>
       <c r="E873" t="inlineStr"/>
       <c r="F873" t="n">
-        <v>76.70322418212891</v>
+        <v>76.70323181152344</v>
       </c>
       <c r="G873" t="inlineStr"/>
       <c r="H873" t="inlineStr">
@@ -55575,16 +55575,16 @@
       <c r="AK873" t="inlineStr"/>
       <c r="AL873" t="inlineStr"/>
       <c r="AM873" t="n">
-        <v>76.0964076962549</v>
+        <v>76.09641526529157</v>
       </c>
       <c r="AN873" t="n">
-        <v>77.30025125788809</v>
+        <v>77.30025894666676</v>
       </c>
       <c r="AO873" t="n">
-        <v>75.95938582317561</v>
+        <v>75.95939337858321</v>
       </c>
       <c r="AP873" t="n">
-        <v>76.70322418212891</v>
+        <v>76.70323181152344</v>
       </c>
       <c r="AQ873" t="n">
         <v>9175400</v>
@@ -55599,7 +55599,7 @@
       <c r="D874" t="inlineStr"/>
       <c r="E874" t="inlineStr"/>
       <c r="F874" t="n">
-        <v>77.14364624023438</v>
+        <v>77.14365386962891</v>
       </c>
       <c r="G874" t="inlineStr"/>
       <c r="H874" t="inlineStr">
@@ -55638,16 +55638,16 @@
       <c r="AK874" t="inlineStr"/>
       <c r="AL874" t="inlineStr"/>
       <c r="AM874" t="n">
-        <v>77.46662955172992</v>
+        <v>77.46663721306703</v>
       </c>
       <c r="AN874" t="n">
-        <v>77.55471183642963</v>
+        <v>77.55471950647797</v>
       </c>
       <c r="AO874" t="n">
-        <v>76.41938674210962</v>
+        <v>76.41939429987595</v>
       </c>
       <c r="AP874" t="n">
-        <v>77.14364624023438</v>
+        <v>77.14365386962891</v>
       </c>
       <c r="AQ874" t="n">
         <v>11276000</v>
@@ -55725,7 +55725,7 @@
       <c r="D876" t="inlineStr"/>
       <c r="E876" t="inlineStr"/>
       <c r="F876" t="n">
-        <v>76.47811126708984</v>
+        <v>76.47811889648438</v>
       </c>
       <c r="G876" t="inlineStr"/>
       <c r="H876" t="inlineStr">
@@ -55764,16 +55764,16 @@
       <c r="AK876" t="inlineStr"/>
       <c r="AL876" t="inlineStr"/>
       <c r="AM876" t="n">
-        <v>75.58746910704146</v>
+        <v>75.58747664758624</v>
       </c>
       <c r="AN876" t="n">
-        <v>76.84024476393215</v>
+        <v>76.84025242945283</v>
       </c>
       <c r="AO876" t="n">
-        <v>75.38192883374452</v>
+        <v>75.38193635378478</v>
       </c>
       <c r="AP876" t="n">
-        <v>76.47811126708984</v>
+        <v>76.47811889648438</v>
       </c>
       <c r="AQ876" t="n">
         <v>12395200</v>
@@ -56166,7 +56166,7 @@
       <c r="D883" t="inlineStr"/>
       <c r="E883" t="inlineStr"/>
       <c r="F883" t="n">
-        <v>77.94744873046875</v>
+        <v>77.94745635986328</v>
       </c>
       <c r="G883" t="inlineStr"/>
       <c r="H883" t="inlineStr">
@@ -56205,16 +56205,16 @@
       <c r="AK883" t="inlineStr"/>
       <c r="AL883" t="inlineStr"/>
       <c r="AM883" t="n">
-        <v>77.89826752777778</v>
+        <v>77.89827515235852</v>
       </c>
       <c r="AN883" t="n">
-        <v>78.40972502137114</v>
+        <v>78.40973269601267</v>
       </c>
       <c r="AO883" t="n">
-        <v>77.53435364225732</v>
+        <v>77.53436123121864</v>
       </c>
       <c r="AP883" t="n">
-        <v>77.94744873046875</v>
+        <v>77.94745635986328</v>
       </c>
       <c r="AQ883" t="n">
         <v>13440500</v>
@@ -56229,7 +56229,7 @@
       <c r="D884" t="inlineStr"/>
       <c r="E884" t="inlineStr"/>
       <c r="F884" t="n">
-        <v>77.55401611328125</v>
+        <v>77.55402374267578</v>
       </c>
       <c r="G884" t="inlineStr"/>
       <c r="H884" t="inlineStr">
@@ -56268,16 +56268,16 @@
       <c r="AK884" t="inlineStr"/>
       <c r="AL884" t="inlineStr"/>
       <c r="AM884" t="n">
-        <v>78.1244850063924</v>
+        <v>78.12449269190695</v>
       </c>
       <c r="AN884" t="n">
-        <v>78.350708017108</v>
+        <v>78.35071572487729</v>
       </c>
       <c r="AO884" t="n">
-        <v>77.31796286592393</v>
+        <v>77.31797047209668</v>
       </c>
       <c r="AP884" t="n">
-        <v>77.55401611328125</v>
+        <v>77.55402374267578</v>
       </c>
       <c r="AQ884" t="n">
         <v>10093400</v>
@@ -56607,7 +56607,7 @@
       <c r="D890" t="inlineStr"/>
       <c r="E890" t="inlineStr"/>
       <c r="F890" t="n">
-        <v>75.95082092285156</v>
+        <v>75.95081329345703</v>
       </c>
       <c r="G890" t="inlineStr"/>
       <c r="H890" t="inlineStr">
@@ -56646,16 +56646,16 @@
       <c r="AK890" t="inlineStr"/>
       <c r="AL890" t="inlineStr"/>
       <c r="AM890" t="n">
-        <v>76.68849399707662</v>
+        <v>76.68848629358152</v>
       </c>
       <c r="AN890" t="n">
-        <v>77.22944974910919</v>
+        <v>77.22944199127413</v>
       </c>
       <c r="AO890" t="n">
-        <v>75.15413640396804</v>
+        <v>75.15412885460188</v>
       </c>
       <c r="AP890" t="n">
-        <v>75.95082092285156</v>
+        <v>75.95081329345703</v>
       </c>
       <c r="AQ890" t="n">
         <v>12989700</v>
@@ -56859,7 +56859,7 @@
       <c r="D894" t="inlineStr"/>
       <c r="E894" t="inlineStr"/>
       <c r="F894" t="n">
-        <v>77.03273773193359</v>
+        <v>77.03273010253906</v>
       </c>
       <c r="G894" t="inlineStr"/>
       <c r="H894" t="inlineStr">
@@ -56898,16 +56898,16 @@
       <c r="AK894" t="inlineStr"/>
       <c r="AL894" t="inlineStr"/>
       <c r="AM894" t="n">
-        <v>75.77377692183431</v>
+        <v>75.77376941712845</v>
       </c>
       <c r="AN894" t="n">
-        <v>77.13109263822291</v>
+        <v>77.13108499908722</v>
       </c>
       <c r="AO894" t="n">
-        <v>75.33116858753488</v>
+        <v>75.33116112666535</v>
       </c>
       <c r="AP894" t="n">
-        <v>77.03273773193359</v>
+        <v>77.03273010253906</v>
       </c>
       <c r="AQ894" t="n">
         <v>24698800</v>
@@ -56922,7 +56922,7 @@
       <c r="D895" t="inlineStr"/>
       <c r="E895" t="inlineStr"/>
       <c r="F895" t="n">
-        <v>75.76393127441406</v>
+        <v>75.76393890380859</v>
       </c>
       <c r="G895" t="inlineStr"/>
       <c r="H895" t="inlineStr">
@@ -56961,16 +56961,16 @@
       <c r="AK895" t="inlineStr"/>
       <c r="AL895" t="inlineStr"/>
       <c r="AM895" t="n">
-        <v>77.56385513728894</v>
+        <v>77.56386294793501</v>
       </c>
       <c r="AN895" t="n">
-        <v>77.68188551491924</v>
+        <v>77.68189333745092</v>
       </c>
       <c r="AO895" t="n">
-        <v>75.06560175742931</v>
+        <v>75.06560931650236</v>
       </c>
       <c r="AP895" t="n">
-        <v>75.76393127441406</v>
+        <v>75.76393890380859</v>
       </c>
       <c r="AQ895" t="n">
         <v>18013400</v>
@@ -57048,7 +57048,7 @@
       <c r="D897" t="inlineStr"/>
       <c r="E897" t="inlineStr"/>
       <c r="F897" t="n">
-        <v>72.94111633300781</v>
+        <v>72.94110870361328</v>
       </c>
       <c r="G897" t="inlineStr"/>
       <c r="H897" t="inlineStr">
@@ -57087,16 +57087,16 @@
       <c r="AK897" t="inlineStr"/>
       <c r="AL897" t="inlineStr"/>
       <c r="AM897" t="n">
-        <v>72.00672594745697</v>
+        <v>72.00671841579653</v>
       </c>
       <c r="AN897" t="n">
-        <v>73.40338515078733</v>
+        <v>73.40337747304105</v>
       </c>
       <c r="AO897" t="n">
-        <v>71.24938490181962</v>
+        <v>71.24937744937448</v>
       </c>
       <c r="AP897" t="n">
-        <v>72.94111633300781</v>
+        <v>72.94110870361328</v>
       </c>
       <c r="AQ897" t="n">
         <v>20422000</v>
@@ -57237,7 +57237,7 @@
       <c r="D900" t="inlineStr"/>
       <c r="E900" t="inlineStr"/>
       <c r="F900" t="n">
-        <v>65.68241119384766</v>
+        <v>65.68240356445312</v>
       </c>
       <c r="G900" t="inlineStr"/>
       <c r="H900" t="inlineStr">
@@ -57276,16 +57276,16 @@
       <c r="AK900" t="inlineStr"/>
       <c r="AL900" t="inlineStr"/>
       <c r="AM900" t="n">
-        <v>68.40688802760434</v>
+        <v>68.40688008174597</v>
       </c>
       <c r="AN900" t="n">
-        <v>68.40688802760434</v>
+        <v>68.40688008174597</v>
       </c>
       <c r="AO900" t="n">
-        <v>64.44311829283201</v>
+        <v>64.44311080738856</v>
       </c>
       <c r="AP900" t="n">
-        <v>65.68241119384766</v>
+        <v>65.68240356445312</v>
       </c>
       <c r="AQ900" t="n">
         <v>27582900</v>
@@ -57552,7 +57552,7 @@
       <c r="D905" t="inlineStr"/>
       <c r="E905" t="inlineStr"/>
       <c r="F905" t="n">
-        <v>69.67567443847656</v>
+        <v>69.67566680908203</v>
       </c>
       <c r="G905" t="inlineStr"/>
       <c r="H905" t="inlineStr">
@@ -57591,16 +57591,16 @@
       <c r="AK905" t="inlineStr"/>
       <c r="AL905" t="inlineStr"/>
       <c r="AM905" t="n">
-        <v>69.31176053867878</v>
+        <v>69.31175294913234</v>
       </c>
       <c r="AN905" t="n">
-        <v>70.38384176262116</v>
+        <v>70.38383405568324</v>
       </c>
       <c r="AO905" t="n">
-        <v>68.9281711554335</v>
+        <v>68.9281636078896</v>
       </c>
       <c r="AP905" t="n">
-        <v>69.67567443847656</v>
+        <v>69.67566680908203</v>
       </c>
       <c r="AQ905" t="n">
         <v>11185000</v>
@@ -57615,7 +57615,7 @@
       <c r="D906" t="inlineStr"/>
       <c r="E906" t="inlineStr"/>
       <c r="F906" t="n">
-        <v>69.94123077392578</v>
+        <v>69.94123840332031</v>
       </c>
       <c r="G906" t="inlineStr"/>
       <c r="H906" t="inlineStr">
@@ -57654,16 +57654,16 @@
       <c r="AK906" t="inlineStr"/>
       <c r="AL906" t="inlineStr"/>
       <c r="AM906" t="n">
-        <v>69.84287588297497</v>
+        <v>69.84288350164066</v>
       </c>
       <c r="AN906" t="n">
-        <v>70.3051521248407</v>
+        <v>70.30515979393284</v>
       </c>
       <c r="AO906" t="n">
-        <v>69.2330635526844</v>
+        <v>69.23307110482997</v>
       </c>
       <c r="AP906" t="n">
-        <v>69.94123077392578</v>
+        <v>69.94123840332031</v>
       </c>
       <c r="AQ906" t="n">
         <v>11102100</v>
@@ -57678,7 +57678,7 @@
       <c r="D907" t="inlineStr"/>
       <c r="E907" t="inlineStr"/>
       <c r="F907" t="n">
-        <v>71.56411743164062</v>
+        <v>71.56412506103516</v>
       </c>
       <c r="G907" t="inlineStr"/>
       <c r="H907" t="inlineStr">
@@ -57717,16 +57717,16 @@
       <c r="AK907" t="inlineStr"/>
       <c r="AL907" t="inlineStr"/>
       <c r="AM907" t="n">
-        <v>69.97074107935698</v>
+        <v>69.9707485388829</v>
       </c>
       <c r="AN907" t="n">
-        <v>72.61653059222367</v>
+        <v>72.61653833381516</v>
       </c>
       <c r="AO907" t="n">
-        <v>69.66583864621538</v>
+        <v>69.6658460732359</v>
       </c>
       <c r="AP907" t="n">
-        <v>71.56411743164062</v>
+        <v>71.56412506103516</v>
       </c>
       <c r="AQ907" t="n">
         <v>14453200</v>
@@ -57741,7 +57741,7 @@
       <c r="D908" t="inlineStr"/>
       <c r="E908" t="inlineStr"/>
       <c r="F908" t="n">
-        <v>71.32806396484375</v>
+        <v>71.32805633544922</v>
       </c>
       <c r="G908" t="inlineStr"/>
       <c r="H908" t="inlineStr">
@@ -57780,16 +57780,16 @@
       <c r="AK908" t="inlineStr"/>
       <c r="AL908" t="inlineStr"/>
       <c r="AM908" t="n">
-        <v>70.6592400885491</v>
+        <v>70.65923253069332</v>
       </c>
       <c r="AN908" t="n">
-        <v>72.1640994382109</v>
+        <v>72.16409171939232</v>
       </c>
       <c r="AO908" t="n">
-        <v>70.60022864487553</v>
+        <v>70.60022109333174</v>
       </c>
       <c r="AP908" t="n">
-        <v>71.32806396484375</v>
+        <v>71.32805633544922</v>
       </c>
       <c r="AQ908" t="n">
         <v>12388300</v>
@@ -57804,7 +57804,7 @@
       <c r="D909" t="inlineStr"/>
       <c r="E909" t="inlineStr"/>
       <c r="F909" t="n">
-        <v>71.32806396484375</v>
+        <v>71.32805633544922</v>
       </c>
       <c r="G909" t="inlineStr"/>
       <c r="H909" t="inlineStr">
@@ -57843,16 +57843,16 @@
       <c r="AK909" t="inlineStr"/>
       <c r="AL909" t="inlineStr"/>
       <c r="AM909" t="n">
-        <v>70.77727047989465</v>
+        <v>70.77726290941411</v>
       </c>
       <c r="AN909" t="n">
-        <v>71.58379272742658</v>
+        <v>71.58378507067879</v>
       </c>
       <c r="AO909" t="n">
-        <v>69.9805859743078</v>
+        <v>69.98057848904224</v>
       </c>
       <c r="AP909" t="n">
-        <v>71.32806396484375</v>
+        <v>71.32805633544922</v>
       </c>
       <c r="AQ909" t="n">
         <v>32647100</v>
@@ -57867,7 +57867,7 @@
       <c r="D910" t="inlineStr"/>
       <c r="E910" t="inlineStr"/>
       <c r="F910" t="n">
-        <v>73.05912780761719</v>
+        <v>73.05913543701172</v>
       </c>
       <c r="G910" t="inlineStr"/>
       <c r="H910" t="inlineStr">
@@ -57906,16 +57906,16 @@
       <c r="AK910" t="inlineStr"/>
       <c r="AL910" t="inlineStr"/>
       <c r="AM910" t="n">
-        <v>72.42964749025678</v>
+        <v>72.42965505391615</v>
       </c>
       <c r="AN910" t="n">
-        <v>73.30501879108601</v>
+        <v>73.30502644615837</v>
       </c>
       <c r="AO910" t="n">
-        <v>72.13457530849527</v>
+        <v>72.13458284134094</v>
       </c>
       <c r="AP910" t="n">
-        <v>73.05912780761719</v>
+        <v>73.05913543701172</v>
       </c>
       <c r="AQ910" t="n">
         <v>10688900</v>
@@ -58056,7 +58056,7 @@
       <c r="D913" t="inlineStr"/>
       <c r="E913" t="inlineStr"/>
       <c r="F913" t="n">
-        <v>71.09200286865234</v>
+        <v>71.09201049804688</v>
       </c>
       <c r="G913" t="inlineStr"/>
       <c r="H913" t="inlineStr">
@@ -58095,16 +58095,16 @@
       <c r="AK913" t="inlineStr"/>
       <c r="AL913" t="inlineStr"/>
       <c r="AM913" t="n">
-        <v>72.36080129610198</v>
+        <v>72.3608090616604</v>
       </c>
       <c r="AN913" t="n">
-        <v>72.36080129610198</v>
+        <v>72.3608090616604</v>
       </c>
       <c r="AO913" t="n">
-        <v>71.03299143146786</v>
+        <v>71.03299905452944</v>
       </c>
       <c r="AP913" t="n">
-        <v>71.09200286865234</v>
+        <v>71.09201049804688</v>
       </c>
       <c r="AQ913" t="n">
         <v>10457600</v>
@@ -58245,7 +58245,7 @@
       <c r="D916" t="inlineStr"/>
       <c r="E916" t="inlineStr"/>
       <c r="F916" t="n">
-        <v>70.13794708251953</v>
+        <v>70.13795471191406</v>
       </c>
       <c r="G916" t="inlineStr"/>
       <c r="H916" t="inlineStr">
@@ -58284,16 +58284,16 @@
       <c r="AK916" t="inlineStr"/>
       <c r="AL916" t="inlineStr"/>
       <c r="AM916" t="n">
-        <v>69.67567079763663</v>
+        <v>69.67567837674615</v>
       </c>
       <c r="AN916" t="n">
-        <v>70.45268726524863</v>
+        <v>70.45269492887965</v>
       </c>
       <c r="AO916" t="n">
-        <v>68.95767327328487</v>
+        <v>68.95768077429278</v>
       </c>
       <c r="AP916" t="n">
-        <v>70.13794708251953</v>
+        <v>70.13795471191406</v>
       </c>
       <c r="AQ916" t="n">
         <v>10661000</v>
@@ -58308,7 +58308,7 @@
       <c r="D917" t="inlineStr"/>
       <c r="E917" t="inlineStr"/>
       <c r="F917" t="n">
-        <v>71.07234191894531</v>
+        <v>71.07233428955078</v>
       </c>
       <c r="G917" t="inlineStr"/>
       <c r="H917" t="inlineStr">
@@ -58347,16 +58347,16 @@
       <c r="AK917" t="inlineStr"/>
       <c r="AL917" t="inlineStr"/>
       <c r="AM917" t="n">
-        <v>69.40027849473198</v>
+        <v>69.40027104482823</v>
       </c>
       <c r="AN917" t="n">
-        <v>71.27888947351316</v>
+        <v>71.2788818219464</v>
       </c>
       <c r="AO917" t="n">
-        <v>69.06587031228831</v>
+        <v>69.06586289828225</v>
       </c>
       <c r="AP917" t="n">
-        <v>71.07234191894531</v>
+        <v>71.07233428955078</v>
       </c>
       <c r="AQ917" t="n">
         <v>8854100</v>
@@ -58560,7 +58560,7 @@
       <c r="D921" t="inlineStr"/>
       <c r="E921" t="inlineStr"/>
       <c r="F921" t="n">
-        <v>61.05965805053711</v>
+        <v>61.05966186523438</v>
       </c>
       <c r="G921" t="inlineStr"/>
       <c r="H921" t="inlineStr">
@@ -58599,16 +58599,16 @@
       <c r="AK921" t="inlineStr"/>
       <c r="AL921" t="inlineStr"/>
       <c r="AM921" t="n">
-        <v>63.62676082243231</v>
+        <v>63.62676479750911</v>
       </c>
       <c r="AN921" t="n">
-        <v>64.55130592710083</v>
+        <v>64.55130995993852</v>
       </c>
       <c r="AO921" t="n">
-        <v>59.87938043964288</v>
+        <v>59.87938418060239</v>
       </c>
       <c r="AP921" t="n">
-        <v>61.05965805053711</v>
+        <v>61.05966186523438</v>
       </c>
       <c r="AQ921" t="n">
         <v>27374200</v>
@@ -58623,7 +58623,7 @@
       <c r="D922" t="inlineStr"/>
       <c r="E922" t="inlineStr"/>
       <c r="F922" t="n">
-        <v>65.23979949951172</v>
+        <v>65.23980712890625</v>
       </c>
       <c r="G922" t="inlineStr"/>
       <c r="H922" t="inlineStr">
@@ -58662,16 +58662,16 @@
       <c r="AK922" t="inlineStr"/>
       <c r="AL922" t="inlineStr"/>
       <c r="AM922" t="n">
-        <v>59.64331814595206</v>
+        <v>59.6433251208724</v>
       </c>
       <c r="AN922" t="n">
-        <v>66.0856651084363</v>
+        <v>66.08567283674962</v>
       </c>
       <c r="AO922" t="n">
-        <v>58.4532066506041</v>
+        <v>58.45321348634821</v>
       </c>
       <c r="AP922" t="n">
-        <v>65.23979949951172</v>
+        <v>65.23980712890625</v>
       </c>
       <c r="AQ922" t="n">
         <v>42744800</v>
@@ -58686,7 +58686,7 @@
       <c r="D923" t="inlineStr"/>
       <c r="E923" t="inlineStr"/>
       <c r="F923" t="n">
-        <v>62.07272720336914</v>
+        <v>62.07273101806641</v>
       </c>
       <c r="G923" t="inlineStr"/>
       <c r="H923" t="inlineStr">
@@ -58725,16 +58725,16 @@
       <c r="AK923" t="inlineStr"/>
       <c r="AL923" t="inlineStr"/>
       <c r="AM923" t="n">
-        <v>63.88248143617688</v>
+        <v>63.88248536209311</v>
       </c>
       <c r="AN923" t="n">
-        <v>63.93166263980675</v>
+        <v>63.93166656874543</v>
       </c>
       <c r="AO923" t="n">
-        <v>60.47935450813677</v>
+        <v>60.47935822491286</v>
       </c>
       <c r="AP923" t="n">
-        <v>62.07272720336914</v>
+        <v>62.07273101806641</v>
       </c>
       <c r="AQ923" t="n">
         <v>29026000</v>
@@ -58749,7 +58749,7 @@
       <c r="D924" t="inlineStr"/>
       <c r="E924" t="inlineStr"/>
       <c r="F924" t="n">
-        <v>61.48258590698242</v>
+        <v>61.48258209228516</v>
       </c>
       <c r="G924" t="inlineStr"/>
       <c r="H924" t="inlineStr">
@@ -58788,16 +58788,16 @@
       <c r="AK924" t="inlineStr"/>
       <c r="AL924" t="inlineStr"/>
       <c r="AM924" t="n">
-        <v>60.5285313485813</v>
+        <v>60.52852759307851</v>
       </c>
       <c r="AN924" t="n">
-        <v>62.57434258135805</v>
+        <v>62.57433869892255</v>
       </c>
       <c r="AO924" t="n">
-        <v>58.66959593091428</v>
+        <v>58.66959229074943</v>
       </c>
       <c r="AP924" t="n">
-        <v>61.48258590698242</v>
+        <v>61.48258209228516</v>
       </c>
       <c r="AQ924" t="n">
         <v>33867000</v>
@@ -58938,7 +58938,7 @@
       <c r="D927" t="inlineStr"/>
       <c r="E927" t="inlineStr"/>
       <c r="F927" t="n">
-        <v>62.92842483520508</v>
+        <v>62.92842864990234</v>
       </c>
       <c r="G927" t="inlineStr"/>
       <c r="H927" t="inlineStr">
@@ -58977,16 +58977,16 @@
       <c r="AK927" t="inlineStr"/>
       <c r="AL927" t="inlineStr"/>
       <c r="AM927" t="n">
-        <v>62.83990392432971</v>
+        <v>62.83990773366088</v>
       </c>
       <c r="AN927" t="n">
-        <v>63.91199259604185</v>
+        <v>63.91199647036262</v>
       </c>
       <c r="AO927" t="n">
-        <v>62.32845018949416</v>
+        <v>62.3284539678212</v>
       </c>
       <c r="AP927" t="n">
-        <v>62.92842483520508</v>
+        <v>62.92842864990234</v>
       </c>
       <c r="AQ927" t="n">
         <v>17351000</v>
@@ -59064,7 +59064,7 @@
       <c r="D929" t="inlineStr"/>
       <c r="E929" t="inlineStr"/>
       <c r="F929" t="n">
-        <v>62.95793151855469</v>
+        <v>62.95793533325195</v>
       </c>
       <c r="G929" t="inlineStr"/>
       <c r="H929" t="inlineStr">
@@ -59103,16 +59103,16 @@
       <c r="AK929" t="inlineStr"/>
       <c r="AL929" t="inlineStr"/>
       <c r="AM929" t="n">
-        <v>63.14480356923915</v>
+        <v>63.14480739525922</v>
       </c>
       <c r="AN929" t="n">
-        <v>64.08903157942372</v>
+        <v>64.08903546265572</v>
       </c>
       <c r="AO929" t="n">
-        <v>62.35795689941539</v>
+        <v>62.35796067775946</v>
       </c>
       <c r="AP929" t="n">
-        <v>62.95793151855469</v>
+        <v>62.95793533325195</v>
       </c>
       <c r="AQ929" t="n">
         <v>17859100</v>
@@ -59127,7 +59127,7 @@
       <c r="D930" t="inlineStr"/>
       <c r="E930" t="inlineStr"/>
       <c r="F930" t="n">
-        <v>65.14145660400391</v>
+        <v>65.14144897460938</v>
       </c>
       <c r="G930" t="inlineStr"/>
       <c r="H930" t="inlineStr">
@@ -59166,16 +59166,16 @@
       <c r="AK930" t="inlineStr"/>
       <c r="AL930" t="inlineStr"/>
       <c r="AM930" t="n">
-        <v>63.6464349018489</v>
+        <v>63.64642744755193</v>
       </c>
       <c r="AN930" t="n">
-        <v>65.3184984502065</v>
+        <v>65.31849080007676</v>
       </c>
       <c r="AO930" t="n">
-        <v>63.6464349018489</v>
+        <v>63.64642744755193</v>
       </c>
       <c r="AP930" t="n">
-        <v>65.14145660400391</v>
+        <v>65.14144897460938</v>
       </c>
       <c r="AQ930" t="n">
         <v>17536600</v>
@@ -59253,7 +59253,7 @@
       <c r="D932" t="inlineStr"/>
       <c r="E932" t="inlineStr"/>
       <c r="F932" t="n">
-        <v>68.41670989990234</v>
+        <v>68.41670227050781</v>
       </c>
       <c r="G932" t="inlineStr"/>
       <c r="H932" t="inlineStr">
@@ -59292,16 +59292,16 @@
       <c r="AK932" t="inlineStr"/>
       <c r="AL932" t="inlineStr"/>
       <c r="AM932" t="n">
-        <v>66.58728024725075</v>
+        <v>66.58727282186253</v>
       </c>
       <c r="AN932" t="n">
-        <v>68.70194436230479</v>
+        <v>68.70193670110272</v>
       </c>
       <c r="AO932" t="n">
-        <v>66.39057044752388</v>
+        <v>66.3905630440715</v>
       </c>
       <c r="AP932" t="n">
-        <v>68.41670989990234</v>
+        <v>68.41670227050781</v>
       </c>
       <c r="AQ932" t="n">
         <v>18420900</v>
@@ -59316,7 +59316,7 @@
       <c r="D933" t="inlineStr"/>
       <c r="E933" t="inlineStr"/>
       <c r="F933" t="n">
-        <v>68.58391571044922</v>
+        <v>68.58392333984375</v>
       </c>
       <c r="G933" t="inlineStr"/>
       <c r="H933" t="inlineStr">
@@ -59355,16 +59355,16 @@
       <c r="AK933" t="inlineStr"/>
       <c r="AL933" t="inlineStr"/>
       <c r="AM933" t="n">
-        <v>67.93475991880253</v>
+        <v>67.93476747598382</v>
       </c>
       <c r="AN933" t="n">
-        <v>69.03635421493152</v>
+        <v>69.0363618946561</v>
       </c>
       <c r="AO933" t="n">
-        <v>67.86591074429428</v>
+        <v>67.86591829381669</v>
       </c>
       <c r="AP933" t="n">
-        <v>68.58391571044922</v>
+        <v>68.58392333984375</v>
       </c>
       <c r="AQ933" t="n">
         <v>17775900</v>
@@ -59505,7 +59505,7 @@
       <c r="D936" t="inlineStr"/>
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="n">
-        <v>69.84288787841797</v>
+        <v>69.84288024902344</v>
       </c>
       <c r="G936" t="inlineStr"/>
       <c r="H936" t="inlineStr">
@@ -59544,16 +59544,16 @@
       <c r="AK936" t="inlineStr"/>
       <c r="AL936" t="inlineStr"/>
       <c r="AM936" t="n">
-        <v>68.52490810052437</v>
+        <v>68.52490061510137</v>
       </c>
       <c r="AN936" t="n">
-        <v>70.23631501378912</v>
+        <v>70.23630734141797</v>
       </c>
       <c r="AO936" t="n">
-        <v>68.19049991305789</v>
+        <v>68.19049246416449</v>
       </c>
       <c r="AP936" t="n">
-        <v>69.84288787841797</v>
+        <v>69.84288024902344</v>
       </c>
       <c r="AQ936" t="n">
         <v>23953000</v>
@@ -59631,7 +59631,7 @@
       <c r="D938" t="inlineStr"/>
       <c r="E938" t="inlineStr"/>
       <c r="F938" t="n">
-        <v>72.58702850341797</v>
+        <v>72.5870361328125</v>
       </c>
       <c r="G938" t="inlineStr"/>
       <c r="H938" t="inlineStr">
@@ -59670,16 +59670,16 @@
       <c r="AK938" t="inlineStr"/>
       <c r="AL938" t="inlineStr"/>
       <c r="AM938" t="n">
-        <v>71.80017427686678</v>
+        <v>71.80018182355754</v>
       </c>
       <c r="AN938" t="n">
-        <v>72.94111215496619</v>
+        <v>72.94111982157735</v>
       </c>
       <c r="AO938" t="n">
-        <v>71.67231365425138</v>
+        <v>71.67232118750312</v>
       </c>
       <c r="AP938" t="n">
-        <v>72.58702850341797</v>
+        <v>72.5870361328125</v>
       </c>
       <c r="AQ938" t="n">
         <v>18347400</v>
@@ -59757,7 +59757,7 @@
       <c r="D940" t="inlineStr"/>
       <c r="E940" t="inlineStr"/>
       <c r="F940" t="n">
-        <v>72.27229309082031</v>
+        <v>72.27228546142578</v>
       </c>
       <c r="G940" t="inlineStr"/>
       <c r="H940" t="inlineStr">
@@ -59796,16 +59796,16 @@
       <c r="AK940" t="inlineStr"/>
       <c r="AL940" t="inlineStr"/>
       <c r="AM940" t="n">
-        <v>71.93787739603175</v>
+        <v>71.93786980193967</v>
       </c>
       <c r="AN940" t="n">
-        <v>72.97062269864524</v>
+        <v>72.97061499553183</v>
       </c>
       <c r="AO940" t="n">
-        <v>71.36740841927386</v>
+        <v>71.3674008854031</v>
       </c>
       <c r="AP940" t="n">
-        <v>72.27229309082031</v>
+        <v>72.27228546142578</v>
       </c>
       <c r="AQ940" t="n">
         <v>18095100</v>
@@ -59883,7 +59883,7 @@
       <c r="D942" t="inlineStr"/>
       <c r="E942" t="inlineStr"/>
       <c r="F942" t="n">
-        <v>72.10507202148438</v>
+        <v>72.10507965087891</v>
       </c>
       <c r="G942" t="inlineStr"/>
       <c r="H942" t="inlineStr">
@@ -59922,16 +59922,16 @@
       <c r="AK942" t="inlineStr"/>
       <c r="AL942" t="inlineStr"/>
       <c r="AM942" t="n">
-        <v>72.47883113151313</v>
+        <v>72.47883880045489</v>
       </c>
       <c r="AN942" t="n">
-        <v>72.77389581922277</v>
+        <v>72.77390351938514</v>
       </c>
       <c r="AO942" t="n">
-        <v>71.43624822374598</v>
+        <v>71.43625578237267</v>
       </c>
       <c r="AP942" t="n">
-        <v>72.10507202148438</v>
+        <v>72.10507965087891</v>
       </c>
       <c r="AQ942" t="n">
         <v>19957500</v>
@@ -60135,7 +60135,7 @@
       <c r="D946" t="inlineStr"/>
       <c r="E946" t="inlineStr"/>
       <c r="F946" t="n">
-        <v>75.4378662109375</v>
+        <v>75.43787384033203</v>
       </c>
       <c r="G946" t="inlineStr"/>
       <c r="H946" t="inlineStr">
@@ -60174,16 +60174,16 @@
       <c r="AK946" t="inlineStr"/>
       <c r="AL946" t="inlineStr"/>
       <c r="AM946" t="n">
-        <v>75.3983069062422</v>
+        <v>75.39831453163592</v>
       </c>
       <c r="AN946" t="n">
-        <v>75.64554690171337</v>
+        <v>75.64555455211166</v>
       </c>
       <c r="AO946" t="n">
-        <v>74.99283723715574</v>
+        <v>74.99284482154235</v>
       </c>
       <c r="AP946" t="n">
-        <v>75.4378662109375</v>
+        <v>75.43787384033203</v>
       </c>
       <c r="AQ946" t="n">
         <v>14067100</v>
@@ -60387,7 +60387,7 @@
       <c r="D950" t="inlineStr"/>
       <c r="E950" t="inlineStr"/>
       <c r="F950" t="n">
-        <v>74.68625640869141</v>
+        <v>74.68626403808594</v>
       </c>
       <c r="G950" t="inlineStr"/>
       <c r="H950" t="inlineStr">
@@ -60426,16 +60426,16 @@
       <c r="AK950" t="inlineStr"/>
       <c r="AL950" t="inlineStr"/>
       <c r="AM950" t="n">
-        <v>74.64670464815759</v>
+        <v>74.6467122735118</v>
       </c>
       <c r="AN950" t="n">
-        <v>75.03239844727392</v>
+        <v>75.03240611202774</v>
       </c>
       <c r="AO950" t="n">
-        <v>74.24122742360829</v>
+        <v>74.24123500754195</v>
       </c>
       <c r="AP950" t="n">
-        <v>74.68625640869141</v>
+        <v>74.68626403808594</v>
       </c>
       <c r="AQ950" t="n">
         <v>10655600</v>
@@ -60450,7 +60450,7 @@
       <c r="D951" t="inlineStr"/>
       <c r="E951" t="inlineStr"/>
       <c r="F951" t="n">
-        <v>72.38199615478516</v>
+        <v>72.38198852539062</v>
       </c>
       <c r="G951" t="inlineStr"/>
       <c r="H951" t="inlineStr">
@@ -60489,16 +60489,16 @@
       <c r="AK951" t="inlineStr"/>
       <c r="AL951" t="inlineStr"/>
       <c r="AM951" t="n">
-        <v>74.11267642593668</v>
+        <v>74.11266861412051</v>
       </c>
       <c r="AN951" t="n">
-        <v>74.3005737246623</v>
+        <v>74.30056589304088</v>
       </c>
       <c r="AO951" t="n">
-        <v>72.28309410315703</v>
+        <v>72.28308648418722</v>
       </c>
       <c r="AP951" t="n">
-        <v>72.38199615478516</v>
+        <v>72.38198852539062</v>
       </c>
       <c r="AQ951" t="n">
         <v>17711300</v>
@@ -60702,7 +60702,7 @@
       <c r="D955" t="inlineStr"/>
       <c r="E955" t="inlineStr"/>
       <c r="F955" t="n">
-        <v>72.91602325439453</v>
+        <v>72.91603088378906</v>
       </c>
       <c r="G955" t="inlineStr"/>
       <c r="H955" t="inlineStr">
@@ -60741,16 +60741,16 @@
       <c r="AK955" t="inlineStr"/>
       <c r="AL955" t="inlineStr"/>
       <c r="AM955" t="n">
-        <v>73.38082811093807</v>
+        <v>73.38083578896635</v>
       </c>
       <c r="AN955" t="n">
-        <v>73.53906533073955</v>
+        <v>73.53907302532461</v>
       </c>
       <c r="AO955" t="n">
-        <v>72.52043775005674</v>
+        <v>72.52044533806013</v>
       </c>
       <c r="AP955" t="n">
-        <v>72.91602325439453</v>
+        <v>72.91603088378906</v>
       </c>
       <c r="AQ955" t="n">
         <v>8711100</v>
@@ -60828,7 +60828,7 @@
       <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr"/>
       <c r="F957" t="n">
-        <v>73.95443725585938</v>
+        <v>73.95442962646484</v>
       </c>
       <c r="G957" t="inlineStr"/>
       <c r="H957" t="inlineStr">
@@ -60867,16 +60867,16 @@
       <c r="AK957" t="inlineStr"/>
       <c r="AL957" t="inlineStr"/>
       <c r="AM957" t="n">
-        <v>73.38083857007157</v>
+        <v>73.38083099985147</v>
       </c>
       <c r="AN957" t="n">
-        <v>73.9742206837373</v>
+        <v>73.97421305230183</v>
       </c>
       <c r="AO957" t="n">
-        <v>72.91603364727837</v>
+        <v>72.91602612500914</v>
       </c>
       <c r="AP957" t="n">
-        <v>73.95443725585938</v>
+        <v>73.95442962646484</v>
       </c>
       <c r="AQ957" t="n">
         <v>17042000</v>
@@ -61143,7 +61143,7 @@
       <c r="D962" t="inlineStr"/>
       <c r="E962" t="inlineStr"/>
       <c r="F962" t="n">
-        <v>75.48731994628906</v>
+        <v>75.48732757568359</v>
       </c>
       <c r="G962" t="inlineStr"/>
       <c r="H962" t="inlineStr">
@@ -61182,16 +61182,16 @@
       <c r="AK962" t="inlineStr"/>
       <c r="AL962" t="inlineStr"/>
       <c r="AM962" t="n">
-        <v>75.30930684133318</v>
+        <v>75.30931445273619</v>
       </c>
       <c r="AN962" t="n">
-        <v>75.91257305561886</v>
+        <v>75.91258072799313</v>
       </c>
       <c r="AO962" t="n">
-        <v>74.99283993754119</v>
+        <v>74.99284751695934</v>
       </c>
       <c r="AP962" t="n">
-        <v>75.48731994628906</v>
+        <v>75.48732757568359</v>
       </c>
       <c r="AQ962" t="n">
         <v>10988000</v>
@@ -61269,7 +61269,7 @@
       <c r="D964" t="inlineStr"/>
       <c r="E964" t="inlineStr"/>
       <c r="F964" t="n">
-        <v>74.61703491210938</v>
+        <v>74.61702728271484</v>
       </c>
       <c r="G964" t="inlineStr"/>
       <c r="H964" t="inlineStr">
@@ -61308,16 +61308,16 @@
       <c r="AK964" t="inlineStr"/>
       <c r="AL964" t="inlineStr"/>
       <c r="AM964" t="n">
-        <v>75.31920320766017</v>
+        <v>75.31919550647079</v>
       </c>
       <c r="AN964" t="n">
-        <v>75.50710049188038</v>
+        <v>75.50709277147901</v>
       </c>
       <c r="AO964" t="n">
-        <v>74.30056798876487</v>
+        <v>74.30056039172824</v>
       </c>
       <c r="AP964" t="n">
-        <v>74.61703491210938</v>
+        <v>74.61702728271484</v>
       </c>
       <c r="AQ964" t="n">
         <v>14892900</v>
@@ -61395,7 +61395,7 @@
       <c r="D966" t="inlineStr"/>
       <c r="E966" t="inlineStr"/>
       <c r="F966" t="n">
-        <v>73.19293212890625</v>
+        <v>73.19293975830078</v>
       </c>
       <c r="G966" t="inlineStr"/>
       <c r="H966" t="inlineStr">
@@ -61434,16 +61434,16 @@
       <c r="AK966" t="inlineStr"/>
       <c r="AL966" t="inlineStr"/>
       <c r="AM966" t="n">
-        <v>73.50939902889941</v>
+        <v>73.50940669128143</v>
       </c>
       <c r="AN966" t="n">
-        <v>73.69729629925511</v>
+        <v>73.69730398122294</v>
       </c>
       <c r="AO966" t="n">
-        <v>72.36220180069543</v>
+        <v>72.36220934349731</v>
       </c>
       <c r="AP966" t="n">
-        <v>73.19293212890625</v>
+        <v>73.19293975830078</v>
       </c>
       <c r="AQ966" t="n">
         <v>14522500</v>
@@ -61458,7 +61458,7 @@
       <c r="D967" t="inlineStr"/>
       <c r="E967" t="inlineStr"/>
       <c r="F967" t="n">
-        <v>71.5611572265625</v>
+        <v>71.56114959716797</v>
       </c>
       <c r="G967" t="inlineStr"/>
       <c r="H967" t="inlineStr">
@@ -61497,16 +61497,16 @@
       <c r="AK967" t="inlineStr"/>
       <c r="AL967" t="inlineStr"/>
       <c r="AM967" t="n">
-        <v>72.11497249741652</v>
+        <v>72.11496480897773</v>
       </c>
       <c r="AN967" t="n">
-        <v>72.97537054620801</v>
+        <v>72.97536276603907</v>
       </c>
       <c r="AO967" t="n">
-        <v>71.13590405925183</v>
+        <v>71.13589647519508</v>
       </c>
       <c r="AP967" t="n">
-        <v>71.5611572265625</v>
+        <v>71.56114959716797</v>
       </c>
       <c r="AQ967" t="n">
         <v>21168300</v>
@@ -61710,7 +61710,7 @@
       <c r="D971" t="inlineStr"/>
       <c r="E971" t="inlineStr"/>
       <c r="F971" t="n">
-        <v>74.56759643554688</v>
+        <v>74.56758880615234</v>
       </c>
       <c r="G971" t="inlineStr"/>
       <c r="H971" t="inlineStr">
@@ -61749,16 +61749,16 @@
       <c r="AK971" t="inlineStr"/>
       <c r="AL971" t="inlineStr"/>
       <c r="AM971" t="n">
-        <v>74.40935919068042</v>
+        <v>74.40935157747596</v>
       </c>
       <c r="AN971" t="n">
-        <v>74.94339857435402</v>
+        <v>74.94339090650924</v>
       </c>
       <c r="AO971" t="n">
-        <v>74.24123777688516</v>
+        <v>74.24123018088206</v>
       </c>
       <c r="AP971" t="n">
-        <v>74.56759643554688</v>
+        <v>74.56758880615234</v>
       </c>
       <c r="AQ971" t="n">
         <v>27677500</v>
@@ -61773,7 +61773,7 @@
       <c r="D972" t="inlineStr"/>
       <c r="E972" t="inlineStr"/>
       <c r="F972" t="n">
-        <v>76.15982055664062</v>
+        <v>76.15981292724609</v>
       </c>
       <c r="G972" t="inlineStr"/>
       <c r="H972" t="inlineStr">
@@ -61812,16 +61812,16 @@
       <c r="AK972" t="inlineStr"/>
       <c r="AL972" t="inlineStr"/>
       <c r="AM972" t="n">
-        <v>74.30057071183057</v>
+        <v>74.30056326868845</v>
       </c>
       <c r="AN972" t="n">
-        <v>76.17959643906403</v>
+        <v>76.17958880768843</v>
       </c>
       <c r="AO972" t="n">
-        <v>73.99399549068291</v>
+        <v>73.99398807825231</v>
       </c>
       <c r="AP972" t="n">
-        <v>76.15982055664062</v>
+        <v>76.15981292724609</v>
       </c>
       <c r="AQ972" t="n">
         <v>17375700</v>
@@ -61836,7 +61836,7 @@
       <c r="D973" t="inlineStr"/>
       <c r="E973" t="inlineStr"/>
       <c r="F973" t="n">
-        <v>77.24767303466797</v>
+        <v>77.24766540527344</v>
       </c>
       <c r="G973" t="inlineStr"/>
       <c r="H973" t="inlineStr">
@@ -61875,16 +61875,16 @@
       <c r="AK973" t="inlineStr"/>
       <c r="AL973" t="inlineStr"/>
       <c r="AM973" t="n">
-        <v>76.86197920417413</v>
+        <v>76.86197161287279</v>
       </c>
       <c r="AN973" t="n">
-        <v>77.88060688702538</v>
+        <v>77.8805991951189</v>
       </c>
       <c r="AO973" t="n">
-        <v>76.86197920417413</v>
+        <v>76.86197161287279</v>
       </c>
       <c r="AP973" t="n">
-        <v>77.24767303466797</v>
+        <v>77.24766540527344</v>
       </c>
       <c r="AQ973" t="n">
         <v>16342300</v>
@@ -61899,7 +61899,7 @@
       <c r="D974" t="inlineStr"/>
       <c r="E974" t="inlineStr"/>
       <c r="F974" t="n">
-        <v>78.19707489013672</v>
+        <v>78.19706726074219</v>
       </c>
       <c r="G974" t="inlineStr"/>
       <c r="H974" t="inlineStr">
@@ -61938,16 +61938,16 @@
       <c r="AK974" t="inlineStr"/>
       <c r="AL974" t="inlineStr"/>
       <c r="AM974" t="n">
-        <v>77.41579550486803</v>
+        <v>77.41578795169998</v>
       </c>
       <c r="AN974" t="n">
-        <v>78.43442320174785</v>
+        <v>78.43441554919613</v>
       </c>
       <c r="AO974" t="n">
-        <v>77.12899617013646</v>
+        <v>77.12898864495035</v>
       </c>
       <c r="AP974" t="n">
-        <v>78.19707489013672</v>
+        <v>78.19706726074219</v>
       </c>
       <c r="AQ974" t="n">
         <v>13954500</v>
@@ -62088,7 +62088,7 @@
       <c r="D977" t="inlineStr"/>
       <c r="E977" t="inlineStr"/>
       <c r="F977" t="n">
-        <v>79.23548126220703</v>
+        <v>79.23548889160156</v>
       </c>
       <c r="G977" t="inlineStr"/>
       <c r="H977" t="inlineStr">
@@ -62127,16 +62127,16 @@
       <c r="AK977" t="inlineStr"/>
       <c r="AL977" t="inlineStr"/>
       <c r="AM977" t="n">
-        <v>79.59150748085455</v>
+        <v>79.59151514452999</v>
       </c>
       <c r="AN977" t="n">
-        <v>80.20465787784035</v>
+        <v>80.20466560055458</v>
       </c>
       <c r="AO977" t="n">
-        <v>79.02780055885704</v>
+        <v>79.0278081682545</v>
       </c>
       <c r="AP977" t="n">
-        <v>79.23548126220703</v>
+        <v>79.23548889160156</v>
       </c>
       <c r="AQ977" t="n">
         <v>21685800</v>
